--- a/hasiltuning/hasiltuning.xlsx
+++ b/hasiltuning/hasiltuning.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>bias_output</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>mse_list</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -506,25 +511,30 @@
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0200673436652625</v>
+        <v>0.0245350300085461</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.2115004254608428), np.float64(-0.5276946396699229)], [np.float64(-0.4422364460651547), np.float64(-0.5256620501395372)], [np.float64(-0.4092842364202171), np.float64(-0.16675758311913125)], [np.float64(0.38356073354825415), np.float64(0.19734637514670228)]]]</t>
+          <t>[[[np.float64(-0.38295019123848234), np.float64(0.22382644848827513)], [np.float64(-0.1549665708574835), np.float64(-0.27327256527193405)], [np.float64(-0.13429922348623793), np.float64(-0.5788943711273205)], [np.float64(0.23222626424484907), np.float64(0.38459581098104817)]]]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[[0.9520836613170182, np.float64(-1.0489468079776292)]]</t>
+          <t>[[0.3299464457521193, np.float64(-1.1693792781297412)]]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[np.float64(0.5322911919751608), np.float64(0.974769672004118)]</t>
+          <t>[np.float64(0.845183068675232), np.float64(0.7486825910957824)]</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.5234188016607396</v>
+        <v>0.797068613191435</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[np.float64(7.242100421355892), np.float64(0.04160333499251651), np.float64(0.027823156657878857), np.float64(0.024629920844847733), np.float64(0.024628925432876647), np.float64(0.024627930168311805), np.float64(0.024626935051128614), np.float64(0.024625940081303414), np.float64(0.024624945258811266), np.float64(0.024623950583628235), np.float64(0.02462295605572998), np.float64(0.024621961675091772), np.float64(0.024620967441690088), np.float64(0.0246199733555001), np.float64(0.024618979416497752), np.float64(0.02461798562465842), np.float64(0.024616991979958484), np.float64(0.024615998482373024), np.float64(0.02461500513187819), np.float64(0.024614011928449676), np.float64(0.024613018872063002), np.float64(0.02461202596269413), np.float64(0.024611033200318738), np.float64(0.02461004058491277), np.float64(0.0246090481164515), np.float64(0.024608055794911224), np.float64(0.02460706362026742), np.float64(0.024606071592496028), np.float64(0.024605079711572695), np.float64(0.024604087977473283), np.float64(0.02460309639017384), np.float64(0.024602104949649567), np.float64(0.024601113655876777), np.float64(0.02460012250883094), np.float64(0.024599131508488012), np.float64(0.024598140654823845), np.float64(0.02459714994781431), np.float64(0.02459615938743515), np.float64(0.02459516897366202), np.float64(0.02459417870647094), np.float64(0.024593188585837686), np.float64(0.024592198611738166), np.float64(0.024591208784148322), np.float64(0.02459021910304352), np.float64(0.024589229568400216), np.float64(0.024588240180193958), np.float64(0.024587250938400782), np.float64(0.02458626184299595), np.float64(0.024585272893956133), np.float64(0.024584284091256944), np.float64(0.02458329543487414), np.float64(0.024582306924783453), np.float64(0.024581318560960994), np.float64(0.02458033034338267), np.float64(0.024579342272024435), np.float64(0.024578354346862123), np.float64(0.024577366567871354), np.float64(0.024576378935028526), np.float64(0.024575391448309024), np.float64(0.024574404107689147), np.float64(0.024573416913144696), np.float64(0.02457242986465163), np.float64(0.02457144296218591), np.float64(0.024570456205723394), np.float64(0.02456946959524015), np.float64(0.024568483130711787), np.float64(0.024567496812114627), np.float64(0.024566510639424416), np.float64(0.024565524612617105), np.float64(0.02456453873166878), np.float64(0.024563552996555323), np.float64(0.024562567407252746), np.float64(0.024561581963736995), np.float64(0.024560596665983776), np.float64(0.024559611513969685), np.float64(0.02455862650767016), np.float64(0.02455764164706138), np.float64(0.02455665693211941), np.float64(0.024555672362820247), np.float64(0.02455468793913965), np.float64(0.024553703661053916), np.float64(0.02455271952853887), np.float64(0.024551735541570623), np.float64(0.024550751700125217), np.float64(0.024549768004178563), np.float64(0.024548784453706902), np.float64(0.024547801048685862), np.float64(0.024546817789091818), np.float64(0.024545834674900895), np.float64(0.024544851706088833), np.float64(0.024543868882631763), np.float64(0.024542886204505888), np.float64(0.024541903671687102), np.float64(0.024540921284151748), np.float64(0.02453993904187529), np.float64(0.024538956944834482), np.float64(0.024537974993005026), np.float64(0.02453699318636296), np.float64(0.024536011524884545), np.float64(0.0245350300085461)]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -548,25 +558,30 @@
         <v>200</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02681793938355609</v>
+        <v>0.003286981832139071</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.23319311762303788), np.float64(0.351204430778689)], [np.float64(-0.42625993837347925), np.float64(0.3172352044821001)], [np.float64(-0.13361143024462205), np.float64(0.7422645397333073)], [np.float64(-0.015333194466947999), np.float64(0.16216886990535015)]]]</t>
+          <t>[[[np.float64(0.07819967313010265), np.float64(-0.25716266974555246)], [np.float64(-0.29955986517315325), np.float64(0.5957351145943378)], [np.float64(-0.47971837124498545), np.float64(0.5006112675691756)], [np.float64(-0.11843351900174985), np.float64(0.5989497106383666)]]]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[[0.8636145157378688, np.float64(-0.005168728545372827)]]</t>
+          <t>[[0.3542217699460102, np.float64(-0.1317835384494523)]]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[np.float64(0.8383170289340438), np.float64(0.1476403650193591)]</t>
+          <t>[np.float64(0.8664977301283041), np.float64(0.7404640039281338)]</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.3160145662983203</v>
+        <v>0.2882174819221491</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[np.float64(2.1174398945506683), np.float64(0.12723233701920122), np.float64(0.009615098385199864), np.float64(0.003286981832139071), np.float64(0.003371712266132386), np.float64(0.0035062414949614666), np.float64(0.003548128544643692), np.float64(0.0035593597773044723), np.float64(0.0035622730288166543), np.float64(0.003563022509054702), np.float64(0.003563214922257182), np.float64(0.0035632642938597287), np.float64(0.0035632769604588286), np.float64(0.0035632802100401513), np.float64(0.0035632810437065043), np.float64(0.003563281257577285), np.float64(0.003563281312446932), np.float64(0.0035632813265218965), np.float64(0.0035632813301309566), np.float64(0.003563281331057871), np.float64(0.0035632813312950454), np.float64(0.003563281331354793), np.float64(0.003563281331365858), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338), np.float64(0.0035632813313701338)]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -590,25 +605,30 @@
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01543542821615301</v>
+        <v>0.02672051649963463</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[[[np.float64(-1.0863034790825625), np.float64(-4.043951123120364)], [np.float64(-0.36719315061894703), np.float64(-4.560718980203771)], [np.float64(-1.2827993099858317), np.float64(-4.236485469130998)], [np.float64(-0.5563895141875151), np.float64(-2.1103898324768147)]]]</t>
+          <t>[[[np.float64(-3.964121376186635), np.float64(-5.029377655286155)], [np.float64(-3.414919670617408), np.float64(-4.394627920345557)], [np.float64(-4.108082639508156), np.float64(-4.573578081919938)], [np.float64(-2.06545663967119), np.float64(-2.165571244676427)]]]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[[0.8568832896060903, np.float64(-6.844787325668737)]]</t>
+          <t>[[0.9522725220199975, np.float64(-7.383878987136413)]]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[np.float64(0.18119579527989138), np.float64(0.7055905205861978)]</t>
+          <t>[np.float64(0.5277884692762436), np.float64(0.6281285915870203)]</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.7715398445800549</v>
+        <v>0.5800782559769438</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[np.float64(5.297540004058864), np.float64(0.03136260881618309), np.float64(0.031309705756641264), np.float64(0.031256924752657754), np.float64(0.03120426554394077), np.float64(0.031151727870735814), np.float64(0.031099311473823128), np.float64(0.031047016094518345), np.float64(0.030994841474670166), np.float64(0.030942787356659188), np.float64(0.030890853483397356), np.float64(0.030839039598327175), np.float64(0.030787345445419553), np.float64(0.0307357707691737), np.float64(0.030684315314616007), np.float64(0.03063297882729838), np.float64(0.0305817610532972), np.float64(0.03053066173921309), np.float64(0.030479680632169107), np.float64(0.03042881747980978), np.float64(0.0303780720303002), np.float64(0.030327444032325155), np.float64(0.030276933235087417), np.float64(0.030226539388307674), np.float64(0.030176262242222196), np.float64(0.030126101547583058), np.float64(0.03007605705565668), np.float64(0.030026128518221562), np.float64(0.02997631568757019), np.float64(0.029926618316504228), np.float64(0.029877036158336652), np.float64(0.029827568966888752), np.float64(0.029778216496490123), np.float64(0.02972897850197762), np.float64(0.029679854738693168), np.float64(0.029630844962484422), np.float64(0.029581948929702142), np.float64(0.029533166397200692), np.float64(0.02948449712233576), np.float64(0.029435940862964177), np.float64(0.029387497377442204), np.float64(0.029339166424624755), np.float64(0.02929094776386516), np.float64(0.029242841155012904), np.float64(0.029194846358413584), np.float64(0.02914696313490727), np.float64(0.02909919124582803), np.float64(0.029051530453002114), np.float64(0.029003980518748106), np.float64(0.028956541205875045), np.float64(0.028909212277681673), np.float64(0.028861993497955724), np.float64(0.028814884630971985), np.float64(0.02876788544149313), np.float64(0.02872099569476643), np.float64(0.028674215156524827), np.float64(0.028627543592984344), np.float64(0.02858098077084439), np.float64(0.028534526457285936), np.float64(0.028488180419970668), np.float64(0.028441942427040443), np.float64(0.028395812247115935), np.float64(0.02834978964929543), np.float64(0.02830387440315449), np.float64(0.028258066278744987), np.float64(0.02821236504659305), np.float64(0.02816677047769919), np.float64(0.028121282343537207), np.float64(0.02807590041605314), np.float64(0.028030624467663568), np.float64(0.02798545427125574), np.float64(0.02794038960018604), np.float64(0.027895430228279366), np.float64(0.027850575929827474), np.float64(0.027805826479589426), np.float64(0.027761181652788562), np.float64(0.027716641225113872), np.float64(0.027672204972717076), np.float64(0.027627872672212797), np.float64(0.027583644100677485), np.float64(0.027539519035648233), np.float64(0.02749549725512215), np.float64(0.02745157853755436), np.float64(0.02740776266185936), np.float64(0.027364049407407526), np.float64(0.02732043855402569), np.float64(0.027276929881995832), np.float64(0.027233523172054266), np.float64(0.02719021820539045), np.float64(0.027147014763646084), np.float64(0.02710391262891496), np.float64(0.02706091158374097), np.float64(0.027018011411117683), np.float64(0.026975211894487133), np.float64(0.026932512817739583), np.float64(0.02688991396521221), np.float64(0.026847415121687992), np.float64(0.026805016072394845), np.float64(0.02676271660300529), np.float64(0.02672051649963463)]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -632,25 +652,30 @@
         <v>200</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04355654715409948</v>
+        <v>0.002764246387773845</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[[[np.float64(-5.552634851416673), np.float64(-6.7137717785467235)], [np.float64(-5.389074303073881), np.float64(-5.847716169210349)], [np.float64(-5.615219227453892), np.float64(-6.59869812122525)], [np.float64(-2.044390323639578), np.float64(-2.9520655051795166)]]]</t>
+          <t>[[[np.float64(-2.021567071519746), np.float64(1.6958788623316225)], [np.float64(-1.5917571700154158), np.float64(1.1066355764981606)], [np.float64(-2.0498171415424573), np.float64(1.562577387212551)], [np.float64(-0.9939626122364985), np.float64(0.6877922170179568)]]]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[[0.3756027501415624, np.float64(-10.822161083209975)]]</t>
+          <t>[[0.6802813286690749, np.float64(2.2174647830277103)]]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[np.float64(0.6264503419497636), np.float64(0.7253874390469605)]</t>
+          <t>[np.float64(0.8799185336017036), np.float64(0.1207231071139185)]</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.5240381385561941</v>
+        <v>0.09522389589004743</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[np.float64(0.4997634461287974), np.float64(0.27267660186445075), np.float64(0.18391747458540814), np.float64(0.12257598538185306), np.float64(0.08047099130876348), np.float64(0.05202597337290102), np.float64(0.033209152019761934), np.float64(0.021054704136314252), np.float64(0.013402157698751393), np.float64(0.008714480040594441), np.float64(0.005929340149410035), np.float64(0.0043338827408703805), np.float64(0.003463038013844872), np.float64(0.003021249262390152), np.float64(0.0028252773250106583), np.float64(0.002764246387773845), np.float64(0.0027727616266618868), np.float64(0.0028133742568182), np.float64(0.002865436144670386), np.float64(0.002918171425026217), np.float64(0.002966454828016494), np.float64(0.0030082883219382703), np.float64(0.003043323020148436), np.float64(0.003072013371660718), np.float64(0.003095147455189477), np.float64(0.0031135970432471095), np.float64(0.0031281934393272786), np.float64(0.0031396733903541045), np.float64(0.003148662584906589), np.float64(0.003155678135237556), np.float64(0.0031611396453725517), np.float64(0.0031653832483615908), np.float64(0.003168675734930407), np.float64(0.0031712274315162468), np.float64(0.003173203321191756), np.float64(0.003174732333943661), np.float64(0.003175914940203844), np.float64(0.0031768292647762356), np.float64(0.0031775359573961545), np.float64(0.0031780820426779103), np.float64(0.003178503946168246), np.float64(0.0031788298625066713), np.float64(0.0031790816030527504), np.float64(0.0031792760337021435), np.float64(0.003179426191858164), np.float64(0.0031795421528501744), np.float64(0.003179631701417486), np.float64(0.003179700851512161), np.float64(0.003179754248556501), np.float64(0.0031797954805209013), np.float64(0.0031798273184732444), np.float64(0.003179851902429393), np.float64(0.0031798708850026935), np.float64(0.003179885542358773), np.float64(0.0031798968599533292), np.float64(0.0031799055987255295), np.float64(0.0031799123462746747), np.float64(0.003179917556315043), np.float64(0.003179921579180662), np.float64(0.0031799246853756566), np.float64(0.0031799270837779272), np.float64(0.003179928935663579), np.float64(0.0031799303655716525), np.float64(0.0031799314696475617), np.float64(0.0031799323221408477), np.float64(0.0031799329803813095), np.float64(0.003179933488618328), np.float64(0.003179933881046282), np.float64(0.003179934184061468), np.float64(0.003179934418022952), np.float64(0.003179934598671941), np.float64(0.0031799347381635894), np.float64(0.003179934845863313), np.float64(0.0031799349290273678), np.float64(0.0031799349932341734), np.float64(0.0031799350428194607), np.float64(0.003179935081093944), np.float64(0.00317993511065085), np.float64(0.0031799351334725894), np.float64(0.0031799351510967936), np.float64(0.00317993516470281), np.float64(0.003179935175216169), np.float64(0.0031799351833264352), np.float64(0.003179935189590945), np.float64(0.003179935194422021), np.float64(0.0031799351981499193), np.float64(0.003179935201033429), np.float64(0.0031799352032539936), np.float64(0.003179935204969911), np.float64(0.003179935206304611), np.float64(0.0031799352073364567), np.float64(0.0031799352081335716), np.float64(0.003179935208740518), np.float64(0.0031799352092110283), np.float64(0.0031799352095772315), np.float64(0.003179935209852519), np.float64(0.003179935210077882), np.float64(0.0031799352102451777), np.float64(0.003179935210376216), np.float64(0.0031799352104759492), np.float64(0.003179935210548125), np.float64(0.003179935210610838), np.float64(0.0031799352106516477), np.float64(0.00317993521068592), np.float64(0.003179935210715583), np.float64(0.003179935210743943), np.float64(0.0031799352107548637), np.float64(0.00317993521076125), np.float64(0.0031799352107642407), np.float64(0.0031799352107662365), np.float64(0.003179935210767793), np.float64(0.003179935210769164), np.float64(0.003179935210770422), np.float64(0.0031799352107716055), np.float64(0.00317993521077273), np.float64(0.0031799352107738203), np.float64(0.0031799352107748802), np.float64(0.0031799352107758855), np.float64(0.0031799352107768557), np.float64(0.003179935210777805), np.float64(0.0031799352107787153), np.float64(0.003179935210779626), np.float64(0.003179935210780469), np.float64(0.0031799352107813035), np.float64(0.0031799352107821023), np.float64(0.0031799352107828725), np.float64(0.0031799352107836493), np.float64(0.0031799352107843627), np.float64(0.00317993521078507), np.float64(0.003179935210785755), np.float64(0.0031799352107864122), np.float64(0.0031799352107870697), np.float64(0.0031799352107876916), np.float64(0.0031799352107883), np.float64(0.003179935210788889), np.float64(0.0031799352107894597), np.float64(0.0031799352107900183), np.float64(0.003179935210790541), np.float64(0.0031799352107910687), np.float64(0.0031799352107915665), np.float64(0.0031799352107920622), np.float64(0.003179935210792531), np.float64(0.0031799352107930003), np.float64(0.0031799352107934427), np.float64(0.003179935210793879), np.float64(0.0031799352107942905), np.float64(0.003179935210794698), np.float64(0.003179935210795082), np.float64(0.0031799352107954684), np.float64(0.0031799352107958344), np.float64(0.0031799352107961974), np.float64(0.003179935210796553), np.float64(0.003179935210796888), np.float64(0.0031799352107972157), np.float64(0.003179935210797539), np.float64(0.003179935210797848), np.float64(0.003179935210798148), np.float64(0.0031799352107984382), np.float64(0.0031799352107987223), np.float64(0.003179935210798985), np.float64(0.0031799352107992666), np.float64(0.0031799352107995124), np.float64(0.003179935210799758), np.float64(0.003179935210799991), np.float64(0.0031799352108002363), np.float64(0.0031799352108004665), np.float64(0.003179935210800679), np.float64(0.0031799352108008985), np.float64(0.003179935210801098), np.float64(0.0031799352108012823), np.float64(0.0031799352108014796), np.float64(0.0031799352108016683), np.float64(0.0031799352108018595), np.float64(0.0031799352108020456), np.float64(0.003179935210802205), np.float64(0.0031799352108023756), np.float64(0.003179935210802536), np.float64(0.0031799352108026952), np.float64(0.003179935210802842), np.float64(0.0031799352108029997), np.float64(0.0031799352108031493), np.float64(0.0031799352108032803), np.float64(0.0031799352108034186), np.float64(0.00317993521080354), np.float64(0.0031799352108036615), np.float64(0.003179935210803789), np.float64(0.0031799352108039048), np.float64(0.0031799352108040236), np.float64(0.0031799352108041338), np.float64(0.003179935210804253), np.float64(0.003179935210804349), np.float64(0.0031799352108044564), np.float64(0.003179935210804565), np.float64(0.003179935210804663), np.float64(0.0031799352108047496), np.float64(0.0031799352108048454), np.float64(0.0031799352108049313), np.float64(0.0031799352108050163), np.float64(0.0031799352108050965), np.float64(0.0031799352108051733)]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -674,25 +699,30 @@
         <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03186165417023613</v>
+        <v>0.04998617348294509</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.6609737479158626), np.float64(0.0815214865171508)], [np.float64(0.7925081614996181), np.float64(0.8046134103041273)], [np.float64(0.07564886405128765), np.float64(0.18331829952134193)], [np.float64(0.2728610657851987), np.float64(0.28102591990233367)]]]</t>
+          <t>[[[np.float64(0.42355222612704624), np.float64(0.8033415836504266)], [np.float64(0.06874886016526306), np.float64(0.2751220114850584)], [np.float64(0.7323739018367629), np.float64(0.5236338924371599)], [np.float64(0.8311982111091333), np.float64(0.2665805396958154)]]]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[[0.7547985812030308, np.float64(0.589722674431118)]]</t>
+          <t>[[0.9817348891179016, np.float64(0.18440748301640308)]]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[np.float64(0.4170201829835619), np.float64(0.5119328305273879)]</t>
+          <t>[np.float64(0.9516302834802354), np.float64(0.7160334865597269)]</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.9939596569529009</v>
+        <v>0.8536438533184192</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[np.float64(0.05351162841010797), np.float64(0.053482878259116406), np.float64(0.05345399900741264), np.float64(0.05342499026017996), np.float64(0.05339585162404595), np.float64(0.05336658270712861), np.float64(0.05333718311907551), np.float64(0.053307652471113486), np.float64(0.05327799037608886), np.float64(0.05324819644851201), np.float64(0.05321827030460618), np.float64(0.05318821156235074), np.float64(0.053158019841526565), np.float64(0.053127694763764735), np.float64(0.05309723595259352), np.float64(0.05306664303348441), np.float64(0.05303591563389949), np.float64(0.053005053383342285), np.float64(0.052974055913406294), np.float64(0.0529429228578215), np.float64(0.052911653852507304), np.float64(0.05288024853562066), np.float64(0.05284870654760617), np.float64(0.052817027531250435), np.float64(0.05278521113172954), np.float64(0.05275325699666337), np.float64(0.05272116477616563), np.float64(0.05268893412290022), np.float64(0.05265656469213186), np.float64(0.05262405614177771), np.float64(0.05259140813246646), np.float64(0.05255862032758964), np.float64(0.05252569239335428), np.float64(0.052492623998843455), np.float64(0.05245941481606809), np.float64(0.05242606452002322), np.float64(0.052392572788746705), np.float64(0.052358939303374756), np.float64(0.052325163748196964), np.float64(0.05229124581071837), np.float64(0.0522571851817139), np.float64(0.05222298155528983), np.float64(0.052188634628939384), np.float64(0.05215414410360356), np.float64(0.052119509683731365), np.float64(0.052084731077338416), np.float64(0.05204980799606732), np.float64(0.05201474015525045), np.float64(0.051979527273969074), np.float64(0.05194416907511321), np.float64(0.05190866528544634), np.float64(0.051873015635666805), np.float64(0.05183721986046879), np.float64(0.05180127769860623), np.float64(0.05176518889295447), np.float64(0.05172895319057564), np.float64(0.05169257034278125), np.float64(0.051656040105195054), np.float64(0.051619362237818336), np.float64(0.05158253650509524), np.float64(0.051545562675976375), np.float64(0.05150844052398351), np.float64(0.051471169827275835), np.float64(0.05143375036871536), np.float64(0.051396181935932275), np.float64(0.05135846432139072), np.float64(0.051320597322457154), np.float64(0.051282580741463045), np.float64(0.05124441438577453), np.float64(0.051206098067859016), np.float64(0.051167631605350955), np.float64(0.05112901482111991), np.float64(0.05109024754333845), np.float64(0.05105132960554667), np.float64(0.051012260846724715), np.float64(0.050973041111357066), np.float64(0.050933670249502565), np.float64(0.05089414811686102), np.float64(0.05085447457484091), np.float64(0.050814649490628666), np.float64(0.050774672737257734), np.float64(0.05073454419367498), np.float64(0.05069426374481118), np.float64(0.05065383128164768), np.float64(0.05061324670128477), np.float64(0.050572509907013716), np.float64(0.05053162080837962), np.float64(0.05049057932125457), np.float64(0.05044938536790385), np.float64(0.05040803887705484), np.float64(0.050366539783964805), np.float64(0.05032488803049002), np.float64(0.050283083565152945), np.float64(0.05024112634321184), np.float64(0.05019901632672564), np.float64(0.05015675348462559), np.float64(0.05011433779278063), np.float64(0.05007176923406463), np.float64(0.05002904779842399), np.float64(0.04998617348294509)]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -716,25 +746,30 @@
         <v>200</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01306912589365366</v>
+        <v>0.03061023507145081</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.9362371153148785), np.float64(1.0010718886492382)], [np.float64(0.2787470274568253), np.float64(0.07542329303275783)], [np.float64(0.7859438388320936), np.float64(0.1210117093100933)], [np.float64(0.07649718385368237), np.float64(0.5240276834855577)]]]</t>
+          <t>[[[np.float64(-0.07682597636099747), np.float64(-0.012534103172321592)], [np.float64(0.06717400158291618), np.float64(0.6944428224613499)], [np.float64(0.4662048393571969), np.float64(-0.13678936779714865)], [np.float64(-0.023899444926219034), np.float64(0.7443784283193334)]]]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[[0.731564236362823, np.float64(0.9769027934107855)]]</t>
+          <t>[[0.03859437710306024, np.float64(0.4995281516893706)]]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[np.float64(0.4358643946394762), np.float64(0.1258892142142101)]</t>
+          <t>[np.float64(0.3739814460448295), np.float64(0.7025419212147411)]</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.126201097166025</v>
+        <v>0.9850440932868135</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>[np.float64(0.035041207839345445), np.float64(0.03502256420757854), np.float64(0.03500388099251285), np.float64(0.03498515818938064), np.float64(0.03496639579424373), np.float64(0.03494759380400281), np.float64(0.03492875221640148), np.float64(0.03490987103002875), np.float64(0.03489095024432879), np.float64(0.034871989859606475), np.float64(0.03485298987703261), np.float64(0.034833950298646055), np.float64(0.03481487112736554), np.float64(0.034795752366992685), np.float64(0.03477659402221631), np.float64(0.03475739609861934), np.float64(0.034738158602683034), np.float64(0.034718881541796226), np.float64(0.03469956492425915), np.float64(0.034680208759286894), np.float64(0.034660813057016945), np.float64(0.03464137782851467), np.float64(0.03462190308578154), np.float64(0.03460238884175324), np.float64(0.03458283511031435), np.float64(0.03456324190630054), np.float64(0.034543609245497355), np.float64(0.034523937144658984), np.float64(0.034504225621501176), np.float64(0.03448447469471409), np.float64(0.03446468438396487), np.float64(0.03444485470990574), np.float64(0.03442498569417519), np.float64(0.03440507735940704), np.float64(0.03438512972923624), np.float64(0.03436514282829935), np.float64(0.03434511668224725), np.float64(0.0343250513177409), np.float64(0.03430494676246756), np.float64(0.03428480304513793), np.float64(0.034264620195492944), np.float64(0.034244398244312864), np.float64(0.034224137223419604), np.float64(0.034203837165680394), np.float64(0.034183498105015586), np.float64(0.03416312007640133), np.float64(0.034142703115879684), np.float64(0.034122247260555925), np.float64(0.034101752548608796), np.float64(0.034081219019295145), np.float64(0.03406064671295503), np.float64(0.03404003567101391), np.float64(0.03401938593599044), np.float64(0.03399869755150034), np.float64(0.03397797056225968), np.float64(0.03395720501409412), np.float64(0.033936400953936206), np.float64(0.03391555842983712), np.float64(0.03389467749097008), np.float64(0.033873758187630304), np.float64(0.03385280057124456), np.float64(0.033831804694373614), np.float64(0.03381077061071742), np.float64(0.033789698375117375), np.float64(0.03376858804356533), np.float64(0.03374743967320305), np.float64(0.033726253322331305), np.float64(0.03370502905040691), np.float64(0.03368376691805669), np.float64(0.033662466987071794), np.float64(0.03364112932041892), np.float64(0.03361975398224265), np.float64(0.03359834103786615), np.float64(0.03357689055380022), np.float64(0.03355540259774298), np.float64(0.03353387723858508), np.float64(0.03351231454641697), np.float64(0.033490714592524666), np.float64(0.03346907744940344), np.float64(0.03344740319075115), np.float64(0.03342569189148045), np.float64(0.0334039436277186), np.float64(0.03338215847680878), np.float64(0.03336033651731649), np.float64(0.03333847782903454), np.float64(0.03331658249298208), np.float64(0.03329465059141021), np.float64(0.03327268220780434), np.float64(0.033250677426888677), np.float64(0.03322863633462518), np.float64(0.03320655901822305), np.float64(0.033184445566135826), np.float64(0.03316229606806377), np.float64(0.03314011061496535), np.float64(0.03311788929904861), np.float64(0.03309563221378272), np.float64(0.03307333945389193), np.float64(0.033051011115368165), np.float64(0.03302864729546433), np.float64(0.033006248092700495), np.float64(0.03298381360686438), np.float64(0.032961343939021136), np.float64(0.0329388391915023), np.float64(0.032916299467918894), np.float64(0.03289372487315964), np.float64(0.03287111551338906), np.float64(0.032848471496056346), np.float64(0.032825792929888374), np.float64(0.032803079924901515), np.float64(0.03278033259239568), np.float64(0.032757551044957915), np.float64(0.032734735396461635), np.float64(0.032711885762074934), np.float64(0.032689002258250374), np.float64(0.032666085002737016), np.float64(0.03264313411457691), np.float64(0.03262014971410463), np.float64(0.0325971319229497), np.float64(0.0325740808640361), np.float64(0.03255099666158687), np.float64(0.0325278794411187), np.float64(0.032504729329448034), np.float64(0.03248154645468656), np.float64(0.03245833094624308), np.float64(0.032435082934827934), np.float64(0.032411802552447806), np.float64(0.03238848993240694), np.float64(0.03236514520930601), np.float64(0.032341768519046604), np.float64(0.03231835999882698), np.float64(0.0322949197871396), np.float64(0.03227144802377829), np.float64(0.032247944849828264), np.float64(0.032224410407671884), np.float64(0.032200844840987425), np.float64(0.032177248294746094), np.float64(0.032153620915208056), np.float64(0.03212996284992982), np.float64(0.032106274247754994), np.float64(0.03208255525881903), np.float64(0.032058806034541726), np.float64(0.03203502672763181), np.float64(0.032011217492079955), np.float64(0.03198737848316307), np.float64(0.03196350985743368), np.float64(0.03193961177272708), np.float64(0.03191568438815298), np.float64(0.03189172786409835), np.float64(0.03186774236222274), np.float64(0.031843728045452505), np.float64(0.03181968507798339), np.float64(0.03179561362527798), np.float64(0.0317715138540578), np.float64(0.031747385932306665), np.float64(0.031723230029261744), np.float64(0.03169904631541661), np.float64(0.031674834962512485), np.float64(0.03165059614354212), np.float64(0.03162633003273592), np.float64(0.03160203680557238), np.float64(0.031577716638758586), np.float64(0.0315533697102362), np.float64(0.03152899619918089), np.float64(0.03150459628598707), np.float64(0.03148017015227513), np.float64(0.031455717980879226), np.float64(0.03143123995584989), np.float64(0.031406736262438895), np.float64(0.03138220708710942), np.float64(0.03135765261752084), np.float64(0.03133307304252246), np.float64(0.031308468552160656), np.float64(0.03128383933765811), np.float64(0.03125918559142324), np.float64(0.031234507507037296), np.float64(0.031209805279246907), np.float64(0.031185079103965466), np.float64(0.03116032917826155), np.float64(0.03113555570035942), np.float64(0.03111075886962771), np.float64(0.031085938886573787), np.float64(0.03106109595284097), np.float64(0.031036230271203284), np.float64(0.03101134204554974), np.float64(0.030986431480890517), np.float64(0.030961498783345556), np.float64(0.030936544160133975), np.float64(0.03091156781957218), np.float64(0.030886569971066417), np.float64(0.030861550825099896), np.float64(0.03083651059323974), np.float64(0.030811449488109627), np.float64(0.0307863677234034), np.float64(0.030761265513861633), np.float64(0.030736143075276754), np.float64(0.030711000624470408), np.float64(0.030685838379299085), np.float64(0.030660656558642658), np.float64(0.030635455382394813), np.float64(0.030610235071450814)]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -758,25 +793,30 @@
         <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00982887128480186</v>
+        <v>0.009520830103446129</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[[[np.float64(1.5020515154607565), np.float64(0.4504437766436461)], [np.float64(1.2186581084545045), np.float64(0.6532313890057757)], [np.float64(0.745775221483439), np.float64(1.0483388565417318)], [np.float64(0.6311705759638688), np.float64(0.5095620990156101)]]]</t>
+          <t>[[[np.float64(0.7802950026145793), np.float64(0.9830262857658661)], [np.float64(0.19870112586827077), np.float64(0.7021308808372365)], [np.float64(0.6407583753461101), np.float64(1.0058585100308135)], [np.float64(0.42491636208989525), np.float64(0.4215314850266825)]]]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[[0.30766584522286344, np.float64(0.6082349482449207)]]</t>
+          <t>[[0.08928696161058902, np.float64(0.3472069608782139)]]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[np.float64(0.6204272343240831), np.float64(0.05569062671061494)]</t>
+          <t>[np.float64(0.7834656409659974), np.float64(0.3860248203346541)]</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.2094041659091502</v>
+        <v>0.06783459440528528</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[np.float64(0.00952083010344613), np.float64(0.009525946669078553), np.float64(0.009531183821014047), np.float64(0.00953653403510075), np.float64(0.00954199013607398), np.float64(0.009547545281205997), np.float64(0.009553192944760763), np.float64(0.009558926903214006), np.float64(0.009564741221197803), np.float64(0.00957063023813319), np.float64(0.009576588555514924), np.float64(0.009582611024815108), np.float64(0.009588692735974307), np.float64(0.009594829006449366), np.float64(0.009601015370790474), np.float64(0.009607247570719657), np.float64(0.009613521545685927), np.float64(0.0096198334238723), np.float64(0.009626179513632227), np.float64(0.009632556295334162), np.float64(0.00963896041359257), np.float64(0.009645388669867087), np.float64(0.009651838015411071), np.float64(0.009658305544551613), np.float64(0.0096647884882852), np.float64(0.009671284208172825), np.float64(0.009677790190520149), np.float64(0.009684304040828401), np.float64(0.009690823478502456), np.float64(0.009697346331803403), np.float64(0.009703870533035099), np.float64(0.009710394113950539), np.float64(0.00971691520136994), np.float64(0.009723432012998388), np.float64(0.009729942853435099), np.float64(0.009736446110363072), np.float64(0.009742940250912317), np.float64(0.009749423818187176), np.float64(0.009755895427950013), np.float64(0.009762353765454238), np.float64(0.009768797582419216), np.float64(0.009775225694140155), np.float64(0.009781636976727898), np.float64(0.009788030364469872), np.float64(0.009794404847309247), np.float64(0.009800759468434972), np.float64(0.009807093321978544), np.float64(0.009813405550812023), np.float64(0.009819695344442375), np.float64(0.009825961936998286), np.float64(0.009832204605304241), np.float64(0.009838422667040141), np.float64(0.009844615478978372), np.float64(0.009850782435299557), np.float64(0.009856922965979883), np.float64(0.009863036535248018), np.float64(0.009869122640109059), np.float64(0.009875180808930892), np.float64(0.009881210600092559), np.float64(0.00988721160068839), np.float64(0.009893183425289206), np.float64(0.00989912571475522), np.float64(0.009905038135099383), np.float64(0.009910920376399426), np.float64(0.009916772151755397), np.float64(0.009922593196291258), np.float64(0.009928383266198697), np.float64(0.009934142137820836), np.float64(0.009939869606774761), np.float64(0.009945565487110146), np.float64(0.009951229610503856), np.float64(0.009956861825487903), np.float64(0.009962461996708508), np.float64(0.009968030004217457), np.float64(0.00997356574279255), np.float64(0.009979069121285199), np.float64(0.009984540061995697), np.float64(0.00998997850007543), np.float64(0.009995384382950941), np.float64(0.010000757669774778), np.float64(0.010006098330897), np.float64(0.010011406347358627), np.float64(0.010016681710407024), np.float64(0.010021924421029543), np.float64(0.010027134489507254), np.float64(0.010032311934986923), np.float64(0.010037456785070299), np.float64(0.0100425690754196), np.float64(0.01004764884938002), np.float64(0.01005269615761728), np.float64(0.010057711057769524), np.float64(0.010062693614114158), np.float64(0.01006764389724743), np.float64(0.010072561983777505), np.float64(0.010077447956030102), np.float64(0.01008230190176572), np.float64(0.010087123913908605), np.float64(0.01009191409028618), np.float64(0.01009667253338061), np.float64(0.010101399350087841)]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -800,25 +840,30 @@
         <v>200</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01120080001507305</v>
+        <v>0.01109443101133918</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.26931246324531294), np.float64(0.22667186439221912)], [np.float64(0.17929449074785578), np.float64(0.6943693680488952)], [np.float64(0.4296463623762066), np.float64(0.582101458094298)], [np.float64(0.6851158051981379), np.float64(0.49149977979422116)]]]</t>
+          <t>[[[np.float64(0.6665715737692073), np.float64(-0.30742563601582723)], [np.float64(0.02220617566227782), np.float64(0.5240728119868043)], [np.float64(0.25534404125915666), np.float64(-0.26941405965790377)], [np.float64(0.07906398618985289), np.float64(0.8052557919032751)]]]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[[0.7488142645636368, np.float64(0.49735205353137846)]]</t>
+          <t>[[0.6033840137917756, np.float64(-0.027100253807244165)]]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[np.float64(0.29328482283222623), np.float64(0.9074073735495636)]</t>
+          <t>[np.float64(0.36552848561267176), np.float64(0.9497257839841555)]</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.09159236917308002</v>
+        <v>0.2751786947688795</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[np.float64(0.01621866687387865), np.float64(0.01609436024786335), np.float64(0.01597133816050089), np.float64(0.01584968164748135), np.float64(0.015729467965554134), np.float64(0.015610770383486459), np.float64(0.015493657998468052), np.float64(0.01537819557886541), np.float64(0.015264443433907465), np.float64(0.01515245731060038), np.float64(0.015042288317884966), np.float64(0.014933982877744292), np.float64(0.014827582702746022), np.float64(0.014723124799207642), np.float64(0.014620641494976449), np.float64(0.014520160490600701), np.float64(0.014421704932491317), np.float64(0.014325293506520828), np.float64(0.01423094055039649), np.float64(0.014138656183035026), np.float64(0.01404844644910126), np.float64(0.013960313476857214), np.float64(0.013874255647423268), np.float64(0.013790267773598484), np.float64(0.013708341286389826), np.float64(0.013628464427478743), np.float64(0.013550622445913381), np.float64(0.013474797797398706), np.float64(0.01340097034466747), np.float64(0.013329117557508135), np.float64(0.0132592147111498), np.float64(0.013191235081827058), np.float64(0.013125150138457425), np.float64(0.01306092972950329), np.float64(0.01299854226420008), np.float64(0.012937954887458388), np.float64(0.012879133647857529), np.float64(0.012822043658267087), np.float64(0.01276664924872316), np.float64(0.012712914111295857), np.float64(0.012660801436770983), np.float64(0.012610274043041471), np.float64(0.012561294495191153), np.float64(0.012513825217317285), np.float64(0.012467828596188044), np.float64(0.012423267076890827), np.float64(0.012380103250673758), np.float64(0.012338299935209532), np.float64(0.012297820247550075), np.float64(0.012258627670061974), np.float64(0.012220686109654362), np.float64(0.012183959950620068), np.float64(0.012148414101426148), np.float64(0.012114014035793153), np.float64(0.01208072582840226), np.float64(0.012048516185572775), np.float64(0.012017352471244237), np.float64(0.011987202728594836), np.float64(0.011958035697617525), np.float64(0.011929820828962984), np.float64(0.011902528294354507), np.float64(0.0118761289938603), np.float64(0.011850594560299701), np.float64(0.011825897361047069), np.float64(0.011802010497478466), np.float64(0.011778907802299945), np.float64(0.011756563834973532), np.float64(0.01173495387545101), np.float64(0.011714053916406892), np.float64(0.011693840654151163), np.float64(0.011674291478387347), np.float64(0.011655384460972083), np.float64(0.011637098343817378), np.float64(0.011619412526066325), np.float64(0.011602307050663337), np.float64(0.01158576259042797), np.float64(0.01156976043373226), np.float64(0.01155428246987243), np.float64(0.011539311174217302), np.float64(0.011524829593207346), np.float64(0.011510821329270796), np.float64(0.011497270525716488), np.float64(0.011484161851656478), np.float64(0.011471480487005739), np.float64(0.011459212107599757), np.float64(0.011447342870467392), np.float64(0.011435859399289698), np.float64(0.01142474877007319), np.float64(0.011413998497060096), np.float64(0.011403596518896665), np.float64(0.011393531185074844), np.float64(0.011383791242662656), np.float64(0.011374365823333083), np.float64(0.011365244430701395), np.float64(0.011356416927976041), np.float64(0.011347873525929881), np.float64(0.011339604771192141), np.float64(0.011331601534864958), np.float64(0.011323855001463063), np.float64(0.011316356658176149), np.float64(0.011309098284451076), np.float64(0.0113020719418924), np.float64(0.011295269964475572), np.float64(0.011288684949068813), np.float64(0.011282309746260146), np.float64(0.011276137451481101), np.float64(0.011270161396423855), np.float64(0.011264375140743459), np.float64(0.011258772464039939), np.float64(0.011253347358112545), np.float64(0.011248094019479647), np.float64(0.01124300684215731), np.float64(0.01123808041068845), np.float64(0.011233309493416685), np.float64(0.011228689035997465), np.float64(0.011224214155137769), np.float64(0.011219880132559337), np.float64(0.011215682409177561), np.float64(0.011211616579488475), np.float64(0.01120767838615825), np.float64(0.011203863714807093), np.float64(0.0112001685889825), np.float64(0.011196589165313848), np.float64(0.01119312172884348), np.float64(0.011189762688526412), np.float64(0.01118650857289528), np.float64(0.01118335602588176), np.float64(0.011180301802790551), np.float64(0.011177342766420585), np.float64(0.011174475883326913), np.float64(0.011171698220219194), np.float64(0.01116900694049119), np.float64(0.011166399300876786), np.float64(0.011163872648227288), np.float64(0.011161424416406584), np.float64(0.011159052123298424), np.float64(0.011156753367922769), np.float64(0.01115452582765571), np.float64(0.01115236725555138), np.float64(0.011150275477759541), np.float64(0.01114824839103681), np.float64(0.011146283960346998), np.float64(0.011144380216548748), np.float64(0.011142535254165002), np.float64(0.011140747229232856), np.float64(0.011139014357230694), np.float64(0.011137334911078413), np.float64(0.011135707219209288), np.float64(0.01113412966371048), np.float64(0.01113260067852939), np.float64(0.011131118747742731), np.float64(0.0111296824038879), np.float64(0.011128290226352023), np.float64(0.011126940839817936), np.float64(0.011125632912765231), np.float64(0.011124365156022335), np.float64(0.011123136321370568), np.float64(0.011121945200195467), np.float64(0.01112079062218588), np.float64(0.01111967145407783), np.float64(0.011118586598440993), np.float64(0.01111753499250854), np.float64(0.011116515607045574), np.float64(0.0111155274452576), np.float64(0.011114569541735439), np.float64(0.011113640961436645), np.float64(0.01111274079870173), np.float64(0.011111868176303361), np.float64(0.011111022244527754), np.float64(0.01111020218028774), np.float64(0.011109407186265362), np.float64(0.011108636490082762), np.float64(0.011107889343502162), np.float64(0.011107165021651414), np.float64(0.011106462822276397), np.float64(0.011105782065017465), np.float64(0.01110512209071085), np.float64(0.011104482260712794), np.float64(0.01110386195624587), np.float64(0.011103260577767485), np.float64(0.011102677544358805), np.float64(0.011102112293134118), np.float64(0.01110156427866927), np.float64(0.011101032972449238), np.float64(0.011100517862333395), np.float64(0.011100018452038505), np.float64(0.011099534260638791), np.float64(0.011099064822081747), np.float64(0.01109860968472013), np.float64(0.011098168410859022), np.float64(0.01109774057631752), np.float64(0.01109732577000454), np.float64(0.011096923593508867), np.float64(0.011096533660701242), np.float64(0.01109615559735076), np.float64(0.011095789040752068), np.float64(0.011095433639366093), np.float64(0.01109508905247102), np.float64(0.01109475494982484), np.float64(0.01109443101133918)]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -842,25 +887,30 @@
         <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006407182068797132</v>
+        <v>0.01084879371647808</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.11282052490841474), np.float64(-0.19338118496693343)], [np.float64(0.24141350836742673), np.float64(0.5099149668252736)], [np.float64(0.8272492766136281), np.float64(0.16216561268913038)], [np.float64(0.17557726298948453), np.float64(0.5620761823220488)]]]</t>
+          <t>[[[np.float64(-0.3305373516440279), np.float64(0.12003430758958472)], [np.float64(-0.10002585596377019), np.float64(0.3964499314326838)], [np.float64(-0.32695315359100313), np.float64(0.3098366170270105)], [np.float64(0.6044161079563205), np.float64(0.5276324554892813)]]]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[[0.9368510750571818, np.float64(-0.05725271014120675)]]</t>
+          <t>[[0.5515272489489818, np.float64(0.7469891563245025)]]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[np.float64(0.2248357032066433), np.float64(0.6253785855776987)]</t>
+          <t>[np.float64(0.8217544814822637), np.float64(0.35780421609290713)]</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.4922215919377438</v>
+        <v>0.4129063292840794</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[np.float64(0.04326781429921662), np.float64(0.042720764732436016), np.float64(0.04215090556425137), np.float64(0.0415574464968433), np.float64(0.040939619849882425), np.float64(0.040296693444419815), np.float64(0.039627986054569235), np.float64(0.038932885772698024), np.float64(0.03821087163906915), np.float64(0.037461538873616154), np.float64(0.036684628007621047), np.float64(0.03588005813592561), np.float64(0.03504796438335893), np.float64(0.03418873948778186), np.float64(0.03330307913092922), np.float64(0.03239203028179116), np.float64(0.03145704134361488), np.float64(0.030500012309620416), np.float64(0.029523342441814496), np.float64(0.028529972219223283), np.float64(0.027523415511131792), np.float64(0.026507777207258526), np.float64(0.02548775100924562), np.float64(0.024468591922298426), np.float64(0.023456058372748424), np.float64(0.02245632000323878), np.float64(0.021475829201359764), np.float64(0.020521157333598293), np.float64(0.01959880035307692), np.float64(0.018714962585394554), np.float64(0.017875331516419627), np.float64(0.017084859596384682), np.float64(0.016347570693073826), np.float64(0.015666408280565737), np.float64(0.01504313948500927), np.float64(0.014478323943952858), np.float64(0.013971349778742951), np.float64(0.013520531902756525), np.float64(0.013123261583353517), np.float64(0.012776191664730216), np.float64(0.012475439754992818), np.float64(0.01221679207297917), np.float64(0.01199589314171947), np.float64(0.011808410382987279), np.float64(0.011650167077487337), np.float64(0.011517241360433236), np.float64(0.011406032391393718), np.float64(0.01131329730034997), np.float64(0.011236163933978312), np.float64(0.011172124940157957), np.float64(0.011119018556394645), np.float64(0.011075000851944527), np.float64(0.011038513331012245), np.float64(0.011008248903440343), np.float64(0.010983118382597282), np.float64(0.010962218941311675), np.float64(0.01094480537140818), np.float64(0.01093026455038398), np.float64(0.010918093204943939), np.float64(0.010907878853217126), np.float64(0.010899283682053973), np.float64(0.010892031051024608), np.float64(0.0108858942922008), np.float64(0.010880687479881634), np.float64(0.010876257866191098), np.float64(0.01087247970900165), np.float64(0.010869249252656515), np.float64(0.010866480655930254), np.float64(0.010864102693609327), np.float64(0.010862056086867808), np.float64(0.010860291342863712), np.float64(0.010858767005551216), np.float64(0.010857448237973816), np.float64(0.010856305671453053), np.float64(0.010855314469555037), np.float64(0.010854453564951181), np.float64(0.010853705035538435), np.float64(0.010853053592880284), np.float64(0.010852486161379288), np.float64(0.010851991530926053), np.float64(0.010851560069164162), np.float64(0.010851183482293705), np.float64(0.010850854615494525), np.float64(0.010850567285819634), np.float64(0.010850316141771597), np.float64(0.01085009654489044), np.float64(0.010849904469594548), np.float64(0.010849736418164162), np.float64(0.010849589348382033), np.float64(0.010849460611769774), np.float64(0.01084934790073083), np.float64(0.010849249203195062), np.float64(0.010849162763630993), np.float64(0.01084908704945464), np.float64(0.010849020722026087), np.float64(0.010848962611577645), np.float64(0.010848911695503742), np.float64(0.010848867079529161), np.float64(0.010848827981362111), np.float64(0.01084879371647808)]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -884,25 +934,30 @@
         <v>200</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008055852815457178</v>
+        <v>0.02016505540404937</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.13214361903122984), np.float64(0.5440924167989112)], [np.float64(-0.07646300219007579), np.float64(0.23295547047126577)], [np.float64(-0.6627386374653237), np.float64(0.5258150656658408)], [np.float64(0.2989183304935699), np.float64(0.39801258488692454)]]]</t>
+          <t>[[[np.float64(-0.6575897408317827), np.float64(0.54730461465599)], [np.float64(-0.43998289121160994), np.float64(0.2848730634262735)], [np.float64(-0.02640187060002691), np.float64(-0.015625219429329134)], [np.float64(0.189265605922548), np.float64(0.09479593732117397)]]]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[[0.5056584300867998, np.float64(-0.2631402914677957)]]</t>
+          <t>[[0.7276286618451999, np.float64(0.36204428821694223)]]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[np.float64(0.6892501868200974), np.float64(0.3953321474039749)]</t>
+          <t>[np.float64(0.3291266366551774), np.float64(0.17205115640999716)]</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.5447129636885264</v>
+        <v>0.9295356016569445</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[np.float64(0.043437975800607084), np.float64(0.0434077408915528), np.float64(0.043377114925371225), np.float64(0.04334609212268683), np.float64(0.04331466661049519), np.float64(0.04328283242050023), np.float64(0.04325058348742776), np.float64(0.04321791364730522), np.float64(0.04318481663571156), np.float64(0.04315128608599881), np.float64(0.04311731552747857), np.float64(0.04308289838358104), np.float64(0.043048027969979696), np.float64(0.043012697492685846), np.float64(0.04297690004610902), np.float64(0.04294062861108749), np.float64(0.0429038760528857), np.float64(0.04286663511915604), np.float64(0.04282889843787383), np.float64(0.042790658515234684), np.float64(0.04275190773351984), np.float64(0.04271263834893124), np.float64(0.04267284248939368), np.float64(0.0426325121523222), np.float64(0.042591639202357916), np.float64(0.04255021536907483), np.float64(0.042508232244653686), np.float64(0.042465681281522186), np.float64(0.042422553789971534), np.float64(0.04237884093573529), np.float64(0.042334533737544894), np.float64(0.042289623064655786), np.float64(0.042244099634346166), np.float64(0.042197954009389894), np.float64(0.04215117659550539), np.float64(0.04210375763878256), np.float64(0.04205568722308633), np.float64(0.042006955267440645), np.float64(0.04195755152339884), np.float64(0.04190746557239307), np.float64(0.04185668682307576), np.float64(0.04180520450864869), np.float64(0.04175300768418641), np.float64(0.041700085223954575), np.float64(0.041646425818727954), np.float64(0.041592017973117054), np.float64(0.04153685000289502), np.float64(0.04148091003234463), np.float64(0.04142418599161719), np.float64(0.04136666561412158), np.float64(0.04130833643393626), np.float64(0.041249185783261644), np.float64(0.04118920078991299), np.float64(0.04112836837486612), np.float64(0.04106667524986107), np.float64(0.04100410791507403), np.float64(0.040940652656865494), np.float64(0.04087629554561716), np.float64(0.04081102243366838), np.float64(0.04074481895336571), np.float64(0.04067767051523156), np.float64(0.04060956230627395), np.float64(0.04054047928845237), np.float64(0.04047040619730789), np.float64(0.040399327540782494), np.float64(0.04032722759824243), np.float64(0.04025409041972891), np.float64(0.04017989982545343), np.float64(0.040104639405562886), np.float64(0.040028292520200716), np.float64(0.039950842299884735), np.float64(0.03987227164623503), np.float64(0.03979256323308273), np.float64(0.03971169950798278), np.float64(0.039629662694178024), np.float64(0.039546434793039785), np.float64(0.0394619975870315), np.float64(0.03937633264322721), np.float64(0.03928942131744411), np.float64(0.0392012447590204), np.float64(0.03911178391629497), np.float64(0.03902101954284864), np.float64(0.03892893220454931), np.float64(0.038835502287468016), np.float64(0.03874071000673348), np.float64(0.03864453541638072), np.float64(0.038546958420274884), np.float64(0.038447958784175736), np.float64(0.038347516149033305), np.float64(0.03824561004557821), np.float64(0.038142219910318166), np.float64(0.038037325103007585), np.float64(0.03793090492571032), np.float64(0.03782293864353255), np.float64(0.03771340550714851), np.float64(0.03760228477722057), np.float64(0.03748955575082869), np.float64(0.037375197790033364), np.float64(0.037259190352685725), np.float64(0.037141513025617114), np.float64(0.03702214556034067), np.float64(0.03690106791140056), np.float64(0.036778260277497817), np.float64(0.03665370314554579), np.float64(0.03652737733778973), np.float64(0.036399264062132786), np.float64(0.03626934496582441), np.float64(0.03613760219264288), np.float64(0.03600401844372004), np.float64(0.03586857704215244), np.float64(0.03573126200152047), np.float64(0.035592058098459056), np.float64(0.035450950949393316), np.float64(0.03530792709155311), np.float64(0.03516297406836182), np.float64(0.03501608051928162), np.float64(0.03486723627417959), np.float64(0.03471643245226428), np.float64(0.03456366156559675), np.float64(0.03440891762717448), np.float64(0.03425219626354699), np.float64(0.03409349483185673), np.float64(0.03393281254121569), np.float64(0.03377015057822077), np.float64(0.033605512236384034), np.float64(0.03343890304921116), np.float64(0.033270330926562924), np.float64(0.03309980629390074), np.float64(0.03292734223391757), np.float64(0.03275295462998755), np.float64(0.032576662310785716), np.float64(0.032398487195329305), np.float64(0.03221845443760888), np.float64(0.03203659256986726), np.float64(0.031852933643514554), np.float64(0.03166751336651199), np.float64(0.03148037123603041), np.float64(0.03129155066502094), np.float64(0.031101099101280085), np.float64(0.030909068137496984), np.float64(0.030715513610668706), np.float64(0.03052049568923025), np.float64(0.03032407894614966), np.float64(0.03012633241623595), np.float64(0.02992732963584445), np.float64(0.02972714866319426), np.float64(0.029525872077525647), np.float64(0.02932358695537009), np.float64(0.029120384822290183), np.float64(0.028916361578574145), np.float64(0.028711617397501568), np.float64(0.028506256594991293), np.float64(0.028300387469669674), np.float64(0.028094122112634057), np.float64(0.027887576186507494), np.float64(0.027680868673691378), np.float64(0.027474121594068403), np.float64(0.027267459692816746), np.float64(0.027061010099357106), np.float64(0.02685490195891129), np.float64(0.02664926603853296), np.float64(0.026444234309907583), np.float64(0.026239939511607555), np.float64(0.026036514693894102), np.float64(0.02583409274947997), np.float64(0.025632805934012143), np.float64(0.025432785380254303), np.float64(0.02523416061021742), np.float64(0.02503705904955551), np.float64(0.024841605548685367), np.float64(0.024647921915049657), np.float64(0.024456126460877463), np.float64(0.02426633357065999), np.float64(0.024078653292326512), np.float64(0.023893190955817392), np.float64(0.023710046822397735), np.float64(0.023529315767657995), np.float64(0.023351087000683866), np.float64(0.02317544382138461), np.float64(0.02300246341747183), np.float64(0.022832216702034783), np.float64(0.022664768192147168), np.float64(0.022500175928411744), np.float64(0.02233849143484954), np.float64(0.02217975971807463), np.float64(0.022024019304273418), np.float64(0.021871302312100025), np.float64(0.021721634559283436), np.float64(0.021575035700454197), np.float64(0.021431519393468386), np.float64(0.021291093491342797), np.float64(0.021153760256793906), np.float64(0.021019516596329776), np.float64(0.020888354310814965), np.float64(0.020760260359470997), np.float64(0.020635217134357068), np.float64(0.020513202742503213), np.float64(0.020394191292962393), np.float64(0.020278153186283263), np.float64(0.02016505540404937)]</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -926,25 +981,30 @@
         <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002329493702137849</v>
+        <v>0.003518889410268689</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.053198904647440794), np.float64(0.26141589956914757)], [np.float64(-0.098113829477248), np.float64(0.5361644354235076)], [np.float64(-0.6594828269225973), np.float64(0.5836518031416276)], [np.float64(0.15439224079551048), np.float64(0.8603281934365733)]]]</t>
+          <t>[[[np.float64(0.12945291987401686), np.float64(0.2380385933610932)], [np.float64(0.08743928486258533), np.float64(0.42311739228350986)], [np.float64(0.17141680816054528), np.float64(-0.15831521916377042)], [np.float64(0.5697679950627407), np.float64(0.7932526800253019)]]]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[[0.7482622733045183, np.float64(0.09857661161632927)]]</t>
+          <t>[[0.17160737496587963, np.float64(0.3047269254445708)]]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[np.float64(0.9408111332073031), np.float64(0.9080771177337477)]</t>
+          <t>[np.float64(0.7958116640438417), np.float64(0.44867499692409246)]</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.17621827804949</v>
+        <v>0.17216083260272</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[np.float64(0.03959634452666851), np.float64(0.03810728690639248), np.float64(0.036116891153599034), np.float64(0.03346284705396952), np.float64(0.02995832322858347), np.float64(0.025440543452518918), np.float64(0.019912566542784935), np.float64(0.013837294194205936), np.float64(0.008421075556263053), np.float64(0.0050776826906977065), np.float64(0.0038542953025960144), np.float64(0.0035796059128122915), np.float64(0.0035296362197446184), np.float64(0.0035207921870369055), np.float64(0.0035192264268906885), np.float64(0.0035189491065491566), np.float64(0.003518899984508298), np.float64(0.003518891283329615), np.float64(0.0035188897420515837), np.float64(0.0035188894690383263), np.float64(0.003518889420678905), np.float64(0.003518889412111765), np.float64(0.003518889410594734), np.float64(0.003518889410325812), np.float64(0.0035188894102788663), np.float64(0.0035188894102702074), np.float64(0.003518889410268689), np.float64(0.003518889410268689), np.float64(0.003518889410268689), np.float64(0.003518889410268689)]</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -968,25 +1028,30 @@
         <v>200</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01023375949002042</v>
+        <v>0.009636184532728095</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.032498197813160816), np.float64(0.3031168999645072)], [np.float64(-0.45802369838679574), np.float64(0.39832763138085353)], [np.float64(-0.1497816059621471), np.float64(0.7536997998688729)], [np.float64(0.6955944027997385), np.float64(0.6914198336374351)]]]</t>
+          <t>[[[np.float64(0.5668076117661395), np.float64(0.14279675771373282)], [np.float64(0.6340685075003168), np.float64(-0.0560158090677286)], [np.float64(0.20408439063265596), np.float64(-0.07863592848617022)], [np.float64(0.731718023254447), np.float64(0.813936946162194)]]]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[[0.5548453800323386, np.float64(0.6889204754768288)]]</t>
+          <t>[[0.9270996884561133, np.float64(-0.04487102026487096)]]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[np.float64(0.9459386657257592), np.float64(0.09164326766404583)]</t>
+          <t>[np.float64(0.35084173906622346), np.float64(0.2031839705520006)]</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.4530946768061319</v>
+        <v>0.5670908449445152</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>[np.float64(0.012446224777277661), np.float64(0.012187695656693868), np.float64(0.011942351308730413), np.float64(0.011711431456088965), np.float64(0.011495850952092485), np.float64(0.011296179064059775), np.float64(0.011112639825684447), np.float64(0.010945132311380236), np.float64(0.01079326743643774), np.float64(0.010656416349489726), np.float64(0.010533764869873246), np.float64(0.010424368703707016), np.float64(0.010327205128314875), np.float64(0.01024121814975665), np.float64(0.010165355504807263), np.float64(0.010098597067351955), np.float64(0.010039975106059211), np.float64(0.009988587397410587), np.float64(0.009943604463898702), np.float64(0.009904272252401479), np.float64(0.009869911469450097), np.float64(0.00983991461519553), np.float64(0.009813741556105409), np.float64(0.00979091428006708), np.float64(0.00977101130433933), np.float64(0.00975366206394078), np.float64(0.009738541496207094), np.float64(0.009725364953346975), np.float64(0.009713883514324418), np.float64(0.009703879725399711), np.float64(0.009695163770745417), np.float64(0.00968757005693787), np.float64(0.009680954184833812), np.float64(0.009675190277080878), np.float64(0.009670168627614177), np.float64(0.00966579363971571), np.float64(0.009661982020752698), np.float64(0.009658661203957539), np.float64(0.009655767970193452), np.float64(0.009653247245330761), np.float64(0.009651051051468235), np.float64(0.009649137592703227), np.float64(0.009647470458422522), np.float64(0.009646017929148713), np.float64(0.009644752371822024), np.float64(0.009643649713039543), np.float64(0.009642688980222705), np.float64(0.009641851901964676), np.float64(0.009641122559925696), np.float64(0.009640487085623858), np.float64(0.009639933396329119), np.float64(0.009639450965012529), np.float64(0.00963903061995436), np.float64(0.009638664370183665), np.float64(0.009638345253416539), np.float64(0.00963806720358843), np.float64(0.009637824935455027), np.float64(0.009637613844060039), np.float64(0.009637429917151972), np.float64(0.009637269658881136), np.float64(0.009637130023324355), np.float64(0.009637008356568656), np.float64(0.009636902346252746), np.float64(0.009636809977604232), np.float64(0.009636729495138099), np.float64(0.009636659369284926), np.float64(0.009636598267314847), np.float64(0.009636545028004834), np.float64(0.00963649863956621), np.float64(0.009636458220413256), np.float64(0.009636423002407746), np.float64(0.009636392316258412), np.float64(0.009636365578800859), np.float64(0.009636342281914166), np.float64(0.009636321982863618), np.float64(0.009636304295886475), np.float64(0.00963628888486078), np.float64(0.00963627545691714), np.float64(0.009636263756872368), np.float64(0.009636253562381136), np.float64(0.009636244679709432), np.float64(0.009636236940052905), np.float64(0.00963623019632909), np.float64(0.009636224320381564), np.float64(0.009636219200545885), np.float64(0.009636214739525735), np.float64(0.009636210852545627), np.float64(0.009636207465738405), np.float64(0.009636204514742164), np.float64(0.009636201943477024), np.float64(0.009636199703079605), np.float64(0.009636197750974271), np.float64(0.009636196050063904), np.float64(0.009636194568024998), np.float64(0.009636193276693395), np.float64(0.009636192151528774), np.float64(0.009636191171149278), np.float64(0.009636190316923974), np.float64(0.009636189572619322), np.float64(0.009636188924091174), np.float64(0.009636188359014863), np.float64(0.009636187866651835), np.float64(0.009636187437645783), np.float64(0.009636187063843579), np.float64(0.009636186738141903), np.float64(0.00963618645435129), np.float64(0.00963618620707829), np.float64(0.009636185991624118), np.float64(0.009636185803894451), np.float64(0.009636185640321619), np.float64(0.009636185497797276), np.float64(0.009636185373612823), np.float64(0.00963618526540829), np.float64(0.009636185171127387), np.float64(0.00963618508897839), np.float64(0.009636185017400321), np.float64(0.009636184955032706), np.float64(0.009636184900690552), np.float64(0.009636184853341136), np.float64(0.009636184812084536), np.float64(0.009636184776136675), np.float64(0.009636184744814561), np.float64(0.00963618471752285), np.float64(0.009636184693743189), np.float64(0.009636184673023422), np.float64(0.00963618465496978), np.float64(0.009636184639239409), np.float64(0.009636184625533076), np.float64(0.009636184613590571), np.float64(0.009636184603184668), np.float64(0.00963618459411805), np.float64(0.009636184586217887), np.float64(0.009636184579334323), np.float64(0.00963618457333658), np.float64(0.009636184568110539), np.float64(0.009636184563557009), np.float64(0.009636184559589507), np.float64(0.009636184556132413), np.float64(0.009636184553120217), np.float64(0.009636184550495601), np.float64(0.00963618454820893), np.float64(0.009636184546216408), np.float64(0.009636184544480226), np.float64(0.009636184542967538), np.float64(0.009636184541649325), np.float64(0.009636184540500844), np.float64(0.009636184539500107), np.float64(0.009636184538628051), np.float64(0.009636184537868263), np.float64(0.00963618453720621), np.float64(0.009636184536629398), np.float64(0.00963618453612682), np.float64(0.00963618453568892), np.float64(0.009636184535307388), np.float64(0.0096361845349751), np.float64(0.009636184534685323), np.float64(0.009636184534433004), np.float64(0.009636184534213166), np.float64(0.009636184534021527), np.float64(0.009636184533854479), np.float64(0.009636184533708993), np.float64(0.009636184533582145), np.float64(0.00963618453347184), np.float64(0.009636184533375678), np.float64(0.00963618453329197), np.float64(0.009636184533218805), np.float64(0.009636184533155213), np.float64(0.009636184533099794), np.float64(0.009636184533051493), np.float64(0.009636184533009249), np.float64(0.009636184532972433), np.float64(0.009636184532940458), np.float64(0.00963618453291263), np.float64(0.009636184532888305), np.float64(0.009636184532867211), np.float64(0.00963618453284883), np.float64(0.009636184532832694), np.float64(0.009636184532818594), np.float64(0.009636184532806374), np.float64(0.00963618453279554), np.float64(0.009636184532786276), np.float64(0.009636184532778322), np.float64(0.00963618453277146), np.float64(0.009636184532765421), np.float64(0.009636184532760375), np.float64(0.009636184532755833), np.float64(0.009636184532751845), np.float64(0.00963618453274842), np.float64(0.009636184532745326), np.float64(0.009636184532742589), np.float64(0.009636184532739962), np.float64(0.009636184532737823), np.float64(0.009636184532735811), np.float64(0.009636184532734328), np.float64(0.009636184532732895), np.float64(0.009636184532731653), np.float64(0.009636184532730687), np.float64(0.009636184532729792), np.float64(0.009636184532728905), np.float64(0.009636184532728095)]</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1010,25 +1075,30 @@
         <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3061199238455986</v>
+        <v>0.002294218305994409</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.5336772969114458), np.float64(-0.9213230431149717), np.float64(-0.3052114637421463)], [np.float64(-0.8194184861334676), np.float64(0.012606563351326499), np.float64(-0.5575419144796033)], [np.float64(-0.9611939023910918), np.float64(-0.09777069275578075), np.float64(-1.2830393246940726)], [np.float64(-0.22245013361218247), np.float64(0.23678584409846323), np.float64(-0.4533891971478571)]]]</t>
+          <t>[[[np.float64(-0.19906060223794592), np.float64(-0.0082410342062028), np.float64(0.09287750739856077)], [np.float64(0.5493449318698329), np.float64(0.6203934984806393), np.float64(-0.3100004470035727)], [np.float64(-0.08330079475927203), np.float64(0.8341770337449561), np.float64(0.19933040367602164)], [np.float64(0.01852783528797818), np.float64(0.1980836263359679), np.float64(0.5027419015049321)]]]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[[0.8873172150036934, 0.5803078646986551, np.float64(-1.2243652414304602)]]</t>
+          <t>[[0.34633272830697004, 0.16946576133855007, np.float64(0.03629965874842085)]]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[np.float64(0.7316397989052522), np.float64(0.7434393293548105), np.float64(0.9101074143408638)]</t>
+          <t>[np.float64(0.3863421132647222), np.float64(0.08833329637568363), np.float64(0.7350975209203899)]</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0.1387166173052875</v>
+        <v>0.2704672620281234</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>[np.float64(2.368468067427935), np.float64(0.05036249209340087), np.float64(0.003333315674267537), np.float64(0.0023237634783654978), np.float64(0.0022960117626480603), np.float64(0.002294424998433831), np.float64(0.002294246829268482), np.float64(0.00229422236122529), np.float64(0.0022942188850557915), np.float64(0.0022942183887331453), np.float64(0.0022942183178183413), np.float64(0.0022942183076850513), np.float64(0.002294218306237079), np.float64(0.0022942183060302114), np.float64(0.002294218306000563), np.float64(0.0022942183059963123), np.float64(0.0022942183059950745), np.float64(0.002294218305994739), np.float64(0.002294218305994409), np.float64(0.002294218305994409), np.float64(0.002294218305994409), np.float64(0.002294218305994409)]</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1052,25 +1122,30 @@
         <v>200</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0641488920599711</v>
+        <v>0.01451263753357006</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.10345156737876207), np.float64(-0.6392782238091109), np.float64(-0.04312926749077182)], [np.float64(-0.422391218238121), np.float64(-0.04792568135841671), np.float64(-0.04718625763222252)], [np.float64(-0.3251245162984765), np.float64(-0.6456889962542812), np.float64(-0.9000507909431884)], [np.float64(0.14311513129349937), np.float64(-0.18035769257236736), np.float64(-0.060035623448860966)]]]</t>
+          <t>[[[np.float64(-1.2543677797520183), np.float64(-0.9337198492164289), np.float64(-0.39777215879870986)], [np.float64(-0.5323457220925115), np.float64(-0.6354572114576739), np.float64(0.07849408614521847)], [np.float64(-0.5954209576038447), np.float64(-0.38395464841746807), np.float64(-0.7031988980773206)], [np.float64(0.040048841282227486), np.float64(0.3078930271158052), np.float64(-0.05654018328973451)]]]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[[0.4138377471363782, 0.9756851313022451, np.float64(-0.9392202970667808)]]</t>
+          <t>[[0.7380427954235188, 0.5576277416198329, np.float64(-1.289975479486932)]]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[np.float64(0.6425270639757649), np.float64(0.07477825336552117), np.float64(0.8739647519666277)]</t>
+          <t>[np.float64(0.9528915549653916), np.float64(0.6615608138613851), np.float64(0.6357252392285572)]</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.9163834752569492</v>
+        <v>0.6968592885635309</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[np.float64(16.44274001048668), np.float64(0.014526211944175456), np.float64(0.014526137271518639), np.float64(0.01452606266207221), np.float64(0.014525988115818497), np.float64(0.014525913632739973), np.float64(0.0145258392128194), np.float64(0.014525764856039205), np.float64(0.014525690562381977), np.float64(0.014525616331830258), np.float64(0.014525542164366552), np.float64(0.014525468059973482), np.float64(0.014525394018633564), np.float64(0.014525320040329259), np.float64(0.014525246125043401), np.float64(0.014525172272758437), np.float64(0.014525098483456829), np.float64(0.014525024757121332), np.float64(0.014524951093734523), np.float64(0.014524877493278845), np.float64(0.014524803955736961), np.float64(0.0145247304810916), np.float64(0.014524657069325174), np.float64(0.014524583720420464), np.float64(0.014524510434359839), np.float64(0.014524437211126118), np.float64(0.014524364050701925), np.float64(0.014524290953069674), np.float64(0.014524217918212309), np.float64(0.014524144946112209), np.float64(0.014524072036752003), np.float64(0.014523999190114477), np.float64(0.014523926406182275), np.float64(0.014523853684937959), np.float64(0.014523781026364074), np.float64(0.014523708430443504), np.float64(0.014523635897158715), np.float64(0.014523563426492515), np.float64(0.014523491018427497), np.float64(0.014523418672946299), np.float64(0.014523346390031751), np.float64(0.014523274169666336), np.float64(0.01452320201183277), np.float64(0.014523129916513848), np.float64(0.014523057883692183), np.float64(0.014522985913350397), np.float64(0.014522914005471455), np.float64(0.014522842160037675), np.float64(0.01452277037703212), np.float64(0.014522698656437136), np.float64(0.014522626998235883), np.float64(0.014522555402410708), np.float64(0.014522483868944502), np.float64(0.014522412397819913), np.float64(0.014522340989019684), np.float64(0.01452226964252652), np.float64(0.014522198358323263), np.float64(0.014522127136392622), np.float64(0.014522055976717227), np.float64(0.01452198487928005), np.float64(0.014521913844063584), np.float64(0.014521842871050737), np.float64(0.01452177196022422), np.float64(0.014521701111566955), np.float64(0.014521630325061432), np.float64(0.014521559600690575), np.float64(0.014521488938437252), np.float64(0.014521418338284044), np.float64(0.014521347800213762), np.float64(0.01452127732420937), np.float64(0.014521206910253557), np.float64(0.014521136558329076), np.float64(0.014521066268418746), np.float64(0.014520996040505343), np.float64(0.014520925874571817), np.float64(0.014520855770600822), np.float64(0.014520785728575226), np.float64(0.014520715748477858), np.float64(0.014520645830291591), np.float64(0.014520575973999174), np.float64(0.014520506179583425), np.float64(0.014520436447027205), np.float64(0.014520366776313486), np.float64(0.014520297167424855), np.float64(0.014520227620344318), np.float64(0.014520158135054698), np.float64(0.01452008871153878), np.float64(0.014520019349779572), np.float64(0.014519950049759846), np.float64(0.014519880811462571), np.float64(0.014519811634870317), np.float64(0.014519742519966367), np.float64(0.014519673466733277), np.float64(0.01451960447515406), np.float64(0.014519535545211654), np.float64(0.014519466676888762), np.float64(0.014519397870168474), np.float64(0.01451932912503368), np.float64(0.01451926044146711), np.float64(0.014519191819451733), np.float64(0.01451912325897052), np.float64(0.014519054760006384), np.float64(0.014518986322542213), np.float64(0.014518917946560975), np.float64(0.014518849632045503), np.float64(0.014518781378978808), np.float64(0.014518713187343761), np.float64(0.014518645057123298), np.float64(0.014518576988300426), np.float64(0.014518508980858044), np.float64(0.01451844103477908), np.float64(0.014518373150046554), np.float64(0.01451830532664341), np.float64(0.01451823756455242), np.float64(0.014518169863756848), np.float64(0.014518102224239462), np.float64(0.014518034645983216), np.float64(0.01451796712897128), np.float64(0.014517899673186415), np.float64(0.014517832278611715), np.float64(0.014517764945230166), np.float64(0.014517697673024797), np.float64(0.014517630461978445), np.float64(0.014517563312074298), np.float64(0.01451749622329521), np.float64(0.014517429195624307), np.float64(0.014517362229044416), np.float64(0.014517295323538735), np.float64(0.014517228479090235), np.float64(0.014517161695681924), np.float64(0.014517094973296793), np.float64(0.014517028311918057), np.float64(0.014516961711528402), np.float64(0.01451689517211114), np.float64(0.014516828693649248), np.float64(0.014516762276125712), np.float64(0.014516695919523608), np.float64(0.014516629623825989), np.float64(0.014516563389016046), np.float64(0.014516497215076623), np.float64(0.01451643110199085), np.float64(0.014516365049741886), np.float64(0.014516299058312762), np.float64(0.014516233127686478), np.float64(0.01451616725784618), np.float64(0.014516101448774904), np.float64(0.014516035700455785), np.float64(0.014515970012872019), np.float64(0.014515904386006499), np.float64(0.014515838819842346), np.float64(0.014515773314362806), np.float64(0.01451570786955089), np.float64(0.0145156424853897), np.float64(0.014515577161862381), np.float64(0.014515511898952015), np.float64(0.014515446696641803), np.float64(0.014515381554914856), np.float64(0.014515316473754244), np.float64(0.014515251453143106), np.float64(0.014515186493064462), np.float64(0.014515121593501837), np.float64(0.01451505675443794), np.float64(0.014514991975856217), np.float64(0.014514927257739603), np.float64(0.014514862600071472), np.float64(0.014514798002834728), np.float64(0.014514733466012801), np.float64(0.014514668989588793), np.float64(0.014514604573545715), np.float64(0.014514540217866889), np.float64(0.01451447592253544), np.float64(0.01451441168753454), np.float64(0.014514347512847532), np.float64(0.01451428339845734), np.float64(0.014514219344347252), np.float64(0.014514155350500746), np.float64(0.01451409141690059), np.float64(0.014514027543530218), np.float64(0.014513963730372927), np.float64(0.014513899977411784), np.float64(0.014513836284629896), np.float64(0.014513772652010856), np.float64(0.014513709079537557), np.float64(0.014513645567193293), np.float64(0.014513582114961373), np.float64(0.01451351872282495), np.float64(0.014513455390767366), np.float64(0.014513392118771867), np.float64(0.014513328906821525), np.float64(0.01451326575489985), np.float64(0.014513202662989846), np.float64(0.014513139631074942), np.float64(0.014513076659138365), np.float64(0.014513013747163383), np.float64(0.01451295089513326), np.float64(0.014512888103031266), np.float64(0.014512825370840626), np.float64(0.014512762698544698), np.float64(0.014512700086126741), np.float64(0.014512637533570056)]</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1094,25 +1169,30 @@
         <v>100</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01270748505506527</v>
+        <v>0.1060849119960061</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.1071174022381734), np.float64(-1.1457106618823496), np.float64(-4.105302135301931)], [np.float64(-0.023235692003849225), np.float64(-0.3707183572721586), np.float64(-3.2828333829296805)], [np.float64(-0.4637993425061969), np.float64(-1.3063081777149943), np.float64(-4.1923399643130725)], [np.float64(0.306015543464899), np.float64(-0.27922328357866877), np.float64(-1.6792474803821136)]]]</t>
+          <t>[[[np.float64(-7.848389495890132), np.float64(-6.647991327640452), np.float64(-2.0119029012971534)], [np.float64(-7.990327500567448), np.float64(-5.676351893094194), np.float64(-1.8044760787116314)], [np.float64(-8.706854110186855), np.float64(-7.0245111522792945), np.float64(-2.2452936486325528)], [np.float64(-3.01910425526479), np.float64(-2.7393067270811033), np.float64(-0.180719376937048)]]]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[[0.9570921818481146, 0.8712790412721916, np.float64(-6.057020614456855)]]</t>
+          <t>[[0.44949241622707403, 0.87450345789159, np.float64(-3.3371133472898795)]]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[np.float64(0.13173985463504229), np.float64(0.2599951298664324), np.float64(0.8209167684882288)]</t>
+          <t>[np.float64(0.9352605787076405), np.float64(0.750079739946614), np.float64(0.2457987199990174)]</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.6572509759941885</v>
+        <v>0.3973000322423497</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>[np.float64(5.359621281908162), np.float64(0.12969813802267763), np.float64(0.12943140559084823), np.float64(0.12916524036642718), np.float64(0.12889964118155597), np.float64(0.1286346068707459), np.float64(0.1283701362708759), np.float64(0.12810622822117626), np.float64(0.1278428815632381), np.float64(0.1275800951409995), np.float64(0.12731786780074303), np.float64(0.12705619839109164), np.float64(0.12679508576300483), np.float64(0.12653452876977206), np.float64(0.1262745262670062), np.float64(0.12601507711264692), np.float64(0.1257561801669453), np.float64(0.12549783429246653), np.float64(0.12524003835408434), np.float64(0.12498279121897292), np.float64(0.12472609175660407), np.float64(0.12446993883874662), np.float64(0.12421433133945439), np.float64(0.12395926813506751), np.float64(0.12370474810420463), np.float64(0.123450770127759), np.float64(0.12319733308889635), np.float64(0.12294443587304527), np.float64(0.122692077367898), np.float64(0.1224402564634035), np.float64(0.12218897205176067), np.float64(0.1219382230274181), np.float64(0.12168800828706666), np.float64(0.1214383267296362), np.float64(0.12118917725628958), np.float64(0.1209405587704211), np.float64(0.12069247017764803), np.float64(0.1204449103858115), np.float64(0.1201978783049644), np.float64(0.11995137284737444), np.float64(0.11970539292751484), np.float64(0.11945993746206292), np.float64(0.11921500536989414), np.float64(0.11897059557207669), np.float64(0.11872670699187045), np.float64(0.11848333855471757), np.float64(0.11824048918824187), np.float64(0.11799815782224567), np.float64(0.11775634338870017), np.float64(0.1175150448217461), np.float64(0.11727426105768536), np.float64(0.11703399103498205), np.float64(0.11679423369424992), np.float64(0.11655498797825721), np.float64(0.11631625283191678), np.float64(0.11607802720228041), np.float64(0.11584031003854117), np.float64(0.11560310029202092), np.float64(0.11536639691617356), np.float64(0.1151301988665756), np.float64(0.11489450510092292), np.float64(0.11465931457902774), np.float64(0.11442462626281513), np.float64(0.11419043911631524), np.float64(0.11395675210566185), np.float64(0.11372356419908725), np.float64(0.11349087436691994), np.float64(0.1132586815815776), np.float64(0.1130269848175618), np.float64(0.1127957830514597), np.float64(0.11256507526193359), np.float64(0.11233486042972071), np.float64(0.11210513753762545), np.float64(0.111875905570521), np.float64(0.11164716351533782), np.float64(0.11141891036106466), np.float64(0.11119114509874464), np.float64(0.11096386672146566), np.float64(0.11073707422436417), np.float64(0.1105107666046141), np.float64(0.1102849428614267), np.float64(0.11005960199604463), np.float64(0.10983474301174018), np.float64(0.10961036491380677), np.float64(0.10938646670956054), np.float64(0.10916304740833123), np.float64(0.10894010602146213), np.float64(0.10871764156230297), np.float64(0.10849565304620618), np.float64(0.10827413949052715), np.float64(0.1080530999146132), np.float64(0.10783253333980415), np.float64(0.10761243878942935), np.float64(0.10739281528879836), np.float64(0.10717366186520395), np.float64(0.10695497754791139), np.float64(0.10673676136815795), np.float64(0.10651901235915007), np.float64(0.10630172955605632), np.float64(0.10608491199600609)]</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1136,25 +1216,30 @@
         <v>200</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0005452166695239006</v>
+        <v>0.006462056389676513</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[[[np.float64(2.0159632089817685), np.float64(-1.8299287149071823), np.float64(-1.842935741183223)], [np.float64(2.5415636820054486), np.float64(-1.457226755340261), np.float64(-2.0918840604998516)], [np.float64(2.224912276581601), np.float64(-1.5851173370352567), np.float64(-2.4934926775028323)], [np.float64(0.9719513158736577), np.float64(-0.1482270822619916), np.float64(-0.2114612578514493)]]]</t>
+          <t>[[[np.float64(-2.4185210505785144), np.float64(0.23402064507526024), np.float64(-3.854190189490148)], [np.float64(-2.2081716207644346), np.float64(0.8957770558570104), np.float64(-3.3505823725682404)], [np.float64(-2.761400324019818), np.float64(0.8227761020417153), np.float64(-4.566177566041579)], [np.float64(-0.6099234498268733), np.float64(0.6030205586532135), np.float64(-2.0004071404521038)]]]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[[0.8447058299492598, 0.8005625439819231, np.float64(-3.15170573284851)]]</t>
+          <t>[[0.7809843536659189, 0.5956018391598895, np.float64(-5.9129722772805975)]]</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[np.float64(0.12852416768005726), np.float64(0.43139843728352856), np.float64(0.4713217165646258)]</t>
+          <t>[np.float64(0.40017659482109436), np.float64(0.11521103415597261), np.float64(0.6105146362023114)]</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0.01646230704438284</v>
+        <v>0.5069088588346886</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[np.float64(3.7492128005733174), np.float64(0.041718778021077714), np.float64(0.0340826999015623), np.float64(0.028004787068053934), np.float64(0.023175286641762792), np.float64(0.01934777165616569), np.float64(0.016324768739196645), np.float64(0.013947268535202515), np.float64(0.012086869860291482), np.float64(0.010639758238808542), np.float64(0.009521997960826777), np.float64(0.008665791471393583), np.float64(0.008016470654151397), np.float64(0.007530055572251422), np.float64(0.00717126235118867), np.float64(0.006911872377399422), np.float64(0.006729395618811359), np.float64(0.006605975258253289), np.float64(0.006527491216959791), np.float64(0.0064828279290275615), np.float64(0.0064632777712977955), np.float64(0.006462056389676513), np.float64(0.006473910123666904), np.float64(0.0064947990255563), np.float64(0.006521641736532354), np.float64(0.006552110813533993), np.float64(0.006584469067172962), np.float64(0.006617439126740511), np.float64(0.006650099837715531), np.float64(0.006681804258379589), np.float64(0.006712114988271768), np.float64(0.0067407533613695215), np.float64(0.006767559696603404), np.float64(0.006792462339890909), np.float64(0.006815453674652422), np.float64(0.006836571638380225), np.float64(0.006855885575466588), np.float64(0.006873485493176108), np.float64(0.00688947397847542), np.float64(0.006903960186835771), np.float64(0.006917055437111067), np.float64(0.006928870044926954), np.float64(0.006939511105450432), np.float64(0.006949080998811074), np.float64(0.006957676440978692), np.float64(0.006965387942122903), np.float64(0.0069722995654636815), np.float64(0.0069784889040346385), np.float64(0.0069840272119670805), np.float64(0.006988979641940109), np.float64(0.006993405552189521), np.float64(0.0069973588556185955), np.float64(0.007000888390650545), np.float64(0.007004038298947364), np.float64(0.007006848399333388), np.float64(0.007009354550485503), np.float64(0.007011588997397081), np.float64(0.007013580698462349), np.float64(0.007015355631403208), np.float64(0.007016937077266163), np.float64(0.007018345882448382), np.float64(0.007019600699226784), np.float64(0.007020718205618504), np.float64(0.0070217133056284286), np.float64(0.007022599311080078), np.float64(0.007023388106293778), np.float64(0.007024090296897861), np.float64(0.007024715344042312), np.float64(0.007025271685245386), np.float64(0.007025766843046008), np.float64(0.007026207522569523), np.float64(0.0070265996990417365), np.float64(0.007026948696210023), np.float64(0.007027259256557518), np.float64(0.007027535604122254), np.float64(0.007027781500663179), np.float64(0.007028000295849049), np.float64(0.007028194972082715), np.float64(0.007028368184517257), np.float64(0.007028522296764749), np.float64(0.007028659412750249), np.float64(0.007028781405118875), np.float64(0.007028889940561079), np.float64(0.007028986502385864), np.float64(0.007029072410635948), np.float64(0.007029148840009494), np.float64(0.007029216835824829), np.float64(0.007029277328239716), np.float64(0.007029331144914012), np.float64(0.007029379022285467), np.float64(0.007029421615608468), np.float64(0.007029459507891937), np.float64(0.007029493217854946), np.float64(0.007029523207009006), np.float64(0.007029549885960986), np.float64(0.007029573620023496), np.float64(0.007029594734207417), np.float64(0.007029613517665045), np.float64(0.007029630227644349), np.float64(0.007029645093007227), np.float64(0.007029658317359821), np.float64(0.007029670081839332), np.float64(0.007029680547592149), np.float64(0.0070296898579793555), np.float64(0.007029698140539165), np.float64(0.007029705508732932), np.float64(0.007029712063498338), np.float64(0.0070297178946315195), np.float64(0.007029723082016821), np.float64(0.007029727696720446), np.float64(0.00702973180196375), np.float64(0.00702973545398918), np.float64(0.007029738702830708), np.float64(0.007029741592998847), np.float64(0.007029744164090486), np.float64(0.007029746451331222), np.float64(0.007029748486058009), np.float64(0.007029750296148276), np.float64(0.0070297519064018285), np.float64(0.007029753338880742), np.float64(0.007029754613211423), np.float64(0.007029755746853538), np.float64(0.0070297567553393395), np.float64(0.007029757652486123), np.float64(0.007029758450585972), np.float64(0.007029759160573748), np.float64(0.007029759792177283), np.float64(0.00702976035405019), np.float64(0.007029760853891008), np.float64(0.007029761298548134), np.float64(0.00702976169411398), np.float64(0.0070297620460083275), np.float64(0.007029762359052638), np.float64(0.007029762637536045), np.float64(0.007029762885274137), np.float64(0.007029763105661272), np.float64(0.007029763301717061), np.float64(0.007029763476127744), np.float64(0.007029763631283081), np.float64(0.0070297637693087665), np.float64(0.0070297638920960685), np.float64(0.007029764001327312), np.float64(0.007029764098499118), np.float64(0.00702976418494283), np.float64(0.007029764261842977), np.float64(0.007029764330253229), np.float64(0.007029764391110669), np.float64(0.007029764445249327), np.float64(0.00702976449341091), np.float64(0.00702976453625525), np.float64(0.007029764574369496), np.float64(0.007029764608275824), np.float64(0.007029764638438787), np.float64(0.007029764665271691), np.float64(0.007029764689142154), np.float64(0.007029764710377246), np.float64(0.007029764729267939), np.float64(0.007029764746073057), np.float64(0.0070297647610227856), np.float64(0.007029764774322088), np.float64(0.007029764786153086), np.float64(0.007029764796677881), np.float64(0.007029764806040684), np.float64(0.007029764814369883), np.float64(0.007029764821779478), np.float64(0.007029764828371049), np.float64(0.0070297648342350335), np.float64(0.007029764839451419), np.float64(0.007029764844091977), np.float64(0.0070297648482201885), np.float64(0.007029764851892609), np.float64(0.007029764855159586), np.float64(0.007029764858065905), np.float64(0.007029764860651359), np.float64(0.007029764862951314), np.float64(0.007029764864997364), np.float64(0.007029764866817578), np.float64(0.007029764868436799), np.float64(0.007029764869877271), np.float64(0.007029764871158726), np.float64(0.007029764872298661), np.float64(0.007029764873312773), np.float64(0.007029764874214883), np.float64(0.007029764875017422), np.float64(0.0070297648757313294), np.float64(0.007029764876366491), np.float64(0.007029764876931423), np.float64(0.00702976487743409), np.float64(0.007029764877881215), np.float64(0.007029764878278957), np.float64(0.007029764878632813), np.float64(0.0070297648789476455), np.float64(0.0070297648792276455), np.float64(0.0070297648794767935), np.float64(0.0070297648796983705), np.float64(0.007029764879895566), np.float64(0.00702976488007094), np.float64(0.007029764880226954), np.float64(0.0070297648803657325), np.float64(0.007029764880489288)]</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1178,25 +1263,30 @@
         <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01528231827890422</v>
+        <v>0.01918364640488121</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.10135378720838945), np.float64(0.5574391162759447), np.float64(0.7737220072926252)], [np.float64(0.2985072597445456), np.float64(0.7576268792777086), np.float64(0.5566378765603125)], [np.float64(0.1378644162281231), np.float64(0.501164467612681), np.float64(0.9522761118245952)], [np.float64(0.3541831156042093), np.float64(0.13698919333285509), np.float64(0.38329317497675486)]]]</t>
+          <t>[[[np.float64(0.17785998523557564), np.float64(0.39017217015825345), np.float64(0.9590281027167229)], [np.float64(0.9404202330706621), np.float64(0.5825778977812528), np.float64(0.9442960507676468)], [np.float64(0.834451998401555), np.float64(0.32834393993581557), np.float64(0.6371850128692867)], [np.float64(-0.00452343484121384), np.float64(0.7973879131218337), np.float64(0.3521517329304375)]]]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[[0.26682196704116257, 0.30270392072711505, np.float64(0.939745296437737)]]</t>
+          <t>[[0.5418299364001777, 0.9440181887383228, np.float64(0.08864185509537413)]]</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[np.float64(0.006148294985040929), np.float64(0.5793672050519859), np.float64(0.29287747117788593)]</t>
+          <t>[np.float64(0.5214706035749948), np.float64(0.3065292879937728), np.float64(0.39429555696910895)]</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.5123005918697764</v>
+        <v>0.3545054778331212</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[np.float64(0.01964427740202092), np.float64(0.019639666652261762), np.float64(0.019635054908357822), np.float64(0.019630442174361152), np.float64(0.01962582845432877), np.float64(0.019621213752323625), np.float64(0.019616598072414573), np.float64(0.019611981418675734), np.float64(0.01960736379518717), np.float64(0.019602745206033924), np.float64(0.019598125655307604), np.float64(0.0195935051471043), np.float64(0.01958888368552623), np.float64(0.01958426127468119), np.float64(0.01957963791868227), np.float64(0.019575013621648197), np.float64(0.01957038838770306), np.float64(0.019565762220976564), np.float64(0.019561135125603733), np.float64(0.01955650710572531), np.float64(0.01955187816548745), np.float64(0.019547248309041563), np.float64(0.01954261754054444), np.float64(0.019537985864158634), np.float64(0.019533353284051185), np.float64(0.01952871980439599), np.float64(0.019524085429370865), np.float64(0.01951945016316003), np.float64(0.01951481400995207), np.float64(0.01951017697394173), np.float64(0.01950553905932871), np.float64(0.019500900270318297), np.float64(0.01949626061112026), np.float64(0.01949162008595059), np.float64(0.01948697869902992), np.float64(0.019482336454584442), np.float64(0.0194776933568455), np.float64(0.019473049410049334), np.float64(0.01946840461843792), np.float64(0.019463758986258115), np.float64(0.01945911251776182), np.float64(0.019454465217206382), np.float64(0.019449817088854023), np.float64(0.019445168136972342), np.float64(0.019440518365833735), np.float64(0.019435867779716027), np.float64(0.019431216382901923), np.float64(0.019426564179679095), np.float64(0.019421911174340518), np.float64(0.019417257371184157), np.float64(0.019412602774512747), np.float64(0.019407947388634293), np.float64(0.01940329121786169), np.float64(0.019398634266512903), np.float64(0.01939397653891067), np.float64(0.019389318039382996), np.float64(0.01938465877226236), np.float64(0.019379998741886433), np.float64(0.019375337952597733), np.float64(0.01937067640874376), np.float64(0.019366014114676793), np.float64(0.019361351074753917), np.float64(0.0193566872933372), np.float64(0.019352022774793316), np.float64(0.019347357523493848), np.float64(0.019342691543815235), np.float64(0.01933802484013889), np.float64(0.01933335741685029), np.float64(0.019328689278340378), np.float64(0.01932402042900442), np.float64(0.01931935087324262), np.float64(0.019314680615459615), np.float64(0.01931000966006531), np.float64(0.019305338011473216), np.float64(0.019300665674102463), np.float64(0.019295992652376512), np.float64(0.019291318950723363), np.float64(0.019286644573575585), np.float64(0.019281969525370295), np.float64(0.019277293810549535), np.float64(0.019272617433559326), np.float64(0.019267940398850523), np.float64(0.019263262710878793), np.float64(0.019258584374103688), np.float64(0.019253905392989712), np.float64(0.019249225772005638), np.float64(0.01924454551562463), np.float64(0.01923986462832462), np.float64(0.01923518311458747), np.float64(0.019230500978899775), np.float64(0.019225818225752304), np.float64(0.019221134859640516), np.float64(0.019216450885063734), np.float64(0.019211766306526216), np.float64(0.01920708112853582), np.float64(0.01920239535560532), np.float64(0.019197708992251337), np.float64(0.01919302204299516), np.float64(0.019188334512361894), np.float64(0.019183646404881207)]</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1220,25 +1310,30 @@
         <v>200</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01036712438017103</v>
+        <v>0.03082042980589107</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.821096668133461), np.float64(0.290493351214646), np.float64(0.8731330179465527)], [np.float64(0.5317038399167272), np.float64(0.476897466942009), np.float64(0.5889926136591952)], [np.float64(1.007924223907078), np.float64(0.8175529523995058), np.float64(0.651102919194371)], [np.float64(0.8828222666690798), np.float64(0.25687401877080057), np.float64(0.8687992278172193)]]]</t>
+          <t>[[[np.float64(-0.09729129069726081), np.float64(0.060752089885862434), np.float64(0.1805396945268105)], [np.float64(0.7533705913991974), np.float64(0.0974215397691785), np.float64(0.4639293589232398)], [np.float64(0.45666841635600347), np.float64(0.1402033539837997), np.float64(0.5801500857684593)], [np.float64(0.5652165055204648), np.float64(0.32569768876307664), np.float64(0.32995214251969224)]]]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[[0.14209875561785446, 0.6128639701802561, np.float64(0.6263309089965645)]]</t>
+          <t>[[0.6705686983630575, 0.7854149290830695, np.float64(0.026057829861890803)]]</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[np.float64(0.11386768523412809), np.float64(0.04685700421821247), np.float64(0.4167991393273302)]</t>
+          <t>[np.float64(0.360199736416233), np.float64(0.3679558961423223), np.float64(0.9620336531600168)]</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.2540991734202923</v>
+        <v>0.4851863403562435</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[np.float64(0.0389308476630808), np.float64(0.038901299235369384), np.float64(0.03887163493059844), np.float64(0.03884185450970596), np.float64(0.03881195773699465), np.float64(0.038781944380182204), np.float64(0.03875181421046236), np.float64(0.038721567002564856), np.float64(0.03869120253481523), np.float64(0.0386607205891904), np.float64(0.03863012095137972), np.float64(0.03859940341084889), np.float64(0.03856856776089079), np.float64(0.038537613798695095), np.float64(0.038506541325407415), np.float64(0.03847535014618746), np.float64(0.03844404007027038), np.float64(0.038412610911030313), np.float64(0.03838106248604501), np.float64(0.038349394617153386), np.float64(0.03831760713052024), np.float64(0.038285699856695915), np.float64(0.03825367263068851), np.float64(0.03822152529201542), np.float64(0.03818925768477504), np.float64(0.03815686965770814), np.float64(0.03812436106425972), np.float64(0.03809173176264624), np.float64(0.0380589816159175), np.float64(0.03802611049202542), np.float64(0.037993118263884795), np.float64(0.03796000480943785), np.float64(0.0379267700117233), np.float64(0.03789341375893764), np.float64(0.03785993594450222), np.float64(0.037826336467129594), np.float64(0.03779261523088694), np.float64(0.037758772145262444), np.float64(0.03772480712523274), np.float64(0.03769072009132622), np.float64(0.03765651096969261), np.float64(0.03762217969216548), np.float64(0.03758772619632845), np.float64(0.037553150425583604), np.float64(0.0375184523292152), np.float64(0.037483631862458136), np.float64(0.037448688986561), np.float64(0.03741362366885513), np.float64(0.037378435882819354), np.float64(0.037343125608142375), np.float64(0.037307692830796824), np.float64(0.03727213754309798), np.float64(0.037236459743770566), np.float64(0.03720065943801554), np.float64(0.037164736637576516), np.float64(0.03712869136080436), np.float64(0.03709252363271902), np.float64(0.0370562334850806), np.float64(0.037019820956446806), np.float64(0.036983286092243786), np.float64(0.03694662894482809), np.float64(0.03690984957354844), np.float64(0.036872948044811574), np.float64(0.03683592443214674), np.float64(0.03679877881626773), np.float64(0.036761511285135134), np.float64(0.036724121934017126), np.float64(0.03668661086555545), np.float64(0.03664897818982604), np.float64(0.036611224024398745), np.float64(0.036573348494400665), np.float64(0.036535351732570415), np.float64(0.03649723387932804), np.float64(0.036458995082825206), np.float64(0.03642063549901035), np.float64(0.03638215529168599), np.float64(0.036343554632562884), np.float64(0.03630483370132175), np.float64(0.03626599268566919), np.float64(0.03622703178139101), np.float64(0.036187951192412866), np.float64(0.0361487511308513), np.float64(0.036109431817066294), np.float64(0.03606999347972097), np.float64(0.0360304363558297), np.float64(0.03599076069081157), np.float64(0.03595096673854107), np.float64(0.03591105476140047), np.float64(0.035871025030326305), np.float64(0.03583087782486274), np.float64(0.03579061343320371), np.float64(0.03575023215224665), np.float64(0.03570973428763497), np.float64(0.03566912015380371), np.float64(0.0356283900740245), np.float64(0.03558754438044729), np.float64(0.0355465834141486), np.float64(0.03550550752516413), np.float64(0.03546431707253769), np.float64(0.03542301242435539), np.float64(0.03538159395778573), np.float64(0.035340062059115586), np.float64(0.035298417123788214), np.float64(0.035256659556434866), np.float64(0.03521478977091428), np.float64(0.03517280819033712), np.float64(0.03513071524710709), np.float64(0.03508851138293956), np.float64(0.035046197048902925), np.float64(0.035003772705433985), np.float64(0.034961238822373245), np.float64(0.03491859587898522), np.float64(0.034875844363983756), np.float64(0.034832984775553175), np.float64(0.034790017621367963), np.float64(0.0347469434186145), np.float64(0.0347037626940069), np.float64(0.03466047598380559), np.float64(0.034617083833828034), np.float64(0.034573586799468085), np.float64(0.034529985445702245), np.float64(0.0344862803471023), np.float64(0.034442472087844914), np.float64(0.03439856126171701), np.float64(0.034354548472121056), np.float64(0.034310434332081405), np.float64(0.034266219464242846), np.float64(0.03422190450087417), np.float64(0.034177490083865066), np.float64(0.03413297686472549), np.float64(0.03408836550457678), np.float64(0.03404365667414949), np.float64(0.033998851053774065), np.float64(0.03395394933336913), np.float64(0.03390895221243143), np.float64(0.03386386040002287), np.float64(0.03381867461475195), np.float64(0.033773395584759724), np.float64(0.033728024047699305), np.float64(0.03368256075071512), np.float64(0.03363700645042032), np.float64(0.03359136191287098), np.float64(0.0335456279135393), np.float64(0.03349980523728796), np.float64(0.03345389467833337), np.float64(0.03340789704021974), np.float64(0.033361813135780814), np.float64(0.033315643787103416), np.float64(0.033269389825490464), np.float64(0.03322305209141897), np.float64(0.03317663143449908), np.float64(0.033130128713428755), np.float64(0.03308354479594641), np.float64(0.033036880558782476), np.float64(0.032990136887610995), np.float64(0.03294331467699545), np.float64(0.0328964148303336), np.float64(0.032849438259800745), np.float64(0.032802385886291606), np.float64(0.03275525863936048), np.float64(0.03270805745715621), np.float64(0.03266078328635865), np.float64(0.03261343708211234), np.float64(0.03256601980795537), np.float64(0.032518532435750695), np.float64(0.032470975945611144), np.float64(0.03242335132582606), np.float64(0.032375659572782454), np.float64(0.03232790169088612), np.float64(0.032280078692482096), np.float64(0.03223219159776973), np.float64(0.032184241434717265), np.float64(0.032136229238975494), np.float64(0.032088156053788806), np.float64(0.03204002292990247), np.float64(0.0319918309254704), np.float64(0.03194358110595984), np.float64(0.031895274544054754), np.float64(0.03184691231955625), np.float64(0.031798495519281184), np.float64(0.03175002523696026), np.float64(0.03170150257313223), np.float64(0.0316529286350374), np.float64(0.031604304536509815), np.float64(0.03155563139786687), np.float64(0.031506910345796287), np.float64(0.03145814251324281), np.float64(0.03140932903929235), np.float64(0.03136047106905426), np.float64(0.0313115697535423), np.float64(0.031262626249553546), np.float64(0.031213641719546048), np.float64(0.031164617331514127), np.float64(0.03111555425886299), np.float64(0.031066453680280597), np.float64(0.031017316779608547), np.float64(0.03096814474571237), np.float64(0.03091893877234803), np.float64(0.03086970005802889), np.float64(0.03082042980589107)]</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1262,25 +1357,30 @@
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01768009879767067</v>
+        <v>0.01130812020204728</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.23526525239893892), np.float64(-1.2380146469823026), np.float64(0.14993920545603)], [np.float64(-0.1514058808374262), np.float64(-0.381138568072482), np.float64(-0.003861744674739952)], [np.float64(0.6063274541154069), np.float64(-1.2014746556838634), np.float64(0.08618470463249592)], [np.float64(0.23730231624966744), np.float64(0.2166494632307564), np.float64(0.039834745412810145)]]]</t>
+          <t>[[[np.float64(0.45382169669949574), np.float64(0.19308296369219838), np.float64(-0.0678520397210828)], [np.float64(0.6535696795295804), np.float64(0.9465621099559427), np.float64(-0.2207686266416029)], [np.float64(0.22198133404316445), np.float64(0.34629841987081994), np.float64(0.01830244542665559)], [np.float64(0.5021588069394216), np.float64(0.3057872284599747), np.float64(0.14034275186935233)]]]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[[0.9712989890229523, 0.5363439811732763, np.float64(-0.42722754944368585)]]</t>
+          <t>[[0.15301462884975614, 0.26650507383493816, np.float64(-0.4437399259523833)]]</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[np.float64(0.3013366521774197), np.float64(0.9646471582786125), np.float64(0.2636715841379088)]</t>
+          <t>[np.float64(0.8416670016018236), np.float64(0.10803384917300551), np.float64(0.9749108911815682)]</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0.6872894011974647</v>
+        <v>0.01121907570716636</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[np.float64(0.022727189011408928), np.float64(0.022343462866394347), np.float64(0.021962762170876383), np.float64(0.02158582914142004), np.float64(0.021213380528719395), np.float64(0.02084610118433629), np.float64(0.020484638171855824), np.float64(0.020129595538861653), np.float64(0.019781529844907247), np.float64(0.01944094651641347), np.float64(0.019108297073328392), np.float64(0.018783977245797508), np.float64(0.01846832597323169), np.float64(0.01816162525420506), np.float64(0.01786410079448585), np.float64(0.017575923382945387), np.float64(0.01729721091153477), np.float64(0.01702803094616452), np.float64(0.01676840375011509), np.float64(0.016518305660261558), np.float64(0.016277672718506053), np.float64(0.01604640446580067), np.float64(0.015824367813434055), np.float64(0.015611400915195337), np.float64(0.01540731697403208), np.float64(0.015211907927320184), np.float64(0.015024947965417286), np.float64(0.014846196848343688), np.float64(0.014675402994959551), np.float64(0.01451230632767033), np.float64(0.014356640863317954), np.float64(0.01420813704749893), np.float64(0.014066523835036085), np.float64(0.013931530523766777), np.float64(0.013802888352275057), np.float64(0.013680331874769589), np.float64(0.013563600128098858), np.float64(0.013452437607001544), np.float64(0.013346595064241325), np.float64(0.013245830152356107), np.float64(0.013149907923431398), np.float64(0.013058601202783368), np.float64(0.012971690851589935), np.float64(0.012888965932618892), np.float64(0.012810223792159231), np.float64(0.01273527007018674), np.float64(0.012663918649716466), np.float64(0.01259599155521954), np.float64(0.01253131880894324), np.float64(0.012469738252985644), np.float64(0.012411095344065946), np.float64(0.012355242927036745), np.float64(0.012302040992438888), np.float64(0.012251356422633388), np.float64(0.012203062730439095), np.float64(0.012157039793576891), np.float64(0.012113173587733282), np.float64(0.012071355920582845), np.float64(0.012031484168695213), np.float64(0.011993461018905428), np.float64(0.011957194215422651), np.float64(0.011922596313663944), np.float64(0.011889584441585136), np.float64(0.011858080069083439), np.float64(0.011828008785861406), np.float64(0.011799300088020043), np.float64(0.011771887173515176), np.float64(0.011745706746520337), np.float64(0.01172069883065423), np.float64(0.011696806590953544), np.float64(0.011673976164448872), np.float64(0.011652156499111747), np.float64(0.01163129920096069), np.float64(0.01161135838904152), np.float64(0.011592290558008703), np.float64(0.011574054448019604), np.float64(0.011556610921629603), np.float64(0.01153992284738728), np.float64(0.011523954989829138), np.float64(0.011508673905563944), np.float64(0.011494047845156759), np.float64(0.011480046660513991), np.float64(0.011466641717490825), np.float64(0.01145380581344876), np.float64(0.011441513099492597), np.float64(0.011429739007135528), np.float64(0.011418460179148035), np.float64(0.011407654404357464), np.float64(0.011397300556171518), np.float64(0.011387378534620697), np.float64(0.011377869211713385), np.float64(0.01136875437990529), np.float64(0.011360016703519561), np.float64(0.011351639672923753), np.float64(0.011343607561324293), np.float64(0.011335905383999161), np.float64(0.011328518859851101), np.float64(0.011321434375119838), np.float64(0.01131463894914585), np.float64(0.011308120202047281)]</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1304,25 +1404,30 @@
         <v>200</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01788439487215495</v>
+        <v>0.01416710363572345</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.02317664871154244), np.float64(-0.9561090186778872), np.float64(0.051610722100297976)], [np.float64(-0.567253396653739), np.float64(-0.7397970987548098), np.float64(-0.4072778355456274)], [np.float64(-0.8456450517591638), np.float64(-0.3060309697898365), np.float64(-0.3289296141647169)], [np.float64(-0.10454440419833189), np.float64(-0.26518775235951036), np.float64(0.10926113935183686)]]]</t>
+          <t>[[[np.float64(0.8707981470652862), np.float64(-0.45406381421880665), np.float64(-0.877479162531301)], [np.float64(-0.052982306345422905), np.float64(-0.16033225770479417), np.float64(-0.6712112295816975)], [np.float64(0.7485777800037235), np.float64(-0.3948330645448959), np.float64(-0.778872084571873)], [np.float64(0.9612116101469416), np.float64(0.6000127969357529), np.float64(-0.7586279814333599)]]]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[[0.8432884203642046, 0.6586854826572106, np.float64(-0.2018328334108082)]]</t>
+          <t>[[0.36227071791093646, 0.5543555208061884, np.float64(-2.244381814033865)]]</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[np.float64(0.3916084965629102), np.float64(0.5107372456695402), np.float64(0.18795936087502282)]</t>
+          <t>[np.float64(0.05029175066174374), np.float64(0.4123305632844654), np.float64(0.9921396161532106)]</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.8461895023232759</v>
+        <v>0.8873444015347636</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[np.float64(0.04568553177118446), np.float64(0.04530412411153113), np.float64(0.04490333985008412), np.float64(0.04448276660053561), np.float64(0.044042093819849595), np.float64(0.0435811310604012), np.float64(0.04309982669127277), np.float64(0.04259828656240563), np.float64(0.04207679195808461), np.float64(0.041535816064960415), np.float64(0.040976038076804076), np.float64(0.04039835398803846), np.float64(0.03980388310677446), np.float64(0.03919396936119385), np.float64(0.03857017659344526), np.float64(0.03793427724007308), np.float64(0.037288234086419986), np.float64(0.03663417514297169), np.float64(0.03597436210154264), np.float64(0.035311153255139255), np.float64(0.03464696216663436), np.float64(0.033984213704777125), np.float64(0.03332529929205044), np.float64(0.03267253329820631), np.float64(0.03202811245232616), np.float64(0.03139407993914839), np.float64(0.030772295514748915), np.float64(0.03016441255917244), np.float64(0.029571862524441765), np.float64(0.02899584678238386), np.float64(0.028437335469337067), np.float64(0.02789707259525838), np.float64(0.02737558645133145), np.float64(0.026873204217795772), np.float64(0.026390069635789774), np.float64(0.02592616264893586), np.float64(0.02548132002229345), np.float64(0.025055256087697847), np.float64(0.024647582925576006), np.float64(0.024257829457901853), np.float64(0.023885459082523756), np.float64(0.023529885617660676), np.float64(0.023190487442025072), np.float64(0.022866619809498934), np.float64(0.022557625388280544), np.float64(0.022262843124761407), np.float64(0.021981615565381207), np.float64(0.021713294788199198), np.float64(0.021457247103414224), np.float64(0.021212856681026307), np.float64(0.020979528257190735), np.float64(0.020756689060151063), np.float64(0.020543790083901933), np.float64(0.02034030682393133), np.float64(0.02014573957554635), np.float64(0.019959613381756638), np.float64(0.01978147770525923), np.float64(0.01961090588755516), np.float64(0.019447494448015464), np.float64(0.019290862266637183), np.float64(0.019140649686453178), np.float64(0.018996517564738198), np.float64(0.018858146296446696), np.float64(0.018725234828475636), np.float64(0.018597499679255867), np.float64(0.01847467397488119), np.float64(0.018356506510153744), np.float64(0.018242760840695343), np.float64(0.018133214410421056), np.float64(0.018027657717244433), np.float64(0.017925893518672586), np.float64(0.01782773607798992), np.float64(0.017733010451139723), np.float64(0.01764155181370957), np.float64(0.017553204827122318), np.float64(0.017467823042778666), np.float64(0.017385268342711015), np.float64(0.017305410415137074), np.float64(0.017228126263264535), np.float64(0.017153299745593497), np.float64(0.01708082114599494), np.float64(0.017010586771865187), np.float64(0.016942498578668124), np.float64(0.016876463819251265), np.float64(0.016812394716365395), np.float64(0.016750208156891225), np.float64(0.01668982540637557), np.float64(0.01663117184249921), np.float64(0.016574176706235105), np.float64(0.016518772869475354), np.float64(0.016464896618030873), np.float64(0.016412487448917653), np.float64(0.016361487880977785), np.float64(0.016311843277903318), np.float64(0.01626350168278695), np.float64(0.016216413663439736), np.float64(0.016170532167688018), np.float64(0.016125812387992818), np.float64(0.016082211634724095), np.float64(0.01603968921751359), np.float64(0.015998206334095922), np.float64(0.015957725966165546), np.float64(0.015918212781742536), np.float64(0.01587963304359728), np.float64(0.01584195452334629), np.float64(0.015805146420821287), np.float64(0.015769179288342587), np.float64(0.015734024959595572), np.float64(0.015699656482782865), np.float64(0.015666048057765697), np.float64(0.01563317497695066), np.float64(0.015601013569648851), np.float64(0.015569541149700052), np.float64(0.015538735966146652), np.float64(0.015508577156743817), np.float64(0.015479044704142967), np.float64(0.015450119394572262), np.float64(0.015421782778840166), np.float64(0.015394017135542207), np.float64(0.015366805436307173), np.float64(0.01534013131297417), np.float64(0.015313979026559708), np.float64(0.015288333437933982), np.float64(0.0152631799800663), np.float64(0.015238504631779786), np.float64(0.01521429389289223), np.float64(0.015190534760680508), np.float64(0.015167214707584042), np.float64(0.015144321660070287), np.float64(0.01512184397859561), np.float64(0.015099770438597336), np.float64(0.01507809021245819), np.float64(0.015056792852390862), np.float64(0.015035868274172873), np.float64(0.015015306741707347), np.float64(0.01499509885234508), np.float64(0.01497523552293077), np.float64(0.014955707976532605), np.float64(0.014936507729819169), np.float64(0.014917626581045233), np.float64(0.014899056598611656), np.float64(0.014880790110172652), np.float64(0.014862819692258538), np.float64(0.014845138160382215), np.float64(0.01482773855961372), np.float64(0.01481061415558455), np.float64(0.014793758425908262), np.float64(0.014777165051998864), np.float64(0.01476082791125152), np.float64(0.014744741069579965), np.float64(0.014728898774290544), np.float64(0.01471329544727168), np.float64(0.014697925678479851), np.float64(0.014682784219719693), np.float64(0.014667865978688747), np.float64(0.014653166013281847), np.float64(0.014638679526145277), np.float64(0.014624401859456597), np.float64(0.014610328489929865), np.float64(0.014596455024035459), np.float64(0.0145827771934083), np.float64(0.014569290850464923), np.float64(0.014555991964189064), np.float64(0.014542876616092057), np.float64(0.014529940996343095), np.float64(0.014517181400056386), np.float64(0.014504594223724195), np.float64(0.014492175961793039), np.float64(0.01447992320338233), np.float64(0.014467832629127996), np.float64(0.014455901008150487), np.float64(0.01444412519514476), np.float64(0.014432502127581652), np.float64(0.014421028823015802), np.float64(0.014409702376498582), np.float64(0.014398519958090841), np.float64(0.014387478810472013), np.float64(0.01437657624663324), np.float64(0.014365809647662481), np.float64(0.014355176460607789), np.float64(0.014344674196426961), np.float64(0.014334300428005365), np.float64(0.014324052788253794), np.float64(0.01431392896826572), np.float64(0.01430392671555125), np.float64(0.01429404383232968), np.float64(0.014284278173885012), np.float64(0.014274627646978394), np.float64(0.014265090208317397), np.float64(0.014255663863081617), np.float64(0.014246346663495807), np.float64(0.014237136707458147), np.float64(0.014228032137207868), np.float64(0.014219031138049258), np.float64(0.014210131937112007), np.float64(0.01420133280215247), np.float64(0.014192632040405245), np.float64(0.014184027997463648), np.float64(0.014175519056199314), np.float64(0.014167103635723448)]</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1346,25 +1451,30 @@
         <v>100</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02240516821322417</v>
+        <v>0.01047483642118869</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.18102997949143235), np.float64(-0.47972675051055463), np.float64(0.767144219134138)], [np.float64(-0.4848171237574042), np.float64(0.07793816706332632), np.float64(0.3417024358784312)], [np.float64(-0.3861873002464965), np.float64(-0.4180776491308265), np.float64(0.7406282456842137)], [np.float64(0.3484013537474573), np.float64(0.15352912391577528), np.float64(0.5066733534783516)]]]</t>
+          <t>[[[np.float64(-0.03219470265921796), np.float64(-0.14519578905495217), np.float64(0.5465666864005337)], [np.float64(0.16164017729277375), np.float64(0.03497407114647844), np.float64(0.34552416803136465)], [np.float64(-0.061101863495938415), np.float64(-0.4713674043786426), np.float64(0.8459307226528675)], [np.float64(0.1389214364839035), np.float64(0.24334855962138935), np.float64(0.25157032858953576)]]]</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[[0.5339880227094136, 0.6296003419711441, np.float64(0.4775443869398511)]]</t>
+          <t>[[0.40731323425465005, 0.023336218029898603, np.float64(0.3469970273528704)]]</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[np.float64(0.7598611992154779), np.float64(0.995566074774786), np.float64(0.16424599484610033)]</t>
+          <t>[np.float64(0.9501892458757635), np.float64(0.4829065594047422), np.float64(0.08012372903100512)]</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0.6868580072323432</v>
+        <v>0.5801986888650926</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[np.float64(0.07034578639851763), np.float64(0.06990684102959324), np.float64(0.06944325781710257), np.float64(0.06895334015334001), np.float64(0.06843526724614528), np.float64(0.06788708768067861), np.float64(0.06730671372337585), np.float64(0.06669191678995916), np.float64(0.06604032461853497), np.float64(0.06534942083128846), np.float64(0.06461654773523562), np.float64(0.06383891340327744), np.float64(0.0630136042877872), np.float64(0.062137604842279745), np.float64(0.061207825848373906), np.float64(0.060221143343289436), np.float64(0.059174450186046584), np.float64(0.058064722345966636), np.float64(0.05688910189254792), np.float64(0.0556449983513283), np.float64(0.05433020950510914), np.float64(0.052943061812373474), np.float64(0.051482569357099876), np.float64(0.049948608647367235), np.float64(0.048342104706241895), np.float64(0.046665221862438495), np.float64(0.04492155060389576), np.float64(0.04311627996390658), np.float64(0.04125634328564873), np.float64(0.039350523896769934), np.float64(0.037409506179495726), np.float64(0.03544585668443667), np.float64(0.03347391937148844), np.float64(0.03150960914318583), np.float64(0.029570089404589488), np.float64(0.027673323746899927), np.float64(0.02583750051136346), np.float64(0.024080343033641156), np.float64(0.02241833761086033), np.float64(0.02086593338554235), np.float64(0.019434788680686), np.float64(0.01813315035862584), np.float64(0.0169654501343129), np.float64(0.015932180880465302), np.float64(0.015030078453685923), np.float64(0.01425258797325377), np.float64(0.013590549311279631), np.float64(0.013033006286324223), np.float64(0.012568034819595777), np.float64(0.01218349741900858), np.float64(0.01186765882501288), np.float64(0.011609631222580874), np.float64(0.011399648256610238), np.float64(0.011229189420589264), np.float64(0.011090988334327612), np.float64(0.010978961203569367), np.float64(0.010888088200996987), np.float64(0.010814273702600338), np.float64(0.010754203715917279), np.float64(0.010705211991415471), np.float64(0.010665160925471026), np.float64(0.010632339567888385), np.float64(0.010605378639493854), np.float64(0.010583181121942032), np.float64(0.010564866375081649), np.float64(0.010549725594163954), np.float64(0.010537186537951642), np.float64(0.010526785703248701), np.float64(0.010518146407154143), np.float64(0.01051096151798416), np.float64(0.010504979826008063), np.float64(0.010499995257300098), np.float64(0.01049583830768785), np.float64(0.01049236921259462), np.float64(0.010489472477701274), np.float64(0.010487052480176473), np.float64(0.010485029915685373), np.float64(0.010483338916676773), np.float64(0.010481924706030885), np.float64(0.010480741679750756), np.float64(0.010479751835125135), np.float64(0.010478923478332666), np.float64(0.01047823015904059), np.float64(0.010477649790111728), np.float64(0.010477163918800004), np.float64(0.010476757122315763), np.float64(0.01047641650578303), np.float64(0.010476131284707433), np.float64(0.010475892437342938), np.float64(0.010475692414984325), np.float64(0.01047552490034117), np.float64(0.010475384605874598), np.float64(0.010475267105391227), np.float64(0.010475168693342408), np.float64(0.0104750862672213), np.float64(0.010475017229232325), np.float64(0.010474959404052013), np.float64(0.010474910970028213), np.float64(0.010474870401613814), np.float64(0.010474836421188686)]</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1388,25 +1498,30 @@
         <v>200</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0132739039724264</v>
+        <v>0.00666734097991839</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.5836151426403471), np.float64(-0.6142722978274741), np.float64(-0.3693419377259245)], [np.float64(0.14616267922466356), np.float64(0.18540465601514347), np.float64(-0.16237355672627515)], [np.float64(0.3185941865430658), np.float64(-0.6026679636807241), np.float64(0.3074892740874786)], [np.float64(-0.03975031122857084), np.float64(-0.1381414153767368), np.float64(0.577962498314955)]]]</t>
+          <t>[[[np.float64(0.20472180613731128), np.float64(0.30054190736126374), np.float64(-0.20230878706732675)], [np.float64(0.34329360890349025), np.float64(-0.15126898029546812), np.float64(-0.09833264082513347)], [np.float64(-0.2065150035132058), np.float64(0.730850836094282), np.float64(-0.030546582954010512)], [np.float64(0.6169028837830354), np.float64(0.8295329106627279), np.float64(0.12878365062830122)]]]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[[0.8468180578067069, 0.16602285957193152, np.float64(0.07186764700141873)]]</t>
+          <t>[[0.4529614379418143, 0.932611707114756, np.float64(-0.13045580521643085)]]</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[np.float64(0.1347055174601876), np.float64(0.27500197066736315), np.float64(0.38306688101943936)]</t>
+          <t>[np.float64(0.9720598412419159), np.float64(0.36418754896705047), np.float64(0.7159389908232126)]</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.941165650566105</v>
+        <v>0.1210245332839621</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[np.float64(0.07930127592122768), np.float64(0.07904628692831918), np.float64(0.0787701893772245), np.float64(0.07847078730881998), np.float64(0.0781455965930264), np.float64(0.07779179821606719), np.float64(0.07740618264441866), np.float64(0.07698508337002004), np.float64(0.07652429732905794), np.float64(0.07601898940020126), np.float64(0.0754635776309957), np.float64(0.07485159523379911), np.float64(0.07417552479154009), np.float64(0.07342659964012671), np.float64(0.07259456729098282), np.float64(0.071667410481542), np.float64(0.07063102382809036), np.float64(0.06946884958232678), np.float64(0.06816148720621514), np.float64(0.06668631261246383), np.float64(0.06501718067413034), np.float64(0.0631243487831554), np.float64(0.06097486210378612), np.float64(0.05853379275265766), np.float64(0.05576691836939873), np.float64(0.05264560151811478), np.float64(0.04915461832626971), np.float64(0.045303136813522354), np.float64(0.04113750284006692), np.float64(0.036751815255701134), np.float64(0.03228956649203889), np.float64(0.027929810530482237), np.float64(0.02385725774891327), np.float64(0.020225598050265168), np.float64(0.017129353629757406), np.float64(0.0145952221951463), np.float64(0.01259262095506993), np.float64(0.011054536885361217), np.float64(0.00989877422882425), np.float64(0.009043745585897389), np.float64(0.00841747044046442), np.float64(0.007961071962725533), np.float64(0.007628806130365808), np.float64(0.007386371843611), np.float64(0.0072086605587093535), np.float64(0.007077574633472679), np.float64(0.0069801828719584), np.float64(0.0069072766436491465), np.float64(0.006852292589233886), np.float64(0.006810533439088245), np.float64(0.006778615532002022), np.float64(0.00675408167202162), np.float64(0.006735131381762872), np.float64(0.006720433121866563), np.float64(0.006708993191754318), np.float64(0.006700063666120529), np.float64(0.006693077221399611), np.float64(0.006687600554872937), np.float64(0.00668330074326652), np.float64(0.006679920684452445), np.float64(0.00667726097997651), np.float64(0.006675166435284309), np.float64(0.006673515908239644), np.float64(0.006672214612814665), np.float64(0.006671188242321209), np.float64(0.006670378454412673), np.float64(0.006669739384279023), np.float64(0.006669234940254286), np.float64(0.006668836698765134), np.float64(0.006668522261017381), np.float64(0.006668273967099475), np.float64(0.006668077887829846), np.float64(0.006667923033160791), np.float64(0.006667800729825205), np.float64(0.006667704131589451), np.float64(0.006667627833541634), np.float64(0.006667567568119708), np.float64(0.0066675199654491245), np.float64(0.006667482364309039), np.float64(0.006667452662977438), np.float64(0.006667429201523147), np.float64(0.006667410668886049), np.float64(0.006667396029527787), np.float64(0.006667384465505357), np.float64(0.00666737533074063), np.float64(0.006667368114898857), np.float64(0.006667362414861501), np.float64(0.006667357912199034), np.float64(0.006667354355381728), np.float64(0.006667351545719608), np.float64(0.006667349326261107), np.float64(0.006667347573026233), np.float64(0.006667346188076094), np.float64(0.0066673450940502475), np.float64(0.006667344229835389), np.float64(0.006667343547158347), np.float64(0.006667343007884509), np.float64(0.006667342581890969), np.float64(0.0066673422453818396), np.float64(0.0066673419795595275), np.float64(0.006667341769575272), np.float64(0.006667341603699425), np.float64(0.006667341472666437), np.float64(0.006667341369160456), np.float64(0.006667341287394866), np.float64(0.006667341222806835), np.float64(0.006667341171783887), np.float64(0.006667341131480164), np.float64(0.006667341099642273), np.float64(0.006667341074493643), np.float64(0.006667341054627506), np.float64(0.006667341038932745), np.float64(0.006667341026535811), np.float64(0.006667341016742685), np.float64(0.006667341009007185), np.float64(0.006667341002896027), np.float64(0.006667340998067613), np.float64(0.006667340994253608), np.float64(0.006667340991242752), np.float64(0.006667340988864153), np.float64(0.006667340986984899), np.float64(0.006667340985500171), np.float64(0.006667340984327838), np.float64(0.0066673409834006455), np.float64(0.006667340982669247), np.float64(0.0066673409820902745), np.float64(0.0066673409816329805), np.float64(0.006667340981272682), np.float64(0.0066673409809880685), np.float64(0.006667340980762405), np.float64(0.006667340980583863), np.float64(0.006667340980443995), np.float64(0.006667340980333304), np.float64(0.006667340980245736), np.float64(0.006667340980176272), np.float64(0.006667340980122758), np.float64(0.006667340980080628), np.float64(0.0066673409800462255), np.float64(0.006667340980018662), np.float64(0.006667340979996935), np.float64(0.006667340979979538), np.float64(0.006667340979966919), np.float64(0.006667340979956286), np.float64(0.0066673409799491755), np.float64(0.006667340979942697), np.float64(0.006667340979936739), np.float64(0.006667340979932357), np.float64(0.006667340979929087), np.float64(0.006667340979926046), np.float64(0.006667340979925657), np.float64(0.006667340979925292), np.float64(0.006667340979924945), np.float64(0.006667340979924596), np.float64(0.006667340979924322), np.float64(0.006667340979924057), np.float64(0.006667340979923775), np.float64(0.006667340979923527), np.float64(0.006667340979923284), np.float64(0.00666734097992307), np.float64(0.006667340979922891), np.float64(0.006667340979922711), np.float64(0.006667340979922531), np.float64(0.006667340979922385), np.float64(0.006667340979922253), np.float64(0.006667340979922096), np.float64(0.006667340979921976), np.float64(0.006667340979921859), np.float64(0.006667340979921717), np.float64(0.006667340979921605), np.float64(0.006667340979921489), np.float64(0.006667340979921333), np.float64(0.006667340979921216), np.float64(0.006667340979921075), np.float64(0.006667340979920954), np.float64(0.006667340979920843), np.float64(0.0066673409799207365), np.float64(0.006667340979920623), np.float64(0.006667340979920501), np.float64(0.006667340979920394), np.float64(0.006667340979920257), np.float64(0.0066673409799201415), np.float64(0.006667340979920019), np.float64(0.006667340979919902), np.float64(0.006667340979919784), np.float64(0.006667340979919663), np.float64(0.006667340979919508), np.float64(0.006667340979919399), np.float64(0.00666734097991928), np.float64(0.006667340979919163), np.float64(0.006667340979919056), np.float64(0.006667340979918925), np.float64(0.006667340979918837), np.float64(0.006667340979918739), np.float64(0.006667340979918649), np.float64(0.006667340979918597), np.float64(0.006667340979918526), np.float64(0.0066673409799184865), np.float64(0.006667340979918442), np.float64(0.006667340979918417), np.float64(0.00666734097991839)]</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1430,25 +1545,30 @@
         <v>100</v>
       </c>
       <c r="F24" t="n">
-        <v>0.009974507194258023</v>
+        <v>0.0172155113471805</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.13551278331256694), np.float64(0.14751920769478089), np.float64(0.06207501354451389)], [np.float64(-0.1041016951719992), np.float64(0.04303427406725427), np.float64(0.2978655558529087)], [np.float64(0.1373729122459567), np.float64(0.7876927812930336), np.float64(-0.5730861361026328)], [np.float64(0.056924719887043805), np.float64(0.16156943043055946), np.float64(0.09518180542114682)]]]</t>
+          <t>[[[np.float64(0.18867048243770873), np.float64(0.13243177487202917), np.float64(0.09050243668227681)], [np.float64(-0.09624478420834175), np.float64(-0.5533321352235783), np.float64(0.11247105295165194)], [np.float64(-0.21413932244946227), np.float64(-0.27845472631563606), np.float64(0.37323874013364566)], [np.float64(0.5081052472583805), np.float64(-0.19571122170365698), np.float64(0.7745267622379634)]]]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[[0.4933442972719383, 0.5766663251720662, np.float64(-0.35717015088854015)]]</t>
+          <t>[[0.7129379018960891, 0.13507670250789205, np.float64(-0.14606434487272738)]]</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[np.float64(0.369369955280551), np.float64(0.1288328642564526), np.float64(0.7860743315838097)]</t>
+          <t>[np.float64(0.5060725551598005), np.float64(0.9804167935564768), np.float64(0.15332601045256594)]</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0.9897382105582853</v>
+        <v>0.8878992142081847</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[np.float64(0.08429340347387053), np.float64(0.07902329510069829), np.float64(0.06434154380685242), np.float64(0.025774735930728578), np.float64(0.019107612840252287), np.float64(0.01996809156405544), np.float64(0.017662843009262436), np.float64(0.01838858804683768), np.float64(0.017285217509646247), np.float64(0.017795365501592407), np.float64(0.017215511347180502), np.float64(0.017546602806350696), np.float64(0.017226989368195573), np.float64(0.017433157960842136), np.float64(0.017252088538270167), np.float64(0.017377549433787193), np.float64(0.017273291152546694), np.float64(0.017348639197721363), np.float64(0.017288027052489406), np.float64(0.017332933716971494), np.float64(0.017297494015170504), np.float64(0.01732413833004965), np.float64(0.0173033466610202), np.float64(0.017319113929898374), np.float64(0.017306891518283116), np.float64(0.017316207675921534), np.float64(0.017309014227000236), np.float64(0.017314513709314753), np.float64(0.01731027708472622), np.float64(0.017313521779766996), np.float64(0.01731102556885254), np.float64(0.01731293933432626), np.float64(0.017311468215240218), np.float64(0.017312596770047813), np.float64(0.01731172965554748), np.float64(0.017312395095564048), np.float64(0.01731188395345228), np.float64(0.017312276297497115), np.float64(0.01731197497715371), np.float64(0.017312206294737332), np.float64(0.017312028659972303), np.float64(0.017312165036761057), np.float64(0.017312060315472624), np.float64(0.017312140717410274), np.float64(0.017312078980284362), np.float64(0.017312126381466366), np.float64(0.01731208998489751), np.float64(0.017312117930264968), np.float64(0.01731209647291847), np.float64(0.017312112948065658), np.float64(0.017312100298007994), np.float64(0.017312110010889736), np.float64(0.017312102553110543), np.float64(0.017312108279309738), np.float64(0.017312103882609602), np.float64(0.017312107258470606), np.float64(0.017312104666414512), np.float64(0.01731210665664132), np.float64(0.017312105128505274), np.float64(0.01731210630183623), np.float64(0.01731210540092976), np.float64(0.017312106092662774), np.float64(0.017312105561537026), np.float64(0.017312105969345376), np.float64(0.01731210565622245), np.float64(0.017312105896644055), np.float64(0.01731210571204353), np.float64(0.017312105853783552), np.float64(0.01731210574495304), np.float64(0.017312105828515115), np.float64(0.017312105764354727), np.float64(0.017312105813618642), np.float64(0.017312105775793087), np.float64(0.01731210580483626), np.float64(0.017312105782536502), np.float64(0.017312105799658823), np.float64(0.017312105786512277), np.float64(0.01731210579660634), np.float64(0.017312105788855565), np.float64(0.017312105794806944), np.float64(0.017312105790237373), np.float64(0.017312105793745803), np.float64(0.017312105791052017), np.float64(0.01731210579312028), np.float64(0.017312105791532237), np.float64(0.017312105792751366), np.float64(0.017312105791815302), np.float64(0.017312105792534112), np.float64(0.017312105791982446), np.float64(0.01731210579240622), np.float64(0.017312105792081145), np.float64(0.01731210579233097), np.float64(0.01731210579213945), np.float64(0.017312105792286554), np.float64(0.017312105792173786), np.float64(0.017312105792260786), np.float64(0.017312105792194107), np.float64(0.017312105792245167), np.float64(0.017312105792205996), np.float64(0.017312105792235973)]</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1472,25 +1592,30 @@
         <v>200</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00880910485407047</v>
+        <v>0.008073275600057829</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.2521948369071041), np.float64(-0.5353569267755806), np.float64(0.6228723564671537)], [np.float64(-0.09409171759825789), np.float64(0.177868022242299), np.float64(0.4343539103809719)], [np.float64(0.012442566509438695), np.float64(-0.8019943697886572), np.float64(0.2522966794631629)], [np.float64(0.7710137234291468), np.float64(0.2127546713822487), np.float64(0.5075403535853494)]]]</t>
+          <t>[[[np.float64(0.4907807962296129), np.float64(0.5922993896030161), np.float64(-0.2553559232092085)], [np.float64(0.29286852406101505), np.float64(-0.13714955815695695), np.float64(0.24691762845113016)], [np.float64(-0.03865765631785994), np.float64(0.3835283100914627), np.float64(0.05099808521203716)], [np.float64(0.10599111701214421), np.float64(0.34770670042858004), np.float64(0.12892105667855067)]]]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[[0.7283745408719547, 0.5410364565673921, np.float64(0.3871747652667531)]]</t>
+          <t>[[0.6807140250273912, 0.17348581395783114, np.float64(0.1898225554589005)]]</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[np.float64(0.27672159226343057), np.float64(0.9303381518922254), np.float64(0.8288139944808667)]</t>
+          <t>[np.float64(0.19080499202303375), np.float64(0.44099236318865004), np.float64(0.5282799854487925)]</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.1467811502409049</v>
+        <v>0.3648428456015639</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[np.float64(0.035835053774470625), np.float64(0.030395272817735793), np.float64(0.023304943021238055), np.float64(0.015537275245514482), np.float64(0.010023069505362704), np.float64(0.008247043865242595), np.float64(0.00807327560005783), np.float64(0.008073860962784358), np.float64(0.008073850523001663), np.float64(0.008073850708654514), np.float64(0.00807385070535159), np.float64(0.008073850705413029), np.float64(0.008073850705412677), np.float64(0.008073850705412325), np.float64(0.008073850705411938), np.float64(0.0080738507054116), np.float64(0.008073850705411327), np.float64(0.008073850705411308), np.float64(0.008073850705411289), np.float64(0.008073850705411278), np.float64(0.008073850705411273), np.float64(0.008073850705411268), np.float64(0.008073850705411261), np.float64(0.00807385070541126), np.float64(0.008073850705411256), np.float64(0.008073850705411252), np.float64(0.008073850705411249), np.float64(0.008073850705411246), np.float64(0.008073850705411244), np.float64(0.00807385070541124), np.float64(0.008073850705411237), np.float64(0.008073850705411233), np.float64(0.008073850705411235), np.float64(0.008073850705411232), np.float64(0.008073850705411232), np.float64(0.008073850705411226), np.float64(0.008073850705411226), np.float64(0.008073850705411223), np.float64(0.008073850705411221), np.float64(0.008073850705411218), np.float64(0.008073850705411218), np.float64(0.008073850705411216), np.float64(0.008073850705411214), np.float64(0.008073850705411213), np.float64(0.00807385070541121), np.float64(0.008073850705411209), np.float64(0.008073850705411209), np.float64(0.008073850705411207), np.float64(0.008073850705411207), np.float64(0.008073850705411207), np.float64(0.008073850705411209), np.float64(0.008073850705411209), np.float64(0.008073850705411206), np.float64(0.008073850705411204), np.float64(0.008073850705411202), np.float64(0.008073850705411202), np.float64(0.008073850705411202), np.float64(0.008073850705411204), np.float64(0.008073850705411204), np.float64(0.0080738507054112), np.float64(0.0080738507054112), np.float64(0.008073850705411197), np.float64(0.008073850705411199), np.float64(0.008073850705411199), np.float64(0.008073850705411199), np.float64(0.008073850705411199), np.float64(0.008073850705411195), np.float64(0.008073850705411195), np.float64(0.008073850705411195), np.float64(0.008073850705411195), np.float64(0.008073850705411195), np.float64(0.008073850705411195), np.float64(0.008073850705411195), np.float64(0.008073850705411192), np.float64(0.00807385070541119), np.float64(0.00807385070541119), np.float64(0.00807385070541119), np.float64(0.00807385070541119), np.float64(0.008073850705411188), np.float64(0.008073850705411187), np.float64(0.008073850705411187), np.float64(0.008073850705411183), np.float64(0.008073850705411183), np.float64(0.008073850705411183), np.float64(0.008073850705411183), np.float64(0.008073850705411181), np.float64(0.008073850705411181), np.float64(0.008073850705411183), np.float64(0.008073850705411181), np.float64(0.008073850705411181), np.float64(0.008073850705411181), np.float64(0.008073850705411181), np.float64(0.008073850705411181), np.float64(0.008073850705411181), np.float64(0.008073850705411178), np.float64(0.008073850705411176), np.float64(0.008073850705411176), np.float64(0.008073850705411176), np.float64(0.008073850705411176), np.float64(0.008073850705411176), np.float64(0.008073850705411176), np.float64(0.008073850705411176), np.float64(0.008073850705411176), np.float64(0.008073850705411176), np.float64(0.008073850705411176), np.float64(0.008073850705411176), np.float64(0.008073850705411176), np.float64(0.008073850705411176), np.float64(0.008073850705411176), np.float64(0.008073850705411174), np.float64(0.008073850705411174), np.float64(0.008073850705411176), np.float64(0.008073850705411176), np.float64(0.008073850705411176), np.float64(0.008073850705411174), np.float64(0.008073850705411173), np.float64(0.008073850705411171), np.float64(0.008073850705411171), np.float64(0.008073850705411171), np.float64(0.008073850705411171), np.float64(0.008073850705411171), np.float64(0.00807385070541117), np.float64(0.008073850705411167), np.float64(0.008073850705411167), np.float64(0.008073850705411167), np.float64(0.008073850705411167), np.float64(0.008073850705411167), np.float64(0.008073850705411166), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164), np.float64(0.008073850705411164)]</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1514,25 +1639,30 @@
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03536087394901008</v>
+        <v>0.02734341130406345</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.6462197484463252), np.float64(-0.4664714026234528), np.float64(-0.343631555960362), np.float64(0.18355093216124416)], [np.float64(-0.17328016913308492), np.float64(0.14379100679496676), np.float64(0.014106212460780018), np.float64(-0.3338395265004861)], [np.float64(0.0437742183630534), np.float64(0.16208261707634133), np.float64(0.006556868042588876), np.float64(-0.2004701602127897)], [np.float64(-0.3314585133669766), np.float64(0.3302365501803654), np.float64(0.5239345120400541), np.float64(0.3874630152102877)]]]</t>
+          <t>[[[np.float64(0.2381911748252269), np.float64(-0.5376268316614875), np.float64(-0.32981498209337334), np.float64(0.4555015227210879)], [np.float64(-0.5345028384824871), np.float64(0.35719020960160347), np.float64(-0.2428008339490083), np.float64(0.06474244019121403)], [np.float64(-0.6663857223995445), np.float64(-0.29687976465563143), np.float64(0.11783357952991627), np.float64(-0.07456122649217604)], [np.float64(0.14178925720867316), np.float64(0.018464823189540947), np.float64(-0.1021634722566881), np.float64(0.1845336848535499)]]]</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[[0.8971126709266627, 0.9729658598608831, 0.07872498026506547, np.float64(-0.7274413870679272)]]</t>
+          <t>[[0.5244580479027633, 0.5415508281192132, 0.32747997725617173, np.float64(-0.61482420310892)]]</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[np.float64(0.5834802740677982), np.float64(0.3911676379701213), np.float64(0.6148634550136013), np.float64(0.3896329597605455)]</t>
+          <t>[np.float64(0.3315514574835035), np.float64(0.12635837517797005), np.float64(0.30381707742340064), np.float64(0.34517989616167827)]</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.2047156127534536</v>
+        <v>0.7608724610628124</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>[np.float64(2.7677353231253594), np.float64(1.2298433548731282), np.float64(0.5616178816014261), np.float64(0.35748265071045565), np.float64(0.25566913224348214), np.float64(0.18559335236420801), np.float64(0.13737472232848796), np.float64(0.10523523325682556), np.float64(0.08509106900941489), np.float64(0.07259652952952349), np.float64(0.06595764577559601), np.float64(0.060308256527684796), np.float64(0.055492680501641474), np.float64(0.05136765878174021), np.float64(0.04783759614374158), np.float64(0.04490527610759221), np.float64(0.04256560114567577), np.float64(0.04217957801886889), np.float64(0.041802051306463806), np.float64(0.04143281669205678), np.float64(0.0410716751740538), np.float64(0.04071843291493818), np.float64(0.04037290109531008), np.float64(0.04003489577251766), np.float64(0.03970423774372334), np.float64(0.03938075241323864), np.float64(0.039064269663983624), np.float64(0.038754623732919324), np.float64(0.038451653090314966), np.float64(0.03815520032271959), np.float64(0.03786511201950364), np.float64(0.03758123866285131), np.float64(0.037303434521082375), np.float64(0.037031557545191676), np.float64(0.0367654692684959), np.float64(0.036505034709280675), np.float64(0.0362501222763501), np.float64(0.0360006036773797), np.float64(0.03575635382997631), np.float64(0.035517250775363905), np.float64(0.03528317559459619), np.float64(0.03505401232722538), np.float64(0.03482964789233648), np.float64(0.0346099720118769), np.float64(0.034394877136204864), np.float64(0.03418425837178278), np.float64(0.033978013410951795), np.float64(0.03377604246371508), np.float64(0.03357824819147099), np.float64(0.03338453564263121), np.float64(0.033194812190065905), np.float64(0.03300898747031808), np.float64(0.0328269733245327), np.float64(0.03264868374104365), np.float64(0.032474034799573524), np.float64(0.03230294461699137), np.float64(0.03213533329458013), np.float64(0.03197112286677363), np.float64(0.03181023725130929), np.float64(0.03165260220076219), np.float64(0.03149814525541327), np.float64(0.031346795697411056), np.float64(0.031198484506199806), np.float64(0.031053144315148832), np.float64(0.030910709369381527), np.float64(0.03077111548474458), np.float64(0.030634300007891586), np.float64(0.03050020177744806), np.float64(0.030368761086224615), np.float64(0.030239919644450632), np.float64(0.030113620543994645), np.float64(0.02998980822354542), np.float64(0.02986842843472584), np.float64(0.029749428209110758), np.float64(0.02963275582612524), np.float64(0.029518360781795906), np.float64(0.02940619375833228), np.float64(0.029296206594513763), np.float64(0.029188352256859385), np.float64(0.029082584811558315), np.float64(0.028978859397140403), np.float64(0.028877132197864152), np.float64(0.028777360417802385), np.float64(0.028679502255608096), np.float64(0.02858351687993909), np.float64(0.028489364405523483), np.float64(0.028397005869849203), np.float64(0.0283064032104594), np.float64(0.028217519242837094), np.float64(0.028130317638862777), np.float64(0.028044762905830235), np.float64(0.027960820366002757), np.float64(0.02787845613669822), np.float64(0.02779763711088522), np.float64(0.027718330938279325), np.float64(0.027640506006924106), np.float64(0.027564131425242885), np.float64(0.027489177004552858), np.float64(0.02741561324202182), np.float64(0.02734341130406345)]</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1556,25 +1686,30 @@
         <v>200</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05425895344092967</v>
+        <v>0.03988439632678586</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.7377326587120339), np.float64(-0.6315061355956254), np.float64(-1.2066753944341932), np.float64(-1.2865363039618436)], [np.float64(0.15670076276500208), np.float64(-1.1275037810785198), np.float64(-1.0479689024516166), np.float64(-0.808403315820303)], [np.float64(-0.3721973070825813), np.float64(-1.1390820323808002), np.float64(-0.7014975178999161), np.float64(-1.4978648771851053)], [np.float64(-0.2993990525616065), np.float64(-0.6420193932519529), np.float64(-0.5606175483974807), np.float64(-0.1027589660522527)]]]</t>
+          <t>[[[np.float64(-0.44233405177705387), np.float64(-0.436457522721764), np.float64(-0.10652837333122671), np.float64(0.2836866817978406)], [np.float64(-0.1949411230256348), np.float64(-0.4458177357577796), np.float64(-0.2976553591332964), np.float64(0.04509963652923008)], [np.float64(-0.7011922128303738), np.float64(-0.6298465532131738), np.float64(-0.147476546465252), np.float64(0.19235504590648317)], [np.float64(0.4884280962686061), np.float64(0.13342551809702236), np.float64(0.12343390435609299), np.float64(0.014850092735802858)]]]</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[[0.5058677538453987, 0.4733572273084279, 0.12328843432784142, np.float64(-2.3212521786035127)]]</t>
+          <t>[[0.4728339528688328, 0.8879098219387292, 0.30337354036254194, np.float64(-0.3999246340191833)]]</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[np.float64(0.5522306089350559), np.float64(0.9742639265112293), np.float64(0.8813547878809631), np.float64(0.9885102272130033)]</t>
+          <t>[np.float64(0.4772456948188683), np.float64(0.4772564739400769), np.float64(0.06280050042175488), np.float64(0.29697402097873843)]</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.5000244663120469</v>
+        <v>0.8319045738627431</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>[np.float64(5.730927087424717), np.float64(1.5336991598608494), np.float64(0.45136872280004803), np.float64(0.22973289036470065), np.float64(0.1307925262605016), np.float64(0.08476445096296535), np.float64(0.06444612728788088), np.float64(0.05720724733609042), np.float64(0.05332904306544288), np.float64(0.05227067447635087), np.float64(0.052135694677449086), np.float64(0.052001573142032645), np.float64(0.05186830286711036), np.float64(0.05173587692557561), np.float64(0.051604288465167375), np.float64(0.05147353070745294), np.float64(0.05134359694682383), np.float64(0.0512144805495079), np.float64(0.05108617495259951), np.float64(0.050958673663100876), np.float64(0.0508319702569845), np.float64(0.05070605837826504), np.float64(0.0505809317380883), np.float64(0.05045658411383483), np.float64(0.050333009348237596), np.float64(0.050210201348512236), np.float64(0.050088154085502996), np.float64(0.049966861592838745), np.float64(0.04984631796610697), np.float64(0.049726517362036315), np.float64(0.049607453997693736), np.float64(0.04948912214969433), np.float64(0.0493715161534224), np.float64(0.049254630402265145), np.float64(0.0491384593468582), np.float64(0.049022997494343676), np.float64(0.048908239407636146), np.float64(0.04879417970470532), np.float64(0.048680813057863724), np.float64(0.04856813419307082), np.float64(0.04845613788924299), np.float64(0.04834481897757793), np.float64(0.048234172340885936), np.float64(0.048124192912933), np.float64(0.048014875677795124), np.float64(0.04790621566921898), np.float64(0.04779820796999554), np.float64(0.04769084771134005), np.float64(0.0475841300722846), np.float64(0.04747805027907643), np.float64(0.04737260360458841), np.float64(0.04726778536773517), np.float64(0.04716359093290001), np.float64(0.04706001570937067), np.float64(0.04695705515077977), np.float64(0.04685470475455932), np.float64(0.04675296006139844), np.float64(0.04665181665471055), np.float64(0.04655127016010922), np.float64(0.046451316244891086), np.float64(0.046351950617525554), np.float64(0.046253169027153346), np.float64(0.046154967263091186), np.float64(0.04605734115434433), np.float64(0.0459602865691261), np.float64(0.04586379941438351), np.float64(0.04576787563533156), np.float64(0.04567251121499166), np.float64(0.045577702173740145), np.float64(0.04548344456885864), np.float64(0.04538973449409587), np.float64(0.04529656807923208), np.float64(0.045203941489651234), np.float64(0.0451118509259192), np.float64(0.04502029262336649), np.float64(0.044929262851680356), np.float64(0.04483875791449884), np.float64(0.04474877414901174), np.float64(0.04465930792556932), np.float64(0.044570355647293385), np.float64(0.044481913749695574), np.float64(0.044393978700301304), np.float64(0.04430654699827725), np.float64(0.04421961517406589), np.float64(0.04413317978902434), np.float64(0.04404723743506767), np.float64(0.04396178473431833), np.float64(0.04387681833875927), np.float64(0.04379233492989292), np.float64(0.04370833121840432), np.float64(0.04362480394382782), np.float64(0.04354174987422155), np.float64(0.043459165805842206), np.float64(0.04337704856282727), np.float64(0.043295394996881446), np.float64(0.04321420198696468), np.float64(0.04313346643898779), np.float64(0.0430531852855102), np.float64(0.0429733554854431), np.float64(0.04289397402375393), np.float64(0.042815037911179646), np.float64(0.04273654418393806), np.float64(0.042658489903448164), np.float64(0.04258087215605065), np.float64(0.0425036880527345), np.float64(0.042426934728865745), np.float64(0.042350609343920737), np.float64(0.04227470908122222), np.float64(0.042199231147679594), np.float64(0.04212417277353251), np.float64(0.0420495312120975), np.float64(0.04197530373951796), np.float64(0.041901487654518364), np.float64(0.04182808027815997), np.float64(0.04175507895360197), np.float64(0.04168248104586344), np.float64(0.04161028394158991), np.float64(0.04153847090050141), np.float64(0.04146702109559854), np.float64(0.04139588777860136), np.float64(0.0413250430082182), np.float64(0.041254415532742304), np.float64(0.04118403817425361), np.float64(0.04111396605607741), np.float64(0.04104411292758042), np.float64(0.04097444685360865), np.float64(0.04090514878495509), np.float64(0.040836359433747166), np.float64(0.040768206785118256), np.float64(0.04070089699679374), np.float64(0.040634630885073), np.float64(0.04056948104377642), np.float64(0.04050565144637188), np.float64(0.04044340515872467), np.float64(0.04038285300373977), np.float64(0.04032426554995027), np.float64(0.040267945984690044), np.float64(0.040214109391097284), np.float64(0.04016273454404538), np.float64(0.04011394359846155), np.float64(0.04006778675182603), np.float64(0.040024466693864856), np.float64(0.04002204080859701), np.float64(0.04001961530628209), np.float64(0.040017190186853666), np.float64(0.04001476545024534), np.float64(0.0400123410963909), np.float64(0.04000991712522388), np.float64(0.04000749353667802), np.float64(0.04000507033068698), np.float64(0.04000264750718442), np.float64(0.04000022506610436), np.float64(0.03999780300738003), np.float64(0.03999538133094566), np.float64(0.03999296003673464), np.float64(0.03999053912468087), np.float64(0.03998811859471825), np.float64(0.03998569844678031), np.float64(0.039983278680801364), np.float64(0.03998085929671448), np.float64(0.03997844029445408), np.float64(0.03997602167395386), np.float64(0.03997360343514753), np.float64(0.039971185577969116), np.float64(0.03996876810235232), np.float64(0.03996635100823129), np.float64(0.03996393429553974), np.float64(0.03996151796421143), np.float64(0.03995910201418071), np.float64(0.03995668644538121), np.float64(0.039954271257747136), np.float64(0.03995185645121203), np.float64(0.03994944202571018), np.float64(0.039947027981175415), np.float64(0.03994461431754203), np.float64(0.039942201034743725), np.float64(0.0399397881327145), np.float64(0.039937375611388895), np.float64(0.0399349634707001), np.float64(0.03993255171058311), np.float64(0.03993014033097142), np.float64(0.039927729331799035), np.float64(0.03992531871300042), np.float64(0.03992290847450972), np.float64(0.03992049861626062), np.float64(0.03991808913818746), np.float64(0.039915680040224666), np.float64(0.03991327132230589), np.float64(0.03991086298436595), np.float64(0.039908455026338), np.float64(0.039906047448157414), np.float64(0.03990364024975761), np.float64(0.039901233431073165), np.float64(0.039898826992038304), np.float64(0.03989642093258709), np.float64(0.039894015252653806), np.float64(0.039891609952172606), np.float64(0.03988920503107811), np.float64(0.03988680048930474), np.float64(0.03988439632678586)]</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1598,25 +1733,30 @@
         <v>100</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06084463205091528</v>
+        <v>0.01102090256628424</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[[[np.float64(-6.827811490029158), np.float64(-2.3003163333637935), np.float64(-9.45497820952117), np.float64(-8.32004834125527)], [np.float64(-6.557963271919782), np.float64(-2.1766413191385268), np.float64(-8.355267987564817), np.float64(-7.945674548023739)], [np.float64(-6.8611775814719), np.float64(-2.60718537256974), np.float64(-9.685638485012536), np.float64(-9.00478899071435)], [np.float64(-3.3644770681011007), np.float64(-0.9004461084732736), np.float64(-4.521236295259384), np.float64(-3.326942828493643)]]]</t>
+          <t>[[[np.float64(-11.806554417009638), np.float64(-8.279602163992477), np.float64(-11.690282008986609), np.float64(-9.738557275033546)], [np.float64(-11.03342079692387), np.float64(-7.629314847071899), np.float64(-11.69477702427255), np.float64(-8.63265084892016)], [np.float64(-12.486931423942087), np.float64(-8.568772925841298), np.float64(-12.562300922317613), np.float64(-10.084426497508241)], [np.float64(-5.192111628247412), np.float64(-3.5059114078440685), np.float64(-5.549627809430251), np.float64(-3.661798589955656)]]]</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[[0.8258606613531588, 0.9822173846041639, 0.009112712054765493, np.float64(-13.047125557689625)]]</t>
+          <t>[[0.6307365189785878, 0.014978244718027112, 0.29273145045116156, np.float64(-14.96459029864025)]]</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[np.float64(0.614434776434229), np.float64(0.20734908209157626), np.float64(0.8072101193540948), np.float64(0.736268589327599)]</t>
+          <t>[np.float64(0.8064817437207584), np.float64(0.5629733884155607), np.float64(0.8038802067278105), np.float64(0.6328346680131317)]</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0.4823162099806747</v>
+        <v>0.6965591555090178</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>[np.float64(16.0080638197007), np.float64(0.011139920787283073), np.float64(0.011138341198177205), np.float64(0.011136769786070384), np.float64(0.011135206529597501), np.float64(0.01113365140744102), np.float64(0.011132104398331026), np.float64(0.011130565481045195), np.float64(0.011129034634408673), np.float64(0.011127511837293854), np.float64(0.011125997068620318), np.float64(0.011124490307354911), np.float64(0.011122991532511377), np.float64(0.01112150072315065), np.float64(0.011120017858380076), np.float64(0.01111854291735402), np.float64(0.01111707587927343), np.float64(0.01111561672338575), np.float64(0.011114165428984931), np.float64(0.01111272197541126), np.float64(0.01111128634205115), np.float64(0.011109858508337322), np.float64(0.011108438453748369), np.float64(0.011107026157809058), np.float64(0.011105621600089764), np.float64(0.011104224760206957), np.float64(0.011102835617822196), np.float64(0.011101454152643282), np.float64(0.011100080344423082), np.float64(0.01109871417295991), np.float64(0.011097355618097299), np.float64(0.011096004659724167), np.float64(0.011094661277774366), np.float64(0.011093325452226733), np.float64(0.01109199716310498), np.float64(0.011090676390477887), np.float64(0.011089363114458494), np.float64(0.011088057315204814), np.float64(0.011086758972919284), np.float64(0.011085468067848749), np.float64(0.011084184580284264), np.float64(0.011082908490561412), np.float64(0.01108163977905971), np.float64(0.011080378426202745), np.float64(0.011079124412458022), np.float64(0.011077877718337209), np.float64(0.011076638324395274), np.float64(0.011075406211231346), np.float64(0.011074181359487704), np.float64(0.011072963749850468), np.float64(0.011071753363049058), np.float64(0.011070550179856158), np.float64(0.011069354181087699), np.float64(0.011068165347602781), np.float64(0.011066983660303507), np.float64(0.011065809100134912), np.float64(0.011064641648084902), np.float64(0.01106348128518439), np.float64(0.011062327992506393), np.float64(0.011061181751167189), np.float64(0.011060042542325097), np.float64(0.01105891034718103), np.float64(0.011057785146978139), np.float64(0.011056666923001984), np.float64(0.011055555656580016), np.float64(0.011054451329081836), np.float64(0.0110533539219193), np.float64(0.0110522634165454), np.float64(0.01105117979445584), np.float64(0.011050103037187288), np.float64(0.011049033126318511), np.float64(0.01104797004346935), np.float64(0.01104691377030141), np.float64(0.011045864288517787), np.float64(0.011044821579862326), np.float64(0.011043785626120512), np.float64(0.011042756409118587), np.float64(0.011041733910723984), np.float64(0.011040718112845129), np.float64(0.01103970899743097), np.float64(0.011038706546471516), np.float64(0.011037710741997248), np.float64(0.011036721566079148), np.float64(0.011035739000828935), np.float64(0.011034763028398554), np.float64(0.01103379363098017), np.float64(0.011032830790806452), np.float64(0.01103187449014996), np.float64(0.011030924711323385), np.float64(0.011029981436679425), np.float64(0.011029044648610731), np.float64(0.011028114329549494), np.float64(0.011027190461967956), np.float64(0.011026273028377716), np.float64(0.011025362011330149), np.float64(0.01102445739341593), np.float64(0.011023559157265207), np.float64(0.01102266728554743), np.float64(0.011021781760971188), np.float64(0.011020902566284244)]</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1640,25 +1780,30 @@
         <v>200</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05409905119150147</v>
+        <v>0.004224515147305257</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[[[np.float64(-19.308897599708434), np.float64(-15.8574730393146), np.float64(-11.467166238240669), np.float64(-12.23155288007928)], [np.float64(-17.406047557059495), np.float64(-15.732412751890227), np.float64(-10.05152114550916), np.float64(-11.66741466487928)], [np.float64(-20.093182415062877), np.float64(-16.916815262076394), np.float64(-11.796606010338964), np.float64(-12.750887186422737)], [np.float64(-8.708068302747241), np.float64(-7.54656875220737), np.float64(-4.6685430158732855), np.float64(-5.111755540978556)]]]</t>
+          <t>[[[np.float64(-5.029389719193808), np.float64(-3.72541256031581), np.float64(-8.993164769846524), np.float64(2.327811150229861)], [np.float64(-4.855290536402172), np.float64(-3.5032276087916925), np.float64(-8.039894772582633), np.float64(1.7312135261545818)], [np.float64(-5.294887283846472), np.float64(-3.7028689254769125), np.float64(-9.868441555693147), np.float64(2.1197989313918213)], [np.float64(-1.7922953087856424), np.float64(-1.9893660246063178), np.float64(-3.9942077931112694), np.float64(1.047643939950281)]]]</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[[0.9189457777678138, 0.8854426903370543, 0.9732959025538539, np.float64(-19.086234293562697)]]</t>
+          <t>[[0.5667331775994535, 0.5427092891894874, 0.8934373363650392, np.float64(2.8684525560648533)]]</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[np.float64(0.9532840456263191), np.float64(0.820556704565284), np.float64(0.5599027697127202), np.float64(0.6119631353573644)]</t>
+          <t>[np.float64(0.48077143079199575), np.float64(0.36202007054545854), np.float64(0.7926133703072865), np.float64(0.0655467992467514)]</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0.9091968965381492</v>
+        <v>0.2627252742351458</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>[np.float64(10.05194547752915), np.float64(0.20373052428814842), np.float64(0.20098281144450336), np.float64(0.19806846309157528), np.float64(0.19496772699473305), np.float64(0.19166114686038432), np.float64(0.18812977254259114), np.float64(0.18435544621714742), np.float64(0.18032116948934623), np.float64(0.17601155458764517), np.float64(0.17141335982421452), np.float64(0.1665161051772363), np.float64(0.1613127580245275), np.float64(0.15580047169531844), np.float64(0.14998135073995064), np.float64(0.1438632070212512), np.float64(0.13746026059546115), np.float64(0.1307937299200776), np.float64(0.1238922486074052), np.float64(0.11679204242953786), np.float64(0.10953680238299043), np.float64(0.10217719899152651), np.float64(0.09477000077196865), np.float64(0.08737678605981956), np.float64(0.08006227098277144), np.float64(0.07289231450337126), np.float64(0.06593169983073217), np.float64(0.05924182475532907), np.float64(0.05287845596757124), np.float64(0.04688970940183049), np.float64(0.041314407301074864), np.float64(0.036180933069514136), np.float64(0.0315066602773346), np.float64(0.02729797836039062), np.float64(0.023550882250651203), np.float64(0.02025204416858879), np.float64(0.017380249518372273), np.float64(0.014908059112755763), np.float64(0.012803557614763142), np.float64(0.011032061069940773), np.float64(0.009557680605099166), np.float64(0.00834466971545744), np.float64(0.007358514090047891), np.float64(0.006566751607657085), np.float64(0.005939533315562201), np.float64(0.005449952660550697), np.float64(0.0050741799802126696), np.float64(0.004791443141890835), np.float64(0.004583894559960831), np.float64(0.00443640107680496), np.float64(0.004336287689913701), np.float64(0.004273059927193642), np.float64(0.004238123595356182), np.float64(0.004224515147305257), np.float64(0.004226651291157288), np.float64(0.004240102776422757), np.float64(0.004261394504640193), np.float64(0.004287832117448464), np.float64(0.004317353879326144), np.float64(0.00434840585472244), np.float64(0.004379837950748583), np.float64(0.004410818245463192), np.float64(0.004440763058465293), np.float64(0.004469280374774882), np.float64(0.00449612445366366), np.float64(0.004521159704505596), np.float64(0.004544332166927075), np.float64(0.004565647177232693), np.float64(0.0045851520279570545), np.float64(0.00460292262787305), np.float64(0.004619053344817326), np.float64(0.004633649363429996), np.float64(0.004646821016473662), np.float64(0.004658679654138946), np.float64(0.004669334702706516), np.float64(0.004678891635698198), np.float64(0.00468745063854084), np.float64(0.004695105794747252), np.float64(0.004701944659290021), np.float64(0.004708048114869179), np.float64(0.004713490430618895), np.float64(0.004718339461759999), np.float64(0.004722656943391371), np.float64(0.004726498843311245), np.float64(0.0047299157477333365), np.float64(0.004732953260780793), np.float64(0.004735652404040089), np.float64(0.00473805000644935), np.float64(0.004740179078088453), np.float64(0.004742069163655013), np.float64(0.00474374667318923), np.float64(0.00474523518891379), np.float64(0.004746555747925762), np.float64(0.00474772710125321), np.float64(0.0047487659500560185), np.float64(0.004749687160151662), np.float64(0.0047505039562587776), np.float64(0.00475122809733044), np.float64(0.004751870034454709), np.float64(0.004752439052735063), np.float64(0.004752943398586389), np.float64(0.004753390393738963), np.float64(0.0047537865371990225), np.float64(0.004754137596373592), np.float64(0.00475444868836495), np.float64(0.0047547243524552535), np.float64(0.004754968614735733), np.float64(0.0047551850456031336), np.float64(0.004755376810929523), np.float64(0.004755546717614565), np.float64(0.004755697254007011), np.float64(0.004755830625892486), np.float64(0.004755948788417316), np.float64(0.004756053474450182), np.float64(0.004756146219773104), np.float64(0.004756228385398863), np.float64(0.004756301177429906), np.float64(0.004756365664637449), np.float64(0.004756422794045757), np.float64(0.004756473404786244), np.float64(0.004756518240389525), np.float64(0.004756557959614524), np.float64(0.0047565931461395535), np.float64(0.004756624317096441), np.float64(0.0047566519306358294), np.float64(0.0047566763926690705), np.float64(0.004756698062807592), np.float64(0.004756717259650279), np.float64(0.004756734265434738), np.float64(0.004756749330208855), np.float64(0.004756762675495684), np.float64(0.0047567744975327685), np.float64(0.004756784970165959), np.float64(0.004756794247418658), np.float64(0.004756802465715946), np.float64(0.004756809745932601), np.float64(0.004756816195130209), np.float64(0.004756821908177609), np.float64(0.004756826969086317), np.float64(0.004756831452300206), np.float64(0.004756835423765542), np.float64(0.004756838941883246), np.float64(0.004756842058410054), np.float64(0.004756844819181738), np.float64(0.004756847264812493), np.float64(0.004756849431273076), np.float64(0.004756851350425548), np.float64(0.004756853050508429), np.float64(0.004756854556522908), np.float64(0.004756855890624603), np.float64(0.00475685707243629), np.float64(0.004756858119343364), np.float64(0.0047568590467464275), np.float64(0.004756859868282735), np.float64(0.004756860596039084), np.float64(0.004756861240718892), np.float64(0.004756861811804397), np.float64(0.004756862317705116), np.float64(0.004756862765857243), np.float64(0.004756863162851425), np.float64(0.004756863514522096), np.float64(0.004756863826047944), np.float64(0.004756864102016359), np.float64(0.004756864346481856), np.float64(0.004756864563038737), np.float64(0.004756864754878527), np.float64(0.004756864924813454), np.float64(0.004756865075355711), np.float64(0.004756865208714193), np.float64(0.004756865326848018), np.float64(0.0047568654314961685), np.float64(0.004756865524196483), np.float64(0.004756865606311495), np.float64(0.004756865679052583), np.float64(0.004756865743492436), np.float64(0.004756865800577085), np.float64(0.004756865851145198), np.float64(0.0047568658959373225), np.float64(0.004756865935623117), np.float64(0.004756865970778668), np.float64(0.0047568660019226185), np.float64(0.004756866029511542), np.float64(0.0047568660539453345), np.float64(0.004756866075590238), np.float64(0.0047568660947633675), np.float64(0.0047568661117458845), np.float64(0.0047568661267955985), np.float64(0.004756866140120888), np.float64(0.004756866151930957), np.float64(0.004756866162389966), np.float64(0.004756866171657474), np.float64(0.0047568661798704625), np.float64(0.004756866187144882), np.float64(0.004756866193587534), np.float64(0.004756866199295746), np.float64(0.00475686620434951), np.float64(0.0047568662088220545), np.float64(0.004756866212790212), np.float64(0.00475686621630542), np.float64(0.004756866219414833)]</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1682,25 +1827,30 @@
         <v>100</v>
       </c>
       <c r="F30" t="n">
-        <v>0.05249330807683951</v>
+        <v>0.03594902981455895</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.8184075942424427), np.float64(0.014539039408384441), np.float64(0.1914122259542879), np.float64(0.4430649801813566)], [np.float64(0.24224559005488028), np.float64(0.5950458166808933), np.float64(0.47054768100275196), np.float64(0.013921418626027316)], [np.float64(0.8032107254727873), np.float64(0.45493409219282865), np.float64(0.07926186045961525), np.float64(-0.15319255149517624)], [np.float64(0.25889146307092664), np.float64(0.0010145945604548758), np.float64(0.5132445595092844), np.float64(0.1802914691473642)]]]</t>
+          <t>[[[np.float64(0.8651667723317599), np.float64(0.434804977616233), np.float64(-0.03379378042464126), np.float64(0.38746299293358655)], [np.float64(0.6358636991756738), np.float64(0.6416573862040663), np.float64(0.9002775992286646), np.float64(0.6480628727013841)], [np.float64(0.8495309272835134), np.float64(0.5445721503825256), np.float64(0.24120269112033504), np.float64(0.24486424493815967)], [np.float64(0.6587409050041502), np.float64(0.1575072340141008), np.float64(0.20641965604428125), np.float64(0.16427125000911763)]]]</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[[0.40173873042419084, 0.7617631036544712, 0.44936211413661376, np.float64(-0.33078003307565984)]]</t>
+          <t>[[0.7072137742234883, 0.9805656920436027, 0.8065355207142293, np.float64(0.8145480141882547)]]</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[np.float64(0.2179634291622444), np.float64(0.20395933959806076), np.float64(0.7952086816662527), np.float64(0.9478700090211741)]</t>
+          <t>[np.float64(0.11415691755410669), np.float64(0.6453921434513533), np.float64(0.1803039569461869), np.float64(0.4109594778897401)]</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0.9343826086142727</v>
+        <v>0.6965305023292716</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>[np.float64(0.03711657038966904), np.float64(0.03710562596714104), np.float64(0.03709466442117214), np.float64(0.037083685742724984), np.float64(0.037072689922865845), np.float64(0.037061676952769546), np.float64(0.03705064682371659), np.float64(0.03703959952709455), np.float64(0.03702853505440053), np.float64(0.03701745339724078), np.float64(0.03700635454733102), np.float64(0.03699523849649483), np.float64(0.036984105236668376), np.float64(0.036972954759897717), np.float64(0.03696178705834269), np.float64(0.036950602124272924), np.float64(0.03693939995007168), np.float64(0.03692818052823669), np.float64(0.03691694385137866), np.float64(0.03690568991222496), np.float64(0.036894418703615366), np.float64(0.03688313021850753), np.float64(0.03687182444997486), np.float64(0.036860501391208056), np.float64(0.036849161035513715), np.float64(0.03683780337632068), np.float64(0.03682642840717242), np.float64(0.03681503612173381), np.float64(0.03680362651379053), np.float64(0.03679219957724655), np.float64(0.03678075530612865), np.float64(0.03676929369458532), np.float64(0.03675781473688716), np.float64(0.03674631842742735), np.float64(0.036734804760723154), np.float64(0.03672327373141536), np.float64(0.03671172533427028), np.float64(0.03670015956418048), np.float64(0.03668857641616216), np.float64(0.03667697588535896), np.float64(0.03666535796704302), np.float64(0.03665372265661183), np.float64(0.03664206994959413), np.float64(0.03663039984164541), np.float64(0.03661871232855028), np.float64(0.03660700740622574), np.float64(0.036595285070718284), np.float64(0.03658354531820443), np.float64(0.036571788144994816), np.float64(0.036560013547531765), np.float64(0.03654822152239101), np.float64(0.036536412066280936), np.float64(0.03652458517604625), np.float64(0.03651274084866401), np.float64(0.03650087908124892), np.float64(0.03648899987105042), np.float64(0.03647710321545519), np.float64(0.036465189111986464), np.float64(0.036453257558306744), np.float64(0.03644130855221749), np.float64(0.036429342091656165), np.float64(0.036417358174702937), np.float64(0.036405356799577286), np.float64(0.03639333796463911), np.float64(0.03638130166838975), np.float64(0.036369247909473795), np.float64(0.036357176686676956), np.float64(0.0363450879989298), np.float64(0.036332981845304535), np.float64(0.03632085822502004), np.float64(0.036308717137438884), np.float64(0.036296558582068886), np.float64(0.03628438255856591), np.float64(0.03627218906673122), np.float64(0.03625997810651349), np.float64(0.036247749678009505), np.float64(0.036235503781466005), np.float64(0.036223240417276224), np.float64(0.03621095958598459), np.float64(0.036198661288285916), np.float64(0.03618634552502712), np.float64(0.036174012297202816), np.float64(0.036161661605963395), np.float64(0.036149293452611544), np.float64(0.0361369078386007), np.float64(0.03612450476554033), np.float64(0.036112084235195276), np.float64(0.03609964624948154), np.float64(0.03608719081047423), np.float64(0.036074717920402975), np.float64(0.03606222758165426), np.float64(0.03604971979677262), np.float64(0.03603719456845885), np.float64(0.0360246518995738), np.float64(0.03601209179313683), np.float64(0.035999514252327273), np.float64(0.035986919280484475), np.float64(0.03597430688110726), np.float64(0.03596167705785795), np.float64(0.03594902981455895)]</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1724,25 +1874,30 @@
         <v>200</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02971979539340875</v>
+        <v>0.03815936125084337</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.49957329323091726), np.float64(0.4351154433317575), np.float64(0.4566409864303003), np.float64(0.6262766875398486)], [np.float64(0.6823265240999434), np.float64(0.026951109645674345), np.float64(0.7970066348997883), np.float64(0.06317706408527962)], [np.float64(0.5561090077172272), np.float64(0.470097732039784), np.float64(-0.0107902747656161), np.float64(0.43445471176432865)], [np.float64(0.8811503937006222), np.float64(-0.050052430131677726), np.float64(0.8803099653146406), np.float64(0.20302481197565173)]]]</t>
+          <t>[[[np.float64(0.6275123068232142), np.float64(-0.059619356990969735), np.float64(0.6143927942682698), np.float64(-0.10690302255744444)], [np.float64(0.08740793244848025), np.float64(0.7735935298852282), np.float64(0.6295654831529219), np.float64(0.3612182953955591)], [np.float64(0.4220594207616042), np.float64(0.13273950634829676), np.float64(0.05208801878966444), np.float64(0.30629457266132776)], [np.float64(0.4813191943838054), np.float64(0.0684590286715924), np.float64(0.23894916363436883), np.float64(0.5533804682427796)]]]</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[[0.7671432121054722, 0.10853924039797258, 0.9184466718989266, np.float64(-0.045986174646460265)]]</t>
+          <t>[[0.9989205742339815, 0.015828678701813592, 0.7051948153952149, np.float64(-0.04121923220567665)]]</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[np.float64(0.3227684567160369), np.float64(0.6185682593645354), np.float64(0.5551139648054007), np.float64(0.1871601879526747)]</t>
+          <t>[np.float64(0.6132327189884147), np.float64(0.35680857591935244), np.float64(0.2427422712293819), np.float64(0.6605275891164187)]</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>0.3954271531708879</v>
+        <v>0.5665021265439493</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>[np.float64(0.04551380573334527), np.float64(0.045483597426113964), np.float64(0.04545331189242763), np.float64(0.045422949126194656), np.float64(0.04539250912367384), np.float64(0.04536199188349817), np.float64(0.04533139740669111), np.float64(0.045300725696686826), np.float64(0.045269976759349434), np.float64(0.04523915060299118), np.float64(0.045208247238392174), np.float64(0.045177266678819765), np.float64(0.04514620894004636), np.float64(0.04511507404036991), np.float64(0.04508386200063126), np.float64(0.04505257284423268), np.float64(0.04502120659715965), np.float64(0.044989763287995435), np.float64(0.044958242947940645), np.float64(0.044926645610834946), np.float64(0.04489497131317373), np.float64(0.044863220094122504), np.float64(0.04483139199554236), np.float64(0.044799487062001965), np.float64(0.044767505340800144), np.float64(0.04473544688197958), np.float64(0.04470331173835095), np.float64(0.04467109996550333), np.float64(0.044638811621825814), np.float64(0.04460644676852848), np.float64(0.044574005469652345), np.float64(0.04454148779209275), np.float64(0.04450889380561379), np.float64(0.04447622358286763), np.float64(0.04444347719940881), np.float64(0.0444106547337133), np.float64(0.04437775626719435), np.float64(0.044344781884219704), np.float64(0.044311731672127604), np.float64(0.044278605721243), np.float64(0.044245404124894146), np.float64(0.04421212697942885), np.float64(0.04417877438422868), np.float64(0.04414534644172732), np.float64(0.04411184325742408), np.float64(0.04407826493990089), np.float64(0.044044611600836184), np.float64(0.04401088335501988), np.float64(0.04397708032036938), np.float64(0.04394320261794364), np.float64(0.0439092503719572), np.float64(0.04387522370979397), np.float64(0.043841122762023885), np.float64(0.04380694766241335), np.float64(0.043772698547943134), np.float64(0.0437383755588163), np.float64(0.04370397883847641), np.float64(0.04366950853361665), np.float64(0.043634964794197026), np.float64(0.04360034777345116), np.float64(0.04356565762790527), np.float64(0.04353089451738322), np.float64(0.04349605860502476), np.float64(0.04346115005729297), np.float64(0.04342616904398817), np.float64(0.04339111573825493), np.float64(0.043355990316598536), np.float64(0.043320792958889194), np.float64(0.04328552384837891), np.float64(0.04325018317170767), np.float64(0.04321477111891246), np.float64(0.04317928788343927), np.float64(0.043143733662150074), np.float64(0.04310810865533353), np.float64(0.04307241306671238), np.float64(0.04303664710345098), np.float64(0.04300081097616512), np.float64(0.042964904898927875), np.float64(0.042928929089278776), np.float64(0.042892883768230056), np.float64(0.042856769160272014), np.float64(0.04282058549338143), np.float64(0.042784332999025995), np.float64(0.04274801191217122), np.float64(0.042711622471285196), np.float64(0.04267516491834318), np.float64(0.04263863949883383), np.float64(0.04260204646176132), np.float64(0.04256538605965118), np.float64(0.04252865854855305), np.float64(0.04249186418804453), np.float64(0.04245500324123234), np.float64(0.04241807597475725), np.float64(0.042381082658795394), np.float64(0.04234402356705854), np.float64(0.04230689897679672), np.float64(0.04226970916880072), np.float64(0.04223245442739964), np.float64(0.042195135040462795), np.float64(0.042157751299399714), np.float64(0.04212030349915965), np.float64(0.04208279193822857), np.float64(0.04204521691863157), np.float64(0.04200757874592659), np.float64(0.04196987772920586), np.float64(0.0419321141810923), np.float64(0.04189428841773467), np.float64(0.04185640075880576), np.float64(0.041818451527500605), np.float64(0.04178044105052589), np.float64(0.041742369658102844), np.float64(0.04170423768395651), np.float64(0.041666045465312496), np.float64(0.04162779334289011), np.float64(0.04158948166089646), np.float64(0.041551110767020324), np.float64(0.04151268101242255), np.float64(0.04147419275172891), np.float64(0.041435646343023845), np.float64(0.04139704214784045), np.float64(0.04135838053114947), np.float64(0.04131966186135347), np.float64(0.04128088651027266), np.float64(0.041242054853137936), np.float64(0.041203167268576944), np.float64(0.04116422413860515), np.float64(0.04112522584861131), np.float64(0.04108617278734844), np.float64(0.041047065346918286), np.float64(0.04100790392275799), np.float64(0.0409686889136282), np.float64(0.040929420721597005), np.float64(0.04089009975202565), np.float64(0.04085072641355506), np.float64(0.04081130111808716), np.float64(0.04077182428077083), np.float64(0.04073229631998509), np.float64(0.04069271765732151), np.float64(0.040653088717566684), np.float64(0.040613409928684806), np.float64(0.040573681721798524), np.float64(0.04053390453117054), np.float64(0.040494078794182785), np.float64(0.04045420495131897), np.float64(0.04041428344614223), np.float64(0.04037431472527491), np.float64(0.04033429923837718), np.float64(0.04029423743812529), np.float64(0.04025412978018937), np.float64(0.04021397672321063), np.float64(0.04017377872877891), np.float64(0.04013353626140738), np.float64(0.040093249788509845), np.float64(0.04005291978037628), np.float64(0.040012546710146604), np.float64(0.03997213105378583), np.float64(0.039931673290059165), np.float64(0.03989117390050335), np.float64(0.03985063336940244), np.float64(0.03981005218375844), np.float64(0.039769430833264806), np.float64(0.03972876981027779), np.float64(0.039688069609787935), np.float64(0.039647330729390994), np.float64(0.039606553669258096), np.float64(0.03956573893210764), np.float64(0.039524887023171654), np.float64(0.039483998450168534), np.float64(0.03944307372326977), np.float64(0.03940211335506842), np.float64(0.03936111786054856), np.float64(0.03932008775705107), np.float64(0.039279023564242545), np.float64(0.039237925804080365), np.float64(0.03919679500078047), np.float64(0.03915563168078296), np.float64(0.039114436372717144), np.float64(0.03907320960736743), np.float64(0.03903195191763825), np.float64(0.03899066383851834), np.float64(0.03894934590704438), np.float64(0.03890799866226546), np.float64(0.038866622645206274), np.float64(0.03882521839882997), np.float64(0.038783786468001256), np.float64(0.03874232739944822), np.float64(0.03870084174172481), np.float64(0.03865933004517259), np.float64(0.03861779286188172), np.float64(0.038576230745652126), np.float64(0.03853464425195457), np.float64(0.0384930339378909), np.float64(0.03845140036215376), np.float64(0.03840974408498771), np.float64(0.038368065668147315), np.float64(0.03832636567485733), np.float64(0.038284644669771356), np.float64(0.03824290321893105), np.float64(0.03820114188972445), np.float64(0.03815936125084337)]</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1766,25 +1921,30 @@
         <v>100</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01303646393219178</v>
+        <v>0.01828736496267009</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.12520333967667469), np.float64(0.39537442285226104), np.float64(0.8371929195455278), np.float64(-0.34167690860849154)], [np.float64(0.6443771902352984), np.float64(0.12592743814375254), np.float64(0.8109162563846893), np.float64(0.04359353006303793)], [np.float64(0.5191565185218845), np.float64(0.05379396984141885), np.float64(0.410552054885423), np.float64(0.06599158232740553)], [np.float64(0.373207879100888), np.float64(-0.08234599482860816), np.float64(0.7565016064374069), np.float64(-0.20420312373095384)]]]</t>
+          <t>[[[np.float64(0.14802444915742247), np.float64(-0.27515598675822484), np.float64(-0.9993449189159725), np.float64(-0.35635539348776135)], [np.float64(0.5845701607948987), np.float64(-0.2478132642612143), np.float64(-0.4530951795050679), np.float64(-0.11859954032172625)], [np.float64(0.27990603654326623), np.float64(-0.08266607883307966), np.float64(-1.1265589853315465), np.float64(-0.6613048965896922)], [np.float64(0.6822215214988238), np.float64(0.36058626194188637), np.float64(-0.035958797569721444), np.float64(0.2759956204151584)]]]</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[[0.8866729551793836, 0.26625437609032154, 0.8759669250204004, np.float64(-0.2531572848274204)]]</t>
+          <t>[[0.9752263618928335, 0.021215251949456504, 0.5804028879711743, np.float64(-1.1027967658775546)]]</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>[np.float64(0.38393694427211594), np.float64(0.40973120683076775), np.float64(0.1364916207305719), np.float64(0.9781483326445909)]</t>
+          <t>[np.float64(0.12250884805362461), np.float64(0.6348949739152955), np.float64(0.7864458347753133), np.float64(0.48635857982812947)]</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.03925848791136137</v>
+        <v>0.6322468817425554</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>[np.float64(0.05141315459629226), np.float64(0.05102153214550441), np.float64(0.05062043022409669), np.float64(0.05020991820246913), np.float64(0.049790094634891244), np.float64(0.04936108873069126), np.float64(0.04892306169580794), np.float64(0.04847620791513003), np.float64(0.04802075594536601), np.float64(0.04755696928809167), np.float64(0.04708514691325548), np.float64(0.04660562350481817), np.float64(0.04611876940244523), np.float64(0.045624990216303445), np.float64(0.04512472609602673), np.float64(0.04461845063979671), np.float64(0.0441066694351799), np.float64(0.04358991822975258), np.float64(0.04306876073650068), np.float64(0.042543786086336494), np.float64(0.04201560594759187), np.float64(0.041484851339828245), np.float64(0.040952169176469266), np.float64(0.04041821857738595), np.float64(0.039883666998376935), np.float64(0.039349186229277654), np.float64(0.0388154483160298), np.float64(0.03828312146422901), np.float64(0.03775286598245119), np.float64(0.037225330322913405), np.float64(0.03670114727479803), np.float64(0.03618093036198134), np.float64(0.03566527049203518), np.float64(0.03515473289742267), np.float64(0.034649854403056395), np.float64(0.03415114104695114), np.float64(0.033659066073011425), np.float64(0.033174068307135304), np.float64(0.032696550920172346), np.float64(0.03222688057399721), np.float64(0.03176538694024111), np.float64(0.031312362575268586), np.float64(0.030868063129882183), np.float64(0.030432707868003835), np.float64(0.030006480465354625), np.float64(0.029589530056881433), np.float64(0.02918197250027389), np.float64(0.02878389182237311), np.float64(0.028395341815577325), np.float64(0.0280163477521494), np.float64(0.027646908185905098), np.float64(0.027286996812598604), np.float64(0.026936564362595086), np.float64(0.026595540501948227), np.float64(0.02626383572058897), np.float64(0.025941343189044355), np.float64(0.02562794056781521), np.float64(0.025323491756089122), np.float64(0.025027848569027036), np.float64(0.02474085233511032), np.float64(0.024462335407232496), np.float64(0.024192122583132605), np.float64(0.023930032432497535), np.float64(0.023675878529576172), np.float64(0.02342947059146682), np.float64(0.02319061552333413), np.float64(0.022959118372727197), np.float64(0.022734783195934166), np.float64(0.022517413839894116), np.float64(0.022306814643615176), np.float64(0.0221027910633843), np.float64(0.02190515022626564), np.float64(0.02171370141649809), np.float64(0.02152825649942397), np.float64(0.02134863028758464), np.float64(0.02117464085350035), np.float64(0.021006109793542664), np.float64(0.020842862447143673), np.float64(0.020684728075392612), np.float64(0.020531540002865598), np.float64(0.02038313572632677), np.float64(0.020239356993700563), np.float64(0.020100049856498027), np.float64(0.019965064698639914), np.float64(0.019834256244423993), np.float64(0.01970748354813864), np.float64(0.019584609967634344), np.float64(0.019465503123959477), np.float64(0.019350034848989464), np.float64(0.019238081122787482), np.float64(0.019129522002264518), np.float64(0.019024241542575825), np.float64(0.01892212771252389), np.float64(0.018823072305100864), np.float64(0.018726970844215842), np.float64(0.018633722488480994), np.float64(0.018543229932878456), np.float64(0.018455399309020414), np.float64(0.01837014008461495), np.float64(0.018287364962670086)]</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1808,25 +1968,30 @@
         <v>200</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01145367228375992</v>
+        <v>0.01231565530772494</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.2974212871596011), np.float64(-0.009558691506017661), np.float64(0.26328557437224015), np.float64(-0.06916251857190593)], [np.float64(0.1927844929879535), np.float64(0.23164793120558366), np.float64(-0.45841100356971676), np.float64(0.17036909614577322)], [np.float64(0.5379551377972445), np.float64(0.03157076570106864), np.float64(0.04400360855235653), np.float64(-0.5221900465429405)], [np.float64(0.7984754466641106), np.float64(0.6949732656369166), np.float64(0.6651464016314785), np.float64(0.36807251886347075)]]]</t>
+          <t>[[[np.float64(-0.4039637418850615), np.float64(0.5162322633104429), np.float64(0.19151348488236847), np.float64(-0.08176672422957419)], [np.float64(-0.37384601430605396), np.float64(0.45984913880927153), np.float64(0.37729013316810456), np.float64(0.44547020111348906)], [np.float64(-0.023134536333811725), np.float64(-0.24328700174459847), np.float64(0.18936721025773282), np.float64(-0.45140050843262597)], [np.float64(0.5088494026463882), np.float64(0.5770670222724364), np.float64(0.8985372008034678), np.float64(0.18659414558960605)]]]</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[[0.2448955804123144, 0.38678671922541874, 0.08519629458845812, np.float64(-1.0630560495541899)]]</t>
+          <t>[[0.5268903531239212, 0.8342475256914208, 0.3462519648870963, np.float64(-0.32418249196204)]]</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>[np.float64(0.22011995278357382), np.float64(0.24460717612959176), np.float64(0.5902875049036627), np.float64(0.7400304354371376)]</t>
+          <t>[np.float64(0.6195366149149889), np.float64(0.3419279359759215), np.float64(0.15752967562583328), np.float64(0.4396063095597925)]</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>0.2491986606993042</v>
+        <v>0.1902467487785066</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>[np.float64(0.020590775189800636), np.float64(0.020490398184957057), np.float64(0.020390200241875267), np.float64(0.02029020551510263), np.float64(0.020190438069778202), np.float64(0.020090921854448832), np.float64(0.01999168067397159), np.float64(0.019892738162582763), np.float64(0.019794117757192715), np.float64(0.01969584267098208), np.float64(0.01959793586736212), np.float64(0.019500420034370393), np.float64(0.019403317559564492), np.float64(0.019306650505477734), np.float64(0.01921044058570132), np.float64(0.019114709141650116), np.float64(0.01901947712007233), np.float64(0.01892476505135262), np.float64(0.018830593028667526), np.float64(0.01873698068803451), np.float64(0.018643947189304424), np.float64(0.018551511198137326), np.float64(0.01845969086900009), np.float64(0.018368503829217096), np.float64(0.018277967164108906), np.float64(0.01818809740323813), np.float64(0.01809891050779114), np.float64(0.018010421859108155), np.float64(0.017922646248375505), np.float64(0.01783559786749239), np.float64(0.017749290301114034), np.float64(0.01766373651987155), np.float64(0.017578948874768272), np.float64(0.01749493909274384), np.float64(0.017411718273393106), np.float64(0.017329296886828348), np.float64(0.017247684772665316), np.float64(0.017166891140111145), np.float64(0.017086924569129268), np.float64(0.01700779301265472), np.float64(0.016929503799828473), np.float64(0.016852063640218445), np.float64(0.016775478628989135), np.float64(0.016699754252987815), np.float64(0.016624895397701046), np.float64(0.016550906355046534), np.float64(0.016477790831953956), np.float64(0.01640555195969249), np.float64(0.016334192303899982), np.float64(0.01626371387526966), np.float64(0.016194118140846144), np.float64(0.016125406035886712), np.float64(0.016057577976240703), np.float64(0.015990633871200182), np.float64(0.015924573136777236), np.float64(0.015859394709361208), np.float64(0.01579509705971242), np.float64(0.01573167820724608), np.float64(0.015669135734566145), np.float64(0.015607466802204184), np.float64(0.015546668163524435), np.float64(0.015486736179753997), np.float64(0.015427666835100879), np.float64(0.01536945575192203), np.float64(0.015312098205906597), np.float64(0.015255589141241364), np.float64(0.015199923185724358), np.float64(0.015145094665798314), np.float64(0.015091097621473547), np.float64(0.01503792582111399), np.float64(0.014985572776061084), np.float64(0.014934031755071478), np.float64(0.014883295798547374), np.float64(0.014833357732538355), np.float64(0.014784210182496284), np.float64(0.014735845586768529), np.float64(0.014688256209809694), np.float64(0.014641434155103172), np.float64(0.014595371377777541), np.float64(0.014550059696906113), np.float64(0.014505490807484346), np.float64(0.014461656292072854), np.float64(0.01441854763210136), np.float64(0.014376156218830052), np.float64(0.014334473363959387), np.float64(0.014293490309890909), np.float64(0.014253198239633348), np.float64(0.01421358828635418), np.float64(0.01417465154257786), np.float64(0.014136379069028485), np.float64(0.014098761903123645), np.float64(0.014061791067116717), np.float64(0.01402545757589373), np.float64(0.013989752444430565), np.float64(0.013954666694907589), np.float64(0.013920191363498403), np.float64(0.013886317506825499), np.float64(0.013853036208099518), np.float64(0.013820338582940607), np.float64(0.013788215784894912), np.float64(0.013756659010648424), np.float64(0.013725659504947418), np.float64(0.013695208565233766), np.float64(0.013665297546000935), np.float64(0.01363591786288164), np.float64(0.013607060996470141), np.float64(0.013578718495892442), np.float64(0.013550881982129205), np.float64(0.013523543151101007), np.float64(0.013496693776525064), np.float64(0.013470325712546527), np.float64(0.013444430896159711), np.float64(0.013419001349422494), np.float64(0.013394029181471968), np.float64(0.013369506590353148), np.float64(0.013345425864662553), np.float64(0.013321779385018887), np.float64(0.01329855962536794), np.float64(0.013275759154125918), np.float64(0.013253370635172557), np.float64(0.013231386828698016), np.float64(0.013209800591911467), np.float64(0.01318860487961894), np.float64(0.013167792744675902), np.float64(0.013147357338321623), np.float64(0.013127291910400395), np.float64(0.013107589809477469), np.float64(0.01308824448285305), np.float64(0.013069249476483753), np.float64(0.013050598434812575), np.float64(0.013032285100515247), np.float64(0.013014303314168712), np.float64(0.012996647013843496), np.float64(0.012979310234628337), np.float64(0.0129622871080897), np.float64(0.012945571861669699), np.float64(0.01292915881802853), np.float64(0.012913042394335219), np.float64(0.012897217101508002), np.float64(0.01288167754341216), np.float64(0.012866418416014944), np.float64(0.012851434506504139), np.float64(0.012836720692368808), np.float64(0.01282227194045385), np.float64(0.01280808330597995), np.float64(0.012794149931541215), np.float64(0.012780467046080395), np.float64(0.012767029963838333), np.float64(0.012753834083291794), np.float64(0.012740874886069729), np.float64(0.012728147935858516), np.float64(0.012715648877294107), np.float64(0.012703373434844354), np.float64(0.01269131741168412), np.float64(0.01267947668856251), np.float64(0.012667847222665672), np.float64(0.012656425046477291), np.float64(0.01264520626663581), np.float64(0.012634187062790278), np.float64(0.01262336368646016), np.float64(0.012612732459894933), np.float64(0.012602289774934092), np.float64(0.012592032091876643), np.float64(0.012581955938351395), np.float64(0.012572057908193626), np.float64(0.012562334660330538), np.float64(0.012552782917670764), np.float64(0.012543399466004917), np.float64(0.012534181152913527), np.float64(0.012525124886685293), np.float64(0.0125162276352428), np.float64(0.012507486425082481), np.float64(0.012498898340221411), np.float64(0.012490460521159005), np.float64(0.012482170163846656), np.float64(0.012474024518673956), np.float64(0.012466020889462335), np.float64(0.012458156632475554), np.float64(0.012450429155439698), np.float64(0.012442835916577778), np.float64(0.012435374423657367), np.float64(0.012428042233051275), np.float64(0.01242083694881208), np.float64(0.012413756221760466), np.float64(0.012406797748586062), np.float64(0.012399959270961766), np.float64(0.012393238574674729), np.float64(0.012386633488767024), np.float64(0.012380141884693495), np.float64(0.012373761675490823), np.float64(0.012367490814962226), np.float64(0.01236132729687506), np.float64(0.01235526915417001), np.float64(0.012349314458188864), np.float64(0.012343461317909896), np.float64(0.012337707879200325), np.float64(0.012332052324082157), np.float64(0.012326492870008315), np.float64(0.012321027769154868), np.float64(0.012315655307724938)]</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1850,25 +2015,30 @@
         <v>100</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005242410867125373</v>
+        <v>0.01864738503772476</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.07293543603849433), np.float64(0.7129295443251449), np.float64(0.2511618839546721), np.float64(0.3610769075755756)], [np.float64(0.6827345779207751), np.float64(0.6925887244641804), np.float64(0.025655696672932035), np.float64(0.15482075017198044)], [np.float64(0.14855619053731497), np.float64(0.4138865301875113), np.float64(-0.07860883550433863), np.float64(0.700377331402937)], [np.float64(0.7464997239571499), np.float64(0.9055067292950448), np.float64(0.004484225587563448), np.float64(0.16596870597172556)]]]</t>
+          <t>[[[np.float64(0.6365047666827489), np.float64(-0.32516261256074697), np.float64(-0.4304581653468484), np.float64(0.004686791976907799)], [np.float64(0.16805061680350436), np.float64(0.3121641244366212), np.float64(0.22729241186971658), np.float64(0.0018990910584058007)], [np.float64(0.7623283646794898), np.float64(-0.3714127700562675), np.float64(-0.5412819351551603), np.float64(0.26989902738499016)], [np.float64(0.47653278923636055), np.float64(0.05454839458660833), np.float64(-0.17904250141221262), np.float64(0.4281444149917385)]]]</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[[0.0667624456074658, 0.9226952949309286, 0.0711152468333277, np.float64(0.024362936472818984)]]</t>
+          <t>[[0.9414410882746365, 0.35300201544371934, 0.8590029362745732, np.float64(-0.10155634027120197)]]</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[np.float64(0.2744432232056345), np.float64(0.005212775175621683), np.float64(0.8440538637680233), np.float64(0.40042473823163477)]</t>
+          <t>[np.float64(0.46378438772412317), np.float64(0.9030074205214514), np.float64(0.860279266798206), np.float64(0.2700422844834209)]</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>0.2940285001221565</v>
+        <v>0.1436944817176972</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>[np.float64(0.086140866256669), np.float64(0.08576986497736855), np.float64(0.08536486863049342), np.float64(0.08492170068512647), np.float64(0.08443553811260082), np.float64(0.08390079397743604), np.float64(0.08331097697844447), np.float64(0.08265852373095926), np.float64(0.08193459927275736), np.float64(0.08112886136345733), np.float64(0.08022918504215629), np.float64(0.07922134632797934), np.float64(0.07808866911066797), np.float64(0.07681164920085483), np.float64(0.07536758743968996), np.float64(0.07373029473035089), np.float64(0.07186998317190164), np.float64(0.0697535387517388), np.float64(0.06734549228705425), np.float64(0.0646101701722289), np.float64(0.06151569516253422), np.float64(0.058040640993045435), np.float64(0.05418402719729278), np.float64(0.049978602799371885), np.float64(0.04550551623405909), np.float64(0.040905276202601294), np.float64(0.036376374754482965), np.float64(0.032152389965617284), np.float64(0.02845554741507621), np.float64(0.02544023292220714), np.float64(0.023153567390323225), np.float64(0.021535608233770695), np.float64(0.020457148635293215), np.float64(0.0197700644947831), np.float64(0.019344517561112513), np.float64(0.01908404589211091), np.float64(0.018924361586812072), np.float64(0.018825436292444066), np.float64(0.018763240844324965), np.float64(0.018723529740641474), np.float64(0.01869781963832548), np.float64(0.01868098303305899), np.float64(0.018669859746485835), np.float64(0.01866246294252886), np.float64(0.01865752107829793), np.float64(0.01865420845740489), np.float64(0.01865198284556184), np.float64(0.018650485184888207), np.float64(0.018649476287472207), np.float64(0.01864879614404115), np.float64(0.018648337399062513), np.float64(0.018648027878523203), np.float64(0.018647818993464207), np.float64(0.018647678002019722), np.float64(0.018647582826827932), np.float64(0.01864751857498447), np.float64(0.018647475197112115), np.float64(0.018647445910780578), np.float64(0.01864742613784298), np.float64(0.018647412787764033), np.float64(0.018647403774111306), np.float64(0.018647397688269108), np.float64(0.01864739357920813), np.float64(0.018647390804829172), np.float64(0.0186473889316043), np.float64(0.01864738766682564), np.float64(0.018647386812861017), np.float64(0.018647386236273544), np.float64(0.018647385846967696), np.float64(0.01864738558411257), np.float64(0.018647385406635186), np.float64(0.018647385286804364), np.float64(0.018647385205895834), np.float64(0.018647385151267536), np.float64(0.018647385114383193), np.float64(0.018647385089479142), np.float64(0.01864738507266394), np.float64(0.0186473850613107), np.float64(0.018647385053644695), np.float64(0.01864738504846891), np.float64(0.018647385044974447), np.float64(0.018647385042614643), np.float64(0.018647385041021983), np.float64(0.018647385039946136), np.float64(0.018647385039219498), np.float64(0.018647385038729408), np.float64(0.018647385038398443), np.float64(0.01864738503817458), np.float64(0.018647385038023843), np.float64(0.018647385037921613), np.float64(0.018647385037853213), np.float64(0.018647385037807943), np.float64(0.018647385037776132), np.float64(0.018647385037754514), np.float64(0.018647385037741777), np.float64(0.018647385037731563), np.float64(0.018647385037728566), np.float64(0.018647385037727043), np.float64(0.018647385037725946), np.float64(0.01864738503772476)]</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1892,25 +2062,30 @@
         <v>200</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01532030677729883</v>
+        <v>0.01591507495684051</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.5675949267887578), np.float64(-0.16134899975505287), np.float64(0.517635862388925), np.float64(0.4000874138063779)], [np.float64(-0.3855196696921052), np.float64(-0.407050648949181), np.float64(0.5150484958350544), np.float64(0.43184037695638844)], [np.float64(-0.4632617729409297), np.float64(-0.2747979015956402), np.float64(0.6330258576231704), np.float64(0.05708086517161919)], [np.float64(0.2844840600244902), np.float64(0.43046161328462557), np.float64(0.6785994935527516), np.float64(0.650666980438869)]]]</t>
+          <t>[[[np.float64(-0.3678379457900841), np.float64(-0.42655644943289484), np.float64(-0.4287349667458795), np.float64(0.07358204484294477)], [np.float64(-0.18936549269598862), np.float64(0.34869050136698804), np.float64(0.0820760456362997), np.float64(0.4966853586554667)], [np.float64(0.11093731635914915), np.float64(-0.2776128500095633), np.float64(-0.27033260589125624), np.float64(-0.10239768350890384)], [np.float64(-0.16580710780153998), np.float64(0.6618644547022514), np.float64(-0.20468937972589563), np.float64(0.5231822870514241)]]]</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[[0.41012448056887707, 0.02006973428395442, 0.4750108597161664, np.float64(-0.15180847461933183)]]</t>
+          <t>[[0.6007008787001125, 0.18432932208009944, 0.975987350666313, np.float64(0.10196501138152661)]]</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[np.float64(0.9104036211523135), np.float64(0.629348327696034), np.float64(0.5357786736275798), np.float64(0.4490931408785406)]</t>
+          <t>[np.float64(0.42545965220464704), np.float64(0.6180597170331353), np.float64(0.9635792133520558), np.float64(0.3284976411110856)]</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>0.753123137130184</v>
+        <v>0.1701572253281463</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>[np.float64(0.08609964619729914), np.float64(0.08593754198567018), np.float64(0.08576664031719007), np.float64(0.08558632075354661), np.float64(0.08539590786271653), np.float64(0.08519466534689776), np.float64(0.0849817894468995), np.float64(0.08475640152435032), np.float64(0.08451753970895085), np.float64(0.08426414948191129), np.float64(0.08399507304852141), np.float64(0.0837090373322894), np.float64(0.08340464040024624), np.float64(0.08308033610376321), np.float64(0.08273441669179928), np.float64(0.0823649931243974), np.float64(0.08196997278431184), np.float64(0.08154703425552397), np.float64(0.08109359881171382), np.float64(0.08060679823951199), np.float64(0.0800834386170369), np.float64(0.07951995968721769), np.float64(0.07891238952209988), np.float64(0.07825629428963381), np.float64(0.07754672313894065), np.float64(0.07677814855795265), np.float64(0.07594440309175478), np.float64(0.07503861413002151), np.float64(0.07405313970214654), np.float64(0.07297951002899339), np.float64(0.07180838219815261), np.float64(0.07052951904873149), np.float64(0.06913180853116865), np.float64(0.06760334684870926), np.float64(0.06593161796056515), np.float64(0.06410381370568748), np.float64(0.06210735253257042), np.float64(0.059930669101040855), np.float64(0.05756435822926306), np.float64(0.05500275756858018), np.float64(0.05224603140818126), np.float64(0.04930275388950516), np.float64(0.046192858986314964), np.float64(0.04295060464114566), np.float64(0.03962688971838166), np.float64(0.03628992353593513), np.float64(0.03302303741250874), np.float64(0.029918613100242533), np.float64(0.02706796176122255), np.float64(0.024548551213731066), np.float64(0.02241172594481046), np.float64(0.020674910375965694), np.float64(0.019321235718701812), np.float64(0.01830670421573311), np.float64(0.017571960359363), np.float64(0.017054364950109032), np.float64(0.016696975003533017), np.float64(0.016453189099271546), np.float64(0.016287700030852056), np.float64(0.016175216063919362), np.float64(0.01609831131426684), np.float64(0.016045271195870313), np.float64(0.01600832037483669), np.float64(0.015982314909268595), np.float64(0.015963838296966647), np.float64(0.015950601091840797), np.float64(0.015941050887722054), np.float64(0.015934121299433102), np.float64(0.015929070352865508), np.float64(0.015925375675732587), np.float64(0.015922665703819647), np.float64(0.015920673857254156), np.float64(0.01591920753397146), np.float64(0.015918126804559504), np.float64(0.01591732956543972), np.float64(0.015916741064556223), np.float64(0.015916306435005256), np.float64(0.01591598532772017), np.float64(0.015915748027069285), np.float64(0.015915572624839797), np.float64(0.015915442955869087), np.float64(0.015915347085367525), np.float64(0.015915276197901007), np.float64(0.01591522377992967), np.float64(0.01591518501755085), np.float64(0.015915156352347564), np.float64(0.01591513515359613), np.float64(0.015915119476218147), np.float64(0.01591510788197483), np.float64(0.01591509930733885), np.float64(0.015915092965836392), np.float64(0.015915088275856627), np.float64(0.015915084807277807), np.float64(0.015915082242005597), np.float64(0.015915080344792363), np.float64(0.01591507894165633), np.float64(0.01591507790392781), np.float64(0.015915077136445983), np.float64(0.01591507656883225), np.float64(0.015915076149036655), np.float64(0.01591507583856444), np.float64(0.015915075608945353), np.float64(0.0159150754391232), np.float64(0.015915075313526036), np.float64(0.015915075220637356), np.float64(0.015915075151938265), np.float64(0.015915075101130317), np.float64(0.015915075063553396), np.float64(0.015915075035762023), np.float64(0.01591507501520802), np.float64(0.015915075000006582), np.float64(0.015915074988764277), np.float64(0.015915074980449605), np.float64(0.015915074974300433), np.float64(0.01591507496975257), np.float64(0.015915074966388665), np.float64(0.01591507496390125), np.float64(0.015915074962061054), np.float64(0.01591507496070042), np.float64(0.015915074959694138), np.float64(0.015915074958949556), np.float64(0.015915074958399382), np.float64(0.015915074957992086), np.float64(0.015915074957690994), np.float64(0.015915074957468342), np.float64(0.015915074957303862), np.float64(0.015915074957182307), np.float64(0.015915074957092257), np.float64(0.0159150749570257), np.float64(0.01591507495697683), np.float64(0.01591507495694051), np.float64(0.015915074956913338), np.float64(0.015915074956894013), np.float64(0.015915074956879802), np.float64(0.015915074956867628), np.float64(0.01591507495685845), np.float64(0.015915074956854004), np.float64(0.01591507495685185), np.float64(0.015915074956850305), np.float64(0.015915074956848848), np.float64(0.015915074956847464), np.float64(0.01591507495684619), np.float64(0.015915074956844813), np.float64(0.01591507495684434), np.float64(0.015915074956843925), np.float64(0.015915074956843602), np.float64(0.015915074956843297), np.float64(0.015915074956843113), np.float64(0.015915074956842863), np.float64(0.01591507495684266), np.float64(0.015915074956842433), np.float64(0.015915074956842155), np.float64(0.015915074956842027), np.float64(0.015915074956841888), np.float64(0.0159150749568417), np.float64(0.01591507495684157), np.float64(0.015915074956841385), np.float64(0.015915074956841333), np.float64(0.015915074956841246), np.float64(0.015915074956841146), np.float64(0.01591507495684113), np.float64(0.015915074956841063), np.float64(0.015915074956840955), np.float64(0.01591507495684087), np.float64(0.015915074956840837), np.float64(0.015915074956840837), np.float64(0.01591507495684077), np.float64(0.015915074956840698), np.float64(0.015915074956840698), np.float64(0.015915074956840695), np.float64(0.015915074956840698), np.float64(0.015915074956840688), np.float64(0.01591507495684065), np.float64(0.01591507495684062), np.float64(0.01591507495684059), np.float64(0.01591507495684056), np.float64(0.015915074956840528), np.float64(0.01591507495684051), np.float64(0.015915074956840525), np.float64(0.015915074956840514), np.float64(0.01591507495684052), np.float64(0.015915074956840514), np.float64(0.01591507495684051)]</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1934,25 +2109,30 @@
         <v>100</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01093524539627309</v>
+        <v>0.005593967289253722</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.3080146734439922), np.float64(0.9573570111630456), np.float64(0.8776000187981932), np.float64(0.8853266890493025)], [np.float64(0.3513796154042678), np.float64(0.919944309951167), np.float64(0.6130375916049985), np.float64(0.4446969495325192)], [np.float64(0.6689930967049671), np.float64(0.8018876520561937), np.float64(0.7861344502372153), np.float64(0.7308505007181317)], [np.float64(0.15763822863796448), np.float64(0.5162845897968403), np.float64(0.31683489620236815), np.float64(0.44746493859551895)]]]</t>
+          <t>[[[np.float64(0.27298301158846855), np.float64(0.12641845982564173), np.float64(-0.20359654977984817), np.float64(-0.4384217934526332)], [np.float64(0.19477399752392913), np.float64(0.18677826230693903), np.float64(0.4430896169025744), np.float64(0.2818904880344226)], [np.float64(0.15763862934580608), np.float64(0.4508526332933203), np.float64(0.5476712386707661), np.float64(-0.6750391200088083)], [np.float64(0.03291481688097961), np.float64(0.25120023724509105), np.float64(0.640439978073894), np.float64(0.5739698467678475)]]]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[[0.6123335377957396, 0.3272485607927611, 0.8684314377682948, np.float64(0.5949748050866673)]]</t>
+          <t>[[0.029171171325972578, 0.5766993538165189, 0.5367381803431738, np.float64(-0.640683424112123)]]</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[np.float64(0.22692153349022612), np.float64(0.018396867879680503), np.float64(0.5118819798772135), np.float64(0.11618372210440854)]</t>
+          <t>[np.float64(0.6453490396852317), np.float64(0.07319255119694901), np.float64(0.5569079811459445), np.float64(0.921221483431284)]</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>0.126224239154772</v>
+        <v>0.8484112026542326</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>[np.float64(0.09332772526766209), np.float64(0.09126173655727067), np.float64(0.08257740790575539), np.float64(0.029733697937298232), np.float64(0.007148093405553689), np.float64(0.009315032550683834), np.float64(0.005593967289253722), np.float64(0.006457237984691765), np.float64(0.005915090809802877), np.float64(0.006128213586930979), np.float64(0.006024418457897225), np.float64(0.006070264242610663), np.float64(0.006049093093428919), np.float64(0.006058673612466995), np.float64(0.006054297974770381), np.float64(0.006056288045526097), np.float64(0.006055381213469376), np.float64(0.0060557940771517075), np.float64(0.0060556060334142105), np.float64(0.006055691664723031), np.float64(0.006055652666745635), np.float64(0.0060556704264317866), np.float64(0.006055662338530552), np.float64(0.006055666021796153), np.float64(0.0060556643444125945), np.float64(0.0060556651083055095), np.float64(0.006055664760421348), np.float64(0.006055664918851301), np.float64(0.006055664846704259), np.float64(0.00605566487955898), np.float64(0.0060556648645988575), np.float64(0.006055664871409234), np.float64(0.006055664868307865), np.float64(0.006055664869718493), np.float64(0.006055664869075436), np.float64(0.0060556648693682), np.float64(0.006055664869235336), np.float64(0.0060556648692983266), np.float64(0.006055664869270516), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966), np.float64(0.006055664869276966)]</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1976,25 +2156,30 @@
         <v>200</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01177458315527035</v>
+        <v>0.0167150399770624</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.527043137423422), np.float64(-0.10793729854609777), np.float64(-0.21892255026178975), np.float64(0.5896008554520636)], [np.float64(0.10326348213731909), np.float64(-0.4211287541100515), np.float64(0.0929176263185679), np.float64(-0.04107152970968935)], [np.float64(-0.218859922259893), np.float64(-0.6160784474269723), np.float64(0.37427613724573483), np.float64(-0.07309220637166546)], [np.float64(0.683466115321683), np.float64(0.16011926666283743), np.float64(0.34035775077450114), np.float64(0.11195260799547219)]]]</t>
+          <t>[[[np.float64(-0.6682771851252188), np.float64(0.23629543109813897), np.float64(0.3938517575157222), np.float64(-0.44470670822310626)], [np.float64(-0.42676103991976533), np.float64(-0.09326497774578801), np.float64(0.14673718850577822), np.float64(0.1768958951648663)], [np.float64(-1.0963965217127545), np.float64(0.22758598435996127), np.float64(0.5776304964457369), np.float64(0.21783542006345955)], [np.float64(0.2700491740378456), np.float64(0.7078551552324263), np.float64(0.41062849573168114), np.float64(0.5716015436543421)]]]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[[0.8073498808438748, 0.3780294639321268, 0.5156295457639173, np.float64(0.09515019765597943)]]</t>
+          <t>[[0.659117530949711, 0.5900184591427848, 0.8134272307770735, np.float64(-0.28842785798103615)]]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[np.float64(0.7008417406324728), np.float64(0.6215926411927148), np.float64(0.6140224097521847), np.float64(0.39667954791338694)]</t>
+          <t>[np.float64(0.8965725022755817), np.float64(0.7016739349068444), np.float64(0.016333946030629112), np.float64(0.5182246179507773)]</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>0.1638549839042485</v>
+        <v>0.9751577605545055</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>[np.float64(0.09459678341245925), np.float64(0.0940485915826606), np.float64(0.09285003708872668), np.float64(0.0895841944296437), np.float64(0.07674850901701835), np.float64(0.02810588724178654), np.float64(0.02073707579182927), np.float64(0.02307197058166322), np.float64(0.01891642386525824), np.float64(0.020721619949348163), np.float64(0.017935161873499278), np.float64(0.019375797064876004), np.float64(0.017379768713325205), np.float64(0.01854520160565434), np.float64(0.017062440869728197), np.float64(0.018010556663171876), np.float64(0.016883771585772936), np.float64(0.01765644332716304), np.float64(0.016787116628917482), np.float64(0.01741670245093661), np.float64(0.016738937727688443), np.float64(0.01725138042163181), np.float64(0.01671900400571796), np.float64(0.017135493697082064), np.float64(0.016715039977062404), np.float64(0.017053023352857747), np.float64(0.016719625473595994), np.float64(0.016993497196595014), np.float64(0.01672833214192704), np.float64(0.016949957475327133), np.float64(0.016738578049139197), np.float64(0.016917714185490502), np.float64(0.016748915180342962), np.float64(0.01689356266171518), np.float64(0.016758584126294225), np.float64(0.016875283953648717), np.float64(0.01676723596978471), np.float64(0.016861321314209456), np.float64(0.01677475951164582), np.float64(0.01685056821618184), np.float64(0.01678117498199841), np.float64(0.016842227932183873), np.float64(0.0167865696290688), np.float64(0.01683571953757901), np.float64(0.016791059547056616), np.float64(0.016830614319985608), np.float64(0.01679476780481739), np.float64(0.016826592287149163), np.float64(0.016797812576698854), np.float64(0.01682341208056638), np.float64(0.016800301303565496), np.float64(0.01682088991506921), np.float64(0.016802328397821233), np.float64(0.016818884655868137), np.float64(0.016803974952192616), np.float64(0.016817287113055582), np.float64(0.01680530951144294), np.float64(0.01681601226666927), np.float64(0.016806389343615356), np.float64(0.016814993552028284), np.float64(0.016807261882968633), np.float64(0.016814178611082767), np.float64(0.01680796616213852), np.float64(0.016813526099740524), np.float64(0.016808534139378366), np.float64(0.01681300326510871), np.float64(0.01680899187916919), np.float64(0.016812584090713276), np.float64(0.016809360574727476), np.float64(0.016812247865456393), np.float64(0.01680965741737049), np.float64(0.016811978071975552), np.float64(0.016809896325989816), np.float64(0.016811761518077933), np.float64(0.016810088553189006), np.float64(0.016811587654718005), np.float64(0.016810243185278476), np.float64(0.016811448038231074), np.float64(0.016810367552403865), np.float64(0.016811335904821645), np.float64(0.01681046756352941), np.float64(0.016811245832901705), np.float64(0.016810547979121515), np.float64(0.01681117347450579), np.float64(0.016810612632532754), np.float64(0.016811115341238303), np.float64(0.01681066460937387), np.float64(0.01681106863340463), np.float64(0.016810706392604294), np.float64(0.01681103110343916), np.float64(0.016810739979746234), np.float64(0.01681100094662306), np.float64(0.016810766977466723), np.float64(0.016810976713580013), np.float64(0.01681078867785347), np.float64(0.016810957240142876), np.float64(0.016810806119879073), np.float64(0.016810941591123934), np.float64(0.016810820138896784), np.float64(0.016810929015212927), np.float64(0.01681083140649092), np.float64(0.01681091890877293), np.float64(0.016810840462546203), np.float64(0.016810910786791824), np.float64(0.016810847741053802), np.float64(0.016810904259548207), np.float64(0.016810853590868164), np.float64(0.016810899013877428), np.float64(0.01681085829239303), np.float64(0.01681089479812794), np.float64(0.01681086207101133), np.float64(0.01681089141007083), np.float64(0.016810865107877538), np.float64(0.016810888687192046), np.float64(0.016810867548589608), np.float64(0.016810886498889527), np.float64(0.016810869510169572), np.float64(0.016810884740206637), np.float64(0.01681087108667306), np.float64(0.016810883326796353), np.float64(0.016810872353691244), np.float64(0.0168108821908686), np.float64(0.016810873371978154), np.float64(0.016810881277948685), np.float64(0.01681087419036171), np.float64(0.016810880544254097), np.float64(0.016810874848083922), np.float64(0.016810879954599407), np.float64(0.016810875376685658), np.float64(0.016810879480705716), np.float64(0.01681087580151544), np.float64(0.01681087909984619), np.float64(0.01681087614294309), np.float64(0.01681087879375578), np.float64(0.01681087641734383), np.float64(0.01681087854775645), np.float64(0.016810876637875515), np.float64(0.016810878350052513), np.float64(0.01681087681511293), np.float64(0.016810878191160592), np.float64(0.016810876957555867), np.float64(0.016810878063462008), np.float64(0.016810877072035633), np.float64(0.016810877960833137), np.float64(0.016810877164040214), np.float64(0.016810877878351203), np.float64(0.016810877237983177), np.float64(0.016810877812062967), np.float64(0.016810877297409006), np.float64(0.016810877758787732), np.float64(0.01681087734516879), np.float64(0.016810877715971496), np.float64(0.016810877383551998), np.float64(0.016810877681560577), np.float64(0.016810877414400096), np.float64(0.01681087765390503), np.float64(0.016810877439193118), np.float64(0.01681087763167861), np.float64(0.01681087745911879), np.float64(0.0168108776138152), np.float64(0.016810877475133598), np.float64(0.016810877599458415), np.float64(0.016810877488004018), np.float64(0.01681087758792081), np.float64(0.016810877498346647), np.float64(0.01681087757864884), np.float64(0.01681087750665933), np.float64(0.016810877571196547), np.float64(0.016810877513340376), np.float64(0.016810877565207712), np.float64(0.016810877518709102), np.float64(0.01681087756039469), np.float64(0.016810877523023227), np.float64(0.016810877556526955), np.float64(0.016810877526490377), np.float64(0.01681087755341779), np.float64(0.016810877529277207), np.float64(0.016810877550919222), np.float64(0.016810877531518505), np.float64(0.016810877548910235), np.float64(0.01681087753331852), np.float64(0.01681087754729732), np.float64(0.01681087753476579), np.float64(0.016810877545998856), np.float64(0.01681087753592876), np.float64(0.016810877544956842), np.float64(0.016810877536863934), np.float64(0.01681087754411964), np.float64(0.01681087753761372), np.float64(0.01681087754344689), np.float64(0.01681087753821717), np.float64(0.016810877542905354), np.float64(0.016810877538702865), np.float64(0.016810877542469373), np.float64(0.016810877539093334), np.float64(0.016810877542120344), np.float64(0.016810877539405997), np.float64(0.016810877541838843), np.float64(0.016810877539658126), np.float64(0.016810877541612264)]</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2018,25 +2203,30 @@
         <v>100</v>
       </c>
       <c r="F38" t="n">
-        <v>0.122570603665211</v>
+        <v>0.02992100158032387</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.7394222760208964), np.float64(-0.12219300842839102)], [np.float64(-0.6635028932249025), np.float64(-0.7092584197090294)], [np.float64(-0.6354930648147842), np.float64(-0.05261269253045968)], [np.float64(-0.5527379873639939), np.float64(0.463876537476583)]], [[np.float64(-2.0850183486758573), np.float64(-1.8867245801901211)], [np.float64(-2.2532450343182693), np.float64(-2.652122201922741)]]]</t>
+          <t>[[[np.float64(0.07785939773897856), np.float64(-0.024347015646714737)], [np.float64(0.4105930783832463), np.float64(0.33825984715003393)], [np.float64(0.15847259339858522), np.float64(0.05834130510800813)], [np.float64(0.44509135373274267), np.float64(0.19788788450628333)]], [[np.float64(-0.16678688956451238), np.float64(-0.031177587411438303)], [np.float64(-0.35571865968028843), np.float64(-0.2161493843198393)]]]</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[[0.29434620156112357, np.float64(-1.4603870096073328)], [0.2891521053116848, np.float64(-1.5157747923927514)]]</t>
+          <t>[[0.3322055614710884, np.float64(0.6549696922401862)], [0.37003015864231226, np.float64(0.20284605203139383)]]</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>[np.float64(0.7703924146570822), np.float64(0.8494813084992039)]</t>
+          <t>[np.float64(0.3702857194257006), np.float64(0.22686600314667155)]</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>0.8175858258877305</v>
+        <v>0.8427290468426144</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>[np.float64(0.8409963124648046), np.float64(0.3656759073601986), np.float64(0.2185386147154194), np.float64(0.18516154769764792), np.float64(0.1597775721056424), np.float64(0.13961120176353944), np.float64(0.1160461146502202), np.float64(0.1014572146476646), np.float64(0.08935000318772314), np.float64(0.07918183249974108), np.float64(0.07056307165180525), np.float64(0.06320551693466187), np.float64(0.056890443561886814), np.float64(0.051447979315513696), np.float64(0.04674324329783007), np.float64(0.04266759824063774), np.float64(0.039131399401563474), np.float64(0.03605991858722358), np.float64(0.03339001796208829), np.float64(0.031044049082889866), np.float64(0.030127574110237972), np.float64(0.030124942064217754), np.float64(0.030122310461376506), np.float64(0.03011967930163365), np.float64(0.030117048584908872), np.float64(0.03011441831112197), np.float64(0.030111788480192705), np.float64(0.030109159092040736), np.float64(0.030106530146585982), np.float64(0.030103901643748227), np.float64(0.03010127358344697), np.float64(0.030098645965602466), np.float64(0.030096018790134023), np.float64(0.03009339205696186), np.float64(0.03009076576600571), np.float64(0.030088139917185668), np.float64(0.03008551451042091), np.float64(0.030082889545632374), np.float64(0.030080265022739222), np.float64(0.03007764094166171), np.float64(0.03007501730231967), np.float64(0.03007239410463309), np.float64(0.030069771348521953), np.float64(0.030067149033906213), np.float64(0.03006452716070609), np.float64(0.03006190572884091), np.float64(0.030059284738231832), np.float64(0.03005666418879795), np.float64(0.03005404408045976), np.float64(0.030051424413137354), np.float64(0.030048805186750665), np.float64(0.03004618640121989), np.float64(0.03004356805646518), np.float64(0.030040950152406792), np.float64(0.03003833268896441), np.float64(0.030035715666059004), np.float64(0.030033099083610005), np.float64(0.030030482941537987), np.float64(0.030027867239763178), np.float64(0.03002525197820558), np.float64(0.030022637156785825), np.float64(0.030020022775423965), np.float64(0.030017408834039916), np.float64(0.030014795332554838), np.float64(0.030012182270888022), np.float64(0.030009569648960847), np.float64(0.030006957466692734), np.float64(0.03000434572400485), np.float64(0.03000173442081669), np.float64(0.029999123557049322), np.float64(0.029996513132622988), np.float64(0.029993903147457906), np.float64(0.029991293601474515), np.float64(0.02998868449459357), np.float64(0.02998607582673556), np.float64(0.029983467597820366), np.float64(0.029980859807769093), np.float64(0.029978252456501663), np.float64(0.029975645543939305), np.float64(0.029973039070002278), np.float64(0.029970433034610878), np.float64(0.02996782743768588), np.float64(0.02996522227914772), np.float64(0.029962617558917295), np.float64(0.02996001327691505), np.float64(0.029957409433061605), np.float64(0.02995480602727736), np.float64(0.02995220305948357), np.float64(0.029949600529600346), np.float64(0.02994699843754867), np.float64(0.02994439678324917), np.float64(0.029941795566622374), np.float64(0.029939194787589236), np.float64(0.02993659444607071), np.float64(0.029933994541987138), np.float64(0.02993139507525947), np.float64(0.029928796045808614), np.float64(0.029926197453554997), np.float64(0.029923599298419847), np.float64(0.029921001580323868)]</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2060,25 +2250,30 @@
         <v>200</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1913114407181022</v>
+        <v>0.03231490442890429</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.7216375073571761), np.float64(-0.3689871169337741)], [np.float64(-0.1362630217848041), np.float64(0.30969280524409337)], [np.float64(-0.6920143189698333), np.float64(0.11538913613427944)], [np.float64(0.21097712009396272), np.float64(0.02607224748530187)]], [[np.float64(-1.8839442390508065), np.float64(0.6028912874053334)], [np.float64(-1.52464676611479), np.float64(-0.11316667709757591)]]]</t>
+          <t>[[[np.float64(-0.028521399960405095), np.float64(0.13898933047165102)], [np.float64(-0.30832512688739416), np.float64(0.0027832613148186516)], [np.float64(-0.32451114029230665), np.float64(-0.10253435891387469)], [np.float64(-0.044929269951981536), np.float64(0.8195255854742007)]], [[np.float64(0.43641131338361916), np.float64(0.6853045682387559)], [np.float64(0.7204185710895711), np.float64(0.3353296334180699)]]]</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[[0.6617075440876433, np.float64(-0.37189390029835384)], [0.7272516384984469, np.float64(-0.014645602535739839)]]</t>
+          <t>[[0.4376203183349615, np.float64(-0.3798141370234547)], [0.8804038575806965, np.float64(-0.0027637714053545563)]]</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[np.float64(0.9829502480516652), np.float64(0.10965858167307545)]</t>
+          <t>[np.float64(0.03944953332538606), np.float64(0.05751523051431923)]</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>0.4240082008808214</v>
+        <v>0.8147981882029205</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>[np.float64(0.12892891845273446), np.float64(0.12423384234427798), np.float64(0.11990117632917684), np.float64(0.11589136331544862), np.float64(0.11217027684894003), np.float64(0.1087083320651535), np.float64(0.10547976428747625), np.float64(0.10246203972993256), np.float64(0.09963537108519588), np.float64(0.0969823169768252), np.float64(0.09448744891507345), np.float64(0.09213707292809753), np.float64(0.0899189957403072), np.float64(0.08782232744941074), np.float64(0.08583731426520376), np.float64(0.08395538159120078), np.float64(0.0821684773137815), np.float64(0.0804696118039907), np.float64(0.07885228979399017), np.float64(0.07731060615787143), np.float64(0.07583932144676786), np.float64(0.07443364137917234), np.float64(0.07308899198313504), np.float64(0.07180132438184332), np.float64(0.07056703619013918), np.float64(0.06938270030218521), np.float64(0.06824530598916217), np.float64(0.06715204721344145), np.float64(0.066100074907309), np.float64(0.06508698624437788), np.float64(0.0641105526024163), np.float64(0.06316870491811054), np.float64(0.06225940475379298), np.float64(0.06138085758662369), np.float64(0.06053146215567552), np.float64(0.05970975498896796), np.float64(0.058914414829447544), np.float64(0.05814400038279151), np.float64(0.05739744159183615), np.float64(0.05667341950984028), np.float64(0.05597112557530968), np.float64(0.0552896827550707), np.float64(0.05462797885446599), np.float64(0.053985429615309236), np.float64(0.053361530205721514), np.float64(0.05275513451332167), np.float64(0.05216598126458711), np.float64(0.05159320925872202), np.float64(0.05103568609542235), np.float64(0.05049338874778082), np.float64(0.049965793778655156), np.float64(0.04945229059479719), np.float64(0.048952474783959185), np.float64(0.0484660090809009), np.float64(0.04799266986432492), np.float64(0.04753251891731721), np.float64(0.04708556058987851), np.float64(0.04665168569101911), np.float64(0.04623032640791354), np.float64(0.04582197927335025), np.float64(0.045426920410932145), np.float64(0.045045123952055184), np.float64(0.04467668534869351), np.float64(0.04432161321603468), np.float64(0.043979693196585415), np.float64(0.043651321834848475), np.float64(0.043336224669896665), np.float64(0.04303436391301279), np.float64(0.04274590153776305), np.float64(0.04247165569595982), np.float64(0.04221174034298502), np.float64(0.04196525924600042), np.float64(0.04173264912046883), np.float64(0.04158117092233545), np.float64(0.04143597290868299), np.float64(0.041297280683069267), np.float64(0.041164561331335295), np.float64(0.04103731473818526), np.float64(0.040914867588105724), np.float64(0.04079711289371227), np.float64(0.04068372990933917), np.float64(0.04057446554036058), np.float64(0.04046886914582048), np.float64(0.04036661017460427), np.float64(0.040267503217486546), np.float64(0.04017105087970836), np.float64(0.04007693161223114), np.float64(0.03998493351658895), np.float64(0.03989643461571192), np.float64(0.039808280068798864), np.float64(0.03972046803993033), np.float64(0.03963299670704561), np.float64(0.0395458642618238), np.float64(0.039459068909537216), np.float64(0.0393726088689392), np.float64(0.03928648237211104), np.float64(0.03920068766437184), np.float64(0.03911522300411572), np.float64(0.039030086662715936), np.float64(0.038945276924391654), np.float64(0.03886079208608304), np.float64(0.03877663045734974), np.float64(0.038692790360224646), np.float64(0.038609270129120465), np.float64(0.03852606811071053), np.float64(0.038443182663801215), np.float64(0.038360612159232185), np.float64(0.03827835497975752), np.float64(0.03819640951994176), np.float64(0.0381147741860381), np.float64(0.03803344739589707), np.float64(0.03795242757884155), np.float64(0.03787171317557741), np.float64(0.037791302638071), np.float64(0.03771119442946646), np.float64(0.03763138702395976), np.float64(0.037551878906718995), np.float64(0.03747266857376447), np.float64(0.03739375453188572), np.float64(0.03731513529852986), np.float64(0.037236809401714144), np.float64(0.037158775379924784), np.float64(0.03708103178202192), np.float64(0.03700357716714419), np.float64(0.03692641010462145), np.float64(0.0368495291738736), np.float64(0.03677293296432379), np.float64(0.03669662007531268), np.float64(0.03662058911600145), np.float64(0.03654483870528561), np.float64(0.03646936747170706), np.float64(0.036394174053371024), np.float64(0.03631925709785604), np.float64(0.03624461526212915), np.float64(0.03617024721246636), np.float64(0.03609615162436104), np.float64(0.03602232718245478), np.float64(0.035948772580440394), np.float64(0.03587548652099189), np.float64(0.035802467715684114), np.float64(0.03572971488491179), np.float64(0.03565722675780717), np.float64(0.035585002072167915), np.float64(0.035513039574383044), np.float64(0.03544133801934915), np.float64(0.03536989617040202), np.float64(0.03529871279924093), np.float64(0.03522778668585083), np.float64(0.03515711661843738), np.float64(0.03508670139335169), np.float64(0.03501653981501252), np.float64(0.03494663069584628), np.float64(0.034876972856212156), np.float64(0.03480756512433432), np.float64(0.03473840633622875), np.float64(0.03466949533564181), np.float64(0.03460083097398113), np.float64(0.034532412110247705), np.float64(0.03446423761097288), np.float64(0.03439630635015226), np.float64(0.0343286172091795), np.float64(0.03426116907678448), np.float64(0.034193960848971215), np.float64(0.034126991428951314), np.float64(0.03406025972708877), np.float64(0.03399376466083051), np.float64(0.033927505154654154), np.float64(0.03386148014000059), np.float64(0.033795688555220735), np.float64(0.03373012934551323), np.float64(0.03366480146286614), np.float64(0.03359970386600056), np.float64(0.03353483552031403), np.float64(0.033470195397821374), np.float64(0.03340578247710185), np.float64(0.03334159574324171), np.float64(0.03327763418778014), np.float64(0.033213896808655136), np.float64(0.03315038261014903), np.float64(0.033087090602834816), np.float64(0.03302401980352522), np.float64(0.03296116923521865), np.float64(0.032898537927049), np.float64(0.03283612491423268), np.float64(0.03277392923801919), np.float64(0.03271194994564096), np.float64(0.0326501860902625), np.float64(0.03258863673093258), np.float64(0.0325273009325342), np.float64(0.03246617776573673), np.float64(0.03240526630694886), np.float64(0.03235738228480844), np.float64(0.032352066956115685), np.float64(0.032346753227515145), np.float64(0.03234144109848972), np.float64(0.03233613056852284), np.float64(0.032330821637097135), np.float64(0.0323255143036966), np.float64(0.03232020856780418), np.float64(0.03231490442890429)]</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2102,25 +2297,30 @@
         <v>100</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01421900690154327</v>
+        <v>0.02141578850045202</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[[[np.float64(-4.694829026970671), np.float64(-9.29158202300981)], [np.float64(-4.546476062631104), np.float64(-8.478305882950288)], [np.float64(-5.645978628316392), np.float64(-9.727543606283755)], [np.float64(-2.5020210955637654), np.float64(-4.392663647539523)]], [[np.float64(-13.078943562252576), np.float64(-16.54134033148427)], [np.float64(-14.338807452832343), np.float64(-19.01616393593155)]]]</t>
+          <t>[[[np.float64(-2.579307763123578), np.float64(-2.2010732796556622)], [np.float64(-2.6131100086073418), np.float64(-1.7757034247566683)], [np.float64(-2.177316031324836), np.float64(-2.1673961741627674)], [np.float64(-0.9385763345737788), np.float64(-0.795748905234669)]], [[np.float64(-3.983466534483281), np.float64(-2.0742035279452007)], [np.float64(-4.141643922402355), np.float64(-2.5163125147674057)]]]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[[0.2415864310586111, np.float64(-14.399499642518817)], [0.2493070141128425, np.float64(-12.193722684179495)]]</t>
+          <t>[[0.05284221590498506, np.float64(-3.3928942420872077)], [0.18893828872210194, np.float64(-2.4035110652306657)]]</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>[np.float64(0.639492384496162), np.float64(0.8316855242857943)]</t>
+          <t>[np.float64(0.7703307031858766), np.float64(0.47118039008287144)]</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>0.4853607572418345</v>
+        <v>0.4557102559524798</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>[np.float64(1.4924668708147606), np.float64(0.024943527114970707), np.float64(0.024903052913157513), np.float64(0.024862677737193462), np.float64(0.024822401366287675), np.float64(0.024782223580123528), np.float64(0.024742144158856418), np.float64(0.02470216288311329), np.float64(0.024662279533991718), np.float64(0.024622493893058595), np.float64(0.02458280574234909), np.float64(0.02454321486436638), np.float64(0.02450372104207959), np.float64(0.024464324058923792), np.float64(0.024425023698798475), np.float64(0.024385819746066583), np.float64(0.02434671198555385), np.float64(0.024307700202547328), np.float64(0.02426878418279519), np.float64(0.024229963712504403), np.float64(0.02419123857834206), np.float64(0.024152608567431434), np.float64(0.024114073467353617), np.float64(0.024075633066145446), np.float64(0.024037287152297943), np.float64(0.02399903551475646), np.float64(0.023960877942919418), np.float64(0.023922814226637213), np.float64(0.023884844156210797), np.float64(0.023846967522391876), np.float64(0.02380918411638057), np.float64(0.023771493729825937), np.float64(0.023733896154823634), np.float64(0.023696391183916022), np.float64(0.023658978610090673), np.float64(0.023621658226779498), np.float64(0.023584429827858217), np.float64(0.02354729320764453), np.float64(0.023510248160898483), np.float64(0.023473294482819995), np.float64(0.023436431969049383), np.float64(0.02339966041566562), np.float64(0.02336297961918542), np.float64(0.023326389376563002), np.float64(0.02328988948518757), np.float64(0.023253479742884626), np.float64(0.023217159947913138), np.float64(0.023180929898965995), np.float64(0.023144789395167925), np.float64(0.023108738236075267), np.float64(0.023072776221675268), np.float64(0.023036903152384786), np.float64(0.023001118829048837), np.float64(0.022965423052940866), np.float64(0.022929815625761293), np.float64(0.02289429634963619), np.float64(0.022858865027117446), np.float64(0.02282352146118035), np.float64(0.022788265455224343), np.float64(0.022753096813070996), np.float64(0.022718015338963185), np.float64(0.022683020837565224), np.float64(0.02264811311396048), np.float64(0.022613291973651715), np.float64(0.02257855722255949), np.float64(0.02254390866702154), np.float64(0.0225093461137922), np.float64(0.022474869370041027), np.float64(0.0224404782433517), np.float64(0.02240617254172202), np.float64(0.02237195207356248), np.float64(0.022337816647695397), np.float64(0.022303766073354204), np.float64(0.02226980016018267), np.float64(0.02223591871823342), np.float64(0.02220212155796795), np.float64(0.02216840849025505), np.float64(0.022134779326370396), np.float64(0.0221012338779958), np.float64(0.02206777195721718), np.float64(0.02203439337652593), np.float64(0.022001097948815482), np.float64(0.02196788548738267), np.float64(0.021934755805925292), np.float64(0.021901708718542152), np.float64(0.02186874403973233), np.float64(0.021835861584393164), np.float64(0.02180306116782099), np.float64(0.021770342605709012), np.float64(0.02173770571414745), np.float64(0.021705150309621783), np.float64(0.021672676209012483), np.float64(0.021640283229594576), np.float64(0.02160797118903536), np.float64(0.021575739905395328), np.float64(0.021543589197126223), np.float64(0.021511518883070423), np.float64(0.02147952878246064), np.float64(0.02144761871491779), np.float64(0.02141578850045202)]</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2144,25 +2344,30 @@
         <v>200</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01665628423592845</v>
+        <v>0.02322555902627674</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[[[np.float64(-5.004345787560538), np.float64(-3.5310919249687314)], [np.float64(-4.509186947828866), np.float64(-2.595088594517437)], [np.float64(-5.678679086717708), np.float64(-2.9090254308298302)], [np.float64(-2.587426400628906), np.float64(-0.9659484577090851)]], [[np.float64(-11.907213320642446), np.float64(-5.788101021037705)], [np.float64(-15.63542878013249), np.float64(-7.402039946984286)]]]</t>
+          <t>[[[np.float64(0.4544558308370081), np.float64(0.033221251649827935)], [np.float64(0.22801209074144224), np.float64(0.4013368494658007)], [np.float64(-0.06782614357695764), np.float64(0.35093599002559067)], [np.float64(0.45395676919809236), np.float64(0.6280764790978484)]], [[np.float64(-0.5898696850920105), np.float64(-2.7051886277763093)], [np.float64(-0.3327204479020997), np.float64(-2.7023559504335957)]]]</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[[0.23785929466009015, np.float64(-5.139179350563436)], [0.41401479290987153, np.float64(-3.6115073457335067)]]</t>
+          <t>[[0.4304161669052793, np.float64(-0.3186739377257183)], [0.6802325332158454, np.float64(-1.4146411599309734)]]</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[np.float64(0.6167449109605098), np.float64(0.2949090329059053)]</t>
+          <t>[np.float64(0.13643539648123978), np.float64(0.33722270503023666)]</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>0.3718005663235519</v>
+        <v>0.8042524043821295</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>[np.float64(0.5998572069607488), np.float64(0.02593130433595378), np.float64(0.02591542451958384), np.float64(0.025899569788083495), np.float64(0.025883740097966634), np.float64(0.02586793540582807), np.float64(0.025852155668342012), np.float64(0.025836400842263327), np.float64(0.025820670884426196), np.float64(0.025804965751745037), np.float64(0.025789285401213093), np.float64(0.025773629789903146), np.float64(0.025757998874967623), np.float64(0.02574239261363731), np.float64(0.025726810963222668), np.float64(0.025711253881112017), np.float64(0.02569572132477305), np.float64(0.025680213251751554), np.float64(0.025664729619671527), np.float64(0.02564927038623527), np.float64(0.025633835509223008), np.float64(0.025618424946492906), np.float64(0.025603038655980598), np.float64(0.02558767659569965), np.float64(0.025572338723740734), np.float64(0.025557024998271633), np.float64(0.02554173537753751), np.float64(0.025526469819860488), np.float64(0.02551122828363952), np.float64(0.025496010727349815), np.float64(0.02548081710954359), np.float64(0.02546564738884911), np.float64(0.025450501523971207), np.float64(0.02543537947369025), np.float64(0.025420281196863088), np.float64(0.02540520665242199), np.float64(0.02539015579937501), np.float64(0.025375128596805744), np.float64(0.025360125003872802), np.float64(0.025345144979810705), np.float64(0.025330188483928158), np.float64(0.025315255475609495), np.float64(0.025300345914313425), np.float64(0.025285459759573577), np.float64(0.025270596970997417), np.float64(0.025255757508267824), np.float64(0.025240941331141093), np.float64(0.0252261483994477), np.float64(0.025211378673092245), np.float64(0.025196632112052923), np.float64(0.025181908676381686), np.float64(0.025167208326203786), np.float64(0.02515253102171813), np.float64(0.025137876723196576), np.float64(0.025123245390984247), np.float64(0.025108636985499103), np.float64(0.025094051467232023), np.float64(0.025079488796746336), np.float64(0.025064948934677957), np.float64(0.025050431841735405), np.float64(0.025035937478698974), np.float64(0.025021465806421478), np.float64(0.0250070167858277), np.float64(0.024992590377913963), np.float64(0.02497818654374828), np.float64(0.02496380524447073), np.float64(0.024949446441292305), np.float64(0.024935110095495133), np.float64(0.024920796168433238), np.float64(0.02490650462153096), np.float64(0.024892235416283732), np.float64(0.024877988514257716), np.float64(0.024863763877089797), np.float64(0.024849561466487185), np.float64(0.024835381244227326), np.float64(0.024821223172158204), np.float64(0.024807087212197564), np.float64(0.02479297332633319), np.float64(0.024778881476622532), np.float64(0.024764811625193072), np.float64(0.024750763734241378), np.float64(0.02473673776603366), np.float64(0.02472273368290533), np.float64(0.02470875144726091), np.float64(0.024694791021574153), np.float64(0.02468085236838725), np.float64(0.02466693545031144), np.float64(0.02465304023002663), np.float64(0.024639166670280967), np.float64(0.02462531473389076), np.float64(0.02461148438374119), np.float64(0.024597675582785163), np.float64(0.024583888294043215), np.float64(0.024570122480604334), np.float64(0.02455637810562461), np.float64(0.024542655132328003), np.float64(0.024528953524006025), np.float64(0.024515273244017238), np.float64(0.024501614255787445), np.float64(0.0244879765228097), np.float64(0.024474360008643548), np.float64(0.024460764676916078), np.float64(0.02444719049131995), np.float64(0.02443363741561537), np.float64(0.024420105413628507), np.float64(0.024406594449251827), np.float64(0.024393104486444085), np.float64(0.02437963548923), np.float64(0.02436618742170006), np.float64(0.024352760248010773), np.float64(0.02433935393238424), np.float64(0.024325968439107885), np.float64(0.024312603732534927), np.float64(0.024299259777083533), np.float64(0.02428593653723708), np.float64(0.02427263397754408), np.float64(0.024259352062617996), np.float64(0.024246090757136872), np.float64(0.02423285002584342), np.float64(0.024219629833545267), np.float64(0.02420643014511411), np.float64(0.024193250925485944), np.float64(0.02418009213966095), np.float64(0.024166953752703613), np.float64(0.02415383572974199), np.float64(0.024140738035968074), np.float64(0.02412766063663779), np.float64(0.024114603497070126), np.float64(0.024101566582647834), np.float64(0.024088549858816945), np.float64(0.024075553291086776), np.float64(0.024062576845029413), np.float64(0.024049620486280326), np.float64(0.024036684180537456), np.float64(0.024023767893561414), np.float64(0.02401087159117605), np.float64(0.023997995239266892), np.float64(0.023985138803782145), np.float64(0.023972302250732505), np.float64(0.023959485546190394), np.float64(0.023946688656290616), np.float64(0.023933911547229212), np.float64(0.02392115418526489), np.float64(0.023908416536717315), np.float64(0.023895698567967975), np.float64(0.023883000245459817), np.float64(0.02387032153569682), np.float64(0.02385766240524429), np.float64(0.02384502282072871), np.float64(0.02383240274883748), np.float64(0.02381980215631867), np.float64(0.023807221009981262), np.float64(0.023794659276694496), np.float64(0.023782116923388625), np.float64(0.023769593917053845), np.float64(0.023757090224740735), np.float64(0.02374460581356013), np.float64(0.02373214065068293), np.float64(0.023719694703339313), np.float64(0.023707267938820314), np.float64(0.023694860324475722), np.float64(0.023682471827715466), np.float64(0.02367010241600867), np.float64(0.023657752056883825), np.float64(0.02364542071792871), np.float64(0.023633108366790286), np.float64(0.02362081497117419), np.float64(0.02360854049884563), np.float64(0.02359628491762764), np.float64(0.023584048195402874), np.float64(0.023571830300111975), np.float64(0.0235596311997542), np.float64(0.0235474508623869), np.float64(0.023535289256126246), np.float64(0.023523146349145894), np.float64(0.023511022109677926), np.float64(0.02349891650601178), np.float64(0.02348682950649542), np.float64(0.023474761079534032), np.float64(0.023462711193590124), np.float64(0.02345067981718441), np.float64(0.02343866691889439), np.float64(0.02342667246735476), np.float64(0.023414696431257473), np.float64(0.023402738779351773), np.float64(0.023390799480443418), np.float64(0.023378878503395022), np.float64(0.023366975817126167), np.float64(0.02335509139061288), np.float64(0.02334322519288735), np.float64(0.023331377193038533), np.float64(0.023319547360211773), np.float64(0.023307735663607814), np.float64(0.023295942072484428), np.float64(0.023284166556154645), np.float64(0.023272409083987786), np.float64(0.023260669625408067), np.float64(0.023248948149896687), np.float64(0.023237244626989), np.float64(0.023225559026276744)]</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2186,25 +2391,30 @@
         <v>100</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01985859598570888</v>
+        <v>0.01063395683374181</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.1495595936960808), np.float64(0.35503175448663465)], [np.float64(0.811306274140775), np.float64(0.9472274895510859)], [np.float64(0.27054513054642615), np.float64(0.841076432828397)], [np.float64(0.4071309223338532), np.float64(0.5758021817378605)]], [[np.float64(0.22595957560293956), np.float64(0.24327974529428398)], [np.float64(-0.07619083355431513), np.float64(0.6400919199339947)]]]</t>
+          <t>[[[np.float64(0.10275908483352181), np.float64(0.41167782205093634)], [np.float64(0.09908217258698694), np.float64(0.26995886345747705)], [np.float64(0.8458715492972673), np.float64(0.321734761973248)], [np.float64(0.7364610445833014), np.float64(0.7476355461104801)]], [[np.float64(0.3979988085086469), np.float64(0.21962487989227475)], [np.float64(0.2459846922388907), np.float64(0.9653227548367234)]]]</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[[0.4299385592139491, np.float64(0.3792011858460229)], [0.6413773686582566, np.float64(0.722076772871524)]]</t>
+          <t>[[0.3010341575036336, np.float64(0.8575703737513842)], [0.06870848519836059, np.float64(0.5410465524474888)]]</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>[np.float64(0.845169457933402), np.float64(0.0963110483671525)]</t>
+          <t>[np.float64(0.595687194109989), np.float64(0.07494808270278139)]</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>0.7411743532964415</v>
+        <v>0.4862712917065281</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>[np.float64(0.010633956833741806), np.float64(0.010634277215616824), np.float64(0.010634598339711311), np.float64(0.010634920203591662), np.float64(0.010635242804830183), np.float64(0.010635566141004932), np.float64(0.010635890209699945), np.float64(0.010636215008505178), np.float64(0.010636540535016142), np.float64(0.010636866786834488), np.float64(0.01063719376156734), np.float64(0.01063752145682798), np.float64(0.010637849870235062), np.float64(0.0106381789994134), np.float64(0.010638508841993327), np.float64(0.01063883939561107), np.float64(0.010639170657908396), np.float64(0.010639502626533067), np.float64(0.01063983529913834), np.float64(0.0106401686733832), np.float64(0.01064050274693241), np.float64(0.01064083751745626), np.float64(0.01064117298263083), np.float64(0.01064150914013785), np.float64(0.010641845987664655), np.float64(0.010642183522904261), np.float64(0.010642521743555112), np.float64(0.010642860647321511), np.float64(0.010643200231913128), np.float64(0.010643540495045447), np.float64(0.010643881434439324), np.float64(0.010644223047821168), np.float64(0.010644565332923153), np.float64(0.01064490828748268), np.float64(0.01064525190924284), np.float64(0.010645596195952374), np.float64(0.010645941145365248), np.float64(0.010646286755241204), np.float64(0.010646633023345004), np.float64(0.010646979947447342), np.float64(0.010647327525324157), np.float64(0.010647675754756726), np.float64(0.010648024633531972), np.float64(0.010648374159442175), np.float64(0.010648724330284779), np.float64(0.010649075143863145), np.float64(0.010649426597985442), np.float64(0.010649778690465652), np.float64(0.010650131419122806), np.float64(0.010650484781781468), np.float64(0.010650838776271482), np.float64(0.01065119340042785), np.float64(0.01065154865209116), np.float64(0.010651904529107263), np.float64(0.010652261029327053), np.float64(0.01065261815060699), np.float64(0.010652975890808767), np.float64(0.010653334247799129), np.float64(0.010653693219450136), np.float64(0.010654052803639187), np.float64(0.010654412998248847), np.float64(0.010654773801166913), np.float64(0.010655135210286413), np.float64(0.010655497223505431), np.float64(0.010655859838727317), np.float64(0.010656223053860806), np.float64(0.010656586866819175), np.float64(0.010656951275521558), np.float64(0.010657316277891817), np.float64(0.010657681871858856), np.float64(0.010658048055357002), np.float64(0.01065841482632546), np.float64(0.010658782182708678), np.float64(0.010659150122456131), np.float64(0.010659518643522065), np.float64(0.010659887743866362), np.float64(0.010660257421453361), np.float64(0.010660627674252897), np.float64(0.010660998500239533), np.float64(0.010661369897392987), np.float64(0.01066174186369793), np.float64(0.010662114397144097), np.float64(0.010662487495725917), np.float64(0.010662861157443198), np.float64(0.010663235380300428), np.float64(0.010663610162307205), np.float64(0.01066398550147791), np.float64(0.010664361395831849), np.float64(0.010664737843393416), np.float64(0.010665114842191748), np.float64(0.010665492390261001), np.float64(0.0106658704856401), np.float64(0.010666249126372894), np.float64(0.010666628310507948), np.float64(0.010667008036099046), np.float64(0.010667388301204396), np.float64(0.01066776910388734), np.float64(0.010668150442215822), np.float64(0.01066853231426267), np.float64(0.010668914718105622)]</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2228,25 +2438,30 @@
         <v>200</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02861657302066207</v>
+        <v>0.01223059863485047</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.2659926517940632), np.float64(0.6967008651020674)], [np.float64(0.7864487894424814), np.float64(0.7594868991663489)], [np.float64(0.3019141969502167), np.float64(0.6605787799406642)], [np.float64(0.4359027556048821), np.float64(0.5188430712556988)]], [[np.float64(0.4573853418834771), np.float64(0.49951468584870884)], [np.float64(0.22300595195135386), np.float64(0.20522785602905286)]]]</t>
+          <t>[[[np.float64(0.24707087367464092), np.float64(0.4321120271942452)], [np.float64(0.5160349329670239), np.float64(0.9613572681864146)], [np.float64(0.11465390886163433), np.float64(0.7999390061412637)], [np.float64(0.6288901241050295), np.float64(0.9518628854623014)]], [[np.float64(0.7968707129850264), np.float64(0.273397421426575)], [np.float64(1.0980658707674578), np.float64(0.42520639497281854)]]]</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[[0.3545784065046125, np.float64(0.6745524513673693)], [0.061025256024274, np.float64(0.11049620213883192)]]</t>
+          <t>[[0.2652276145269874, np.float64(0.9987386961488908)], [0.13610062114408816, np.float64(1.0997811374251236)]]</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>[np.float64(0.8432885407487987), np.float64(0.20595879912806644)]</t>
+          <t>[np.float64(0.32178546825325244), np.float64(0.287262478232134)]</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>0.9690552109597136</v>
+        <v>0.1628767054531771</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>[np.float64(0.01272026286462973), np.float64(0.012717302128920766), np.float64(0.012714347187354695), np.float64(0.012711398027350993), np.float64(0.012708454636355816), np.float64(0.012705517001846231), np.float64(0.012702585111324613), np.float64(0.012699658952322638), np.float64(0.01269673851239962), np.float64(0.012693823779141604), np.float64(0.012690914740163033), np.float64(0.012688011383106403), np.float64(0.012685113695640954), np.float64(0.012682221665463789), np.float64(0.012679335280299662), np.float64(0.012676454527900323), np.float64(0.012673579396045744), np.float64(0.012670709872541718), np.float64(0.01266784594522358), np.float64(0.012664987601951026), np.float64(0.012662134830613523), np.float64(0.012659287619126033), np.float64(0.012656445955431419), np.float64(0.012653609827498519), np.float64(0.012650779223324169), np.float64(0.012647954130932698), np.float64(0.012645134538372935), np.float64(0.012642320433722114), np.float64(0.012639511805084618), np.float64(0.012636708640590704), np.float64(0.012633910928397786), np.float64(0.012631118656688681), np.float64(0.012628331813674409), np.float64(0.012625550387591269), np.float64(0.012622774366702923), np.float64(0.01262000373929853), np.float64(0.012617238493694153), np.float64(0.012614478618232153), np.float64(0.01261172410128045), np.float64(0.012608974931233865), np.float64(0.012606231096513001), np.float64(0.012603492585564851), np.float64(0.012600759386861539), np.float64(0.012598031488902553), np.float64(0.012595308880211546), np.float64(0.012592591549340124), np.float64(0.012589879484863608), np.float64(0.01258717267538478), np.float64(0.012584471109531455), np.float64(0.012581774775956437), np.float64(0.01257908366333946), np.float64(0.012576397760384665), np.float64(0.01257371705582291), np.float64(0.012571041538408554), np.float64(0.012568371196922883), np.float64(0.012565706020172703), np.float64(0.01256304599698979), np.float64(0.012560391116230368), np.float64(0.01255774136677621), np.float64(0.012555096737535082), np.float64(0.012552457217439002), np.float64(0.012549822795444929), np.float64(0.012547193460536163), np.float64(0.012544569201720002), np.float64(0.012541950008028135), np.float64(0.01253933586851725), np.float64(0.012536726772268879), np.float64(0.01253412270838971), np.float64(0.012531523666010918), np.float64(0.012528929634290278), np.float64(0.01252634060240582), np.float64(0.012523756559562895), np.float64(0.012521177494990886), np.float64(0.012518603397943437), np.float64(0.012516034257699794), np.float64(0.012513470063561984), np.float64(0.01251091080485677), np.float64(0.012508356470934753), np.float64(0.012505807051170931), np.float64(0.01250326253496636), np.float64(0.012500722911742708), np.float64(0.012498188170947383), np.float64(0.012495658302052536), np.float64(0.012493133294553519), np.float64(0.012490613137969784), np.float64(0.012488097821844275), np.float64(0.012485587335742634), np.float64(0.01248308166925712), np.float64(0.012480580812000822), np.float64(0.01247808475361189), np.float64(0.012475593483751305), np.float64(0.012473106992105848), np.float64(0.012470625268381589), np.float64(0.012468148302310921), np.float64(0.012465676083650748), np.float64(0.012463208602177532), np.float64(0.012460745847694984), np.float64(0.012458287810026903), np.float64(0.012455834479021271), np.float64(0.012453385844550404), np.float64(0.01245094189650912), np.float64(0.012448502624814964), np.float64(0.01244606801940663), np.float64(0.012443638070249), np.float64(0.012441212767327516), np.float64(0.01243879210065213), np.float64(0.012436376060253907), np.float64(0.012433964636188437), np.float64(0.012431557818532182), np.float64(0.012429155597385486), np.float64(0.012426757962870605), np.float64(0.012424364905132495), np.float64(0.012421976414340338), np.float64(0.012419592480682862), np.float64(0.012417213094372343), np.float64(0.012414838245644816), np.float64(0.012412467924755968), np.float64(0.012410102121985843), np.float64(0.01240774082763574), np.float64(0.012405384032029508), np.float64(0.01240303172551306), np.float64(0.012400683898454015), np.float64(0.012398340541241932), np.float64(0.012396001644289783), np.float64(0.012393667198029893), np.float64(0.01239133719291863), np.float64(0.01238901161943321), np.float64(0.01238669046807304), np.float64(0.012384373729358642), np.float64(0.012382061393832912), np.float64(0.01237975345206079), np.float64(0.012377449894627517), np.float64(0.012375150712140553), np.float64(0.01237285589522808), np.float64(0.012370565434540652), np.float64(0.012368279320750453), np.float64(0.012365997544550568), np.float64(0.012363720096656566), np.float64(0.012361446967801185), np.float64(0.012359178148743023), np.float64(0.012356913630259056), np.float64(0.012354653403148725), np.float64(0.012352397458232352), np.float64(0.012350145786351255), np.float64(0.012347898378367828), np.float64(0.0123456552251637), np.float64(0.012343416317644705), np.float64(0.01234118164673393), np.float64(0.012338951203378004), np.float64(0.01233672497854231), np.float64(0.01233450296321435), np.float64(0.01233228514840187), np.float64(0.012330071525133076), np.float64(0.012327862084456917), np.float64(0.01232565681744199), np.float64(0.01232345571517817), np.float64(0.01232125876877581), np.float64(0.01231906596936513), np.float64(0.012316877308097269), np.float64(0.012314692776144227), np.float64(0.012312512364696403), np.float64(0.012310336064965654), np.float64(0.012308163868183841), np.float64(0.012305995765602566), np.float64(0.012303831748494044), np.float64(0.012301671808149957), np.float64(0.012299515935881519), np.float64(0.012297364123021825), np.float64(0.012295216360921752), np.float64(0.01229307264095346), np.float64(0.012290932954507729), np.float64(0.01228879729299581), np.float64(0.012286665647847613), np.float64(0.0122845380105147), np.float64(0.012282414372466651), np.float64(0.012280294725192036), np.float64(0.01227817906020173), np.float64(0.01227606736902349), np.float64(0.01227395964320467), np.float64(0.012271855874313538), np.float64(0.012269756053937235), np.float64(0.01226766017368022), np.float64(0.012265568225169174), np.float64(0.012263480200047893), np.float64(0.012261396089979663), np.float64(0.012259315886648595), np.float64(0.012257239581755956), np.float64(0.012255167167022093), np.float64(0.012253098634187564), np.float64(0.012251033975010189), np.float64(0.012248973181269475), np.float64(0.012246916244761026), np.float64(0.012244863157300776), np.float64(0.01224281391072215), np.float64(0.01224076849687897), np.float64(0.012238726907642642), np.float64(0.012236689134903335), np.float64(0.012234655170570147), np.float64(0.012232625006570621), np.float64(0.012230598634850475)]</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2270,25 +2485,30 @@
         <v>100</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01472136473174853</v>
+        <v>0.01638198575501186</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.7037221276604595), np.float64(0.9148365694471052)], [np.float64(0.9204973209122115), np.float64(0.28412528983287844)], [np.float64(0.846894206933032), np.float64(0.050429047136531596)], [np.float64(0.8524186981869066), np.float64(0.5630711822167307)]], [[np.float64(-0.13376304376956702), np.float64(-1.304802863752494)], [np.float64(-0.7464210181880035), np.float64(-0.56144138748577)]]]</t>
+          <t>[[[np.float64(0.6748795040264352), np.float64(0.3736646818403911)], [np.float64(0.0700724482328462), np.float64(0.21884151895207185)], [np.float64(0.6101511174978482), np.float64(0.7058662494907085)], [np.float64(0.5519420973193124), np.float64(0.6501174687458796)]], [[np.float64(-0.6873069545680736), np.float64(-0.317425612221107)], [np.float64(-0.4917235403350103), np.float64(-0.4915899457266093)]]]</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[[0.34210608931307196, np.float64(0.401179659385705)], [0.17172927211555855, np.float64(-1.2693894917764177)]]</t>
+          <t>[[0.5861268795082444, np.float64(0.504677682979527)], [0.7797846509634504, np.float64(-0.4297680144859401)]]</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[np.float64(0.6861652653796779), np.float64(0.9670867288435071)]</t>
+          <t>[np.float64(0.709814676920321), np.float64(0.5894847679201803)]</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>0.8849640616572216</v>
+        <v>0.790212184674795</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>[np.float64(0.03722563070097159), np.float64(0.036983332071793995), np.float64(0.03673687358934001), np.float64(0.03648635000117715), np.float64(0.03623186545497213), np.float64(0.0359735335334645), np.float64(0.035711477247605025), np.float64(0.03544582898514673), np.float64(0.03517673041219009), np.float64(0.034904332325482845), np.float64(0.03462879445362801), np.float64(0.03435028520572762), np.float64(0.034068981366503374), np.float64(0.03378506773742535), np.float64(0.03349873672391623), np.float64(0.03321018786933439), np.float64(0.032919627337056806), np.float64(0.03262726734263693), np.float64(0.032333325538647775), np.float64(0.032038024355522866), np.float64(0.03174159030230611), np.float64(0.031444253231844466), np.float64(0.031146245575530848), np.float64(0.030847801553205198), np.float64(0.030549156364240417), np.float64(0.030250545366230026), np.float64(0.029952203247927113), np.float64(0.029654363203260432), np.float64(0.029357256113320816), np.float64(0.02906110974314416), np.float64(0.028766147959984018), np.float64(0.028472589979509237), np.float64(0.028180649645967115), np.float64(0.027890534751959496), np.float64(0.02760244640289922), np.float64(0.027316578430640805), np.float64(0.02703311686010526), np.float64(0.026752239432024965), np.float64(0.026474115184209297), np.float64(0.026198904092974613), np.float64(0.025926756775668157), np.float64(0.0256578142544731), np.float64(0.025392207780997718), np.float64(0.02513005872050413), np.float64(0.024871478494026374), np.float64(0.024616568576090812), np.float64(0.024365420545269207), np.float64(0.0241181161844066), np.float64(0.023874727627007195), np.float64(0.023635317546021505), np.float64(0.023399939381075242), np.float64(0.023168637600068917), np.float64(0.022941447990999866), np.float64(0.022718397979900842), np.float64(0.02249950697078883), np.float64(0.022284786703688057), np.float64(0.022074241626886038), np.float64(0.02186786927979024), np.float64(0.021665660682962166), np.float64(0.021467600732124566), np.float64(0.021273668593203152), np.float64(0.02108383809571019), np.float64(0.020898078122049833), np.float64(0.020716352990583338), np.float64(0.020538622830558677), np.float64(0.020364843947260375), np.float64(0.0201949691759811), np.float64(0.020028948223653996), np.float64(0.019866727997190206), np.float64(0.019708252917795235), np.float64(0.019553465220699926), np.float64(0.019402305239926268), np.float64(0.019254711677874424), np.float64(0.01911062185963217), np.float64(0.018969971972062363), np.float64(0.01883269728778766), np.float64(0.018698732374360344), np.float64(0.01856801128888443), np.float64(0.018440467758531105), np.float64(0.01831603534734741), np.float64(0.01819464760988228), np.float64(0.01807623823212703), np.float64(0.017960741160346665), np.float64(0.017848090718332394), np.float64(0.01773822171370572), np.float64(0.017631069533799), np.float64(0.017526570231745645), np.float64(0.01742466060332042), np.float64(0.017325278255115838), np.float64(0.01722836166461572), np.float64(0.017133850232677463), np.float64(0.0170416843289898), np.float64(0.016951805330962185), np.float64(0.01686415565657127), np.float64(0.01677867879159344), np.float64(0.016695319311696214), np.float64(0.01661402289977874), np.float64(0.01653473635897697), np.float64(0.016457407621691865), np.float64(0.01638198575501186)]</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2312,25 +2532,30 @@
         <v>200</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01321307304239037</v>
+        <v>0.01324161003771872</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.836873492318726), np.float64(0.13974918069075795)], [np.float64(-0.022208031558128352), np.float64(0.5495932039157047)], [np.float64(0.17418909932162183), np.float64(0.441050668547447)], [np.float64(0.9686207697718451), np.float64(0.562586124069948)]], [[np.float64(-0.08565262021922083), np.float64(0.5026367741115294)], [np.float64(0.14026946672032262), np.float64(0.31644837413576454)]]]</t>
+          <t>[[[np.float64(0.4890398948334535), np.float64(0.45568863380799945)], [np.float64(0.585258554369046), np.float64(0.6938361372357003)], [np.float64(0.08670533472573001), np.float64(0.06235020806220143)], [np.float64(0.048603676720213436), np.float64(0.3768220419921646)]], [[np.float64(-0.8257662788714124), np.float64(-0.5882214536726229)], [np.float64(-0.4494286112004954), np.float64(-0.5618967032616569)]]]</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[[0.8786677836808288, np.float64(0.057570762079845406)], [0.19684546679932713, np.float64(0.5892835210030948)]]</t>
+          <t>[[0.8695166947460775, np.float64(0.6680017403672376)], [0.6681148141401005, np.float64(-0.49288510334556085)]]</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>[np.float64(0.4226819126367033), np.float64(0.45126383474295034)]</t>
+          <t>[np.float64(0.8309075448860261), np.float64(0.45492731433980976)]</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>0.5483064618203141</v>
+        <v>0.6936877713625207</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>[np.float64(0.030374097451050828), np.float64(0.030152861422857887), np.float64(0.029930882057789453), np.float64(0.0297082765655958), np.float64(0.029485162380233316), np.float64(0.02926165691925517), np.float64(0.029037877346289657), np.float64(0.028813940337530305), np.float64(0.028589961853142404), np.float64(0.02836605691441356), np.float64(0.02814233938747476), np.float64(0.027918921774283248), np.float64(0.027695915011598845), np.float64(0.02747342827851378), np.float64(0.027251568813130986), np.float64(0.027030441738851493), np.float64(0.026810149900685656), np.float64(0.02659079371195942), np.float64(0.026372471011671762), np.float64(0.026155276932740088), np.float64(0.02593930378127493), np.float64(0.02572464092699567), np.float64(0.025511374704785983), np.float64(0.025299588327402325), np.float64(0.025089361809221934), np.float64(0.024880771900927894), np.float64(0.02467389203494595), np.float64(0.02446879228140392), np.float64(0.024265539314381294), np.float64(0.024064196388127675), np.float64(0.023864823322943388), np.float64(0.02366747650036369), np.float64(0.023472208867271586), np.float64(0.02327906994853346), np.float64(0.02308810586775962), np.float64(0.02289935937574296), np.float64(0.02271286988615589), np.float64(0.022528673518040554), np.float64(0.022346803144659155), np.float64(0.022167288448238107), np.float64(0.021990155980172163), np.float64(0.02181542922620869), np.float64(0.021643128676204736), np.float64(0.02147327189799008), np.float64(0.021305873614918716), np.float64(0.021140945786685815), np.float64(0.020978497693008268), np.float64(0.020818536019755498), np.float64(0.020661064947168323), np.float64(0.020506086239771855), np.float64(0.020353599337655015), np.float64(0.020203601448753862), np.float64(0.020056087641824514), np.float64(0.019911050939802874), np.float64(0.01976848241324859), np.float64(0.01962837127361553), np.float64(0.019490704966069822), np.float64(0.01935546926162872), np.float64(0.01922264834840636), np.float64(0.01909222492172596), np.float64(0.01896418027293584), np.float64(0.018838494376751287), np.float64(0.01871514597694491), np.float64(0.018594112670255736), np.float64(0.01847537098839152), np.float64(0.01835889647798813), np.float64(0.018244663778446503), np.float64(0.018132646697560047), np.float64(0.01802281828483055), np.float64(0.017915150902445977), np.float64(0.017809616293845046), np.float64(0.017706185649846693), np.float64(0.01760482967229426), np.float64(0.017505518635221994), np.float64(0.017408222443513623), np.float64(0.017312910689066645), np.float64(0.017219552704455555), np.float64(0.01712811761413308), np.float64(0.01703857438316427), np.float64(0.016950891863546244), np.float64(0.016865038838128902), np.float64(0.016780984062190935), np.float64(0.016698696302714026), np.float64(0.016618144375393475), np.float64(0.016539297179453478), np.float64(0.016462123730311112), np.float64(0.016386593190153963), np.float64(0.016312674896496845), np.float64(0.0162403383887581), np.float64(0.016169553432962662), np.float64(0.016100290044593683), np.float64(0.016032518509683083), np.float64(0.01596620940420788), np.float64(0.015901333611851993), np.float64(0.0158378623402063), np.float64(0.01577576713547278), np.float64(0.015715019895744083), np.float64(0.015655592882912146), np.float64(0.015597458733282714), np.float64(0.015540590466958706), np.float64(0.015484961496049155), np.float64(0.015430545631774976), np.float64(0.015377317090520851), np.float64(0.015325250498893788), np.float64(0.015274320897855331), np.float64(0.015224503745971852), np.float64(0.015175774921837741), np.float64(0.015128110725731855), np.float64(0.015081487880544555), np.float64(0.015035883532028244), np.float64(0.014991275248427593), np.float64(0.014947641019516952), np.float64(0.01490495925509628), np.float64(0.01486320878298419), np.float64(0.014822368846555552), np.float64(0.014782419101843653), np.float64(0.014743339614258435), np.float64(0.01470511085493794), np.float64(0.014667713696783269), np.float64(0.014631129410200477), np.float64(0.014595339658558712), np.float64(0.01456032649343292), np.float64(0.014526072349607509), np.float64(0.014492560039910654), np.float64(0.014459772749860631), np.float64(0.01442769403219176), np.float64(0.014396307801221581), np.float64(0.014365598327139108), np.float64(0.014335550230189762), np.float64(0.014306148474781438), np.float64(0.014277378363541161), np.float64(0.014249225531322685), np.float64(0.014221675939189786), np.float64(0.01419471586836896), np.float64(0.014168331914200024), np.float64(0.014142510980092227), np.float64(0.014117240271486663), np.float64(0.014092507289849905), np.float64(0.014068299826683209), np.float64(0.014044605957577975), np.float64(0.014021414036316683), np.float64(0.013998712689012495), np.float64(0.013976490808320358), np.float64(0.013954737547691864), np.float64(0.013933442315706205), np.float64(0.01391259477046834), np.float64(0.013892184814075871), np.float64(0.013872202587168305), np.float64(0.013852638463548585), np.float64(0.013833483044888916), np.float64(0.013814727155519443), np.float64(0.013796361837303062), np.float64(0.013778378344592399), np.float64(0.013760768139285173), np.float64(0.013743522885951898), np.float64(0.013726634447068788), np.float64(0.013710094878331231), np.float64(0.013693896424058417), np.float64(0.013678031512690673), np.float64(0.013662492752377473), np.float64(0.013647272926649334), np.float64(0.01363236499019313), np.float64(0.01361776206469724), np.float64(0.013603457434803234), np.float64(0.01358944454413468), np.float64(0.013575716991413684), np.float64(0.013562268526669048), np.float64(0.013549093047526798), np.float64(0.01353618459558036), np.float64(0.01352353735285618), np.float64(0.013511145638343065), np.float64(0.013499003904621136), np.float64(0.013487106734554711), np.float64(0.013475448838074036), np.float64(0.013464025049026716), np.float64(0.013452830322112325), np.float64(0.013441859729885085), np.float64(0.013431108459825168), np.float64(0.013420571811499735), np.float64(0.013410245193767515), np.float64(0.013400124122076746), np.float64(0.01339020421581698), np.float64(0.013380481195738814), np.float64(0.013370950881438071), np.float64(0.013361609188905272), np.float64(0.013352452128137607), np.float64(0.013343475800809124), np.float64(0.013334676397994636), np.float64(0.013326050197965454), np.float64(0.013317593564024092), np.float64(0.013309302942413012), np.float64(0.013301174860258216), np.float64(0.013293205923579686), np.float64(0.01328539281534384), np.float64(0.013277732293572556), np.float64(0.013270221189494518), np.float64(0.013262856405755585), np.float64(0.013255634914658358), np.float64(0.01324855375646123), np.float64(0.01324161003771872)]</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2354,25 +2579,30 @@
         <v>100</v>
       </c>
       <c r="F46" t="n">
-        <v>0.006835616279313202</v>
+        <v>0.01171053665064879</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.3241537998693007), np.float64(0.5020785612672708)], [np.float64(0.27437182283312667), np.float64(0.16489837969447588)], [np.float64(0.7520396744281223), np.float64(-0.04340047983850668)], [np.float64(0.22909672657773422), np.float64(0.6138491569682236)]], [[np.float64(0.7115775429838604), np.float64(0.11822799590383115)], [np.float64(0.8250829412309013), np.float64(0.492153126671998)]]]</t>
+          <t>[[[np.float64(0.261400378479449), np.float64(-0.3175434884719008)], [np.float64(0.0026444849881966078), np.float64(-0.14519211187977465)], [np.float64(0.47524426067867864), np.float64(0.3946318896193819)], [np.float64(0.41847119635775915), np.float64(0.739448861539215)]], [[np.float64(-0.6231501958554091), np.float64(0.7417824451664687)], [np.float64(0.5004508071712688), np.float64(0.22423995903046398)]]]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[[0.4832980732032849, np.float64(-0.1283829192804342)], [0.3204974687665474, np.float64(-0.10796953253585012)]]</t>
+          <t>[[0.37397635247579897, np.float64(-0.4700118625856271)], [0.36338918504812345, np.float64(0.5420031464456174)]]</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>[np.float64(0.08711267534036411), np.float64(0.8821303930277623)]</t>
+          <t>[np.float64(0.8032144825799712), np.float64(0.4093492474334773)]</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>0.6783966660875511</v>
+        <v>0.8304348424509804</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>[np.float64(0.0713965634749627), np.float64(0.0707551797858552), np.float64(0.07006042671002738), np.float64(0.06930792416508498), np.float64(0.0684930273728769), np.float64(0.06761085257924097), np.float64(0.06665632076411494), np.float64(0.06562422463945262), np.float64(0.06450932500330185), np.float64(0.06330648304449613), np.float64(0.06201083522742752), np.float64(0.06061801659734549), np.float64(0.059124436329337275), np.float64(0.05752760567075994), np.float64(0.05582651275153138), np.float64(0.05402203095046804), np.float64(0.05211733794072132), np.float64(0.05011831214579159), np.float64(0.04803386376522539), np.float64(0.04587615096747139), np.float64(0.04366063061902642), np.float64(0.0414058988772714), np.float64(0.03913329094618204), np.float64(0.03686623081897879), np.float64(0.03462934925893297), np.float64(0.03244741895673362), np.float64(0.030344186063493157), np.float64(0.028341202122247045), np.float64(0.02645677362197144), np.float64(0.024705142041229006), np.float64(0.02309598234904767), np.float64(0.021634265055748485), np.float64(0.020320474725927257), np.float64(0.019151128641186975), np.float64(0.01811950439460726), np.float64(0.01721647098367008), np.float64(0.01643132421181402), np.float64(0.015752548345703533), np.float64(0.015168454078104458), np.float64(0.01466767059480419), np.float64(0.014239492034647791), np.float64(0.013874093783431062), np.float64(0.013562642020850354), np.float64(0.013297322206137597), np.float64(0.013071310631367019), np.float64(0.01287870953577103), np.float64(0.01271446188466859), np.float64(0.012574257632554356), np.float64(0.012454439573010036), np.float64(0.012351913906017191), np.float64(0.012264068426748728), np.float64(0.012188699666411281), np.float64(0.012123949269297883), np.float64(0.012068249241943154), np.float64(0.012020275347711074), np.float64(0.011978907752002811), np.float64(0.011943197981032671), np.float64(0.011912341290633132), np.float64(0.011885653616176745), np.float64(0.01186255236851119), np.float64(0.01184254043878303), np.float64(0.011825192869193398), np.float64(0.01181014573287857), np.float64(0.011797086841604514), np.float64(0.0117857479654861), np.float64(0.011775898303970979), np.float64(0.011767338993587338), np.float64(0.011759898476263657), np.float64(0.011753428583340466), np.float64(0.011747801216592793), np.float64(0.011742905528096379), np.float64(0.0117386455185741), np.float64(0.011734937987444318), np.float64(0.011731710779506976), np.float64(0.011728901282412213), np.float64(0.01172645513673834), np.float64(0.011724325126815868), np.float64(0.011722470225547213), np.float64(0.011720854770736387), np.float64(0.011719447753962131), np.float64(0.011718222205955257), np.float64(0.011717154664860393), np.float64(0.011716224715822093), np.float64(0.011715414592017265), np.float64(0.011714708828714337), np.float64(0.011714093963080156), np.float64(0.01171355827360577), np.float64(0.011713091553783897), np.float64(0.011712684915433045), np.float64(0.011712330617832164), np.float64(0.011712021919083373), np.float64(0.011711752946831196), np.float64(0.011711518585896571), np.float64(0.011711314380366987), np.float64(0.011711136448529943), np.float64(0.0117109814087137), np.float64(0.011710846314782999), np.float64(0.011710728600000955), np.float64(0.011710626028085603), np.float64(0.011710536650648785)]</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2396,25 +2626,30 @@
         <v>200</v>
       </c>
       <c r="F47" t="n">
-        <v>0.008878465172346729</v>
+        <v>0.01249924990262493</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.5476739361847933), np.float64(0.5743935917210868)], [np.float64(0.9220119564590671), np.float64(0.8561228239886748)], [np.float64(0.5049212849923144), np.float64(0.9014216783993068)], [np.float64(0.5755325129148393), np.float64(0.5278288885112592)]], [[np.float64(0.37039716129966105), np.float64(0.32655567680907904)], [np.float64(0.2527603437576547), np.float64(0.20554876657995175)]]]</t>
+          <t>[[[np.float64(0.18851690117751616), np.float64(1.0059761235778146)], [np.float64(-0.050126670321011944), np.float64(0.3453772609569751)], [np.float64(0.8491625640132674), np.float64(0.33792570412301864)], [np.float64(0.9054460693501544), np.float64(0.537316488869183)]], [[np.float64(0.26995175438491936), np.float64(0.2026880049460206)], [np.float64(-0.45272866182585736), np.float64(0.2212195999459196)]]]</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[[0.03536464126847938, np.float64(0.1281208039420441)], [0.27611314431755185, np.float64(0.9786261918527677)]]</t>
+          <t>[[0.6520503393165693, np.float64(0.7336310448562686)], [0.6766594362643472, np.float64(0.7736481356262173)]]</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>[np.float64(0.878139807511807), np.float64(0.23073374316833273)]</t>
+          <t>[np.float64(0.9554500226761993), np.float64(0.3678830852903652)]</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>0.152370807242297</v>
+        <v>0.232480428903482</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>[np.float64(0.0466806787626607), np.float64(0.046163815720057795), np.float64(0.045613815957499734), np.float64(0.045028766070528616), np.float64(0.04440671478432482), np.float64(0.043745695657474534), np.float64(0.04304375753268699), np.float64(0.04229900448882239), np.float64(0.041509647276206166), np.float64(0.04067406839262551), np.float64(0.03979090302349387), np.float64(0.03885913794264705), np.float64(0.03787823003319698), np.float64(0.036848245188398195), np.float64(0.03577001680607842), np.float64(0.03464532069547705), np.float64(0.033477059796360516), np.float64(0.03226944758474204), np.float64(0.031028173531692637), np.float64(0.02976052797257818), np.float64(0.028475458224145954), np.float64(0.027183524365784868), np.float64(0.025896723936157565), np.float64(0.02462816222745029), np.float64(0.02339156062537128), np.float64(0.02220061955395247), np.float64(0.0210682821816091), np.float64(0.020005973924035983), np.float64(0.019022912325104318), np.float64(0.01812558374927679), np.float64(0.01731746309997123), np.float64(0.01659901308918813), np.float64(0.01596795027857557), np.float64(0.015419720005304777), np.float64(0.014948093668535278), np.float64(0.014545795579726274), np.float64(0.014205080604631284), np.float64(0.013918210238734833), np.float64(0.013677803960031681), np.float64(0.01347706714011242), np.float64(0.013309912735475923), np.float64(0.013171001258994003), np.float64(0.013055724153899405), np.float64(0.012960152340397824), np.float64(0.01288096671840837), np.float64(0.012815382368385681), np.float64(0.012761073921565674), np.float64(0.012716106345014641), np.float64(0.012678873157890675), np.float64(0.012648042675206169), np.float64(0.012622512046604362), np.float64(0.012601368428288724), np.float64(0.012583856448001403), np.float64(0.012569351092427676), np.float64(0.012557335194303217), np.float64(0.012547380781260681), np.float64(0.012539133644859018), np.float64(0.01253230058311557), np.float64(0.012526638856608393), np.float64(0.012521947474562428), np.float64(0.012518059992489868), np.float64(0.01251483855794377), np.float64(0.012512168986931572), np.float64(0.012509956691504731), np.float64(0.012508123310512502), np.float64(0.012506603921448443), np.float64(0.01250534473266874), np.float64(0.012504301172850245), np.float64(0.01250343630901767), np.float64(0.012502719536485504), np.float64(0.012502125493780948), np.float64(0.012501633163871375), np.float64(0.012501225129606249), np.float64(0.012500886956873746), np.float64(0.012500606683512827), np.float64(0.012500374395857725), np.float64(0.012500181877865888), np.float64(0.012500022320362498), np.float64(0.012499890080080789), np.float64(0.01249978048001866), np.float64(0.012499689643965823), np.float64(0.01249961435938309), np.float64(0.012499551963757672), np.float64(0.012499500250434618), np.float64(0.012499457390552794), np.float64(0.012499421868360422), np.float64(0.012499392427635037), np.float64(0.012499368027206225), np.float64(0.01249934780415558), np.float64(0.012499331043322945), np.float64(0.012499317151961727), np.float64(0.012499305638817836), np.float64(0.01249929609673424), np.float64(0.012499288188261595), np.float64(0.012499281633728715), np.float64(0.012499276201341177), np.float64(0.012499271698979155), np.float64(0.01249926796742418), np.float64(0.012499264874708545), np.float64(0.012499262311469379), np.float64(0.012499260187063377), np.float64(0.012499258426349732), np.float64(0.012499256967073573), np.float64(0.012499255757633033), np.float64(0.012499254755248164), np.float64(0.012499253924464812), np.float64(0.012499253235919196), np.float64(0.012499252665242853), np.float64(0.012499252192273765), np.float64(0.012499251800271336), np.float64(0.012499251475383229), np.float64(0.012499251206116944), np.float64(0.01249925098294934), np.float64(0.012499250797984694), np.float64(0.012499250644687316), np.float64(0.01249925051763423), np.float64(0.012499250412334986), np.float64(0.012499250325061533), np.float64(0.012499250252730102), np.float64(0.012499250192783485), np.float64(0.01249925014310662), np.float64(0.012499250101923433), np.float64(0.012499250067793712), np.float64(0.012499250039514237), np.float64(0.012499250016070246), np.float64(0.012499249996640895), np.float64(0.012499249980529162), np.float64(0.012499249967184704), np.float64(0.012499249956125662), np.float64(0.012499249946965958), np.float64(0.012499249939366125), np.float64(0.0124992499330669), np.float64(0.012499249927848406), np.float64(0.01249924992351596), np.float64(0.012499249919926467), np.float64(0.012499249916952638), np.float64(0.012499249914490872), np.float64(0.012499249912452659), np.float64(0.012499249910754946), np.float64(0.01249924990935893), np.float64(0.012499249908197679), np.float64(0.01249924990723606), np.float64(0.012499249906439134), np.float64(0.012499249905780826), np.float64(0.012499249905235012), np.float64(0.012499249904777672), np.float64(0.012499249904404163), np.float64(0.012499249904093117), np.float64(0.012499249903833998), np.float64(0.012499249903616984), np.float64(0.01249924990343669), np.float64(0.012499249903290282), np.float64(0.012499249903168228), np.float64(0.012499249903063598), np.float64(0.012499249902976965), np.float64(0.012499249902907093), np.float64(0.012499249902856443), np.float64(0.012499249902807154), np.float64(0.012499249902773889), np.float64(0.012499249902740615), np.float64(0.012499249902707402), np.float64(0.012499249902690104), np.float64(0.012499249902672866), np.float64(0.012499249902656875), np.float64(0.012499249902640895), np.float64(0.012499249902624975), np.float64(0.012499249902624975), np.float64(0.01249924990262497), np.float64(0.012499249902624965), np.float64(0.012499249902624961), np.float64(0.012499249902624956), np.float64(0.012499249902624953), np.float64(0.012499249902624947), np.float64(0.012499249902624942), np.float64(0.012499249902624937), np.float64(0.012499249902624932), np.float64(0.012499249902624932), np.float64(0.012499249902624927), np.float64(0.012499249902624927)]</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2438,25 +2673,30 @@
         <v>100</v>
       </c>
       <c r="F48" t="n">
-        <v>0.01502678684472956</v>
+        <v>0.007128395400735833</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.3464778373226751), np.float64(0.026596364121581232)], [np.float64(0.6030738892579735), np.float64(0.042452174568454716)], [np.float64(1.0561557199705751), np.float64(0.7422386672131431)], [np.float64(0.5253422952335306), np.float64(0.8028300386792797)]], [[np.float64(0.08642042947617189), np.float64(3.397214084185872)], [np.float64(-1.0736696203308942), np.float64(0.3089948514983363)]]]</t>
+          <t>[[[np.float64(0.04986418115765419), np.float64(0.6099643666498769)], [np.float64(-0.11048957566412813), np.float64(0.23911829920424219)], [np.float64(0.2889352484580872), np.float64(0.194033054163847)], [np.float64(0.7221198832783476), np.float64(0.4222904158360469)]], [[np.float64(-0.21025712725397888), np.float64(0.4040628179489506)], [np.float64(0.24421898348474552), np.float64(0.2563929349019388)]]]</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[[0.7746885962605747, np.float64(0.3881529093880326)], [0.21832513638270867, np.float64(4.6594189016121765)]]</t>
+          <t>[[0.8041732740235374, np.float64(-0.16711760046079654)], [0.40614699967694123, np.float64(0.24862890010516317)]]</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>[np.float64(0.9708017504526405), np.float64(0.8999699965998573)]</t>
+          <t>[np.float64(0.6736222661797373), np.float64(0.9904589081485186)]</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0.3979970355451168</v>
+        <v>0.09259058803757905</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>[np.float64(0.06011476240965209), np.float64(0.049990940486971926), np.float64(0.023654841601555312), np.float64(0.01038754659485804), np.float64(0.03862029769205524), np.float64(0.008901215493445273), np.float64(0.007982698709488579), np.float64(0.009783229586247276), np.float64(0.007327843959139051), np.float64(0.013310750549409691), np.float64(0.007772877820545367), np.float64(0.0256387988806931), np.float64(0.007931354398145256), np.float64(0.02620630257400756), np.float64(0.0074441133046957925), np.float64(0.02224257976356085), np.float64(0.0077631259655297595), np.float64(0.023990691993252388), np.float64(0.007292060600441943), np.float64(0.020006544617395778), np.float64(0.0074690783326441315), np.float64(0.02090568055762143), np.float64(0.007269595933355805), np.float64(0.018800113153059836), np.float64(0.007257185614174619), np.float64(0.018187239806697068), np.float64(0.007200314735867189), np.float64(0.017150172807264052), np.float64(0.007164675029955163), np.float64(0.016273272068779394), np.float64(0.007140511963669313), np.float64(0.0154625282916779), np.float64(0.007128489711334617), np.float64(0.014723394529800074), np.float64(0.0071283954007358334), np.float64(0.014054156198826568), np.float64(0.007139672139823267), np.float64(0.013451726808869321), np.float64(0.007161462817909852), np.float64(0.012912119808395028), np.float64(0.007192667623293335), np.float64(0.01243075835245271), np.float64(0.007232017182627544), np.float64(0.012002748582537972), np.float64(0.007278150302364302), np.float64(0.01162311077793592), np.float64(0.0073296866500249585), np.float64(0.011286960867862305), np.float64(0.00738528796290447), np.float64(0.010989641662620769), np.float64(0.0074437046849459764), np.float64(0.01072680859820428), np.float64(0.007503807607030231), np.float64(0.010494477728140992), np.float64(0.007564605886318198), np.float64(0.010289044567763616), np.float64(0.007625253790797333), np.float64(0.010107281914735514), np.float64(0.00768504883836728), np.float64(0.009946323578201485), np.float64(0.007743423892652064), np.float64(0.009803639515508758), np.float64(0.007799935432121617), np.float64(0.00967700648459478), np.float64(0.00785424976822852), np.float64(0.00956447711745533), np.float64(0.007906128544543985), np.float64(0.009464349355035432), np.float64(0.007955414453342058), np.float64(0.009375137452147306), np.float64(0.008002017780684198), np.float64(0.009295545231267693), np.float64(0.008045904139001097), np.float64(0.009224441897875612), np.float64(0.008087083560996512), np.float64(0.009160840487207398), np.float64(0.008125600999539408), np.float64(0.009103878860645195), np.float64(0.008161528192952931), np.float64(0.009052803082226016), np.float64(0.008194956803236718), np.float64(0.00900695296123133), np.float64(0.008225992706613207), np.float64(0.008965749531141775), np.float64(0.008254751304354564), np.float64(0.008928684237045162), np.float64(0.008281353721047576), np.float64(0.008895309616096166), np.float64(0.008305923763980122), np.float64(0.008865231273592027), np.float64(0.008328585527126595), np.float64(0.008838100977590349), np.float64(0.008349461535298154), np.float64(0.008813610715486397), np.float64(0.008368671336640508), np.float64(0.00879148757587366), np.float64(0.008386330463631443), np.float64(0.008771489337158675), np.float64(0.008402549694421923), np.float64(0.008753400660905976)]</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2480,25 +2720,30 @@
         <v>200</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01070152469485491</v>
+        <v>0.0110422654317214</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.4991076568604505), np.float64(-0.20983239833224174)], [np.float64(0.22824181408882907), np.float64(0.3157991475887055)], [np.float64(0.6967389679017834), np.float64(0.1597663898816024)], [np.float64(0.8847187521466582), np.float64(0.38099070724126993)]], [[np.float64(0.04128202252519202), np.float64(-0.4491182785848076)], [np.float64(0.5081129558089745), np.float64(0.023493817000405055)]]]</t>
+          <t>[[[np.float64(0.1268940260880123), np.float64(-0.0003488565036653242)], [np.float64(0.7623843556960754), np.float64(0.47938781535928543)], [np.float64(0.4056446300409403), np.float64(0.4913885694488147)], [np.float64(0.9024275972913025), np.float64(0.6464023066171102)]], [[np.float64(0.3581364423132304), np.float64(0.30189522674776037)], [np.float64(-0.039732021190069806), np.float64(0.49313356094428157)]]]</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[[0.40308345648931543, np.float64(0.4617665953087041)], [0.4566098337601364, np.float64(-0.16854173670826617)]]</t>
+          <t>[[0.18662674886841824, np.float64(0.4589490419596926)], [0.016392549722080596, np.float64(-0.025907689066683462)]]</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>[np.float64(0.8032410273385482), np.float64(0.7507668448623752)]</t>
+          <t>[np.float64(0.27382591386540317), np.float64(0.24083425740444106)]</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>0.8157144505697076</v>
+        <v>0.7497784390675374</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>[np.float64(0.02319028344756427), np.float64(0.022068915723659203), np.float64(0.020898165301072788), np.float64(0.019702345129686927), np.float64(0.018511501089722954), np.float64(0.017359107138714854), np.float64(0.016278399682416435), np.float64(0.015297996934808846), np.float64(0.01443796980143954), np.float64(0.013707598499251246), np.float64(0.013105479290245773), np.float64(0.012621711446183018), np.float64(0.012241166901257183), np.float64(0.011946712727770847), np.float64(0.011721640716107862), np.float64(0.011551089564173313), np.float64(0.011422618528796462), np.float64(0.011326227473914196), np.float64(0.011254092288337745), np.float64(0.011200198896535068), np.float64(0.011159977129205662), np.float64(0.011129979305088189), np.float64(0.011107616497710754), np.float64(0.011090950270117004), np.float64(0.011078531888824142), np.float64(0.011069279869232803), np.float64(0.011062387481864056), np.float64(0.011057253242420694), np.float64(0.011053428838424995), np.float64(0.011050580195480547), np.float64(0.011048458404305007), np.float64(0.011046878028840914), np.float64(0.011045700930296618), np.float64(0.01104482420884841), np.float64(0.011044171217104728), np.float64(0.0110436848639668), np.float64(0.0110433226257621), np.float64(0.011043052829661797), np.float64(0.01104285188509956), np.float64(0.011042702221482958), np.float64(0.011042590752056805), np.float64(0.011042507729721087), np.float64(0.011042445894790266), np.float64(0.011042399840232581), np.float64(0.011042365538880402), np.float64(0.011042339991302769), np.float64(0.011042320963522959), np.float64(0.011042306791673373), np.float64(0.011042296236512558), np.float64(0.01104228837505448), np.float64(0.01104228251985816), np.float64(0.011042278158922), np.float64(0.011042274910908529), np.float64(0.011042272491796606), np.float64(0.01104227069004637), np.float64(0.011042269348107177), np.float64(0.01104226834863448), np.float64(0.01104226760423025), np.float64(0.011042267049800833), np.float64(0.011042266636863637), np.float64(0.01104226632930988), np.float64(0.01104226610024181), np.float64(0.01104226592963217), np.float64(0.011042265802564278), np.float64(0.011042265707921925), np.float64(0.011042265637434313), np.float64(0.011042265584934565), np.float64(0.011042265545832704), np.float64(0.01104226551671103), np.float64(0.011042265495019549), np.float64(0.011042265478865323), np.float64(0.01104226546683307), np.float64(0.01104226545787187), np.float64(0.011042265451197714), np.float64(0.011042265446227592), np.float64(0.011042265442525498), np.float64(0.011042265439766375), np.float64(0.011042265437712057), np.float64(0.011042265436183137), np.float64(0.011042265435042975), np.float64(0.011042265434194854), np.float64(0.01104226543356389), np.float64(0.011042265433094004), np.float64(0.011042265432743687), np.float64(0.01104226543248238), np.float64(0.011042265432286803), np.float64(0.01104226543214111), np.float64(0.01104226543203204), np.float64(0.01104226543195448), np.float64(0.011042265431894058), np.float64(0.011042265431848901), np.float64(0.011042265431814673), np.float64(0.011042265431790294), np.float64(0.011042265431774318), np.float64(0.011042265431760498), np.float64(0.011042265431750384), np.float64(0.011042265431741801), np.float64(0.011042265431737225), np.float64(0.011042265431735226), np.float64(0.01104226543173373), np.float64(0.011042265431732173), np.float64(0.011042265431730796), np.float64(0.011042265431729693), np.float64(0.011042265431728721), np.float64(0.011042265431727703), np.float64(0.01104226543172676), np.float64(0.011042265431725954), np.float64(0.01104226543172538), np.float64(0.011042265431724832), np.float64(0.011042265431724289), np.float64(0.011042265431723696), np.float64(0.011042265431723278), np.float64(0.011042265431722867), np.float64(0.011042265431722454), np.float64(0.011042265431722058), np.float64(0.011042265431721928), np.float64(0.011042265431721777), np.float64(0.01104226543172165), np.float64(0.011042265431721513), np.float64(0.011042265431721411), np.float64(0.011042265431721411), np.float64(0.011042265431721408), np.float64(0.011042265431721408), np.float64(0.011042265431721404), np.float64(0.011042265431721404)]</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2522,25 +2767,30 @@
         <v>100</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01279635391115277</v>
+        <v>0.5040406937480034</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.7436010762932567), np.float64(-0.5084348423550901)], [np.float64(-0.07604665896862049), np.float64(-0.1413672623574516)], [np.float64(0.24288299841701128), np.float64(-0.40197238691858894)], [np.float64(-0.10048370399922767), np.float64(-0.04857013707443564)]], [[np.float64(-0.09760557806226462), np.float64(-1.8120632574540345), np.float64(-0.3080055789553603)], [np.float64(0.4862823176662212), np.float64(-0.538818571933573), np.float64(0.34262228909500064)]]]</t>
+          <t>[[[np.float64(-0.5701091585496857), np.float64(-1.0983406888887732)], [np.float64(-0.2106077721460139), np.float64(-0.11303854445407675)], [np.float64(-0.6251687116159036), np.float64(-0.890612012019033)], [np.float64(0.3434114490963035), np.float64(-0.18553509131880666)]], [[np.float64(-1.9055134040814532), np.float64(-1.0703362259684506), np.float64(-0.14943687164172864)], [np.float64(-2.0912401866581583), np.float64(-0.5543868877916328), np.float64(-0.5791652991731814)]]]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[[0.9318409637211121, np.float64(-0.2425916988309944)], [0.4098627112527897, 0.1962225552751422, np.float64(-0.024047820668418027)]]</t>
+          <t>[[0.1147156995043439, np.float64(-1.1334649162376549)], [0.8266420489758286, 0.9137701060060545, np.float64(-0.010448878888708879)]]</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[np.float64(0.07133142535320201), np.float64(0.8423731587747347), np.float64(0.4546249020336361)]</t>
+          <t>[np.float64(0.9408071372651402), np.float64(0.524721061055827), np.float64(0.2696909391281332)]</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>0.7315880814186423</v>
+        <v>0.1504447621597274</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>[np.float64(10.323617041516222), np.float64(0.5655196342155245), np.float64(0.5272108454782145), np.float64(0.526966334784875), np.float64(0.5267219435101123), np.float64(0.5264776715947217), np.float64(0.5262335189795271), np.float64(0.5259894856053892), np.float64(0.5257455714131968), np.float64(0.5255017763438559), np.float64(0.5252581003383199), np.float64(0.5250145433375544), np.float64(0.5247711052825694), np.float64(0.5245277861143965), np.float64(0.5242845857740994), np.float64(0.5240415042027622), np.float64(0.5237985413415187), np.float64(0.5235556971315148), np.float64(0.5233129715139277), np.float64(0.5230703644299685), np.float64(0.5228278758208766), np.float64(0.5225855056279218), np.float64(0.5223432537924043), np.float64(0.522101120255644), np.float64(0.5218591049589996), np.float64(0.5216172078438621), np.float64(0.5213754288516422), np.float64(0.5211337679237821), np.float64(0.5208922250017574), np.float64(0.5206508000270728), np.float64(0.520409492941257), np.float64(0.5201683036858716), np.float64(0.5199272322025122), np.float64(0.5196862784327942), np.float64(0.519445442318363), np.float64(0.5192047238008978), np.float64(0.5189641228221152), np.float64(0.5187236393237382), np.float64(0.5184832732475408), np.float64(0.5182430245353115), np.float64(0.5180028931288759), np.float64(0.5177628789700863), np.float64(0.5175229820008267), np.float64(0.5172832021630037), np.float64(0.517043539398562), np.float64(0.516803993649464), np.float64(0.5165645648577102), np.float64(0.5163252529653277), np.float64(0.5160860579143748), np.float64(0.5158469796469283), np.float64(0.5156080181051078), np.float64(0.5153691732310527), np.float64(0.5151304449669358), np.float64(0.5148918332549575), np.float64(0.5146533380373446), np.float64(0.5144149592563536), np.float64(0.5141766968542792), np.float64(0.5139385507734283), np.float64(0.5137005209561499), np.float64(0.5134626073448135), np.float64(0.5132248098818234), np.float64(0.5129871285096139), np.float64(0.5127495631706338), np.float64(0.5125121138073835), np.float64(0.5122747803623745), np.float64(0.5120375627781499), np.float64(0.5118004609972865), np.float64(0.5115634749623901), np.float64(0.5113266046160899), np.float64(0.511089849901043), np.float64(0.5108532107599432), np.float64(0.5106166871355052), np.float64(0.5103802789704766), np.float64(0.5101439862076318), np.float64(0.5099078087897789), np.float64(0.5096717466597406), np.float64(0.5094357997603843), np.float64(0.5091999680345984), np.float64(0.5089642514252966), np.float64(0.5087286498754298), np.float64(0.5084931633279721), np.float64(0.5082577917259214), np.float64(0.5080225350123145), np.float64(0.5077873931302104), np.float64(0.5075523660226987), np.float64(0.5073174536328943), np.float64(0.5070826559039447), np.float64(0.5068479727790183), np.float64(0.506613404201323), np.float64(0.5063789501140856), np.float64(0.5061446104605721), np.float64(0.5059103851840647), np.float64(0.5056762742278745), np.float64(0.5054422775353508), np.float64(0.5052083950498659), np.float64(0.5049746267148171), np.float64(0.5047409724736347), np.float64(0.504507432269778), np.float64(0.5042740060467283), np.float64(0.5040406937480034)]</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2564,25 +2814,30 @@
         <v>200</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00756336327940019</v>
+        <v>0.03396471305107767</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.5800485658964132), np.float64(0.3018729431092525)], [np.float64(-0.21135622680001812), np.float64(-0.0378785197861765)], [np.float64(0.3507493485882949), np.float64(0.13089627525428854)], [np.float64(-0.012692211288359295), np.float64(0.7564348747858758)]], [[np.float64(-1.0371316172901075), np.float64(0.7884806333277102), np.float64(0.4701362593793022)], [np.float64(-1.2283696640749637), np.float64(0.2584057722981839), np.float64(0.11181681412076941)]]]</t>
+          <t>[[[np.float64(-0.2818815429753069), np.float64(0.341925675674809)], [np.float64(-0.6157403983568406), np.float64(-0.12228723404845644)], [np.float64(-0.721310757451117), np.float64(0.7901694658136414)], [np.float64(0.10560241214100831), np.float64(0.7754954672226854)]], [[np.float64(0.03790565522968059), np.float64(0.30942031291416955), np.float64(-0.6320068661360293)], [np.float64(-0.7755061449275961), np.float64(-0.20113182754101713), np.float64(-1.7464952395066151)]]]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[[0.5840409216971183, np.float64(0.629307087072561)], [0.5410471307628912, 0.11936482160174577, np.float64(1.0166047707887125)]]</t>
+          <t>[[0.2934855311770267, np.float64(0.12197475360677604)], [0.8499250102855244, 0.22641981284468005, np.float64(-0.8341156880399406)]]</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>[np.float64(0.856966700498954), np.float64(0.10501270574149593), np.float64(0.2841353730946285)]</t>
+          <t>[np.float64(0.32916602178313664), np.float64(0.20689687608179985), np.float64(0.7662284187785111)]</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>0.1387869611372728</v>
+        <v>0.7999208400427088</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>[np.float64(6.215322244392418), np.float64(0.18248413611429862), np.float64(0.17955402154905878), np.float64(0.17593061114679123), np.float64(0.1714951579473978), np.float64(0.16610895574577392), np.float64(0.15965431809363195), np.float64(0.15203143697581983), np.float64(0.14320567547094226), np.float64(0.13322431919596409), np.float64(0.1222466377901324), np.float64(0.11056636680099637), np.float64(0.09859634333488679), np.float64(0.08683208871067086), np.float64(0.07577284624264226), np.float64(0.06582470026624986), np.float64(0.05720606059562785), np.float64(0.04997851579474824), np.float64(0.04413096656985495), np.float64(0.03958461637591269), np.float64(0.03893992868484959), np.float64(0.03830948216021928), np.float64(0.03769224625914025), np.float64(0.037084466184213974), np.float64(0.03648400085495953), np.float64(0.03589021895282167), np.float64(0.035306135248704726), np.float64(0.03473584914277565), np.float64(0.03418596494922235), np.float64(0.03418465545715136), np.float64(0.03418334615050676), np.float64(0.03418203702925926), np.float64(0.03418072809337936), np.float64(0.03417941934283798), np.float64(0.03417811077760495), np.float64(0.034176802397651494), np.float64(0.03417549420294821), np.float64(0.034174186193465274), np.float64(0.03417287836917349), np.float64(0.03417157073004378), np.float64(0.03417026327604609), np.float64(0.0341689560071515), np.float64(0.03416764892333059), np.float64(0.03416634202455391), np.float64(0.03416503531079224), np.float64(0.03416372878201595), np.float64(0.03416242243819556), np.float64(0.03416111627930226), np.float64(0.03415981030530624), np.float64(0.034158504516178335), np.float64(0.03415719891188918), np.float64(0.03415589349240949), np.float64(0.034154588257709985), np.float64(0.03415328320776104), np.float64(0.034151978342533564), np.float64(0.034150673661998275), np.float64(0.034149369166125786), np.float64(0.034148064854886674), np.float64(0.03414676072825194), np.float64(0.03414545678619196), np.float64(0.034144153028677834), np.float64(0.03414284945567998), np.float64(0.034141546067169036), np.float64(0.034140242863116), np.float64(0.034138939843491395), np.float64(0.034137637008266046), np.float64(0.034136334357410786), np.float64(0.03413503189089626), np.float64(0.03413372960869313), np.float64(0.0341324275107721), np.float64(0.03413112559710445), np.float64(0.03412982386766043), np.float64(0.03412852232241103), np.float64(0.03412722096132683), np.float64(0.034125919784378726), np.float64(0.034124618791537546), np.float64(0.03412331798277414), np.float64(0.03412201735805917), np.float64(0.03412071691736341), np.float64(0.03411941666065775), np.float64(0.034118116587913035), np.float64(0.034116816699100175), np.float64(0.03411551699418958), np.float64(0.034114217473152526), np.float64(0.034112918135959736), np.float64(0.03411161898258178), np.float64(0.034110320012989845), np.float64(0.03410902122715461), np.float64(0.034107722625046855), np.float64(0.03410642420663796), np.float64(0.03410512597189805), np.float64(0.03410382792079825), np.float64(0.03410253005330964), np.float64(0.03410123236940292), np.float64(0.034099934869048956), np.float64(0.034098637552218605), np.float64(0.034097340418883154), np.float64(0.03409604346901303), np.float64(0.034094746702579164), np.float64(0.034093450119552775), np.float64(0.03409215371990469), np.float64(0.03409085750360542), np.float64(0.0340895614706263), np.float64(0.03408826562093845), np.float64(0.03408696995451218), np.float64(0.034085674471318966), np.float64(0.03408437917132953), np.float64(0.03408308405451475), np.float64(0.03408178912084565), np.float64(0.034080494370293535), np.float64(0.034079199802828704), np.float64(0.034077905418422726), np.float64(0.034076611217046096), np.float64(0.03407531719867012), np.float64(0.03407402336326557), np.float64(0.03407272971080389), np.float64(0.0340714362412554), np.float64(0.034070142954591605), np.float64(0.0340688498507832), np.float64(0.03406755692980144), np.float64(0.03406626419161707), np.float64(0.034064971636201466), np.float64(0.034063679263525555), np.float64(0.034062387073559894), np.float64(0.03406109506627609), np.float64(0.034059803241644995), np.float64(0.03405851159963771), np.float64(0.03405722014022513), np.float64(0.03405592886337836), np.float64(0.0340546377690685), np.float64(0.03405334685726667), np.float64(0.03405205612794379), np.float64(0.03405076558107117), np.float64(0.03404947521661967), np.float64(0.034048185034560495), np.float64(0.03404689503486471), np.float64(0.03404560521750333), np.float64(0.034044315582447464), np.float64(0.03404302612966858), np.float64(0.034041736859137195), np.float64(0.03404044777082468), np.float64(0.034039158864702324), np.float64(0.03403787014074111), np.float64(0.03403658159891211), np.float64(0.034035293239186394), np.float64(0.0340340050615354), np.float64(0.03403271706593018), np.float64(0.0340314292523415), np.float64(0.03403014162074125), np.float64(0.034028854171099826), np.float64(0.03402756690338896), np.float64(0.03402627981757941), np.float64(0.03402499291364274), np.float64(0.034023706191549645), np.float64(0.03402241965127164), np.float64(0.034021133292780115), np.float64(0.03401984711604585), np.float64(0.03401856112104001), np.float64(0.03401727530773447), np.float64(0.03401598967609957), np.float64(0.034014704226107174), np.float64(0.0340134189577281), np.float64(0.03401213387093379), np.float64(0.03401084896569558), np.float64(0.034009564241984334), np.float64(0.034008279699771604), np.float64(0.034006995339028345), np.float64(0.03400571115972618), np.float64(0.03400442716183594), np.float64(0.03400314334532928), np.float64(0.03400185971017742), np.float64(0.03400057625635148), np.float64(0.033999292983822725), np.float64(0.0339980098925625), np.float64(0.03399672698254197), np.float64(0.033995444253732535), np.float64(0.03399416170610566), np.float64(0.03399287933963243), np.float64(0.033991597154284056), np.float64(0.033990315150032056), np.float64(0.03398903332684766), np.float64(0.03398775168470235), np.float64(0.03398647022356713), np.float64(0.03398518894341341), np.float64(0.03398390784421288), np.float64(0.03398262692593641), np.float64(0.03398134618855565), np.float64(0.03398006563204179), np.float64(0.03397878525636627), np.float64(0.03397750506150053), np.float64(0.03397622504741574), np.float64(0.03397494521408348), np.float64(0.033973665561475005), np.float64(0.03397238608956139), np.float64(0.03397110679831462), np.float64(0.03396982768770563), np.float64(0.03396854875770617), np.float64(0.03396727000828737), np.float64(0.03396599143942063), np.float64(0.03396471305107767)]</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2606,25 +2861,30 @@
         <v>100</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1256473073629561</v>
+        <v>0.3322523193353896</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[[[np.float64(-13.400856206605628), np.float64(-21.166356677894786)], [np.float64(-13.075323121493502), np.float64(-20.371621771255384)], [np.float64(-14.396659521605663), np.float64(-21.817079419331492)], [np.float64(-5.916584038067577), np.float64(-10.099814192543727)]], [[np.float64(-11.259483871387092), np.float64(-36.26229420437202), np.float64(-32.954988939312024)], [np.float64(-11.565716663219495), np.float64(-36.53592263035971), np.float64(-34.167301554931136)]]]</t>
+          <t>[[[np.float64(-4.207501926637392), np.float64(-7.308236397477602)], [np.float64(-3.68886526214895), np.float64(-6.2373183596599775)], [np.float64(-4.966654001113217), np.float64(-7.523566963444968)], [np.float64(-1.8117319435682477), np.float64(-3.2594035264601926)]], [[np.float64(-17.61894573819753), np.float64(-1.0423178345278046), np.float64(-17.264672607681465)], [np.float64(-20.665011959268558), np.float64(-1.9499841820493087), np.float64(-21.024043454497143)]]]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[[0.8982061783989408, np.float64(-33.20787141225202)], [0.16169256448888214, 0.08522374144291311, np.float64(-19.27932728665435)]]</t>
+          <t>[[0.3816986595626668, np.float64(-10.75230646336499)], [0.7977147491803249, 0.6970737518341326, np.float64(-11.666766696352168)]]</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[np.float64(0.2920315393005692), np.float64(0.9042441689817511), np.float64(0.8281640204567722)]</t>
+          <t>[np.float64(0.6945429699829616), np.float64(0.03412690710096432), np.float64(0.7421237586104779)]</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>0.2420015339423269</v>
+        <v>0.6935694646845244</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>[np.float64(7.852156557906275), np.float64(0.48450518511580104), np.float64(0.482621948286993), np.float64(0.480746444862602), np.float64(0.478878642586726), np.float64(0.4770185093390857), np.float64(0.47516601313445866), np.float64(0.4733211221221263), np.float64(0.47148380458527495), np.float64(0.46965402894046737), np.float64(0.4678317637370429), np.float64(0.46601697765657785), np.float64(0.4642096395123286), np.float64(0.4624097182486602), np.float64(0.46061718294051057), np.float64(0.45883200279283193), np.float64(0.45705414714003106), np.float64(0.4552835854454443), np.float64(0.453520287300777), np.float64(0.45176422242556646), np.float64(0.45001536066664194), np.float64(0.44827367199758944), np.float64(0.44653912651821465), np.float64(0.4448116944540039), np.float64(0.44309134615560997), np.float64(0.4413780520983051), np.float64(0.4396717828814703), np.float64(0.4379725092280549), np.float64(0.4362802019840776), np.float64(0.4345948321180764), np.float64(0.43291637072062905), np.float64(0.4312447890038015), np.float64(0.4295800583006581), np.float64(0.4279221500647467), np.float64(0.42627103586958004), np.float64(0.4246266874081419), np.float64(0.4229890764923752), np.float64(0.42135817505268264), np.float64(0.4197339551374274), np.float64(0.4181163889124314), np.float64(0.4165054486604855), np.float64(0.41490110678085335), np.float64(0.41330333578876854), np.float64(0.41171210831497057), np.float64(0.41012739710519003), np.float64(0.40854917501968496), np.float64(0.406977415032741), np.float64(0.40541209023219793), np.float64(0.4038531738189731), np.float64(0.4023006391065724), np.float64(0.40075445952063626), np.float64(0.3992146085984436), np.float64(0.3976810599884491), np.float64(0.3961537874498252), np.float64(0.3946327648519775), np.float64(0.3931179661740813), np.float64(0.3916093655046402), np.float64(0.39010693704099236), np.float64(0.3886106550888791), np.float64(0.3871204940619689), np.float64(0.38563642848141255), np.float64(0.3841584329753789), np.float64(0.3826864822786195), np.float64(0.38122055123200405), np.float64(0.3797606147820755), np.float64(0.3783066479806117), np.float64(0.3768586259841746), np.float64(0.37541652405366754), np.float64(0.37398031755390354), np.float64(0.3725499819531485), np.float64(0.3711254928227031), np.float64(0.3697068258364647), np.float64(0.3682939567704885), np.float64(0.36688686150255545), np.float64(0.3654855160117502), np.float64(0.3640898963780322), np.float64(0.36269997878180177), np.float64(0.3613157395034855), np.float64(0.35993715492311645), np.float64(0.3585642015198963), np.float64(0.35719685587180255), np.float64(0.35583509465514956), np.float64(0.3544788946441861), np.float64(0.35312823271067606), np.float64(0.3517830858234948), np.float64(0.3504434310482084), np.float64(0.34910924554667233), np.float64(0.34778050657662996), np.float64(0.34645719149129217), np.float64(0.3451392777389564), np.float64(0.34382674286258375), np.float64(0.34251956449941845), np.float64(0.34121772038057524), np.float64(0.33992118833064855), np.float64(0.3386299462673266), np.float64(0.337343972200985), np.float64(0.3360632442343038), np.float64(0.3347877405618759), np.float64(0.33351743946981727), np.float64(0.33225231933538957)]</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2648,25 +2908,30 @@
         <v>200</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1465880760339665</v>
+        <v>0.2311259102951067</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[[[np.float64(-9.627959608412251), np.float64(-9.456480423152195)], [np.float64(-8.422768258534543), np.float64(-8.66666575995358)], [np.float64(-9.641312396024999), np.float64(-9.419004033015087)], [np.float64(-4.220023474630734), np.float64(-4.000491151652979)]], [[np.float64(-25.264751613174422), np.float64(-11.391711566810132), np.float64(-3.0622205237156868)], [np.float64(-23.034229522641333), np.float64(-10.531968269776298), np.float64(-2.897464042928203)]]]</t>
+          <t>[[[np.float64(-12.310373742962673), np.float64(-12.581223562667851)], [np.float64(-12.014119856790874), np.float64(-11.965305711872398)], [np.float64(-13.451012227083993), np.float64(-13.992502150936733)], [np.float64(-5.145462072629457), np.float64(-5.5484795321131575)]], [[np.float64(-22.8184228204731), np.float64(-29.49905659970327), np.float64(-30.385512603397643)], [np.float64(-42.31864802393611), np.float64(-55.388708192377344), np.float64(-56.91098311708037)]]]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[[0.5594425253664833, np.float64(-14.93622778043532)], [0.44989575298321816, 0.1006139360279169, np.float64(-1.6759920144509972)]]</t>
+          <t>[[0.3280963352853805, np.float64(-19.86937882252061)], [0.43999474127335625, 0.655425231433116, np.float64(-22.05341256632678)]]</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>[np.float64(0.6597770654117594), np.float64(0.30508040979887024), np.float64(0.09002060856235544)]</t>
+          <t>[np.float64(0.6220318327400288), np.float64(0.8039283719766817), np.float64(0.8929186059685557)]</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>0.7461387431174389</v>
+        <v>0.3735597066850059</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>[np.float64(18.46269014674919), np.float64(0.4091695133697703), np.float64(0.40796539375753005), np.float64(0.4067650456175843), np.float64(0.405568456934417), np.float64(0.40437561573113073), np.float64(0.40318651006932227), np.float64(0.40200112804895766), np.float64(0.40081945780825917), np.float64(0.39964148752356793), np.float64(0.3984672054092272), np.float64(0.397296599717461), np.float64(0.3961296587382453), np.float64(0.39496637079919755), np.float64(0.3938067242654419), np.float64(0.3926507075394982), np.float64(0.391498309061159), np.float64(0.39034951730736084), np.float64(0.3892043207920772), np.float64(0.3880627080661964), np.float64(0.38692466771738576), np.float64(0.38579018837000256), np.float64(0.3846592586849468), np.float64(0.38353186735955946), np.float64(0.3824080031275069), np.float64(0.38128765475864573), np.float64(0.38017081105892747), np.float64(0.3790574608702665), np.float64(0.3779475930704367), np.float64(0.37684119657294546), np.float64(0.37573826032691493), np.float64(0.3746387733169864), np.float64(0.3735427245631823), np.float64(0.3724501031208109), np.float64(0.3713608980803394), np.float64(0.3702750985672871), np.float64(0.3691926937421089), np.float64(0.3681136728000863), np.float64(0.36703802497121263), np.float64(0.365965739520078), np.float64(0.36489680574576383), np.float64(0.3638312129817289), np.float64(0.36276895059569475), np.float64(0.36171000798954117), np.float64(0.3606543745991936), np.float64(0.3596020398945081), np.float64(0.35855299337916935), np.float64(0.35750722459058365), np.float64(0.3564647230997544), np.float64(0.3554254785111907), np.float64(0.35438948046279256), np.float64(0.353356718625742), np.float64(0.35232718270439756), np.float64(0.35130086243618663), np.float64(0.3502777475914979), np.float64(0.3492578279735725), np.float64(0.34824109341841003), np.float64(0.3472275337946435), np.float64(0.3462171390034543), np.float64(0.34520989897844884), np.float64(0.3442058036855671), np.float64(0.3432048431229716), np.float64(0.3422070073209494), np.float64(0.3412122863417973), np.float64(0.3402206702797316), np.float64(0.339232149260778), np.float64(0.3382467134426639), np.float64(0.33726435301473195), np.float64(0.33628505819782345), np.float64(0.33530881924417644), np.float64(0.33433562643734344), np.float64(0.33336547009206136), np.float64(0.33239834055417383), np.float64(0.33143422820052043), np.float64(0.3304731234388416), np.float64(0.32951501670767364), np.float64(0.3285598984762514), np.float64(0.3276077592444184), np.float64(0.32665858954250676), np.float64(0.3257123799312623), np.float64(0.3247691210017258), np.float64(0.3238288033751545), np.float64(0.3228914177029139), np.float64(0.32195695466637864), np.float64(0.32102540497683596), np.float64(0.32009675937540216), np.float64(0.3191710086329069), np.float64(0.318248143549811), np.float64(0.31732815495610656), np.float64(0.31641103371122287), np.float64(0.31549677070392923), np.float64(0.3145853568522387), np.float64(0.313676783103322), np.float64(0.31277104043340287), np.float64(0.31186811984767104), np.float64(0.3109680123801875), np.float64(0.31007070909379275), np.float64(0.3091762010800047), np.float64(0.30828447945894666), np.float64(0.30739553537922765), np.float64(0.3065093600178736), np.float64(0.3056259445802262), np.float64(0.30474528029984765), np.float64(0.3038673584384371), np.float64(0.3029921702857373), np.float64(0.3021197071594468), np.float64(0.30124996040511215), np.float64(0.30038292139607775), np.float64(0.29951858153334643), np.float64(0.29865693224552936), np.float64(0.29779796498873856), np.float64(0.29694167124650017), np.float64(0.2960880425296695), np.float64(0.29523707037633906), np.float64(0.29438874635176054), np.float64(0.2935430620482379), np.float64(0.29270000908506466), np.float64(0.2918595791084109), np.float64(0.29102176379125544), np.float64(0.29018655483329975), np.float64(0.2893539439608631), np.float64(0.2885239229268191), np.float64(0.28769648351049537), np.float64(0.28687161751759466), np.float64(0.2860493167801051), np.float64(0.2852295731562234), np.float64(0.2844123785302572), np.float64(0.2835977248125605), np.float64(0.28278560393942737), np.float64(0.28197600787302207), np.float64(0.281168928601295), np.float64(0.2803643581378941), np.float64(0.27956228852208587), np.float64(0.27876271181867057), np.float64(0.27796562011790454), np.float64(0.2771710055354108), np.float64(0.27637886021210123), np.float64(0.27558917631409663), np.float64(0.27480194603264124), np.float64(0.27401716158402617), np.float64(0.27323481520950477), np.float64(0.2724548991752158), np.float64(0.27167740577209837), np.float64(0.2709023273158174), np.float64(0.27012965614668016), np.float64(0.26935938462955655), np.float64(0.26859150515380337), np.float64(0.2678260101331812), np.float64(0.2670628920057795), np.float64(0.2663021432339337), np.float64(0.2655437563041539), np.float64(0.26478772372703807), np.float64(0.2640340380372008), np.float64(0.26328269179319447), np.float64(0.26253367757743235), np.float64(0.26178698799610883), np.float64(0.2610426156791228), np.float64(0.2603005532800088), np.float64(0.2595607934758535), np.float64(0.2588233289672177), np.float64(0.25808815247806693), np.float64(0.25735525675569476), np.float64(0.25662463457064383), np.float64(0.2558962787166321), np.float64(0.2551701820104851), np.float64(0.254446337292051), np.float64(0.25372473742413143), np.float64(0.25300537529240397), np.float64(0.2522882438053596), np.float64(0.2515733358942151), np.float64(0.25086064451284684), np.float64(0.25015016263771706), np.float64(0.24944188326779662), np.float64(0.24873579942450383), np.float64(0.24803190415161805), np.float64(0.24733019051521687), np.float64(0.24663065160360384), np.float64(0.24593328052722738), np.float64(0.24523807041862344), np.float64(0.2445450144323326), np.float64(0.24385410574483754), np.float64(0.24316533755448486), np.float64(0.24247870308142208), np.float64(0.2417941955675211), np.float64(0.24111180827631273), np.float64(0.24043153449291216), np.float64(0.23975336752395107), np.float64(0.2390773006975123), np.float64(0.2384033273630579), np.float64(0.23773144089135692), np.float64(0.23706163467442232), np.float64(0.2363939021254377), np.float64(0.23572823667869433), np.float64(0.23506463178951464), np.float64(0.23440308093419449), np.float64(0.23374357760993053), np.float64(0.2330861153347508), np.float64(0.2324306876474508), np.float64(0.2317772881075272), np.float64(0.2311259102951067)]</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2690,25 +2955,30 @@
         <v>100</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01420218905636899</v>
+        <v>0.02324333271470838</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.8970144249735978), np.float64(0.9123606861339667)], [np.float64(0.4797586859338954), np.float64(0.2375524751888902)], [np.float64(0.5374323261298983), np.float64(0.2675203609315433)], [np.float64(0.09798934199150659), np.float64(0.028244276221941523)]], [[np.float64(0.7759749476071833), np.float64(0.2763719420337575), np.float64(0.3657271399355526)], [np.float64(0.7598516823300951), np.float64(0.8568069650984508), np.float64(0.9184855689913388)]]]</t>
+          <t>[[[np.float64(-0.010280381870871082), np.float64(0.7829520542221018)], [np.float64(0.08222762726746106), np.float64(0.030095280502999974)], [np.float64(0.5605289737159311), np.float64(0.6794518360990082)], [np.float64(0.27861022129681334), np.float64(0.10826792435198597)]], [[np.float64(0.8728345294751009), np.float64(0.7813057981261036), np.float64(0.17995982322684506)], [np.float64(0.24079207541829206), np.float64(0.18685117358553588), np.float64(0.04822171537427097)]]]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[[0.43810167098230635, np.float64(0.16078959780671392)], [0.7110231534160725, 0.20006361257287641, np.float64(0.782288793750247)]]</t>
+          <t>[[0.477222470022594, np.float64(0.4164340851342976)], [0.5430060177066683, 0.06371661028506237, np.float64(0.42159079877041794)]]</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>[np.float64(0.36675463442437994), np.float64(0.000677729880796826), np.float64(0.9487746159497606)]</t>
+          <t>[np.float64(0.4217234594427759), np.float64(0.8868362143160942), np.float64(0.23754398032848664)]</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>0.05674736500987784</v>
+        <v>0.4044490283648791</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>[np.float64(0.025018499567048158), np.float64(0.024999862672455346), np.float64(0.024981238467389564), np.float64(0.024962627011445953), np.float64(0.02494402836394251), np.float64(0.024925442583930767), np.float64(0.024906869730191527), np.float64(0.02488830986123769), np.float64(0.024869763035306202), np.float64(0.024851229310365697), np.float64(0.024832708744117086), np.float64(0.024814201393989772), np.float64(0.02479570731714101), np.float64(0.024777226570456494), np.float64(0.02475875921055515), np.float64(0.024740305293779727), np.float64(0.0247218648762049), np.float64(0.024703438013633606), np.float64(0.0246850247615965), np.float64(0.024666625175354125), np.float64(0.02464823930989442), np.float64(0.024629867219935687), np.float64(0.02461150895992794), np.float64(0.024593164584044938), np.float64(0.024574834146189564), np.float64(0.024556517699994458), np.float64(0.02453821529882016), np.float64(0.024519926995758053), np.float64(0.024501652843625144), np.float64(0.024483392894971007), np.float64(0.024465147202068584), np.float64(0.024446915816929635), np.float64(0.02442869879128168), np.float64(0.024410496176590458), np.float64(0.024392308024045222), np.float64(0.024374134384570464), np.float64(0.024355975308815468), np.float64(0.024337830847159115), np.float64(0.024319701049710443), np.float64(0.024301585966306924), np.float64(0.02428348564651813), np.float64(0.02426540013964294), np.float64(0.024247329494704768), np.float64(0.024229273760463597), np.float64(0.02421123298540623), np.float64(0.02419320721775064), np.float64(0.02417519650544514), np.float64(0.024157200896166835), np.float64(0.024139220437327757), np.float64(0.024121255176064813), np.float64(0.024103305159250916), np.float64(0.02408537043348817), np.float64(0.024067451045110173), np.float64(0.024049547040181852), np.float64(0.02403165846450115), np.float64(0.02401378536359704), np.float64(0.02399592778273075), np.float64(0.02397808576689461), np.float64(0.02396025936081708), np.float64(0.02394244860895519), np.float64(0.02392465355550217), np.float64(0.02390687424438458), np.float64(0.023889110719261725), np.float64(0.02387136302352755), np.float64(0.02385363120030791), np.float64(0.023835915292464187), np.float64(0.02381821534259372), np.float64(0.023800531393027905), np.float64(0.023782863485832507), np.float64(0.023765211662807494), np.float64(0.02374757596549519), np.float64(0.023729956435166195), np.float64(0.023712353112832627), np.float64(0.02369476603923824), np.float64(0.023677195254870533), np.float64(0.02365964079994852), np.float64(0.023642102714432053), np.float64(0.023624581038016183), np.float64(0.023607075810140717), np.float64(0.023589587069974053), np.float64(0.023572114856432368), np.float64(0.023554659208168224), np.float64(0.023537220163570276), np.float64(0.0235197977607725), np.float64(0.023502392037645654), np.float64(0.023485003031805275), np.float64(0.023467630780604754), np.float64(0.023450275321139965), np.float64(0.02343293669024655), np.float64(0.023415614924506254), np.float64(0.023398310060241834), np.float64(0.023381022133520547), np.float64(0.023363751180152263), np.float64(0.023346497235687193), np.float64(0.02332926033542554), np.float64(0.023312040514405295), np.float64(0.02329483780741879), np.float64(0.02327765224899755), np.float64(0.023260483873417583), np.float64(0.023243332714708378)]</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2732,25 +3002,30 @@
         <v>200</v>
       </c>
       <c r="F55" t="n">
-        <v>0.02675916677973812</v>
+        <v>0.01955369338782302</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.8080643011854699), np.float64(0.6081905269028289)], [np.float64(0.8484298746670882), np.float64(0.6923157280879619)], [np.float64(0.8278827743075551), np.float64(0.5170583125440532)], [np.float64(0.6996969478490711), np.float64(0.39229536680510035)]], [[np.float64(0.6525007660843348), np.float64(0.5603772327758488), np.float64(0.4726575596588232)], [np.float64(0.5825325268790769), np.float64(0.06936520669348259), np.float64(-0.35909951198342654)]]]</t>
+          <t>[[[np.float64(0.2588115381639177), np.float64(0.3626038204379813)], [np.float64(0.8278122298768775), np.float64(0.29155516770394535)], [np.float64(0.49552226202372973), np.float64(0.4027239497891106)], [np.float64(0.5389005707316805), np.float64(0.11674927891056924)]], [[np.float64(0.5840834469174756), np.float64(0.7305191014679857), np.float64(0.2335221757522534)], [np.float64(-0.043678323426350196), np.float64(0.835366035583857), np.float64(0.4187063745418264)]]]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[[0.9315760394905662, np.float64(0.5019726930471304)], [0.7046350607093225, 0.81398086601183, np.float64(-0.3425787727819344)]]</t>
+          <t>[[0.8096658556487482, np.float64(0.513916548591244)], [0.2465973897549837, 0.19618453791694257, np.float64(0.34572913652655846)]]</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>[np.float64(0.2801206108995878), np.float64(0.6774085758360252), np.float64(0.8960511615792341)]</t>
+          <t>[np.float64(0.6372676265992283), np.float64(0.3370538904629068), np.float64(0.6070840147201436)]</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>0.4145506670212172</v>
+        <v>0.2562415926986194</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>[np.float64(0.022703964574145426), np.float64(0.022686846048018485), np.float64(0.02266973626315585), np.float64(0.022652635294910496), np.float64(0.022635543218471277), np.float64(0.022618460108858658), np.float64(0.02260138604091977), np.float64(0.022584321089330606), np.float64(0.022567265328594797), np.float64(0.022550218833039468), np.float64(0.022533181676818163), np.float64(0.022516153933909128), np.float64(0.022499135678107934), np.float64(0.02248212698303025), np.float64(0.02246512792211676), np.float64(0.022448138568621802), np.float64(0.02243115899561882), np.float64(0.022414189275988188), np.float64(0.02239722948243578), np.float64(0.022380279687470517), np.float64(0.022363339963418792), np.float64(0.022346410382415468), np.float64(0.022329491016404905), np.float64(0.022312581937135118), np.float64(0.022295683216164947), np.float64(0.02227879492485516), np.float64(0.022261917134375683), np.float64(0.022245049915695446), np.float64(0.022228193339585554), np.float64(0.022211347476614178), np.float64(0.022194512397153452), np.float64(0.02217768817137657), np.float64(0.02216087486924321), np.float64(0.02214407256051507), np.float64(0.022127281314753354), np.float64(0.022110501201301553), np.float64(0.0220937322893031), np.float64(0.022076974647690255), np.float64(0.022060228345188913), np.float64(0.022043493450306328), np.float64(0.022026770031342086), np.float64(0.022010058156384543), np.float64(0.021993357893305372), np.float64(0.021976669309757557), np.float64(0.021959992473183094), np.float64(0.021943327450806963), np.float64(0.021926674309628212), np.float64(0.021910033116431398), np.float64(0.021893403937780134), np.float64(0.021876786840014782), np.float64(0.021860181889253844), np.float64(0.02184358915139101), np.float64(0.021827008692097874), np.float64(0.021810440576815908), np.float64(0.02179388487076485), np.float64(0.02177734163892984), np.float64(0.021760810946076393), np.float64(0.021744292856732957), np.float64(0.021727787435198213), np.float64(0.02171129474554081), np.float64(0.02169481485159768), np.float64(0.021678347816971144), np.float64(0.021661893705027992), np.float64(0.021645452578898546), np.float64(0.021629024501480996), np.float64(0.021612609535435173), np.float64(0.021596207743182973), np.float64(0.021579819186901616), np.float64(0.02156344392853649), np.float64(0.02154708202978791), np.float64(0.021530733552118906), np.float64(0.021514398556743912), np.float64(0.021498077104638594), np.float64(0.02148176925653402), np.float64(0.02146547507291473), np.float64(0.02144919461402204), np.float64(0.0214329279398498), np.float64(0.02141667511014176), np.float64(0.02140043618440076), np.float64(0.021384211221873548), np.float64(0.021368000281562764), np.float64(0.021351803422218697), np.float64(0.02133562070233786), np.float64(0.021319452180166835), np.float64(0.021303297913702647), np.float64(0.021287157960685484), np.float64(0.02127103237860278), np.float64(0.021254921224689055), np.float64(0.021238824555920962), np.float64(0.02122274242902142), np.float64(0.02120667490045766), np.float64(0.02119062202643455), np.float64(0.021174583862903773), np.float64(0.021158560465556354), np.float64(0.021142551889823512), np.float64(0.021126558190879937), np.float64(0.021110579423638913), np.float64(0.02109461564274748), np.float64(0.021078666902598964), np.float64(0.02106273325731937), np.float64(0.021046814760771748), np.float64(0.02103091146656046), np.float64(0.021015023428018913), np.float64(0.020999150698221624), np.float64(0.020983293329977597), np.float64(0.02096745137582763), np.float64(0.020951624888047443), np.float64(0.020935813918648908), np.float64(0.020920018519371412), np.float64(0.020904238741692633), np.float64(0.020888474636817762), np.float64(0.020872726255687497), np.float64(0.020856993648970878), np.float64(0.020841276867067358), np.float64(0.020825575960106986), np.float64(0.020809890977951967), np.float64(0.02079422197018897), np.float64(0.020778568986134845), np.float64(0.02076293207483881), np.float64(0.020747311285077577), np.float64(0.020731706665349896), np.float64(0.020716118263886515), np.float64(0.020700546128643006), np.float64(0.020684990307304724), np.float64(0.020669450847281178), np.float64(0.020653927795704536), np.float64(0.02063842119943871), np.float64(0.020622931105068073), np.float64(0.02060745755890296), np.float64(0.020592000606979296), np.float64(0.020576560295058076), np.float64(0.020561136668621603), np.float64(0.02054572977287925), np.float64(0.020530339652760094), np.float64(0.02051496635292124), np.float64(0.02049960991773708), np.float64(0.02048427039130971), np.float64(0.020468947817458064), np.float64(0.020453642239728204), np.float64(0.02043835370138963), np.float64(0.020423082245427125), np.float64(0.020407827914553638), np.float64(0.020392590751200607), np.float64(0.020377370797519608), np.float64(0.02036216809538566), np.float64(0.02034698268639285), np.float64(0.02033181461185719), np.float64(0.0203166639128167), np.float64(0.020301530630026758), np.float64(0.02028641480396663), np.float64(0.02027131647483218), np.float64(0.02025623568254378), np.float64(0.02024117246673957), np.float64(0.02022612686677692), np.float64(0.020211098921734606), np.float64(0.02019608867041146), np.float64(0.020181096151323553), np.float64(0.020166121402709843), np.float64(0.020151164462525427), np.float64(0.020136225368450913), np.float64(0.020121304157883338), np.float64(0.020106400867935206), np.float64(0.02009151553544711), np.float64(0.020076648196972007), np.float64(0.02006179888878732), np.float64(0.02004696764688443), np.float64(0.02003215450698141), np.float64(0.020017359504511067), np.float64(0.020002582674628882), np.float64(0.019987824052207764), np.float64(0.019973083671842255), np.float64(0.019958361567846854), np.float64(0.019943657774255486), np.float64(0.019928972324821694), np.float64(0.019914305253020327), np.float64(0.01989965659204439), np.float64(0.019885026374810297), np.float64(0.01987041463395448), np.float64(0.019855821401831515), np.float64(0.019841246710520236), np.float64(0.01982669059181476), np.float64(0.019812153077237264), np.float64(0.019797634198026208), np.float64(0.019783133985145196), np.float64(0.019768652469278006), np.float64(0.01975418968082927), np.float64(0.019739745649924718), np.float64(0.01972532040641304), np.float64(0.01971091397986814), np.float64(0.019696526399580947), np.float64(0.0196821576945715), np.float64(0.019667807893578304), np.float64(0.01965347702506644), np.float64(0.019639165117218877), np.float64(0.019624872197949877), np.float64(0.019610598294891816), np.float64(0.019596343435405342), np.float64(0.019582107646572443), np.float64(0.019567890955199545), np.float64(0.019553693387823024)]</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2774,25 +3049,30 @@
         <v>100</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0161379704475153</v>
+        <v>0.01284880049728195</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.29339212692502825), np.float64(0.9389458798910479)], [np.float64(0.4575696994776824), np.float64(0.8388937729487304)], [np.float64(0.03441389755335145), np.float64(0.06610737325485477)], [np.float64(0.9420139705105574), np.float64(0.48120884233451133)]], [[np.float64(0.2504436675429056), np.float64(0.6258779846652087), np.float64(-0.5190862936480689)], [np.float64(-0.1435691476797052), np.float64(0.5600664235957623), np.float64(-0.621606448641628)]]]</t>
+          <t>[[[np.float64(0.030382965771355984), np.float64(0.8067900542837751)], [np.float64(0.20783350835783246), np.float64(0.6153575680574646)], [np.float64(0.4585174535346524), np.float64(0.4278621620895218)], [np.float64(0.09484880947929784), np.float64(0.756129290286681)]], [[np.float64(0.680008336082878), np.float64(0.4766191910532934), np.float64(0.521351210907647)], [np.float64(0.47980547792036915), np.float64(-0.23973916658584246), np.float64(0.9456314867260043)]]]</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>[[0.7088155770741705, np.float64(0.3442778007595517)], [0.2191065137170075, 0.7888750887031191, np.float64(-0.5017018043257455)]]</t>
+          <t>[[0.9226704256648621, np.float64(0.6195467016155722)], [0.2531589088217445, 0.2727453271884862, np.float64(0.7308233644488247)]]</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>[np.float64(0.10401674991782807), np.float64(0.10292297472350061), np.float64(0.7818205269614317)]</t>
+          <t>[np.float64(0.4816616817804186), np.float64(0.9064833600354397), np.float64(0.18723423780995635)]</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>0.9566077969374045</v>
+        <v>0.02539234125962047</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>[np.float64(0.01515966052376793), np.float64(0.015108862306075421), np.float64(0.015058908614310446), np.float64(0.01500979176940655), np.float64(0.014961503831536318), np.float64(0.014914036618914784), np.float64(0.014867381726091623), np.float64(0.01482153054175058), np.float64(0.014776474265968328), np.float64(0.014732203926950094), np.float64(0.01468871039721858), np.float64(0.014645984409264705), np.float64(0.014604016570639058), np.float64(0.014562797378498624), np.float64(0.014522317233599567), np.float64(0.01448256645373466), np.float64(0.014443535286638555), np.float64(0.01440521392233173), np.float64(0.014367592504944638), np.float64(0.014330661143996077), np.float64(0.01429440992515972), np.float64(0.014258828920512891), np.float64(0.014223908198283664), np.float64(0.01418963783209414), np.float64(0.014156007909733636), np.float64(0.014123008541448157), np.float64(0.014090629867779892), np.float64(0.014058862066945819), np.float64(0.014027695361794615), np.float64(0.013997120026333262), np.float64(0.013967126391842562), np.float64(0.013937704852601785), np.float64(0.013908845871227597), np.float64(0.013880539983641705), np.float64(0.013852777803687316), np.float64(0.013825550027393229), np.float64(0.013798847436915914), np.float64(0.013772660904164034), np.float64(0.01374698139411883), np.float64(0.013721799967859025), np.float64(0.013697107785312058), np.float64(0.013672896107734391), np.float64(0.013649156299948135), np.float64(0.013625879832318652), np.float64(0.013603058282520909), np.float64(0.0135806833370667), np.float64(0.013558746792641109), np.float64(0.013537240557227322), np.float64(0.013516156651058361), np.float64(0.01349548720737725), np.float64(0.013475224473033927), np.float64(0.013455360808928904), np.float64(0.01343588869030993), np.float64(0.013416800706917259), np.float64(0.013398089563005918), np.float64(0.013379748077237163), np.float64(0.013361769182465287), np.float64(0.013344145925409076), np.float64(0.013326871466213122), np.float64(0.013309939077938026), np.float64(0.013293342145939344), np.float64(0.013277074167179027), np.float64(0.013261128749457575), np.float64(0.013245499610577275), np.float64(0.013230180577437042), np.float64(0.013215165585080355), np.float64(0.01320044867567423), np.float64(0.013186023997447296), np.float64(0.013171885803583151), np.float64(0.013158028451073145), np.float64(0.013144446399533986), np.float64(0.013131134209985537), np.float64(0.01311808654360987), np.float64(0.013105298160473986), np.float64(0.013092763918247883), np.float64(0.013080478770878042), np.float64(0.013068437767269224), np.float64(0.013056636049933651), np.float64(0.01304506885364425), np.float64(0.013033731504065102), np.float64(0.013022619416387599), np.float64(0.013011728093954848), np.float64(0.013001053126883913), np.float64(0.012990590190689594), np.float64(0.012980335044909185), np.float64(0.012970283531729018), np.float64(0.012960431574613053), np.float64(0.01295077517693894), np.float64(0.012941310420643067), np.float64(0.012932033464868316), np.float64(0.012922940544621715), np.float64(0.012914027969445529), np.float64(0.012905292122096327), np.float64(0.012896729457235108), np.float64(0.012888336500130458), np.float64(0.01288010984537488), np.float64(0.012872046155614084), np.float64(0.012864142160290417), np.float64(0.012856394654403074), np.float64(0.012848800497281954)]</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2816,25 +3096,30 @@
         <v>200</v>
       </c>
       <c r="F57" t="n">
-        <v>0.01446093763787787</v>
+        <v>0.0134138148125743</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.7910754756091906), np.float64(0.4647749966778337)], [np.float64(0.6243054366020396), np.float64(0.11048625970383824)], [np.float64(0.8635500476828493), np.float64(0.5608558627300928)], [np.float64(1.216348880108899), np.float64(0.3298638252102913)]], [[np.float64(-1.1442372343777754), np.float64(-2.4665053040883467), np.float64(-0.5306009980668335)], [np.float64(-0.38507048009498085), np.float64(-1.334488374837314), np.float64(0.09742758140979432)]]]</t>
+          <t>[[[np.float64(0.22326673713035836), np.float64(0.5587525770252556)], [np.float64(0.9906064750296402), np.float64(0.07535290575603917)], [np.float64(0.6412736415226561), np.float64(0.8927760813398365)], [np.float64(1.0320866177044477), np.float64(0.779888589635064)]], [[np.float64(0.4871156178947246), np.float64(-1.8257871703985469), np.float64(-0.3752837166749898)], [np.float64(0.253957516949029), np.float64(-1.343824219858366), np.float64(-0.2106708957522866)]]]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[[0.3100591566226931, np.float64(0.33127072990086753)], [0.1548349691666664, 0.08560474878982594, np.float64(-0.19646587523484482)]]</t>
+          <t>[[0.29796908483444917, np.float64(0.6567287572493052)], [0.8180873710809798, 0.1849209876700626, np.float64(-0.7483352712122668)]]</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>[np.float64(0.5875174136640451), np.float64(0.9499459997030095), np.float64(0.23936141769632113)]</t>
+          <t>[np.float64(0.09702768080114654), np.float64(0.964358917369491), np.float64(0.581123397495479)]</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>0.9050575569776849</v>
+        <v>0.8432593235956024</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>[np.float64(0.04570338396560829), np.float64(0.04520648538324188), np.float64(0.04470236042234602), np.float64(0.04419162793998616), np.float64(0.043674928114879), np.float64(0.04315291890778218), np.float64(0.04262627244147343), np.float64(0.04209567134335696), np.float64(0.04156180509228483), np.float64(0.041025366409039), np.float64(0.04048704772698007), np.float64(0.0399475377759826), np.float64(0.03940751830898336), np.float64(0.03886766099646819), np.float64(0.03832862451008885), np.float64(0.037791051812551796), np.float64(0.037255567666951636), np.float64(0.03672277637502122), np.float64(0.03619325975025767), np.float64(0.03566757532883997), np.float64(0.035146254818365245), np.float64(0.03462980278205709), np.float64(0.034118695553924154), np.float64(0.03361338037856189), np.float64(0.03311427476777797), np.float64(0.0326217660649805), np.float64(0.032136211207171105), np.float64(0.03165793667366121), np.float64(0.03118723860988025), np.float64(0.03072438311419185), np.float64(0.030269606675219343), np.float64(0.02982311674698754), np.float64(0.029385092448933114), np.float64(0.028955685377887456), np.float64(0.028535020519075804), np.float64(0.028123197243366174), np.float64(0.02772029037817126), np.float64(0.02732635133969665), np.float64(0.026941409314620392), np.float64(0.026565472479692348), np.float64(0.026198529248294255), np.float64(0.025840549533533982), np.float64(0.025491486018131747), np.float64(0.025151275421993233), np.float64(0.024819839759111527), np.float64(0.024497087576163645), np.float64(0.02418291516597604), np.float64(0.023877207749801812), np.float64(0.02357984062306766), np.float64(0.023290680260126914), np.float64(0.023009585374207865), np.float64(0.022736407929513484), np.float64(0.02247099410310049), np.float64(0.022213185194787582), np.float64(0.0219628184840328), np.float64(0.021719728033127387), np.float64(0.021483745436690918), np.float64(0.021254700517812544), np.float64(0.021032421971646804), np.float64(0.02081673795754012), np.float64(0.02060747664115247), np.float64(0.02040446668822192), np.float64(0.020207537711821245), np.float64(0.020016520675173892), np.float64(0.01983124825214167), np.float64(0.01965155514767168), np.float64(0.01947727838042743), np.float64(0.019308257529975257), np.float64(0.01914433495082352), np.float64(0.0189853559555775), np.float64(0.018831168969512476), np.float64(0.018681625658705882), np.float64(0.018536581033902662), np.float64(0.018395893532114724), np.float64(0.018259425077954427), np.float64(0.01812704112650083), np.float64(0.017998610689542307), np.float64(0.017874006346805145), np.float64(0.01775310424374071), np.float64(0.0176357840773563), np.float64(0.017521929071418994), np.float64(0.01741142594232548), np.float64(0.01730416485680733), np.float64(0.017200039382519423), np.float64(0.017098946432532954), np.float64(0.0170007862046452), np.float64(0.01690546211630512), np.float64(0.016812880735926267), np.float64(0.016722951711269043), np.float64(0.01663558769551509), np.float64(0.01655070427155857), np.float64(0.01646821987505873), np.float64(0.01638805571664427), np.float64(0.016310135703724377), np.float64(0.016234386362191617), np.float64(0.016160736758379257), np.float64(0.016089118421510097), np.float64(0.016019465266885417), np.float64(0.015951713520018385), np.float64(0.01588580164187146), np.float64(0.015821670255373947), np.float64(0.015759262073303283), np.float64(0.01569852182769068), np.float64(0.015639396200776264), np.float64(0.015581833757623214), np.float64(0.01552578488041873), np.float64(0.015471201704526658), np.float64(0.015418038056279955), np.float64(0.015366249392567298), np.float64(0.015315792742204619), np.float64(0.015266626649082201), np.float64(0.015218711117085183), np.float64(0.015172007556790452), np.float64(0.015126478733876802), np.float64(0.015082088719282311), np.float64(0.015038802841025841), np.float64(0.014996587637685778), np.float64(0.014955410813508995), np.float64(0.014915241195102309), np.float64(0.01487604868966236), np.float64(0.014837804244715447), np.float64(0.0148004798093293), np.float64(0.014764048296741335), np.float64(0.014728483548377101), np.float64(0.014693760299202578), np.float64(0.014659854144376093), np.float64(0.014626741507171345), np.float64(0.01459439960809293), np.float64(0.014562806435189975), np.float64(0.014531940715492561), np.float64(0.01450178188754464), np.float64(0.014472310075001295), np.float64(0.014443506061238367), np.float64(0.0144153512649432), np.float64(0.01438782771665718), np.float64(0.014360918036225767), np.float64(0.014334605411122458), np.float64(0.014308873575624962), np.float64(0.014283706790787545), np.float64(0.014259089825215029), np.float64(0.014235007936567063), np.float64(0.014211446853792864), np.float64(0.014188392760052347), np.float64(0.014165832276316794), np.float64(0.014143752445581725), np.float64(0.014122140717732915), np.float64(0.01410098493495686), np.float64(0.01408027331775548), np.float64(0.014059994451478292), np.float64(0.014040137273390946), np.float64(0.01402069106024346), np.float64(0.01400164541630262), np.float64(0.013982990261867712), np.float64(0.013964715822214022), np.float64(0.013946812616970812), np.float64(0.013929271449893114), np.float64(0.013912083399039146), np.float64(0.013895239807316878), np.float64(0.01387873227338724), np.float64(0.013862552642922445), np.float64(0.013846693000182398), np.float64(0.013831145659923478), np.float64(0.013815903159597673), np.float64(0.013800958251864863), np.float64(0.013786303897361997), np.float64(0.013771933257766874), np.float64(0.013757839689099927), np.float64(0.013744016735287141), np.float64(0.013730458121960148), np.float64(0.013717157750480118), np.float64(0.013704109692191442), np.float64(0.013691308182875608), np.float64(0.01367874761741401), np.float64(0.013666422544648466), np.float64(0.013654327662418565), np.float64(0.013642457812791517), np.float64(0.013630807977455773), np.float64(0.013619373273283525), np.float64(0.013608148948051901), np.float64(0.013597130376317726), np.float64(0.0135863130554433), np.float64(0.013575692601750585), np.float64(0.013565264746824771), np.float64(0.013555025333948681), np.float64(0.013544970314646654), np.float64(0.013535095745371178), np.float64(0.013525397784288379), np.float64(0.013515872688180499), np.float64(0.013506516809462613), np.float64(0.0134973265932912), np.float64(0.01348829857477823), np.float64(0.013479429376300216), np.float64(0.013470715704898726), np.float64(0.013462154349768374), np.float64(0.013453742179834926), np.float64(0.013445476141405373), np.float64(0.013437353255906307), np.float64(0.01342937061769338), np.float64(0.013421525391937032), np.float64(0.013413814812574296)]</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2858,25 +3143,30 @@
         <v>100</v>
       </c>
       <c r="F58" t="n">
-        <v>0.05697256039051799</v>
+        <v>0.01695798620311539</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.4461788595844035), np.float64(0.6364567227296943)], [np.float64(0.40070220934390965), np.float64(0.31622306650980986)], [np.float64(0.4828853574940732), np.float64(0.8090887504170508)], [np.float64(0.9688863754002567), np.float64(0.4900145402297111)]], [[np.float64(0.303522847696954), np.float64(1.0702164010442117), np.float64(0.5808554965104433)], [np.float64(0.7604181504680302), np.float64(0.9056640198361059), np.float64(0.9601104063182122)]]]</t>
+          <t>[[[np.float64(0.5511533010831933), np.float64(0.1629966174143388)], [np.float64(0.8114969010912811), np.float64(0.8804914077867058)], [np.float64(0.4795577061927112), np.float64(0.389867237120153)], [np.float64(0.25644039743100316), np.float64(0.2656681017371512)]], [[np.float64(-0.7184060669411253), np.float64(-0.5823021144867689), np.float64(0.8434800286481043)], [np.float64(0.1773603632934859), np.float64(-0.7135290456363497), np.float64(-0.04814714624920035)]]]</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>[[0.2659549357370552, np.float64(1.0804384179767488)], [0.2850767771617366, 0.26105667822447554, np.float64(1.1559580628111163)]]</t>
+          <t>[[0.7681794687118076, np.float64(0.3477027160610763)], [0.9801996023013786, 0.9644352874315182, np.float64(0.578955841368588)]]</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>[np.float64(0.04203757092399532), np.float64(0.12151989052607944), np.float64(0.06498610735184947)]</t>
+          <t>[np.float64(0.7469798651257422), np.float64(0.8957285198679087), np.float64(0.07471826654631081)]</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>0.3172745105840306</v>
+        <v>0.7951361153830182</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>[np.float64(0.08882623549332681), np.float64(0.08871808775362967), np.float64(0.08860018263745566), np.float64(0.08847155991937945), np.float64(0.08833114753911692), np.float64(0.08817774485866543), np.float64(0.08801000275560975), np.float64(0.08782639984958536), np.float64(0.08762521398268709), np.float64(0.08740448784974801), np.float64(0.08716198738663082), np.float64(0.08689515115545421), np.float64(0.08660102849142315), np.float64(0.08627620356659502), np.float64(0.08591670174451148), np.float64(0.08551787360181573), np.float64(0.08507425072983923), np.float64(0.08457936585336531), np.float64(0.08402552788748056), np.float64(0.08340354032473686), np.float64(0.08270234896469342), np.float64(0.0819086029120349), np.float64(0.08100611200008499), np.float64(0.07997518648822619), np.float64(0.07879185528116081), np.float64(0.0774269850464735), np.float64(0.07584537885593423), np.float64(0.0740050434302686), np.float64(0.07185701463867755), np.float64(0.06934646348250881), np.float64(0.06641628571760148), np.float64(0.06301490696976644), np.float64(0.05911020796739752), np.float64(0.054710363734185266), np.float64(0.04988868172290488), np.float64(0.0448028677161283), np.float64(0.03969300523350209), np.float64(0.0348452712291381), np.float64(0.03052610051108239), np.float64(0.02691487224455054), np.float64(0.024069499710796416), np.float64(0.021938516012847395), np.float64(0.020404143707671064), np.float64(0.019328905846722262), np.float64(0.018587336904778276), np.float64(0.01807953607921454), np.float64(0.017732223273866102), np.float64(0.017494153099352542), np.float64(0.017330365212574833), np.float64(0.01721723901277669), np.float64(0.01713882571722447), np.float64(0.017084313080361225), np.float64(0.017046328246147206), np.float64(0.017019813646392472), np.float64(0.01700128159803915), np.float64(0.01698831661759023), np.float64(0.016979240180244395), np.float64(0.016972882924634336), np.float64(0.016968428685094065), np.float64(0.016965307041451057), np.float64(0.01696311893839176), np.float64(0.01696158501090191), np.float64(0.0169605095889663), np.float64(0.016959755575766684), np.float64(0.016959226890431327), np.float64(0.01695885618547022), np.float64(0.01695859624821368), np.float64(0.016958413978308367), np.float64(0.016958286167987238), np.float64(0.0169581965449047), np.float64(0.016958133699141145), np.float64(0.016958089630092953), np.float64(0.016958058727674575), np.float64(0.016958037058015286), np.float64(0.01695802186262986), np.float64(0.016958011207181), np.float64(0.01695800373524006), np.float64(0.016957998495704764), np.float64(0.01695799482157617), np.float64(0.016957992245160997), np.float64(0.016957990438473465), np.float64(0.01695798917157646), np.float64(0.01695798828321214), np.float64(0.01695798766026086), np.float64(0.016957987223402898), np.float64(0.016957986917078782), np.float64(0.016957986702278348), np.float64(0.016957986551653266), np.float64(0.016957986446030446), np.float64(0.016957986371970962), np.float64(0.016957986320039028), np.float64(0.016957986283619997), np.float64(0.01695798625807981), np.float64(0.016957986240168133), np.float64(0.0169579862276054), np.float64(0.01695798621878344), np.float64(0.01695798621259717), np.float64(0.01695798620826468), np.float64(0.016957986205232117), np.float64(0.016957986203115394)]</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2900,25 +3190,30 @@
         <v>200</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01176178380720338</v>
+        <v>0.01330106404696086</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.10168933825163663), np.float64(0.504450194497943)], [np.float64(0.7064124610324619), np.float64(0.15825957569617938)], [np.float64(0.9361036030030875), np.float64(0.13576656089402456)], [np.float64(0.5120231997282725), np.float64(0.8504997639052471)]], [[np.float64(0.8448840084225463), np.float64(0.6462701031078695), np.float64(0.1343035061759732)], [np.float64(0.04967497246932136), np.float64(0.4098321279015651), np.float64(-0.002370834948953675)]]]</t>
+          <t>[[[np.float64(0.19284442355897893), np.float64(0.5589759277959025)], [np.float64(0.6767506774465777), np.float64(0.9766132342861289)], [np.float64(0.3679682665403039), np.float64(0.6842588426999406)], [np.float64(0.8676931998271147), np.float64(0.34540094413830175)]], [[np.float64(-0.17858828258353585), np.float64(-0.2446542989795964), np.float64(0.016239099296465602)], [np.float64(0.198954892548443), np.float64(-0.10760984265264736), np.float64(-0.13286716827474795)]]]</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>[[0.28694741285280234, np.float64(0.5138649289789613)], [0.9503100372039075, 0.4431619384443427, np.float64(0.19663428653458154)]]</t>
+          <t>[[0.9344909924034891, np.float64(0.6808437132203325)], [0.03767712776791887, 0.6378487005488175, np.float64(0.14645533242530878)]]</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>[np.float64(0.03952795220294824), np.float64(0.14988630002766534), np.float64(0.9856535123699063)]</t>
+          <t>[np.float64(0.5488963592217517), np.float64(0.9650500327839548), np.float64(0.5381405908778958)]</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>0.4958723062169584</v>
+        <v>0.6430584813241453</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>[np.float64(0.0727459481427333), np.float64(0.06935111172434112), np.float64(0.06527114659685117), np.float64(0.060418609870373736), np.float64(0.05475945503242781), np.float64(0.04837025093056886), np.float64(0.0415031610785003), np.float64(0.03461728600992434), np.float64(0.028311151735284777), np.float64(0.023128295226875352), np.float64(0.019332293873602222), np.float64(0.016832027182203432), np.float64(0.015313915865561615), np.float64(0.014436726087785475), np.float64(0.013941014626546178), np.float64(0.013662437042660782), np.float64(0.013505643076075572), np.float64(0.013417108682324328), np.float64(0.01336697605913697), np.float64(0.013338532181854889), np.float64(0.01332237356583421), np.float64(0.013313187057185856), np.float64(0.013307961991730946), np.float64(0.01330498932599595), np.float64(0.013303297851356768), np.float64(0.013302335303866103), np.float64(0.013301787531479372), np.float64(0.013301475793129756), np.float64(0.013301298379397131), np.float64(0.013301197410361043), np.float64(0.013301139946952348), np.float64(0.013301107243331967), np.float64(0.013301088630989865), np.float64(0.0133010780382899), np.float64(0.013301072009744295), np.float64(0.013301068578762275), np.float64(0.013301066626110167), np.float64(0.01330106551480917), np.float64(0.01330106488234212), np.float64(0.013301064522392221), np.float64(0.013301064317537975), np.float64(0.013301064200951765), np.float64(0.013301064134595536), np.float64(0.013301064096832717), np.float64(0.013301064075339084), np.float64(0.013301064063111732), np.float64(0.01330106405614749), np.float64(0.013301064052185313), np.float64(0.013301064049932828), np.float64(0.013301064048647148), np.float64(0.013301064047915489), np.float64(0.013301064047504188), np.float64(0.01330106404726702), np.float64(0.01330106404713685), np.float64(0.01330106404705955), np.float64(0.013301064047021211), np.float64(0.013301064046994104), np.float64(0.013301064046970573), np.float64(0.013301064046967397), np.float64(0.013301064046964545), np.float64(0.013301064046964175), np.float64(0.01330106404696383), np.float64(0.013301064046963419), np.float64(0.013301064046963055), np.float64(0.013301064046962699), np.float64(0.01330106404696234), np.float64(0.013301064046961967), np.float64(0.013301064046961627), np.float64(0.01330106404696127), np.float64(0.013301064046960862), np.float64(0.013301064046960862), np.float64(0.013301064046960862), np.float64(0.013301064046960862)]</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2942,25 +3237,30 @@
         <v>100</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01235603332816529</v>
+        <v>0.01139270202351412</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.5089013501490481), np.float64(0.43612749611963636)], [np.float64(0.3791305235431562), np.float64(0.5468731339216424)], [np.float64(0.25976806227949495), np.float64(0.42390087345172844)], [np.float64(0.7838697912992939), np.float64(0.40458556313323785)]], [[np.float64(0.44374515568945727), np.float64(0.7748782317724328), np.float64(-0.4890516207503603)], [np.float64(-0.26603553108546385), np.float64(0.09680241989154992), np.float64(0.24361494963319158)]]]</t>
+          <t>[[[np.float64(-0.051888318302021626), np.float64(0.5933770136154658)], [np.float64(0.0725019261417046), np.float64(0.5108994384103207)], [np.float64(0.12849577366703563), np.float64(0.8444892613915371)], [np.float64(0.8906841155789662), np.float64(0.9197634905060323)]], [[np.float64(0.8447417539345249), np.float64(0.21971685090509965), np.float64(0.1483780906705891)], [np.float64(0.2984947574915501), np.float64(0.6272838237696837), np.float64(-0.4139755774633414)]]]</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[[0.051529109525544015, np.float64(0.17052230322448592)], [0.39370778670521955, 0.16027521156580748, np.float64(-0.300066249357247)]]</t>
+          <t>[[0.31741348343645925, np.float64(0.3809542347805449)], [0.42259512556275747, 0.7284934035405943, np.float64(-0.4025349174486737)]]</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>[np.float64(0.3464049558536766), np.float64(0.08103097409666708), np.float64(0.3517382844400472)]</t>
+          <t>[np.float64(0.24459916824904837), np.float64(0.702083359000517), np.float64(0.6631661258134158)]</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>0.9050598760051795</v>
+        <v>0.5322939188807964</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>[np.float64(0.07390887521606486), np.float64(0.05701479822074776), np.float64(0.019680970359374293), np.float64(0.011751686738243594), np.float64(0.011450934044014174), np.float64(0.01140289706765786), np.float64(0.011394509959754825), np.float64(0.011393023358314939), np.float64(0.011392759159076987), np.float64(0.011392712183338769), np.float64(0.011392703830151115), np.float64(0.011392702344772129), np.float64(0.011392702080637992), np.float64(0.011392702033669199), np.float64(0.011392702025320216), np.float64(0.011392702023836588), np.float64(0.011392702023573759), np.float64(0.011392702023524834), np.float64(0.011392702023514117), np.float64(0.011392702023514117), np.float64(0.011392702023514117), np.float64(0.011392702023514117)]</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2984,25 +3284,30 @@
         <v>200</v>
       </c>
       <c r="F61" t="n">
-        <v>0.01296245365474423</v>
+        <v>0.01346217686098329</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.2713671056980996), np.float64(0.2649861453334419)], [np.float64(0.02142613710989993), np.float64(0.4840125598056335)], [np.float64(0.9132327725470605), np.float64(0.6853857789603225)], [np.float64(0.5417022951445674), np.float64(-0.06840511270717196)]], [[np.float64(-0.2791482112562749), np.float64(-0.7901907046477928), np.float64(0.7919822401069779)], [np.float64(0.08960106350811438), np.float64(-0.35577455518935175), np.float64(0.7846219305070513)]]]</t>
+          <t>[[[np.float64(0.8336976251901745), np.float64(0.7205902937508946)], [np.float64(-0.0611529086889225), np.float64(0.26172573637935814)], [np.float64(0.44527529488118556), np.float64(-0.07377124352708839)], [np.float64(0.31195569979570537), np.float64(0.2031665363014226)]], [[np.float64(0.07743040204900511), np.float64(-0.6226856162018471), np.float64(0.4197486436037549)], [np.float64(0.2427514978229119), np.float64(-0.12612321282369798), np.float64(-0.0801085124800301)]]]</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[[0.9903054364306295, np.float64(0.10532171864813025)], [0.5334480563321602, 0.6330928933622185, np.float64(0.44545311603059534)]]</t>
+          <t>[[0.32105373144377725, np.float64(0.23025413767731057)], [0.533259040368019, 0.2329897892148335, np.float64(0.18856783592042378)]]</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>[np.float64(0.5908895383957317), np.float64(0.776381904361871), np.float64(0.13687060960077246)]</t>
+          <t>[np.float64(0.6927918655133243), np.float64(0.5884787996946821), np.float64(0.29249579994943914)]</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>0.9465505539697061</v>
+        <v>0.6067583832665685</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>[np.float64(0.07167737717703555), np.float64(0.0596565868864619), np.float64(0.03871834711126872), np.float64(0.019790668267357123), np.float64(0.013977014086603333), np.float64(0.013462176860983294), np.float64(0.01347454328832555), np.float64(0.013473976258713655), np.float64(0.013474001920769968), np.float64(0.013474000758680875), np.float64(0.01347400081130132), np.float64(0.013474000808923029), np.float64(0.013474000809029243), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524), np.float64(0.013474000809026524)]</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -3026,25 +3331,30 @@
         <v>100</v>
       </c>
       <c r="F62" t="n">
-        <v>0.465300902594147</v>
+        <v>0.2627561599952792</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[[[np.float64(-2.256203262354088), np.float64(-1.5221641231740834)], [np.float64(-1.8221447572223461), np.float64(-0.9391215212028522)], [np.float64(-1.7391413234250415), np.float64(-1.293742960195064)], [np.float64(-0.5193096641456147), np.float64(-0.5461856434923289)]], [[np.float64(-0.9060696773617785), np.float64(-2.0889692098527455), np.float64(-2.3736540561684665), np.float64(-3.6314281883311104)], [np.float64(-1.2920713268151187), np.float64(-2.8612439714266835), np.float64(-2.6611123550058933), np.float64(-2.779962308050911)]]]</t>
+          <t>[[[np.float64(-0.6344011951267519), np.float64(-0.7971826821137419)], [np.float64(-0.38810097545065286), np.float64(-0.7107679953200187)], [np.float64(-0.209349782896903), np.float64(-0.31657884917339285)], [np.float64(0.2251868682460542), np.float64(0.49970277536415264)]], [[np.float64(0.37839315473230994), np.float64(-3.365724755252413), np.float64(-1.070170404210201), np.float64(-1.9586142917589202)], [np.float64(0.7136405692124547), np.float64(-3.316228531210239), np.float64(-0.9707718968295345), np.float64(-2.7192186486247443)]]]</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[[0.7636478672839475, np.float64(-1.6223146420186882)], [0.5435417878684894, 0.2849982556450973, 0.4438649587399096, np.float64(-1.7422944678611498)]]</t>
+          <t>[[0.6503361857564066, np.float64(-0.690712886596359)], [0.19220160251176133, 0.1353905613716757, 0.5064773240530835, np.float64(-0.4088764464282636)]]</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>[np.float64(0.3023144610268736), np.float64(0.6342125174113181), np.float64(0.6489371297346669), np.float64(0.7669511626657728)]</t>
+          <t>[np.float64(0.010616948005285504), np.float64(0.881490315646191), np.float64(0.3811302675520129), np.float64(0.6450045561414604)]</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>0.7474531445407051</v>
+        <v>0.9284504129073887</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>[np.float64(13.721854054956253), np.float64(0.2692098493197071), np.float64(0.2691431676629679), np.float64(0.2690765032142564), np.float64(0.2690098559690981), np.float64(0.26894322592301234), np.float64(0.26887661307152805), np.float64(0.26881001741017174), np.float64(0.26874343893447156), np.float64(0.2686768776399533), np.float64(0.26861033352214914), np.float64(0.2685438065765913), np.float64(0.26847729679881066), np.float64(0.26841080418434005), np.float64(0.2683443287287168), np.float64(0.2682778704274762), np.float64(0.26821142927615416), np.float64(0.2681450052702875), np.float64(0.26807859840541887), np.float64(0.2680122086770872), np.float64(0.267945836080834), np.float64(0.26787948061220235), np.float64(0.2678131422667371), np.float64(0.26774682103998243), np.float64(0.2676805169274857), np.float64(0.2676142299247917), np.float64(0.2675479600274543), np.float64(0.2674817072310196), np.float64(0.26741547153103823), np.float64(0.2673492529230661), np.float64(0.26728305140265185), np.float64(0.26721686696535374), np.float64(0.2671506996067252), np.float64(0.267084549322324), np.float64(0.2670184161077082), np.float64(0.2669522999584366), np.float64(0.26688620087006965), np.float64(0.2668201188381683), np.float64(0.26675405385829837), np.float64(0.26668800592601943), np.float64(0.2666219750368987), np.float64(0.2665559611864997), np.float64(0.2664899643703935), np.float64(0.2664239845841458), np.float64(0.2663580218233285), np.float64(0.26629207608351085), np.float64(0.26622614736026506), np.float64(0.2661602356491641), np.float64(0.26609434094578077), np.float64(0.26602846324569285), np.float64(0.2659626025444759), np.float64(0.26589675883770675), np.float64(0.2658309321209671), np.float64(0.2657651223898342), np.float64(0.265699329639889), np.float64(0.2656335538667155), np.float64(0.26556779506589545), np.float64(0.2655020532330166), np.float64(0.26543632836366127), np.float64(0.26537062045341786), np.float64(0.26530492949787365), np.float64(0.265239255492619), np.float64(0.2651735984332442), np.float64(0.26510795831534173), np.float64(0.2650423351345014), np.float64(0.2649767288863191), np.float64(0.264911139566389), np.float64(0.2648455671703069), np.float64(0.2647800116936737), np.float64(0.264714473132081), np.float64(0.26464895148113515), np.float64(0.26458344673643325), np.float64(0.2645179588935772), np.float64(0.2644524879481721), np.float64(0.26438703389581913), np.float64(0.26432159673212763), np.float64(0.26425617645269917), np.float64(0.26419077305314503), np.float64(0.26412538652907563), np.float64(0.2640600168760968), np.float64(0.2639946640898198), np.float64(0.26392932816585957), np.float64(0.26386400909982655), np.float64(0.2637987068873377), np.float64(0.2637334215240077), np.float64(0.2636681530054541), np.float64(0.26360290132729336), np.float64(0.26353766648514554), np.float64(0.26347244847463136), np.float64(0.2634072472913693), np.float64(0.26334206293098766), np.float64(0.26327689538910387), np.float64(0.2632117446613462), np.float64(0.26314661074334), np.float64(0.26308149363071176), np.float64(0.2630163933190924), np.float64(0.26295130980410697), np.float64(0.26288624308138797), np.float64(0.26282119314656727), np.float64(0.26275615999527924)]</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -3068,25 +3378,30 @@
         <v>200</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6067180410796276</v>
+        <v>0.01795208659470613</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[[[np.float64(-1.9702665068235206), np.float64(-1.68945168765255)], [np.float64(-1.6551633539136879), np.float64(-1.4622009856712683)], [np.float64(-1.327970234389987), np.float64(-1.1878710493456521)], [np.float64(-0.3306844598859968), np.float64(-0.26548300170389194)]], [[np.float64(-1.2441958209391177), np.float64(0.6527837350108315), np.float64(-1.633403818943486), np.float64(-2.261272353782526)], [np.float64(-1.4012552047927807), np.float64(0.3818236802439553), np.float64(-1.351597279383959), np.float64(-3.1267912683228967)]]]</t>
+          <t>[[[np.float64(0.4074074346505079), np.float64(-0.2909722913351671)], [np.float64(0.09876007037961), np.float64(0.5190468738553167)], [np.float64(-0.020733553936974878), np.float64(-0.12757852592236701)], [np.float64(0.3913876552822958), np.float64(0.13396259576092515)]], [[np.float64(-1.1820039582630744), np.float64(-1.1718523468513844), np.float64(-0.4439757263373362), np.float64(-0.9503456547403145)], [np.float64(-1.0126913830718074), np.float64(-1.145366747377417), np.float64(0.45842205565711147), np.float64(-1.378887130455882)]]]</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[[0.1251411505536839, np.float64(-2.367520409833103)], [0.8557538807027614, 0.5915757452666177, 0.9395937162455421, np.float64(-1.8131538796593025)]]</t>
+          <t>[[0.005783879640549494, np.float64(-0.13979776493417115)], [0.3442197844320669, 0.053370114641258626, 0.5219782205864115, np.float64(-0.9541257795199125)]]</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>[np.float64(0.4746736269713422), np.float64(0.03495398960833433), np.float64(0.5721839981136612), np.float64(0.9515927583972728)]</t>
+          <t>[np.float64(0.5399107470288849), np.float64(0.5882180242863619), np.float64(0.13496950396294513), np.float64(0.7643288329663848)]</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>0.512490734360676</v>
+        <v>0.7262275491119853</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>[np.float64(5.4777221779217005), np.float64(0.03844649909115066), np.float64(0.03403614269608358), np.float64(0.0338669827347118), np.float64(0.0336985320370798), np.float64(0.033530936189540866), np.float64(0.033364181384896795), np.float64(0.03319818147854337), np.float64(0.033032892790400344), np.float64(0.03286833320360897), np.float64(0.03270479839295498), np.float64(0.0325421229527563), np.float64(0.03238019586233398), np.float64(0.03221909437346159), np.float64(0.032058777296287914), np.float64(0.03189929169941601), np.float64(0.03174077195045145), np.float64(0.031583301701777616), np.float64(0.03142661459335163), np.float64(0.031270738552171405), np.float64(0.0311157446676805), np.float64(0.03096163168518512), np.float64(0.03080859223934377), np.float64(0.030656530199229065), np.float64(0.030505450851488747), np.float64(0.030355378717237782), np.float64(0.03020624281698735), np.float64(0.03005802294791075), np.float64(0.029910758950983492), np.float64(0.029764474099106306), np.float64(0.029619150829086296), np.float64(0.029474712055210787), np.float64(0.02933119730305311), np.float64(0.029188799838422673), np.float64(0.029047605375759355), np.float64(0.028907543123465867), np.float64(0.028768509977084293), np.float64(0.028630662814367294), np.float64(0.028493939795088446), np.float64(0.028358504893076193), np.float64(0.028224345535662703), np.float64(0.028091315743037512), np.float64(0.02795929698747445), np.float64(0.027828190450236857), np.float64(0.027698098982316236), np.float64(0.02756917034808928), np.float64(0.027441386039188668), np.float64(0.02731478395706628), np.float64(0.0271892378533301), np.float64(0.027064800935298304), np.float64(0.026941377775431964), np.float64(0.026818950143284472), np.float64(0.026697592969822617), np.float64(0.026577295481060116), np.float64(0.026458077983848916), np.float64(0.02634007810155126), np.float64(0.026223157384312436), np.float64(0.026107219348337447), np.float64(0.02599228293044658), np.float64(0.02587845200240396), np.float64(0.025765909760405138), np.float64(0.0256545509070674), np.float64(0.025544376120590215), np.float64(0.025435332575781542), np.float64(0.02532733464450843), np.float64(0.025220336760569787), np.float64(0.025114337327153038), np.float64(0.025009264767356532), np.float64(0.024905096245659144), np.float64(0.024802029707639686), np.float64(0.024699942250990883), np.float64(0.02459889190992396), np.float64(0.02449883326018637), np.float64(0.024399900347611116), np.float64(0.02430219716193692), np.float64(0.02420571093305668), np.float64(0.02411028618486316), np.float64(0.02401586864690409), np.float64(0.023922441654350767), np.float64(0.023830028192402538), np.float64(0.023738719478621252), np.float64(0.023648481867107465), np.float64(0.02355915861479654), np.float64(0.023470905068534508), np.float64(0.02338358637461637), np.float64(0.023297329408206148), np.float64(0.023212057386590174), np.float64(0.02312763758601075), np.float64(0.02304424310256915), np.float64(0.022961782041714493), np.float64(0.02288021088548775), np.float64(0.022799532315210813), np.float64(0.02271970139691791), np.float64(0.02264083444661725), np.float64(0.022562824003319146), np.float64(0.02248566888207044), np.float64(0.022409233145070213), np.float64(0.02233357988382122), np.float64(0.02225883454998814), np.float64(0.022185173988228318), np.float64(0.022112422793646624), np.float64(0.022040602809176434), np.float64(0.02196969031320209), np.float64(0.021899652060092506), np.float64(0.021830379737028605), np.float64(0.021761841966332705), np.float64(0.021694138536161884), np.float64(0.021627143001785407), np.float64(0.021560912283247476), np.float64(0.02149534864928902), np.float64(0.021430651658196725), np.float64(0.021366909611280935), np.float64(0.02130389421136803), np.float64(0.021241518083624917), np.float64(0.02117986700948952), np.float64(0.021118986508381003), np.float64(0.021058791351047094), np.float64(0.020999401852653372), np.float64(0.020940910455979834), np.float64(0.02088304823879946), np.float64(0.020825904799650477), np.float64(0.020769468609175983), np.float64(0.020713679654926005), np.float64(0.0206586946342051), np.float64(0.020604413701256347), np.float64(0.02055071429890246), np.float64(0.02049751095453472), np.float64(0.020444873430978384), np.float64(0.020392879546300813), np.float64(0.02034150505763677), np.float64(0.020290795394056267), np.float64(0.02024068057013445), np.float64(0.02019119091279152), np.float64(0.020142343547871294), np.float64(0.020093965615957096), np.float64(0.02004619061891224), np.float64(0.019999075549680622), np.float64(0.019952583957489063), np.float64(0.01990675807164869), np.float64(0.019861523884743305), np.float64(0.019816820281655195), np.float64(0.019772702262989217), np.float64(0.019729187288691104), np.float64(0.01968613270028922), np.float64(0.01964365761195066), np.float64(0.019601655623111558), np.float64(0.019560085304692137), np.float64(0.019518915476095217), np.float64(0.01947821364292301), np.float64(0.01943790231497921), np.float64(0.019398314614233823), np.float64(0.01935931705296105), np.float64(0.01932077437519449), np.float64(0.019282685229055695), np.float64(0.019245181089594433), np.float64(0.019208185566667757), np.float64(0.019171556929688048), np.float64(0.019135277283428325), np.float64(0.01909949168600295), np.float64(0.01906417084233363), np.float64(0.019029265756855467), np.float64(0.01899471136044886), np.float64(0.01896055965802212), np.float64(0.018926846004526727), np.float64(0.018893581225403886), np.float64(0.018860685533621774), np.float64(0.018828133709134748), np.float64(0.01879602968656873), np.float64(0.018764447211987955), np.float64(0.01873338760714795), np.float64(0.01870268798809348), np.float64(0.01867231232411708), np.float64(0.018642263677297967), np.float64(0.018612585572572258), np.float64(0.01858323643739198), np.float64(0.01855429269459968), np.float64(0.018525744386990436), np.float64(0.01849750047292424), np.float64(0.0184696137770029), np.float64(0.018442137012209366), np.float64(0.018414944477983936), np.float64(0.01838806296856234), np.float64(0.01836150855005206), np.float64(0.018335201338206215), np.float64(0.01830926067205083), np.float64(0.018283577054397187), np.float64(0.018258172397012374), np.float64(0.018233031274284082), np.float64(0.018208144188701827), np.float64(0.01818349770228569), np.float64(0.0181590981166487), np.float64(0.01813494100261961), np.float64(0.018111042771588974), np.float64(0.018087543399789477), np.float64(0.018064331186584327), np.float64(0.018041455335239168), np.float64(0.018018802265075233), np.float64(0.017996338026059263), np.float64(0.01797411675750264), np.float64(0.017952086594706127)]</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -3110,25 +3425,30 @@
         <v>100</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3091926317933103</v>
+        <v>0.03777435569426229</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[[[np.float64(-4.142215882803728), np.float64(-4.109149531318219)], [np.float64(-3.2732433619456245), np.float64(-3.9338576853036655)], [np.float64(-4.401706980605906), np.float64(-3.9419627620068014)], [np.float64(-1.8386227091447285), np.float64(-1.5925972199803302)]], [[np.float64(-3.397626883893977), np.float64(-2.793611981655927), np.float64(-0.18747539734054977), np.float64(-0.600025219175378)], [np.float64(-5.799403108897824), np.float64(-6.7138100319157115), np.float64(-0.055084719889904384), np.float64(-1.7601838677981656)]]]</t>
+          <t>[[[np.float64(0.19340634375613483), np.float64(-1.2459815089011574)], [np.float64(0.13681623596411072), np.float64(-1.1642140248466317)], [np.float64(-0.7783724290953932), np.float64(-0.8462231549888984)], [np.float64(0.2571459839694295), np.float64(-0.26113012419573645)]], [[np.float64(-0.28775727522351613), np.float64(-2.0127959924750085), np.float64(-9.920082073228539), np.float64(-0.7064509895036917)], [np.float64(-0.16808635595367724), np.float64(-1.105655795430857), np.float64(-6.496564302609317), np.float64(0.07367439437757461)]]]</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>[[0.0860269113673422, np.float64(-6.386447997389508)], [0.5363189872790172, 0.7218379182262588, 0.017346555639135786, np.float64(-1.1247118832599747)]]</t>
+          <t>[[0.8891020641024322, np.float64(-2.426120874844855)], [0.20261611784576017, 0.6863370239520945, 0.5757624727389717, np.float64(-0.20971099200510573)]]</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>[np.float64(0.35874995662767123), np.float64(0.3849880215982366), np.float64(0.0588851477419787), np.float64(0.14424344927049193)]</t>
+          <t>[np.float64(0.010795666825369749), np.float64(0.14336183388747037), np.float64(0.5158789940673923), np.float64(0.03589792142448651)]</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>0.7793027162872981</v>
+        <v>0.8694804788824594</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>[np.float64(2.0585393741406923), np.float64(0.04297944567410541), np.float64(0.04291352401761758), np.float64(0.042847968304635296), np.float64(0.04278276634744685), np.float64(0.0427179063820539), np.float64(0.04265337704657642), np.float64(0.04258916736074923), np.float64(0.04252526670645291), np.float64(0.04246166480919997), np.float64(0.042398351720529144), np.float64(0.04233531780124214), np.float64(0.04227255370543436), np.float64(0.04221005036526876), np.float64(0.04214779897644761), np.float64(0.04208579098434018), np.float64(0.04202401807072126), np.float64(0.041962472141087864), np.float64(0.04190114531251551), np.float64(0.041840029902021375), np.float64(0.04177911841540273), np.float64(0.041718403536521585), np.float64(0.04165787811700591), np.float64(0.04159753516634396), np.float64(0.04153736784234438), np.float64(0.04147736944194028), np.float64(0.04141753339231267), np.float64(0.041357853242317284), np.float64(0.04129832265418897), np.float64(0.04123893539550839), np.float64(0.041179685331412794), np.float64(0.04112056641703383), np.float64(0.041061572690143995), np.float64(0.04100269826399962), np.float64(0.040943937320363936), np.float64(0.04088528410269627), np.float64(0.04082673290949389), np.float64(0.040768278087773654), np.float64(0.04070991402668124), np.float64(0.040651635151215976), np.float64(0.04059343591606001), np.float64(0.0405353107994996), np.float64(0.04047725429742877), np.float64(0.04041926091742692), np.float64(0.040361325172894376), np.float64(0.04030344157724356), np.float64(0.040245604638130796), np.float64(0.04018780885172097), np.float64(0.04013004869697817), np.float64(0.040072318629968205), np.float64(0.04001461307817101), np.float64(0.039956926434787786), np.float64(0.0398992606926292), np.float64(0.03984163771844047), np.float64(0.03978408148002177), np.float64(0.039726602491185155), np.float64(0.03966919193136601), np.float64(0.03961183519622291), np.float64(0.03955452343891078), np.float64(0.0394972631408787), np.float64(0.039440018661325044), np.float64(0.03938281736700871), np.float64(0.03932583551378122), np.float64(0.03926926317712103), np.float64(0.03921339770110407), np.float64(0.03917105451997892), np.float64(0.039128785033499744), np.float64(0.03908658910529987), np.float64(0.039044466599275254), np.float64(0.03900241737958215), np.float64(0.038960441310637764), np.float64(0.038918538257119516), np.float64(0.03887670808396407), np.float64(0.038834950656367544), np.float64(0.038793265839784756), np.float64(0.03875165349992802), np.float64(0.038710113502767686), np.float64(0.038668645714531366), np.float64(0.03862725000170238), np.float64(0.03858592623102107), np.float64(0.0385446742694831), np.float64(0.03850349398433864), np.float64(0.03846238524309299), np.float64(0.038421347913505745), np.float64(0.03838038186358951), np.float64(0.03833948696160975), np.float64(0.03829866307608554), np.float64(0.03825791007578699), np.float64(0.03821722782973657), np.float64(0.0381766162072077), np.float64(0.03813607507772359), np.float64(0.038095604311059045), np.float64(0.03805520377723687), np.float64(0.03801487334653037), np.float64(0.03797461288946097), np.float64(0.03793442227679785), np.float64(0.03789430137955887), np.float64(0.037854250069007896), np.float64(0.03781426821665664), np.float64(0.03777435569426229)]</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -3152,25 +3472,30 @@
         <v>200</v>
       </c>
       <c r="F65" t="n">
-        <v>0.02344972085583271</v>
+        <v>0.09311193105768965</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[[[np.float64(-2.965821438709663), np.float64(-5.11888002268655)], [np.float64(-3.0155401261889763), np.float64(-5.130289560244445)], [np.float64(-2.8711853848083195), np.float64(-5.849651973731674)], [np.float64(-1.2932988996678834), np.float64(-2.5466782967770483)]], [[np.float64(-8.99879244333169), np.float64(0.5334777804418074), np.float64(-2.2447245556993614), np.float64(-6.636806430342948)], [np.float64(-5.53636882084742), np.float64(0.271349680043359), np.float64(-1.688374823800062), np.float64(-3.844933089140937)]]]</t>
+          <t>[[[np.float64(-14.231196217572666), np.float64(-13.156482583998532)], [np.float64(-14.173117516084353), np.float64(-12.25772592075021)], [np.float64(-15.307098724674413), np.float64(-13.484942572395555)], [np.float64(-6.6920429745623), np.float64(-6.2907275505474525)]], [[np.float64(-5.014731716911431), np.float64(-16.811238857946876), np.float64(-32.067565930850925), np.float64(-30.349717263619127)], [np.float64(-7.391719462177273), np.float64(-25.148781530076832), np.float64(-47.518807609704524), np.float64(-46.22125226067705)]]]</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[[0.07551233416821879, np.float64(-8.75471199606377)], [0.49304771438590234, 0.8125392884980227, 0.19289158536647288, np.float64(-5.7334234715325625)]]</t>
+          <t>[[0.10095901090893256, np.float64(-20.738395710353974)], [0.16108742081821092, 0.741683840740274, 0.852789035908094, np.float64(-20.199747222877164)]]</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>[np.float64(0.7930220981268296), np.float64(0.01718984406000961), np.float64(0.2387054388058493), np.float64(0.629253393158307)]</t>
+          <t>[np.float64(0.12642035660509127), np.float64(0.41381191302680764), np.float64(0.8178659109479309), np.float64(0.8404869315750667)]</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>0.3675183880996191</v>
+        <v>-0.03276151785353832</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>[np.float64(18.11684585051819), np.float64(0.19414508142058481), np.float64(0.19338582798462475), np.float64(0.192629891112511), np.float64(0.1918772559514204), np.float64(0.19112790771594115), np.float64(0.1903818316877523), np.float64(0.18963901321532253), np.float64(0.188899437713605), np.float64(0.1881630906637291), np.float64(0.187429957612705), np.float64(0.1867000241731171), np.float64(0.18597327602282843), np.float64(0.18524969890467707), np.float64(0.1845292786261877), np.float64(0.1838120010592649), np.float64(0.18309785213991284), np.float64(0.18238681786792835), np.float64(0.18167888430661763), np.float64(0.18097403758250682), np.float64(0.1802722638850472), np.float64(0.17957354946633616), np.float64(0.17887788064082003), np.float64(0.1781852437850225), np.float64(0.17749562533724836), np.float64(0.1768090117973092), np.float64(0.17612538972624178), np.float64(0.17544474574602334), np.float64(0.17476706653929966), np.float64(0.1740923388491054), np.float64(0.1734205494785853), np.float64(0.17275168529072446), np.float64(0.17208573320807183), np.float64(0.17142268021247023), np.float64(0.1707625133447819), np.float64(0.17010521970462592), np.float64(0.1694507864501033), np.float64(0.16879920079753025), np.float64(0.16815045002117732), np.float64(0.1675045214529995), np.float64(0.16686140248237621), np.float64(0.16622108055584847), np.float64(0.16558354317685423), np.float64(0.16494877790547402), np.float64(0.16431677235817044), np.float64(0.16368751420752634), np.float64(0.16306099118199652), np.float64(0.1624371910656464), np.float64(0.16181610169790114), np.float64(0.16119771097328922), np.float64(0.160582006841196), np.float64(0.15996897730561235), np.float64(0.15935861042487817), np.float64(0.1587508943114439), np.float64(0.15814581713161815), np.float64(0.15754336710532418), np.float64(0.1569435325058531), np.float64(0.15634630165962107), np.float64(0.15575166294592777), np.float64(0.15515960479670995), np.float64(0.15457011569631343), np.float64(0.1539831841812361), np.float64(0.15339879883990817), np.float64(0.15281694831243842), np.float64(0.15223762129039112), np.float64(0.15166080651654598), np.float64(0.1510864927846641), np.float64(0.15051466893925453), np.float64(0.14994532387534537), np.float64(0.14937844653825139), np.float64(0.14881402592334428), np.float64(0.14825205107582673), np.float64(0.14769251109050063), np.float64(0.14713539511154408), np.float64(0.14658069233228604), np.float64(0.14602839199497944), np.float64(0.14547848339058178), np.float64(0.14493095585852733), np.float64(0.14438579878651242), np.float64(0.14384300161026994), np.float64(0.14330255381335247), np.float64(0.1427644449269157), np.float64(0.1422286645294965), np.float64(0.14169520224654397), np.float64(0.14116404772892896), np.float64(0.14063519068228036), np.float64(0.14010862087276738), np.float64(0.13958432811286842), np.float64(0.1390623022611657), np.float64(0.1385425332221306), np.float64(0.13802501094591285), np.float64(0.13750972542813575), np.float64(0.13699666670968713), np.float64(0.13648582487651234), np.float64(0.13597719005940723), np.float64(0.13547075243382298), np.float64(0.1349665022196457), np.float64(0.13446442968100814), np.float64(0.13396452512608087), np.float64(0.13346677890687444), np.float64(0.13297118141903708), np.float64(0.13247772310165717), np.float64(0.13198639443706536), np.float64(0.13149718595063511), np.float64(0.13101008821058885), np.float64(0.13052509182780136), np.float64(0.1300421874556064), np.float64(0.1295613657896001), np.float64(0.12908261756745057), np.float64(0.12860593356870817), np.float64(0.12813130461460862), np.float64(0.12765872156788907), np.float64(0.12718817533259383), np.float64(0.12671965685388842), np.float64(0.12625315711787335), np.float64(0.1257886671513952), np.float64(0.12532617802186072), np.float64(0.1248656808370542), np.float64(0.12440716674494999), np.float64(0.12395062693353114), np.float64(0.12349605263061014), np.float64(0.12304343510364059), np.float64(0.12259276565953993), np.float64(0.12214403564451227), np.float64(0.12169723644386392), np.float64(0.12125235948183014), np.float64(0.1208093962213921), np.float64(0.12036833816410528), np.float64(0.11992917684992259), np.float64(0.11949190385701614), np.float64(0.1190565108016076), np.float64(0.11862298933779081), np.float64(0.1181913311573614), np.float64(0.11776152798964416), np.float64(0.1173335716013233), np.float64(0.1169074537962671), np.float64(0.11648316641536782), np.float64(0.11606070133636325), np.float64(0.1156400504736747), np.float64(0.11522120577823725), np.float64(0.11480415923733485), np.float64(0.1143889028744326), np.float64(0.11397542874901467), np.float64(0.11356372895641964), np.float64(0.11315379562767162), np.float64(0.11274562092932722), np.float64(0.11233919706330482), np.float64(0.11193451626672903), np.float64(0.11153157081176744), np.float64(0.11113035300547233), np.float64(0.11073085518962136), np.float64(0.11033306974055851), np.float64(0.10993698906903768), np.float64(0.10954260562006443), np.float64(0.10914991187274355), np.float64(0.10875890034011705), np.float64(0.10836956356901731), np.float64(0.10798189413990812), np.float64(0.10759588466673142), np.float64(0.10721152779675805), np.float64(0.10682881621043333), np.float64(0.10644774262122528), np.float64(0.10606829977547681), np.float64(0.10569048045225474), np.float64(0.10531427746319905), np.float64(0.10493968365237814), np.float64(0.10456669189613711), np.float64(0.10419529510295349), np.float64(0.10382548621329077), np.float64(0.1034572581994501), np.float64(0.10309060406542844), np.float64(0.10272551684677335), np.float64(0.10236198961043672), np.float64(0.10200001545463698), np.float64(0.10163958750871069), np.float64(0.10128069893297485), np.float64(0.10092334291858567), np.float64(0.1005675126873946), np.float64(0.10021320149181381), np.float64(0.09986040261467354), np.float64(0.09950910936908246), np.float64(0.0991593150982949), np.float64(0.09881101317556665), np.float64(0.09846419700402614), np.float64(0.09811886001653058), np.float64(0.09777499567553631), np.float64(0.09743259747296229), np.float64(0.09709165893005443), np.float64(0.09675217359725487), np.float64(0.09641413505406664), np.float64(0.0960775369089227), np.float64(0.09574237279905436), np.float64(0.09540863639035807), np.float64(0.09507632137726714), np.float64(0.09474542148262317), np.float64(0.09441593045754146), np.float64(0.09408784208128815), np.float64(0.09376115016114894), np.float64(0.09343584853230087), np.float64(0.09311193105768965)]</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -3194,25 +3519,30 @@
         <v>100</v>
       </c>
       <c r="F66" t="n">
-        <v>0.06414866175999291</v>
+        <v>0.0255425636673405</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.3532455917056517), np.float64(0.7639289474440579)], [np.float64(0.16006498788279064), np.float64(0.7195854035327746)], [np.float64(0.8859953942297217), np.float64(0.5846678205636058)], [np.float64(0.8292420065150913), np.float64(-0.012018791233876284)]], [[np.float64(0.9094383140756702), np.float64(0.6131094931989612), np.float64(0.5951415817893265), np.float64(-0.05006129933402809)], [np.float64(0.7617501942853981), np.float64(0.4505095286109488), np.float64(-0.020289704809637838), np.float64(-0.07567101111198132)]]]</t>
+          <t>[[[np.float64(0.9749509598145806), np.float64(0.07704769399603666)], [np.float64(0.42993968664704946), np.float64(0.041362384132792834)], [np.float64(0.21974084700747318), np.float64(0.2699594083172368)], [np.float64(0.035308578709412564), np.float64(0.08679504790513536)]], [[np.float64(0.23743767759132622), np.float64(0.5623337856483934), np.float64(0.7774295911780976), np.float64(-0.03598772765218308)], [np.float64(0.10664197088796633), np.float64(0.2100761285167922), np.float64(0.036635405526644335), np.float64(0.6611216243101338)]]]</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[[0.6145975265711209, np.float64(0.4409334488199817)], [0.36333498566656564, 0.8250045686351881, 0.3076090524470104, np.float64(0.15005952573734124)]]</t>
+          <t>[[0.23017647986752132, np.float64(0.47681278175849773)], [0.7357120419924624, 0.06289323673725278, 0.9116817382758036, np.float64(0.60483265086131)]]</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>[np.float64(0.17928472720359234), np.float64(0.8563209626612236), np.float64(0.8921675837030172), np.float64(0.7623374560101215)]</t>
+          <t>[np.float64(0.19321289803541367), np.float64(0.11251617132040413), np.float64(0.5294684172993113), np.float64(0.9384541092640376)]</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>0.8024546491627811</v>
+        <v>0.2255269571889874</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>[np.float64(0.028536699118069674), np.float64(0.028507246970457985), np.float64(0.02847776711406842), np.float64(0.02844825987688326), np.float64(0.028418725588445257), np.float64(0.028389164579849708), np.float64(0.0283595771837196), np.float64(0.028329963734203073), np.float64(0.028300324566944573), np.float64(0.02827066001907117), np.float64(0.028240970429186538), np.float64(0.028211256137338735), np.float64(0.028181517485018254), np.float64(0.028151754815128202), np.float64(0.028121968471974176), np.float64(0.0280921588012496), np.float64(0.028062326150011033), np.float64(0.028032470866666086), np.float64(0.02800259330095199), np.float64(0.027972693803925752), np.float64(0.027942772727927848), np.float64(0.027912830426586807), np.float64(0.027882867254785688), np.float64(0.027852883568646472), np.float64(0.027822879725515146), np.float64(0.027792856083939766), np.float64(0.027762813003650338), np.float64(0.027732750845541203), np.float64(0.027702669971650464), np.float64(0.02767257074514286), np.float64(0.027642453530288456), np.float64(0.02761231869244538), np.float64(0.027582166598034138), np.float64(0.02755199761452008), np.float64(0.027521812110404772), np.float64(0.027491610455178655), np.float64(0.02746139301932818), np.float64(0.027431160174297527), np.float64(0.027400912292481816), np.float64(0.02737064974719159), np.float64(0.027340372912643573), np.float64(0.027310082163932027), np.float64(0.02727977787701096), np.float64(0.02724946042867067), np.float64(0.027219130196521325), np.float64(0.02718878755896742), np.float64(0.0271584328951853), np.float64(0.02712806658510037), np.float64(0.027097689009371918), np.float64(0.02706730054936318), np.float64(0.027036901587125704), np.float64(0.027006492505370627), np.float64(0.02697607368745281), np.float64(0.02694564551734683), np.float64(0.026915208379622597), np.float64(0.026884762659415112), np.float64(0.026854308742423286), np.float64(0.026823847014868226), np.float64(0.026793377863476363), np.float64(0.026762901675460315), np.float64(0.026732418838488172), np.float64(0.026701929740665237), np.float64(0.026671434770516065), np.float64(0.02664093431694951), np.float64(0.02661042876924703), np.float64(0.026579918517029903), np.float64(0.02654940395024675), np.float64(0.026518885459136738), np.float64(0.02648836343422237), np.float64(0.026457838266268345), np.float64(0.02642731034627312), np.float64(0.02639678006543986), np.float64(0.026366247815149693), np.float64(0.02633571398693965), np.float64(0.026305178972484206), np.float64(0.026274643163565696), np.float64(0.026244106952060003), np.float64(0.02621357072989609), np.float64(0.026183034889050955), np.float64(0.026152499821511438), np.float64(0.026121965919261497), np.float64(0.026091433574250138), np.float64(0.02606090317837554), np.float64(0.026030375123451015), np.float64(0.025999849801196823), np.float64(0.025969327603198016), np.float64(0.025938808920894563), np.float64(0.02590829414555538), np.float64(0.025877783668250557), np.float64(0.025847277879830818), np.float64(0.025816777170907284), np.float64(0.025786281931817), np.float64(0.025755792552608063), np.float64(0.02572530942302136), np.float64(0.025694832932454177), np.float64(0.02566436346994607), np.float64(0.025633901424146347), np.float64(0.02560344718331219), np.float64(0.025573001135256044), np.float64(0.025542563667340503)]</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -3236,25 +3566,30 @@
         <v>200</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0561395529794046</v>
+        <v>0.02983261161524206</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.45548380859727633), np.float64(0.03649400430240912)], [np.float64(0.5049620866317552), np.float64(0.11665091189620529)], [np.float64(0.013661651319526184), np.float64(0.5484425794292582)], [np.float64(0.45891329805928294), np.float64(0.508559105058903)]], [[np.float64(0.2588823083834353), np.float64(-0.04605757210728), np.float64(0.15322495557474386), np.float64(-0.06049151329574061)], [np.float64(-0.38328796888982225), np.float64(-0.13119840480214756), np.float64(-0.4627739130480235), np.float64(0.5484035294210184)]]]</t>
+          <t>[[[np.float64(0.627977596843196), np.float64(0.5189083277803381)], [np.float64(0.14610062378607822), np.float64(0.12106678345742761)], [np.float64(0.8320919062438661), np.float64(0.41948381064910545)], [np.float64(0.046992212628336215), np.float64(0.12108804245045439)]], [[np.float64(0.1629154424239132), np.float64(0.6576215038840524), np.float64(0.29409019836678063), np.float64(0.4175439869882098)], [np.float64(0.48177606127759365), np.float64(0.09500997576163406), np.float64(0.34980668262029657), np.float64(0.6745251951102279)]]]</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[[0.9550767857909258, np.float64(0.32074066707231863)], [0.7673971649114534, 0.9013473705040487, 0.28253459963877914, np.float64(0.2618246712379413)]]</t>
+          <t>[[0.4034026069447605, np.float64(-0.11123822327581073)], [0.6850118258428942, 0.3493172993442225, 0.8575739259180518, np.float64(-0.2597991221945909)]]</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>[np.float64(0.8513342237234448), np.float64(0.9603165115458941), np.float64(0.9013279686510243), np.float64(0.33696196337788875)]</t>
+          <t>[np.float64(0.12767467368029592), np.float64(0.6285896324400428), np.float64(0.05402405625161298), np.float64(0.8206888953491822)]</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>0.5025963850664213</v>
+        <v>0.5841283395723003</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>[np.float64(0.03800551207759078), np.float64(0.03796834721718704), np.float64(0.03793111104222559), np.float64(0.037893803887733946), np.float64(0.037856426092543624), np.float64(0.03781897799928921), np.float64(0.037781459954403455), np.float64(0.0377438723081112), np.float64(0.0377062154144182), np.float64(0.037668489631116193), np.float64(0.03763069531976151), np.float64(0.0375928328456751), np.float64(0.0375549025779297), np.float64(0.03751690488935577), np.float64(0.0374788401565097), np.float64(0.03744070875968437), np.float64(0.03740251108288891), np.float64(0.037364247513840244), np.float64(0.03732591844394996), np.float64(0.03728752426832117), np.float64(0.037249065385729474), np.float64(0.037210542198610516), np.float64(0.03717195511305632), np.float64(0.03713330453878903), np.float64(0.03709459088915578), np.float64(0.0370558145811132), np.float64(0.037016976035212486), np.float64(0.03697807567558915), np.float64(0.03693911392994048), np.float64(0.03690009122950815), np.float64(0.036861008009074936), np.float64(0.03682186470693233), np.float64(0.03678266176487681), np.float64(0.03674339962817601), np.float64(0.036704078745572105), np.float64(0.03666469956924289), np.float64(0.03662526255479213), np.float64(0.03658576816123964), np.float64(0.03654621685097587), np.float64(0.036506609089766086), np.float64(0.0364669453467151), np.float64(0.03642722609425555), np.float64(0.0363874518081162), np.float64(0.03634762296731153), np.float64(0.036307740054106294), np.float64(0.03626780355399922), np.float64(0.036227813955703465), np.float64(0.036187771751109474), np.float64(0.036147677435275805), np.float64(0.036107531506394376), np.float64(0.03606733446576704), np.float64(0.03602708681777804), np.float64(0.035986789069875985), np.float64(0.03594644173253663), np.float64(0.03590604531924211), np.float64(0.035865600346452524), np.float64(0.035825107333575384), np.float64(0.035784566802935125), np.float64(0.03574397927975645), np.float64(0.03570334529211866), np.float64(0.035662665370938706), np.float64(0.03562194004993033), np.float64(0.035581169865582046), np.float64(0.03554035535712849), np.float64(0.03549949706650638), np.float64(0.03545859553833429), np.float64(0.035417651319869785), np.float64(0.03537666496099325), np.float64(0.03533563701416097), np.float64(0.03529456803437662), np.float64(0.03525345857915255), np.float64(0.035212309208483575), np.float64(0.0351711204848097), np.float64(0.035129892972980074), np.float64(0.035088627240218516), np.float64(0.03504732385608572), np.float64(0.03500598339244496), np.float64(0.03496460642342927), np.float64(0.03492319352539649), np.float64(0.034881745276902035), np.float64(0.03484026225865485), np.float64(0.03479874505348439), np.float64(0.03475719424629481), np.float64(0.03471561042403484), np.float64(0.03467399417565687), np.float64(0.03463234609207493), np.float64(0.03459066676613103), np.float64(0.034548956792548755), np.float64(0.03450721676790028), np.float64(0.03446544729055965), np.float64(0.03442364896067022), np.float64(0.03438182238009167), np.float64(0.03433996815237826), np.float64(0.03429808688271815), np.float64(0.03425617917789897), np.float64(0.034214245646273025), np.float64(0.034172286897703484), np.float64(0.03413030354353469), np.float64(0.03408829619653204), np.float64(0.03404626547086099), np.float64(0.03400421198203376), np.float64(0.0339621363468582), np.float64(0.03392003918340484), np.float64(0.03387792111096596), np.float64(0.03383578274999944), np.float64(0.033793624722093116), np.float64(0.033751447649922724), np.float64(0.03370925215720478), np.float64(0.0336670388686494), np.float64(0.03362480840992062), np.float64(0.03358256140758557), np.float64(0.03354029848908211), np.float64(0.03349802028265552), np.float64(0.03345572741732631), np.float64(0.033413420522841845), np.float64(0.033371100229631315), np.float64(0.03332876716876099), np.float64(0.033286421971883765), np.float64(0.033244065271200295), np.float64(0.033201697699410504), np.float64(0.03315931988966731), np.float64(0.03311693247552571), np.float64(0.03307453609090936), np.float64(0.03303213137005148), np.float64(0.032989718947459695), np.float64(0.032947299457863614), np.float64(0.032904873536165336), np.float64(0.03286244181740341), np.float64(0.03282000493670271), np.float64(0.032777563529220684), np.float64(0.03273511823010818), np.float64(0.03269266967446782), np.float64(0.032650218497302354), np.float64(0.032607765333466536), np.float64(0.03256531081761961), np.float64(0.032522855584191164), np.float64(0.03248040026732071), np.float64(0.03243794550081964), np.float64(0.032395491918128884), np.float64(0.032353040152262695), np.float64(0.03231059083576903), np.float64(0.032268144600690246), np.float64(0.03222570207850152), np.float64(0.032183263900078966), np.float64(0.032140830695649734), np.float64(0.032098403094750504), np.float64(0.032055981726175985), np.float64(0.032013567217932734), np.float64(0.0319711601972108), np.float64(0.031928761290320386), np.float64(0.031886371122645696), np.float64(0.031843990318619585), np.float64(0.0318016195016709), np.float64(0.0317592592941741), np.float64(0.03171691031740549), np.float64(0.031674573191513886), np.float64(0.03163224853546225), np.float64(0.031589936966984165), np.float64(0.031547639102557354), np.float64(0.03150535555734323), np.float64(0.03146308694515012), np.float64(0.0314208338783934), np.float64(0.03137859696805216), np.float64(0.03133637682363048), np.float64(0.03129417405310589), np.float64(0.0312519892628977), np.float64(0.031209823057824822), np.float64(0.031167676041058346), np.float64(0.031125548814092643), np.float64(0.031083441976692078), np.float64(0.031041356126857288), np.float64(0.030999291860791426), np.float64(0.030957249772846748), np.float64(0.03091523045550108), np.float64(0.03087323449930409), np.float64(0.0308312624928534), np.float64(0.030789315022747055), np.float64(0.030747392673545544), np.float64(0.030705496027743844), np.float64(0.03066362566572102), np.float64(0.030621782165712836), np.float64(0.03057996610377025), np.float64(0.030538178053729468), np.float64(0.03049641858717084), np.float64(0.030454688273387022), np.float64(0.030412987679341474), np.float64(0.030371317369642898), np.float64(0.030329677906504652), np.float64(0.030288069849710973), np.float64(0.030246493756594012), np.float64(0.030204950181984904), np.float64(0.03016343967818976), np.float64(0.030121962794959337), np.float64(0.03008052007944979), np.float64(0.030039112076199224), np.float64(0.029997739327094396), np.float64(0.029956402371332215), np.float64(0.029915101745401747), np.float64(0.029873837983046322), np.float64(0.029832611615242057)]</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -3278,25 +3613,30 @@
         <v>100</v>
       </c>
       <c r="F68" t="n">
-        <v>0.01629046288516906</v>
+        <v>0.01892451673093442</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.40286124805184337), np.float64(0.9785924549629845)], [np.float64(0.8978863987351046), np.float64(1.1535629745024263)], [np.float64(0.5435939755637893), np.float64(1.153837127631981)], [np.float64(0.5744508479752579), np.float64(0.27108253497730217)]], [[np.float64(-0.8422926444497215), np.float64(-0.25451946625049654), np.float64(-0.978708441857534), np.float64(0.09548205143330597)], [np.float64(-1.179087065406866), np.float64(-0.0003970094035457297), np.float64(-1.7234334370504196), np.float64(-0.3497985459124705)]]]</t>
+          <t>[[[np.float64(1.283719252309047), np.float64(1.163991046094357)], [np.float64(0.5237093845913793), np.float64(0.6370400179871167)], [np.float64(0.7519783087204648), np.float64(0.9688211965458654)], [np.float64(0.9660098476336207), np.float64(0.9335106559159521)]], [[np.float64(-1.7913405864935845), np.float64(-1.358144211722843), np.float64(-0.24346600931079057), np.float64(-1.657161165984197)], [np.float64(-1.8913684664572732), np.float64(-0.9439942185536649), np.float64(0.27398047922706437), np.float64(-1.1881600289956307)]]]</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>[[0.04608512130490228, np.float64(0.9601584168780026)], [0.17694459409096297, 0.6437197038418524, 0.8539801467348, np.float64(-0.7899232420088451)]]</t>
+          <t>[[0.8385041894626469, np.float64(1.1151636321043907)], [0.16653062491842952, 0.7402385887393881, 0.9738584824352366, np.float64(-1.7044175029466968)]]</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>[np.float64(0.599705165856679), np.float64(0.20921860326574848), np.float64(0.9238027059200116), np.float64(0.43859156841450425)]</t>
+          <t>[np.float64(0.9813974100483074), np.float64(0.611348468848288), np.float64(0.2762386400256456), np.float64(0.7005651600351853)]</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>0.7444927853068185</v>
+        <v>0.9882220232200211</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>[np.float64(0.07509751213845405), np.float64(0.0745544622289231), np.float64(0.07397625837521801), np.float64(0.07336182580411826), np.float64(0.07271025898220178), np.float64(0.07202085542307345), np.float64(0.071293149848646), np.float64(0.07052694753195507), np.float64(0.0697223554471498), np.float64(0.06887980970373628), np.float64(0.06800009767454743), np.float64(0.06708437326565656), np.float64(0.06613416393958417), np.float64(0.06515136839709056), np.float64(0.064138244238568), np.float64(0.06309738543781782), np.float64(0.06203169002730211), np.float64(0.060944318962619475), np.float64(0.05983864764859344), np.float64(0.05871821201831281), np.float64(0.05758665132043582), np.float64(0.056447649868219575), np.float64(0.055304879935889076), np.float64(0.05416194777348236), np.float64(0.053022344384286574), np.float64(0.051889402312004), np.float64(0.05076625926134283), np.float64(0.049655828965179595), np.float64(0.04856077934352572), np.float64(0.047483517694157554), np.float64(0.046426182420618176), np.float64(0.045390640640665954), np.float64(0.04437849092089614), np.float64(0.04339107034118317), np.float64(0.042429465093942915), np.float64(0.04149452385692037), np.float64(0.04058687323365839), np.float64(0.03970693462479403), np.float64(0.038854941969028584), np.float64(0.03803095987036728), np.float64(0.03723490170449914), np.float64(0.036466547369512506), np.float64(0.03572556041352124), np.float64(0.03501150433271252), np.float64(0.03432385788801141), np.float64(0.033662029336451516), np.float64(0.03302536951447022), np.float64(0.032413183745458415), np.float64(0.03182474257263507), np.float64(0.031259291341627804), np.float64(0.030716058675403494), np.float64(0.03019426389772666), np.float64(0.0296931234711669), np.float64(0.029211856521738896), np.float64(0.028749689525752953), np.float64(0.028305860235408542), np.float64(0.027879620918827796), np.float64(0.02747024098780752), np.float64(0.02707700908323945), np.float64(0.026699234683862847), np.float64(0.026336249299461715), np.float64(0.025987407304549785), np.float64(0.02565208646363571), np.float64(0.025329688194169288), np.float64(0.025019637608450846), np.float64(0.024721383371174944), np.float64(0.024434397405028195), np.float64(0.024158174472721942), np.float64(0.023892231660190177), np.float64(0.02363610778244138), np.float64(0.023389362730408304), np.float64(0.02315157677461094), np.float64(0.022922349838980675), np.float64(0.02270130075611762), np.float64(0.022488066513397943), np.float64(0.022282301497757277), np.float64(0.022083676745547263), np.float64(0.021891879202671757), np.float64(0.021706610999169606), np.float64(0.02152758874149501), np.float64(0.021354542825039815), np.float64(0.02118721676871736), np.float64(0.021025366572990114), np.float64(0.020868760102174727), np.float64(0.02071717649156682), np.float64(0.020570405579540714), np.float64(0.020428247364581265), np.float64(0.020290511486987184), np.float64(0.020157016734804765), np.float64(0.020027590573445254), np.float64(0.019902068698323453), np.float64(0.01978029460979363), np.float64(0.019662119209596474), np.float64(0.01954740041799613), np.float64(0.019436002810782844), np.float64(0.019327797275269083), np.float64(0.01922266068445807), np.float64(0.01912047558849376), np.float64(0.019021129922647293), np.float64(0.018924516730934423)]</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -3320,25 +3660,30 @@
         <v>200</v>
       </c>
       <c r="F69" t="n">
-        <v>0.01237536003575892</v>
+        <v>0.01331450749626101</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.44668852874385595), np.float64(0.3068970423548701)], [np.float64(0.33643171206359773), np.float64(0.464689453434416)], [np.float64(0.6137273297333039), np.float64(0.851356920579386)], [np.float64(0.9822390188043874), np.float64(0.954725976304272)]], [[np.float64(0.9166759819861335), np.float64(-0.13070282684244441), np.float64(0.47111520298828186), np.float64(-0.051470146616941374)], [np.float64(0.5939964974017578), np.float64(-0.14055263870854814), np.float64(0.17729049053003898), np.float64(0.36326237810435313)]]]</t>
+          <t>[[[np.float64(0.31866950778722614), np.float64(0.9328884286713534)], [np.float64(0.5804404388930294), np.float64(0.11856023956209223)], [np.float64(1.026697499146164), np.float64(0.42448730514785676)], [np.float64(0.6509092233521477), np.float64(0.8296911085537204)]], [[np.float64(-0.001839806512163642), np.float64(-1.378774856438443), np.float64(-1.1227244349539733), np.float64(-0.8766894199803621)], [np.float64(0.6599812580315788), np.float64(-0.8998197792043681), np.float64(-0.907861857807712), np.float64(-0.8899071676503186)]]]</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[[0.7854211131696204, np.float64(0.49618922562524603)], [0.1810474488034829, 0.7476737248427676, 0.0727044159090765, np.float64(-0.20914306818661066)]]</t>
+          <t>[[0.8905112771314394, np.float64(0.8480035824440545)], [0.8554713970358234, 0.20737636641073576, 0.5372520884087658, np.float64(-0.2645362204755272)]]</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>[np.float64(0.11816658342397701), np.float64(0.4630547684878632), np.float64(0.31782639939038004), np.float64(0.9115796465389567)]</t>
+          <t>[np.float64(0.00789625607500835), np.float64(0.8154051849552716), np.float64(0.7340149634113508), np.float64(0.5173013105265708)]</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>0.0266687920579168</v>
+        <v>0.7597998047016181</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>[np.float64(0.053475059725235884), np.float64(0.052847710192599304), np.float64(0.052207956051117305), np.float64(0.0515564369439391), np.float64(0.05089383851676054), np.float64(0.050220890540647316), np.float64(0.04953836478145157), np.float64(0.048847072611067695), np.float64(0.048147862354893274), np.float64(0.047441616369790766), np.float64(0.0467292478478462), np.float64(0.046011697343131694), np.float64(0.045289929021953765), np.float64(0.04456492664140477), np.float64(0.043837689266579716), np.float64(0.04310922674329967), np.float64(0.042380554950375605), np.float64(0.04165269086322277), np.float64(0.040926647468399045), np.float64(0.04020342857621116), np.float64(0.03948402358550011), np.float64(0.038769402260540674), np.float64(0.038060509584542324), np.float64(0.03735826075706219), np.float64(0.03666353640356899), np.float64(0.035977178064299224), np.float64(0.035299984026394046), np.float64(0.034632705558113125), np.float64(0.03397604359695803), np.float64(0.03333064593491128), np.float64(0.03269710493413661), np.float64(0.03207595579581155), np.float64(0.031467675393446505), np.float64(0.03087268167083252), np.float64(0.030291333593811972), np.float64(0.02972393163479456), np.float64(0.029170718759738347), np.float64(0.028631881879396266), np.float64(0.028107553720090418), np.float64(0.027597815064338272), np.float64(0.027102697308331095), np.float64(0.026622185281495188), np.float64(0.02615622027289939), np.float64(0.025704703210498794), np.float64(0.025267497941187617), np.float64(0.024844434562847385), np.float64(0.024435312763484224), np.float64(0.024039905126991928), np.float64(0.023657960369879084), np.float64(0.02328920647836424), np.float64(0.022933353720213528), np.float64(0.022590097510669392), np.float64(0.022259121116486758), np.float64(0.02194009818644351), np.float64(0.021632695100751977), np.float64(0.02133657313539962), np.float64(0.021051390440491324), np.float64(0.02077680383452054), np.float64(0.020512470418674076), np.float64(0.020258049017182093), np.float64(0.020013201451162577), np.float64(0.019777593654578395), np.float64(0.01955089664168455), np.float64(0.019332787335907355), np.float64(0.01912294927033212), np.float64(0.018921073170070062), np.float64(0.018726857426728173), np.float64(0.01854000847486268), np.float64(0.01836024108007974), np.float64(0.018187278547879642), np.float64(0.018020852862014252), np.float64(0.017860704760435032), np.float64(0.017706583756489813), np.float64(0.017558248112331375), np.float64(0.0174154647710806), np.float64(0.017278009253620396), np.float64(0.017145665525370928), np.float64(0.017018225837970587), np.float64(0.01689549055017359), np.float64(0.016777267931907588), np.float64(0.01666337395496824), np.float64(0.016553632073440277), np.float64(0.016447872996536547), np.float64(0.016345934456246023), np.float64(0.01624766097188887), np.float64(0.01615290361332998), np.float64(0.016061519764416617), np.float64(0.015973372887934923), np.float64(0.015888332293232436), np.float64(0.015806272907402476), np.float64(0.015727075050811674), np.float64(0.015650624217606872), np.float64(0.015576810861691204), np.float64(0.015505530188586717), np.float64(0.015436681953451421), np.float64(0.015370170265488812), np.float64(0.015305903398875338), np.float64(0.015243793610311862), np.float64(0.015183756963192224), np.float64(0.015125713158420085), np.float64(0.01506958537175762), np.float64(0.015015300097688753), np.float64(0.014962786999623024), np.float64(0.014911978766360192), np.float64(0.014862810974617216), np.float64(0.01481522195749736), np.float64(0.01476915267868869), np.float64(0.014724546612257017), np.float64(0.014681349627783181), np.float64(0.014639509880719551), np.float64(0.014598977707739552), np.float64(0.014559705526887838), np.float64(0.01452164774236207), np.float64(0.014484760653721066), np.float64(0.014449002369340698), np.float64(0.014414332723933877), np.float64(0.014380713199968052), np.float64(0.014348106852800819), np.float64(0.014316478239360572), np.float64(0.014285793350242168), np.float64(0.014256019545002675), np.float64(0.01422712549056625), np.float64(0.014199081102575867), np.float64(0.014171857489535372), np.float64(0.014145426899621278), np.float64(0.014119762670040508), np.float64(0.014094839178803824), np.float64(0.01407063179880887), np.float64(0.014047116854099576), np.float64(0.014024271578220936), np.float64(0.014002074074554987), np.float64(0.013980503278525768), np.float64(0.013959538921615151), np.float64(0.013939161497068493), np.float64(0.013919352227228047), np.float64(0.013900093032389036), np.float64(0.01388136650114771), np.float64(0.013863155862104471), np.float64(0.013845444956915172), np.float64(0.013828218214591254), np.float64(0.01381146062698995), np.float64(0.013795157725435383), np.float64(0.013779295558433997), np.float64(0.013763860670405487), np.float64(0.013748840081390606), np.float64(0.013734221267675512), np.float64(0.01371999214332602), np.float64(0.0137061410425251), np.float64(0.013692656702738617), np.float64(0.013679528248614202), np.float64(0.01366674517662382), np.float64(0.013654297340376811), np.float64(0.013642174936588997), np.float64(0.013630368491678329), np.float64(0.013618868848955072), np.float64(0.013607667156356642), np.float64(0.013596754854739709), np.float64(0.01358612366667484), np.float64(0.013575765585718168), np.float64(0.013565672866157728), np.float64(0.01355583801319799), np.float64(0.013546253773565864), np.float64(0.013536913126502462), np.float64(0.013527809275164577), np.float64(0.013518935638357094), np.float64(0.013510285842639249), np.float64(0.013501853714746818), np.float64(0.013493633274328232), np.float64(0.013485618726995276), np.float64(0.013477804457644422), np.float64(0.013470185024058216), np.float64(0.013462755150777788), np.float64(0.01345550972320204), np.float64(0.013448443781948548), np.float64(0.013441552517425912), np.float64(0.013434831264633858), np.float64(0.013428275498162535), np.float64(0.013421880827390974), np.float64(0.013415642991880056), np.float64(0.013409557856945944), np.float64(0.013403621409396797), np.float64(0.01339782975344989), np.float64(0.013392179106794341), np.float64(0.013386665796809605), np.float64(0.013381286256932018), np.float64(0.01337603702315867), np.float64(0.013370914730672983), np.float64(0.013365916110616452), np.float64(0.013361037986967682), np.float64(0.013356277273542015), np.float64(0.013351630971101475), np.float64(0.013347096164574869), np.float64(0.01334267002037668), np.float64(0.01333834978382423), np.float64(0.013334132776653464), np.float64(0.013330016394612385), np.float64(0.013325998105160008), np.float64(0.013322075445232258), np.float64(0.01331824601909271), np.float64(0.013314507496261006)]</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -3362,25 +3707,30 @@
         <v>100</v>
       </c>
       <c r="F70" t="n">
-        <v>0.01252577789196986</v>
+        <v>0.01367313027190764</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.1867047221582779), np.float64(0.7095007359973248)], [np.float64(0.15209389315479108), np.float64(0.9701288775703316)], [np.float64(-0.3874259496565411), np.float64(0.7947430422881566)], [np.float64(-0.005148414927894121), np.float64(0.1285917525368561)]], [[np.float64(0.21609144351429183), np.float64(0.5321486521303351), np.float64(0.17933655818222882), np.float64(0.0391210254156097)], [np.float64(0.07532935595524314), np.float64(-0.1502760569284029), np.float64(0.7054676348893464), np.float64(-1.023934937723374)]]]</t>
+          <t>[[[np.float64(0.4990051179565699), np.float64(0.8082993812421968)], [np.float64(0.9357326050506394), np.float64(0.9330059247701754)], [np.float64(0.7192990853124378), np.float64(0.6011944717097576)], [np.float64(0.9452148433320411), np.float64(0.9636509769961354)]], [[np.float64(-0.5010814416720082), np.float64(0.8706819570239689), np.float64(0.13160919293235415), np.float64(0.11746177550712122)], [np.float64(-0.44056985726838693), np.float64(0.7142061601392189), np.float64(0.20449038395772068), np.float64(0.24944680764671878)]]]</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[[0.901027146659361, np.float64(0.7229060026849742)], [0.26072345787972706, 0.5829491103002455, 0.7586365238593463, np.float64(-0.5278718761643723)]]</t>
+          <t>[[0.19421399915376536, np.float64(0.6590762411590433)], [0.2793593425402403, 0.393523561279006, 0.5366845578054041, np.float64(0.6632607938996908)]]</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>[np.float64(0.7646521276925138), np.float64(0.4411208432232293), np.float64(0.2042385546808485), np.float64(0.8857430424474222)]</t>
+          <t>[np.float64(0.7447688168007809), np.float64(0.1579447487372872), np.float64(0.8800955214661067), np.float64(0.03318000037809203)]</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>0.9443565849958722</v>
+        <v>0.5975095264263062</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>[np.float64(0.0778379614599044), np.float64(0.07649512770749183), np.float64(0.07494064605091362), np.float64(0.07314146668943437), np.float64(0.07106423356418969), np.float64(0.06867928501051868), np.float64(0.06596674567489072), np.float64(0.06292432229269386), np.float64(0.059575158624090074), np.float64(0.055972756799509533), np.float64(0.052199685830970906), np.float64(0.04835865869316592), np.float64(0.04455808362557375), np.float64(0.0408969841670787), np.float64(0.03745406365596536), np.float64(0.034283033033740286), np.float64(0.03141340898548931), np.float64(0.028854545916576952), np.float64(0.026600750688192024), np.float64(0.024636114841070852), np.float64(0.022938474594996285), np.float64(0.021482399861603798), np.float64(0.02024133531706755), np.float64(0.019189074127418507), np.float64(0.01830072937785051), np.float64(0.017553332774991257), np.float64(0.016926157688713528), np.float64(0.016400840004812674), np.float64(0.015961354317758573), np.float64(0.01559389171799371), np.float64(0.015286676422907125), np.float64(0.015029750507802276), np.float64(0.01481474865874904), np.float64(0.014634678310619199), np.float64(0.014483714979235292), np.float64(0.01435701819247748), np.float64(0.014250570174604031), np.float64(0.014161037222051543), np.float64(0.0140856523394346), np.float64(0.014022116973725374), np.float64(0.013968519399538554), np.float64(0.013923267310779764), np.float64(0.013885032342761339), np.float64(0.013852704500030158), np.float64(0.013825354743733193), np.float64(0.013802204265056727), np.float64(0.013782599220408497), np.float64(0.013765989922034372), np.float64(0.013751913662953223), np.float64(0.013739980509278398), np.float64(0.013729861519388577), np.float64(0.013721278952476554), np.float64(0.013713998111730083), np.float64(0.013707820534722052), np.float64(0.013702578296827937), np.float64(0.013698129236980891), np.float64(0.013694352949691138), np.float64(0.01369114741532712), np.float64(0.013688426163072729), np.float64(0.013686115879685011), np.float64(0.013684154391749926), np.float64(0.013682488961664279), np.float64(0.013681074847342737), np.float64(0.013679874084072103), np.float64(0.013678854453565103), np.float64(0.01367798861099263), np.float64(0.013677253345598403), np.float64(0.013676628954019311), np.float64(0.013676098709110001), np.float64(0.013675648409514175), np.float64(0.013675265997664164), np.float64(0.013674941235696694), np.float64(0.013674665430530565), np.float64(0.013674431200509913), np.float64(0.013674232277438069), np.float64(0.013674063338453125), np.float64(0.013673919863413526), np.float64(0.013673798013730419), np.float64(0.01367369452962221), np.float64(0.013673606642743112), np.float64(0.013673532002100898), np.float64(0.013673468611118459), np.float64(0.013673414774198629), np.float64(0.013673369051321264), np.float64(0.013673330219526906), np.float64(0.013673297240207487), np.float64(0.013673269231300094), np.float64(0.013673245443680739), np.float64(0.013673225241127428), np.float64(0.013673208083324444), np.float64(0.013673193511391938), np.float64(0.013673181135597963), np.float64(0.013673170624971616), np.float64(0.01367316169839966), np.float64(0.013673154117154898), np.float64(0.013673147678475528), np.float64(0.01367314221016783), np.float64(0.013673137565986732), np.float64(0.013673133621725219), np.float64(0.013673130271907637)]</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -3404,25 +3754,30 @@
         <v>200</v>
       </c>
       <c r="F71" t="n">
-        <v>0.01627919126913094</v>
+        <v>0.01274551076658803</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.1821944740220838), np.float64(0.7854532441941542)], [np.float64(0.5757880479512185), np.float64(0.49518484662146156)], [np.float64(0.9434842464606191), np.float64(0.30166917287479)], [np.float64(0.13496405798602468), np.float64(0.5024069269622116)]], [[np.float64(0.32789232113655753), np.float64(-0.9549342581519159), np.float64(-0.4310827336125375), np.float64(0.18971462724716504)], [np.float64(0.22511058564861625), np.float64(-0.675951044158879), np.float64(0.36466888527928526), np.float64(0.6307514767709143)]]]</t>
+          <t>[[[np.float64(0.3223932497045242), np.float64(0.3604496401915608)], [np.float64(0.27417236347977564), np.float64(-0.02556162417066573)], [np.float64(0.9881138295064207), np.float64(-0.04608544845111172)], [np.float64(0.6178721426326127), np.float64(0.45130068247969146)]], [[np.float64(-0.31600736619593095), np.float64(0.33486636522447955), np.float64(-0.4347251408636319), np.float64(-0.6434682995603727)], [np.float64(0.2697875983199851), np.float64(0.3056242762544913), np.float64(0.034892191500843606), np.float64(-0.05488369037915057)]]]</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>[[0.501429124739467, np.float64(-0.011802386500813007)], [0.5872169754689452, 0.795200887044148, 0.7117089920481752, np.float64(0.2418884421706192)]]</t>
+          <t>[[0.9082520503603531, np.float64(0.43237751895688936)], [0.9533877510050364, 0.9285474243878429, 0.024263851436489015, np.float64(0.036717871653866)]]</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>[np.float64(0.5679463454100468), np.float64(0.815157218334983), np.float64(0.38702373371118515), np.float64(0.09366412993567916)]</t>
+          <t>[np.float64(0.8541059040197014), np.float64(0.4678067858759359), np.float64(0.47598146710474953), np.float64(0.8211643795705417)]</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>0.7108216271394066</v>
+        <v>0.5973756521878809</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>[np.float64(0.09308765918188823), np.float64(0.09272202739608941), np.float64(0.09228531088256055), np.float64(0.09175917080997689), np.float64(0.09111933145111825), np.float64(0.09033329732139583), np.float64(0.08935712604325434), np.float64(0.0881309548260356), np.float64(0.08657310751008328), np.float64(0.08457323447813743), np.float64(0.08198680014953064), np.float64(0.07863752809643972), np.float64(0.07434156475709083), np.float64(0.06897169229438355), np.float64(0.06256305135502459), np.float64(0.05540566882406831), np.float64(0.04802133773894027), np.float64(0.04099382537340384), np.float64(0.034770977793178115), np.float64(0.029573393458990436), np.float64(0.02542085987443896), np.float64(0.02220877947636382), np.float64(0.019779372386357366), np.float64(0.017968542324900652), np.float64(0.016629976265503273), np.float64(0.015643897217215368), np.float64(0.01491730850920386), np.float64(0.014380412790120048), np.float64(0.01398192022980964), np.float64(0.013684587692013823), np.float64(0.013461508780975568), np.float64(0.013293245863566866), np.float64(0.013165707851260516), np.float64(0.013068620556041837), np.float64(0.01299444014407425), np.float64(0.012937586172181777), np.float64(0.012893900346818081), np.float64(0.012860263023922867), np.float64(0.012834319584712843), np.float64(0.012814283509087936), np.float64(0.012798793306097043), np.float64(0.01278680758460644), np.float64(0.012777527403636938), np.float64(0.012770338339863251), np.float64(0.012764766954779131), np.float64(0.01276044788080147), np.float64(0.012757098807506943), np.float64(0.012754501390614775), np.float64(0.012752486630830237), np.float64(0.012750923644664298), np.float64(0.012749711020955432), np.float64(0.0127487701558871), np.float64(0.012748040106537654), np.float64(0.012747473612410009), np.float64(0.01274703401732043), np.float64(0.012746692886231254), np.float64(0.01274642815916903), np.float64(0.01274622272057382), np.float64(0.012746063290243387), np.float64(0.012745939563444032), np.float64(0.012745843543863388), np.float64(0.012745769026378475), np.float64(0.012745711195678864), np.float64(0.012745666314910746), np.float64(0.012745631484134663), np.float64(0.012745604452837504), np.float64(0.012745583474484467), np.float64(0.01274556719366411), np.float64(0.012745554558478086), np.float64(0.012745544752577718), np.float64(0.012745537142422143), np.float64(0.01274553123634908), np.float64(0.012745526652767954), np.float64(0.012745523095527431), np.float64(0.012745520334835761), np.float64(0.012745518192312816), np.float64(0.012745516529543437), np.float64(0.01274551523910398), np.float64(0.012745514237620215), np.float64(0.012745513460385337), np.float64(0.012745512857192626), np.float64(0.012745512389067792), np.float64(0.01274551202575535), np.float64(0.012745511743804207), np.float64(0.012745511524980086), np.float64(0.012745511355158843), np.float64(0.012745511223360447), np.float64(0.012745511121074025), np.float64(0.012745511041691533), np.float64(0.01274551098009157), np.float64(0.012745510932281403), np.float64(0.012745510895174408), np.float64(0.012745510866377216), np.float64(0.01274551084403414), np.float64(0.012745510826689618), np.float64(0.012745510813229964), np.float64(0.012745510802779754), np.float64(0.012745510794677993), np.float64(0.012745510788392698), np.float64(0.012745510783511242), np.float64(0.012745510779722226), np.float64(0.01274551077678067), np.float64(0.012745510774507014), np.float64(0.01274551077273836), np.float64(0.012745510771363797), np.float64(0.012745510770294712), np.float64(0.012745510769458478), np.float64(0.012745510768816576), np.float64(0.012745510768315564), np.float64(0.012745510767923688), np.float64(0.012745510767626034), np.float64(0.012745510767390797), np.float64(0.012745510767213553), np.float64(0.012745510767065975), np.float64(0.0127455107669527), np.float64(0.012745510766873297), np.float64(0.01274551076680924), np.float64(0.012745510766757227), np.float64(0.012745510766714912), np.float64(0.012745510766677683), np.float64(0.012745510766660003), np.float64(0.012745510766648016), np.float64(0.01274551076664251), np.float64(0.01274551076663703), np.float64(0.012745510766631494), np.float64(0.012745510766627397), np.float64(0.012745510766623608), np.float64(0.012745510766619849), np.float64(0.012745510766615986), np.float64(0.01274551076661304), np.float64(0.01274551076661059), np.float64(0.012745510766608056), np.float64(0.012745510766605617), np.float64(0.012745510766603093), np.float64(0.012745510766601536), np.float64(0.012745510766599877), np.float64(0.012745510766598253), np.float64(0.012745510766596687), np.float64(0.012745510766595329), np.float64(0.01274551076659404), np.float64(0.012745510766592747), np.float64(0.012745510766591434), np.float64(0.012745510766590584), np.float64(0.012745510766589693), np.float64(0.012745510766588888), np.float64(0.012745510766588034), np.float64(0.012745510766588034), np.float64(0.012745510766588034), np.float64(0.012745510766588034)]</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -3446,25 +3801,30 @@
         <v>100</v>
       </c>
       <c r="F72" t="n">
-        <v>0.01003832586123639</v>
+        <v>0.01591488533353477</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.10398199941722898), np.float64(0.7907590303985446)], [np.float64(-0.12167559718015059), np.float64(0.2821862575664762)], [np.float64(0.006630589089714221), np.float64(0.3661472780167341)], [np.float64(0.040124703560861064), np.float64(0.4100027284063625)]], [[np.float64(0.4888151891834727), np.float64(0.006435437539785215), np.float64(0.7025677823387917), np.float64(-0.45261915733296937)], [np.float64(-0.08961202835651419), np.float64(0.38851397781287256), np.float64(0.35053340096225605), np.float64(-0.01893499261000647)]]]</t>
+          <t>[[[np.float64(0.53410070950288), np.float64(0.5304444049150532)], [np.float64(0.42966086493998085), np.float64(0.664556781199667)], [np.float64(0.36137485271960734), np.float64(0.7725552717949821)], [np.float64(0.19124047915575612), np.float64(0.012570207956128007)]], [[np.float64(-0.2599484112612047), np.float64(0.1372525290393027), np.float64(-0.5258153212984702), np.float64(0.6044435759105339)], [np.float64(0.49138862728693616), np.float64(-0.3046534826444136), np.float64(-0.8202601084676561), np.float64(0.24231597363740853)]]]</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>[[0.8735178611553214, np.float64(0.13309223742647322)], [0.4503832185147907, 0.24275742692447488, 0.06085055781382542, np.float64(-0.4422045295752886)]]</t>
+          <t>[[0.16823057073841097, np.float64(0.14624352122464218)], [0.38085340311378646, 0.8830781014113237, 0.4513467084492243, np.float64(0.10614934538813592)]]</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>[np.float64(0.9473878162513107), np.float64(0.5952365190208593), np.float64(0.1960157885247802), np.float64(0.677340582054277)]</t>
+          <t>[np.float64(0.40426678018523343), np.float64(0.6657879369146297), np.float64(0.9615974684763127), np.float64(0.057938442730154284)]</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>0.3786387753630009</v>
+        <v>0.8855958226228672</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>[np.float64(0.09321557993127544), np.float64(0.09111128732284823), np.float64(0.08388280820037478), np.float64(0.05355630118531446), np.float64(0.015914885333534766), np.float64(0.019070119057432708), np.float64(0.01664348657004896), np.float64(0.017946988893815338), np.float64(0.0170631721027139), np.float64(0.017583376468454787), np.float64(0.017248550373638916), np.float64(0.017452501630393493), np.float64(0.017323908217005548), np.float64(0.017403271637176615), np.float64(0.017353633364273546), np.float64(0.01738442354650723), np.float64(0.017365225791230024), np.float64(0.017377157260171264), np.float64(0.01736972697341377), np.float64(0.017374348411065315), np.float64(0.0173714717759512), np.float64(0.017373261488536594), np.float64(0.01737214767634369), np.float64(0.017372840718505516), np.float64(0.017372409440060983), np.float64(0.01737267780420292), np.float64(0.01737251080640671), np.float64(0.017372614722982432), np.float64(0.017372550058405857), np.float64(0.017372590297054662), np.float64(0.01737256525768244), np.float64(0.017372580838905926), np.float64(0.01737257114316839), np.float64(0.01737257717653891), np.float64(0.01737257342214189), np.float64(0.017372575758399986), np.float64(0.01737257430460977), np.float64(0.01737257520926288), np.float64(0.01737257464632692), np.float64(0.017372574996622453), np.float64(0.01737257477864141), np.float64(0.017372574914291113), np.float64(0.017372574829881072), np.float64(0.01737257488240657), np.float64(0.01737257484972056), np.float64(0.017372574870056282), np.float64(0.017372574857409385), np.float64(0.017372574865261427), np.float64(0.017372574860385303), np.float64(0.01737257486342622), np.float64(0.017372574861528337), np.float64(0.017372574862705527), np.float64(0.01737257486197648), np.float64(0.017372574862426857), np.float64(0.01737257486215012), np.float64(0.01737257486232071), np.float64(0.017372574862213247), np.float64(0.017372574862289252), np.float64(0.01737257486224528), np.float64(0.0173725748622515), np.float64(0.01737257486225292), np.float64(0.017372574862252934), np.float64(0.017372574862252944), np.float64(0.017372574862252962), np.float64(0.01737257486225298), np.float64(0.01737257486225299), np.float64(0.017372574862253007), np.float64(0.017372574862253017), np.float64(0.01737257486225302), np.float64(0.017372574862253038), np.float64(0.017372574862253038), np.float64(0.017372574862253055), np.float64(0.01737257486225307), np.float64(0.017372574862253073), np.float64(0.01737257486225308), np.float64(0.017372574862253083), np.float64(0.017372574862253104), np.float64(0.01737257486225313), np.float64(0.017372574862253146), np.float64(0.017372574862253146), np.float64(0.01737257486225316), np.float64(0.017372574862253163), np.float64(0.01737257486225319), np.float64(0.017372574862253194), np.float64(0.017372574862253198), np.float64(0.017372574862253205), np.float64(0.01737257486225322), np.float64(0.01737257486225323), np.float64(0.017372574862253243), np.float64(0.017372574862253253), np.float64(0.01737257486225326), np.float64(0.01737257486225327), np.float64(0.017372574862253277), np.float64(0.01737257486225329), np.float64(0.017372574862253305), np.float64(0.01737257486225332), np.float64(0.01737257486225332), np.float64(0.01737257486225333), np.float64(0.017372574862253343), np.float64(0.017372574862253357)]</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -3488,25 +3848,30 @@
         <v>200</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01304121480441121</v>
+        <v>0.01608924531768535</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.42157774532899545), np.float64(0.3190789400472895)], [np.float64(0.4397309410818585), np.float64(0.5313671059719524)], [np.float64(0.4787342467625856), np.float64(0.4173608508498894)], [np.float64(0.8057739789183685), np.float64(0.4966073471698355)]], [[np.float64(0.7010476109040388), np.float64(-0.27395260642969305), np.float64(0.012387479371250763), np.float64(0.6401593510454453)], [np.float64(0.3508468853008756), np.float64(-0.17015494747488946), np.float64(-0.1869170340921768), np.float64(0.211170139203829)]]]</t>
+          <t>[[[np.float64(0.6027155193030727), np.float64(-0.6537384594341181)], [np.float64(0.26617003328110544), np.float64(-0.28570135408919567)], [np.float64(-0.05143682546073655), np.float64(-0.45280003134783076)], [np.float64(0.015435270876403047), np.float64(0.10011669585404323)]], [[np.float64(-0.3751809363521038), np.float64(0.07717953255598729), np.float64(0.01995516832658873), np.float64(-0.0210316189559823)], [np.float64(0.8257524498616217), np.float64(0.18105373515827555), np.float64(0.0007373691232320204), np.float64(0.8504741813730652)]]]</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[[0.2525680760638376, np.float64(0.20900553693027796)], [0.625374939379115, 0.632451591124595, 0.3544106915765588, np.float64(0.5006446141112045)]]</t>
+          <t>[[0.5047579430211752, np.float64(-0.30832547212671746)], [0.7739862388954534, 0.18853125412665073, 0.9657160046086756, np.float64(-0.058255506158241745)]]</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>[np.float64(0.2018141290334399), np.float64(0.2748016705728668), np.float64(0.19920350113709434), np.float64(0.11031858434197032)]</t>
+          <t>[np.float64(0.5821858632321596), np.float64(0.24824907774967236), np.float64(0.5458489352464003), np.float64(0.3469563602813421)]</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>0.5855388459782611</v>
+        <v>0.8834728155069359</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>[np.float64(0.08981023785803038), np.float64(0.08872020854149744), np.float64(0.08663112050712211), np.float64(0.08206886944335243), np.float64(0.06951780641571816), np.float64(0.04013456070181016), np.float64(0.018088326334979702), np.float64(0.01608924531768535), np.float64(0.01658393128107683), np.float64(0.01641206216950661), np.float64(0.016466366418600734), np.float64(0.01644865478254135), np.float64(0.01645437315148159), np.float64(0.016452520820085362), np.float64(0.016453120199658375), np.float64(0.01645292618471595), np.float64(0.016452988978970302), np.float64(0.01645296865444189), np.float64(0.016452975232773778), np.float64(0.016452973103595954), np.float64(0.016452973792734582), np.float64(0.016452973569681967), np.float64(0.01645297364188108), np.float64(0.01645297361850427), np.float64(0.01645297362607947), np.float64(0.016452973623624394), np.float64(0.016452973624414176), np.float64(0.016452973624162197), np.float64(0.016452973624242574), np.float64(0.01645297362421448), np.float64(0.016452973624221785), np.float64(0.01645297362422183), np.float64(0.016452973624221885), np.float64(0.016452973624221927), np.float64(0.016452973624221972), np.float64(0.016452973624222017), np.float64(0.01645297362422205), np.float64(0.016452973624222086), np.float64(0.01645297362422212), np.float64(0.016452973624222163), np.float64(0.016452973624222197), np.float64(0.016452973624222218), np.float64(0.016452973624222256), np.float64(0.016452973624222277), np.float64(0.016452973624222295), np.float64(0.016452973624222312), np.float64(0.01645297362422233), np.float64(0.01645297362422234), np.float64(0.016452973624222364), np.float64(0.016452973624222378), np.float64(0.016452973624222395), np.float64(0.01645297362422241), np.float64(0.016452973624222423), np.float64(0.01645297362422243), np.float64(0.01645297362422244), np.float64(0.016452973624222447), np.float64(0.016452973624222444), np.float64(0.01645297362422244), np.float64(0.01645297362422245), np.float64(0.01645297362422245), np.float64(0.016452973624222454), np.float64(0.016452973624222458), np.float64(0.016452973624222468), np.float64(0.01645297362422246), np.float64(0.016452973624222458), np.float64(0.01645297362422246), np.float64(0.01645297362422246), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468), np.float64(0.016452973624222468)]</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -3530,25 +3895,30 @@
         <v>100</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2006763683996581</v>
+        <v>0.02094227717714574</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.7520810771245254), np.float64(-0.45638721663872905), np.float64(-0.23000739672507325)], [np.float64(-0.7441398808802934), np.float64(-0.943153037784828), np.float64(0.07284376264349846)], [np.float64(-0.12406614120215273), np.float64(-1.2888975981876296), np.float64(-0.1253798507718614)], [np.float64(-0.4233889520233084), np.float64(0.129010599104293), np.float64(0.0946367110074751)]], [[np.float64(-1.123883361036296), np.float64(-1.9925953114448385)], [np.float64(-2.0987086318466552), np.float64(-2.135399619530348)], [np.float64(-3.3436739416270966), np.float64(-3.208550092898569)]]]</t>
+          <t>[[[np.float64(-0.26717719311794974), np.float64(-0.5124977601569642), np.float64(0.689031849140932)], [np.float64(0.26938430829036847), np.float64(-0.3843706510693581), np.float64(0.1825450750185753)], [np.float64(0.6385552694450883), np.float64(-0.4002222160796368), np.float64(-0.19374650987720612)], [np.float64(0.03789415836677598), np.float64(0.17612993160029686), np.float64(0.5873393122724276)]], [[np.float64(-2.338564948667162), np.float64(0.09355743971704389)], [np.float64(-1.205103613175247), np.float64(0.22235766210298968)], [np.float64(-2.009553894979683), np.float64(-0.5713793283579882)]]]</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[[0.569956252163555, 0.5703822847281421, np.float64(-0.6070798102369287)], [0.2835669245263699, np.float64(-0.786176456508267)]]</t>
+          <t>[[0.7828224996228067, 0.5306700008526055, np.float64(0.1436873267530103)], [0.52827945190252, np.float64(0.3852264789001978)]]</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>[np.float64(0.5928768800767157), np.float64(0.7055699620001981)]</t>
+          <t>[np.float64(0.897563160364436), np.float64(0.25818442877694076)]</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>0.1011734126680779</v>
+        <v>0.7655593479123238</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>[np.float64(6.872330279982412), np.float64(0.03828979128888795), np.float64(0.03460805643256026), np.float64(0.0316891764268252), np.float64(0.02936347918873731), np.float64(0.027500092982378505), np.float64(0.025983486113791664), np.float64(0.024732514223583985), np.float64(0.023694207537881054), np.float64(0.022825802067838404), np.float64(0.02209561950070183), np.float64(0.021481569201113566), np.float64(0.020966504687019126), np.float64(0.020966224760516846), np.float64(0.02096594486784958), np.float64(0.020965665009012865), np.float64(0.020965385184002), np.float64(0.02096510539281248), np.float64(0.020964825635439808), np.float64(0.02096454591187936), np.float64(0.02096426622212668), np.float64(0.020963986566177185), np.float64(0.020963706944026196), np.float64(0.020963427355669303), np.float64(0.02096314780110198), np.float64(0.02096286828031954), np.float64(0.020962588793317617), np.float64(0.020962309340091616), np.float64(0.02096202992063681), np.float64(0.020961750534948944), np.float64(0.020961471183023203), np.float64(0.020961191864855348), np.float64(0.020960912580440562), np.float64(0.020960633329774485), np.float64(0.02096035411285247), np.float64(0.020960074929669947), np.float64(0.02095979578022263), np.float64(0.020959516664505642), np.float64(0.020959237582514736), np.float64(0.020958958534245155), np.float64(0.020958679519692484), np.float64(0.02095840053885215), np.float64(0.020958121591719604), np.float64(0.020957842678290393), np.float64(0.02095756379855997), np.float64(0.02095728495252372), np.float64(0.020957006140177127), np.float64(0.020956727361515732), np.float64(0.020956448616534937), np.float64(0.020956169905230238), np.float64(0.020955891227597202), np.float64(0.02095561258363115), np.float64(0.020955333973327623), np.float64(0.020955055396682135), np.float64(0.02095477685369001), np.float64(0.020954498344346893), np.float64(0.02095421986864818), np.float64(0.02095394142658946), np.float64(0.020953663018165973), np.float64(0.020953384643373475), np.float64(0.02095310630220725), np.float64(0.020952827994662797), np.float64(0.020952549720735625), np.float64(0.020952271480421263), np.float64(0.020951993273715153), np.float64(0.020951715100612767), np.float64(0.02095143696110958), np.float64(0.020951158855201206), np.float64(0.02095088078288299), np.float64(0.020950602744150348), np.float64(0.020950324738998796), np.float64(0.020950046767424152), np.float64(0.020949768829421442), np.float64(0.020949490924986526), np.float64(0.020949213054114516), np.float64(0.020948935216801304), np.float64(0.020948657413042002), np.float64(0.020948379642832374), np.float64(0.0209481019061678), np.float64(0.02094782420304379), np.float64(0.020947546533455926), np.float64(0.02094726889739945), np.float64(0.020946991294870144), np.float64(0.02094671372586329), np.float64(0.020946436190374493), np.float64(0.020946158688399278), np.float64(0.020945881219932978), np.float64(0.02094560378497133), np.float64(0.020945326383509637), np.float64(0.020945049015543487), np.float64(0.0209447716810684), np.float64(0.020944494380079823), np.float64(0.02094421711257323), np.float64(0.020943939878543982), np.float64(0.02094366267798808), np.float64(0.02094338551090048), np.float64(0.02094310837727692), np.float64(0.020942831277113005), np.float64(0.020942554210403995), np.float64(0.020942277177145745)]</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -3572,25 +3942,30 @@
         <v>200</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003916120507611017</v>
+        <v>0.01164185395671303</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.09897657817790959), np.float64(0.3392922139503844), np.float64(0.041679080517087186)], [np.float64(0.26868313834849267), np.float64(0.18843992276329183), np.float64(0.6883443288840119)], [np.float64(0.5566995547589593), np.float64(0.6872360940984801), np.float64(0.9287330415243927)], [np.float64(0.7287814266583279), np.float64(0.25144981616418655), np.float64(0.7829723701227914)]], [[np.float64(0.18667391843342435), np.float64(0.262931988272734)], [np.float64(0.7248805604316629), np.float64(0.5958897966394391)], [np.float64(0.8448162119748575), np.float64(0.9124714522304547)]]]</t>
+          <t>[[[np.float64(0.43087194410822016), np.float64(-0.06889529098204612), np.float64(0.08820687929235638)], [np.float64(0.5887535954053155), np.float64(-0.10376811064841335), np.float64(-0.039768909189188725)], [np.float64(0.3889988576871272), np.float64(-0.20766600678701383), np.float64(0.15763667357193353)], [np.float64(0.14502179456152972), np.float64(0.4504357435873529), np.float64(0.23925960060565346)]], [[np.float64(-0.7851135319810405), np.float64(-1.3440346270774326)], [np.float64(-0.37102538508234656), np.float64(-1.0497130842343778)], [np.float64(-0.0033553992473633193), np.float64(-1.3789636938286494)]]]</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[[0.7233914849187164, 0.828092262099397, np.float64(0.5841672047059845)], [0.44031211911350787, np.float64(0.5680963283761656)]]</t>
+          <t>[[0.40646497556703265, 0.712694340478564, np.float64(0.1617458286244592)], [0.7331183000089023, np.float64(-0.4247498003593618)]]</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>[np.float64(0.08146604998070178), np.float64(0.06299986309252084)]</t>
+          <t>[np.float64(0.327339843111364), np.float64(0.5803333322378772)]</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>0.2097343929618969</v>
+        <v>0.6742881565898001</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>[np.float64(6.991294229910866), np.float64(0.011735435388613496), np.float64(0.011734946870079184), np.float64(0.011734458515359756), np.float64(0.011733970324415746), np.float64(0.011733482297207906), np.float64(0.011732994433696745), np.float64(0.011732506733843075), np.float64(0.011732019197607371), np.float64(0.011731531824950325), np.float64(0.011731044615832782), np.float64(0.011730557570215336), np.float64(0.011730070688058718), np.float64(0.011729583969323559), np.float64(0.01172909741397062), np.float64(0.011728611021960508), np.float64(0.011728124793254103), np.float64(0.011727638727812165), np.float64(0.011727152825595298), np.float64(0.01172666708656434), np.float64(0.01172618151068003), np.float64(0.011725696097903101), np.float64(0.011725210848194442), np.float64(0.011724725761514811), np.float64(0.011724240837824928), np.float64(0.011723756077085623), np.float64(0.011723271479257762), np.float64(0.011722787044302189), np.float64(0.011722302772179616), np.float64(0.011721818662850991), np.float64(0.011721334716277104), np.float64(0.011720850932418847), np.float64(0.011720367311237077), np.float64(0.011719883852692656), np.float64(0.011719400556746456), np.float64(0.011718917423359426), np.float64(0.011718434452492328), np.float64(0.01171795164410628), np.float64(0.01171746899816202), np.float64(0.011716986514620574), np.float64(0.01171650419344281), np.float64(0.011716022034589666), np.float64(0.01171554003802217), np.float64(0.011715058203701239), np.float64(0.01171457653158785), np.float64(0.011714095021642966), np.float64(0.011713613673827443), np.float64(0.011713132488102495), np.float64(0.011712651464429017), np.float64(0.011712170602768069), np.float64(0.011711689903080668), np.float64(0.011711209365327732), np.float64(0.011710728989470296), np.float64(0.011710248775469547), np.float64(0.011709768723286466), np.float64(0.011709288832882088), np.float64(0.011708809104217503), np.float64(0.011708329537253804), np.float64(0.011707850131952038), np.float64(0.011707370888273316), np.float64(0.011706891806178848), np.float64(0.011706412885629491), np.float64(0.011705934126586588), np.float64(0.011705455529011194), np.float64(0.011704977092864412), np.float64(0.011704498818107482), np.float64(0.01170402070470149), np.float64(0.01170354275260753), np.float64(0.011703064961786885), np.float64(0.011702587332200724), np.float64(0.0117021098638101), np.float64(0.011701632556576382), np.float64(0.011701155410460675), np.float64(0.01170067842542429), np.float64(0.011700201601428274), np.float64(0.011699724938433955), np.float64(0.011699248436402724), np.float64(0.011698772095295502), np.float64(0.01169829591507382), np.float64(0.011697819895698744), np.float64(0.011697344037131728), np.float64(0.01169686833933389), np.float64(0.011696392802266604), np.float64(0.011695917425891132), np.float64(0.011695442210168862), np.float64(0.011694967155060961), np.float64(0.011694492260528863), np.float64(0.011694017526533793), np.float64(0.01169354295303724), np.float64(0.011693068540000415), np.float64(0.011692594287384811), np.float64(0.011692120195151593), np.float64(0.011691646263262344), np.float64(0.011691172491678344), np.float64(0.011690698880360888), np.float64(0.011690225429271542), np.float64(0.011689752138371604), np.float64(0.011689279007622493), np.float64(0.01168880603698572), np.float64(0.01168833322642268), np.float64(0.011687860575894708), np.float64(0.011687388085363331), np.float64(0.011686915754789987), np.float64(0.01168644358413622), np.float64(0.011685971573363348), np.float64(0.011685499722433062), np.float64(0.011685028031306593), np.float64(0.011684556499945653), np.float64(0.011684085128311657), np.float64(0.011683613916366105), np.float64(0.011683142864070534), np.float64(0.011682671971386477), np.float64(0.011682201238275479), np.float64(0.011681730664699116), np.float64(0.011681260250618858), np.float64(0.01168078999599641), np.float64(0.011680319900793183), np.float64(0.011679849964970889), np.float64(0.011679380188490976), np.float64(0.01167891057131519), np.float64(0.011678441113405071), np.float64(0.01167797181472223), np.float64(0.01167750267522834), np.float64(0.011677033694884834), np.float64(0.011676564873653606), np.float64(0.011676096211496255), np.float64(0.011675627708374181), np.float64(0.011675159364249385), np.float64(0.011674691179083381), np.float64(0.01167422315283786), np.float64(0.011673755285474497), np.float64(0.011673287576955066), np.float64(0.01167282002724116), np.float64(0.011672352636294596), np.float64(0.011671885404077032), np.float64(0.011671418330550192), np.float64(0.011670951415675888), np.float64(0.011670484659415808), np.float64(0.011670018061731735), np.float64(0.011669551622585305), np.float64(0.011669085341938473), np.float64(0.011668619219752941), np.float64(0.011668153255990426), np.float64(0.011667687450612956), np.float64(0.011667221803582014), np.float64(0.011666756314859666), np.float64(0.01166629098440762), np.float64(0.011665825812187822), np.float64(0.011665360798161899), np.float64(0.011664895942291857), np.float64(0.011664431244539484), np.float64(0.011663966704866729), np.float64(0.011663502323235353), np.float64(0.01166303809960735), np.float64(0.011662574033944493), np.float64(0.011662110126208786), np.float64(0.01166164637636199), np.float64(0.01166118278436615), np.float64(0.011660719350183152), np.float64(0.011660256073774878), np.float64(0.011659792955103335), np.float64(0.011659329994130474), np.float64(0.011658867190818155), np.float64(0.011658404545128388), np.float64(0.011657942057023144), np.float64(0.01165747972646439), np.float64(0.011657017553414292), np.float64(0.01165655553783452), np.float64(0.011656093679687281), np.float64(0.011655631978934534), np.float64(0.011655170435538317), np.float64(0.0116547090494607), np.float64(0.0116542478206636), np.float64(0.011653786749109211), np.float64(0.011653325834759455), np.float64(0.01165286507757642), np.float64(0.011652404477522305), np.float64(0.011651944034559063), np.float64(0.011651483748648828), np.float64(0.011651023619753608), np.float64(0.01165056364783551), np.float64(0.011650103832856785), np.float64(0.01164964417477945), np.float64(0.011649184673565642), np.float64(0.011648725329177526), np.float64(0.011648266141577197), np.float64(0.011647807110726905), np.float64(0.011647348236588624), np.float64(0.011646889519124693), np.float64(0.011646430958297206), np.float64(0.011645972554068395), np.float64(0.011645514306400494), np.float64(0.011645056215255514), np.float64(0.011644598280595954), np.float64(0.011644140502383655), np.float64(0.011643682880581154), np.float64(0.011643225415150647), np.float64(0.011642768106054236), np.float64(0.011642310953254326), np.float64(0.011641853956713034)]</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -3614,25 +3989,30 @@
         <v>100</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002702349628222887</v>
+        <v>0.003581885566401881</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.5744617874999142), np.float64(0.8940847314244457), np.float64(0.693964806532491)], [np.float64(0.2509777087372297), np.float64(0.728736834312604), np.float64(0.8269369792873393)], [np.float64(0.6982070433657441), np.float64(0.9233986363236302), np.float64(0.7477894363430678)], [np.float64(0.7225421002217409), np.float64(0.7263487927269835), np.float64(0.08321148493014717)]], [[np.float64(1.2111609660903058), np.float64(-0.9909609602246168)], [np.float64(1.8842103847036134), np.float64(-1.1807019823771756)], [np.float64(0.758399432691707), np.float64(-1.0846596637552492)]]]</t>
+          <t>[[[np.float64(1.296435497482894), np.float64(-1.2640546172227434), np.float64(-0.6270994191808883)], [np.float64(0.8080393295239082), np.float64(-1.1022092295949126), np.float64(-0.5747770848435622)], [np.float64(1.7034407645487035), np.float64(-0.6199153432666508), np.float64(-0.5917770961651435)], [np.float64(1.2395543466652654), np.float64(-0.15345438498603836), np.float64(-0.14954802754381827)]], [[np.float64(2.436951319669377), np.float64(-3.8554010225761237)], [np.float64(0.39430377055637933), np.float64(-2.264159177779123)], [np.float64(0.9025051047602203), np.float64(-1.6920554998072546)]]]</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>[[0.8011538842937209, 0.7142418961761455, np.float64(0.39866509440514636)], [0.49983562471324805, np.float64(-0.4838366038212286)]]</t>
+          <t>[[0.024651368936726703, 0.4573397146521222, np.float64(-0.4906204805739153)], [0.9591175048205869, np.float64(-1.8018863608936275)]]</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>[np.float64(0.05182208524653051), np.float64(0.35110492705002644)]</t>
+          <t>[np.float64(0.039604880207027446), np.float64(0.5291931672501797)]</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>0.2501396829566109</v>
+        <v>0.4143640915414851</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>[np.float64(0.7123901142702616), np.float64(0.0801367753014904), np.float64(0.07866877912066383), np.float64(0.07708274241770732), np.float64(0.07536521231877738), np.float64(0.07350160057703146), np.float64(0.07147632356464616), np.float64(0.0692730732687215), np.float64(0.06687527153632872), np.float64(0.06426677213187408), np.float64(0.06143288561535409), np.float64(0.058361806044895305), np.float64(0.0550465083760203), np.float64(0.05148714965475612), np.float64(0.04769393060648301), np.float64(0.043690241175776405), np.float64(0.03951571494040447), np.float64(0.03522856516127573), np.float64(0.030906323017190308), np.float64(0.026643959318490104), np.float64(0.022548512740736455), np.float64(0.018729936657143884), np.float64(0.01528895229860985), np.float64(0.01230401865977779), np.float64(0.009820531941301652), np.float64(0.007845364034263723), np.float64(0.006348502037764034), np.float64(0.0052712744833875854), np.float64(0.004538520385579712), np.float64(0.00407113446756874), np.float64(0.0037960182796745504), np.float64(0.003652011368220891), np.float64(0.003591942247172831), np.float64(0.0035818855664018806), np.float64(0.0035989318066500784), np.float64(0.003628520643771665), np.float64(0.003661976981911392), np.float64(0.0036945285386711987), np.float64(0.0037238506470995392), np.float64(0.003749068354440875), np.float64(0.00377010888188428), np.float64(0.0037873016672987157), np.float64(0.003801143318573012), np.float64(0.0038121673097898166), np.float64(0.0038208774421985905), np.float64(0.0038277184950110516), np.float64(0.0038330675037277478), np.float64(0.003837235707815308), np.float64(0.003840475396958603), np.float64(0.00384298845403574), np.float64(0.00384493492216441), np.float64(0.003846440804944783), np.float64(0.0038476047986647846), np.float64(0.0038485039129325938), np.float64(0.003849198061198177), np.float64(0.0038497337531134992), np.float64(0.003850147032416507), np.float64(0.003850465796126482), np.float64(0.0038507116145903046), np.float64(0.0038509011536997277), np.float64(0.003851047282551543), np.float64(0.003851159933989208), np.float64(0.0038512467719234358), np.float64(0.0038513137080584832), np.float64(0.003851365301585077), np.float64(0.0038514050680391507), np.float64(0.0038514357179136754), np.float64(0.0038514593408039096), np.float64(0.003851477547507702), np.float64(0.0038514915796879316), np.float64(0.003851502394412765), np.float64(0.003851510729363956), np.float64(0.0038515171531156842), np.float64(0.0038515221038894674), np.float64(0.0038515259194202415), np.float64(0.0038515288600294603), np.float64(0.0038515311263315664), np.float64(0.003851532872954341), np.float64(0.0038515342190600546), np.float64(0.0038515352564955415), np.float64(0.0038515360560346296), np.float64(0.0038515366722285714), np.float64(0.0038515371471265973), np.float64(0.0038515375131190337), np.float64(0.0038515377951900825), np.float64(0.003851538012576153), np.float64(0.003851538180112345), np.float64(0.0038515383092304896), np.float64(0.0038515384087435558), np.float64(0.003851538485430044), np.float64(0.0038515385445406407), np.float64(0.0038515385900904334), np.float64(0.003851538625200575), np.float64(0.0038515386522587894), np.float64(0.003851538673112196), np.float64(0.0038515386891845257), np.float64(0.0038515387015674242), np.float64(0.0038515387111065346), np.float64(0.003851538718466031), np.float64(0.00385153872413709)]</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -3656,25 +4036,30 @@
         <v>200</v>
       </c>
       <c r="F77" t="n">
-        <v>0.09606027904818004</v>
+        <v>0.1394969065879705</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[[[np.float64(-7.624728894856978), np.float64(-2.2854244964746755), np.float64(-5.780641854403326)], [np.float64(-6.780815192896398), np.float64(-1.7755153796304377), np.float64(-5.006758683782906)], [np.float64(-7.526397918493838), np.float64(-2.7798748230932375), np.float64(-5.375880402816749)], [np.float64(-2.849429093460519), np.float64(-0.8684832466157754), np.float64(-2.5936605308943497)]], [[np.float64(-33.68902012181337), np.float64(-9.625760653224557)], [np.float64(-21.844794589539344), np.float64(-6.101251829155835)], [np.float64(-14.876218666753385), np.float64(-3.8394939919448525)]]]</t>
+          <t>[[[np.float64(-12.895092785501788), np.float64(-11.41928593492585), np.float64(-18.401498267828494)], [np.float64(-12.807205538435662), np.float64(-11.256251485040957), np.float64(-17.982890504080608)], [np.float64(-13.580721615750104), np.float64(-11.743795317548631), np.float64(-19.597238334749868)], [np.float64(-5.9607827728723), np.float64(-4.823014560069844), np.float64(-8.491228722849316)]], [[np.float64(-33.07803387043335), np.float64(-34.19976715751549)], [np.float64(-41.30823516230417), np.float64(-41.113871120671185)], [np.float64(-36.4077124951129), np.float64(-37.16741989079928)]]]</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[[0.7604111862898882, 0.14786719654419822, np.float64(-8.813252104340183)], [0.581319923817143, np.float64(-4.142002629613338)]]</t>
+          <t>[[0.5616402586173119, 0.5559984421931996, np.float64(-28.77843109978505)], [0.13746198294589373, np.float64(-18.449712236866404)]]</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>[np.float64(0.9472766534988067), np.float64(0.28069800968293424)]</t>
+          <t>[np.float64(0.6710511767021032), np.float64(0.665804135565262)]</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>0.4470283896337119</v>
+        <v>0.2542274231819099</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>[np.float64(22.28650742044256), np.float64(0.21225359293030685), np.float64(0.2118030747915729), np.float64(0.21135351870953892), np.float64(0.21090492267942532), np.float64(0.21045728470058847), np.float64(0.21001060277650363), np.float64(0.20956487491475792), np.float64(0.2091200991270453), np.float64(0.2086762734291521), np.float64(0.20823339584095407), np.float64(0.20779146438640567), np.float64(0.20735047709353), np.float64(0.2069104319944152), np.float64(0.2064713271252011), np.float64(0.20603316052607382), np.float64(0.20559593024125605), np.float64(0.20515963431900303), np.float64(0.20472427081158565), np.float64(0.20428983777529033), np.float64(0.20385633327040759), np.float64(0.20342375536122356), np.float64(0.20299210211601185), np.float64(0.2025613716070277), np.float64(0.20213156191049653), np.float64(0.20170267110660647), np.float64(0.20127469727950253), np.float64(0.2008476385172774), np.float64(0.20042149291195918), np.float64(0.19999625855951297), np.float64(0.19957193355982372), np.float64(0.19914851601668784), np.float64(0.19872600403781562), np.float64(0.19830439573481354), np.float64(0.197883689223177), np.float64(0.19746388262228678), np.float64(0.19704497405539748), np.float64(0.19662696164963311), np.float64(0.19620984353597323), np.float64(0.19579361784925034), np.float64(0.1953782827281435), np.float64(0.19496383631516345), np.float64(0.19455027675664816), np.float64(0.19413760220275844), np.float64(0.19372581080746568), np.float64(0.19331490072854643), np.float64(0.19290487012757024), np.float64(0.19249571716989872), np.float64(0.1920874400246734), np.float64(0.19168003686481117), np.float64(0.19127350586699104), np.float64(0.1908678452116492), np.float64(0.19046305308297534), np.float64(0.1900591276688995), np.float64(0.18965606716108577), np.float64(0.18925386975492586), np.float64(0.18885253364953075), np.float64(0.18845205704772333), np.float64(0.18805243815603376), np.float64(0.18765367518468254), np.float64(0.18725576634758218), np.float64(0.18685870986232728), np.float64(0.18646250395018632), np.float64(0.18606714683609266), np.float64(0.18567263674863982), np.float64(0.18527897192007262), np.float64(0.18488615058627775), np.float64(0.18449417098678164), np.float64(0.18410303136473677), np.float64(0.1837127299669191), np.float64(0.183323265043717), np.float64(0.1829346348491279), np.float64(0.18254683764074392), np.float64(0.18215987167975442), np.float64(0.18177373523093066), np.float64(0.18138842656262133), np.float64(0.18100394394674432), np.float64(0.18062028565878202), np.float64(0.18023744997777166), np.float64(0.17985543518629624), np.float64(0.179474239570483), np.float64(0.17909386141998723), np.float64(0.17871429902799546), np.float64(0.17833555069121365), np.float64(0.17795761470985616), np.float64(0.17758048938764154), np.float64(0.17720417303178995), np.float64(0.1768286639530077), np.float64(0.17645396046548728), np.float64(0.176080060886895), np.float64(0.17570696353836454), np.float64(0.1753346667444973), np.float64(0.17496316883334082), np.float64(0.1745924681363982), np.float64(0.17422256298860866), np.float64(0.17385345172834651), np.float64(0.1734851326974109), np.float64(0.17311760424102113), np.float64(0.17275086470780873), np.float64(0.17238491244981113), np.float64(0.1720197458224642), np.float64(0.17165536318459465), np.float64(0.17129176289841203), np.float64(0.17092894332950767), np.float64(0.17056690284684028), np.float64(0.17020563982273262), np.float64(0.16984515263286562), np.float64(0.16948543965626967), np.float64(0.16912649927531556), np.float64(0.16876832987571427), np.float64(0.1684109298465042), np.float64(0.16805429758004645), np.float64(0.1676984314720189), np.float64(0.16734332992140571), np.float64(0.16698899133049683), np.float64(0.16663541410487445), np.float64(0.1662825966534121), np.float64(0.16593053738826216), np.float64(0.16557923472485514), np.float64(0.1652286870818887), np.float64(0.16487889288132404), np.float64(0.16452985054837074), np.float64(0.1641815585114972), np.float64(0.16383401520240512), np.float64(0.16348721905603597), np.float64(0.16314116851055702), np.float64(0.16279586200735985), np.float64(0.1624512979910489), np.float64(0.16210747490943764), np.float64(0.1617643912135451), np.float64(0.16142204535758004), np.float64(0.161080435798946), np.float64(0.16073956099822478), np.float64(0.160399419419175), np.float64(0.16006000952872587), np.float64(0.15972132979697015), np.float64(0.159383378697154), np.float64(0.15904615470567657), np.float64(0.15870965630207862), np.float64(0.15837388196903904), np.float64(0.15803883019236584), np.float64(0.1577044994609947), np.float64(0.15737088826697546), np.float64(0.1570379951054696), np.float64(0.15670581847474618), np.float64(0.15637435687617096), np.float64(0.1560436088142029), np.float64(0.155713572796386), np.float64(0.1553842473333463), np.float64(0.1550556309387789), np.float64(0.15472772212944827), np.float64(0.15440051942518443), np.float64(0.1540740213488636), np.float64(0.1537482264264127), np.float64(0.15342313318680492), np.float64(0.1530987401620442), np.float64(0.15277504588716667), np.float64(0.1524520489002311), np.float64(0.15212974774231164), np.float64(0.1518081409574981), np.float64(0.15148722709288), np.float64(0.15116700469854683), np.float64(0.1508474723275827), np.float64(0.1505286285360543), np.float64(0.15021047188301317), np.float64(0.14989300093048108), np.float64(0.14957621424344753), np.float64(0.1492601103898681), np.float64(0.14894468794064952), np.float64(0.14862994546965105), np.float64(0.1483158815536752), np.float64(0.1480024947724615), np.float64(0.14768978370868163), np.float64(0.14737774694793315), np.float64(0.14706638307873232), np.float64(0.14675569069250854), np.float64(0.1464456683836018), np.float64(0.14613631474925162), np.float64(0.14582762838959235), np.float64(0.145519607907651), np.float64(0.14521225190933684), np.float64(0.14490555900343663), np.float64(0.14459952780160917), np.float64(0.14429415691838157), np.float64(0.1439894449711398), np.float64(0.14368539058012295), np.float64(0.1433819923684218), np.float64(0.1430792489619665), np.float64(0.14277715898952742), np.float64(0.1424757210827038), np.float64(0.14217493387592084), np.float64(0.14187479600642436), np.float64(0.14157530611427002), np.float64(0.14127646284232723), np.float64(0.1409782648362635), np.float64(0.14068071074454477), np.float64(0.14038379921842553), np.float64(0.14008752891194787), np.float64(0.1397918984819317), np.float64(0.1394969065879705)]</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -3698,25 +4083,30 @@
         <v>100</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04087045572992808</v>
+        <v>0.01082394627151312</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.252352108413364), np.float64(0.4123626556991273), np.float64(0.2832219762815407)], [np.float64(0.9673740052906062), np.float64(0.7217544277327277), np.float64(0.004803660297655158)], [np.float64(0.2563803110081818), np.float64(0.3066350474884792), np.float64(-0.03262499499896936)], [np.float64(0.8948897016085796), np.float64(0.8166608792618719), np.float64(0.30195227074591396)]], [[np.float64(0.042226522547681944), np.float64(0.2685505042215518)], [np.float64(-0.2002213236944273), np.float64(0.674868693581095)], [np.float64(0.34258154105724736), np.float64(0.5267505561724461)]]]</t>
+          <t>[[[np.float64(0.3800038860093211), np.float64(0.441495608438617), np.float64(0.6544047594352824)], [np.float64(0.23871271367354652), np.float64(0.5969958274784939), np.float64(0.9453329097007717)], [np.float64(0.457923879496116), np.float64(0.9471144686546231), np.float64(0.028931627920575822)], [np.float64(0.6596456296487471), np.float64(0.23675336582250828), np.float64(0.17384365930710036)]], [[np.float64(0.5441434680710401), np.float64(0.5484836778957941)], [np.float64(0.7690858942976253), np.float64(0.23852047473790233)], [np.float64(0.16990952991071678), np.float64(0.951964333507568)]]]</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[[0.6655692751669353, 0.86908361326555, np.float64(0.7380599299484244)], [0.38804097507286395, np.float64(0.1518326169227074)]]</t>
+          <t>[[0.41358060385510853, 0.26727487782066484, np.float64(0.9590372530919571)], [0.36637674810998644, np.float64(0.5918961305072216)]]</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>[np.float64(0.7401047693174728), np.float64(0.965518695041546)]</t>
+          <t>[np.float64(0.2180551676580013), np.float64(0.6636180921179097)]</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>0.7538480607798114</v>
+        <v>0.2056313181429436</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>[np.float64(0.010823946271513122), np.float64(0.010824800178217278), np.float64(0.010825653541214866), np.float64(0.010826506359196141), np.float64(0.01082735863086553), np.float64(0.01082821035494107), np.float64(0.010829061530156472), np.float64(0.010829912155260227), np.float64(0.01083076222901378), np.float64(0.010831611750193645), np.float64(0.01083246071759053), np.float64(0.010833309130008639), np.float64(0.010834156986265947), np.float64(0.010835004285195154), np.float64(0.010835851025641838), np.float64(0.010836697206465528), np.float64(0.010837542826538838), np.float64(0.010838387884748378), np.float64(0.010839232379993532), np.float64(0.01084007631118701), np.float64(0.010840919677254543), np.float64(0.01084176247713492), np.float64(0.010842604709779831), np.float64(0.01084344637415407), np.float64(0.01084428746923508), np.float64(0.010845127994012065), np.float64(0.010845967947488152), np.float64(0.010846807328677592), np.float64(0.010847646136607677), np.float64(0.010848484370317496), np.float64(0.01084932202885865), np.float64(0.010850159111294841), np.float64(0.010850995616701798), np.float64(0.010851831544166423), np.float64(0.010852666892788215), np.float64(0.010853501661678186), np.float64(0.01085433584995914), np.float64(0.01085516945676492), np.float64(0.01085600248124087), np.float64(0.010856834922544018), np.float64(0.010857666779842531), np.float64(0.010858498052316002), np.float64(0.010859328739154607), np.float64(0.010860158839560121), np.float64(0.010860988352744589), np.float64(0.010861817277931366), np.float64(0.01086264561435467), np.float64(0.010863473361259703), np.float64(0.01086430051790148), np.float64(0.01086512708354541), np.float64(0.010865953057468937), np.float64(0.010866778438958061), np.float64(0.010867603227310719), np.float64(0.010868427421833516), np.float64(0.010869251021844526), np.float64(0.010870074026670649), np.float64(0.010870896435650387), np.float64(0.010871718248130754), np.float64(0.010872539463468734), np.float64(0.010873360081032013), np.float64(0.010874180100197129), np.float64(0.010874999520351092), np.float64(0.01087581834088929), np.float64(0.01087663656121799), np.float64(0.0108774541807519), np.float64(0.01087827119891552), np.float64(0.010879087615141963), np.float64(0.010879903428874656), np.float64(0.010880718639565218), np.float64(0.010881533246674636), np.float64(0.010882347249673343), np.float64(0.01088316064803964), np.float64(0.010883973441261796), np.float64(0.010884785628836106), np.float64(0.010885597210268399), np.float64(0.010886408185072645), np.float64(0.010887218552771048), np.float64(0.010888028312895202), np.float64(0.010888837464984778), np.float64(0.0108896460085878), np.float64(0.010890453943260563), np.float64(0.010891261268567841), np.float64(0.010892067984082711), np.float64(0.010892874089386025), np.float64(0.010893679584067444), np.float64(0.010894484467723953), np.float64(0.01089528873996064), np.float64(0.010896092400390545), np.float64(0.010896895448634602), np.float64(0.01089769788432178), np.float64(0.010898499707088793), np.float64(0.010899300916579637), np.float64(0.01090010151244635), np.float64(0.010900901494347729), np.float64(0.010901700861951243), np.float64(0.010902499614930639), np.float64(0.010903297752968423), np.float64(0.010904095275753006), np.float64(0.010904892182981017), np.float64(0.010905688474355902)]</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -3740,25 +4130,30 @@
         <v>200</v>
       </c>
       <c r="F79" t="n">
-        <v>0.014913094822391</v>
+        <v>0.01550164681727975</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.3728312838017359), np.float64(0.14367400190443244), np.float64(0.8571536024861467)], [np.float64(0.3927178074930598), np.float64(0.1992114019433566), np.float64(0.4681091853243254)], [np.float64(0.1526337331527999), np.float64(0.28478409142459865), np.float64(0.13480834246006423)], [np.float64(0.027972739099525672), np.float64(0.50535360257565), np.float64(0.1953534211455738)]], [[np.float64(0.28870884864359203), np.float64(0.26631914350355534)], [np.float64(0.11998972478740749), np.float64(0.6323213571010594)], [np.float64(0.7454033948146359), np.float64(0.8595825139670759)]]]</t>
+          <t>[[[np.float64(0.514303437576017), np.float64(0.6902243252025257), np.float64(0.5521352723779769)], [np.float64(0.3196810250880562), np.float64(0.2940369053691137), np.float64(0.98328592490282)], [np.float64(0.8392729491534271), np.float64(0.9394640420481156), np.float64(0.6577816823470924)], [np.float64(0.08198136487813826), np.float64(0.22350478255212214), np.float64(0.022565472450172645)]], [[np.float64(0.08667963964655032), np.float64(0.6193645731090582)], [np.float64(0.04354677092560902), np.float64(-0.15240135194362717)], [np.float64(0.0952069617062127), np.float64(0.17142486744582489)]]]</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[[0.4161571187916907, 0.8707501834463817, np.float64(0.8401256009400149)], [0.9291835486372108, np.float64(0.37871117289041023)]]</t>
+          <t>[[0.5568853165871068, 0.8800779189533469, np.float64(0.8493851956877941)], [0.2915535748302298, np.float64(-0.1261343584222584)]]</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>[np.float64(0.33700902579217334), np.float64(0.16243858885036003)]</t>
+          <t>[np.float64(0.49182186186205945), np.float64(0.9729381094806376)]</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>0.781251231448411</v>
+        <v>0.3505150890377975</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>[np.float64(0.02062678428773213), np.float64(0.020592754881411227), np.float64(0.02055877860106359), np.float64(0.020524856242986275), np.float64(0.020490988598134426), np.float64(0.020457176452039382), np.float64(0.02042342058472515), np.float64(0.02038972177062903), np.float64(0.02035608077852258), np.float64(0.020322498371432806), np.float64(0.020288975306568223), np.float64(0.02025551233523632), np.float64(0.020222110202777786), np.float64(0.020188769648492033), np.float64(0.02015549140556587), np.float64(0.02012227620100485), np.float64(0.020089124755559594), np.float64(0.020056037783669024), np.float64(0.02002301599338863), np.float64(0.019990060086325548), np.float64(0.019957170757582375), np.float64(0.019924348695690746), np.float64(0.0198915945825595), np.float64(0.01985890909340511), np.float64(0.019826292896710077), np.float64(0.01979374665415891), np.float64(0.01976127102058596), np.float64(0.01972886664392689), np.float64(0.019696534165166722), np.float64(0.019664274218292532), np.float64(0.019632087430244954), np.float64(0.019599974420879268), np.float64(0.019567935802914098), np.float64(0.019535972181888468), np.float64(0.019504084156133236), np.float64(0.01947227231671671), np.float64(0.01944053724742122), np.float64(0.019408879524696745), np.float64(0.019377299717633058), np.float64(0.01934579838792495), np.float64(0.019314376089842433), np.float64(0.019283033370195695), np.float64(0.01925177076832187), np.float64(0.01922058881603729), np.float64(0.019189488037635764), np.float64(0.01915846894984508), np.float64(0.01912753206182273), np.float64(0.019096677875120083), np.float64(0.01906590688367801), np.float64(0.019035219573798935), np.float64(0.019004616424139018), np.float64(0.01897409790569011), np.float64(0.018943664481772395), np.float64(0.018913316608013042), np.float64(0.018883054732352196), np.float64(0.01885287929501751), np.float64(0.01882279072853677), np.float64(0.018792789457715883), np.float64(0.018762875899649232), np.float64(0.018733050463705495), np.float64(0.018703313551534106), np.float64(0.018673665557068474), np.float64(0.0186441068665212), np.float64(0.01861463785839367), np.float64(0.018585258903478036), np.float64(0.0185559703648677), np.float64(0.018526772597958565), np.float64(0.0184976659504619), np.float64(0.018468650762417396), np.float64(0.01843972736620387), np.float64(0.018410896086543015), np.float64(0.018382157240531383), np.float64(0.018353511137642796), np.float64(0.018324958079747437), np.float64(0.018296498361133406), np.float64(0.018268132268522853), np.float64(0.01823986008109692), np.float64(0.018211682070515867), np.float64(0.01818359850093461), np.float64(0.01815560962904192), np.float64(0.018127715704072275), np.float64(0.018099916967839757), np.float64(0.018072213654762685), np.float64(0.018044605991890336), np.float64(0.018017094198937746), np.float64(0.017989678488312), np.float64(0.017962359065147322), np.float64(0.017935136127334328), np.float64(0.017908009865556872), np.float64(0.017880980463321698), np.float64(0.017854048097006386), np.float64(0.017827212935881267), np.float64(0.017800475142154056), np.float64(0.017773834871006557), np.float64(0.01774729227063891), np.float64(0.017720847482299847), np.float64(0.01769450064033878), np.float64(0.017668251872235932), np.float64(0.017642101298659046), np.float64(0.017616049033493123), np.float64(0.017590095183892835), np.float64(0.017564239850323182), np.float64(0.017538483126607524), np.float64(0.017512825099973425), np.float64(0.01748726585109907), np.float64(0.017461805454160297), np.float64(0.017436443976880944), np.float64(0.01741118148057717), np.float64(0.017386018020213407), np.float64(0.01736095364444705), np.float64(0.017335988395680596), np.float64(0.01731112231011748), np.float64(0.017286355417802813), np.float64(0.017261687742685654), np.float64(0.017237119302667095), np.float64(0.017212650109655062), np.float64(0.017188280169614323), np.float64(0.01716400948262859), np.float64(0.017139838042945176), np.float64(0.01711576583903242), np.float64(0.01709179285364206), np.float64(0.017067919063852893), np.float64(0.017044144441137155), np.float64(0.017020468951409427), np.float64(0.01699689255508878), np.float64(0.016973415207149196), np.float64(0.016950036857181525), np.float64(0.01692675744944872), np.float64(0.016903576922941508), np.float64(0.016880495211442328), np.float64(0.016857512243574728), np.float64(0.01683462794286913), np.float64(0.016811842227813817), np.float64(0.016789155011921523), np.float64(0.01676656620377743), np.float64(0.016744075707109188), np.float64(0.016721683420836617), np.float64(0.01669938923913614), np.float64(0.01667719305149403), np.float64(0.016655094742771215), np.float64(0.016633094193256957), np.float64(0.016611191278735362), np.float64(0.01658938587053291), np.float64(0.016567677835588403), np.float64(0.016546067036508936), np.float64(0.016524553331620003), np.float64(0.01650313657504029), np.float64(0.01648181661672658), np.float64(0.016460593302540377), np.float64(0.016439466474302226), np.float64(0.01641843596985198), np.float64(0.016397501623108546), np.float64(0.01637666326412788), np.float64(0.016355920719157518), np.float64(0.016335273810699664), np.float64(0.016314722357567486), np.float64(0.01629426617494042), np.float64(0.016273905074427518), np.float64(0.016253638864117646), np.float64(0.016233467348640448), np.float64(0.016213390329224246), np.float64(0.016193407603749415), np.float64(0.01617351896681366), np.float64(0.01615372420977435), np.float64(0.016134023120814127), np.float64(0.016114415485000557), np.float64(0.016094901084327463), np.float64(0.016075479697785916), np.float64(0.016056151101410277), np.float64(0.01603691506833221), np.float64(0.016017771368841905), np.float64(0.015998719770436723), np.float64(0.0159797600378742), np.float64(0.015960891933231743), np.float64(0.015942115215957755), np.float64(0.01592342964291912), np.float64(0.015904834968458036), np.float64(0.015886330944444593), np.float64(0.015867917320327576), np.float64(0.015849593843189895), np.float64(0.01583136025779218), np.float64(0.015813216306633356), np.float64(0.015795161729988225), np.float64(0.01577719626596917), np.float64(0.015759319650573), np.float64(0.015741531617729097), np.float64(0.015723831899345158), np.float64(0.01570622022536143), np.float64(0.015688696323794854), np.float64(0.015671259920792432), np.float64(0.015653910740668915), np.float64(0.015636648505965148), np.float64(0.01561947293748304), np.float64(0.015602383754344532), np.float64(0.015585380674025217), np.float64(0.015568463412409072), np.float64(0.015551631683827161), np.float64(0.015534885201106621), np.float64(0.015518223675609082), np.float64(0.015501646817279752)]</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -3782,25 +4177,30 @@
         <v>100</v>
       </c>
       <c r="F80" t="n">
-        <v>0.01563272557767138</v>
+        <v>0.0135648474938637</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.1969591841718179), np.float64(0.2963313447084981), np.float64(0.22749112671144214)], [np.float64(0.3325555259804813), np.float64(0.30684974915605534), np.float64(0.20301590219424423)], [np.float64(0.15799900237148795), np.float64(-0.029790866541551813), np.float64(0.6115931986605881)], [np.float64(0.40278754720425536), np.float64(0.22616830167853466), np.float64(0.282179419796393)]], [[np.float64(-0.6796865107024985), np.float64(0.10768654781832179)], [np.float64(-0.04837273805021952), np.float64(0.4539682706600603)], [np.float64(-0.6559644198958945), np.float64(0.18188571087934935)]]]</t>
+          <t>[[[np.float64(0.6973992885470257), np.float64(0.018484266957106078), np.float64(0.09880377335349294)], [np.float64(0.5910674747720482), np.float64(0.49087013682543545), np.float64(0.3685085136982689)], [np.float64(0.6740669415619501), np.float64(0.4935570747786365), np.float64(0.5547461626666423)], [np.float64(0.9085937108299805), np.float64(0.06460489935559484), np.float64(0.7766354835042221)]], [[np.float64(-0.051278549008929426), np.float64(-0.3595197076565256)], [np.float64(0.29283297953842913), np.float64(-0.4072957174173087)], [np.float64(-0.25994950821541774), np.float64(-0.45628699394177935)]]]</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>[[0.6939158962016934, 0.07737322391367252, np.float64(0.2419205096270075)], [0.9467607796837707, np.float64(0.22628061013826192)]]</t>
+          <t>[[0.5801388409714388, 0.9206288875306285, np.float64(0.225336654076708)], [0.1883597384573047, np.float64(-0.46385727978626595)]]</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>[np.float64(0.7892098197429457), np.float64(0.33435607086602126)]</t>
+          <t>[np.float64(0.4760814273434915), np.float64(0.8305704424063913)]</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>0.6299170173251365</v>
+        <v>0.721333006502576</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>[np.float64(0.033306096753419355), np.float64(0.03290201550686254), np.float64(0.03248774808512796), np.float64(0.03206393287116813), np.float64(0.03163130159115057), np.float64(0.03119067646238153), np.float64(0.03074296540569646), np.float64(0.03028915528378846), np.float64(0.029830303198847864), np.float64(0.029367525961371148), np.float64(0.028901987922249982), np.float64(0.02843488743761788), np.float64(0.027967442304697887), np.float64(0.027500874561998883), np.float64(0.027036395084224635), np.float64(0.026575188417755736), np.float64(0.02611839829518616), np.float64(0.02566711423710301), np.float64(0.025222359598421958), np.float64(0.02478508134867098), np.float64(0.024356141795833747), np.float64(0.023936312377219587), np.float64(0.023526269554387), np.float64(0.023126592767697303), np.float64(0.0227377643341726), np.float64(0.022360171113365454), np.float64(0.021994107721902915), np.float64(0.021639781048759788), np.float64(0.021297315809766206), np.float64(0.020966760879724197), np.float64(0.020648096151673533), np.float64(0.020341239692795082), np.float64(0.020046054992543222), np.float64(0.01976235812835208), np.float64(0.019489924705530324), np.float64(0.01922849645883282), np.float64(0.018977787432403637), np.float64(0.018737489681242073), np.float64(0.01850727846051395), np.float64(0.018286816888617937), np.float64(0.018075760085934405), np.float64(0.01787375880370795), np.float64(0.017680462566977), np.float64(0.017495522362107357), np.float64(0.01731859290379766), np.float64(0.017149334518791234), np.float64(0.016987414684296785), np.float64(0.016832509258718827), np.float64(0.016684303440993684), np.float64(0.016542492492820908), np.float64(0.01640678225575356), np.float64(0.01627688949246197), np.float64(0.016152542078758977), np.float64(0.01603347907026173), np.float64(0.01591945066491257), np.float64(0.015810218080064845), np.float64(0.01570555336046521), np.float64(0.015605239131354446), np.float64(0.015509068308872774), np.float64(0.015416843778238922), np.float64(0.015328378048559249), np.float64(0.015243492891724063), np.float64(0.01516201897164937), np.float64(0.01508379546902363), np.float64(0.015008669705783543), np.float64(0.014936496772778158), np.float64(0.014867139163353459), np.float64(0.014800466415032519), np.float64(0.014736354760962514), np.float64(0.014674686792367532), np.float64(0.0146153511329332), np.float64(0.014558242125718046), np.float64(0.014503259532963577), np.float64(0.014450308248995696), np.float64(0.014399298026211949), np.float64(0.01435014321405849), np.float64(0.014302762510775323), np.float64(0.014257078727618602), np.float64(0.01421301856520331), np.float64(0.014170512401575098), np.float64(0.014129494091573583), np.float64(0.01408990077703807), np.float64(0.014051672707397447), np.float64(0.014014753070156502), np.float64(0.013979087830845015), np.float64(0.013944625581925656), np.float64(0.0139113174002326), np.float64(0.01387911671248988), np.float64(0.013847979168481205), np.float64(0.013817862521445201), np.float64(0.013788726515319729), np.float64(0.013760532778424648), np.float64(0.013733244723243271), np.float64(0.013706827451937744), np.float64(0.013681247667272018), np.float64(0.013656473588633953), np.float64(0.013632474872849838), np.float64(0.013609222539513464), np.float64(0.013586688900563802), np.float64(0.013564847493863701)]</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -3824,25 +4224,30 @@
         <v>200</v>
       </c>
       <c r="F81" t="n">
-        <v>0.01348140855587061</v>
+        <v>0.01350463345698788</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.11199845797444842), np.float64(0.712109723105744), np.float64(0.7884570249048113)], [np.float64(0.4131015983681752), np.float64(-0.003972331621733762), np.float64(1.0566068553253296)], [np.float64(0.9850934831851138), np.float64(-0.019238508771797953), np.float64(0.2230572407871516)], [np.float64(0.7562667259951958), np.float64(0.5508533319703866), np.float64(0.395660937136561)]], [[np.float64(-0.7716262485510007), np.float64(0.23211044918066948)], [np.float64(-0.32723234843598464), np.float64(0.5846719100441914)], [np.float64(-1.0826677489245147), np.float64(0.8424469197055168)]]]</t>
+          <t>[[[np.float64(0.7216232108900301), np.float64(0.4516199899515633), np.float64(0.047670548527681836)], [np.float64(1.021445801982164), np.float64(0.393948091049538), np.float64(0.8544366065423566)], [np.float64(0.9887260696066941), np.float64(0.2745615651452971), np.float64(0.11828861700675515)], [np.float64(0.85330566922871), np.float64(0.7632071957801819), np.float64(0.5499778378995068)]], [[np.float64(-0.47735009465515893), np.float64(-1.5936917182392278)], [np.float64(-0.3931316430992582), np.float64(-0.9223112435808529)], [np.float64(-0.48833567626527413), np.float64(-0.5646816050203073)]]]</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[[0.14120779830076524, 0.10116745837150387, np.float64(0.23374791747605242)], [0.1520313280039426, np.float64(0.31272783679006066)]]</t>
+          <t>[[0.8086421943271483, 0.4291973784675084, np.float64(0.46470324306595956)], [0.3695537128313575, np.float64(-1.8275843361517579)]]</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>[np.float64(0.8658671191236269), np.float64(0.0704157990407251)]</t>
+          <t>[np.float64(0.4832867238776326), np.float64(0.9561699345485449)]</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>0.9192444260910222</v>
+        <v>0.971991501269962</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>[np.float64(0.04677600524208389), np.float64(0.046107168921170234), np.float64(0.045399719030510995), np.float64(0.04465438739860119), np.float64(0.04387254390341471), np.float64(0.043056244722135026), np.float64(0.042208257768729315), np.float64(0.0413320592796268), np.float64(0.040431796895972344), np.float64(0.03951221689080589), np.float64(0.03857855625967886), np.float64(0.03763640389853951), np.float64(0.03669153853501642), np.float64(0.03574975388596417), np.float64(0.0348166831652104), np.float64(0.03389763522871651), np.float64(0.03299745326760964), np.float64(0.03212040429142465), np.float64(0.03127010416917737), np.float64(0.030449479311415714), np.float64(0.029660762746262403), np.float64(0.028905519783819087), np.float64(0.028184696884988786), np.float64(0.027498686756109385), np.float64(0.026847402927168654), np.float64(0.026230357899008298), np.float64(0.02564674010650353), np.float64(0.0250954862127929), np.float64(0.024575346455680276), np.float64(0.024084941805827733), np.float64(0.023622812519210765), np.float64(0.023187458267046664), np.float64(0.022777370426397787), np.float64(0.022391057348171272), np.float64(0.022027063525265966), np.float64(0.02168398359861702), np.float64(0.02136047209377861), np.float64(0.02105524970021407), np.float64(0.020767106807551363), np.float64(0.020494904910438632), np.float64(0.020237576394231186), np.float64(0.0199941231225313), np.float64(0.01976361416671955), np.float64(0.01954518294805908), np.float64(0.019338024004248888), np.float64(0.019141389543750036), np.float64(0.018954585911646456), np.float64(0.018776970058986316), np.float64(0.01860794608219067), np.float64(0.018446961879413352), np.float64(0.01829350595518158), np.float64(0.018147104392992917), np.float64(0.018007318006552454), np.float64(0.01787373967368802), np.float64(0.017745991852229644), np.float64(0.017623724273568658), np.float64(0.017506611807340942), np.float64(0.017394352489055638), np.float64(0.017286665701579683), np.float64(0.017183290500911448), np.float64(0.017083984076550866), np.float64(0.016988520336838356), np.float64(0.016896688609938523), np.float64(0.01680829245157438), np.float64(0.01672314855097572), np.float64(0.01664108572712778), np.float64(0.01656194400785141), np.float64(0.016485573784789584), np.float64(0.01641183503793112), np.float64(0.01634059662371061), np.float64(0.01627173562131187), np.float64(0.01620513673213677), np.float64(0.016140691727909162), np.float64(0.01607829894321155), np.float64(0.016017862808648985), np.float64(0.015959293421152463), np.float64(0.01590250614824266), np.float64(0.015847421263351067), np.float64(0.01579396360956909), np.float64(0.015742062289397524), np.float64(0.015691650378326), np.float64(0.015642664660224532), np.float64(0.01559504538274633), np.float64(0.015548736031049216), np.float64(0.015503683118368135), np.float64(0.015459835992018622), np.float64(0.015417146653594832), np.float64(0.015375569592212205), np.float64(0.015335061629735714), np.float64(0.015295581777049667), np.float64(0.015257091100492807), np.float64(0.015219552597642237), np.float64(0.015182931081745642), np.float64(0.015147193074106021), np.float64(0.01511230670381548), np.float64(0.015078241614283327), np.float64(0.015044968876031099), np.float64(0.015012460905301235), np.float64(0.01498069138802466), np.float64(0.014949635208767962), np.float64(0.014919268384281266), np.float64(0.01488956800132362), np.float64(0.014860512158445895), np.float64(0.014832079911459154), np.float64(0.014804251222310242), np.float64(0.0147770069111383), np.float64(0.014750328611281534), np.float64(0.014724198727034522), np.float64(0.014698600393960232), np.float64(0.014673517441583727), np.float64(0.01464893435831266), np.float64(0.014624836258425544), np.float64(0.014601208850990399), np.float64(0.014578038410593882), np.float64(0.014555311749751476), np.float64(0.014533016192894179), np.float64(0.014511139551833486), np.float64(0.0144896701026003), np.float64(0.014468596563574767), np.float64(0.014447908074830394), np.float64(0.014427594178603587), np.float64(0.01440764480083545), np.float64(0.01438805023369815), np.float64(0.014368801119068422), np.float64(0.014349888432872005), np.float64(0.014331303470256027), np.float64(0.0143130378315382), np.float64(0.014295083408878325), np.float64(0.014277432373649599), np.float64(0.0142600771644411), np.float64(0.014243010475679007), np.float64(0.014226225246814769), np.float64(0.014209714652054308), np.float64(0.01419347209060063), np.float64(0.01417749117737034), np.float64(0.014161765734168223), np.float64(0.014146289781286136), np.float64(0.01413105752951134), np.float64(0.014116063372510347), np.float64(0.014101301879578582), np.float64(0.014086767788727868), np.float64(0.014072456000100778), np.float64(0.014058361569687563), np.float64(0.014044479703332387), np.float64(0.01403080575101849), np.float64(0.014017335201404479), np.float64(0.014004063676616937), np.float64(0.013990986927265393), np.float64(0.01397810082768912), np.float64(0.013965401371406153), np.float64(0.013952884666767557), np.float64(0.013940546932796831), np.float64(0.013928384495210663), np.float64(0.013916393782610566), np.float64(0.013904571322838536), np.float64(0.013892913739485483), np.float64(0.013881417748542667), np.float64(0.01387008015520489), np.float64(0.013858897850791736), np.float64(0.013847867809807159), np.float64(0.013836987087113626), np.float64(0.013826252815222323), np.float64(0.013815662201694926), np.float64(0.013805212526647527), np.float64(0.013794901140355196), np.float64(0.013784725460951342), np.float64(0.013774682972219093), np.float64(0.013764771221464116), np.float64(0.013754987817477093), np.float64(0.013745330428570977), np.float64(0.01373579678069412), np.float64(0.013726384655615839), np.float64(0.013717091889178783), np.float64(0.013707916369621593), np.float64(0.013698856035959982), np.float64(0.01368990887643107), np.float64(0.013681072926991389), np.float64(0.0136723462698761), np.float64(0.013663727032204741), np.float64(0.01365521338464088), np.float64(0.013646803540101775), np.float64(0.013638495752508042), np.float64(0.01363028831558573), np.float64(0.013622179561703585), np.float64(0.013614167860758282), np.float64(0.01360625161909287), np.float64(0.013598429278456812), np.float64(0.013590699314996775), np.float64(0.013583060238289826), np.float64(0.013575510590404167), np.float64(0.013568048944992566), np.float64(0.013560673906417301), np.float64(0.013553384108905534), np.float64(0.013546178215728417), np.float64(0.013539054918416182), np.float64(0.013532012935987334), np.float64(0.013525051014215889), np.float64(0.013518167924909848), np.float64(0.013511362465223603), np.float64(0.013504633456987877)]</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -3866,25 +4271,30 @@
         <v>100</v>
       </c>
       <c r="F82" t="n">
-        <v>0.01339742883993031</v>
+        <v>0.01048214905083905</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.303587013954214), np.float64(-0.0807795755403953), np.float64(-0.07132194205555992)], [np.float64(0.6909959441039618), np.float64(0.5100546765359764), np.float64(-0.07123380385933774)], [np.float64(0.14856862235792404), np.float64(0.6922877890470818), np.float64(0.6954699495454213)], [np.float64(0.7407215272389059), np.float64(0.2258765837879108), np.float64(0.2045775184678349)]], [[np.float64(-0.3292182963899898), np.float64(0.3931379662151785)], [np.float64(-0.20947995546415765), np.float64(0.9002797496539451)], [np.float64(0.14573222344732195), np.float64(0.1819375076632232)]]]</t>
+          <t>[[[np.float64(0.6414996798686022), np.float64(0.15540799055858734), np.float64(0.4744585488436022)], [np.float64(0.7015028651483511), np.float64(-0.09007571404114667), np.float64(0.897295740421909)], [np.float64(0.9017804356695162), np.float64(0.10382701897553909), np.float64(0.12073593176695324)], [np.float64(0.013276887856861623), np.float64(0.7376258562584341), np.float64(0.38924876975818995)]], [[np.float64(-0.48210939101418965), np.float64(0.2832300072355368)], [np.float64(0.18801645439445713), np.float64(0.39118692798127896)], [np.float64(-0.23515710573635296), np.float64(0.13713609171738703)]]]</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[[0.980667565037492, 0.2733097737444826, np.float64(0.7382469466084949)], [0.8358536639628619, np.float64(-0.04974940375980925)]]</t>
+          <t>[[0.5161784797234329, 0.3121091311627776, np.float64(-0.11960486414664019)], [0.7117860863323572, np.float64(-0.19049746334650963)]]</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>[np.float64(0.8944012003367746), np.float64(0.10779613142862038)]</t>
+          <t>[np.float64(0.4580709452142293), np.float64(0.6803719465598137)]</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>0.4861485754795961</v>
+        <v>0.6077094766752971</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>[np.float64(0.062441516119071665), np.float64(0.06218369095888037), np.float64(0.06190795343062791), np.float64(0.06161294003126999), np.float64(0.061297173886648335), np.float64(0.06095905515790529), np.float64(0.060596850821655564), np.float64(0.060208683864170255), np.float64(0.05979252196758525), np.float64(0.05934616581855543), np.float64(0.058867237241428595), np.float64(0.05835316745506903), np.float64(0.057801185882565505), np.float64(0.05720831011606086), np.float64(0.05657133786690164), np.float64(0.05588684202910175), np.float64(0.05515117036908218), np.float64(0.054360451847043044), np.float64(0.05351061219604081), np.float64(0.052597402154553136), np.float64(0.05161644268133226), np.float64(0.050563292578651164), np.float64(0.04943354518517147), np.float64(0.04822296209737795), np.float64(0.04692765308366188), np.float64(0.045544312185706065), np.float64(0.04407051999279783), np.float64(0.04250512050857445), np.float64(0.040848676880847236), np.float64(0.039104002190274725), np.float64(0.03727674795463186), np.float64(0.03537601263514215), np.float64(0.03341490481778025), np.float64(0.03141096273883276), np.float64(0.029386299316994085), np.float64(0.02736732139315674), np.float64(0.025383880723940412), np.float64(0.02346777165271837), np.float64(0.021650608016953347), np.float64(0.019961279902478618), np.float64(0.018423366449714273), np.float64(0.01705299209327369), np.float64(0.015857588343181985), np.float64(0.014835835499391695), np.float64(0.013978760966864692), np.float64(0.013271679246557349), np.float64(0.012696490526260549), np.float64(0.012233861286018293), np.float64(0.011864955463619953), np.float64(0.011572581015218096), np.float64(0.011341782282834896), np.float64(0.011160003103156875), np.float64(0.01101697108487777), np.float64(0.010904434423328871), np.float64(0.010815845598946425), np.float64(0.01074604944159476), np.float64(0.010691004607937224), np.float64(0.010647548978762371), np.float64(0.010613209059534785), np.float64(0.010586048564651932), np.float64(0.010564549731657016), np.float64(0.010547520968316263), np.float64(0.010534025220725819), np.float64(0.010523324443134953), np.float64(0.010514836502084127), np.float64(0.010508101661984485), np.float64(0.010502756457399594), np.float64(0.010498513271416326), np.float64(0.01049514433439033), np.float64(0.01049246915785183), np.float64(0.01049034464637174), np.float64(0.010488657303318456), np.float64(0.010487317078077499), np.float64(0.010486252503191226), np.float64(0.010485406847080988), np.float64(0.010484735067764156), np.float64(0.010484201399215007), np.float64(0.010483777437866704), np.float64(0.010483440625050675), np.float64(0.010483173042935527), np.float64(0.010482960459011915), np.float64(0.010482791567580838), np.float64(0.010482657387546477), np.float64(0.01048255078425598), np.float64(0.01048246608974106), np.float64(0.01048239880114132), np.float64(0.010482345341142), np.float64(0.010482302867710212), np.float64(0.01048226912293602), np.float64(0.010482242312965281), np.float64(0.010482221012619567), np.float64(0.01048220408962198), np.float64(0.010482190644394486), np.float64(0.010482179962222603), np.float64(0.01048217147528405), np.float64(0.010482164732446812), np.float64(0.010482159375292009), np.float64(0.010482155119051878), np.float64(0.01048215173748545), np.float64(0.010482149050839055)]</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -3908,25 +4318,30 @@
         <v>200</v>
       </c>
       <c r="F83" t="n">
-        <v>0.01097506367001842</v>
+        <v>0.01194081783633116</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.21033460411320604), np.float64(-0.1787619509437204), np.float64(0.07205460072685162)], [np.float64(0.07078927001823711), np.float64(0.4940320255934872), np.float64(0.3182346357547457)], [np.float64(0.7370227347856789), np.float64(0.22850897041704699), np.float64(0.2914540949850825)], [np.float64(-0.013581641698011598), np.float64(0.7962455165858532), np.float64(0.9068666786132291)]], [[np.float64(-0.11414952469160902), np.float64(0.027405198561541423)], [np.float64(0.7149250308719759), np.float64(0.32454468824592414)], [np.float64(0.2603643503346613), np.float64(-0.261001090947565)]]]</t>
+          <t>[[[np.float64(0.34543906947052144), np.float64(0.18330946404413154), np.float64(-0.00986375894417039)], [np.float64(0.3269646725233789), np.float64(0.5101450529101331), np.float64(0.7220906602604483)], [np.float64(-0.012074263810156763), np.float64(0.8841276929846591), np.float64(0.1495797809365703)], [np.float64(0.2820546953869089), np.float64(0.5508998972982931), np.float64(0.7025802893368366)]], [[np.float64(0.35474021414474477), np.float64(-0.07189217304343648)], [np.float64(0.6686231968096924), np.float64(0.0013392626389922497)], [np.float64(0.04734626844326974), np.float64(0.12663533232947746)]]]</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>[[0.22296198325698213, 0.386144779708803, np.float64(0.5919338977255767)], [0.09566088266204664, np.float64(0.1587967027633133)]]</t>
+          <t>[[0.5039877836699747, 0.7790019983216477, np.float64(0.2601526092918981)], [0.6239631087231508, np.float64(0.10986222149266323)]]</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>[np.float64(0.1940428623724751), np.float64(0.7793682902521034)]</t>
+          <t>[np.float64(0.22604589228288272), np.float64(0.67454283727012)]</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>0.6874817933079411</v>
+        <v>0.6580244384931694</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>[np.float64(0.05233547350332363), np.float64(0.05214490633018038), np.float64(0.05193800240252937), np.float64(0.05171326931942735), np.float64(0.0514690709874546), np.float64(0.05120361289176263), np.float64(0.05091492591991505), np.float64(0.0506008486943429), np.float64(0.05025900842522277), np.float64(0.049886800384758914), np.float64(0.049481366241148926), np.float64(0.04903957169664084), np.float64(0.04855798417749165), np.float64(0.04803285176408001), np.float64(0.0474600851793544), np.float64(0.04683524554310058), np.float64(0.046153541837233046), np.float64(0.04540984372086302), np.float64(0.04459871760305232), np.float64(0.043714496837212416), np.float64(0.04275140060057972), np.float64(0.04170372037609477), np.float64(0.04056609756398633), np.float64(0.039333919640547534), np.float64(0.03800386350465042), np.float64(0.03657460981234686), np.float64(0.03504773597284872), np.float64(0.03342876124084126), np.float64(0.031728258344645315), np.float64(0.029962860541575022), np.float64(0.028155892327972127), np.float64(0.02633727105255141), np.float64(0.024542327287112503), np.float64(0.022809345598189392), np.float64(0.021175965905431866), np.float64(0.019675034833563206), np.float64(0.01833085542993303), np.float64(0.01715681441982663), np.float64(0.016154973095855646), np.float64(0.015317555278778735), np.float64(0.01462968948538743), np.float64(0.014072529612966), np.float64(0.013626017492177941), np.float64(0.013270889912730502), np.float64(0.012989865192675176), np.float64(0.012768152721307933), np.float64(0.012593502029765074), np.float64(0.0124559916978154), np.float64(0.012347705036604976), np.float64(0.012262383606850391), np.float64(0.012195106343047364), np.float64(0.01214201392898962), np.float64(0.012100082208231212), np.float64(0.012066940745004535), np.float64(0.012040729772839234), np.float64(0.012019988367761972), np.float64(0.012003567381901755), np.float64(0.01199056173394667), np.float64(0.011980257722654777), np.float64(0.011972091966774043), np.float64(0.011965619341495383), np.float64(0.011960487886646902), np.float64(0.011956419129969052), np.float64(0.011953192627445501), np.float64(0.011950633796491292), np.float64(0.01194860432673874), np.float64(0.011946994613100998), np.float64(0.011945717778534289), np.float64(0.011944704948584413), np.float64(0.011943901512956068), np.float64(0.011943264166325681), np.float64(0.011942758564894235), np.float64(0.011942357469897443), np.float64(0.011942039276444511), np.float64(0.01194178684745188), np.float64(0.011941586589203228), np.float64(0.011941427718391663), np.float64(0.011941301680881374), np.float64(0.011941201690757304), np.float64(0.011941122364739194), np.float64(0.01194105943220523), np.float64(0.011941009505192144), np.float64(0.011940969895946485), np.float64(0.011940938472194546), np.float64(0.011940913542333332), np.float64(0.011940893764346922), np.float64(0.011940878073567125), np.float64(0.011940865625349807), np.float64(0.011940855749600066), np.float64(0.01194084791471031), np.float64(0.011940841698926912), np.float64(0.011940836767654246), np.float64(0.011940832855443523), np.float64(0.01194082975170188), np.float64(0.01194082728936037), np.float64(0.011940825335866793), np.float64(0.011940823786067315), np.float64(0.011940822556538359), np.float64(0.011940821581094935), np.float64(0.01194082080722826), np.float64(0.011940820193285313), np.float64(0.011940819706215616), np.float64(0.011940819319798922), np.float64(0.011940819013235529), np.float64(0.011940818770025707), np.float64(0.011940818577076325), np.float64(0.01194081842400018), np.float64(0.01194081830255647), np.float64(0.011940818206209406), np.float64(0.011940818129772544), np.float64(0.011940818069132733), np.float64(0.011940818021025498), np.float64(0.011940817982859963), np.float64(0.01194081795257853), np.float64(0.011940817928556323), np.float64(0.011940817909498037), np.float64(0.011940817894378765), np.float64(0.011940817882382373), np.float64(0.011940817872864754), np.float64(0.011940817865316021), np.float64(0.011940817859325378), np.float64(0.011940817854573762), np.float64(0.011940817850805684), np.float64(0.011940817847814601), np.float64(0.011940817845440987), np.float64(0.01194081784355864), np.float64(0.011940817842063923), np.float64(0.011940817840881352), np.float64(0.011940817839942401), np.float64(0.011940817839195038), np.float64(0.011940817838602378), np.float64(0.011940817838131454), np.float64(0.011940817837760432), np.float64(0.0119408178374632), np.float64(0.011940817837230028), np.float64(0.011940817837042227), np.float64(0.011940817836895407), np.float64(0.011940817836780498), np.float64(0.011940817836689419), np.float64(0.011940817836616538), np.float64(0.01194081783655912), np.float64(0.011940817836514144), np.float64(0.011940817836475328), np.float64(0.011940817836446528), np.float64(0.011940817836422847), np.float64(0.011940817836404908), np.float64(0.011940817836389396), np.float64(0.011940817836376834), np.float64(0.011940817836366413), np.float64(0.011940817836358692), np.float64(0.011940817836353675), np.float64(0.01194081783634907), np.float64(0.01194081783634593), np.float64(0.011940817836343072), np.float64(0.011940817836342316), np.float64(0.011940817836341624), np.float64(0.011940817836340933), np.float64(0.011940817836340307), np.float64(0.01194081783633971), np.float64(0.011940817836339141), np.float64(0.011940817836338618), np.float64(0.011940817836338153), np.float64(0.011940817836337696), np.float64(0.01194081783633731), np.float64(0.011940817836336865), np.float64(0.011940817836336466), np.float64(0.011940817836336083), np.float64(0.011940817836335771), np.float64(0.011940817836335462), np.float64(0.011940817836335132), np.float64(0.011940817836334836), np.float64(0.011940817836334565), np.float64(0.011940817836334341), np.float64(0.011940817836334166), np.float64(0.011940817836333906), np.float64(0.01194081783633373), np.float64(0.011940817836333524), np.float64(0.011940817836333347), np.float64(0.011940817836333151), np.float64(0.011940817836332974), np.float64(0.011940817836332834), np.float64(0.0119408178363327), np.float64(0.01194081783633256), np.float64(0.011940817836332442), np.float64(0.011940817836332298), np.float64(0.011940817836332203), np.float64(0.011940817836332081), np.float64(0.011940817836331956), np.float64(0.011940817836331845), np.float64(0.011940817836331784), np.float64(0.011940817836331717), np.float64(0.011940817836331632), np.float64(0.011940817836331538), np.float64(0.011940817836331483), np.float64(0.011940817836331425), np.float64(0.01194081783633137), np.float64(0.011940817836331327), np.float64(0.01194081783633127), np.float64(0.01194081783633121), np.float64(0.01194081783633116)]</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -3950,25 +4365,30 @@
         <v>100</v>
       </c>
       <c r="F84" t="n">
-        <v>0.01078544756548524</v>
+        <v>0.01182999696490358</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[[[np.float64(1.1458800309049875), np.float64(0.5320044357732973), np.float64(0.5031994204044875)], [np.float64(0.9042726495469987), np.float64(0.7829237787000722), np.float64(0.8854164340872086)], [np.float64(0.7843542331876795), np.float64(0.46206253618148757), np.float64(0.7006960777922154)], [np.float64(0.7119064789640374), np.float64(1.0422614883313257), np.float64(0.9402440280552498)]], [[np.float64(0.7692089634795222), np.float64(1.6075082001598455)], [np.float64(1.041223483383572), np.float64(1.4683624953197218)], [np.float64(0.45356784429613856), np.float64(1.8117565653937333)]]]</t>
+          <t>[[[np.float64(0.5816931712127701), np.float64(0.08080337372374148), np.float64(0.7054604036070172)], [np.float64(0.5512088633665834), np.float64(0.6015345388029238), np.float64(0.7051137787989499)], [np.float64(0.660061276619865), np.float64(0.7770770013586968), np.float64(0.49986180477516345)], [np.float64(0.371866310678967), np.float64(0.8274605816037462), np.float64(0.7982594780542717)]], [[np.float64(0.4179513609489306), np.float64(-0.1142891827514409)], [np.float64(0.004748063736693861), np.float64(-0.0687445210555116)], [np.float64(0.6761341453303724), np.float64(0.5279605758892956)]]]</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>[[0.9325833439702169, 0.9454455110816862, np.float64(1.0414137254222586)], [0.39507955662070227, np.float64(1.4382358813675198)]]</t>
+          <t>[[0.5669976891146072, 0.03093323092840794, np.float64(-0.026062203370327944)], [0.38108337822083904, np.float64(0.45966477894085056)]]</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>[np.float64(0.20278364713912417), np.float64(0.6226324871503472)]</t>
+          <t>[np.float64(0.15237177802051244), np.float64(0.2193771412893558)]</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>0.1270601614907838</v>
+        <v>0.6921829061383354</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>[np.float64(0.01532052586869026), np.float64(0.015209531355756426), np.float64(0.015095476950853703), np.float64(0.014978603509473063), np.float64(0.014859196561163305), np.float64(0.014737586751131779), np.float64(0.014614149207931247), np.float64(0.014489301669430443), np.float64(0.01436350122847684), np.float64(0.014237239606214612), np.float64(0.014111036925051524), np.float64(0.013985434033671286), np.float64(0.013860983529224628), np.float64(0.013738239720585842), np.float64(0.013617747872497706), np.float64(0.013500033153121541), np.float64(0.013385589766198714), np.float64(0.013274870774062768), np.float64(0.013168279102789124), np.float64(0.013066160163789241), np.float64(0.01296879643064797), np.float64(0.012876404184833873), np.float64(0.01278913250204637), np.float64(0.01270706440758945), np.float64(0.012630219999431567), np.float64(0.012558561233755563), np.float64(0.012491997998308618), np.float64(0.012430395066402202), np.float64(0.012373579527553356), np.float64(0.01232134832333058), np.float64(0.012273475571134807), np.float64(0.012229719425123525), np.float64(0.012189828294118838), np.float64(0.012153546303973667), np.float64(0.01212061795184275), np.float64(0.012090791949081591), np.float64(0.012063824287132766), np.float64(0.012039480587097036), np.float64(0.012017537809825162), np.float64(0.011997785411300501), np.float64(0.011980026029402346), np.float64(0.011964075784902677), np.float64(0.01194976427320443), np.float64(0.011936934315167416), np.float64(0.011925441526520851), np.float64(0.011915153756332621), np.float64(0.011905950436532076), np.float64(0.011897721876609875), np.float64(0.011890368530703549), np.float64(0.011883800258314106), np.float64(0.011877935594731404), np.float64(0.01187270104308685), np.float64(0.011868030396443708), np.float64(0.011863864095603456), np.float64(0.01186014862603225), np.float64(0.01185683595569767), np.float64(0.011853883014209534), np.float64(0.011851251212757152), np.float64(0.01184890600359919), np.float64(0.011846816477388689), np.float64(0.011844954996286832), np.float64(0.011843296860633751), np.float64(0.01184182000686176), np.float64(0.0118405047343083), np.float64(0.011839333458618246), np.float64(0.011838290489545789), np.float64(0.011837361830984846), np.float64(0.011836535001284653), np.float64(0.011835798871925846), np.float64(0.01183514352286169), np.float64(0.011834560112894991), np.float64(0.011834040763617836), np.float64(0.011833578455579712), np.float64(0.011833166935440875), np.float64(0.01183280063298645), np.float64(0.011832474587007251), np.float64(0.01183218437911347), np.float64(0.011831926074658794), np.float64(0.01183169617002937), np.float64(0.011831491545617565), np.float64(0.011831309423898335), np.float64(0.01183114733203747), np.float64(0.011831003068566564), np.float64(0.011830874673681721), np.float64(0.01183076040277715), np.float64(0.011830658702866568), np.float64(0.011830568191571323), np.float64(0.011830487638410893), np.float64(0.011830415948133995), np.float64(0.011830352145877148), np.float64(0.011830295363953362), np.float64(0.011830244830069359), np.float64(0.011830199856857624), np.float64(0.011830159832538756), np.float64(0.011830124212618013), np.float64(0.011830092512493309), np.float64(0.011830064300865022), np.float64(0.011830039193877177), np.float64(0.011830016849903587), np.float64(0.011829996964903581)]</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -3992,25 +4412,30 @@
         <v>200</v>
       </c>
       <c r="F85" t="n">
-        <v>0.01196129638971751</v>
+        <v>0.01219913183424303</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.2669435126334564), np.float64(0.12385762750462932), np.float64(0.5434303064343089)], [np.float64(0.2628977194301868), np.float64(0.3202833145184783), np.float64(0.4803990574855911)], [np.float64(0.7943850943798687), np.float64(0.6091703248798613), np.float64(0.10909558322488182)], [np.float64(0.8541042009696334), np.float64(0.8815718360666177), np.float64(0.8196350306458257)]], [[np.float64(0.5442061272738311), np.float64(0.27903349117043624)], [np.float64(0.42918385491193756), np.float64(0.8659404942027675)], [np.float64(0.8195951341538852), np.float64(0.9327441440038577)]]]</t>
+          <t>[[[np.float64(0.05468245463154519), np.float64(0.7749434662664304), np.float64(-0.19892923084681827)], [np.float64(-0.02807221924033945), np.float64(0.44927426678586907), np.float64(0.030323568754703024)], [np.float64(0.37047642980098583), np.float64(0.8989261201321803), np.float64(0.3369226392078248)], [np.float64(0.027966500312436995), np.float64(0.31855884642706433), np.float64(0.10179040987412684)]], [[np.float64(-0.4026852442489631), np.float64(0.02871707109965734)], [np.float64(-0.3641689478825149), np.float64(-0.14651633035450431)], [np.float64(0.26425907717543684), np.float64(0.3840994168457436)]]]</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>[[0.05497299786605425, 0.25573496662369277, np.float64(0.7113327739906057)], [0.9866345405088071, np.float64(0.561560312739131)]]</t>
+          <t>[[0.5527826545256807, 0.35578985297344123, np.float64(0.3483116163091514)], [0.8189777160064182, np.float64(-0.05449672117618916)]]</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>[np.float64(0.43121959495871404), np.float64(0.38088204462489295)]</t>
+          <t>[np.float64(0.8950176416867277), np.float64(0.1853530626048394)]</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>0.1681733204845936</v>
+        <v>0.6962151835071199</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>[np.float64(0.06260189960307727), np.float64(0.05718306807898552), np.float64(0.044315190734431825), np.float64(0.0194709192030586), np.float64(0.012211363209285573), np.float64(0.023375847402741474), np.float64(0.012301861618673714), np.float64(0.02424086578662907), np.float64(0.01224658934541427), np.float64(0.02300346933121389), np.float64(0.012226040952492693), np.float64(0.022216888366844673), np.float64(0.012208424739788979), np.float64(0.02141178328753812), np.float64(0.012199196445094578), np.float64(0.020662104693048466), np.float64(0.012199131834243033), np.float64(0.01996878793647072), np.float64(0.012208637655925267), np.float64(0.019332826012907353), np.float64(0.01222766921011458), np.float64(0.018753703706877834), np.float64(0.012255777498990537), np.float64(0.01822960355286488), np.float64(0.012292187363332237), np.float64(0.017757725751176866), np.float64(0.012335889005586605), np.float64(0.017334608703414578), np.float64(0.0123857299107323), np.float64(0.01695641350152986), np.float64(0.012440497809834866), np.float64(0.016619156179078044), np.float64(0.012498989192606213), np.float64(0.01631888389525131), np.float64(0.012560061256399423), np.float64(0.016051798963283695), np.float64(0.012622667669307667), np.float64(0.015814338670955073), np.float64(0.012685880061326501), np.float64(0.015603220186305665), np.float64(0.012748897887214729), np.float64(0.015415459500108324), np.float64(0.012811049454009155), np.float64(0.015248372147177199), np.float64(0.012871786696481662), np.float64(0.015099561930954178), np.float64(0.012930675892609626), np.float64(0.014966902383316338), np.float64(0.01298738606097106), np.float64(0.014848514390208742), np.float64(0.013041676348166059), np.float64(0.014742742360095333), np.float64(0.013093383335569359), np.float64(0.014648130503658234), np.float64(0.013142408885655446), np.float64(0.014563400199067905), np.float64(0.013188708908642962), np.float64(0.014487428995312284), np.float64(0.013232283252944291), np.float64(0.014419231518088785), np.float64(0.013273166797553566), np.float64(0.014357942352630586), np.float64(0.013311421739501126), np.float64(0.01430280085885596), np.float64(0.013347131015991689), np.float64(0.014253137804155708), np.float64(0.013380392769357765), np.float64(0.014208363662417936), np.float64(0.013411315747834452), np.float64(0.014167958413158592), np.float64(0.013440015530477512), np.float64(0.01413146267371919), np.float64(0.01346661146701792), np.float64(0.014098470004686243), np.float64(0.013491224230353156), np.float64(0.014068620240686898), np.float64(0.0135139738879802), np.float64(0.014041593712686162), np.float64(0.013534978409117514), np.float64(0.014017106242616971), np.float64(0.013554352534022747), np.float64(0.013994904804959699), np.float64(0.013572206942091339), np.float64(0.013974763763790992), np.float64(0.013588647664130446), np.float64(0.013956481605417707), np.float64(0.01360377569240319), np.float64(0.013939878097817828), np.float64(0.013617686749408393), np.float64(0.013924791817564943), np.float64(0.013630471182686446), np.float64(0.013911077993257226), np.float64(0.013642213958409873), np.float64(0.01389860662185174), np.float64(0.013652994731106104), np.float64(0.01388726082051943), np.float64(0.01366288797122421), np.float64(0.013876935381680036), np.float64(0.013671963135340352), np.float64(0.013867535504160847), np.float64(0.01368028486675698), np.float64(0.013858975676632964), np.float64(0.013687913216599047), np.float64(0.013851178693379877), np.float64(0.01369490387764227), np.float64(0.013844074785082075), np.float64(0.013701308424516572), np.float64(0.013837600849593944), np.float64(0.013707174555523144), np.float64(0.013831699770213863), np.float64(0.01371254633222244), np.float64(0.01382631981025123), np.float64(0.013717464413889718), np.float64(0.013821414074586822), np.float64(0.013721966284933992), np.float64(0.013816940029770597), np.float64(0.01372608647353116), np.float64(0.013812859075916523), np.float64(0.013729856760502228), np.float64(0.013809136164015037), np.float64(0.013733306377849586), np.float64(0.01380573945333353), np.float64(0.013736462196522756), np.float64(0.013802640004476258), np.float64(0.013739348903257962), np.float64(0.013799811503754726), np.float64(0.013741989166676544), np.float64(0.013797230015591211), np.float64(0.013744403792723618), np.float64(0.013794873759697755), np.float64(0.01374661186980277), np.float64(0.013792722910406256), np.float64(0.013748630903966854), np.float64(0.013790759415728765), np.float64(0.013750476944611975), np.float64(0.013788966834012803), np.float64(0.013752164701139158), np.float64(0.013787330186456578), np.float64(0.013753707651023446), np.float64(0.013785835823680663), np.float64(0.013755118139874392), np.float64(0.013784471305002282), np.float64(0.0137564074737962), np.float64(0.013783225289148045), np.float64(0.013757586004798933), np.float64(0.013782087435189725), np.float64(0.01375866320944927), np.float64(0.013781048312707413), np.float64(0.013759647761397216), np.float64(0.013780099320295539), np.float64(0.013760547598148215), np.float64(0.013779232611579007), np.float64(0.013761369982452507), np.float64(0.013778441028000861), np.float64(0.013762121558829865), np.float64(0.013777718037737743), np.float64(0.013762808405447132), np.float64(0.013777057680195359), np.float64(0.013763436081780357), np.float64(0.013776454515506038), np.float64(0.013764009672353356), np.float64(0.013775903578573766), np.float64(0.013764533826930804), np.float64(0.013775400337264421), np.float64(0.013765012797289502), np.float64(0.0137749406543345), np.float64(0.013765450471027526), np.float64(0.013774520752770185), np.float64(0.01376585040247614), np.float64(0.013774137184191421), np.float64(0.013766215841091289), np.float64(0.01377378680005193), np.float64(0.013766549757451788), np.float64(0.013773466725433461), np.float64(0.013766854866992249), np.float64(0.013773174335162367), np.float64(0.013767133651842367), np.float64(0.01377290723196961), np.float64(0.013767388380758434), np.float64(0.013772663226622631), np.float64(0.013767621127382824), np.float64(0.01377244031979649), np.float64(0.013767833786964797), np.float64(0.013772236685565622), np.float64(0.013768028091624463), np.float64(0.013772050656280047), np.float64(0.0137682056243903), np.float64(0.013771880708798381), np.float64(0.013768367831933956), np.float64(0.0137717254519617), np.float64(0.013768516036333023), np.float64(0.013771583615090881), np.float64(0.013768651445746934), np.float64(0.013771454037560832), np.float64(0.01376877516420012), np.float64(0.013771335659217555), np.float64(0.013768888200601057), np.float64(0.013771227511668996), np.float64(0.013768991476814683), np.float64(0.013771128710361673)]</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -4034,25 +4459,30 @@
         <v>100</v>
       </c>
       <c r="F86" t="n">
-        <v>0.08551298552490526</v>
+        <v>0.008188025398428604</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.11124593304804557), np.float64(0.7446283133706832), np.float64(-0.6190004065343413)], [np.float64(-0.5326442503133695), np.float64(0.029294936718574974), np.float64(-0.025162522456985616)], [np.float64(-0.5313646415533422), np.float64(0.528698659600207), np.float64(-0.6801156808998401)], [np.float64(0.02095913212917829), np.float64(0.7351064339164788), np.float64(0.3173224853624286)]], [[np.float64(-0.5964031316671259), np.float64(-1.031505135415402), np.float64(-0.7949009725258834)], [np.float64(-1.5462226741861267), np.float64(-2.04357444266938), np.float64(-1.756109520990053)], [np.float64(-0.562637315458121), np.float64(-1.5962190596105346), np.float64(-0.9449870939240081)]]]</t>
+          <t>[[[np.float64(-0.46991310465462904), np.float64(-0.9561295498524089), np.float64(-0.286598625736785)], [np.float64(-0.2795054753852868), np.float64(-0.9170842260647466), np.float64(0.007243564514610544)], [np.float64(-0.9207330071343326), np.float64(-0.9113180432057346), np.float64(-0.6712222104827161)], [np.float64(-0.051363046747796924), np.float64(-0.5390928871586798), np.float64(0.3409036813010599)]], [[np.float64(-3.984477465022725), np.float64(-2.8897906485573075), np.float64(-0.6262878334872537)], [np.float64(-3.5772394994307004), np.float64(-2.880702289758933), np.float64(-0.29253331348619055)], [np.float64(-2.904573070726683), np.float64(-1.62174075167633), np.float64(-0.5375801144122685)]]]</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>[[0.7096683434437481, 0.8835431717558611, np.float64(-0.5944181411713838)], [0.1277103303829158, 0.8634848680809866, np.float64(-0.6618494743333727)]]</t>
+          <t>[[0.9132856418436989, 0.7384855517641156, np.float64(-0.5939416194612077)], [0.21900168375471074, 0.07183860904207551, np.float64(0.0450993416914912)]]</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>[np.float64(0.32471106575037745), np.float64(0.45201085334905033), np.float64(0.3550116127515966)]</t>
+          <t>[np.float64(0.8449903961064282), np.float64(0.5857731554802518), np.float64(0.19008751636452534)]</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>0.9786734883914328</v>
+        <v>0.5187884469014167</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>[np.float64(18.259767025301723), np.float64(0.01231414927187959), np.float64(0.012178213901198517), np.float64(0.012046919138094709), np.float64(0.011920011989699119), np.float64(0.011797336225060512), np.float64(0.01167878780786746), np.float64(0.011564216268947354), np.float64(0.011453474601878302), np.float64(0.01134639533480911), np.float64(0.011242930964006878), np.float64(0.01114291996073268), np.float64(0.011046172402890743), np.float64(0.010952667950809973), np.float64(0.01086230145111302), np.float64(0.010774951235211756), np.float64(0.010690426639189503), np.float64(0.01060861243667668), np.float64(0.010529427481649863), np.float64(0.010452814410804223), np.float64(0.010378646155199246), np.float64(0.010306803790286603), np.float64(0.010237291821520937), np.float64(0.010170035463722952), np.float64(0.01010491411523541), np.float64(0.010041871758045379), np.float64(0.009980819547028327), np.float64(0.009921681209173833), np.float64(0.009864399596329225), np.float64(0.009808905475139882), np.float64(0.009755191669028619), np.float64(0.009703163735439595), np.float64(0.009652742671379578), np.float64(0.009603872409135723), np.float64(0.0095564874172901), np.float64(0.009510546187543212), np.float64(0.009466032448625773), np.float64(0.009422869817511469), np.float64(0.009380994400696757), np.float64(0.00934037643683138), np.float64(0.009300970056165063), np.float64(0.009262724601882688), np.float64(0.009225614465039382), np.float64(0.009189603523005092), np.float64(0.009154655316989491), np.float64(0.00912071745362154), np.float64(0.009087762693963474), np.float64(0.009055762901674267), np.float64(0.009024695195269094), np.float64(0.008994537810549255), np.float64(0.008965249074549785), np.float64(0.008936817194443282), np.float64(0.008909193897466439), np.float64(0.008882359981098197), np.float64(0.008856273784423118), np.float64(0.00883094140353307), np.float64(0.008806318302688536), np.float64(0.008782385770904703), np.float64(0.008759119900080164), np.float64(0.008736499602138728), np.float64(0.008714497271258122), np.float64(0.008693097275614264), np.float64(0.00867228928855196), np.float64(0.008652049361932415), np.float64(0.008632358824081792), np.float64(0.008613198574284863), np.float64(0.008594549360949007), np.float64(0.008576401029348148), np.float64(0.008558736320812053), np.float64(0.008541546058009396), np.float64(0.008524811680205418), np.float64(0.008508517733977662), np.float64(0.008492647720675511), np.float64(0.008477194612180175), np.float64(0.008462151376916426), np.float64(0.008447500058832729), np.float64(0.008433229296405621), np.float64(0.008419328157681044), np.float64(0.008405784588025515), np.float64(0.008392589301599838), np.float64(0.008379729517382521), np.float64(0.008367194811086068), np.float64(0.008354976937398284), np.float64(0.008343068196258024), np.float64(0.00833146043663145), np.float64(0.008320138440373312), np.float64(0.008309097740887976), np.float64(0.008298334130581904), np.float64(0.008287839928735373), np.float64(0.00827760553750894), np.float64(0.008267624351530722), np.float64(0.00825788581308947), np.float64(0.00824838192346095), np.float64(0.008239107472947493), np.float64(0.00823006101509285), np.float64(0.008221236339613368), np.float64(0.00821262742590292), np.float64(0.008204228294259102), np.float64(0.00819602862116622), np.float64(0.008188025398428604)]</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -4076,25 +4506,30 @@
         <v>200</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1560428462812947</v>
+        <v>0.2971816552909936</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[[[np.float64(-1.5771067182752971), np.float64(-1.1289941510238866), np.float64(-2.5181333110252617)], [np.float64(-1.3867224759044918), np.float64(-0.9707290639037413), np.float64(-2.1706806479809257)], [np.float64(-1.8198121960794191), np.float64(-0.5279679699477714), np.float64(-2.305763920239819)], [np.float64(-0.17303752352334195), np.float64(0.22476420793633717), np.float64(-1.0361793675853337)]], [[np.float64(-4.834474893555942), np.float64(-2.8214087228974094), np.float64(-3.580601377578619)], [np.float64(-5.295177088696174), np.float64(-2.8574947371568276), np.float64(-3.832604223388913)], [np.float64(-2.283991664250184), np.float64(-1.6240149923997473), np.float64(-1.8758940646442221)]]]</t>
+          <t>[[[np.float64(-1.6765450417967154), np.float64(-0.8426566254562863), np.float64(-2.1221732963069653)], [np.float64(-1.6371304459192604), np.float64(-0.8684102458150589), np.float64(-1.6174483606716563)], [np.float64(-2.081748426882789), np.float64(-0.5438303579846608), np.float64(-2.1784404511372757)], [np.float64(-0.558768271548543), np.float64(0.20707777811812206), np.float64(-0.6161207646385878)]], [[np.float64(-4.629689539100621), np.float64(-6.916375290290747), np.float64(-0.05364528391150245)], [np.float64(-2.074313051280895), np.float64(-2.459383479160514), np.float64(-0.14553759300400695)], [np.float64(-2.1148689759971164), np.float64(-3.487024963586887), np.float64(-0.35363506151301033)]]]</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>[[0.45143274954017576, 0.761198073309, np.float64(-3.3451182278140745)], [0.021895377854739162, 0.4007125103111481, np.float64(-1.2989636849607296)]]</t>
+          <t>[[0.885272832305666, 0.004372406575041343, np.float64(-3.7426305596260807)], [0.7318637268133578, 0.28111936906175927, np.float64(-0.02081050821690596)]]</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>[np.float64(0.9120925980690491), np.float64(0.4815949092644737), np.float64(0.6683997994642056)]</t>
+          <t>[np.float64(0.666752629075608), np.float64(0.9030836240910102), np.float64(0.10400970464550838)]</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>0.8753385664778571</v>
+        <v>0.5003414290025402</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>[np.float64(30.734883078199232), np.float64(0.3156728635830426), np.float64(0.3145287994045919), np.float64(0.3144380372885476), np.float64(0.3143473033508286), np.float64(0.3142565975825186), np.float64(0.3141659199747049), np.float64(0.314075270518476), np.float64(0.31398464920492386), np.float64(0.3138940560251447), np.float64(0.31380349097023524), np.float64(0.31371295403129446), np.float64(0.31362244519942806), np.float64(0.31353196446574266), np.float64(0.3134415118213442), np.float64(0.3133510872573453), np.float64(0.31326069076486207), np.float64(0.3131703223350126), np.float64(0.3130799819589166), np.float64(0.31298966962769587), np.float64(0.3128993853324776), np.float64(0.3128091290643906), np.float64(0.31271890081456644), np.float64(0.31262870057413983), np.float64(0.31253852833424944), np.float64(0.31244838408603354), np.float64(0.3123582678206348), np.float64(0.31226817952920105), np.float64(0.312178119202881), np.float64(0.31208808683282485), np.float64(0.3119980824101869), np.float64(0.3119081059261263), np.float64(0.3118181573718017), np.float64(0.3117282367383743), np.float64(0.3116383440170134), np.float64(0.3115484791988843), np.float64(0.3114586422751613), np.float64(0.31136883323701675), np.float64(0.3112790520756262), np.float64(0.3111892987821735), np.float64(0.31109957334783606), np.float64(0.3110098757638042), np.float64(0.310920206021264), np.float64(0.3108305641114074), np.float64(0.31074095002542423), np.float64(0.3106513637545154), np.float64(0.31056180528988114), np.float64(0.3104722746227207), np.float64(0.31038277174424156), np.float64(0.31029329664565225), np.float64(0.3102038493181574), np.float64(0.31011442975297887), np.float64(0.3100250379413281), np.float64(0.3099356738744277), np.float64(0.3098463375434932), np.float64(0.3097570289397567), np.float64(0.3096677480544391), np.float64(0.30957849487877903), np.float64(0.3094892694040014), np.float64(0.30940007162134636), np.float64(0.309310901522054), np.float64(0.30922175909736244), np.float64(0.3091326443385185), np.float64(0.30904355723676896), np.float64(0.3089544977833628), np.float64(0.3088654659695535), np.float64(0.30877646178659773), np.float64(0.3086874852257514), np.float64(0.3085985362782784), np.float64(0.3085096149354371), np.float64(0.30842072118850317), np.float64(0.3083318550287414), np.float64(0.3082430164474227), np.float64(0.3081542054358239), np.float64(0.30806542198522263), np.float64(0.3079766660868974), np.float64(0.30788793773214035), np.float64(0.30779923691222755), np.float64(0.30771056361845145), np.float64(0.30762191784210485), np.float64(0.307533299574481), np.float64(0.30744470880687924), np.float64(0.3073561455305989), np.float64(0.3072676097369429), np.float64(0.307179101417215), np.float64(0.3070906205627282), np.float64(0.3070021671647889), np.float64(0.3069137412147142), np.float64(0.3068253427038199), np.float64(0.3067369716234286), np.float64(0.30664862796485537), np.float64(0.306560311719433), np.float64(0.3064720228784854), np.float64(0.30638376143334695), np.float64(0.3062955273753456), np.float64(0.30620732069582135), np.float64(0.3061191413861146), np.float64(0.30603098943756507), np.float64(0.30594286484151306), np.float64(0.3058547675893119), np.float64(0.30576669767231), np.float64(0.30567865508186154), np.float64(0.30559063980931855), np.float64(0.30550265184604347), np.float64(0.30541469118339626), np.float64(0.3053267578127372), np.float64(0.3052388517254373), np.float64(0.3051509729128666), np.float64(0.30506312136639213), np.float64(0.3049752970773922), np.float64(0.3048875000372462), np.float64(0.30479973023733214), np.float64(0.3047119876690329), np.float64(0.30462427232373435), np.float64(0.30453658419282736), np.float64(0.3044489232677032), np.float64(0.30436128953975444), np.float64(0.30427368300037777), np.float64(0.3041861036409746), np.float64(0.3040985514529457), np.float64(0.30401102642769834), np.float64(0.3039235285566364), np.float64(0.3038360578311755), np.float64(0.303748614242729), np.float64(0.30366119778270867), np.float64(0.3035738084425347), np.float64(0.3034864462136315), np.float64(0.30339911108742273), np.float64(0.303311803055335), np.float64(0.30322452210879747), np.float64(0.3031372682392423), np.float64(0.30305004143810643), np.float64(0.3029628416968268), np.float64(0.30287566900684626), np.float64(0.3027885233596067), np.float64(0.3027014047465539), np.float64(0.3026143131591367), np.float64(0.30252724858880964), np.float64(0.30244021102702556), np.float64(0.3023532004652408), np.float64(0.3022662168949178), np.float64(0.3021792603075141), np.float64(0.3020923306945035), np.float64(0.3020054280473432), np.float64(0.3019185523575134), np.float64(0.3018317036164844), np.float64(0.3017448818157321), np.float64(0.30165808694673807), np.float64(0.3015713190009795), np.float64(0.30148457796994277), np.float64(0.30139786384511813), np.float64(0.3013111766179927), np.float64(0.30122451628005775), np.float64(0.30113788282281284), np.float64(0.3010512762377529), np.float64(0.30096469651637886), np.float64(0.3008781436501956), np.float64(0.30079161763070594), np.float64(0.3007051184494269), np.float64(0.3006186460978595), np.float64(0.30053220056752683), np.float64(0.30044578184994386), np.float64(0.30035938993662537), np.float64(0.30027302481909984), np.float64(0.3001866864888897), np.float64(0.3001003749375225), np.float64(0.300014090156532), np.float64(0.29992783213744867), np.float64(0.2998416008718073), np.float64(0.2997553963511517), np.float64(0.29966921856701767), np.float64(0.299583067510953), np.float64(0.2994969431745032), np.float64(0.29941084554921926), np.float64(0.2993247746266499), np.float64(0.299238730398354), np.float64(0.299152712855888), np.float64(0.29906672199081136), np.float64(0.2989807577946874), np.float64(0.29889482025908254), np.float64(0.2988089093755641), np.float64(0.29872302513570553), np.float64(0.2986371675310764), np.float64(0.29855133655325866), np.float64(0.29846553219382665), np.float64(0.29837975444436654), np.float64(0.2982940032964606), np.float64(0.2982082787416942), np.float64(0.2981225807716599), np.float64(0.2980369093779504), np.float64(0.2979512645521619), np.float64(0.2978656462858889), np.float64(0.29778005457073486), np.float64(0.297694489398302), np.float64(0.29760895076019894), np.float64(0.29752343864803116), np.float64(0.2974379530534115), np.float64(0.29735249396795443), np.float64(0.2972670613832743), np.float64(0.29718165529099355)]</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -4118,25 +4553,30 @@
         <v>100</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1740961780025533</v>
+        <v>0.2324886907578741</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[[[np.float64(-11.905677307638175), np.float64(-34.70678594990293), np.float64(-24.377324161277446)], [np.float64(-11.20344768142294), np.float64(-33.1066752444321), np.float64(-22.912490357275743)], [np.float64(-12.331792533244467), np.float64(-36.28135480591624), np.float64(-25.556918066846443)], [np.float64(-5.028821966558603), np.float64(-16.434877424137888), np.float64(-11.671993352941223)]], [[np.float64(-60.988350734097224), np.float64(-25.34288548942714), np.float64(-66.01173785683706)], [np.float64(-62.117194038446996), np.float64(-26.479410714164036), np.float64(-66.99782258294387)], [np.float64(-32.84751252088448), np.float64(-14.271400025526496), np.float64(-35.93279471864544)]]]</t>
+          <t>[[[np.float64(-7.140339776554628), np.float64(-2.4969455957989672), np.float64(-22.48793049861705)], [np.float64(-7.1362583280382985), np.float64(-2.6143464352145553), np.float64(-21.415965454967612)], [np.float64(-7.384373255240479), np.float64(-2.865444891383381), np.float64(-22.927137324318736)], [np.float64(-2.7134797704238456), np.float64(-1.2650767820708733), np.float64(-10.658568510653991)]], [[np.float64(-46.322230212847494), np.float64(-58.96702909967637), np.float64(-7.550404997334657)], [np.float64(-39.83742850467916), np.float64(-51.184617638046184), np.float64(-6.944068906863783)], [np.float64(-38.02118182780552), np.float64(-49.09260517745341), np.float64(-6.156753603263993)]]]</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>[[0.8234300035129082, 0.8151937036685069, np.float64(-38.075636287806546)], [0.9152530357559081, 0.5243192043236967, np.float64(-31.320876874188457)]]</t>
+          <t>[[0.8991295746619804, 0.885608412548578, np.float64(-34.525313553492886)], [0.7745164937719372, 0.06758783354894515, np.float64(-2.6474956952836317)]]</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>[np.float64(0.7442940887815899), np.float64(0.30622318932014425), np.float64(0.8496750634251972)]</t>
+          <t>[np.float64(0.6769397950343048), np.float64(0.9156900683793389), np.float64(0.10948198736604517)]</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>0.267322509651434</v>
+        <v>0.59060458957304</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>[np.float64(21.88665553709402), np.float64(0.3067207699950702), np.float64(0.3058446337142996), np.float64(0.304971196102894), np.float64(0.30410044868536257), np.float64(0.3032323830131076), np.float64(0.3023669906643246), np.float64(0.30150426324394625), np.float64(0.30064419238352297), np.float64(0.2997867697411656), np.float64(0.2989319870014422), np.float64(0.2980798358753019), np.float64(0.2972303080999957), np.float64(0.29638339543898023), np.float64(0.29553908968184633), np.float64(0.294697382644225), np.float64(0.293858266167708), np.float64(0.29302173211977783), np.float64(0.29218777239370136), np.float64(0.2913563789084612), np.float64(0.29052754360868077), np.float64(0.2897012584645288), np.float64(0.28887751547164353), np.float64(0.2880563066510531), np.float64(0.2872376240490897), np.float64(0.28642145973731425), np.float64(0.28560780581243356), np.float64(0.2847966543962231), np.float64(0.28398799763543475), np.float64(0.2831818277017411), np.float64(0.2823781367916285), np.float64(0.2815769171263379), np.float64(0.28077816095177754), np.float64(0.279981860538446), np.float64(0.2791880081813511), np.float64(0.2783965961999359), np.float64(0.27760761693800445), np.float64(0.2768210627636285), np.float64(0.27603692606908553), np.float64(0.2752551992707817), np.float64(0.27447587480915786), np.float64(0.27369894514863713), np.float64(0.27292440277752705), np.float64(0.27215224020795487), np.float64(0.27138244997579175), np.float64(0.27061502464057086), np.float64(0.2698499567854191), np.float64(0.2690872390169732), np.float64(0.2683268639653183), np.float64(0.2675688242838928), np.float64(0.26681311264943836), np.float64(0.2660597217619027), np.float64(0.26530864434438356), np.float64(0.2645598731430414), np.float64(0.26381340092703875), np.float64(0.26306922048844994), np.float64(0.26232732464221464), np.float64(0.26158770622602817), np.float64(0.2608503581003026), np.float64(0.2601152731480773), np.float64(0.2593824442749487), np.float64(0.25865186440900445), np.float64(0.2579235265007431), np.float64(0.25719742352301), np.float64(0.25647354847091886), np.float64(0.2557518943617925), np.float64(0.25503245423507487), np.float64(0.2543152211522792), np.float64(0.2536001881968999), np.float64(0.2528873484743601), np.float64(0.2521766951119258), np.float64(0.25146822125864726), np.float64(0.25076192008528453), np.float64(0.25005778478423885), np.float64(0.24935580856948178), np.float64(0.2486559846764962), np.float64(0.24795830636219165), np.float64(0.24726276690484975), np.float64(0.24656935960405174), np.float64(0.24587807778060483), np.float64(0.24518891477648563), np.float64(0.24450186395476217), np.float64(0.24381691869953648), np.float64(0.24313407241586532), np.float64(0.24245331852970378), np.float64(0.24177465048783892), np.float64(0.24109806175781343), np.float64(0.2404235458278679), np.float64(0.23975109620687426), np.float64(0.23908070642426735), np.float64(0.23841237002998147), np.float64(0.2377460805943821), np.float64(0.23708183170820302), np.float64(0.23641961698248498), np.float64(0.23575943004850364), np.float64(0.23510126455770597), np.float64(0.2344451141816542), np.float64(0.23379097261195392), np.float64(0.2331388335601918), np.float64(0.23248869075787407)]</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -4160,25 +4600,30 @@
         <v>200</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1502024309866762</v>
+        <v>0.3833448068400417</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[[[np.float64(-24.942918522500282), np.float64(-22.80258803243618), np.float64(-20.13957326540821)], [np.float64(-23.25467691404311), np.float64(-20.5309290663714), np.float64(-18.67132260782963)], [np.float64(-25.689375449518813), np.float64(-23.159886680262282), np.float64(-20.637417397136932)], [np.float64(-11.722762572108651), np.float64(-9.929725347725142), np.float64(-9.216779070931297)]], [[np.float64(-19.81044419310856), np.float64(-36.941452811626036), np.float64(-0.45459209306212545)], [np.float64(-39.020410682115326), np.float64(-71.26466540165032), np.float64(-1.5563247753785021)], [np.float64(-14.601699215665592), np.float64(-27.548530668061037), np.float64(-0.018641112835882153)]]]</t>
+          <t>[[[np.float64(-6.425853382321234), np.float64(-10.307640735218628), np.float64(-6.980028885058883)], [np.float64(-5.395078716723654), np.float64(-10.521389550887497), np.float64(-6.313330637729711)], [np.float64(-6.914128322972727), np.float64(-10.913001693821544), np.float64(-6.743225322194318)], [np.float64(-2.334396186888136), np.float64(-5.251561907284616), np.float64(-3.2837351036634885)]], [[np.float64(-10.182374142945841), np.float64(-16.593099152409383), np.float64(-11.317219225877244)], [np.float64(-11.240117769485716), np.float64(-19.468846832602946), np.float64(-12.363153435897873)], [np.float64(-10.7901103894499), np.float64(-19.5314073867411), np.float64(-12.796919866094425)]]]</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[[0.5458263961170342, 0.9535641695815353, np.float64(-30.934847372486395)], [0.7697209880345772, 0.9925583588202385, np.float64(-0.7640258884877857)]]</t>
+          <t>[[0.28775588496777915, 0.3904379604627404, np.float64(-11.314805317560994)], [0.4465755489233375, 0.8494880804684922, np.float64(-7.90592945539815)]]</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>[np.float64(0.42569789535903235), np.float64(0.8251194360835371), np.float64(0.00743892572155681)]</t>
+          <t>[np.float64(0.28252049614251257), np.float64(0.47117609909028046), np.float64(0.38732467067756293)]</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>-0.06857760037826055</v>
+        <v>0.7882885093491815</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>[np.float64(14.069819238988638), np.float64(0.773293849745939), np.float64(0.7705116113694351), np.float64(0.7677397869039296), np.float64(0.7649783368864439), np.float64(0.7622272220044821), np.float64(0.7594864030954583), np.float64(0.7567558411461499), np.float64(0.7540354972921148), np.float64(0.7513253328170933), np.float64(0.7486253091524833), np.float64(0.7459353878767466), np.float64(0.7432555307148798), np.float64(0.7405856995377891), np.float64(0.7379258563618039), np.float64(0.7352759633480944), np.float64(0.7326359828020862), np.float64(0.73000587717296), np.float64(0.7273856090530635), np.float64(0.724775141177383), np.float64(0.7221744364229927), np.float64(0.7195834578085013), np.float64(0.7170021684935322), np.float64(0.7144305317781628), np.float64(0.7118685111024026), np.float64(0.7093160700456359), np.float64(0.7067731723261218), np.float64(0.7042397818004467), np.float64(0.7017158624629681), np.float64(0.6992013784453434), np.float64(0.6966962940159529), np.float64(0.6942005735794076), np.float64(0.6917141816760175), np.float64(0.6892370829812715), np.float64(0.6867692423053277), np.float64(0.68431062459248), np.float64(0.681861194920676), np.float64(0.6794209185009674), np.float64(0.6769897606770515), np.float64(0.6745676869247006), np.float64(0.6721546628513061), np.float64(0.66975065419535), np.float64(0.6673556268259264), np.float64(0.6649695467422203), np.float64(0.6625923800730106), np.float64(0.66022409307619), np.float64(0.6578646521382573), np.float64(0.6555140237738363), np.float64(0.6531721746251743), np.float64(0.6508390714616585), np.float64(0.6485146811793371), np.float64(0.646198970800421), np.float64(0.6438919074728215), np.float64(0.6415934584696424), np.float64(0.639303591188724), np.float64(0.6370222731521449), np.float64(0.6347494720057818), np.float64(0.632485155518801), np.float64(0.6302292915831991), np.float64(0.6279818482133298), np.float64(0.6257427935454506), np.float64(0.6235120958372369), np.float64(0.6212897234673309), np.float64(0.6190756449348772), np.float64(0.616869828859055), np.float64(0.6146722439786197), np.float64(0.6124828591514639), np.float64(0.6103016433541271), np.float64(0.6081285656813793), np.float64(0.6059635953457406), np.float64(0.6038067016770544), np.float64(0.6016578541220045), np.float64(0.599517022243716), np.float64(0.5973841757212645), np.float64(0.59525928434926), np.float64(0.5931423180374011), np.float64(0.5910332468100205), np.float64(0.5889320408056695), np.float64(0.5868386702766581), np.float64(0.5847531055886372), np.float64(0.5826753172201559), np.float64(0.5806052757622308), np.float64(0.5785429519179243), np.float64(0.5764883165019092), np.float64(0.5744413404400267), np.float64(0.5724019947689056), np.float64(0.570370250635485), np.float64(0.5683460792966228), np.float64(0.5663294521186812), np.float64(0.5643203405770872), np.float64(0.5623187162559159), np.float64(0.5603245508475146), np.float64(0.5583378161520266), np.float64(0.5563584840770293), np.float64(0.554386526637097), np.float64(0.5524219159534053), np.float64(0.5504646242533136), np.float64(0.548514623869968), np.float64(0.5465718872418848), np.float64(0.5446363869125649), np.float64(0.5427080955300811), np.float64(0.5407869858466741), np.float64(0.5388730307183559), np.float64(0.53696620310454), np.float64(0.5350664760675967), np.float64(0.5331738227724986), np.float64(0.5312882164864156), np.float64(0.5294096305783226), np.float64(0.527538038518615), np.float64(0.5256734138787098), np.float64(0.5238157303306753), np.float64(0.5219649616468369), np.float64(0.5201210816993899), np.float64(0.5182840644600423), np.float64(0.5164538839995874), np.float64(0.5146305144875672), np.float64(0.5128139301918846), np.float64(0.5110041054784181), np.float64(0.5092010148106499), np.float64(0.5074046327492989), np.float64(0.5056149339519442), np.float64(0.503831893172659), np.float64(0.5020554852616356), np.float64(0.5002856851648192), np.float64(0.4985224679235518), np.float64(0.49676580867418935), np.float64(0.49501568264775264), np.float64(0.4932720651695687), np.float64(0.4915349316588887), np.float64(0.4898042576285553), np.float64(0.48808001868462775), np.float64(0.486362190526034), np.float64(0.4846507489442041), np.float64(0.482945669822736), np.float64(0.48124692913702494), np.float64(0.479554502953925), np.float64(0.4778683674313834), np.float64(0.4761884988181187), np.float64(0.47451487345324456), np.float64(0.47284746776595127), np.float64(0.471186258275132), np.float64(0.4695312215890669), np.float64(0.4678823344050773), np.float64(0.4662395735091557), np.float64(0.46460291577567225), np.float64(0.46297233816700883), np.float64(0.46134781773322264), np.float64(0.45972933161171786), np.float64(0.45811685702691657), np.float64(0.4565103712899164), np.float64(0.45490985179816434), np.float64(0.45331527603512484), np.float64(0.4517266215699505), np.float64(0.4501438660571587), np.float64(0.44856698723631033), np.float64(0.4469959629316527), np.float64(0.4454307710518465), np.float64(0.4438713895896035), np.float64(0.44231779662138143), np.float64(0.4407699703070631), np.float64(0.4392278888896311), np.float64(0.4376915306948603), np.float64(0.43616087413099314), np.float64(0.4346358976884265), np.float64(0.4331165799394031), np.float64(0.43160289953768477), np.float64(0.43009483521826275), np.float64(0.4285923657970267), np.float64(0.4270954701704632), np.float64(0.4256041273153575), np.float64(0.42411831628846186), np.float64(0.42263801622622243), np.float64(0.4211632063444481), np.float64(0.41969386593801666), np.float64(0.4182299743805774), np.float64(0.41677151112424277), np.float64(0.41531845569929393), np.float64(0.4138707877138791), np.float64(0.4124284868537128), np.float64(0.41099153288178697), np.float64(0.4095599056380748), np.float64(0.40813358503922603), np.float64(0.406712551078289), np.float64(0.40529678382440604), np.float64(0.40388626342253287), np.float64(0.4024809700931411), np.float64(0.4010808841319317), np.float64(0.39968598590955223), np.float64(0.39829625587130457), np.float64(0.3969116745368623), np.float64(0.3955322224999898), np.float64(0.3941578804282488), np.float64(0.3927886290627304), np.float64(0.39142444921775976), np.float64(0.3900653217806296), np.float64(0.38871122771131517), np.float64(0.38736214804219404), np.float64(0.38601806387776927), np.float64(0.3846789563944076), np.float64(0.38334480684004174)]</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -4202,25 +4647,30 @@
         <v>100</v>
       </c>
       <c r="F90" t="n">
-        <v>0.02423970195930833</v>
+        <v>0.03080892270065155</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.2794338630856398), np.float64(0.6243540903775253), np.float64(0.19252432953661264)], [np.float64(0.894685244650335), np.float64(0.006881727918667216), np.float64(0.4145319683057761)], [np.float64(0.38617642652424733), np.float64(0.9230012242435872), np.float64(0.5640775695256494)], [np.float64(0.8850407807371072), np.float64(0.44457097326702694), np.float64(0.5615689882747565)]], [[np.float64(0.6080649067258139), np.float64(0.6438395877410342), np.float64(0.5057079508242632)], [np.float64(0.7735468401551691), np.float64(0.7837595030541995), np.float64(0.7426071754034841)], [np.float64(0.0793721392627992), np.float64(0.19682615533587566), np.float64(0.8036926149808546)]]]</t>
+          <t>[[[np.float64(0.8061968687625632), np.float64(0.48440149830755974), np.float64(0.25191332376402714)], [np.float64(0.2537248752771655), np.float64(0.6356615818340017), np.float64(0.08329845955435101)], [np.float64(0.020584165941509552), np.float64(0.8462313505009295), np.float64(0.49296638515600855)], [np.float64(0.5861573002243176), np.float64(0.7359040007966278), np.float64(0.6015767808826142)]], [[np.float64(0.2925203505046572), np.float64(0.5785227938731066), np.float64(0.0017107296857188006)], [np.float64(-0.18554786809062976), np.float64(0.11499900814464846), np.float64(0.47874936041525534)], [np.float64(0.44454828798801016), np.float64(0.844832772739338), np.float64(0.7866875079436875)]]]</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>[[0.5705282626334308, 0.35495860159789006, np.float64(0.6146432310401577)], [0.25141354042695097, 0.5766864602101778, np.float64(0.2018080995321861)]]</t>
+          <t>[[0.007304797257627782, 0.40392044282966055, np.float64(0.554071016218405)], [0.416653784988968, 0.5362827154329072, np.float64(-0.04538224495140239)]]</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>[np.float64(0.4396307731105338), np.float64(0.38649341231094114), np.float64(0.1369014619770481)]</t>
+          <t>[np.float64(0.7712769618677646), np.float64(0.5786260689315189), np.float64(0.3743427970427214)]</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>0.7185199984740493</v>
+        <v>0.4211089657293117</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>[np.float64(0.03477861976918569), np.float64(0.0347395117515232), np.float64(0.03470036799642127), np.float64(0.03466118896308955), np.float64(0.03462197511207373), np.float64(0.03458272690524178), np.float64(0.0345434448057507), np.float64(0.03450412927802675), np.float64(0.034464780787750025), np.float64(0.03442539980181736), np.float64(0.03438598678833267), np.float64(0.03434654221657547), np.float64(0.034307066556983026), np.float64(0.03426756028112357), np.float64(0.03422802386167531), np.float64(0.034188457772396846), np.float64(0.034148862488115335), np.float64(0.03410923848469062), np.float64(0.03406958623899823), np.float64(0.034029906228904575), np.float64(0.033990198933239756), np.float64(0.033950464831775454), np.float64(0.03391070440520025), np.float64(0.03387091813510174), np.float64(0.03383110650392919), np.float64(0.03379126999497946), np.float64(0.033751409092370496), np.float64(0.03371152428101193), np.float64(0.03367161604658796), np.float64(0.03363168487552995), np.float64(0.0335917312549854), np.float64(0.033551755672801054), np.float64(0.033511758617496716), np.float64(0.03347174057823623), np.float64(0.0334317020448041), np.float64(0.03339164350758424), np.float64(0.03335156545753201), np.float64(0.03331146838614706), np.float64(0.03327135278545116), np.float64(0.03323121914796258), np.float64(0.03319106796667208), np.float64(0.033150899735007816), np.float64(0.0331107149468277), np.float64(0.03307051409637733), np.float64(0.03303029767827982), np.float64(0.0329900661874898), np.float64(0.032949820119292456), np.float64(0.03290955996925961), np.float64(0.03286928623323277), np.float64(0.03282899940729581), np.float64(0.03278869998774635), np.float64(0.03274838847107715), np.float64(0.032708065353943785), np.float64(0.03266773113314529), np.float64(0.03262738630559625), np.float64(0.03258703136829825), np.float64(0.03254666681831273), np.float64(0.0325062931527444), np.float64(0.032465910868716204), np.float64(0.03242552046332816), np.float64(0.03238512243365288), np.float64(0.03234471727669094), np.float64(0.03230430548936271), np.float64(0.032263887568467056), np.float64(0.032223464010669965), np.float64(0.03218303531247163), np.float64(0.03214260197018258), np.float64(0.03210216447989718), np.float64(0.03206172333747438), np.float64(0.03202127903850683), np.float64(0.03198083207829297), np.float64(0.031940382951823595), np.float64(0.03189993215374409), np.float64(0.03185948017833738), np.float64(0.03181902751950246), np.float64(0.031778574670716146), np.float64(0.03173812212501936), np.float64(0.03169767037499109), np.float64(0.031657219912724716), np.float64(0.03161677122979471), np.float64(0.03157632481724464), np.float64(0.031535881165554315), np.float64(0.031495440764619013), np.float64(0.03145500410372449), np.float64(0.03141457167152279), np.float64(0.03137414395600954), np.float64(0.03133372144449909), np.float64(0.031293304623601505), np.float64(0.03125289397919286), np.float64(0.03121248999640108), np.float64(0.031172093159579053), np.float64(0.031131703952276428), np.float64(0.031091322857223727), np.float64(0.03105095035630234), np.float64(0.03101058693052871), np.float64(0.03097023306002591), np.float64(0.030929889223998724), np.float64(0.030889555900719498), np.float64(0.030849233567493178), np.float64(0.030808922700651553)]</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -4244,25 +4694,30 @@
         <v>200</v>
       </c>
       <c r="F91" t="n">
-        <v>0.03405473740268417</v>
+        <v>0.04362350772779733</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.3623687028074326), np.float64(0.6705755997732493), np.float64(0.09915902187640195)], [np.float64(0.9457432420295069), np.float64(-0.00313323806107199), np.float64(0.09971325117588146)], [np.float64(0.36856668558039546), np.float64(0.5535663951478574), np.float64(-0.02257609247793089)], [np.float64(0.21560406799640305), np.float64(0.1701988912626641), np.float64(0.27683700972542097)]], [[np.float64(0.5468855374546511), np.float64(-0.11602275995528928), np.float64(0.8794215496862938)], [np.float64(0.012767506614955449), np.float64(0.00214374620977781), np.float64(0.5525865710739327)], [np.float64(0.7349700986400425), np.float64(-0.06829153648436613), np.float64(0.18977093357500996)]]]</t>
+          <t>[[[np.float64(0.6783804078354013), np.float64(0.7226635438814601), np.float64(0.27334808353867596)], [np.float64(0.059706927614843176), np.float64(0.310115354332881), np.float64(0.3746075887735641)], [np.float64(0.30252411455585565), np.float64(0.06869549775738087), np.float64(0.4607124037535618)], [np.float64(0.8811092385818823), np.float64(0.47778954591335643), np.float64(0.37071779912607683)]], [[np.float64(0.3075748614115628), np.float64(0.12329500416164092), np.float64(-0.09291433011435116)], [np.float64(-0.03771888607517557), np.float64(-0.1892914229467705), np.float64(0.29707226233423617)], [np.float64(-0.3626265170386787), np.float64(-0.47629500279048304), np.float64(0.03877128110700126)]]]</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>[[0.8944798328263193, 0.5862069905268618, np.float64(0.41803041122344936)], [0.9428372431894714, 0.1717820198674459, np.float64(0.10976352366466)]]</t>
+          <t>[[0.7823563213704857, 0.07568341880117047, np.float64(0.44338364662726937)], [0.8837396216155031, 0.058230697127009345, np.float64(-0.011315846659124619)]]</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>[np.float64(0.6649472971748747), np.float64(0.6915953075787991), np.float64(0.11500264611134622)]</t>
+          <t>[np.float64(0.9595113397827911), np.float64(0.7046785792324745), np.float64(0.7444093450155123)]</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>0.7766644187801265</v>
+        <v>0.6908361251325128</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>[np.float64(0.06491405457758981), np.float64(0.06484613522425216), np.float64(0.06477781909692049), np.float64(0.06470910489980744), np.float64(0.06463999134765465), np.float64(0.06457047716605682), np.float64(0.06450056109180698), np.float64(0.06443024187323045), np.float64(0.06435951827052508), np.float64(0.06428838905611994), np.float64(0.06421685301502664), np.float64(0.06414490894519581), np.float64(0.06407255565788338), np.float64(0.0639997919780199), np.float64(0.06392661674458747), np.float64(0.06385302881099926), np.float64(0.06377902704547815), np.float64(0.06370461033144889), np.float64(0.06362977756793105), np.float64(0.06355452766994088), np.float64(0.06347885956889317), np.float64(0.06340277221300596), np.float64(0.06332626456772171), np.float64(0.06324933561611959), np.float64(0.06317198435933372), np.float64(0.06309420981699508), np.float64(0.06301601102764927), np.float64(0.06293738704919381), np.float64(0.06285833695933096), np.float64(0.06277885985600357), np.float64(0.06269895485784391), np.float64(0.06261862110464202), np.float64(0.06253785775778292), np.float64(0.062456664000728405), np.float64(0.06237503903947012), np.float64(0.062292982103014385), np.float64(0.06221049244384741), np.float64(0.062127569338418946), np.float64(0.062044212087623174), np.float64(0.06196042001728935), np.float64(0.06187619247867118), np.float64(0.06179152884893176), np.float64(0.06170642853165504), np.float64(0.061620890957345874), np.float64(0.061534915583919735), np.float64(0.06144850189722454), np.float64(0.061361649411542526), np.float64(0.061274357670110385), np.float64(0.06118662624563161), np.float64(0.06109845474079209), np.float64(0.061009842788786316), np.float64(0.060920790053830845), np.float64(0.060831296231706924), np.float64(0.060741361050267166), np.float64(0.06065098426998111), np.float64(0.06056016568445873), np.float64(0.06046890512098022), np.float64(0.06037720244103401), np.float64(0.06028505754084342), np.float64(0.06019247035191485), np.float64(0.060099440841566425), np.float64(0.06000596901345886), np.float64(0.059912054908138765), np.float64(0.059817698603574734), np.float64(0.059722900215693146), np.float64(0.059627659898912194), np.float64(0.05953197784668174), np.float64(0.05943585429201117), np.float64(0.05933928950800918), np.float64(0.05924228380841245), np.float64(0.05914483754811255), np.float64(0.05904695112369603), np.float64(0.05894862497395688), np.float64(0.05884985958042774), np.float64(0.05875065546789843), np.float64(0.05865101320493744), np.float64(0.05855093340440066), np.float64(0.05845041672395458), np.float64(0.05834946386656449), np.float64(0.05824807558101635), np.float64(0.05814625266240704), np.float64(0.05804399595263847), np.float64(0.057941306340904504), np.float64(0.05783818476417936), np.float64(0.05773463220769271), np.float64(0.05763064970540425), np.float64(0.057526238340465365), np.float64(0.05742139924567784), np.float64(0.05731613360394462), np.float64(0.057210442648723034), np.float64(0.05710432766445022), np.float64(0.056997789986974176), np.float64(0.05689083100398061), np.float64(0.056783452155390324), np.float64(0.056675654933781454), np.float64(0.056567440884761955), np.float64(0.056458811607362706), np.float64(0.056349768754412353), np.float64(0.05624031403289141), np.float64(0.05613044920429224), np.float64(0.056020176084950385), np.float64(0.055909496546380555), np.float64(0.05579841251558752), np.float64(0.05568692597537929), np.float64(0.0555750389646441), np.float64(0.055462753578640354), np.float64(0.055350071969258514), np.float64(0.05523699634527354), np.float64(0.05512352897258228), np.float64(0.05500967217442031), np.float64(0.054895428331576616), np.float64(0.05478079988259132), np.float64(0.05466578932391725), np.float64(0.054550399210096336), np.float64(0.054434632153899085), np.float64(0.05431849082645838), np.float64(0.05420197795737444), np.float64(0.054085096334815855), np.float64(0.05396784880559694), np.float64(0.05385023827523743), np.float64(0.053732267708002365), np.float64(0.05361394012693271), np.float64(0.0534952586138421), np.float64(0.05337622630930922), np.float64(0.053256846412645574), np.float64(0.0531371221818447), np.float64(0.053017056933504406), np.float64(0.052896654042738515), np.float64(0.052775916943068414), np.float64(0.052654849126291176), np.float64(0.05253345414232072), np.float64(0.0524117355990217), np.float64(0.052289697162014856), np.float64(0.05216734255446156), np.float64(0.05204467555682537), np.float64(0.05192170000660897), np.float64(0.05179841979808967), np.float64(0.05167483888200843), np.float64(0.051550961265249835), np.float64(0.0514267910104907), np.float64(0.051302332235846446), np.float64(0.05117758911446946), np.float64(0.05105256587414426), np.float64(0.05092726679685271), np.float64(0.05080169621831836), np.float64(0.05067585852753428), np.float64(0.05054975816625117), np.float64(0.050423399628460756), np.float64(0.05029678745985777), np.float64(0.050169926257264255), np.float64(0.050042820668040534), np.float64(0.04991547538947828), np.float64(0.049787895168165924), np.float64(0.04966008479933318), np.float64(0.049532049126173976), np.float64(0.04940379303914458), np.float64(0.0492753214752539), np.float64(0.04914663941731341), np.float64(0.04901775189316964), np.float64(0.0488886639749341), np.float64(0.04875938077816834), np.float64(0.04862990746106332), np.float64(0.04850024922359545), np.float64(0.048370411306655786), np.float64(0.048240398991172766), np.float64(0.048110217597204345), np.float64(0.04797987248300957), np.float64(0.04784936904412037), np.float64(0.04771871271236219), np.float64(0.04758790895489262), np.float64(0.047456963273195145), np.float64(0.04732588120206634), np.float64(0.04719466830858786), np.float64(0.04706333019108011), np.float64(0.046931872478032134), np.float64(0.04680030082703246), np.float64(0.04666862092367243), np.float64(0.04653683848043188), np.float64(0.04640495923555927), np.float64(0.04627298895193793), np.float64(0.04614093341593655), np.float64(0.0460087984362408), np.float64(0.045876589842686874), np.float64(0.04574431348506927), np.float64(0.04561197523194253), np.float64(0.04547958096942262), np.float64(0.045347136599960404), np.float64(0.04521464804111831), np.float64(0.04508212122433451), np.float64(0.04494956209367958), np.float64(0.0448169766046001), np.float64(0.04468437072267161), np.float64(0.044551750422325356), np.float64(0.0444191216855831), np.float64(0.0442864905007755), np.float64(0.044153862861268024), np.float64(0.04402124476417847), np.float64(0.04388864220908621), np.float64(0.043756061196746604), np.float64(0.04362350772779733)]</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -4286,25 +4741,30 @@
         <v>100</v>
       </c>
       <c r="F92" t="n">
-        <v>0.01321196731661098</v>
+        <v>0.01050905645128632</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.9231869978592454), np.float64(0.27389062785827384), np.float64(0.47779247682908105)], [np.float64(0.24247563535546032), np.float64(0.5021725729356487), np.float64(0.734763614640266)], [np.float64(0.9590145013275856), np.float64(0.5218562164899629), np.float64(0.814723485692059)], [np.float64(0.5248735528946269), np.float64(0.8111713083847615), np.float64(0.603266921925492)]], [[np.float64(-0.2317899842551503), np.float64(0.6859817640376573), np.float64(-0.3723670506444435)], [np.float64(-0.1299677943755654), np.float64(0.8804707873861327), np.float64(-0.22337023416451127)], [np.float64(0.1295970182651388), np.float64(0.47682481511853253), np.float64(-0.1459126640495186)]]]</t>
+          <t>[[[np.float64(1.0027422422136514), np.float64(0.38557673948532367), np.float64(0.3133533331226711)], [np.float64(0.4638636192763936), np.float64(0.34894747274606824), np.float64(0.6978293597607909)], [np.float64(0.6504138223276934), np.float64(0.7830602383550911), np.float64(0.23933542408574127)], [np.float64(0.7415279825996297), np.float64(0.3209276202045414), np.float64(0.13732644297877317)]], [[np.float64(0.9145489509204494), np.float64(0.40363248105582616), np.float64(0.6286192045449587)], [np.float64(0.4107734328788657), np.float64(0.503749530216061), np.float64(0.8196306121214059)], [np.float64(0.919666322930005), np.float64(0.852914688394055), np.float64(0.2651740591765523)]]]</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>[[0.02028943865608357, 0.7019441838673967, np.float64(0.7370613162980284)], [0.8080882874928108, 0.707415476083333, np.float64(-0.3441300785592513)]]</t>
+          <t>[[0.26170116261616494, 0.20173167364273403, np.float64(0.4558729855430109)], [0.17866772872172587, 0.12490235735819866, np.float64(1.122798689156193)]]</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>[np.float64(0.3432738845520369), np.float64(0.10534076548296238), np.float64(0.9369243727546925)]</t>
+          <t>[np.float64(0.49793471345297674), np.float64(0.25847699071005265), np.float64(0.2805452698422452)]</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>0.5419917984857927</v>
+        <v>0.08837886058128819</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>[np.float64(0.01050905645128632), np.float64(0.0105141086187444), np.float64(0.010519207094440996), np.float64(0.010524349378034908), np.float64(0.01052953305750882), np.float64(0.010534755806072844), np.float64(0.010540015379178915), np.float64(0.010545309611647069), np.float64(0.010550636414895865), np.float64(0.010555993774274628), np.float64(0.010561379746492638), np.float64(0.010566792457141885), np.float64(0.010572230098310324), np.float64(0.010577690926280893), np.float64(0.01058317325931416), np.float64(0.010588675475511022), np.float64(0.010594196010752848), np.float64(0.01059973335671461), np.float64(0.010605286058950367), np.float64(0.01061085271504714), np.float64(0.01061643197284288), np.float64(0.010622022528712015), np.float64(0.010627623125907646), np.float64(0.01063323255296527), np.float64(0.010638849642161625), np.float64(0.010644473268030002), np.float64(0.010650102345924978), np.float64(0.010655735830640826), np.float64(0.01066137271507567), np.float64(0.010667012028945095), np.float64(0.010672652837538986), np.float64(0.01067829424052159), np.float64(0.010683935370775229), np.float64(0.010689575393281968), np.float64(0.010695213504046506), np.float64(0.010700848929053581), np.float64(0.010706480923264853), np.float64(0.010712108769646358), np.float64(0.010717731778233175), np.float64(0.010723349285224155), np.float64(0.010728960652107832), np.float64(0.010734565264818785), np.float64(0.010740162532922946), np.float64(0.010745751888829976), np.float64(0.010751332787033344), np.float64(0.010756904703375545), np.float64(0.010762467134337619), np.float64(0.01076801959635461), np.float64(0.010773561625151938), np.float64(0.010779092775106918), np.float64(0.010784612618628326), np.float64(0.01079012074555942), np.float64(0.010795616762600123), np.float64(0.010801100292748332), np.float64(0.010806570974760097), np.float64(0.010812028462627857), np.float64(0.010817472425076033), np.float64(0.010822902545073187), np.float64(0.010828318519360915), np.float64(0.010833720057997575), np.float64(0.010839106883917708), np.float64(0.010844478732505596), np.float64(0.010849835351182587), np.float64(0.010855176499009888), np.float64(0.010860501946301237), np.float64(0.010865811474251533), np.float64(0.01087110487457428), np.float64(0.010876381949155198), np.float64(0.010881642509712724), np.float64(0.010886886377471846), np.float64(0.010892113382848616), np.float64(0.010897323365144667), np.float64(0.010902516172250576), np.float64(0.010907691660360899), np.float64(0.010912849693696448), np.float64(0.010917990144236977), np.float64(0.010923112891461521), np.float64(0.01092821782209686), np.float64(0.010933304829876263), np.float64(0.01093837381530372), np.float64(0.010943424685425848), np.float64(0.010948457353612297), np.float64(0.010953471739342876), np.float64(0.010958467768000031), np.float64(0.010963445370670568), np.float64(0.010968404483951755), np.float64(0.010973345049763926), np.float64(0.010978267015169246), np.float64(0.010983170332196552), np.float64(0.010988054957671476), np.float64(0.010992920853052068), np.float64(0.010997767984268955), np.float64(0.011002596321571282), np.float64(0.011007405839377824), np.float64(0.011012196516132148), np.float64(0.011016968334163046), np.float64(0.011021721279547701), np.float64(0.011026455341981862), np.float64(0.011031170514651193), np.float64(0.011035866794108814)]</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -4328,25 +4788,30 @@
         <v>200</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0146310329769411</v>
+        <v>0.0133541607191177</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.44693313213170294), np.float64(0.24241501978634686), np.float64(1.091888262585079)], [np.float64(0.23346690361971043), np.float64(0.8413262755513117), np.float64(1.1555658557497757)], [np.float64(0.6227031311853647), np.float64(0.6044496944360487), np.float64(1.0389081393519606)], [np.float64(0.6667846286462997), np.float64(0.4203800643146836), np.float64(0.9673416320175251)]], [[np.float64(1.3330097984118718), np.float64(1.3761706538657414), np.float64(0.3316940938708408)], [np.float64(1.0577937070821146), np.float64(0.9331973118781794), np.float64(0.14164520149886992)], [np.float64(1.5482255671715484), np.float64(0.9434613196820014), np.float64(0.6498578460469595)]]]</t>
+          <t>[[[np.float64(0.7332624715461012), np.float64(0.7416042594839904), np.float64(0.8345802977052053)], [np.float64(1.1713249463375697), np.float64(0.17379060084707396), np.float64(0.4084387472336351)], [np.float64(1.0263081420638467), np.float64(0.6573315895897154), np.float64(0.5964741798174943)], [np.float64(1.0157004632642865), np.float64(0.9835997688388392), np.float64(0.14110303569662613)]], [[np.float64(-1.3245657964553839), np.float64(-1.3847156252414372), np.float64(0.4144907133910227)], [np.float64(-1.4539516933076537), np.float64(-0.6324420773971329), np.float64(0.12046935247561441)], [np.float64(-1.389521226599334), np.float64(-0.8995058468866498), np.float64(0.2364669050191312)]]]</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>[[0.2520356604789826, 0.6287993462955761, np.float64(0.9763526523768334)], [0.3297465262526583, 0.9961566484003179, np.float64(0.4281814538672334)]]</t>
+          <t>[[0.2584702777059803, 0.932092145280224, np.float64(0.9712557241131584)], [0.573341422335802, 0.3123736450349336, np.float64(0.4828918514454762)]]</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>[np.float64(0.13241109833381698), np.float64(0.09984896310796619), np.float64(0.011615369149345835)]</t>
+          <t>[np.float64(0.9737659306678639), np.float64(0.6805813271823444), np.float64(0.08915408534183596)]</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>0.3461898355365178</v>
+        <v>0.9534130159188322</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>[np.float64(0.05785259335904968), np.float64(0.05737565508877164), np.float64(0.05687064322508067), np.float64(0.05633671414356301), np.float64(0.05577312092778748), np.float64(0.05517923599558162), np.float64(0.054554575637700796), np.float64(0.05389882615710269), np.float64(0.05321187113567243), np.float64(0.05249381917151705), np.float64(0.05174503123115065), np.float64(0.050966146558678246), np.float64(0.05015810589508793), np.float64(0.049322170606361085), np.float64(0.04845993622429739), np.float64(0.0475733388955061), np.float64(0.04666465333653351), np.float64(0.04573648112570499), np.float64(0.04479172853274682), np.float64(0.043833573588540765), np.float64(0.04286542270403277), np.float64(0.04189085781529148), np.float64(0.04091357570130583), np.float64(0.03993732172326385), np.float64(0.038965820699975166), np.float64(0.03800270790579058), np.float64(0.037051463217787836), np.float64(0.03611535123861438), np.float64(0.03519736980095714), np.float64(0.034300208666546685), np.float64(0.033426219533423965), np.float64(0.03257739773458084), np.float64(0.03175537532115713), np.float64(0.030961424632670497), np.float64(0.030196471005864096), np.float64(0.029461112980760786), np.float64(0.02875564822661151), np.float64(0.028080103413686826), np.float64(0.02743426637207299), np.float64(0.026817719073090714), np.float64(0.026229870210373357), np.float64(0.02566998641740037), np.float64(0.025137221413516375), np.float64(0.024630642604803667), np.float64(0.024149254869336445), np.float64(0.023692021423751777), np.float64(0.023257881798839922), np.float64(0.022845767048327914), np.float64(0.0224546123812445), np.float64(0.022083367449052083), np.float64(0.02173100453907376), np.float64(0.021396524930648322), np.float64(0.02107896366399708), np.float64(0.020777392957612918), np.float64(0.020490924490932233), np.float64(0.020218710747645436), np.float64(0.01995994559238992), np.float64(0.019713864231600906), np.float64(0.019479742688166244), np.float64(0.01925689690012924), np.float64(0.019044681536112607), np.float64(0.018842488604579186), np.float64(0.018649745920285395), np.float64(0.01846591547957221), np.float64(0.018290491786000784), np.float64(0.01812300015927786), np.float64(0.017962995053269315), np.float64(0.01781005840293039), np.float64(0.017663798015049737), np.float64(0.017523846013704512), np.float64(0.017389857348013477), np.float64(0.017261508367180822), np.float64(0.017138495465762727), np.float64(0.0170205338003625), np.float64(0.016907356077744698), np.float64(0.01679871141339279), np.float64(0.016694364258732507), np.float64(0.016594093394790718), np.float64(0.016497690989628878), np.float64(0.016404961716672085), np.float64(0.016315721930884902), np.float64(0.016229798899735734), np.float64(0.016147030085781156), np.float64(0.016067262477840977), np.float64(0.015990351967781924), np.float64(0.015916162769950302), np.float64(0.01584456688056479), np.float64(0.0157754435743234), np.float64(0.015708678935766798), np.float64(0.015644165423012408), np.float64(0.015581801461581895), np.float64(0.015521491066252526), np.float64(0.015463143488933774), np.float64(0.015406672890734116), np.float64(0.015351998036517635), np.float64(0.015299042010271234), np.float64(0.015247731949896766), np.float64(0.015197998799944195), np.float64(0.015149777081052612), np.float64(0.015103004674875794), np.float64(0.01505762262339165), np.float64(0.015013574941564505), np.float64(0.01497080844241512), np.float64(0.01492927257358451), np.float64(0.014888919264615505), np.float64(0.014849702784163905), np.float64(0.014811579606440667), np.float64(0.014774508286251075), np.float64(0.014738449342019668), np.float64(0.01470336514622928), np.float64(0.014669219822783916), np.float64(0.014635979150803245), np.float64(0.014603610474402852), np.float64(0.01457208261806943), np.float64(0.014541365807218348), np.float64(0.014511431593605753), np.float64(0.014482252785273533), np.float64(0.014453803380695908), np.float64(0.01442605850687431), np.float64(0.014398994361105638), np.float64(0.014372588156180671), np.float64(0.014346818068806303), np.float64(0.014321663191005331), np.float64(0.014297103484341041), np.float64(0.014273119736762077), np.float64(0.014249693521897965), np.float64(0.014226807160669114), np.float64(0.01420444368504508), np.float64(0.014182586803822833), np.float64(0.014161220870306343), np.float64(0.01414033085175091), np.float64(0.014119902300498779), np.float64(0.01409992132665), np.float64(0.014080374572231717), np.float64(0.014061249186739734), np.float64(0.014042532803961214), np.float64(0.014024213520050314), np.float64(0.014006279872732608), np.float64(0.013988720821590599), np.float64(0.013971525729379012), np.float64(0.013954684344287255), np.float64(0.013938186783112046), np.float64(0.013922023515276575), np.float64(0.013906185347660062), np.float64(0.013890663410174102), np.float64(0.013875449142063704), np.float64(0.01386053427887937), np.float64(0.013845910840085178), np.float64(0.0138315711172652), np.float64(0.013817507662915935), np.float64(0.013803713279749325), np.float64(0.013790181010526351), np.float64(0.013776904128367162), np.float64(0.013763876127510703), np.float64(0.013751090714506963), np.float64(0.013738541799826602), np.float64(0.013726223489841139), np.float64(0.013714130079192604), np.float64(0.013702256043483348), np.float64(0.013690596032320427), np.float64(0.01367914486265899), np.float64(0.013667897512444162), np.float64(0.013656849114539463), np.float64(0.013645994950921173), np.float64(0.013635330447114706), np.float64(0.013624851166901923), np.float64(0.013614552807224178), np.float64(0.0136044311933282), np.float64(0.013594482274104524), np.float64(0.013584702117636047), np.float64(0.01357508690691841), np.float64(0.013565632935782135), np.float64(0.013556336604961453), np.float64(0.013547194418341737), np.float64(0.013538202979353792), np.float64(0.013529358987521879), np.float64(0.013520659235145048), np.float64(0.013512100604114632), np.float64(0.01350368006286311), np.float64(0.013495394663432685), np.float64(0.013487241538663035), np.float64(0.01347921789948049), np.float64(0.013471321032308883), np.float64(0.013463548296564924), np.float64(0.01345589712226439), np.float64(0.013448365007717058), np.float64(0.013440949517303562), np.float64(0.013433648279343366), np.float64(0.0134264589840451), np.float64(0.013419379381527681), np.float64(0.013412407279919464), np.float64(0.013405540543530499), np.float64(0.013398777091086332), np.float64(0.013392114894035908), np.float64(0.013385551974914027), np.float64(0.01337908640576452), np.float64(0.013372716306622635), np.float64(0.013366439844053512), np.float64(0.013360255229739096), np.float64(0.013354160719117696)]</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -4370,25 +4835,30 @@
         <v>100</v>
       </c>
       <c r="F94" t="n">
-        <v>0.01394103549415204</v>
+        <v>0.01200489583119447</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.5742196458828838), np.float64(0.12876631441788203), np.float64(0.2034133891236564)], [np.float64(0.43512432800437656), np.float64(0.8484774226308144), np.float64(0.6012096968857439)], [np.float64(0.7374395358263105), np.float64(0.3052323662863851), np.float64(0.6371621775886622)], [np.float64(0.10167086081106419), np.float64(0.5070165775649814), np.float64(0.912461730741854)]], [[np.float64(-0.04535271273635235), np.float64(-0.7817295115023607), np.float64(0.06439111316597469)], [np.float64(-0.2977395497800507), np.float64(-0.22540668435572633), np.float64(0.5624152961025198)], [np.float64(0.20690587371039332), np.float64(-0.3711033045646928), np.float64(0.5896692797027817)]]]</t>
+          <t>[[[np.float64(1.052787705370679), np.float64(0.47984136672246713), np.float64(0.7275549269947889)], [np.float64(1.0126460982961716), np.float64(0.9510490359941789), np.float64(1.0322800055917218)], [np.float64(0.8670012585330915), np.float64(0.9368163084018936), np.float64(1.0217760741491049)], [np.float64(1.1157270255334688), np.float64(0.8801956125904444), np.float64(0.4747908883454447)]], [[np.float64(0.5665517154707512), np.float64(1.3986172439533686), np.float64(0.8316478838691831)], [np.float64(0.2793619195299728), np.float64(1.5678020263085564), np.float64(0.9387931651779245)], [np.float64(0.2801130551092225), np.float64(0.7450867200166119), np.float64(0.6010483713673835)]]]</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>[[0.9546147397854692, 0.7498434643005704, np.float64(0.15474326650064685)], [0.8692716088926363, 0.5719269676114695, np.float64(0.12624615307551673)]]</t>
+          <t>[[0.7768365118062799, 0.3999448937634188, np.float64(0.3788400308483279)], [0.08162845729521473, 0.8041174807733257, np.float64(0.559068507085836)]]</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>[np.float64(0.5427706622556793), np.float64(0.790759245909604), np.float64(0.3404421201218774)]</t>
+          <t>[np.float64(0.058588455639445806), np.float64(0.46026142113332535), np.float64(0.20003746605640974)]</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>0.8380167361078684</v>
+        <v>0.09812483298328795</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>[np.float64(0.0130622738995359), np.float64(0.013029395422783611), np.float64(0.012997828072888535), np.float64(0.012967500803071469), np.float64(0.012938347309697956), np.float64(0.012910305654432006), np.float64(0.012883317921450877), np.float64(0.012857329905992431), np.float64(0.01283229083098413), np.float64(0.01280815308885538), np.float64(0.012784872005994118), np.float64(0.01276240562756829), np.float64(0.012740714520712869), np.float64(0.012719761594294466), np.float64(0.012699511933657202), np.float64(0.012679932648930912), np.float64(0.012660992735634684), np.float64(0.012642662946434527), np.float64(0.012624915673040955), np.float64(0.012607724837328698), np.float64(0.012591065790860473), np.float64(0.012574915222071003), np.float64(0.012559251070449251), np.float64(0.012544052447114228), np.float64(0.012529299561241193), np.float64(0.012514973651849559), np.float64(0.012501056924501416), np.float64(0.012487532492513746), np.float64(0.012474384322313788), np.float64(0.01246159718260398), np.float64(0.012449156597036949), np.float64(0.012437048800120644), np.float64(0.012425260696104513), np.float64(0.012413779820617357), np.float64(0.012402594304843943), np.float64(0.012391692842054738), np.float64(0.012381064656303625), np.float64(0.012370699473145189), np.float64(0.012360587492211228), np.float64(0.012350719361523176), np.float64(0.012341086153405513), np.float64(0.012331679341892986), np.float64(0.012322490781526401), np.float64(0.012313512687434157), np.float64(0.012304737616615607), np.float64(0.01229615845034423), np.float64(0.012287768377611821), np.float64(0.012279560879544349), np.float64(0.012271529714724597), np.float64(0.012263668905365234), np.float64(0.01225597272426776), np.float64(0.012248435682527741), np.float64(0.012241052517928763), np.float64(0.012233818183985687), np.float64(0.01222672783959616), np.float64(0.012219776839258258), np.float64(0.012212960723824993), np.float64(0.012206275211757068), np.float64(0.012199716190847728), np.float64(0.012193279710385523), np.float64(0.012186961973736248), np.float64(0.012180759331309798), np.float64(0.012174668273896969), np.float64(0.012168685426352311), np.float64(0.012162807541597024), np.float64(0.012157031494932613), np.float64(0.012151354278640955), np.float64(0.012145772996855266), np.float64(0.012140284860690779), np.float64(0.012134887183612381), np.float64(0.012129577377035178), np.float64(0.012124352946138563), np.float64(0.01211921148588421), np.float64(0.012114150677227788), np.float64(0.012109168283511088), np.float64(0.012104262147027091), np.float64(0.012099430185749481), np.float64(0.012094670390214085), np.float64(0.012089980820548935), np.float64(0.01208535960363948), np.float64(0.012080804930429468), np.float64(0.012076315053342212), np.float64(0.012071888283820558), np.float64(0.012067522989982746), np.float64(0.01206321759437786), np.float64(0.012058970571846931), np.float64(0.012054780447478692), np.float64(0.012050645794655361), np.float64(0.012046565233185261), np.float64(0.012042537427518726), np.float64(0.012038561085039137), np.float64(0.012034634954432534), np.float64(0.012030757824123866), np.float64(0.01202692852078174), np.float64(0.012023145907889202), np.float64(0.012019408884373287), np.float64(0.012015716383292003), np.float64(0.012012067370579178), np.float64(0.01200846084383918), np.float64(0.012004895831194465)]</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -4412,25 +4882,30 @@
         <v>200</v>
       </c>
       <c r="F95" t="n">
-        <v>0.01039300110609149</v>
+        <v>0.008714242875476707</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.32897950971895373), np.float64(0.6756087981120326), np.float64(0.469982099848071)], [np.float64(0.4068226501926613), np.float64(0.41728812894498907), np.float64(0.031231633220714306)], [np.float64(0.058310394855599634), np.float64(0.4981252563502263), np.float64(0.8925028117170587)], [np.float64(0.4700552092759113), np.float64(0.06604247004023918), np.float64(0.014951926237510807)]], [[np.float64(0.4080740589586689), np.float64(0.10725922956886112), np.float64(0.08560117617872628)], [np.float64(-0.003180881868493077), np.float64(-0.037099422331061185), np.float64(0.20709929139184544)], [np.float64(-0.2857027246028074), np.float64(0.7422762738136829), np.float64(0.25172722454423746)]]]</t>
+          <t>[[[np.float64(0.3213484610592543), np.float64(0.6579207501537684), np.float64(0.44143185955282066)], [np.float64(0.4036164634079544), np.float64(-0.03968504747428243), np.float64(0.4053235337937098)], [np.float64(0.02939071128778574), np.float64(-0.14280935411237036), np.float64(0.2717259179323096)], [np.float64(0.8607378715854166), np.float64(0.5100468896117156), np.float64(-0.004710659147447189)]], [[np.float64(0.00755013094880431), np.float64(0.8849170315786528), np.float64(0.19885303389980488)], [np.float64(0.26475339788128194), np.float64(0.8978347018365359), np.float64(0.1864248977642042)], [np.float64(0.27110270513926105), np.float64(0.8149795435023612), np.float64(0.09995190269181543)]]]</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>[[0.304417981194136, 0.993997534119229, np.float64(0.896987237127269)], [0.052279054513297174, 0.07991761990026225, np.float64(-0.10916267271993274)]]</t>
+          <t>[[0.00873799453406443, 0.30425201578768335, np.float64(-0.13720463254231316)], [0.3572057820423977, 0.2822625771644893, np.float64(-0.5395664082508194)]]</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>[np.float64(0.6316470163075633), np.float64(0.2641425426198883), np.float64(0.26965815658232295)]</t>
+          <t>[np.float64(0.20283600372984448), np.float64(0.16480696502957343), np.float64(0.6125614496011804)]</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>0.6298559317486464</v>
+        <v>0.8196998345707134</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>[np.float64(0.06293752877549873), np.float64(0.06249223917287484), np.float64(0.06200833092681009), np.float64(0.06148208522247286), np.float64(0.060909403776051724), np.float64(0.06028577351714178), np.float64(0.05960623150302143), np.float64(0.05886533228163027), np.float64(0.05805712115171589), np.float64(0.05717511852579983), np.float64(0.05621232306078106), np.float64(0.055161244585744174), np.float64(0.05401398232162724), np.float64(0.0527623695643872), np.float64(0.05139821276108181), np.float64(0.049913660081652524), np.float64(0.0483017405100062), np.float64(0.04655711578901467), np.float64(0.0446770784560508), np.float64(0.042662801074984866), np.float64(0.04052078423968868), np.float64(0.038264356242368), np.float64(0.03591494981772797), np.float64(0.033502751452072786), np.float64(0.031066253171858373), np.float64(0.02865032768253537), np.float64(0.02630276180089029), np.float64(0.024069680177114406), np.float64(0.021990777881294422), np.float64(0.02009548298932422), np.float64(0.018400924595482312), np.float64(0.01691198534834439), np.float64(0.015623079307964288), np.float64(0.014520911391594195), np.float64(0.013587440967890246), np.float64(0.012802486626063488), np.float64(0.01214569806656345), np.float64(0.011597856847135922), np.float64(0.01114160461391153), np.float64(0.010761747395943624), np.float64(0.010445280323962148), np.float64(0.010181248730269408), np.float64(0.009960528190096242), np.float64(0.009775576954040289), np.float64(0.009620192308401096), np.float64(0.009489287413689656), np.float64(0.009378695672641893), np.float64(0.009285004085063896), np.float64(0.009205414032646811), np.float64(0.009137626527928017), np.float64(0.00907974849499966), np.float64(0.009030216697142436), np.float64(0.008987736228489092), np.float64(0.008951230888167237), np.float64(0.008919803172911243), np.float64(0.00889270201448503), np.float64(0.008869296732080362), np.float64(0.008849055963000504), np.float64(0.008831530578433075), np.float64(0.008816339790194727), np.float64(0.00880315981552853), np.float64(0.008791714596230854), np.float64(0.008781768171276553), np.float64(0.008773118384335888), np.float64(0.008765591672118905), np.float64(0.008759038731050217), np.float64(0.00875333090036109), np.float64(0.008748357131818325), np.float64(0.008744021441661358), np.float64(0.00874024076063997), np.float64(0.008736943114001633), np.float64(0.008734066076064287), np.float64(0.008731555454108574), np.float64(0.008729364164651567), np.float64(0.008727451271629482), np.float64(0.008725781161276959), np.float64(0.008724322832856558), np.float64(0.008723049287906539), np.float64(0.008721937003301834), np.float64(0.008720965476114258), np.float64(0.008720116829819198), np.float64(0.008719375473298046), np.float64(0.008718727805118058), np.float64(0.008718161956929284), np.float64(0.008717667570579846), np.float64(0.008717235604368418), np.float64(0.008716858164515482), np.float64(0.008716528358511166), np.float64(0.00871624016741086), np.float64(0.008715988334552227), np.float64(0.008715768268639571), np.float64(0.008715575959171362), np.float64(0.008715407902750423), np.float64(0.008715261038775787), np.float64(0.008715132693334324), np.float64(0.008715020530227472), np.float64(0.00871492250826615), np.float64(0.00871483684391687), np.float64(0.008714761978754723), np.float64(0.008714696551013227), np.float64(0.00871463937071174), np.float64(0.008714589398014746), np.float64(0.00871454572422718), np.float64(0.008714507555258459), np.float64(0.008714474197157275), np.float64(0.00871444504348118), np.float64(0.00871441956424803), np.float64(0.008714397296294026), np.float64(0.008714377834847827), np.float64(0.008714360826175029), np.float64(0.008714345961131445), np.float64(0.008714332969537109), np.float64(0.008714321615257597), np.float64(0.008714311691946962), np.float64(0.00871430301924714), np.float64(0.008714295439540368), np.float64(0.008714288815085527), np.float64(0.00871428302548014), np.float64(0.008714277965515277), np.float64(0.008714273543238657), np.float64(0.008714269678278586), np.float64(0.008714266300407935), np.float64(0.008714263348226814), np.float64(0.008714260768096614), np.float64(0.00871425851312778), np.float64(0.008714256542336114), np.float64(0.0087142548199129), np.float64(0.00871425331455412), np.float64(0.008714251998901232), np.float64(0.008714250849052516), np.float64(0.008714249844110596), np.float64(0.008714248965815475), np.float64(0.008714248198212362), np.float64(0.008714247527344877), np.float64(0.008714246941021358), np.float64(0.008714246428588824), np.float64(0.00871424598073473), np.float64(0.008714245589315677), np.float64(0.008714245247228036), np.float64(0.008714244948250401), np.float64(0.008714244686948874), np.float64(0.00871424445857644), np.float64(0.008714244258993297), np.float64(0.008714244084559756), np.float64(0.008714243932105434), np.float64(0.008714243798864981), np.float64(0.008714243682416382), np.float64(0.008714243580642276), np.float64(0.008714243491692919), np.float64(0.008714243413951063), np.float64(0.008714243346014172), np.float64(0.00871424328663618), np.float64(0.008714243234742965), np.float64(0.00871424318938245), np.float64(0.008714243149744456), np.float64(0.008714243115103288), np.float64(0.008714243084822956), np.float64(0.00871424305835658), np.float64(0.008714243035234548), np.float64(0.00871424301501953), np.float64(0.00871424299735423), np.float64(0.008714242981911199), np.float64(0.008714242968421314), np.float64(0.008714242956625371), np.float64(0.008714242946314654), np.float64(0.008714242937303999), np.float64(0.008714242929432178), np.float64(0.008714242922557396), np.float64(0.008714242916538384), np.float64(0.008714242911285938), np.float64(0.008714242906695983), np.float64(0.00871424290268139), np.float64(0.008714242899170272), np.float64(0.008714242896109505), np.float64(0.008714242893434294), np.float64(0.008714242891087109), np.float64(0.008714242889035847), np.float64(0.008714242887251554), np.float64(0.008714242885683185), np.float64(0.008714242884315635), np.float64(0.008714242883124616), np.float64(0.008714242882076983), np.float64(0.008714242881164022), np.float64(0.008714242880366211), np.float64(0.008714242879663282), np.float64(0.008714242879051537), np.float64(0.008714242878524254), np.float64(0.008714242878063787), np.float64(0.008714242877654235), np.float64(0.008714242877294618), np.float64(0.008714242876979925), np.float64(0.0087142428767082), np.float64(0.008714242876475538), np.float64(0.008714242876270768), np.float64(0.008714242876089592), np.float64(0.008714242875931444), np.float64(0.008714242875793416), np.float64(0.008714242875676396), np.float64(0.008714242875566571), np.float64(0.008714242875476707)]</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -4454,25 +4929,30 @@
         <v>100</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01131509801801981</v>
+        <v>0.01066795512410106</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.6936386974816644), np.float64(0.9049775411783466), np.float64(0.1418460417887538)], [np.float64(0.5565990975041639), np.float64(0.38459694027854546), np.float64(0.522822965619546)], [np.float64(0.7908756679465051), np.float64(0.37359499915318584), np.float64(0.446056039366837)], [np.float64(0.6785338547529223), np.float64(0.24714962421192785), np.float64(0.4102255796512642)]], [[np.float64(0.1685813776065696), np.float64(0.10904724659682449), np.float64(0.680285016966642)], [np.float64(0.22127831521416752), np.float64(-0.0365889867176571), np.float64(0.30140085558056395)], [np.float64(-0.2478633608188689), np.float64(0.27748049712940215), np.float64(0.2527376523193776)]]]</t>
+          <t>[[[np.float64(0.5244032221411302), np.float64(0.23301189655990065), np.float64(0.9384632963584584)], [np.float64(0.07736634553972077), np.float64(0.17781316235469322), np.float64(0.7865604707969993)], [np.float64(0.41764862593814084), np.float64(0.39234085787667156), np.float64(0.034609913978686395)], [np.float64(0.2892028387972858), np.float64(0.6025552078794774), np.float64(0.8430901933876671)]], [[np.float64(-0.029537634719912678), np.float64(0.262343372837636), np.float64(0.21316573806284905)], [np.float64(0.5722384450000507), np.float64(0.07123382110275273), np.float64(0.2714352796222511)], [np.float64(0.727035767231632), np.float64(0.29364489222201784), np.float64(0.3938133139534009)]]]</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[[0.6495813950358026, 0.7500610166588969, np.float64(0.24762714647493272)], [0.12153775909122666, 0.5940798868326629, np.float64(0.15246552875435204)]]</t>
+          <t>[[0.07073044678581242, 0.023197419763105742, np.float64(0.6664622533337591)], [0.2656277377395423, 0.9423769681323038, np.float64(0.12452505180067347)]]</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>[np.float64(0.6685095688649529), np.float64(0.5322495359077327), np.float64(0.17700359531395568)]</t>
+          <t>[np.float64(0.2926140639295473), np.float64(0.019047553974236294), np.float64(0.40105365912367963)]</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>0.2439047818398079</v>
+        <v>0.4227860031755022</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>[np.float64(0.01588916915420927), np.float64(0.015198642082912833), np.float64(0.014518727737889727), np.float64(0.013870445910631194), np.float64(0.01327331541931877), np.float64(0.012742624443737883), np.float64(0.012287417967723448), np.float64(0.011909849711552874), np.float64(0.011606014535479112), np.float64(0.011367795035333934), np.float64(0.011184981793068191), np.float64(0.01104705452844474), np.float64(0.010944347311692457), np.float64(0.01086861795372153), np.float64(0.010813187389845222), np.float64(0.010772831761987735), np.float64(0.010743565790481836), np.float64(0.010722402008797424), np.float64(0.010707128584030851), np.float64(0.01069612231363413), np.float64(0.010688199422729184), np.float64(0.010682500455482932), np.float64(0.010678403410667637), np.float64(0.010675459163222304), np.float64(0.010673343945422778), np.float64(0.010671824630951132), np.float64(0.010670733499894825), np.float64(0.010669949960789123), np.float64(0.010669387345174731), np.float64(0.010668983384177712), np.float64(0.010668693349279175), np.float64(0.01066848511655001), np.float64(0.010668335617288065), np.float64(0.010668228286854743), np.float64(0.010668151231604394), np.float64(0.010668095912087214), np.float64(0.010668056197302612), np.float64(0.010668027685517596), np.float64(0.01066800721657373), np.float64(0.010667992521709843), np.float64(0.010667981972131422), np.float64(0.010667974398501251), np.float64(0.010667968961329086), np.float64(0.010667965057941993), np.float64(0.010667962255673015), np.float64(0.01066796024390381), np.float64(0.010667958799640003), np.float64(0.010667957762793931), np.float64(0.010667957018435191), np.float64(0.01066795648405335), np.float64(0.010667956100418463), np.float64(0.010667955825003392), np.float64(0.010667955627281043), np.float64(0.010667955485336608), np.float64(0.010667955383430978), np.float64(0.010667955310274547), np.float64(0.010667955257756497), np.float64(0.010667955220053234), np.float64(0.01066795519298556), np.float64(0.010667955173553293), np.float64(0.01066795515960205), np.float64(0.010667955149587035), np.float64(0.01066795514239762), np.float64(0.010667955137236569), np.float64(0.010667955133530011), np.float64(0.010667955130868531), np.float64(0.010667955128958757), np.float64(0.010667955127587605), np.float64(0.010667955126603961), np.float64(0.010667955125896782), np.float64(0.010667955125388675), np.float64(0.01066795512502352), np.float64(0.010667955124761229), np.float64(0.010667955124571806), np.float64(0.01066795512443726), np.float64(0.010667955124340983), np.float64(0.010667955124273373), np.float64(0.010667955124222462), np.float64(0.010667955124186435), np.float64(0.010667955124159656), np.float64(0.010667955124141372), np.float64(0.010667955124131363), np.float64(0.010667955124123132), np.float64(0.010667955124115938), np.float64(0.010667955124110852), np.float64(0.010667955124108472), np.float64(0.010667955124107627), np.float64(0.010667955124106777), np.float64(0.010667955124105982), np.float64(0.010667955124105179), np.float64(0.010667955124104383), np.float64(0.010667955124103576), np.float64(0.010667955124102775), np.float64(0.01066795512410199), np.float64(0.010667955124101243), np.float64(0.010667955124101205), np.float64(0.01066795512410118), np.float64(0.01066795512410114), np.float64(0.010667955124101099), np.float64(0.010667955124101059)]</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -4496,25 +4976,30 @@
         <v>200</v>
       </c>
       <c r="F97" t="n">
-        <v>0.01264236994102336</v>
+        <v>0.01472826090608341</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.6679555264109334), np.float64(0.12832390454751372), np.float64(0.6024883774423405)], [np.float64(-0.17736930312905602), np.float64(0.4384211418409718), np.float64(0.05321971107400749)], [np.float64(-0.062357083174124), np.float64(0.4028427355334033), np.float64(0.46110558808264207)], [np.float64(0.3715818940037093), np.float64(0.06754345773546581), np.float64(-0.15594625042258856)]], [[np.float64(0.7630253702557506), np.float64(-0.14954544051791527), np.float64(-0.2524526448370323)], [np.float64(0.2225456762656255), np.float64(-0.38376951149207733), np.float64(0.32115058374039285)], [np.float64(0.17678662871443562), np.float64(0.5635435743095293), np.float64(-0.29311230807725924)]]]</t>
+          <t>[[[np.float64(0.36952639350378336), np.float64(-0.22646914929258477), np.float64(0.2260280209422214)], [np.float64(0.5891287828468001), np.float64(-0.21687260130375766), np.float64(0.10577987487562313)], [np.float64(0.4784204344768612), np.float64(-0.062210636282415174), np.float64(0.25595190210821755)], [np.float64(0.31356415437649887), np.float64(0.07642563357397966), np.float64(0.5955813375042428)]], [[np.float64(-0.5782629070584905), np.float64(0.4199622834096074), np.float64(-0.04841688207428804)], [np.float64(-0.11422961882973137), np.float64(0.058048713979889394), np.float64(-0.09716580139139733)], [np.float64(-0.46649705912092704), np.float64(0.48044216981047444), np.float64(0.5159932201204823)]]]</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>[[0.10200619023732704, 0.2941827911455468, np.float64(-0.25089205766025924)], [0.731538131423961, 0.6982937709184088, np.float64(0.21477026449726927)]]</t>
+          <t>[[0.5477814412310701, 0.83700079484236, np.float64(0.1540879697843303)], [0.8268387615710009, 0.5300552448803224, np.float64(-0.2511524636514312)]]</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>[np.float64(0.09210133600861829), np.float64(0.4162739212115413), np.float64(0.7955337325511249)]</t>
+          <t>[np.float64(0.5071465574501163), np.float64(0.0630108296583582), np.float64(0.13101764515667239)]</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>0.519940805624635</v>
+        <v>0.9525205318214476</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>[np.float64(0.059919620982410576), np.float64(0.05949751040370735), np.float64(0.058912123280070554), np.float64(0.05809830992948068), np.float64(0.056971675101370745), np.float64(0.05542694917950099), np.float64(0.053337986482296734), np.float64(0.05056084887509713), np.float64(0.046943273641904475), np.float64(0.042348282151896864), np.float64(0.03671584229483441), np.float64(0.030238457341062796), np.float64(0.023741375692126428), np.float64(0.01876408257663743), np.float64(0.016163432312957974), np.float64(0.015185538767247425), np.float64(0.014869726698105384), np.float64(0.014771750931223192), np.float64(0.014741611022569977), np.float64(0.014732357333348442), np.float64(0.014729517728388177), np.float64(0.014728646497094032), np.float64(0.0147283792034723), np.float64(0.014728297198999001), np.float64(0.01472827204051747), np.float64(0.01472826432205322), np.float64(0.014728261954078304), np.float64(0.01472826122760367), np.float64(0.014728261004722284), np.float64(0.014728260936341024), np.float64(0.014728260915363292), np.float64(0.014728260908922397), np.float64(0.014728260906952038), np.float64(0.014728260906351046), np.float64(0.014728260906167903), np.float64(0.014728260906103022), np.float64(0.014728260906085484), np.float64(0.014728260906084471), np.float64(0.014728260906083411), np.float64(0.014728260906083411), np.float64(0.014728260906083411), np.float64(0.014728260906083411)]</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -4538,25 +5023,30 @@
         <v>100</v>
       </c>
       <c r="F98" t="n">
-        <v>0.01818723859643157</v>
+        <v>0.002581700228812931</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.9996313697454503), np.float64(-0.377760997332175), np.float64(-0.4349650798993405)], [np.float64(-0.4326902892061332), np.float64(-0.5794760419406579), np.float64(-0.013209290482624845)], [np.float64(-0.6932026551870548), np.float64(-0.9642584342504322), np.float64(-0.033248883521288256)], [np.float64(0.11122296088709266), np.float64(0.4710287674021892), np.float64(0.01051251539784543)]], [[np.float64(0.38592920880393544), np.float64(-0.21120477647283376), np.float64(-1.0192117876639308), np.float64(-0.46905151332318296)], [np.float64(0.9087369284248855), np.float64(0.20672729395710784), np.float64(-1.3916865297289536), np.float64(-0.2808473900471917)], [np.float64(0.17755111158181575), np.float64(0.4452976315354321), np.float64(-1.419883298077417), np.float64(-0.8108290602304792)]]]</t>
+          <t>[[[np.float64(0.6048713843240044), np.float64(0.05199084074861666), np.float64(0.7035816285900417)], [np.float64(0.536599196675753), np.float64(0.6769790741127055), np.float64(0.1747566365605977)], [np.float64(0.7100905903935943), np.float64(0.7388882152172523), np.float64(0.2631697918477137)], [np.float64(-0.02256091310512592), np.float64(0.8340610128185089), np.float64(0.78564734116326)]], [[np.float64(0.23077448327453748), np.float64(0.36580719029286557), np.float64(-0.07247748932895115), np.float64(0.3727493047941832)], [np.float64(0.2399196403880362), np.float64(0.4580927718154518), np.float64(0.32829037881329204), np.float64(-0.13928518791255665)], [np.float64(0.8511089139044937), np.float64(0.1183553081885074), np.float64(0.06406419774854927), np.float64(-0.17829394240828625)]]]</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>[[0.3908951364291354, 0.37757121808281546, np.float64(-0.004696987907217454)], [0.9938069487482988, 0.1279225113447594, 0.23270253978365907, np.float64(-0.14248701172218298)]]</t>
+          <t>[[0.04027462783815983, 0.3411383363070616, np.float64(0.741991884844949)], [0.4993879739723658, 0.24896607087780398, 0.6111098681653861, np.float64(-0.013365106237233061)]]</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>[np.float64(-0.00015429297796309854), np.float64(0.1056081559426491), np.float64(0.6937965841508785), np.float64(0.3774115489792266)]</t>
+          <t>[np.float64(0.08160561091225964), np.float64(0.060631911099812585), np.float64(0.30844424673518284), np.float64(0.20589148421180856)]</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>0.6197228333667084</v>
+        <v>0.0619225815747917</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>[np.float64(1.0908184648782142), np.float64(0.004185993630333728), np.float64(0.0031819896689841737), np.float64(0.002833103107608683), np.float64(0.002696123969871746), np.float64(0.0026366630178190926), np.float64(0.0026089522698726085), np.float64(0.002595452245385066), np.float64(0.002588705475851846), np.float64(0.002585286389192584), np.float64(0.002583540806397132), np.float64(0.0025826461550408795), np.float64(0.0025821867022260523), np.float64(0.0025819505023419475), np.float64(0.0025818290092874444), np.float64(0.0025817665001846343), np.float64(0.002581734334194477), np.float64(0.0025817177809738987), np.float64(0.002581709262062515), np.float64(0.0025817048778196574), np.float64(0.0025817026214544126), np.float64(0.0025817014602045724), np.float64(0.0025817008625584276), np.float64(0.0025817005549751437), np.float64(0.002581700396675499), np.float64(0.0025817003152023314), np.float64(0.002581700273271464), np.float64(0.0025817002516931096), np.float64(0.002581700240587478), np.float64(0.0025817002348709835), np.float64(0.002581700231930595), np.float64(0.002581700230415737), np.float64(0.0025817002296342657), np.float64(0.002581700229232069), np.float64(0.0025817002290278086), np.float64(0.0025817002289223265), np.float64(0.0025817002288692796), np.float64(0.0025817002288439517), np.float64(0.002581700228829767), np.float64(0.0025817002288209983), np.float64(0.002581700228817933), np.float64(0.002581700228816056), np.float64(0.002581700228814205), np.float64(0.0025817002288130663), np.float64(0.0025817002288130633), np.float64(0.002581700228813061), np.float64(0.0025817002288130554), np.float64(0.002581700228813045), np.float64(0.002581700228813044), np.float64(0.0025817002288130403), np.float64(0.002581700228813037), np.float64(0.0025817002288130338), np.float64(0.0025817002288130316), np.float64(0.0025817002288130303), np.float64(0.002581700228813028), np.float64(0.002581700228813026), np.float64(0.0025817002288130225), np.float64(0.002581700228813021), np.float64(0.002581700228813018), np.float64(0.002581700228813015), np.float64(0.0025817002288130125), np.float64(0.00258170022881301), np.float64(0.002581700228813005), np.float64(0.002581700228813003), np.float64(0.0025817002288130017), np.float64(0.0025817002288129986), np.float64(0.002581700228812997), np.float64(0.002581700228812995), np.float64(0.002581700228812992), np.float64(0.0025817002288129917), np.float64(0.0025817002288129904), np.float64(0.0025817002288129882), np.float64(0.0025817002288129874), np.float64(0.0025817002288129865), np.float64(0.002581700228812985), np.float64(0.0025817002288129835), np.float64(0.0025817002288129826), np.float64(0.0025817002288129804), np.float64(0.0025817002288129765), np.float64(0.0025817002288129735), np.float64(0.002581700228812971), np.float64(0.0025817002288129687), np.float64(0.0025817002288129665), np.float64(0.002581700228812964), np.float64(0.0025817002288129635), np.float64(0.0025817002288129626), np.float64(0.0025817002288129596), np.float64(0.0025817002288129596), np.float64(0.0025817002288129566), np.float64(0.002581700228812954), np.float64(0.0025817002288129522), np.float64(0.002581700228812949), np.float64(0.002581700228812948), np.float64(0.002581700228812947), np.float64(0.0025817002288129423), np.float64(0.00258170022881294), np.float64(0.002581700228812937), np.float64(0.0025817002288129358), np.float64(0.0025817002288129323), np.float64(0.0025817002288129305)]</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -4580,25 +5070,30 @@
         <v>200</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8961848155048014</v>
+        <v>0.0005849390439398957</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[[[np.float64(-2.7833587275192246), np.float64(-2.1364178903594158), np.float64(-1.677030439228043)], [np.float64(-2.751406371039428), np.float64(-2.446508372426302), np.float64(-1.6454720419915365)], [np.float64(-2.292640795800174), np.float64(-2.070734607953972), np.float64(-1.7886345978747298)], [np.float64(-1.3516822414900067), np.float64(-0.48106729539809256), np.float64(-0.9566969281539477)]], [[np.float64(-3.08612686264162), np.float64(-2.463046204495725), np.float64(-2.314726668393006), np.float64(-0.9001528730736641)], [np.float64(-4.098531910265162), np.float64(-3.989524173890936), np.float64(-3.4276228392750747), np.float64(-0.8245363836712986)], [np.float64(-5.200925056166687), np.float64(-3.911982354083473), np.float64(-3.2288222483600375), np.float64(-1.0766296095699424)]]]</t>
+          <t>[[[np.float64(0.4237684362601328), np.float64(1.6382778808636556), np.float64(-1.0582985212830653)], [np.float64(0.0426411212924624), np.float64(1.6051587324801961), np.float64(-1.1473723993270275)], [np.float64(0.004418257031662063), np.float64(1.6300799185301298), np.float64(-1.4695992869931536)], [np.float64(0.23565072296080217), np.float64(0.8154666075027731), np.float64(0.06589019971757329)]], [[np.float64(1.0965253175141063), np.float64(-2.133891339829824), np.float64(-1.2803470547855516), np.float64(-2.444537919128476)], [np.float64(2.8893425287144705), np.float64(-2.304382906421307), np.float64(-1.6570863500396003), np.float64(-3.1965438705551406)], [np.float64(0.537171327488207), np.float64(-0.6684793895124915), np.float64(-0.9051322150871794), np.float64(-1.0074228003237824)]]]</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>[[0.3369417299597004, 0.12884486359129765, np.float64(-2.4610705926165712)], [0.6002417786109392, 0.27697287373349555, 0.15879133186778926, np.float64(-0.2888787182377995)]]</t>
+          <t>[[0.9924060121392778, 0.2664408568343358, np.float64(-1.8280160840397632)], [0.806063801501683, 0.5619198865349511, 0.2076996548923532, np.float64(-0.5756146823620975)]]</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>[np.float64(0.8390001077426283), np.float64(0.7082320116964322), np.float64(0.6039321712296533), np.float64(0.2553912746382126)]</t>
+          <t>[np.float64(0.05125374310845091), np.float64(0.5359266631131923), np.float64(0.368340078232699), np.float64(0.7171371002366129)]</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>0.8508035266011613</v>
+        <v>0.06013239535177411</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>[np.float64(11.43038259707359), np.float64(0.402562882518292), np.float64(0.4014436345556286), np.float64(0.4003133541600555), np.float64(0.3991712811479657), np.float64(0.39801664446566193), np.float64(0.3968486612274546), np.float64(0.3956665357580553), np.float64(0.39446945863864835), np.float64(0.39325660575620197), np.float64(0.392027137355827), np.float64(0.3907801970961425), np.float64(0.3895149111079009), np.float64(0.38823038705623975), np.float64(0.38692571320740915), np.float64(0.3855999575008899), np.float64(0.3842521666281723), np.float64(0.38288136511989435), np.float64(0.38148655444325263), np.float64(0.38006671211212567), np.float64(0.37862079081264355), np.float64(0.3771477175474467), np.float64(0.3756463928023763), np.float64(0.37411568973998394), np.float64(0.37255445342455984), np.float64(0.37096150008435974), np.float64(0.36933561641720414), np.float64(0.36767555894636816), np.float64(0.3659800534346237), np.float64(0.36424779436522403), np.float64(0.36247744449926134), np.float64(0.36066763452039347), np.float64(0.35881696277840924), np.float64(0.3569239951451467), np.float64(0.35498726499665056), np.float64(0.35300527333748305), np.float64(0.35097648908450235), np.float64(0.3488993495286958), np.float64(0.34677226099548353), np.float64(0.3445935997259498), np.float64(0.342361713002855), np.float64(0.3400749205472751), np.float64(0.33773151621422076), np.float64(0.335329770016859), np.float64(0.33286793051186386), np.float64(0.33034422757983073), np.float64(0.3277568756374864), np.float64(0.32510407732009394), np.float64(0.32238402767449603), np.float64(0.31959491890582664), np.float64(0.3167349457213974), np.float64(0.3138023113184097), np.float64(0.3107952340619757), np.float64(0.30771195490178005), np.float64(0.3045507455752892), np.float64(0.30130991764618587), np.float64(0.29798783242425064), np.float64(0.2945829118131038), np.float64(0.2910936501274086), np.float64(0.28751862691862), np.float64(0.28385652084194524), np.float64(0.2801061245908998), np.float64(0.27626636091678086), np.float64(0.27233629974004225), np.float64(0.2683151763467795), np.float64(0.2642024106498803), np.float64(0.2599976274735853), np.float64(0.25570067780365596), np.float64(0.25131166091713736), np.float64(0.24683094728273233), np.float64(0.2422592020909247), np.float64(0.23759740924080655), np.float64(0.23284689557555394), np.float64(0.22800935511901904), np.float64(0.22308687302750932), np.float64(0.21808194892581484), np.float64(0.21299751925754162), np.float64(0.2078369782334165), np.float64(0.2026041969233778), np.float64(0.19730353999637704), np.float64(0.19193987958094255), np.float64(0.18651860568975676), np.float64(0.18104563263291448), np.float64(0.17552740083566906), np.float64(0.16997087348077167), np.float64(0.16438352741480572), np.float64(0.1587733377940697), np.float64(0.15314875600218245), np.float64(0.1475186804478992), np.float64(0.1418924199495813), np.float64(0.13627964953437036), np.float64(0.13069035862113018), np.float64(0.12513479171896694), np.float64(0.11962338195153886), np.float64(0.11416667791127014), np.float64(0.1087752645475241), np.float64(0.10345967899428976), np.float64(0.09823032244481358), np.float64(0.09309736936007745), np.float64(0.0880706754643816), np.float64(0.0831596861137623), np.float64(0.07837334671483168), np.float64(0.07372001692717514), np.float64(0.06920739037544552), np.float64(0.06484242154564136), np.float64(0.060631261427581386), np.float64(0.05657920329983581), np.float64(0.05269063983582281), np.float64(0.04896903244969131), np.float64(0.045416893504514826), np.float64(0.042035781681921375), np.float64(0.03882631048348024), np.float64(0.03578816949881052), np.float64(0.03292015776253279), np.float64(0.030220228228712627), np.float64(0.027685542142593354), np.float64(0.02531253188217372), np.float64(0.023096970694275454), np.float64(0.021034047652192914), np.float64(0.01911844612795458), np.float64(0.017344424090693415), np.float64(0.01570589461469648), np.float64(0.014196505094547458), np.float64(0.012809713818590356), np.float64(0.011538862730576497), np.float64(0.01037724540936298), np.float64(0.009318169501074853), np.float64(0.008355013048467462), np.float64(0.007481274361669445), np.float64(0.006690615261405942), np.float64(0.005976897695367217), np.float64(0.005334213876022111), np.float64(0.004756910210652038), np.float64(0.004239605394448405), np.float64(0.0037772031119429547), np.float64(0.0033648998441896984), np.float64(0.0029981883105319376), np.float64(0.0026728570856319085), np.float64(0.002384986930638136), np.float64(0.0021309443595595844), np.float64(0.001907372936699217), np.float64(0.0017111827665761466), np.float64(0.0015395385979187148), np.float64(0.0013898469218817354), np.float64(0.001259742400017145), np.float64(0.00114707391407321), np.float64(0.0010498904875314275), np.float64(0.0009664272886550781), np.float64(0.0008950918870924368), np.float64(0.0008344509025365121), np.float64(0.0007832171529827129), np.float64(0.0007402373833292008), np.float64(0.0007044806313398445), np.float64(0.0006750272677916455), np.float64(0.0006510587308540401), np.float64(0.0006318479601727632), np.float64(0.0006167505249738005), np.float64(0.000605196431180916), np.float64(0.0005966825853703918), np.float64(0.0005907658881960467), np.float64(0.0005870569259319134), np.float64(0.0005852142263920761), np.float64(0.0005849390439398957), np.float64(0.0005859706377389174), np.float64(0.0005880820075049363), np.float64(0.0005910760516659573), np.float64(0.0005947821139385795), np.float64(0.0005990528857058178), np.float64(0.0006037616332166901), np.float64(0.0006087997203683624), np.float64(0.000614074399706313), np.float64(0.0006195068461238257), np.float64(0.0006250304096608158), np.float64(0.0006305890655830338), np.float64(0.0006361360417672033), np.float64(0.0006416326050350763), np.float64(0.0006470469898004584), np.float64(0.0006523534537997455), np.float64(0.0006575314472151096), np.float64(0.0006625648826902553), np.float64(0.0006674414950914141), np.float64(0.0006721522808455489), np.float64(0.0006766910079081401), np.float64(0.0006810537881027188), np.float64(0.0006852387047108014), np.float64(0.0006892454887375299), np.float64(0.0006930752380605301), np.float64(0.0006967301744018395), np.float64(0.0007002134334476801), np.float64(0.0007035288841358428), np.float64(0.0007066809734413987), np.float64(0.0007096745935385555), np.float64(0.0007125149684330484), np.float64(0.0007152075577160319), np.float64(0.0007177579750432897), np.float64(0.0007201719196345411), np.float64(0.0007224551188774454), np.float64(0.0007246132807118013), np.float64(0.0007266520543376924), np.float64(0.0007285769982085266)]</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -4622,25 +5117,30 @@
         <v>100</v>
       </c>
       <c r="F100" t="n">
-        <v>0.01114902151845689</v>
+        <v>0.04035414564908799</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[[[np.float64(-30.166188978429545), np.float64(-24.502340943950166), np.float64(-15.13116412591917)], [np.float64(-27.773255083541734), np.float64(-22.690226708166982), np.float64(-14.612043742151847)], [np.float64(-30.775052803111006), np.float64(-26.150509646225174), np.float64(-15.848618540514797)], [np.float64(-13.42516065472761), np.float64(-11.337336662854883), np.float64(-6.58628170200826)]], [[np.float64(-36.0697195141496), np.float64(-44.10757473057629), np.float64(-29.701591690338592), np.float64(-71.08353566067737)], [np.float64(-19.059785394801178), np.float64(-23.47240689812416), np.float64(-15.28416301980339), np.float64(-37.52988535255443)], [np.float64(-14.481200391628407), np.float64(-17.300774140798104), np.float64(-12.240291953807164), np.float64(-28.61864470805164)]]]</t>
+          <t>[[[np.float64(-50.04947881170608), np.float64(-42.96826133048171), np.float64(-51.8677698587142)], [np.float64(-47.753407473071874), np.float64(-40.198372834772), np.float64(-49.44823972596266)], [np.float64(-52.68244158066698), np.float64(-44.54652833005422), np.float64(-54.260232721148746)], [np.float64(-23.471344590840303), np.float64(-19.65543793548917), np.float64(-24.461331800081467)]], [[np.float64(-60.94211418434893), np.float64(-44.02772003179304), np.float64(-19.640070086243867), np.float64(-34.173845389590085)], [np.float64(-56.90321216410381), np.float64(-40.823682131567566), np.float64(-17.892466355724963), np.float64(-31.44044008453488)], [np.float64(-65.8119005712622), np.float64(-47.60241438663381), np.float64(-21.123677928100232), np.float64(-36.505946009458675)]]]</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>[[0.93904246561242, 0.11094556396604949, np.float64(-23.972378541952015)], [0.21964457496931344, 0.7285803208275714, 0.25393335348039414, np.float64(-26.41662077569756)]]</t>
+          <t>[[0.1528204362575224, 0.24558558236621497, np.float64(-81.2405267252741)], [0.010609977871664844, 0.11461260487870906, 0.7968053858553967, np.float64(-23.599651253668767)]]</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>[np.float64(0.3745338505772436), np.float64(0.4523147173757542), np.float64(0.30224074605710427), np.float64(0.7405816631300879)]</t>
+          <t>[np.float64(0.9564521024315616), np.float64(0.683503028839156), np.float64(0.2780871239835415), np.float64(0.5304785740730489)]</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>0.2420765822875614</v>
+        <v>0.5673995948280182</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>[np.float64(54.90128758130019), np.float64(0.04868026678225239), np.float64(0.048582731540975886), np.float64(0.04848548176558689), np.float64(0.04838851657484098), np.float64(0.048291835090300404), np.float64(0.0481954364363232), np.float64(0.048099319740055275), np.float64(0.04800348413141903), np.float64(0.047907928743108175), np.float64(0.04781265271057384), np.float64(0.0477176551720211), np.float64(0.04762293526839593), np.float64(0.04752849214337763), np.float64(0.04743432494337114), np.float64(0.047340432817496066), np.float64(0.04724681491757997), np.float64(0.04715347039814783), np.float64(0.047060398416414684), np.float64(0.046967598132276085), np.float64(0.04687506870829991), np.float64(0.04678280930971839), np.float64(0.046690819104416546), np.float64(0.04659909726292754), np.float64(0.046507642958421636), np.float64(0.046416455366698146), np.float64(0.046325533666177414), np.float64(0.04623487703789216), np.float64(0.04614448466547772), np.float64(0.04605435573516647), np.float64(0.04596448943577675), np.float64(0.04587488495870534), np.float64(0.04578554149791989), np.float64(0.04569645824994953), np.float64(0.0456076344138775), np.float64(0.045519069191331765), np.float64(0.045430761786478126), np.float64(0.04534271140601083), np.float64(0.0452549172591452), np.float64(0.045167378557609564), np.float64(0.04508009451563585), np.float64(0.04499306434995321), np.float64(0.04490628727977844), np.float64(0.04481976252680922), np.float64(0.04473348931521545), np.float64(0.04464746687163092), np.float64(0.04456169442514618), np.float64(0.04447617120729998), np.float64(0.0443908964520709), np.float64(0.04430586939587192), np.float64(0.04422108927753839), np.float64(0.044136555338324376), np.float64(0.04405226682189131), np.float64(0.043968222974304715), np.float64(0.04388442304401991), np.float64(0.04380086628188126), np.float64(0.04371755194110942), np.float64(0.04363447927729495), np.float64(0.04355164754839343), np.float64(0.04346905601471331), np.float64(0.04338670393891214), np.float64(0.043304590585985396), np.float64(0.04322271522326292), np.float64(0.04314107712039839), np.float64(0.04305967554936279), np.float64(0.04297850978443669), np.float64(0.04289757910220391), np.float64(0.04281688278154232), np.float64(0.04273642010361741), np.float64(0.04265619035187488), np.float64(0.042576192812033224), np.float64(0.04249642677207667), np.float64(0.0424168915222466), np.float64(0.042337586355035574), np.float64(0.04225851056518007), np.float64(0.04217966344965281), np.float64(0.04210104430765457), np.float64(0.04202265244060948), np.float64(0.04194448715215502), np.float64(0.04186654774813663), np.float64(0.0417888335366005), np.float64(0.04171134382778576), np.float64(0.04163407793411751), np.float64(0.041557035170200596), np.float64(0.041480214852811476), np.float64(0.04140361630089167), np.float64(0.041327238835541256), np.float64(0.04125108178001093), np.float64(0.04117514445969583), np.float64(0.04109942620212864), np.float64(0.041023926336971356), np.float64(0.0409486441960107), np.float64(0.04087357911314968), np.float64(0.04079873042440059), np.float64(0.040724097467879035), np.float64(0.04064967958379702), np.float64(0.040575476114455396), np.float64(0.04050148640423875), np.float64(0.040427709799606346), np.float64(0.040354145649087986)]</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -4664,25 +5164,30 @@
         <v>200</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2990547217483522</v>
+        <v>0.02800868508263242</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[[[np.float64(-15.222680707898018), np.float64(-16.91433669881541), np.float64(-18.44441241716849)], [np.float64(-13.837897643507594), np.float64(-16.363437385178354), np.float64(-16.9926362276611)], [np.float64(-15.471057707706812), np.float64(-18.011610025340158), np.float64(-18.80545396876191)], [np.float64(-6.3087883488820315), np.float64(-7.719810145601066), np.float64(-8.173289478565621)]], [[np.float64(-20.257140267394657), np.float64(-40.696174781702304), np.float64(-26.388668186205624), np.float64(-7.061512856738074)], [np.float64(-25.222171329758154), np.float64(-49.473374514836095), np.float64(-32.157365707569404), np.float64(-8.87079217705684)], [np.float64(-25.085176514953424), np.float64(-49.944241482165786), np.float64(-32.48614749281994), np.float64(-8.594364809666091)]]]</t>
+          <t>[[[np.float64(-17.204725335852196), np.float64(-49.16531303401337), np.float64(-36.6349894152904)], [np.float64(-16.386675633144144), np.float64(-46.30595787876858), np.float64(-33.97958797482705)], [np.float64(-18.385586362027816), np.float64(-50.62874997966507), np.float64(-37.37338721353983)], [np.float64(-8.083003414238874), np.float64(-23.0944357271034), np.float64(-16.3977655871817)]], [[np.float64(-48.14164426638596), np.float64(-40.2219244957057), np.float64(-12.917953023001047), np.float64(-33.27993389624223)], [np.float64(-64.88026770594365), np.float64(-53.947450857481726), np.float64(-17.494831403773205), np.float64(-44.10274512029197)], [np.float64(-79.26959192824013), np.float64(-67.12470550442988), np.float64(-21.028862742588277), np.float64(-54.6351462150541)]]]</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>[[0.4882939793716665, 0.6979518093552254, np.float64(-28.395858691823424)], [0.26612575593040433, 0.5764076031481113, 0.3902584809972388, np.float64(-4.559364598933706)]]</t>
+          <t>[[0.6695640471618541, 0.9122929644621021, np.float64(-56.18867919729423)], [0.18162710721120356, 0.14327181146805257, 0.7615165906376257, np.float64(-26.19573284928751)]]</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>[np.float64(0.42981799708380664), np.float64(0.8513979622811529), np.float64(0.5506521200187898), np.float64(0.15218383945244934)]</t>
+          <t>[np.float64(0.9463854621906163), np.float64(0.7970311338461541), np.float64(0.26857084427314803), np.float64(0.642666723166526)]</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>0.4215287327399785</v>
+        <v>0.08272232105049719</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>[np.float64(47.25915702575848), np.float64(0.05024328671119132), np.float64(0.05008550341671534), np.float64(0.049928291324051285), np.float64(0.0497716484769466), np.float64(0.04961557292568537), np.float64(0.049460062727064276), np.float64(0.04930511594437331), np.float64(0.04915073064737252), np.float64(0.04899690491227207), np.float64(0.048843636821710605), np.float64(0.04869092446473322), np.float64(0.04853876593677051), np.float64(0.048387159339618846), np.float64(0.04823610278141782), np.float64(0.048085594376629535), np.float64(0.04793563224601863), np.float64(0.04778621451663034), np.float64(0.047637339321770646), np.float64(0.04748900480098524), np.float64(0.047341209100038216), np.float64(0.04719395037089325), np.float64(0.047047226771691215), np.float64(0.046901036466731286), np.float64(0.04675537762644954), np.float64(0.04661024842739902), np.float64(0.0464656470522302), np.float64(0.04632157168967051), np.float64(0.046178020534501964), np.float64(0.04603499178754623), np.float64(0.04589248365563946), np.float64(0.04575049435161537), np.float64(0.0456090220942849), np.float64(0.04546806510841556), np.float64(0.0453276216247137), np.float64(0.04518768987980248), np.float64(0.045048268116203945), np.float64(0.0449093545823189), np.float64(0.044770947532408), np.float64(0.044633045226571855), np.float64(0.044495645930732186), np.float64(0.044358747916611624), np.float64(0.044222349461716604), np.float64(0.044086448849314855), np.float64(0.04395104436842077), np.float64(0.04381613431377272), np.float64(0.043681716985815466), np.float64(0.04354779069068214), np.float64(0.04341435374017374), np.float64(0.04328140445174175), np.float64(0.04314894114846924), np.float64(0.04301696215905153), np.float64(0.0428854658177786), np.float64(0.04275445046451639), np.float64(0.042623914444686606), np.float64(0.04249385610925185), np.float64(0.04236427381469429), np.float64(0.04223516592299871), np.float64(0.042106530801633874), np.float64(0.04197836682353551), np.float64(0.04185067236708589), np.float64(0.041723445816098506), np.float64(0.04159668555979842), np.float64(0.041470389992804314), np.float64(0.04134455751511243), np.float64(0.0412191865320768), np.float64(0.041094275454392704), np.float64(0.04096982269807735), np.float64(0.04084582668445539), np.float64(0.04072228584013856), np.float64(0.04059919859700878), np.float64(0.0404765633922023), np.float64(0.0403543786680902), np.float64(0.040232642872261755), np.float64(0.040111354457508505), np.float64(0.03999051188180597), np.float64(0.03987011360829508), np.float64(0.039750158105268364), np.float64(0.03963064384615006), np.float64(0.039511569309480535), np.float64(0.03939293297889852), np.float64(0.03927473334312595), np.float64(0.039156968895948906), np.float64(0.03903963813620245), np.float64(0.03892273956775333), np.float64(0.038806271699482885), np.float64(0.038690233045271964), np.float64(0.03857462212398267), np.float64(0.03845943745944353), np.float64(0.03834467758043094), np.float64(0.038230341020654986), np.float64(0.03811642631874196), np.float64(0.0380029320182183), np.float64(0.037889856667494295), np.float64(0.037777198819848146), np.float64(0.03766495703341033), np.float64(0.03755312987114539), np.float64(0.037441715900839716), np.float64(0.03733071369508147), np.float64(0.03722012183124813), np.float64(0.037109938891488066), np.float64(0.03700016346270695), np.float64(0.03689079413654947), np.float64(0.03678182950938629), np.float64(0.036673268182297575), np.float64(0.03656510876105559), np.float64(0.03645734985611223), np.float64(0.0363499900825803), np.float64(0.036243028060221345), np.float64(0.03613646241342782), np.float64(0.03603029177120894), np.float64(0.035924514767175314), np.float64(0.03581913003952211), np.float64(0.035714136231017546), np.float64(0.0356095319889836), np.float64(0.0355053159652838), np.float64(0.03540148681630681), np.float64(0.03529804320295245), np.float64(0.03519498379061509), np.float64(0.03509230724917082), np.float64(0.034990012252961576), np.float64(0.03488809748077992), np.float64(0.03478656161585529), np.float64(0.0346854033458389), np.float64(0.034584621362788684), np.float64(0.03448421436315556), np.float64(0.034384181047768164), np.float64(0.034284520121818624), np.float64(0.034185230294848025), np.float64(0.03408631028073273), np.float64(0.033987758797668396), np.float64(0.03388957456815746), np.float64(0.0337917563189937), np.float64(0.03369430278124859), np.float64(0.033597212690257346), np.float64(0.03350048478560365), np.float64(0.03340411781110722), np.float64(0.033308110514808), np.float64(0.0332124616489537), np.float64(0.03311716996998568), np.float64(0.03302223423852428), np.float64(0.032927653219354806), np.float64(0.032833425681415306), np.float64(0.03273955039778128), np.float64(0.03264602614565287), np.float64(0.03255285170634024), np.float64(0.03246002586525115), np.float64(0.03236754741187674), np.float64(0.0322754151397777), np.float64(0.03218362784657192), np.float64(0.03209218433391979), np.float64(0.03200108340751096), np.float64(0.03191032387705229), np.float64(0.031819904556253095), np.float64(0.03172982426281248), np.float64(0.03164008181840594), np.float64(0.03155067604867256), np.float64(0.03146160578320149), np.float64(0.03137286985551919), np.float64(0.031284467103076016), np.float64(0.031196396367233214), np.float64(0.031108656493250786), np.float64(0.031021246330273134), np.float64(0.030934164731317434), np.float64(0.030847410553261116), np.float64(0.030760982656826794), np.float64(0.030674879906572135), np.float64(0.030589101170876182), np.float64(0.0305036453219256), np.float64(0.03041851123570418), np.float64(0.0303336977919786), np.float64(0.030249203874286455), np.float64(0.030165028369923484), np.float64(0.030081170169931917), np.float64(0.029997628169087322), np.float64(0.029914401265885966), np.float64(0.029831488362533628), np.float64(0.029748888364932034), np.float64(0.029666600182667514), np.float64(0.029584622728998658), np.float64(0.029502954920842844), np.float64(0.02942159567876721), np.float64(0.02934054392697251), np.float64(0.02925979859328403), np.float64(0.0291793586091394), np.float64(0.0290992229095742), np.float64(0.029019390433213454), np.float64(0.02893986012225645), np.float64(0.028860630922467944), np.float64(0.02878170178316339), np.float64(0.028703071657199927), np.float64(0.028624739500962254), np.float64(0.028546704274352554), np.float64(0.02846896494077835), np.float64(0.028391520467140514), np.float64(0.028314369823822277), np.float64(0.028237511984677065), np.float64(0.028160945927017525), np.float64(0.028084670631603973), np.float64(0.02800868508263242)]</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -4706,25 +5211,30 @@
         <v>100</v>
       </c>
       <c r="F102" t="n">
-        <v>0.05156660929164542</v>
+        <v>0.0460691936367051</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.30680645648180443), np.float64(0.8315030508066222), np.float64(0.878905553356849)], [np.float64(0.6459841065265282), np.float64(0.6801966913706772), np.float64(0.5532184125249435)], [np.float64(0.09140839971989782), np.float64(0.40197763118538854), np.float64(0.37078775943670556)], [np.float64(0.02572268044698012), np.float64(0.987673462483538), np.float64(0.5793395545389243)]], [[np.float64(0.455816909227858), np.float64(0.003740312634034782), np.float64(0.5764010063705135), np.float64(0.046066598966228944)], [np.float64(-0.11581234180295401), np.float64(-0.09876128854450572), np.float64(0.561465194280738), np.float64(-0.19236059949310635)], [np.float64(0.44348429965125014), np.float64(-0.13224477396290937), np.float64(0.18048806138576506), np.float64(-0.23799276846661005)]]]</t>
+          <t>[[[np.float64(0.3699507639397221), np.float64(0.4716271049317554), np.float64(0.5298526104598497)], [np.float64(0.22910188387896785), np.float64(0.419685947157284), np.float64(0.6528984308354372)], [np.float64(0.38713330457118633), np.float64(0.783065140235332), np.float64(0.6467176374681852)], [np.float64(0.5417506689315078), np.float64(0.73915123691337), np.float64(0.14829596962732913)]], [[np.float64(0.2329121100167153), np.float64(0.045742793259670345), np.float64(0.4126125316932141), np.float64(0.6199870534733157)], [np.float64(0.1194294771113797), np.float64(-0.09545750679454891), np.float64(0.3791715956584665), np.float64(0.12922350100684737)], [np.float64(0.7375885250536333), np.float64(0.7813236038623881), np.float64(0.11168786723468557), np.float64(0.5852079437654182)]]]</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>[[0.3282441084712959, 0.7121450054445732, np.float64(0.7195537279652005)], [0.8207476013402466, 0.8786424509969141, 0.7094978463518743, np.float64(0.690232621225792)]]</t>
+          <t>[[0.670451398576851, 0.335819989764951, np.float64(0.6522445929960898)], [0.5761712852165977, 0.7519567955235846, 0.8643235784979251, np.float64(0.08408091873486144)]]</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>[np.float64(0.9484621961157589), np.float64(0.925858934640903), np.float64(0.5408480417633413), np.float64(0.6395508082436091)]</t>
+          <t>[np.float64(0.40797335469409907), np.float64(0.580037453261869), np.float64(0.2774136795300625), np.float64(0.1673885742035982)]</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>0.06080233862277606</v>
+        <v>0.9692214050476332</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>[np.float64(0.04856193926991621), np.float64(0.04853936750615625), np.float64(0.04851674255349047), np.float64(0.04849406439122121), np.float64(0.04847133299940078), np.float64(0.04844854835883189), np.float64(0.04842571045107309), np.float64(0.04840281925844609), np.float64(0.04837987476403392), np.float64(0.048356876951692405), np.float64(0.048333825806047996), np.float64(0.04831072131251076), np.float64(0.04828756345726991), np.float64(0.048264352227300536), np.float64(0.04824108761037336), np.float64(0.04821776959505231), np.float64(0.04819439817070412), np.float64(0.0481709733274975), np.float64(0.048147495056415086), np.float64(0.04812396334924686), np.float64(0.04810037819860591), np.float64(0.048076739597925404), np.float64(0.04805304754146856), np.float64(0.04802930202432612), np.float64(0.04800550304242614), np.float64(0.04798165059253432), np.float64(0.04795774467226602), np.float64(0.04793378528007929), np.float64(0.04790977241528915), np.float64(0.047885706078066345), np.float64(0.0478615862694433), np.float64(0.047837412991319286), np.float64(0.0478131862464595), np.float64(0.047788906038509896), np.float64(0.04776457237199069), np.float64(0.04774018525230611), np.float64(0.04771574468575082), np.float64(0.04769125067950516), np.float64(0.04766670324164995), np.float64(0.04764210238116337), np.float64(0.047617448107928), np.float64(0.047592740432734155), np.float64(0.047567979367287995), np.float64(0.04754316492420672), np.float64(0.047518297117032225), np.float64(0.047493375960232474), np.float64(0.047468401469198965), np.float64(0.04744337366026014), np.float64(0.04741829255067978), np.float64(0.0473931581586645), np.float64(0.04736797050336558), np.float64(0.04734272960488367), np.float64(0.047317435484271635), np.float64(0.047292088163540136), np.float64(0.04726668766565974), np.float64(0.047241234014569124), np.float64(0.047215727235172734), np.float64(0.047190167353348446), np.float64(0.04716455439595358), np.float64(0.04713888839082463), np.float64(0.04711316936678148), np.float64(0.04708739735363403), np.float64(0.04706157238218341), np.float64(0.0470356944842271), np.float64(0.04700976369256309), np.float64(0.04698378004099052), np.float64(0.04695774356431748), np.float64(0.046931654298361075), np.float64(0.0469055122799577), np.float64(0.046879317546954305), np.float64(0.046853070138226205), np.float64(0.046826770093669985), np.float64(0.04680041745421434), np.float64(0.046774012261815566), np.float64(0.04674755455947146), np.float64(0.04672104439121595), np.float64(0.04669448180212624), np.float64(0.04666786683832602), np.float64(0.04664119954698887), np.float64(0.0466144799763385), np.float64(0.046587708175658986), np.float64(0.04656088419529056), np.float64(0.04653400808664026), np.float64(0.04650707990217828), np.float64(0.04648009969544278), np.float64(0.04645306752104792), np.float64(0.04642598343467974), np.float64(0.04639884749310769), np.float64(0.046371659754177855), np.float64(0.04634442027682428), np.float64(0.04631712912106595), np.float64(0.04628978634801775), np.float64(0.04626239201988205), np.float64(0.04623494619996251), np.float64(0.046207448952656646), np.float64(0.04617990034347101), np.float64(0.046152300439011494), np.float64(0.046124649306994725), np.float64(0.046096947016246725), np.float64(0.0460691936367051)]</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -4748,25 +5258,30 @@
         <v>200</v>
       </c>
       <c r="F103" t="n">
-        <v>0.03459685941390232</v>
+        <v>0.04881274402094547</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.9133224886691961), np.float64(0.13280291212335188), np.float64(-0.027168509803691274)], [np.float64(0.5581749291683384), np.float64(0.7700092609098552), np.float64(0.32332992409174816)], [np.float64(0.21808850436300506), np.float64(0.21845730066680513), np.float64(0.017586415406926247)], [np.float64(0.3915371246080545), np.float64(0.7608673769190794), np.float64(0.793343351611739)]], [[np.float64(0.33299581016041135), np.float64(0.056034997360547886), np.float64(0.039144456542063055), np.float64(-0.006075725351343506)], [np.float64(0.7133450782170653), np.float64(0.5955546381714926), np.float64(-0.21296967347639323), np.float64(0.8072087292350822)], [np.float64(0.36735226126981846), np.float64(-0.20839965244069125), np.float64(0.40660164736825877), np.float64(0.6403300324920667)]]]</t>
+          <t>[[[np.float64(0.7980980616691377), np.float64(-0.07661902693457272), np.float64(0.5763298790417979)], [np.float64(0.04809596758709662), np.float64(0.4407504946473306), np.float64(0.9552487555470721)], [np.float64(-0.05638130690855179), np.float64(0.05612260911754838), np.float64(0.699779423913235)], [np.float64(0.8861619045195754), np.float64(0.5001982827400053), np.float64(0.7176476695782228)]], [[np.float64(0.3242427778390224), np.float64(0.5615564136072135), np.float64(0.38835286632686894), np.float64(0.7136185537283485)], [np.float64(0.37130042000423064), np.float64(0.2697340701948101), np.float64(0.35842022583980265), np.float64(0.24752016091532164)], [np.float64(0.14304131017474342), np.float64(-0.3566667113409972), np.float64(0.26360925096542176), np.float64(-0.11084727689257033)]]]</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>[[0.9565529336039152, 0.47605721956994373, np.float64(0.4431837135054431)], [0.8099260606986716, 0.9095233555893358, 0.6903823721257438, np.float64(0.48968433422156915)]]</t>
+          <t>[[0.27390629107372944, 0.0015610734697129036, np.float64(0.24004690629547526)], [0.7174686161416002, 0.3950081106608858, 0.2898854921329489, np.float64(-0.08726022591801251)]]</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>[np.float64(0.20543667044906197), np.float64(0.6654449435750681), np.float64(0.9618881070229065), np.float64(0.30794645692108286)]</t>
+          <t>[np.float64(0.6510905777367302), np.float64(0.525529467173107), np.float64(0.5213768737958937), np.float64(0.14994355251393)]</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>0.1869476147818848</v>
+        <v>0.8700697243478127</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>[np.float64(0.056730618678982055), np.float64(0.05669819024032461), np.float64(0.05666568117523173), np.float64(0.056633091524041376), np.float64(0.05660042132824969), np.float64(0.056567670630515945), np.float64(0.05653483947465767), np.float64(0.05650192790564953), np.float64(0.05646893596962838), np.float64(0.05643586371389002), np.float64(0.05640271118688492), np.float64(0.0563694784382227), np.float64(0.056336165518669414), np.float64(0.056302772480147874), np.float64(0.0562692993757373), np.float64(0.05623574625967336), np.float64(0.056202113187342286), np.float64(0.05616840021529004), np.float64(0.05613460740120994), np.float64(0.056100734803954506), np.float64(0.056066782483521684), np.float64(0.056032750501065556), np.float64(0.05599863891888857), np.float64(0.05596444780044689), np.float64(0.055930177210341894), np.float64(0.055895827214323304), np.float64(0.05586139787929194), np.float64(0.05582688927329231), np.float64(0.055792301465515746), np.float64(0.05575763452630036), np.float64(0.05572288852712906), np.float64(0.055688063540625304), np.float64(0.055653159640557885), np.float64(0.05561817690183838), np.float64(0.055583115400514534), np.float64(0.055547975213779445), np.float64(0.05551275641996191), np.float64(0.05547745909853056), np.float64(0.05544208333009352), np.float64(0.05540662919638947), np.float64(0.05537109678029881), np.float64(0.055335486165828965), np.float64(0.05529979743812907), np.float64(0.05526403068347745), np.float64(0.055228185989282724), np.float64(0.05519226344408467), np.float64(0.05515626313755099), np.float64(0.05512018516048317), np.float64(0.05508402960480289), np.float64(0.055047796563563366), np.float64(0.055011486130939743), np.float64(0.05497509840223554), np.float64(0.054938633473872636), np.float64(0.054902091443399914), np.float64(0.054865472409485985), np.float64(0.05482877647191774), np.float64(0.0547920037316006), np.float64(0.0547551542905604), np.float64(0.05471822825194114), np.float64(0.05468122571999681), np.float64(0.05464414680010263), np.float64(0.054606991598741564), np.float64(0.05456976022351297), np.float64(0.05453245278312792), np.float64(0.05449506938740778), np.float64(0.054457610147279775), np.float64(0.054420075174784054), np.float64(0.05438246458306283), np.float64(0.05434477848636815), np.float64(0.05430701700005595), np.float64(0.05426918024058686), np.float64(0.05423126832551907), np.float64(0.05419328137351905), np.float64(0.05415521950435414), np.float64(0.05411708283888799), np.float64(0.05407887149908015), np.float64(0.05404058560799345), np.float64(0.05400222528978138), np.float64(0.05396379066969692), np.float64(0.05392528187408792), np.float64(0.053886699030390235), np.float64(0.05384804226713693), np.float64(0.053809311713947316), np.float64(0.05377050750153511), np.float64(0.05373162976170199), np.float64(0.05369267862733378), np.float64(0.053653654232406846), np.float64(0.053614556711983105), np.float64(0.05357538620221174), np.float64(0.05353614284031955), np.float64(0.053496826764621), np.float64(0.05345743811450753), np.float64(0.053417977030457225), np.float64(0.05337844365402636), np.float64(0.05333883812784656), np.float64(0.05329916059563158), np.float64(0.053259411202169156), np.float64(0.05321959009332803), np.float64(0.053179697416043094), np.float64(0.05313973331833292), np.float64(0.05309969794928521), np.float64(0.05305959145905692), np.float64(0.05301941399888167), np.float64(0.0529791657210591), np.float64(0.05293884677896486), np.float64(0.052898457327034694), np.float64(0.0528579975207776), np.float64(0.05281746751676997), np.float64(0.05277686747265429), np.float64(0.05273619754713554), np.float64(0.05269545789998444), np.float64(0.05265464869203411), np.float64(0.052613770085185974), np.float64(0.05257282224239836), np.float64(0.05253180532769441), np.float64(0.052490719506152965), np.float64(0.0524495649439178), np.float64(0.052408341808187674), np.float64(0.05236705026722156), np.float64(0.05232569049033843), np.float64(0.05228426264791006), np.float64(0.052242766911366055), np.float64(0.05220120345319042), np.float64(0.052159572446924186), np.float64(0.05211787406716221), np.float64(0.052076108489549355), np.float64(0.05203427589078753), np.float64(0.05199237644862874), np.float64(0.05195041034187688), np.float64(0.0519083777503856), np.float64(0.051866278855060434), np.float64(0.05182411383785538), np.float64(0.05178188288177469), np.float64(0.0517395861708695), np.float64(0.05169722389024121), np.float64(0.051654796226035894), np.float64(0.05161230336544976), np.float64(0.05156974549672138), np.float64(0.05152712280913962), np.float64(0.05148443549303554), np.float64(0.051441683739782876), np.float64(0.051398867741804584), np.float64(0.051355987692565365), np.float64(0.05131304378657126), np.float64(0.0512700362193746), np.float64(0.05122696518756836), np.float64(0.05118383088878649), np.float64(0.0511406335217068), np.float64(0.05109737328604538), np.float64(0.051054050382559626), np.float64(0.05101066501304966), np.float64(0.05096721738035225), np.float64(0.050923707688345185), np.float64(0.050880136141943554), np.float64(0.050836502947104116), np.float64(0.050792808310820343), np.float64(0.050749052441121593), np.float64(0.050705235547078537), np.float64(0.05066135783879465), np.float64(0.050617419527411285), np.float64(0.050573420825109114), np.float64(0.050529361945101575), np.float64(0.05048524310164012), np.float64(0.05044106451000931), np.float64(0.05039682638652995), np.float64(0.05035252894855774), np.float64(0.050308172414481926), np.float64(0.05026375700372831), np.float64(0.050219282936751757), np.float64(0.05017475043504226), np.float64(0.0501301597211259), np.float64(0.050085511018558515), np.float64(0.05004080455192895), np.float64(0.04999604054685701), np.float64(0.049951219229998664), np.float64(0.049906340829033745), np.float64(0.04986140557267958), np.float64(0.04981641369067929), np.float64(0.04977136541381285), np.float64(0.04972626097388532), np.float64(0.04968110060373243), np.float64(0.049635884537218865), np.float64(0.04959061300924192), np.float64(0.049545286255724026), np.float64(0.049499904513615474), np.float64(0.04945446802089666), np.float64(0.049408977016576504), np.float64(0.049363431740688704), np.float64(0.049317832434293746), np.float64(0.049272179339480644), np.float64(0.04922647269936496), np.float64(0.04918071275808618), np.float64(0.0491348997608104), np.float64(0.049089033953726026), np.float64(0.049043115584048794), np.float64(0.04899714490001791), np.float64(0.04895112215089542), np.float64(0.04890504758696722), np.float64(0.048858921459541065), np.float64(0.048812744020945466)]</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -4790,25 +5305,30 @@
         <v>100</v>
       </c>
       <c r="F104" t="n">
-        <v>0.01409824486192565</v>
+        <v>0.01445238860703644</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.06571735145109293), np.float64(0.1915189747066749), np.float64(0.111374749431895)], [np.float64(0.9393357423266859), np.float64(0.8710134533002768), np.float64(0.5908944555781638)], [np.float64(0.6978221263281388), np.float64(1.116157586388458), np.float64(0.03385226894904439)], [np.float64(0.708421180873776), np.float64(0.7281487683010542), np.float64(0.042388155833647426)]], [[np.float64(-0.6282413707875011), np.float64(-0.16702611814890975), np.float64(-0.44748895926769217), np.float64(-0.7763428556952437)], [np.float64(-0.9692846511278712), np.float64(-0.7123092359233008), np.float64(-0.6910618402947252), np.float64(-0.6898629547992191)], [np.float64(-0.658898973367519), np.float64(0.1862897216667015), np.float64(-0.2624973910721042), np.float64(-0.5395593216352801)]]]</t>
+          <t>[[[np.float64(0.09320880544645856), np.float64(0.4681709967477561), np.float64(0.6265277332733492)], [np.float64(0.10310482296597603), np.float64(0.31095892018118965), np.float64(0.11857402494987755)], [np.float64(-0.15678510171922416), np.float64(0.6059915869906689), np.float64(0.3730955639665554)], [np.float64(0.8813720370062714), np.float64(0.8352013490850951), np.float64(1.023295291536931)]], [[np.float64(-0.20141557538216717), np.float64(0.24826409183665388), np.float64(-0.5384397337850951), np.float64(0.4927436131358443)], [np.float64(-0.4573590843776954), np.float64(0.43111639514042166), np.float64(-0.5609474576273609), np.float64(-0.12146963002836995)], [np.float64(-1.2153695388285242), np.float64(0.2264819835380739), np.float64(-0.8024056694673132), np.float64(-0.003974743005746763)]]]</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>[[0.41324085972670666, 0.02311742462974886, np.float64(0.07593505317877317)], [0.9786445638078279, 0.3134089937913528, 0.0701682169168929, np.float64(-1.0228289650041829)]]</t>
+          <t>[[0.021583856650693067, 0.28958746144006586, np.float64(0.7135203132801484)], [0.9797672168203325, 0.382584875556392, 0.7873763888191927, np.float64(-0.3463409187442859)]]</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>[np.float64(0.9181344388560548), np.float64(0.6475441023258155), np.float64(0.8229356969886481), np.float64(0.7666055135991285)]</t>
+          <t>[np.float64(0.9096977679192079), np.float64(0.2090526605202541), np.float64(0.7875319655513282), np.float64(0.3868526757341884)]</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>0.2814920780412932</v>
+        <v>0.2162741862644388</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>[np.float64(0.051349706009394515), np.float64(0.05094083638883314), np.float64(0.050517726410396015), np.float64(0.050080402451594536), np.float64(0.049628926820608626), np.float64(0.0491633988884432), np.float64(0.04868395620011217), np.float64(0.048190775569012224), np.float64(0.047684074156118195), np.float64(0.04716411053240956), np.float64(0.04663118571901059), np.float64(0.046085644194963346), np.float64(0.04552787485723159), np.float64(0.04495831191195643), np.float64(0.044377435669858946), np.float64(0.043785773212576616), np.float64(0.0431838988906976), np.float64(0.042572434608594244), np.float64(0.04195204984629151), np.float64(0.04132346136480223), np.float64(0.040687432538971585), np.float64(0.04004477226132934), np.float64(0.03939633336210828), np.float64(0.03874301049457028), np.float64(0.03808573744158792), np.float64(0.03742548380891623), np.float64(0.036763251082910245), np.float64(0.036100068045381926), np.float64(0.03543698555556033), np.float64(0.034775070728102826), np.float64(0.034115400556383985), np.float64(0.033459055050794426), np.float64(0.03280710998172555), np.float64(0.032160629335432005), np.float64(0.03152065760669943), np.float64(0.03088821206479497), np.float64(0.03026427513718662), np.float64(0.029649787058854203), np.float64(0.029045638932996453), np.float64(0.028452666341602845), np.float64(0.02787164363186197), np.float64(0.02730327898740386), np.float64(0.026748210372268294), np.float64(0.026207002411732287), np.float64(0.02568014424846147), np.float64(0.025168048386108824), np.float64(0.024671050506843064), np.float64(0.0241894102251569), np.float64(0.023723312718776972), np.float64(0.023272871159232156), np.float64(0.02283812985028363), np.float64(0.022419067971930034), np.float64(0.022015603821572582), np.float64(0.02162759944156508), np.float64(0.021254865523645826), np.float64(0.020897166485318107), np.float64(0.020554225620167215), np.float64(0.02022573023325883), np.float64(0.019911336683144983), np.float64(0.019610675263339025), np.float64(0.019323354867643666), np.float64(0.019048967395287334), np.float64(0.018787091862713157), np.float64(0.018537298199123548), np.float64(0.01829915071205387), np.float64(0.018072211217430842), np.float64(0.01785604183553033), np.float64(0.01765020746004062), np.float64(0.017454277912142626), np.float64(0.017267829795113106), np.float64(0.017090448067674964), np.float64(0.016921727356120082), np.float64(0.016761273026276086), np.float64(0.016608702036892204), np.float64(0.016463643595880272), np.float64(0.016325739640486225), np.float64(0.016194645161537895), np.float64(0.01607002839095693), np.float64(0.015951570870501197), np.float64(0.015838967418415943), np.float64(0.015731926009247343), np.float64(0.01563016758075634), np.float64(0.015533425780508602), np.float64(0.015441446663334345), np.float64(0.015353988349685821), np.float64(0.01527082065367249), np.float64(0.015191724688484589), np.float64(0.01511649245587138), np.float64(0.01504492642546089), np.float64(0.014976839108839554), np.float64(0.014912052632547069), np.float64(0.014850398313501448), np.float64(0.014791716239685901), np.float64(0.014735854858560556), np.float64(0.01468267057502493), np.float64(0.014632027360439217), np.float64(0.014583796373909597), np.float64(0.014537855596629175), np.float64(0.01449408947986363), np.float64(0.014452388607036437)]</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -4832,25 +5352,30 @@
         <v>200</v>
       </c>
       <c r="F105" t="n">
-        <v>0.01444467855704657</v>
+        <v>0.01396774249915986</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.8509108057610718), np.float64(1.1274557216974823), np.float64(0.21962117519029845)], [np.float64(0.19433603469874355), np.float64(0.46739648270021605), np.float64(0.6791909295198573)], [np.float64(1.03477886043839), np.float64(0.5153725379688002), np.float64(0.7520331065454521)], [np.float64(0.2889140202947009), np.float64(0.6046661567415823), np.float64(0.9047614927143836)]], [[np.float64(-0.7245924956664934), np.float64(-0.5596413679142741), np.float64(0.5679613544561446), np.float64(-1.4790094350408425)], [np.float64(-1.1508898584442626), np.float64(-0.7796804388106422), np.float64(0.08573672816717123), np.float64(-1.1774514948252917)], [np.float64(-1.1090799916633391), np.float64(-0.13701071221593816), np.float64(0.4986710215460728), np.float64(-0.8026841518576235)]]]</t>
+          <t>[[[np.float64(0.22877567904094384), np.float64(0.8400446667384043), np.float64(0.8739042023761153)], [np.float64(-0.08208768007957479), np.float64(0.0978699234132253), np.float64(0.5089165562558058)], [np.float64(0.6586508080122018), np.float64(-0.09225891455641327), np.float64(0.4048126432512722)], [np.float64(0.0328069567734871), np.float64(-0.021163026706787682), np.float64(0.11076753101523465)]], [[np.float64(-0.024411538477617015), np.float64(0.3195722115006575), np.float64(0.18088620363407376), np.float64(-0.14226777105919614)], [np.float64(-0.13802779863709125), np.float64(0.46582889997458066), np.float64(-0.18863547902747504), np.float64(-0.25397841986010683)], [np.float64(0.1592014374774426), np.float64(0.35388790539753956), np.float64(-0.5950556667516631), np.float64(-0.6228912590533242)]]]</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>[[0.25080616097215125, 0.7746897877894856, np.float64(0.5380987684455286)], [0.4389076974158481, 0.46222727865350155, 0.8155041352500881, np.float64(-2.0067322324082504)]]</t>
+          <t>[[0.5849623286762071, 0.39688315782207473, np.float64(0.07096276728907101)], [0.5164243228119215, 0.4322427080015373, 0.318750398448411, np.float64(-0.7891423753293108)]]</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>[np.float64(0.5392343600340231), np.float64(0.37377688841766055), np.float64(0.1260750846103247), np.float64(0.6220620598364287)]</t>
+          <t>[np.float64(0.1847131631912548), np.float64(0.31531081352575263), np.float64(0.4262998604461518), np.float64(0.40341712443924455)]</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>0.8963275021206945</v>
+        <v>0.5320371841253743</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>[np.float64(0.02757089147377589), np.float64(0.02743044261598594), np.float64(0.02728965482622689), np.float64(0.027148576200284498), np.float64(0.027007255057885825), np.float64(0.026865739866156355), np.float64(0.02672407916268901), np.float64(0.026582321478499756), np.float64(0.02644051526116305), np.float64(0.026298708798375058), np.float64(0.026156950142260577), np.float64(0.026015287034660287), np.float64(0.02587376683368138), np.float64(0.0257324364417731), np.float64(0.02559134223556718), np.float64(0.02545052999772608), np.float64(0.025310044851028102), np.float64(0.025169931194905574), np.float64(0.025030232644621328), np.float64(0.02489099197328357), np.float64(0.024752251056846728), np.float64(0.024614050822258895), np.float64(0.02447643119888266), np.float64(0.02433943107329056), np.float64(0.024203088247539372), np.float64(0.02406743940098035), np.float64(0.02393252005567735), np.float64(0.02379836454544348), np.float64(0.02366500598852194), np.float64(0.023532476263917107), np.float64(0.02340080599132689), np.float64(0.023270024514672437), np.float64(0.023140159889141695), np.float64(0.023011238871687795), np.float64(0.022883286914909085), np.float64(0.022756328164195056), np.float64(0.02263038545804179), np.float64(0.02250548033141943), np.float64(0.022381633022056483), np.float64(0.022258862479506588), np.float64(0.02213718637685745), np.float64(0.022016621124930406), np.float64(0.02189718188882086), np.float64(0.02177888260661481), np.float64(0.02166173601013518), np.float64(0.02154575364754595), np.float64(0.021430945907662743), np.float64(0.021317322045804842), np.float64(0.021204890211038874), np.float64(0.021093657474649145), np.float64(0.02098362985969297), np.float64(0.020874812371489304), np.float64(0.0207672090288986), np.float64(0.020660822896252932), np.float64(0.020555656115805995), np.float64(0.020451709940586055), np.float64(0.02034898476751061), np.float64(0.02024748017067178), np.float64(0.0201471949346655), np.float64(0.02004812708787929), np.float64(0.019950273935631056), np.float64(0.019853632093087506), np.float64(0.01975819751786404), np.float64(0.019663965542245948), np.float64(0.019570930904956534), np.float64(0.019479087782409137), np.float64(0.01938842981939907), np.float64(0.019298950159169135), np.float64(0.01921064147282501), np.float64(0.01912349598804411), np.float64(0.019037505517058156), np.float64(0.01895266148387874), np.float64(0.018868954950738252), np.float64(0.018786376643730982), np.float64(0.01870491697764755), np.float64(0.01862456607997496), np.float64(0.018545313814076286), np.float64(0.018467149801519703), np.float64(0.018390063443592307), np.float64(0.01831404394197017), np.float64(0.018239080318558042), np.float64(0.018165161434520433), np.float64(0.01809227600848912), np.float64(0.018020412633979056), np.float64(0.01794955979602035), np.float64(0.01787970588700745), np.float64(0.017810839221807314), np.float64(0.017742948052115244), np.float64(0.017676020580096107), np.float64(0.017610044971323995), np.float64(0.01754500936703541), np.float64(0.0174809018957208), np.float64(0.017417710684072777), np.float64(0.01735542386731473), np.float64(0.017294029598919673), np.float64(0.01723351605975987), np.float64(0.017173871466686766), np.float64(0.017115084080573766), np.float64(0.0170571422138468), np.float64(0.017000034237507233), np.float64(0.016943748587680437), np.float64(0.016888273771713275), np.float64(0.01683359837381773), np.float64(0.016779711060311214), np.float64(0.016726600584442468), np.float64(0.01667425579084549), np.float64(0.016622665619620846), np.float64(0.016571819110075124), np.float64(0.01652170540412693), np.float64(0.01647231374939862), np.float64(0.0164236335020127), np.float64(0.016375654129098898), np.float64(0.016328365211037924), np.float64(0.01628175644345297), np.float64(0.01623581763895306), np.float64(0.016190538728656542), np.float64(0.01614590976349608), np.float64(0.016101920915323698), np.float64(0.016058562477825934), np.float64(0.01601582486725774), np.float64(0.01597369862300412), np.float64(0.015932174407992446), np.float64(0.015891243008951596), np.float64(0.01585089533653197), np.float64(0.015811122425292347), np.float64(0.015771915433574504), np.float64(0.015733265643254207), np.float64(0.01569516445939386), np.float64(0.0156576034097928), np.float64(0.015620574144449563), np.float64(0.015584068434936463), np.float64(0.015548078173697993), np.float64(0.015512595373280216), np.float64(0.015477612165483311), np.float64(0.015443120800467648), np.float64(0.015409113645787573), np.float64(0.015375583185391596), np.float64(0.015342522018561485), np.float64(0.015309922858817139), np.float64(0.015277778532776657), np.float64(0.01524608197899153), np.float64(0.015214826246742155), np.float64(0.015184004494810176), np.float64(0.015153609990225322), np.float64(0.015123636106992487), np.float64(0.015094076324798016), np.float64(0.015064924227704347), np.float64(0.015036173502826211), np.float64(0.015007817939000093), np.float64(0.01497985142544264), np.float64(0.014952267950404356), np.float64(0.014925061599814389), np.float64(0.014898226555929707), np.float64(0.014871757095976284), np.float64(0.014845647590789978), np.float64(0.014819892503468407), np.float64(0.01479448638801219), np.float64(0.014769423887981564), np.float64(0.014744699735153056), np.float64(0.014720308748183274), np.float64(0.01469624583128143), np.float64(0.014672505972884827), np.float64(0.014649084244355093), np.float64(0.014625975798668216), np.float64(0.014603175869133175), np.float64(0.014580679768104992), np.float64(0.014558482885716666), np.float64(0.014536580688627483), np.float64(0.014514968718777293), np.float64(0.014493642592159567), np.float64(0.014472597997598428), np.float64(0.014451830695553822), np.float64(0.014431336516926492), np.float64(0.014411111361889673), np.float64(0.01439115119872423), np.float64(0.014371452062675977), np.float64(0.01435201005482629), np.float64(0.014332821340976425), np.float64(0.014313882150550208), np.float64(0.014295188775505493), np.float64(0.01427673756926798), np.float64(0.01425852494567733), np.float64(0.014240547377949178), np.float64(0.014222801397649441), np.float64(0.014205283593688785), np.float64(0.014187990611331846), np.float64(0.01417091915121577), np.float64(0.014154065968392823), np.float64(0.014137427871379431), np.float64(0.014121001721228588), np.float64(0.0141047844306088), np.float64(0.014088772962906396), np.float64(0.014072964331333643), np.float64(0.01405735559805885), np.float64(0.014041943873347165), np.float64(0.014026726314717488), np.float64(0.014011700126110162), np.float64(0.013996862557075496), np.float64(0.01398221090196822), np.float64(0.013967742499159863)]</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -4874,25 +5399,30 @@
         <v>100</v>
       </c>
       <c r="F106" t="n">
-        <v>0.03528159942211227</v>
+        <v>0.01191778213470451</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.5668417662020735), np.float64(0.47033493884184374), np.float64(0.12722359028143657)], [np.float64(0.24505655340663338), np.float64(0.2811517257530392), np.float64(0.8268302552135496)], [np.float64(0.8125327029148037), np.float64(0.55561257802915), np.float64(-0.05210971466443085)], [np.float64(0.9220050162731052), np.float64(0.3662043974578753), np.float64(0.12753281048970463)]], [[np.float64(-0.014861541744203337), np.float64(0.46050007228254963), np.float64(-0.33802874780391406), np.float64(0.5056709131619612)], [np.float64(0.01097625194250586), np.float64(0.37007917538483015), np.float64(0.18419042294578628), np.float64(-0.025881015780069027)], [np.float64(0.16948206520312273), np.float64(0.21447631603817208), np.float64(-0.4011159943009263), np.float64(0.802870058246804)]]]</t>
+          <t>[[[np.float64(0.9423125715213868), np.float64(0.2892649860020982), np.float64(0.8009280101104086)], [np.float64(0.3910585467970402), np.float64(0.7873780481976984), np.float64(0.8923782382192105)], [np.float64(0.4789035563495741), np.float64(0.3049428461003499), np.float64(-0.015678584940087517)], [np.float64(0.4238365634843541), np.float64(0.09000220652872994), np.float64(0.4367111857751314)]], [[np.float64(0.6800254599906334), np.float64(-0.04216954234275279), np.float64(-0.32686631016772133), np.float64(0.06133728828326862)], [np.float64(-0.020655022406878915), np.float64(0.07482987175103233), np.float64(0.3725059336477272), np.float64(0.01125682132622041)], [np.float64(0.2762624289505464), np.float64(0.7017920524845062), np.float64(-0.3840370096508075), np.float64(0.39732120093370094)]]]</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>[[0.06198750670006303, 0.3972699837164063, np.float64(0.42192376192839975)], [0.6793140336700267, 0.1008039015774157, 0.2846869508044655, np.float64(0.4009115193625764)]]</t>
+          <t>[[0.55049452012176, 0.22665944217472866, np.float64(0.5971615886745993)], [0.9231508523089182, 0.5657100949880318, 0.07878744524085823, np.float64(0.6872025481970596)]]</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>[np.float64(0.42386104105382144), np.float64(0.07373961435219538), np.float64(0.157253880339002), np.float64(0.044612724331727416)]</t>
+          <t>[np.float64(0.29785389683311003), np.float64(0.5300960719708355), np.float64(0.679064540218406), np.float64(0.2302418369621755)]</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>0.940912401581113</v>
+        <v>0.2453531477162001</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>[np.float64(0.06675166862650113), np.float64(0.06568105894508794), np.float64(0.06447822991072619), np.float64(0.06312460364416111), np.float64(0.06159950314248773), np.float64(0.05988054823314051), np.float64(0.057944597732862764), np.float64(0.055769548269967474), np.float64(0.05333736211817858), np.float64(0.05063864948857599), np.float64(0.047678826081389944), np.float64(0.04448512766971306), np.float64(0.041112558239422045), np.float64(0.037645622035562924), np.float64(0.03419257862446732), np.float64(0.030871204344270892), np.float64(0.02778936343455208), np.float64(0.02502728808100029), np.float64(0.02262807056233269), np.float64(0.02059846261536142), np.float64(0.01891721395119061), np.float64(0.017546135706922202), np.float64(0.016440023766072658), np.float64(0.015553678139403091), np.float64(0.014845932701587653), np.float64(0.014281401278263262), np.float64(0.013830780784792544), np.float64(0.013470386795338395), np.float64(0.013181368172896666), np.float64(0.012948857136085628), np.float64(0.01276118213985409), np.float64(0.012609194035675142), np.float64(0.012485714875016507), np.float64(0.012385099426839422), np.float64(0.012302892306412199), np.float64(0.012235562582371783), np.float64(0.012180299441671599), np.float64(0.012134855149028996), np.float64(0.012097424263763513), np.float64(0.012066550499401259), np.float64(0.012041054615604656), np.float64(0.012019978321709805), np.float64(0.012002540400451551), np.float64(0.011988102194951323), np.float64(0.011976140305945201), np.float64(0.011966224872793182), np.float64(0.011958002205142988), np.float64(0.011951180825340198), np.float64(0.011945520201555171), np.float64(0.011940821615982688), np.float64(0.011936920736868358), np.float64(0.011933681557354149), np.float64(0.011930991435922236), np.float64(0.011928757028476773), np.float64(0.011926900944953536), np.float64(0.011925358996541369), np.float64(0.01192407792575544), np.float64(0.011923013532378506), np.float64(0.011922129124442592), np.float64(0.011921394236828147), np.float64(0.011920783570405068), np.float64(0.011920276113122526), np.float64(0.011919854411583386), np.float64(0.01191950396696122), np.float64(0.011919212733868248), np.float64(0.011918970704585577), np.float64(0.011918769563867835), np.float64(0.011918602402404672), np.float64(0.01191846347889807), np.float64(0.011918348022480367), np.float64(0.011918252068536415), np.float64(0.011918172322434613), np.float64(0.011918106046222279), np.float64(0.011918050964528464), np.float64(0.011918005186398854), np.float64(0.011917967140337143), np.float64(0.011917935520315202), np.float64(0.011917909240933333), np.float64(0.011917887400119728), np.float64(0.011917869248194428), np.float64(0.01191785416208986), np.float64(0.011917841623987019), np.float64(0.011917831203527029), np.float64(0.011917822543042285), np.float64(0.011917815345292088), np.float64(0.011917809363202728), np.float64(0.011917804391460734), np.float64(0.01191780025941825), np.float64(0.011917796825261841), np.float64(0.011917793971120576), np.float64(0.011917791599023501), np.float64(0.011917789627564663), np.float64(0.011917787989068325), np.float64(0.011917786627316514), np.float64(0.011917785495552448), np.float64(0.011917784554941841), np.float64(0.01191778377318999), np.float64(0.011917783123471566), np.float64(0.011917782583483189), np.float64(0.01191778213470451)]</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -4916,25 +5446,30 @@
         <v>200</v>
       </c>
       <c r="F107" t="n">
-        <v>0.01535596997249067</v>
+        <v>0.0109436406954129</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.14641732511288236), np.float64(0.18778349490121402), np.float64(0.7739599700532314)], [np.float64(-0.06805946182841832), np.float64(0.7548288159145178), np.float64(0.7961380348440531)], [np.float64(0.7136252231759681), np.float64(0.286770311250274), np.float64(0.09214713406167342)], [np.float64(0.30226680835268827), np.float64(0.4374956845922206), np.float64(0.9317561662260434)]], [[np.float64(0.22062743735055068), np.float64(-0.401494046356024), np.float64(0.19694988662442228), np.float64(0.559357119483784)], [np.float64(-0.2230264116030294), np.float64(0.01163195441253418), np.float64(0.2543603351445878), np.float64(0.014280299321153003)], [np.float64(-0.39642947174397597), np.float64(-0.7910043476708168), np.float64(0.8104742453193854), np.float64(-0.16089791584634597)]]]</t>
+          <t>[[[np.float64(0.13295082324537355), np.float64(0.4299168323707454), np.float64(0.46724465202957155)], [np.float64(-0.014347342982171838), np.float64(0.7659696740339074), np.float64(-0.11174685720859753)], [np.float64(0.3134095008204816), np.float64(0.18425029541728313), np.float64(0.8268160543289137)], [np.float64(0.4561258023589932), np.float64(-0.041949591423889446), np.float64(0.6696107600290154)]], [[np.float64(0.6400348210962834), np.float64(0.5366021961808769), np.float64(0.8733323457906966), np.float64(-0.37901339653556687)], [np.float64(0.3373132175737964), np.float64(-0.4329906033564788), np.float64(0.4522925580503263), np.float64(0.08160276407522912)], [np.float64(0.20346800048287617), np.float64(-0.36131748721959267), np.float64(0.9611100866054064), np.float64(0.24663824170846377)]]]</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>[[0.3362231345895812, 0.527989734620954, np.float64(0.42275715088113996)], [0.9234954413200646, 0.0839945047828411, 0.8547055093176787, np.float64(0.7576046001920149)]]</t>
+          <t>[[0.34379184845721455, 0.5174596723507456, np.float64(-0.010579295247010732)], [0.004963383258064891, 0.021973877438881573, 0.010511517408681947, np.float64(-0.06408966244662515)]]</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>[np.float64(0.9007479448806218), np.float64(0.712223635793264), np.float64(0.2379853102893611), np.float64(0.20650333048732245)]</t>
+          <t>[np.float64(0.601205634229037), np.float64(0.5899327104809092), np.float64(0.04211107712342215), np.float64(0.9522687671638302)]</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>0.6889972960657278</v>
+        <v>0.7141517376240638</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>[np.float64(0.09189919419978212), np.float64(0.09157489257244211), np.float64(0.09119049751999024), np.float64(0.09073172517556484), np.float64(0.09018009846801997), np.float64(0.0895115231171678), np.float64(0.08869434799106596), np.float64(0.08768673528781251), np.float64(0.08643313139586142), np.float64(0.0848596195714231), np.float64(0.08286800452708291), np.float64(0.08032876617202937), np.float64(0.07707390015278391), np.float64(0.07289311822543901), np.float64(0.06754314772921953), np.float64(0.060793393655918494), np.float64(0.0525505629255271), np.float64(0.04309783178740812), np.float64(0.03335238284457862), np.float64(0.024758508033308053), np.float64(0.01850705292894758), np.float64(0.014747968928733672), np.float64(0.012786833467060733), np.float64(0.011834049299809692), np.float64(0.01137821533746324), np.float64(0.011157992065341009), np.float64(0.011050132632568587), np.float64(0.010996768914471622), np.float64(0.010970205955733068), np.float64(0.010956939494870846), np.float64(0.010950302177682848), np.float64(0.01094697849965593), np.float64(0.01094531339165573), np.float64(0.01094447900912999), np.float64(0.010944060853522562), np.float64(0.010943851280351502), np.float64(0.010943746242443417), np.float64(0.010943693596778194), np.float64(0.010943667210236388), np.float64(0.010943653984989025), np.float64(0.0109436473563246), np.float64(0.010943644033947228), np.float64(0.010943642368720273), np.float64(0.010943641534093933), np.float64(0.010943641115763797), np.float64(0.01094364090608869), np.float64(0.01094364080100119), np.float64(0.010943640748326579), np.float64(0.010943640721929628), np.float64(0.010943640708699064), np.float64(0.010943640702070916), np.float64(0.01094364069875021), np.float64(0.010943640697079675), np.float64(0.010943640696239456), np.float64(0.010943640695826125), np.float64(0.010943640695616064), np.float64(0.010943640695512664), np.float64(0.010943640695459996), np.float64(0.01094364069543628), np.float64(0.010943640695425508), np.float64(0.010943640695420533), np.float64(0.010943640695415617), np.float64(0.010943640695412905), np.float64(0.010943640695412905), np.float64(0.010943640695412905), np.float64(0.010943640695412904), np.float64(0.010943640695412905), np.float64(0.010943640695412904)]</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -4958,25 +5493,30 @@
         <v>100</v>
       </c>
       <c r="F108" t="n">
-        <v>0.01078786117358428</v>
+        <v>0.01551421571478585</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[[[np.float64(2.5829143666233914), np.float64(3.2555709680848075), np.float64(2.0264722272109013)], [np.float64(2.6740410229518563), np.float64(3.1592650831689983), np.float64(1.804432348697974)], [np.float64(3.0181568918185038), np.float64(3.654157049429429), np.float64(1.7940864088576414)], [np.float64(2.0397016466153106), np.float64(1.8239216989360496), np.float64(1.3440670215041202)]], [[np.float64(1.0909915941752584), np.float64(1.5074217161139853), np.float64(0.13630963480633673), np.float64(-0.09570491070628347)], [np.float64(0.7084795086248528), np.float64(0.9933810588014718), np.float64(-0.9347799424153238), np.float64(-1.0724775758274436)], [np.float64(0.3106072379977739), np.float64(0.22094862512465138), np.float64(-0.6315842051625777), np.float64(-1.8766136884300058)]]]</t>
+          <t>[[[np.float64(-0.1779494413836893), np.float64(-0.21215558223026051), np.float64(0.1654515764722392)], [np.float64(-0.29468421298376357), np.float64(0.2409578351063799), np.float64(0.4167966095409834)], [np.float64(-0.6211971630187298), np.float64(-0.23087023002305393), np.float64(0.46018362627490395)], [np.float64(0.6119281795975945), np.float64(0.5663056277769224), np.float64(0.36633319213564364)]], [[np.float64(-0.04789714604196534), np.float64(0.1577088679478158), np.float64(0.0033183018798175856), np.float64(0.803157977885456)], [np.float64(-0.09980601470158647), np.float64(0.02266518563283735), np.float64(0.4381708895225739), np.float64(0.5609993495236236)], [np.float64(-0.6230687558555342), np.float64(-0.08346039667153536), np.float64(0.6999656961887178), np.float64(0.062784574360448)]]]</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>[[0.3555180029961521, 0.6204353600915029, np.float64(3.0430598303160656)], [0.39148172573066997, 0.25406956818129756, 0.6421911387273337, np.float64(2.0339099347427516)]]</t>
+          <t>[[0.8940952725535786, 0.06763107313275107, np.float64(0.08879850553820776)], [0.2840578027843178, 0.6082886533979248, 0.06792650817705881, np.float64(0.48614619748844967)]]</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>[np.float64(0.7342358875064559), np.float64(0.8799689765667231), np.float64(0.9134862355449545), np.float64(0.5162331725156973)]</t>
+          <t>[np.float64(0.9748345165526368), np.float64(0.8316562112224639), np.float64(0.14710924435517025), np.float64(0.49847566486550815)]</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>0.365806737329681</v>
+        <v>0.2562897016018912</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>[np.float64(0.09028607159319595), np.float64(0.08211255085479124), np.float64(0.034144045659625456), np.float64(0.05394562294287329), np.float64(0.07815974169615561), np.float64(0.029857867418838956), np.float64(0.02911356636192603), np.float64(0.0585402581426843), np.float64(0.01791376599540951), np.float64(0.015514215714785852), np.float64(0.01792573433335902), np.float64(0.01553175340543776), np.float64(0.01788998225031481), np.float64(0.015555082625255576), np.float64(0.01781452238566738), np.float64(0.015584053716159053), np.float64(0.017710844810028388), np.float64(0.01561837829651739), np.float64(0.01759090136531173), np.float64(0.01565741300091339), np.float64(0.01746496278660529), np.float64(0.015700147996391595), np.float64(0.01734067069299906), np.float64(0.015745340021715196), np.float64(0.01722301435398838), np.float64(0.015791690204290183), np.float64(0.017114791804672434), np.float64(0.015837994756811916), np.float64(0.017017207812380336), np.float64(0.015883239580871424), np.float64(0.01693041835812953), np.float64(0.01592664000250325), np.float64(0.016853952082443505), np.float64(0.01596764013922923), np.float64(0.016787005315257165), np.float64(0.01600588830981529), np.float64(0.01672863374337056), np.float64(0.016041201665495285), np.float64(0.01667786885346008), np.float64(0.016073528797203848), np.float64(0.016633783531216216), np.float64(0.016102915260120906), np.float64(0.016595525137170268), np.float64(0.016129474258239112), np.float64(0.016562328764492637), np.float64(0.01615336306378805), np.float64(0.01653351903289176), np.float64(0.016174764841457193), np.float64(0.01650850569422343), np.float64(0.01619387513951517), np.float64(0.016486776263028125), np.float64(0.01621089219369488), np.float64(0.016467887557408002), np.float64(0.016226010226683466), np.float64(0.016451457204104115), np.float64(0.01623941503145482), np.float64(0.016437155656116864), np.float64(0.01625128125248287), np.float64(0.016424698971787503), np.float64(0.01626177089991748), np.float64(0.01641384243335146), np.float64(0.016271032738126003), np.float64(0.016404374989993073), np.float64(0.016279202277403624), np.float64(0.01639611446423273), np.float64(0.016286402167782016), np.float64(0.016388903440718503), np.float64(0.016292742847831318), np.float64(0.0163826057523242), np.float64(0.01629832334283534), np.float64(0.016377103482084748), np.float64(0.016303232137510802), np.float64(0.016372294406442497), np.float64(0.01630754807165216), np.float64(0.016368089814356328), np.float64(0.016311341223752), np.float64(0.016364412645399323), np.float64(0.016314673759898077), np.float64(0.016361195898221836), np.float64(0.016317600734062743), np.float64(0.016358381268079134), np.float64(0.016320170832147457), np.float64(0.016355917978637054), np.float64(0.016322427056250415), np.float64(0.01635376177860729), np.float64(0.016324407348885468), np.float64(0.016351874078573286), np.float64(0.01632614515862319), np.float64(0.01635022120711369), np.float64(0.016327669949927622), np.float64(0.01634877376885462), np.float64(0.01632900766075582), np.float64(0.01634750608951258), np.float64(0.0163301811117027), np.float64(0.01634639573560709), np.float64(0.016331210370935864), np.float64(0.016345423098137017), np.float64(0.016332113078712768), np.float64(0.016344571031378204), np.float64(0.01633290473545234)]</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -5000,25 +5540,30 @@
         <v>200</v>
       </c>
       <c r="F109" t="n">
-        <v>0.01165702918429387</v>
+        <v>0.01266386658020377</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.40217556438374036), np.float64(0.6756196117089032), np.float64(0.05823325280730731)], [np.float64(0.03117180058817587), np.float64(0.568164611470849), np.float64(0.5223781411812629)], [np.float64(0.8707257025386097), np.float64(0.5629850626664836), np.float64(0.5217929728887049)], [np.float64(0.7645854385075579), np.float64(0.8157006849491938), np.float64(0.6837138260800839)]], [[np.float64(0.5051461726297065), np.float64(-0.15714424100976035), np.float64(-0.04004809427675127), np.float64(0.35832762235128357)], [np.float64(0.6508027635923659), np.float64(-0.05017244210089637), np.float64(0.3340232603314336), np.float64(0.10849347929858065)], [np.float64(0.8874851230371577), np.float64(-0.3585696747998034), np.float64(0.06395356642499268), np.float64(-0.1292560925617425)]]]</t>
+          <t>[[[np.float64(0.5632240342273923), np.float64(0.41157370053839337), np.float64(0.04523734702702526)], [np.float64(0.18901288289775375), np.float64(0.3251222377069754), np.float64(0.32929032443687445)], [np.float64(0.4871874802275113), np.float64(-0.12698253407489316), np.float64(0.8821109438551633)], [np.float64(0.1965543986232277), np.float64(0.1051913478720598), np.float64(0.32747966477093443)]], [[np.float64(0.2032786899988805), np.float64(-0.3240604484853264), np.float64(0.008035164959501318), np.float64(0.16278095270013432)], [np.float64(0.023779212065827313), np.float64(0.02453354500015746), np.float64(0.3007264237576548), np.float64(0.7778727523445701)], [np.float64(-0.1453679231924153), np.float64(-0.7079287646489688), np.float64(0.7949245778338887), np.float64(-0.11971859102146079)]]]</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>[[0.14440304897327483, 0.7364659255264182, np.float64(0.30429844357415314)], [0.27290520111672134, 0.04456140360254046, 0.879941616535345, np.float64(0.3301858209307361)]]</t>
+          <t>[[0.00746872249264785, 0.3994071974238963, np.float64(1.0276910498083978)], [0.5762459648274886, 0.1352325710079222, 0.7837549716560924, np.float64(0.19910574029762232)]]</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>[np.float64(0.1786838386901753), np.float64(0.5833379356410696), np.float64(0.8886513104587979), np.float64(0.4313142438910802)]</t>
+          <t>[np.float64(0.2145566594229684), np.float64(0.5129107415257794), np.float64(0.11377040230176115), np.float64(0.202043292842883)]</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>0.05119348937180428</v>
+        <v>0.9499491243554201</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>[np.float64(0.07174785674518064), np.float64(0.06726023184527123), np.float64(0.05849929765181508), np.float64(0.04239757956726304), np.float64(0.02481759930680369), np.float64(0.017320422206957935), np.float64(0.014725650636732843), np.float64(0.013656892553188898), np.float64(0.013164747116016059), np.float64(0.01292304189271176), np.float64(0.012799863801014355), np.float64(0.012735772450692379), np.float64(0.012702041270236573), np.float64(0.012684177976990778), np.float64(0.012674686249940642), np.float64(0.012669633722593466), np.float64(0.012666941634598007), np.float64(0.012665506499797283), np.float64(0.012664741229045078), np.float64(0.012664333096679968), np.float64(0.012664115415533177), np.float64(0.012663999308458329), np.float64(0.012663937377730921), np.float64(0.012663904343910654), np.float64(0.012663886723569473), np.float64(0.012663877324793136), np.float64(0.01266387231143441), np.float64(0.01266386963727767), np.float64(0.012663868210870026), np.float64(0.012663867450010904), np.float64(0.01266386704416131), np.float64(0.01266386682768116), np.float64(0.012663866712209494), np.float64(0.012663866650615497), np.float64(0.012663866617759102), np.float64(0.012663866600236722), np.float64(0.012663866590888662), np.float64(0.01266386658590206), np.float64(0.012663866583239357), np.float64(0.012663866581822798), np.float64(0.012663866581065312), np.float64(0.012663866580660467), np.float64(0.012663866580444945), np.float64(0.01266386658033159), np.float64(0.012663866580270482), np.float64(0.012663866580244126), np.float64(0.012663866580226012), np.float64(0.012663866580211049), np.float64(0.012663866580209888), np.float64(0.012663866580208783), np.float64(0.01266386658020828), np.float64(0.012663866580207751), np.float64(0.012663866580207251), np.float64(0.012663866580206918), np.float64(0.012663866580206568), np.float64(0.012663866580206214), np.float64(0.012663866580205864), np.float64(0.012663866580205546), np.float64(0.01266386658020534), np.float64(0.012663866580205144), np.float64(0.012663866580204932), np.float64(0.012663866580204707), np.float64(0.012663866580204552), np.float64(0.012663866580204379), np.float64(0.012663866580204238), np.float64(0.012663866580204112), np.float64(0.012663866580203994), np.float64(0.0126638665802039), np.float64(0.012663866580203771), np.float64(0.012663866580203771), np.float64(0.012663866580203771), np.float64(0.012663866580203771)]</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -5042,25 +5587,30 @@
         <v>100</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1306562182380016</v>
+        <v>0.07296277602801714</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[[[np.float64(-1.0238587596658866), np.float64(-0.8446895770932186), np.float64(-1.1384777326165902), np.float64(-0.9724823328302978)], [np.float64(-0.6464201279901844), np.float64(-1.0943540766072863), np.float64(-0.94836833946842), np.float64(-0.2228638896278182)], [np.float64(-0.493264309240505), np.float64(-1.16571295446675), np.float64(-0.9759311854909718), np.float64(-0.7403579036335104)], [np.float64(0.24863749381076494), np.float64(-0.6514050169472386), np.float64(0.005594580597569443), np.float64(0.4538666051455736)]], [[np.float64(-2.3819412645616835), np.float64(-1.5511275351024145)], [np.float64(-2.1348703698444242), np.float64(-0.5974312615725846)], [np.float64(-2.9071117993935953), np.float64(-1.0129389308490395)], [np.float64(-2.4759397115346635), np.float64(-1.274394706095416)]]]</t>
+          <t>[[[np.float64(-0.11285534669019502), np.float64(-0.3068823387395379), np.float64(-0.5027177455650627), np.float64(-0.04860081673951735)], [np.float64(-0.5815792339699866), np.float64(-0.09880866329387752), np.float64(-0.3947746977875087), np.float64(-0.2106987989016737)], [np.float64(-0.40647018025338816), np.float64(0.32942076459341024), np.float64(-0.26704773525611153), np.float64(0.19323927808336971)], [np.float64(0.40012740619535275), np.float64(0.20840368333120757), np.float64(0.023046117140648314), np.float64(0.06957289304034561)]], [[np.float64(-1.3868385678175066), np.float64(-0.33794991831212084)], [np.float64(-2.7441969979115974), np.float64(-1.5060737275861509)], [np.float64(-1.7385580582038196), np.float64(-0.8658205538241794)], [np.float64(-3.8445739526491467), np.float64(-1.1510741001242506)]]]</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>[[0.28409667754836077, 0.4818346794470364, 0.9869083201011075, np.float64(-0.9854795798446973)], [0.8052220792119936, np.float64(-0.7657621650459302)]]</t>
+          <t>[[0.05165655140274128, 0.9728265076408543, 0.5088292788645636, np.float64(-0.016557853049990863)], [0.9601910606842174, np.float64(-0.022502090144164193)]]</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>[np.float64(0.6852658100182529), np.float64(0.39400503245902097)]</t>
+          <t>[np.float64(0.8000420551155922), np.float64(0.3653436978739741)]</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>0.5043975429795108</v>
+        <v>0.9546926206551019</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>[np.float64(15.877849735631635), np.float64(0.20893364988460073), np.float64(0.07396990361498988), np.float64(0.07395942956300629), np.float64(0.07394895742445896), np.float64(0.07393848719898279), np.float64(0.07392801888621278), np.float64(0.0739175524857867), np.float64(0.07390708799733801), np.float64(0.0738966254205042), np.float64(0.073886164754919), np.float64(0.0738757060002199), np.float64(0.07386524915604314), np.float64(0.07385479422202329), np.float64(0.07384434119779783), np.float64(0.07383389008300198), np.float64(0.07382344087727187), np.float64(0.073812993580245), np.float64(0.07380254819155695), np.float64(0.07379210471084369), np.float64(0.07378166313774259), np.float64(0.07377122347189008), np.float64(0.07376078571292233), np.float64(0.07375034986047681), np.float64(0.0737399159141896), np.float64(0.07372948387369821), np.float64(0.07371905373863893), np.float64(0.07370862550864993), np.float64(0.07369819918336609), np.float64(0.07368777476242706), np.float64(0.07367735224546934), np.float64(0.0736669316321292), np.float64(0.0736565129220448), np.float64(0.07364609611485382), np.float64(0.07363568121019326), np.float64(0.07362526820770111), np.float64(0.07361485710701453), np.float64(0.07360444790777176), np.float64(0.0735940406096102), np.float64(0.07358363521216851), np.float64(0.07357323171508316), np.float64(0.07356283011799349), np.float64(0.07355243042053672), np.float64(0.0735420326223516), np.float64(0.07353163672307626), np.float64(0.0735212427223489), np.float64(0.07351085061980767), np.float64(0.07350046041509126), np.float64(0.07349007210783821), np.float64(0.07347968569768719), np.float64(0.07346930118427576), np.float64(0.07345891856724443), np.float64(0.0734485378462306), np.float64(0.07343815902087339), np.float64(0.07342778209081206), np.float64(0.07341740705568596), np.float64(0.07340703391513298), np.float64(0.07339666266879356), np.float64(0.0733862933163063), np.float64(0.07337592585731063), np.float64(0.07336556029144455), np.float64(0.07335519661834959), np.float64(0.07334483483766442), np.float64(0.0733344749490282), np.float64(0.07332411695208046), np.float64(0.07331376084646175), np.float64(0.07330340663181166), np.float64(0.07329305430776913), np.float64(0.07328270387397529), np.float64(0.07327235533006936), np.float64(0.07326200867569138), np.float64(0.073251663910482), np.float64(0.07324132103408046), np.float64(0.07323098004612762), np.float64(0.0732206409462644), np.float64(0.07321030373413039), np.float64(0.07319996840936631), np.float64(0.0731896349716131), np.float64(0.07317930342051028), np.float64(0.07316897375569921), np.float64(0.07315864597682101), np.float64(0.0731483200835159), np.float64(0.07313799607542483), np.float64(0.07312767395218904), np.float64(0.07311735371344945), np.float64(0.07310703535884738), np.float64(0.07309671888802372), np.float64(0.07308640430061997), np.float64(0.07307609159627662), np.float64(0.07306578077463595), np.float64(0.07305547183533935), np.float64(0.07304516477802804), np.float64(0.07303485960234381), np.float64(0.07302455630792812), np.float64(0.07301425489442251), np.float64(0.07300395536146954), np.float64(0.07299365770871027), np.float64(0.0729833619357874), np.float64(0.07297306804234197), np.float64(0.07296277602801714)]</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -5084,25 +5634,30 @@
         <v>200</v>
       </c>
       <c r="F111" t="n">
-        <v>0.3448216638259365</v>
+        <v>0.01478400930304235</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.17909188080331878), np.float64(0.35749817711328), np.float64(-0.020380816904081656), np.float64(-0.3682361851633807)], [np.float64(0.5705970693350289), np.float64(-0.03822450179641966), np.float64(0.2116335932347972), np.float64(-0.23854928904630113)], [np.float64(0.09395647468102845), np.float64(0.2007893515537647), np.float64(0.23365679313066337), np.float64(-1.0975055006962153)], [np.float64(0.11076189344638551), np.float64(-0.0471270811501319), np.float64(0.1639417076526468), np.float64(-0.12104929889807857)]], [[np.float64(-1.9787115175050836), np.float64(-2.1710344724715003)], [np.float64(-1.7133190161555205), np.float64(-2.22932789801441)], [np.float64(-3.3264329481978208), np.float64(-3.721334797893238)], [np.float64(-2.2047730369871172), np.float64(-3.6159429021158775)]]]</t>
+          <t>[[[np.float64(-0.33295316051392887), np.float64(0.09907030258769993), np.float64(-0.1914422809057178), np.float64(0.3649060802593021)], [np.float64(0.37014632193702957), np.float64(0.338606714675333), np.float64(0.21021344986783494), np.float64(0.053477948643560265)], [np.float64(-0.2929880219972184), np.float64(-0.20794378678544456), np.float64(-0.22831315134835423), np.float64(0.35218755770951776)], [np.float64(0.0742642225455975), np.float64(-0.1685466768223272), np.float64(0.30521580837572526), np.float64(0.5340653937224985)]], [[np.float64(-1.2053909930173465), np.float64(-0.21909716498342593)], [np.float64(-2.3601364203117634), np.float64(-1.0405063385874984)], [np.float64(-2.35037579088486), np.float64(-1.5993384113648121)], [np.float64(-2.759658335582097), np.float64(-1.7228587276976384)]]]</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>[[0.00034804467401183814, 0.07941320985995881, 0.937764932756627, np.float64(-0.7397941975271016)], [0.010817059427002507, np.float64(-1.1845650071493197)]]</t>
+          <t>[[0.0731435170720578, 0.24086775606873723, 0.88899452927668, np.float64(-0.03298073540685787)], [0.6577410753147672, np.float64(-0.6726633261089366)]]</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>[np.float64(0.8541599479935259), np.float64(0.9744763906001223)]</t>
+          <t>[np.float64(0.850574516853259), np.float64(0.5500255515758037)]</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>0.1270338811179621</v>
+        <v>0.769463405494591</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>[np.float64(9.766630980433334), np.float64(0.014837890796782736), np.float64(0.014837615096506617), np.float64(0.014837339432843986), np.float64(0.014837063805789568), np.float64(0.014836788215337612), np.float64(0.01483651266148291), np.float64(0.014836237144219885), np.float64(0.014835961663543206), np.float64(0.01483568621944728), np.float64(0.01483541081192662), np.float64(0.014835135440975818), np.float64(0.014834860106589423), np.float64(0.014834584808761866), np.float64(0.014834309547487882), np.float64(0.01483403432276185), np.float64(0.014833759134578375), np.float64(0.014833483982932034), np.float64(0.014833208867817351), np.float64(0.014832933789228729), np.float64(0.01483265874716084), np.float64(0.014832383741608264), np.float64(0.014832108772565475), np.float64(0.014831833840027009), np.float64(0.014831558943987492), np.float64(0.014831284084441372), np.float64(0.014831009261383313), np.float64(0.014830734474807827), np.float64(0.014830459724709496), np.float64(0.01483018501108266), np.float64(0.014829910333922182), np.float64(0.01482963569322234), np.float64(0.01482936108897795), np.float64(0.014829086521183307), np.float64(0.014828811989833133), np.float64(0.01482853749492205), np.float64(0.01482826303644443), np.float64(0.014827988614394959), np.float64(0.01482771422876814), np.float64(0.014827439879558629), np.float64(0.014827165566760819), np.float64(0.01482689129036937), np.float64(0.014826617050378934), np.float64(0.014826342846783882), np.float64(0.014826068679578974), np.float64(0.014825794548758648), np.float64(0.014825520454317573), np.float64(0.01482524639625024), np.float64(0.014824972374551156), np.float64(0.014824698389215074), np.float64(0.01482442444023651), np.float64(0.014824150527609752), np.float64(0.014823876651329823), np.float64(0.014823602811391026), np.float64(0.014823329007788107), np.float64(0.014823055240515408), np.float64(0.014822781509567637), np.float64(0.014822507814939405), np.float64(0.01482223415662518), np.float64(0.014821960534619677), np.float64(0.014821686948917424), np.float64(0.014821413399513076), np.float64(0.014821139886400917), np.float64(0.014820866409575877), np.float64(0.014820592969032445), np.float64(0.014820319564765101), np.float64(0.014820046196768525), np.float64(0.014819772865037207), np.float64(0.01481949956956586), np.float64(0.014819226310349059), np.float64(0.01481895308738131), np.float64(0.01481867990065727), np.float64(0.014818406750171523), np.float64(0.014818133635918595), np.float64(0.014817860557893274), np.float64(0.014817587516089827), np.float64(0.01481731451050314), np.float64(0.014817041541127588), np.float64(0.014816768607958013), np.float64(0.014816495710988833), np.float64(0.014816222850214633), np.float64(0.014815950025630097), np.float64(0.014815677237229898), np.float64(0.01481540448500845), np.float64(0.014815131768960533), np.float64(0.01481485908908065), np.float64(0.01481458644536331), np.float64(0.014814313837803418), np.float64(0.014814041266395168), np.float64(0.01481376873113358), np.float64(0.01481349623201289), np.float64(0.014813223769028024), np.float64(0.014812951342173393), np.float64(0.014812678951443647), np.float64(0.014812406596833525), np.float64(0.01481213427833742), np.float64(0.014811861995950082), np.float64(0.014811589749666131), np.float64(0.014811317539480048), np.float64(0.014811045365386697), np.float64(0.01481077322738048), np.float64(0.01481050112545614), np.float64(0.014810229059608094), np.float64(0.014809957029831195), np.float64(0.014809685036120023), np.float64(0.014809413078469115), np.float64(0.014809141156873084), np.float64(0.014808869271326689), np.float64(0.014808597421824417), np.float64(0.014808325608360928), np.float64(0.014808053830930862), np.float64(0.014807782089528682), np.float64(0.01480751038414942), np.float64(0.014807238714787438), np.float64(0.014806967081437125), np.float64(0.014806695484093578), np.float64(0.01480642392275119), np.float64(0.014806152397404628), np.float64(0.014805880908048559), np.float64(0.014805609454677458), np.float64(0.01480533803728614), np.float64(0.014805066655869212), np.float64(0.014804795310421203), np.float64(0.01480452400093683), np.float64(0.014804252727410734), np.float64(0.014803981489837605), np.float64(0.01480371028821193), np.float64(0.014803439122528558), np.float64(0.014803167992781913), np.float64(0.014802896898966817), np.float64(0.014802625841077664), np.float64(0.014802354819109482), np.float64(0.014802083833056617), np.float64(0.014801812882913733), np.float64(0.014801541968675613), np.float64(0.014801271090336745), np.float64(0.014801000247892002), np.float64(0.014800729441335857), np.float64(0.014800458670663019), np.float64(0.014800187935868023), np.float64(0.014799917236945778), np.float64(0.014799646573890619), np.float64(0.014799375946697437), np.float64(0.014799105355360895), np.float64(0.014798834799875406), np.float64(0.014798564280235871), np.float64(0.01479829379643681), np.float64(0.014798023348473004), np.float64(0.014797752936338998), np.float64(0.014797482560029437), np.float64(0.014797212219539235), np.float64(0.014796941914862766), np.float64(0.014796671645994616), np.float64(0.014796401412929793), np.float64(0.014796131215662716), np.float64(0.014795861054188118), np.float64(0.01479559092850061), np.float64(0.01479532083859515), np.float64(0.01479505078446595), np.float64(0.014794780766108004), np.float64(0.014794510783515907), np.float64(0.014794240836684198), np.float64(0.01479397092560774), np.float64(0.014793701050281062), np.float64(0.014793431210698947), np.float64(0.01479316140685596), np.float64(0.014792891638746839), np.float64(0.014792621906366321), np.float64(0.014792352209708889), np.float64(0.014792082548769424), np.float64(0.014791812923542608), np.float64(0.014791543334022985), np.float64(0.014791273780205177), np.float64(0.014791004262084125), np.float64(0.01479073477965432), np.float64(0.014790465332910481), np.float64(0.014790195921847283), np.float64(0.014789926546459432), np.float64(0.014789657206741582), np.float64(0.014789387902688491), np.float64(0.014789118634294765), np.float64(0.014788849401555278), np.float64(0.01478858020446447), np.float64(0.014788311043017132), np.float64(0.014788041917207952), np.float64(0.014787772827031597), np.float64(0.014787503772482807), np.float64(0.014787234753556288), np.float64(0.014786965770246695), np.float64(0.014786696822548719), np.float64(0.014786427910457124), np.float64(0.014786159033966451), np.float64(0.014785890193071582), np.float64(0.01478562138776705), np.float64(0.014785352618047767), np.float64(0.01478508388390826), np.float64(0.01478481518534331), np.float64(0.014784546522347473), np.float64(0.01478427789491561), np.float64(0.014784009303042354)]</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -5126,25 +5681,30 @@
         <v>100</v>
       </c>
       <c r="F112" t="n">
-        <v>0.07961223945965734</v>
+        <v>0.2303908306189144</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[[[np.float64(-2.0652739862235667), np.float64(-4.0909251613710484), np.float64(-5.1837118509021645), np.float64(-4.815979207686343)], [np.float64(-1.674771272027517), np.float64(-4.210225756681923), np.float64(-4.508247785969442), np.float64(-4.095317939901774)], [np.float64(-1.996990503247473), np.float64(-4.6975983876870835), np.float64(-5.332612873302272), np.float64(-4.916381158749129)], [np.float64(-1.1569609138924069), np.float64(-1.7413657350980194), np.float64(-1.9494305977588846), np.float64(-1.750463871836691)]], [[np.float64(-18.886773204722978), np.float64(-14.634171561645303)], [np.float64(-18.840013703102038), np.float64(-13.600572057939383)], [np.float64(-6.165222310960569), np.float64(-5.2466286580322965)], [np.float64(-19.008344937749232), np.float64(-14.961919491468139)]]]</t>
+          <t>[[[np.float64(-3.0954933610547606), np.float64(-10.17820859695415), np.float64(-0.4762323660708794), np.float64(-8.277695723472315)], [np.float64(-3.402035621554266), np.float64(-9.255639849195022), np.float64(-0.3189445815023089), np.float64(-6.963915079124189)], [np.float64(-3.3747993347625505), np.float64(-10.695221544626541), np.float64(-0.7694229930722017), np.float64(-8.173411305287427)], [np.float64(-0.9846552435155148), np.float64(-4.298041284807329), np.float64(0.2958528944981797), np.float64(-3.818975246104952)]], [[np.float64(-47.49378338737795), np.float64(-3.459740307521976)], [np.float64(-34.549847617297424), np.float64(-2.7445848594949913)], [np.float64(-47.213817453090456), np.float64(-3.726677821298095)], [np.float64(-18.05199697342828), np.float64(-1.297504968539231)]]]</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>[[0.6401656953482707, 0.6766551775465007, 0.17336462104785466, np.float64(-7.304957084976933)], [0.059333315044443835, np.float64(-7.713078000259773)]]</t>
+          <t>[[0.8124820257553259, 0.765055125454208, 0.8189341944974382, np.float64(-12.732998642929653)], [0.4197191246020301, np.float64(-1.2912066520243073)]]</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>[np.float64(0.6244900197389366), np.float64(0.47787373076752093)]</t>
+          <t>[np.float64(0.7764693724905236), np.float64(0.05425322832955625)]</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>0.930593181587959</v>
+        <v>0.8915073403403618</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>[np.float64(13.837329959321142), np.float64(0.2866977366235496), np.float64(0.286055893413352), np.float64(0.28541554324780216), np.float64(0.28477668263552736), np.float64(0.28413930809334054), np.float64(0.28350341614622104), np.float64(0.28286900332730036), np.float64(0.282236066177833), np.float64(0.281604601247185), np.float64(0.2809746050928126), np.float64(0.2803460742802426), np.float64(0.27971900538305633), np.float64(0.2790933949828703), np.float64(0.27846923966930576), np.float64(0.27784653603999376), np.float64(0.2772252807005321), np.float64(0.2766054702644819), np.float64(0.2759871013533432), np.float64(0.27537017059653507), np.float64(0.27475467463138015), np.float64(0.27414061010308666), np.float64(0.2735279736647269), np.float64(0.2729167619772188), np.float64(0.2723069717093097), np.float64(0.2716985995375586), np.float64(0.27109164214631376), np.float64(0.27048609622769737), np.float64(0.26988195848159097), np.float64(0.26927922561560896), np.float64(0.26867789434508443), np.float64(0.2680779613930498), np.float64(0.26747942349022896), np.float64(0.26688227737499737), np.float64(0.2662865197933854), np.float64(0.26569214749905395), np.float64(0.26509915725326816), np.float64(0.26450754582488967), np.float64(0.26391730999035523), np.float64(0.26332844653365994), np.float64(0.2627409522463353), np.float64(0.26215482392743483), np.float64(0.2615700583835192), np.float64(0.2609866524286347), np.float64(0.26040460288429484), np.float64(0.25982390657946625), np.float64(0.25924456035054905), np.float64(0.25866656104136204), np.float64(0.2580899055031156), np.float64(0.2575145905944133), np.float64(0.2569406131812136), np.float64(0.2563679701368249), np.float64(0.25579665834188964), np.float64(0.2552266746843584), np.float64(0.25465801605947663), np.float64(0.25409067936977087), np.float64(0.2535246615250262), np.float64(0.2529599594422754), np.float64(0.2523965700457791), np.float64(0.2518344902669999), np.float64(0.25127371704460505), np.float64(0.25071424732442865), np.float64(0.25015607805947104), np.float64(0.2495992062098763), np.float64(0.24904362874290403), np.float64(0.2484893426329344), np.float64(0.24793634486143612), np.float64(0.24738463241695213), np.float64(0.24683420229508837), np.float64(0.24628505149848892), np.float64(0.24573717703682912), np.float64(0.24519057592679194), np.float64(0.2446452451920527), np.float64(0.24410118186326352), np.float64(0.2435583829780384), np.float64(0.2430168455809346), np.float64(0.242476566723439), np.float64(0.24193754346394802), np.float64(0.24139977286775252), np.float64(0.240863252007025), np.float64(0.24032797796080196), np.float64(0.2397939478149619), np.float64(0.23926115866221795), np.float64(0.23872960760209969), np.float64(0.23819929174093118), np.float64(0.23767020819182247), np.float64(0.23714235407464643), np.float64(0.23661572651603194), np.float64(0.2360903226493412), np.float64(0.23556613961465755), np.float64(0.23504317455876284), np.float64(0.23452142463513262), np.float64(0.23400088700390942), np.float64(0.2334815588318959), np.float64(0.2329634372925366), np.float64(0.2324465195658969), np.float64(0.23193080283865525), np.float64(0.23141628430408479), np.float64(0.2309029611620319), np.float64(0.23039083061891436)]</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -5168,25 +5728,30 @@
         <v>200</v>
       </c>
       <c r="F113" t="n">
-        <v>0.003053511156566965</v>
+        <v>0.04844706387437597</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.7110543774489287), np.float64(-0.8882222617625507), np.float64(1.056257120563502), np.float64(0.46312008563817003)], [np.float64(-0.38274993104882127), np.float64(-0.48662526327664857), np.float64(1.0442486571802894), np.float64(0.6980020267776318)], [np.float64(-0.8716744067135536), np.float64(-1.6072860064143406), np.float64(1.1927942268718736), np.float64(0.3838423953831754)], [np.float64(-0.25951432760341026), np.float64(0.05623982145864665), np.float64(0.36027790462355846), np.float64(0.015325926217233037)]], [[np.float64(-2.257607899711584), np.float64(-0.1993585991976356)], [np.float64(-5.539488829157132), np.float64(-0.17107117712182773)], [np.float64(-4.777286830587385), np.float64(1.9277447183534748)], [np.float64(-6.349068247203299), np.float64(0.628148128039923)]]]</t>
+          <t>[[[np.float64(-5.644559242849629), np.float64(-3.6133338555119012), np.float64(-4.604418968623323), np.float64(-2.8933343414976083)], [np.float64(-5.6690604556401105), np.float64(-3.1711738811691332), np.float64(-5.158978835508791), np.float64(-2.6982388787316247)], [np.float64(-6.041913108336077), np.float64(-3.7862159326748275), np.float64(-5.384166986962033), np.float64(-3.6478142391292527)], [np.float64(-2.6729099111280155), np.float64(-1.7367617181051551), np.float64(-1.8062864548082855), np.float64(-1.3549374172711164)]], [[np.float64(-23.839348554773547), np.float64(-2.7022606067520347)], [np.float64(-10.285212652470006), np.float64(-1.2703796313230635)], [np.float64(-15.32050983772555), np.float64(-1.424113211322303)], [np.float64(-19.927080438487586), np.float64(-2.6285436280330243)]]]</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>[[0.2985314904897107, 0.8638444450240456, 0.18258088559645302, np.float64(0.191247389520535)], [0.33087508073820326, np.float64(1.3684678464152324)]]</t>
+          <t>[[0.8414233124343679, 0.18275143488726409, 0.09178228063396465, np.float64(-5.015796794991661)], [0.5531356498568163, np.float64(-1.1981692712691356)]]</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>[np.float64(0.414053743448042), np.float64(0.06637066847349467)]</t>
+          <t>[np.float64(0.763981440723579), np.float64(0.09553478779491248)]</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>0.2870917365226361</v>
+        <v>0.08793504139045152</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>[np.float64(7.132163633829429), np.float64(0.08088199728921013), np.float64(0.080667977290059), np.float64(0.08045456135312566), np.float64(0.08024174784235776), np.float64(0.08002953512604925), np.float64(0.07981792157683235), np.float64(0.07960690557166077), np.float64(0.07939648549180636), np.float64(0.07918665972284063), np.float64(0.07897742665462586), np.float64(0.07876878468130538), np.float64(0.07856073220129006), np.float64(0.0783532676172486), np.float64(0.07814638933609416), np.float64(0.07794009576897681), np.float64(0.0777343853312683), np.float64(0.07752925644255286), np.float64(0.07732470752661913), np.float64(0.07712073701144198), np.float64(0.07691734332917799), np.float64(0.07671452491615156), np.float64(0.07651228021284445), np.float64(0.07631060766388385), np.float64(0.07610950571803346), np.float64(0.07590897282818156), np.float64(0.07570900745132926), np.float64(0.07550960804858108), np.float64(0.07531077308513305), np.float64(0.07511250103026314), np.float64(0.07491479035731938), np.float64(0.07471763954371045), np.float64(0.07452104707089206), np.float64(0.07432501142436071), np.float64(0.07412953109363879), np.float64(0.07393460457226715), np.float64(0.07374023035779166), np.float64(0.07354640695175708), np.float64(0.07335313285968947), np.float64(0.0731604065910944), np.float64(0.07296822665943885), np.float64(0.07277659158214482), np.float64(0.07258549988057779), np.float64(0.07239495008003753), np.float64(0.07220494070974509), np.float64(0.07201547030283524), np.float64(0.07182653739634427), np.float64(0.07163814053120146), np.float64(0.07145027825221696), np.float64(0.07126294910807174), np.float64(0.07107615165131083), np.float64(0.07088988443832663), np.float64(0.07070414602935579), np.float64(0.07051893498846383), np.float64(0.07033424988353759), np.float64(0.07015008928627517), np.float64(0.06996645177217384), np.float64(0.06978333592052346), np.float64(0.06960074031439341), np.float64(0.06941866354062362), np.float64(0.0692371041898146), np.float64(0.0690560608563189), np.float64(0.06887553213822938), np.float64(0.06869551663736843), np.float64(0.0685160129592829), np.float64(0.06833701971322848), np.float64(0.06815853551216365), np.float64(0.06798055897273832), np.float64(0.06780308871528479), np.float64(0.067626123363808), np.float64(0.0674496615459759), np.float64(0.06727370189310863), np.float64(0.0670982430401708), np.float64(0.0669232836257603), np.float64(0.06674882229210043), np.float64(0.06657485768502762), np.float64(0.06640138845398505), np.float64(0.0662284132520111), np.float64(0.06605593073573023), np.float64(0.0658839395653431), np.float64(0.06571243840462028), np.float64(0.06554142592088683), np.float64(0.06537090078501967), np.float64(0.06520086167143208), np.float64(0.06503130725807019), np.float64(0.0648622362263987), np.float64(0.0646936472613942), np.float64(0.06452553905153477), np.float64(0.06435791028879367), np.float64(0.06419075966862439), np.float64(0.06402408588995759), np.float64(0.06385788765518803), np.float64(0.06369216367016668), np.float64(0.06352691264419263), np.float64(0.06336213329000072), np.float64(0.06319782432375778), np.float64(0.06303398446504722), np.float64(0.06287061243686552), np.float64(0.06270770696561032), np.float64(0.0625452667810726), np.float64(0.0623832906164267), np.float64(0.06222177720822191), np.float64(0.062060725296374034), np.float64(0.06190013362415634), np.float64(0.06174000093818964), np.float64(0.06158032598843512), np.float64(0.06142110752818447), np.float64(0.06126234431405143), np.float64(0.061104035105962004), np.float64(0.06094617866714882), np.float64(0.06078877376413779), np.float64(0.06063181916674422), np.float64(0.060475313648059977), np.float64(0.06031925598444792), np.float64(0.06016364495553046), np.float64(0.060008479344184955), np.float64(0.059853757936530576), np.float64(0.05969947952192342), np.float64(0.05954564289294547), np.float64(0.05939224684539689), np.float64(0.05923929017828878), np.float64(0.05908677169383301), np.float64(0.0589346901974344), np.float64(0.058783044497682214), np.float64(0.05863183340634247), np.float64(0.058481055738348615), np.float64(0.05833071031179291), np.float64(0.058180795947920014), np.float64(0.0580313114711157), np.float64(0.05788225570890161), np.float64(0.05773362749192559), np.float64(0.05758542565395191), np.float64(0.05743764903185651), np.float64(0.057290296465615675), np.float64(0.057143366798299476), np.float64(0.056996858876062796), np.float64(0.05685077154813878), np.float64(0.056705103666827156), np.float64(0.05655985408749132), np.float64(0.056415021668545486), np.float64(0.05627060527144956), np.float64(0.056126603760699424), np.float64(0.055983016003820024), np.float64(0.05583984087135685), np.float64(0.055697077236869244), np.float64(0.05555472397691878), np.float64(0.055412779971066195), np.float64(0.055271244101860496), np.float64(0.05513011525483145), np.float64(0.054989392318481996), np.float64(0.05484907418428129), np.float64(0.05470915974665441), np.float64(0.05456964790297726), np.float64(0.05443053755356801), np.float64(0.05429182760167786), np.float64(0.05415351695348557), np.float64(0.054015604518087464), np.float64(0.05387808920749221), np.float64(0.05374096993661048), np.float64(0.053604245623249766), np.float64(0.05346791518810429), np.float64(0.0533319775547501), np.float64(0.053196431649634855), np.float64(0.0530612764020717), np.float64(0.0529265107442327), np.float64(0.05279213361113802), np.float64(0.052658143940651964), np.float64(0.05252454067347304), np.float64(0.05239132275312772), np.float64(0.05225848912596281), np.float64(0.05212603874113762), np.float64(0.05199397055061628), np.float64(0.051862283509161416), np.float64(0.05173097657432644), np.float64(0.05160004870644726), np.float64(0.0514694988686349), np.float64(0.05133932602677113), np.float64(0.051209529149495954), np.float64(0.05108010720820589), np.float64(0.050951059177041944), np.float64(0.05082238403288604), np.float64(0.05069408075535105), np.float64(0.05056614832677578), np.float64(0.050438585732216115), np.float64(0.0503113919594378), np.float64(0.05018456599891204), np.float64(0.05005810684380366), np.float64(0.04993201348996904), np.float64(0.049806284935944564), np.float64(0.049680920182943074), np.float64(0.04955591823484441), np.float64(0.04943127809818945), np.float64(0.04930699878217366), np.float64(0.04918307929863727), np.float64(0.04905951866206332), np.float64(0.048936315889564715), np.float64(0.04881347000088227), np.float64(0.048690980018375254), np.float64(0.04856884496701409), np.float64(0.048447063874375966)]</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -5210,25 +5775,30 @@
         <v>100</v>
       </c>
       <c r="F114" t="n">
-        <v>0.02675842327482537</v>
+        <v>0.02295602663321006</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.6949038512748376), np.float64(0.6439182590944056), np.float64(0.503181643147985), np.float64(0.05264287663628404)], [np.float64(0.515706845033374), np.float64(0.05231582960777667), np.float64(0.5940387039308616), np.float64(0.5578123422956442)], [np.float64(1.0040706688724497), np.float64(0.7956774930047569), np.float64(0.371114235099051), np.float64(0.7976323667426368)], [np.float64(0.2595407432003234), np.float64(0.6360011594529626), np.float64(0.9198475134641805), np.float64(0.42871768416976364)]], [[np.float64(0.5246418356132828), np.float64(0.7934631112342752)], [np.float64(0.3242198074566246), np.float64(0.9496416127486971)], [np.float64(0.2414095962942912), np.float64(0.3356619148664499)], [np.float64(0.9102157325899786), np.float64(0.5800199736593835)]]]</t>
+          <t>[[[np.float64(0.21852909924561392), np.float64(0.5635757526035943), np.float64(0.4715443711575745), np.float64(0.37246352230108487)], [np.float64(0.5892381878585644), np.float64(0.9020291905497567), np.float64(0.9417852347133835), np.float64(0.827354278791773)], [np.float64(0.40602539658979386), np.float64(0.6463855897596973), np.float64(0.5001487549199696), np.float64(-0.01304293368077853)], [np.float64(0.8237144354102627), np.float64(0.7013536673116858), np.float64(0.08973576636673053), np.float64(0.06312939417566306)]], [[np.float64(0.12884323332610237), np.float64(0.08536582962193459)], [np.float64(0.04288294196002918), np.float64(0.673354271125623)], [np.float64(0.6811800458174719), np.float64(0.7933969474384966)], [np.float64(0.3086481987936327), np.float64(0.7380902503868679)]]]</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>[[0.6519637750864448, 0.6089325691008424, 0.7568372188128676, np.float64(0.15305371650248267)], [0.9650521712765815, np.float64(0.456515761973709)]]</t>
+          <t>[[0.11383719826755678, 0.42044417375242615, 0.6161303707648923, np.float64(0.7009567029271808)], [0.5824952602442949, np.float64(0.1516695646976204)]]</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>[np.float64(0.10352292948832091), np.float64(0.13286477143050432)]</t>
+          <t>[np.float64(0.6231547426821937), np.float64(0.884429559891351)]</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>0.09307843865109076</v>
+        <v>0.1954180409329771</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>[np.float64(0.02536582609389442), np.float64(0.025344255109750538), np.float64(0.025322621853095095), np.float64(0.02530092641701307), np.float64(0.025279168897818987), np.float64(0.025257349395065895), np.float64(0.02523546801157055), np.float64(0.02521352485343226), np.float64(0.025191520030052584), np.float64(0.02516945365414653), np.float64(0.025147325841768448), np.float64(0.025125136712326485), np.float64(0.025102886388600074), np.float64(0.025080574996760488), np.float64(0.025058202666383908), np.float64(0.025035769530471007), np.float64(0.025013275725462098), np.float64(0.024990721391256868), np.float64(0.024968106671227445), np.float64(0.024945431712233915), np.float64(0.02492269666464278), np.float64(0.024899901682342875), np.float64(0.02487704692275458), np.float64(0.024854132546853706), np.float64(0.02483115871917533), np.float64(0.024808125607839314), np.float64(0.024785033384557783), np.float64(0.02476188222464789), np.float64(0.024738672307049916), np.float64(0.024715403814336994), np.float64(0.024692076932727302), np.float64(0.024668691852100084), np.float64(0.024645248766002836), np.float64(0.024621747871667703), np.float64(0.024598189370017405), np.float64(0.02457457346568173), np.float64(0.024550900367007914), np.float64(0.024527170286063736), np.float64(0.024503383438657843), np.float64(0.024479540044340418), np.float64(0.024455640326415822), np.float64(0.02443168451195337), np.float64(0.0244076728317925), np.float64(0.024383605520552406), np.float64(0.024359482816637915), np.float64(0.02433530496224864), np.float64(0.024311072203385634), np.float64(0.02428678478985341), np.float64(0.02426244297527154), np.float64(0.02423804701708177), np.float64(0.024213597176540112), np.float64(0.024189093718734924), np.float64(0.024164536912585806), np.float64(0.024139927030849655), np.float64(0.02411526435011738), np.float64(0.024090549150823436), np.float64(0.024065781717243363), np.float64(0.024040962337500124), np.float64(0.02401609130356095), np.float64(0.023991168911241836), np.float64(0.023966195460204173), np.float64(0.023941171253957158), np.float64(0.023916096599856544), np.float64(0.023890971809098948), np.float64(0.023865797196732163), np.float64(0.023840573081636722), np.float64(0.023815299786536306), np.float64(0.023789977637984346), np.float64(0.023764606966370602), np.float64(0.02373918810590908), np.float64(0.023713721394632684), np.float64(0.0236882071743953), np.float64(0.023662645790857584), np.float64(0.023637037593483484), np.float64(0.023611382935534456), np.float64(0.02358568217405908), np.float64(0.02355993566988938), np.float64(0.023534143787625465), np.float64(0.023508306895629615), np.float64(0.023482425366019574), np.float64(0.023456499574651058), np.float64(0.02343052990111222), np.float64(0.02340451672871202), np.float64(0.023378460444464007), np.float64(0.023352361439076277), np.float64(0.023326220106933433), np.float64(0.02330003684609202), np.float64(0.023273812058259322), np.float64(0.023247546148776627), np.float64(0.02322123952660437), np.float64(0.023194892604314298), np.float64(0.023168505798059486), np.float64(0.023142079527564866), np.float64(0.0231156142161068), np.float64(0.023089110290494246), np.float64(0.023062568181049407), np.float64(0.023035988321588003), np.float64(0.02300937114939606), np.float64(0.022982717105213747), np.float64(0.02295602663321006)]</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -5252,25 +5822,30 @@
         <v>200</v>
       </c>
       <c r="F115" t="n">
-        <v>0.01176948823323545</v>
+        <v>0.01519852418791109</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.17720797008638697), np.float64(0.391588245633926), np.float64(0.060057856871797724), np.float64(0.05999538959620942)], [np.float64(0.9199443960692079), np.float64(0.37810882041334676), np.float64(0.19715450171849436), np.float64(0.2761610466043089)], [np.float64(0.19908814055221585), np.float64(0.039197316685988394), np.float64(0.3625666022785966), np.float64(0.7866271417135696)], [np.float64(0.7089058119932768), np.float64(0.325764616649162), np.float64(0.35572386144143825), np.float64(0.20352141570217214)]], [[np.float64(0.3004717716513773), np.float64(0.6780340822335945)], [np.float64(1.0013949951494965), np.float64(0.18521270018371466)], [np.float64(0.49133366248456256), np.float64(0.6213337691051842)], [np.float64(0.20821159010619184), np.float64(0.3001300795131696)]]]</t>
+          <t>[[[np.float64(0.01621487050511217), np.float64(0.20904808159530053), np.float64(0.8360535005330604), np.float64(-0.0018339570458532266)], [np.float64(0.6145696385766158), np.float64(0.8390631442887854), np.float64(0.5969560944461767), np.float64(0.9023941088895565)], [np.float64(0.29299459583057874), np.float64(0.9124430771534014), np.float64(0.4444709538518762), np.float64(0.2668650332110355)], [np.float64(0.6527373681236396), np.float64(0.28317207906425657), np.float64(0.37668282218646826), np.float64(0.32261425001631244)]], [[np.float64(0.15819547202628786), np.float64(0.428165260154453)], [np.float64(0.0441596834008889), np.float64(0.7572880497452202)], [np.float64(0.664697718512677), np.float64(0.79571829105241)], [np.float64(0.16667314624637702), np.float64(0.6061618166068279)]]]</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>[[0.1752383631328408, 0.1523593334968324, 0.5006390425263112, np.float64(0.8533469707893525)], [0.7296032446274099, np.float64(0.28959808359868167)]]</t>
+          <t>[[0.40344317688167464, 0.4221718659041688, 0.40585079554842773, np.float64(0.8696432578889257)], [0.8997190017354479, np.float64(0.847859480470288)]]</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>[np.float64(0.42016829701721153), np.float64(0.5876154913187307)]</t>
+          <t>[np.float64(0.13463512253219803), np.float64(0.16527331391312902)]</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>0.1927342452714842</v>
+        <v>0.9523735425391791</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>[np.float64(0.015237463146152432), np.float64(0.015237269516683047), np.float64(0.015237075866468908), np.float64(0.015236882195511219), np.float64(0.015236688503811801), np.float64(0.015236494791371628), np.float64(0.015236301058192769), np.float64(0.015236107304275935), np.float64(0.015235913529622955), np.float64(0.015235719734235351), np.float64(0.01523552591811443), np.float64(0.015235332081261647), np.float64(0.01523513822367861), np.float64(0.015234944345366772), np.float64(0.015234750446327498), np.float64(0.015234556526561915), np.float64(0.015234362586072192), np.float64(0.015234168624859231), np.float64(0.0152339746429244), np.float64(0.015233780640269652), np.float64(0.015233586616896085), np.float64(0.015233392572805397), np.float64(0.01523319850799884), np.float64(0.015233004422478226), np.float64(0.015232810316244755), np.float64(0.015232616189300122), np.float64(0.015232422041645599), np.float64(0.01523222787328271), np.float64(0.015232033684212928), np.float64(0.0152318394744381), np.float64(0.015231645243959226), np.float64(0.015231450992778072), np.float64(0.015231256720896187), np.float64(0.015231062428314736), np.float64(0.015230868115035698), np.float64(0.015230673781060376), np.float64(0.015230479426390144), np.float64(0.015230285051026455), np.float64(0.015230090654971135), np.float64(0.015229896238225609), np.float64(0.01522970180079138), np.float64(0.015229507342669726), np.float64(0.015229312863862417), np.float64(0.015229118364370926), np.float64(0.015228923844196789), np.float64(0.015228729303341515), np.float64(0.015228534741806675), np.float64(0.015228340159593626), np.float64(0.01522814555670429), np.float64(0.015227950933139922), np.float64(0.015227756288901917), np.float64(0.01522756162399219), np.float64(0.015227366938412193), np.float64(0.015227172232163192), np.float64(0.015226977505246922), np.float64(0.015226782757664968), np.float64(0.015226587989418694), np.float64(0.01522639320050983), np.float64(0.015226198390940108), np.float64(0.015226003560710978), np.float64(0.015225808709823926), np.float64(0.015225613838280305), np.float64(0.015225418946082118), np.float64(0.015225224033230528), np.float64(0.015225029099727417), np.float64(0.01522483414557426), np.float64(0.01522463917077249), np.float64(0.01522444417532391), np.float64(0.015224249159229824), np.float64(0.01522405412249208), np.float64(0.015223859065112219), np.float64(0.015223663987091764), np.float64(0.015223468888432325), np.float64(0.015223273769135407), np.float64(0.01522307862920281), np.float64(0.015222883468636081), np.float64(0.015222688287436649), np.float64(0.015222493085606553), np.float64(0.01522229786314691), np.float64(0.015222102620059451), np.float64(0.015221907356345911), np.float64(0.015221712072007702), np.float64(0.015221516767046764), np.float64(0.015221321441464333), np.float64(0.015221126095262225), np.float64(0.015220930728441983), np.float64(0.01522073534100543), np.float64(0.015220539932953964), np.float64(0.015220344504289341), np.float64(0.015220149055013175), np.float64(0.015219953585127144), np.float64(0.015219758094632656), np.float64(0.015219562583531855), np.float64(0.015219367051825871), np.float64(0.015219171499516551), np.float64(0.015218975926605434), np.float64(0.015218780333094319), np.float64(0.015218584718984665), np.float64(0.015218389084278364), np.float64(0.015218193428977036), np.float64(0.015217997753081903), np.float64(0.015217802056595228), np.float64(0.015217606339518245), np.float64(0.015217410601852948), np.float64(0.015217214843600557), np.float64(0.015217019064763191), np.float64(0.015216823265342325), np.float64(0.015216627445339775), np.float64(0.015216431604757129), np.float64(0.015216235743595779), np.float64(0.015216039861857792), np.float64(0.01521584395954467), np.float64(0.015215648036658196), np.float64(0.015215452093199959), np.float64(0.01521525612917168), np.float64(0.015215060144575191), np.float64(0.015214864139412018), np.float64(0.015214668113683678), np.float64(0.015214472067392487), np.float64(0.015214276000539498), np.float64(0.015214079913126904), np.float64(0.015213883805156187), np.float64(0.015213687676628868), np.float64(0.015213491527546918), np.float64(0.015213295357912054), np.float64(0.015213099167725721), np.float64(0.01521290295698983), np.float64(0.015212706725706002), np.float64(0.015212510473876008), np.float64(0.015212314201501738), np.float64(0.01521211790858488), np.float64(0.015211921595127078), np.float64(0.015211725261129953), np.float64(0.0152115289065955), np.float64(0.015211332531525389), np.float64(0.01521113613592121), np.float64(0.015210939719784685), np.float64(0.015210743283117792), np.float64(0.015210546825921871), np.float64(0.015210350348198967), np.float64(0.015210153849950935), np.float64(0.015209957331179344), np.float64(0.015209760791886023), np.float64(0.015209564232072785), np.float64(0.015209367651741044), np.float64(0.015209171050893115), np.float64(0.015208974429530266), np.float64(0.015208777787654598), np.float64(0.015208581125267562), np.float64(0.01520838444237108), np.float64(0.015208187738967012), np.float64(0.015207991015057163), np.float64(0.015207794270643324), np.float64(0.015207597505727201), np.float64(0.01520740072031058), np.float64(0.015207203914395062), np.float64(0.015207007087982791), np.float64(0.015206810241075303), np.float64(0.015206613373674523), np.float64(0.015206416485781976), np.float64(0.015206219577399772), np.float64(0.01520602264852972), np.float64(0.015205825699173432), np.float64(0.015205628729332683), np.float64(0.015205431739009368), np.float64(0.015205234728205341), np.float64(0.01520503769692256), np.float64(0.01520484064516251), np.float64(0.015204643572927123), np.float64(0.015204446480218507), np.float64(0.01520424936703798), np.float64(0.015204052233387746), np.float64(0.015203855079269515), np.float64(0.015203657904685024), np.float64(0.01520346070963635), np.float64(0.015203263494125064), np.float64(0.015203066258152995), np.float64(0.015202869001722135), np.float64(0.015202671724834475), np.float64(0.0152024744274916), np.float64(0.015202277109695508), np.float64(0.01520207977144757), np.float64(0.015201882412750355), np.float64(0.015201685033605316), np.float64(0.015201487634014459), np.float64(0.015201290213979401), np.float64(0.015201092773502067), np.float64(0.015200895312584554), np.float64(0.015200697831228476), np.float64(0.01520050032943609), np.float64(0.015200302807208865), np.float64(0.015200105264548888), np.float64(0.015199907701457719), np.float64(0.015199710117937661), np.float64(0.015199512513990281), np.float64(0.015199314889617545), np.float64(0.015199117244821292), np.float64(0.015198919579603553), np.float64(0.015198721893966143), np.float64(0.01519852418791109)]</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -5294,25 +5869,30 @@
         <v>100</v>
       </c>
       <c r="F116" t="n">
-        <v>0.01041899964993347</v>
+        <v>0.01080676069272954</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.9202639449190717), np.float64(0.8804300609158439), np.float64(0.49114127454002837), np.float64(0.8618064032195416)], [np.float64(0.365633507510575), np.float64(0.7817276583032199), np.float64(1.0116616874668525), np.float64(0.6652197301702025)], [np.float64(0.9890341593285141), np.float64(0.8319385582191248), np.float64(0.9455192294924806), np.float64(0.8630025032210924)], [np.float64(0.6818939354850885), np.float64(0.956826379054872), np.float64(0.5112928392990695), np.float64(0.37288214413889137)]], [[np.float64(0.4764511286431691), np.float64(0.16963216274206297)], [np.float64(0.5348273394408065), np.float64(0.4986826906641535)], [np.float64(0.46276219631454146), np.float64(0.5553618746924496)], [np.float64(0.919534850417241), np.float64(0.8966380322160682)]]]</t>
+          <t>[[[np.float64(0.41343107330605156), np.float64(0.3434496387576047), np.float64(0.5875210236864109), np.float64(0.5479752547773707)], [np.float64(0.6765127339448422), np.float64(0.10713153789866232), np.float64(0.17885694874760638), np.float64(0.6346415206076551)], [np.float64(0.8713244782381072), np.float64(0.4631628613182477), np.float64(0.9396697276918617), np.float64(1.00699793251527)], [np.float64(0.256405050622722), np.float64(0.14795351081971914), np.float64(1.0065205378670379), np.float64(0.47623443656216535)]], [[np.float64(0.06519357550420553), np.float64(1.2212407408462405)], [np.float64(0.40604820505450834), np.float64(0.3033675634458152)], [np.float64(0.28804921291158336), np.float64(0.5443324587675344)], [np.float64(0.5774150483025811), np.float64(0.4012287016317307)]]]</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>[[0.6278610335481907, 0.20833778874572306, 0.650261410909984, np.float64(0.8063681417484009)], [0.1452714520287075, np.float64(0.5166214662522505)]]</t>
+          <t>[[0.3828439797313202, 0.6606289286566143, 0.17911350143257, np.float64(0.5459601456772069)], [0.5569343214676578, np.float64(0.628665505249933)]]</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>[np.float64(0.7523834768890348), np.float64(0.26122797694936756)]</t>
+          <t>[np.float64(0.09111401157631174), np.float64(0.5653095891781931)]</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>0.101807893170334</v>
+        <v>0.409659470464848</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>[np.float64(0.010806760692729537), np.float64(0.010815142647331981), np.float64(0.010823474647052349), np.float64(0.010831754986765975), np.float64(0.010839982133336165), np.float64(0.010848154713389433), np.float64(0.010856271501938682), np.float64(0.010864331411796966), np.float64(0.010872333483719736), np.float64(0.010880276877231811), np.float64(0.010888160862081348), np.float64(0.010895984810285132), np.float64(0.010903748188716153), np.float64(0.010911450552202006), np.float64(0.010919091537093126), np.float64(0.010926670855269877), np.float64(0.01093418828855933), np.float64(0.010941643683532393), np.float64(0.010949036946651879), np.float64(0.010956368039753181), np.float64(0.010963636975830526), np.float64(0.010970843815106214), np.float64(0.01097798866137101), np.float64(0.010985071658568034), np.float64(0.010992092987609628), np.float64(0.010999052863408595), np.float64(0.011005951532111074), np.float64(0.011012789268515552), np.float64(0.011019566373668343), np.float64(0.011026283172620487), np.float64(0.01103294001233516), np.float64(0.011039537259739463), np.float64(0.011046075299907468), np.float64(0.011052554534367523), np.float64(0.011058975379522521), np.float64(0.011065338265180141), np.float64(0.011071643633183359), np.float64(0.011077891936133488), np.float64(0.011084083636202845), np.float64(0.011090219204026874), np.float64(0.01109629911767526), np.float64(0.011102323861694904), np.float64(0.011108293926214943), np.float64(0.011114209806121987), np.float64(0.011120072000285761), np.float64(0.011125881010846375), np.float64(0.01113163734254668), np.float64(0.011137341502117436), np.float64(0.011142993997703438), np.float64(0.011148595338333194), np.float64(0.011154146033426285), np.float64(0.011159646592338545), np.float64(0.011165097523941698), np.float64(0.011170499336232273), np.float64(0.011175852535973693), np.float64(0.011181157628363825), np.float64(0.011186415116729987), np.float64(0.011191625502245967), np.float64(0.011196789283676635), np.float64(0.011201906957138085), np.float64(0.011206979015881916), np.float64(0.01121200595009676), np.float64(0.011216988246727037), np.float64(0.01122192638930751), np.float64(0.011226820857813962), np.float64(0.011231672128527747), np.float64(0.011236480673913288), np.float64(0.011241246962508916), np.float64(0.011245971458827926), np.float64(0.01125065462327087), np.float64(0.01125529691204878), np.float64(0.011259898777114903), np.float64(0.011264460666104655), np.float64(0.011268983022285269), np.float64(0.011273466284512507), np.float64(0.011277910887192459), np.float64(0.011282317260253348), np.float64(0.011286685829121436), np.float64(0.0112910170147013), np.float64(0.011295311233366483), np.float64(0.011299568896947724), np.float64(0.011303790412732356), np.float64(0.011307976183463558), np.float64(0.011312126607346026), np.float64(0.011316242078054544), np.float64(0.011320322984745428), np.float64(0.01132436971207168), np.float64(0.011328382640200065), np.float64(0.011332362144832527), np.float64(0.011336308597228678), np.float64(0.011340222364229607), np.float64(0.011344103808287273), np.float64(0.01134795328749159), np.float64(0.011351771155601506), np.float64(0.011355557762078135), np.float64(0.011359313452116647), np.float64(0.011363038566682868), np.float64(0.011366733442547954), np.float64(0.011370398412326895), np.float64(0.011374033804514867)]</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -5336,25 +5916,30 @@
         <v>200</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0128924635251271</v>
+        <v>0.01280012935153466</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.2096559957889643), np.float64(0.8394294614739483), np.float64(0.6767416435259648), np.float64(0.7789351801807264)], [np.float64(0.2510488176355119), np.float64(0.21649904510285783), np.float64(0.5897152877385802), np.float64(0.9727376842735268)], [np.float64(0.6151445051771958), np.float64(0.6484419160125351), np.float64(0.8206121523941302), np.float64(0.9533515592373318)], [np.float64(0.3888463520456219), np.float64(0.19501025321437584), np.float64(0.23555363247039737), np.float64(0.9871914638354896)]], [[np.float64(-0.8035691245267015), np.float64(-0.586269907834264)], [np.float64(-1.1228006171331657), np.float64(-0.09731058540136821)], [np.float64(-0.40592268889691785), np.float64(0.0803943757276405)], [np.float64(-1.3397134395558934), np.float64(-0.4776446636409949)]]]</t>
+          <t>[[[np.float64(0.20717978380294313), np.float64(0.4878635873832646), np.float64(0.8905291643941591), np.float64(0.3561406001792743)], [np.float64(0.6872374546671297), np.float64(0.2996643031440646), np.float64(0.9152290803602049), np.float64(0.07929260412867915)], [np.float64(0.4736781373412415), np.float64(0.7325107185905321), np.float64(0.4607867657711605), np.float64(0.7264744964308891)], [np.float64(0.03458732170994536), np.float64(0.8178373371890149), np.float64(0.6485701208617125), np.float64(0.044930769271904696)]], [[np.float64(-0.5979931714275449), np.float64(-0.5115453774715437)], [np.float64(0.057916094954125294), np.float64(-0.517986068272722)], [np.float64(-0.19459909126011618), np.float64(-0.6170784449998191)], [np.float64(0.10883282655429219), np.float64(0.07338387853319558)]]]</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>[[0.8758845915898883, 0.20902334740149908, 0.28164609948655217, np.float64(1.1417831749714966)], [0.20972741019427465, np.float64(-0.8831940790847683)]]</t>
+          <t>[[0.9401940123490496, 0.29789015270054864, 0.2703565503846944, np.float64(-0.05379225346014562)], [0.12514342873741935, np.float64(-1.0116404543579423)]]</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>[np.float64(0.9197195563703678), np.float64(0.6046693085870088)]</t>
+          <t>[np.float64(0.7087628691865615), np.float64(0.8896340913820799)]</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>0.9740687404013236</v>
+        <v>0.7393643003267022</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>[np.float64(0.045386340144180436), np.float64(0.04463447533734065), np.float64(0.043833609960909264), np.float64(0.0429847364089622), np.float64(0.04208977830317441), np.float64(0.04115166730261446), np.float64(0.040174381189404876), np.float64(0.03916293206817919), np.float64(0.03812329636017007), np.float64(0.03706228308208369), np.float64(0.035987343294653), np.float64(0.03490633071830114), np.float64(0.03382723010431099), np.float64(0.032757874683561596), np.float64(0.03170567582781964), np.float64(0.03067738649088459), np.float64(0.029678915352982872), np.float64(0.028715201856844376), np.float64(0.027790154866895195), np.float64(0.026906650866051648), np.float64(0.026066582445307882), np.float64(0.02527094483334311), np.float64(0.024519947330785705), np.float64(0.023813137351390186), np.float64(0.02314952674058445), np.float64(0.022527712544537615), np.float64(0.02194598695353196), np.float64(0.021402433416556794), np.float64(0.02089500775006531), np.float64(0.020421604398029328), np.float64(0.019980108878845267), np.float64(0.01956843795575215), np.float64(0.019184569283273424), np.float64(0.01882656229986432), np.float64(0.018492572029248325), np.float64(0.018180857276244175), np.float64(0.017889784496767484), np.float64(0.017617828412739445), np.float64(0.017363570246449415), np.float64(0.01712569427402623), np.float64(0.01690298324724463), np.float64(0.016694313107033825), np.float64(0.01649864730913756), np.float64(0.01631503099961584), np.float64(0.016142585212511266), np.float64(0.01598050121102007), np.float64(0.015828035054386912), np.float64(0.01568450244301863), np.float64(0.01554927387215567), np.float64(0.015421770108171525), np.float64(0.015301457989815142), np.float64(0.015187846548484507), np.float64(0.01508048343602435), np.float64(0.01497895164494475), np.float64(0.014882866503784753), np.float64(0.014791872929327732), np.float64(0.01470564291703344), np.float64(0.014623873251314074), np.float64(0.014546283417905667), np.float64(0.014472613701385166), np.float64(0.014402623451938757), np.float64(0.014336089506479134), np.float64(0.014272804750346904), np.float64(0.014212576806898566), np.float64(0.01415522684329593), np.float64(0.01410058848186267), np.float64(0.0140485068072509), np.float64(0.013998837460580378), np.float64(0.013951445812497137), np.float64(0.013906206207860662), np.float64(0.013863001275439091), np.float64(0.013821721296618284), np.float64(0.013782263627712971), np.float64(0.013744532170955608), np.float64(0.013708436889749575), np.float64(0.01367389336415043), np.float64(0.013640822382957954), np.float64(0.013609149569119962), np.float64(0.013578805035499793), np.float64(0.013549723068290146), np.float64(0.013521841835650469), np.float64(0.01349510311937139), np.float64(0.01346945206753663), np.float64(0.013444836966413303), np.float64(0.013421209029877281), np.float64(0.013398522204920616), np.float64(0.013376732991867056), np.float64(0.013355800278060761), np.float64(0.013335685183923463), np.float64(0.013316350920337389), np.float64(0.013297762656464727), np.float64(0.013279887397104095), np.float64(0.013262693868866221), np.float64(0.013246152414429785), np.float64(0.013230234894258912), np.float64(0.013214914595178656), np.float64(0.01320016614528142), np.float64(0.013185965434677944), np.float64(0.013172289541632756), np.float64(0.013159116663687591), np.float64(0.013146426053383129), np.float64(0.013134197958241658), np.float64(0.013122413564692174), np.float64(0.013111054945650517), np.float64(0.013100105011469607), np.float64(0.013089547464046131), np.float64(0.013079366753824317), np.float64(0.013069548039512904), np.float64(0.013060077150306743), np.float64(0.013050940550451823), np.float64(0.013042125305968245), np.float64(0.0130336190534129), np.float64(0.013025409970507242), np.float64(0.013017486748533025), np.float64(0.013009838566353862), np.float64(0.013002455065966378), np.float64(0.012995326329473058), np.float64(0.012988442857385006), np.float64(0.012981795548172137), np.float64(0.012975375678966785), np.float64(0.012969174887359857), np.float64(0.01296318515420559), np.float64(0.012957398787390004), np.float64(0.012951808406480903), np.float64(0.012946406928220232), np.float64(0.012941187552795963), np.float64(0.012936143750852242), np.float64(0.01293126925118676), np.float64(0.012926558029105199), np.float64(0.012922004295369686), np.float64(0.012917602485738476), np.float64(0.012913347251025779), np.float64(0.012909233447685959), np.float64(0.012905256128861632), np.float64(0.012901410535887873), np.float64(0.01289769209021989), np.float64(0.012894096385757824), np.float64(0.01289061918154575), np.float64(0.012887256394840793), np.float64(0.012884004094493485), np.float64(0.01288085849466455), np.float64(0.012877815948837724), np.float64(0.012874872944103295), np.float64(0.012872026095727625), np.float64(0.012869272141962592), np.float64(0.012866607939099769), np.float64(0.012864030456750393), np.float64(0.012861536773340974), np.float64(0.012859124071813832), np.float64(0.012856789635514692), np.float64(0.01285453084427237), np.float64(0.01285234517064666), np.float64(0.012850230176341654), np.float64(0.012848183508773607), np.float64(0.012846202897796978), np.float64(0.012844286152558022), np.float64(0.012842431158493959), np.float64(0.012840635874452043), np.float64(0.0128388983299401), np.float64(0.012837216622486158), np.float64(0.012835588915096112), np.float64(0.01283401343384557), np.float64(0.012832488465545125), np.float64(0.012831012355514966), np.float64(0.012829583505442978), np.float64(0.012828200371333661), np.float64(0.01282686146153562), np.float64(0.012825565334858112), np.float64(0.01282431059874825), np.float64(0.012823095907549438), np.float64(0.01282191996082595), np.float64(0.012820781501754544), np.float64(0.01281967931557757), np.float64(0.012818612228113719), np.float64(0.01281757910432698), np.float64(0.012816578846960355), np.float64(0.012815610395202104), np.float64(0.012814672723422292), np.float64(0.012813764839944765), np.float64(0.012812885785868403), np.float64(0.012812034633937557), np.float64(0.012811210487444222), np.float64(0.012810412479183924), np.float64(0.012809639770435357), np.float64(0.012808891549992235), np.float64(0.012808167033221868), np.float64(0.01280746546116009), np.float64(0.012806786099637061), np.float64(0.012806128238440418), np.float64(0.012805491190502963), np.float64(0.012804874291123156), np.float64(0.012804276897208065), np.float64(0.012803698386554428), np.float64(0.01280313815714146), np.float64(0.012802595626456735), np.float64(0.012802070230847564), np.float64(0.012801561424889881), np.float64(0.012801068680782287), np.float64(0.012800591487761833), np.float64(0.012800129351534663)]</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -5378,25 +5963,30 @@
         <v>100</v>
       </c>
       <c r="F118" t="n">
-        <v>0.01160949451911865</v>
+        <v>0.01896722675187571</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.05809570308082436), np.float64(0.5854435809484596), np.float64(0.9065221861498801), np.float64(0.8439674533400565)], [np.float64(0.3756727534607536), np.float64(0.24080286050035396), np.float64(0.6025379061843094), np.float64(0.4517922709241856)], [np.float64(0.10747132041222941), np.float64(0.6246174791785999), np.float64(0.7541174123926088), np.float64(0.7161608922042272)], [np.float64(0.6496454508765843), np.float64(0.1636774964442587), np.float64(0.23632696546158674), np.float64(0.9174903930541753)]], [[np.float64(-0.13823319456573627), np.float64(0.23620411319232143)], [np.float64(0.10850852205068796), np.float64(0.6817217703014269)], [np.float64(0.24779159360362152), np.float64(0.6692666114355078)], [np.float64(0.3521847389680681), np.float64(0.43788069884995884)]]]</t>
+          <t>[[[np.float64(0.9527413330556873), np.float64(0.286312057051563), np.float64(0.11390720763263397), np.float64(0.5668868242592227)], [np.float64(0.9094804510146006), np.float64(0.7189585132765525), np.float64(0.1249054762003803), np.float64(0.39357872397837373)], [np.float64(0.5693384952314745), np.float64(0.020039963866050992), np.float64(0.040638410622486076), np.float64(0.4947382897032061)], [np.float64(0.4010561010336551), np.float64(0.7309999342784084), np.float64(0.021106405177531293), np.float64(0.903895143941155)]], [[np.float64(-0.00598781472634268), np.float64(-0.1325677468480807)], [np.float64(0.264104517791129), np.float64(0.26082842757202906)], [np.float64(0.7200999972687631), np.float64(0.3872472200980651)], [np.float64(0.46914733990617846), np.float64(0.3420211539162812)]]]</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>[[0.9516455771451132, 0.8510654714143113, 0.7769153555177426, np.float64(0.2887052764694096)], [0.17976189569821388, np.float64(-0.008185347853283238)]]</t>
+          <t>[[0.11787888859424434, 0.5895316489307534, 0.5508137554407694, np.float64(0.06746598630293027)], [0.24308283986322932, np.float64(0.13883332906608498)]]</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>[np.float64(0.8460483120725222), np.float64(0.10957082925366783)]</t>
+          <t>[np.float64(0.2117040663615001), np.float64(0.47697779744232804)]</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>0.3321950042813316</v>
+        <v>0.6038972622315656</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>[np.float64(0.03433445921531012), np.float64(0.034321531811572194), np.float64(0.03430817538856777), np.float64(0.03429437103332538), np.float64(0.0342800989026337), np.float64(0.03426533817591015), np.float64(0.03425006700577614), np.float64(0.03423426246623691), np.float64(0.03421790049836084), np.float64(0.03420095585335992), np.float64(0.034183402032950956), np.float64(0.03416521122689501), np.float64(0.03414635424759117), np.float64(0.03412680046161247), np.float64(0.03410651771805917), np.float64(0.03408547227360485), np.float64(0.03406362871410769), np.float64(0.03404094987266406), np.float64(0.034017396743963764), np.float64(0.03399292839482183), np.float64(0.03396750187075152), np.float64(0.03394107209844201), np.float64(0.03391359178400864), np.float64(0.033885011306882346), np.float64(0.03385527860920691), np.float64(0.03382433908061285), np.float64(0.03379213543824519), np.float64(0.03375860760192737), np.float64(0.03372369256434509), np.float64(0.03368732425614652), np.float64(0.03364943340586987), np.float64(0.033609947394618714), np.float64(0.03356879010542398), np.float64(0.03352588176724344), np.float64(0.03348113879359884), np.float64(0.033434473615843056), np.float64(0.03338579451111996), np.float64(0.03333500542509055), np.float64(0.033282005789569746), np.float64(0.033226690335269995), np.float64(0.03316894889988189), np.float64(0.033108666231867326), np.float64(0.03304572179034754), np.float64(0.032979989541641976), np.float64(0.032911337753098055), np.float64(0.0328396287849953), np.float64(0.03276471888148316), np.float64(0.03268645796170013), np.float64(0.032604689412419965), np.float64(0.03251924988384918), np.float64(0.03242996909046319), np.float64(0.03233666961913601), np.float64(0.03223916674717698), np.float64(0.03213726827332791), np.float64(0.032030774365310766), np.float64(0.03191947742806942), np.float64(0.03180316199752478), np.float64(0.03168160466540817), np.float64(0.03155457404164209), np.float64(0.03142183076165078), np.float64(0.03128312754718843), np.float64(0.031138209330406813), np.float64(0.030986813452448296), np.float64(0.030828669949291114), np.float64(0.030663501939462472), np.float64(0.030491026130103016), np.float64(0.030310953460100983), np.float64(0.03012298990134582), np.float64(0.029926837441711266), np.float64(0.029722195276105146), np.float64(0.029508761234848614), np.float64(0.029286233481552414), np.float64(0.02905431251568936), np.float64(0.028812703517952506), np.float64(0.02856111907909381), np.float64(0.028299282355121212), np.float64(0.028026930693194268), np.float64(0.02774381977285182), np.float64(0.027449728306085407), np.float64(0.027144463336505994), np.float64(0.02682786617182303), np.float64(0.02649981897440988), np.float64(0.026160252020772188), np.float64(0.025809151621528796), np.float64(0.025446568667694475), np.float64(0.025072627735999695), np.float64(0.024687536644476392), np.float64(0.024291596299130202), np.float64(0.02388521061309983), np.float64(0.023468896211836347), np.float64(0.023043291563452167), np.float64(0.022609165095250093), np.float64(0.022167421781090074), np.float64(0.02171910761594142), np.float64(0.0212654113432181), np.float64(0.0208076627781065), np.float64(0.0203473270880662), np.float64(0.01988599446262148), np.float64(0.019425364738679552), np.float64(0.01896722675187571)]</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -5420,25 +6010,30 @@
         <v>200</v>
       </c>
       <c r="F119" t="n">
-        <v>0.01302083059307533</v>
+        <v>0.01082727326217812</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.2689236158979493), np.float64(0.781449860952488), np.float64(0.6614488491861035), np.float64(0.28795841823424734)], [np.float64(0.7973235283307591), np.float64(0.5959302228340014), np.float64(0.5978478667891227), np.float64(0.7935845821073471)], [np.float64(0.5307631115012965), np.float64(0.34018191609196624), np.float64(0.5934515597725554), np.float64(0.9218843479715666)], [np.float64(1.0594034886776045), np.float64(1.0452305369012356), np.float64(0.6457355780709914), np.float64(0.42577066931241286)]], [[np.float64(1.094287537208127), np.float64(0.590168441536141)], [np.float64(0.8937216545237381), np.float64(1.2074188821697498)], [np.float64(0.7023600839122661), np.float64(1.0947003124377621)], [np.float64(0.7875338165744553), np.float64(1.0762287485696322)]]]</t>
+          <t>[[[np.float64(1.0957869891842758), np.float64(0.1189699190167507), np.float64(0.70666219471274), np.float64(0.2427444333722461)], [np.float64(0.8101549287090926), np.float64(0.4229845286868063), np.float64(0.7601266864521862), np.float64(0.25248843499815155)], [np.float64(0.18925975661534464), np.float64(0.16714210994193474), np.float64(0.60161396319863), np.float64(0.5939318933207858)], [np.float64(0.5965498577516887), np.float64(0.9377705947641669), np.float64(0.7997003014597989), np.float64(0.9929166073669723)]], [[np.float64(0.7448257882732734), np.float64(1.0489134276129828)], [np.float64(0.22078488199963053), np.float64(0.43206432238704884)], [np.float64(0.5393203523261575), np.float64(0.8643601014434146)], [np.float64(0.7533501842542742), np.float64(0.9547665429303168)]]]</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>[[0.11228815280188298, 0.5346968410753709, 0.36946236503639296, np.float64(1.1744380519093895)], [0.8550356286030842, np.float64(0.819885612587297)]]</t>
+          <t>[[0.9083851510206702, 0.744602910040695, 0.2269315981513913, np.float64(0.8764235648860046)], [0.20364147961854118, np.float64(0.7800018547764009)]]</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>[np.float64(0.12499118768569153), np.float64(0.15321604141936165)]</t>
+          <t>[np.float64(0.1409447577644122), np.float64(0.6041132075708482)]</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>0.5079603668273297</v>
+        <v>0.1898538987726064</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>[np.float64(0.010827273262178125), np.float64(0.010834113594947804), np.float64(0.010840839110527195), np.float64(0.010847452280675752), np.float64(0.010853955514517451), np.float64(0.010860351160102517), np.float64(0.01086664150596072), np.float64(0.010872828782640722), np.float64(0.01087891516422722), np.float64(0.010884902769840502), np.float64(0.010890793665108152), np.float64(0.010896589863612624), np.float64(0.01090229332830821), np.float64(0.010907905972910853), np.float64(0.010913429663256303), np.float64(0.010918866218626717), np.float64(0.010924217413044283), np.float64(0.010929484976537836), np.float64(0.010934670596370911), np.float64(0.010939775918241624), np.float64(0.010944802547449726), np.float64(0.0109497520500309), np.float64(0.010954625953861572), np.float64(0.010959425749730967), np.float64(0.010964152892383536), np.float64(0.0109688088015314), np.float64(0.010973394862837195), np.float64(0.010977912428869308), np.float64(0.010982362820026232), np.float64(0.010986747325436346), np.float64(0.010991067203830003), np.float64(0.01099532368438397), np.float64(0.010999517967543148), np.float64(0.011003651225815418), np.float64(0.01100772460454252), np.float64(0.011011739222648758), np.float64(0.011015696173366455), np.float64(0.011019596524938455), np.float64(0.011023441321299959), np.float64(0.01102723158274026), np.float64(0.011030968306542249), np.float64(0.011034652467604652), np.float64(0.011038285019044027), np.float64(0.011041866892779317), np.float64(0.011045399000097192), np.float64(0.01104888223220101), np.float64(0.011052317460743968), np.float64(0.011055705538344968), np.float64(0.011059047299088381), np.float64(0.011062343559011164), np.float64(0.011065595116571595), np.float64(0.011068802753108328), np.float64(0.011071967233280654), np.float64(0.011075089305499943), np.float64(0.01107816970234698), np.float64(0.011081209140974579), np.float64(0.011084208323501364), np.float64(0.011087167937391694), np.float64(0.011090088655826788), np.float64(0.011092971138061378), np.float64(0.011095816029773274), np.float64(0.011098623963400972), np.float64(0.011101395558472053), np.float64(0.011104131421920967), np.float64(0.011106832148398731), np.float64(0.011109498320575043), np.float64(0.01111213050942734), np.float64(0.011114729274525394), np.float64(0.011117295164307449), np.float64(0.011119828716347058), np.float64(0.011122330457612942), np.float64(0.011124800904722365), np.float64(0.01112724056418451), np.float64(0.011129649932641893), np.float64(0.01113202949710062), np.float64(0.01113437973515612), np.float64(0.011136701115212505), np.float64(0.01113899409669627), np.float64(0.011141259130262593), np.float64(0.011143496657998197), np.float64(0.011145707113616466), np.float64(0.01114789092264864), np.float64(0.011150048502629956), np.float64(0.011152180263279823), np.float64(0.01115428660667755), np.float64(0.011156367927434224), np.float64(0.011158424612857975), np.float64(0.011160457043117477), np.float64(0.011162465591398869), np.float64(0.011164450624059987), np.float64(0.011166412500779736), np.float64(0.011168351574704118), np.float64(0.011170268192588638), np.float64(0.01117216269493541), np.float64(0.01117403541612866), np.float64(0.011175886684566332), np.float64(0.011177716822787974), np.float64(0.011179526147598703), np.float64(0.011181314970190785), np.float64(0.011183083596263353), np.float64(0.011184832326136849), np.float64(0.011186561454865315), np.float64(0.011188271272347197), np.float64(0.011189962063431499), np.float64(0.011191634108022897), np.float64(0.011193287681182912), np.float64(0.011194923053230159), np.float64(0.011196540489836124), np.float64(0.01119814025212038), np.float64(0.011199722596743), np.float64(0.011201287775994495), np.float64(0.011202836037883137), np.float64(0.011204367626221269), np.float64(0.011205882780709329), np.float64(0.0112073817370168), np.float64(0.011208864726862793), np.float64(0.011210331978093135), np.float64(0.011211783714757442), np.float64(0.011213220157182685), np.float64(0.011214641522046036), np.float64(0.011216048022446011), np.float64(0.011217439867971654), np.float64(0.011218817264769521), np.float64(0.011220180415611144), np.float64(0.011221529519956707), np.float64(0.01122286477401848), np.float64(0.011224186370822651), np.float64(0.011225494500269214), np.float64(0.011226789349191439), np.float64(0.011228071101413781), np.float64(0.011229339937807573), np.float64(0.011230596036346593), np.float64(0.011231839572160913), np.float64(0.011233070717589834), np.float64(0.011234289642232843), np.float64(0.011235496513000903), np.float64(0.01123669149416512), np.float64(0.011237874747405478), np.float64(0.011239046431857849), np.float64(0.01124020670416033), np.float64(0.01124135571849856), np.float64(0.011242493626649776), np.float64(0.011243620578026178), np.float64(0.011244736719717882), np.float64(0.011245842196533505), np.float64(0.0112469371510417), np.float64(0.011248021723610335), np.float64(0.011249096052446048), np.float64(0.011250160273631524), np.float64(0.011251214521164043), np.float64(0.011252258926991264), np.float64(0.011253293621046979), np.float64(0.011254318731286976), np.float64(0.011255334383722834), np.float64(0.011256340702455809), np.float64(0.011257337809709764), np.float64(0.011258325825863672), np.float64(0.011259304869483342), np.float64(0.011260275057352147), np.float64(0.011261236504501917), np.float64(0.011262189324242852), np.float64(0.011263133628191955), np.float64(0.011264069526302333), np.float64(0.01126499712689183), np.float64(0.011265916536669451), np.float64(0.011266827860763185), np.float64(0.0112677312027462), np.float64(0.011268626664662664), np.float64(0.011269514347053698), np.float64(0.011270394348982065), np.float64(0.011271266768056544), np.float64(0.011272131700456354), np.float64(0.011272989240954356), np.float64(0.01127383948294042), np.float64(0.011274682518444143), np.float64(0.011275518438156834), np.float64(0.011276347331453546), np.float64(0.011277169286414677), np.float64(0.01127798438984661), np.float64(0.011278792727302818), np.float64(0.011279594383103742), np.float64(0.011280389440356834), np.float64(0.011281177980976302), np.float64(0.011281960085701417), np.float64(0.0112827358341167), np.float64(0.011283505304668918), np.float64(0.011284268574686389), np.float64(0.011285025720395837), np.float64(0.011285776816940908), np.float64(0.011286521938398165), np.float64(0.011287261157794956), np.float64(0.01128799454712516), np.float64(0.011288722177366022), np.float64(0.011289444118493659), np.float64(0.011290160439499252), np.float64(0.011290871208403802), np.float64(0.011291576492273834), np.float64(0.011292276357236002), np.float64(0.011292970868491481), np.float64(0.011293660090330946)]</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -5462,25 +6057,30 @@
         <v>100</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0123036219039043</v>
+        <v>0.009440397573115147</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.007009518595954733), np.float64(0.7716739612235549), np.float64(0.6373190690593276), np.float64(0.7600608409281735)], [np.float64(0.9091879250291169), np.float64(0.09887511138959477), np.float64(0.7289470648549364), np.float64(0.308809101537479)], [np.float64(0.5101675602740853), np.float64(0.5081554168326746), np.float64(0.878353534252835), np.float64(0.6958271327285384)], [np.float64(0.9416815503712648), np.float64(0.22730598415756878), np.float64(0.8511208784226882), np.float64(0.3363696215764928)]], [[np.float64(-0.05086028254221996), np.float64(0.921857979555505)], [np.float64(-0.01896613937633906), np.float64(0.5525961419884834)], [np.float64(-0.13625204366072763), np.float64(0.9490439004227179)], [np.float64(0.22836232210014176), np.float64(0.38813006534336414)]]]</t>
+          <t>[[[np.float64(0.39503032476961286), np.float64(-0.22167017046838705), np.float64(0.4456521029227537), np.float64(0.6153193282871919)], [np.float64(0.1955711900247771), np.float64(0.6800209313266061), np.float64(-0.1271215447917103), np.float64(0.25752712955737556)], [np.float64(0.19579106914781927), np.float64(-0.0462508910036252), np.float64(-0.27262680219541124), np.float64(0.6580718343013576)], [np.float64(0.8416024186699123), np.float64(-0.04030990779422034), np.float64(0.5531635754886864), np.float64(0.3232887052666899)]], [[np.float64(0.21928370377560172), np.float64(0.04805314812756255)], [np.float64(0.016758649701388396), np.float64(-0.10097055804986042)], [np.float64(0.2268378091188047), np.float64(0.42679300252414865)], [np.float64(0.13710893260815182), np.float64(-0.03243393930696857)]]]</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>[[0.36750236129928726, 0.531450781594804, 0.0608946928637738, np.float64(0.16670783574760079)], [0.41041487601592463, np.float64(-0.04721413130353615)]]</t>
+          <t>[[0.2853613471036348, 0.9518822457585919, 0.8296970295518, np.float64(0.45477333840820044)], [0.3631987849497139, np.float64(0.36782031637632007)]]</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>[np.float64(0.6812762401365796), np.float64(0.10072434852743248)]</t>
+          <t>[np.float64(0.2784000730356667), np.float64(0.9629246557649481)]</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>0.5986356408103709</v>
+        <v>0.1571615560436401</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>[np.float64(0.04227248711565557), np.float64(0.04002428657186469), np.float64(0.03151591231750968), np.float64(0.011112360609801595), np.float64(0.012244723748647717), np.float64(0.010215997147272997), np.float64(0.016750009854757667), np.float64(0.011640667331098656), np.float64(0.03551811781272903), np.float64(0.018021984594083544), np.float64(0.012074797945789357), np.float64(0.0362032428772513), np.float64(0.02016699796094697), np.float64(0.012059337184023546), np.float64(0.0358881062390986), np.float64(0.01982406892574582), np.float64(0.011766797598173992), np.float64(0.03496925754986112), np.float64(0.01808342613615969), np.float64(0.011380322518266154), np.float64(0.03370955688381674), np.float64(0.015878456028060286), np.float64(0.01053516795169989), np.float64(0.030508515362737486), np.float64(0.011530376923896458), np.float64(0.010519968817641919), np.float64(0.012882110124720118), np.float64(0.009678272801679768), np.float64(0.02013185836894048), np.float64(0.01090220806593636), np.float64(0.03160868448169893), np.float64(0.013219006386979247), np.float64(0.009633420551914632), np.float64(0.021252018783715364), np.float64(0.01040025639304057), np.float64(0.02917515707586877), np.float64(0.010966475124049697), np.float64(0.01121586734680395), np.float64(0.010766924716703648), np.float64(0.01166677518839548), np.float64(0.010198888585999218), np.float64(0.013634848114885799), np.float64(0.009634365995018095), np.float64(0.02226835284030667), np.float64(0.009943455886983636), np.float64(0.026064807100153048), np.float64(0.009696534589737052), np.float64(0.01692147981212415), np.float64(0.0102142134186047), np.float64(0.02755462888428487), np.float64(0.010357491583586132), np.float64(0.012509094560640375), np.float64(0.0096472486197523), np.float64(0.01702984510679612), np.float64(0.010087156179798324), np.float64(0.026506369202879618), np.float64(0.01003284845115345), np.float64(0.013618569025991182), np.float64(0.009544128515429124), np.float64(0.02034305610386522), np.float64(0.009795498152304828), np.float64(0.0240708954845085), np.float64(0.009558885819502774), np.float64(0.01728972025542569), np.float64(0.009843287813049321), np.float64(0.024213559756429696), np.float64(0.009623025000004889), np.float64(0.01587224209847698), np.float64(0.009680458634266934), np.float64(0.02254085828812793), np.float64(0.009495275664969586), np.float64(0.017866012239057892), np.float64(0.009665277887072594), np.float64(0.022158354506562967), np.float64(0.009488875223741287), np.float64(0.01736085598701206), np.float64(0.009600046680407237), np.float64(0.021216352604301134), np.float64(0.009468357421090966), np.float64(0.017684001106432062), np.float64(0.009539383820911386), np.float64(0.020206304798693384), np.float64(0.009458717049599538), np.float64(0.017921897937328995), np.float64(0.009492128257676348), np.float64(0.019212133803567004), np.float64(0.009454614897598317), np.float64(0.017960593994543566), np.float64(0.009462933838526054), np.float64(0.018348965817927824), np.float64(0.00944978209592477), np.float64(0.01775058318515799), np.float64(0.009448354260904495), np.float64(0.0176792403393285), np.float64(0.009443978460147327), np.float64(0.017361568441519877), np.float64(0.009441826324364714), np.float64(0.017151946555886737), np.float64(0.009440397573115147), np.float64(0.016911690084197205)]</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -5504,25 +6104,30 @@
         <v>200</v>
       </c>
       <c r="F121" t="n">
-        <v>0.01243182831395337</v>
+        <v>0.01164738294829756</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.3832961538368375), np.float64(-0.12056093372343954), np.float64(0.08862422812884431), np.float64(0.0556637008843403)], [np.float64(-0.3362959468400763), np.float64(-0.23639303154030217), np.float64(0.3147031274533878), np.float64(0.21148046925331948)], [np.float64(0.07905195641236563), np.float64(-0.28478527144826915), np.float64(-0.13543668925136979), np.float64(-0.38475283595411935)], [np.float64(0.5294941186712889), np.float64(0.7284940695372335), np.float64(0.21515907244949734), np.float64(0.550891019470597)]], [[np.float64(-0.10713409204757574), np.float64(-0.278148063179201)], [np.float64(0.8625518094631437), np.float64(-0.06763530498587962)], [np.float64(0.3542680038146527), np.float64(-0.16167568163884294)], [np.float64(0.33009268817034987), np.float64(-0.006257572101693929)]]]</t>
+          <t>[[[np.float64(0.6296266759226096), np.float64(0.10144977713487945), np.float64(0.2999253563351995), np.float64(0.15439033737770128)], [np.float64(0.735900265059295), np.float64(0.6442468849106758), np.float64(0.5435320666887036), np.float64(-0.023937461764350198)], [np.float64(0.34339374893740915), np.float64(0.8003447698913009), np.float64(0.1724694774498513), np.float64(-0.06033956252988765)], [np.float64(0.8908127397185625), np.float64(0.1713072790977651), np.float64(0.14542804311083068), np.float64(0.16780578366347026)]], [[np.float64(-0.009143640082637265), np.float64(0.549659949289976)], [np.float64(0.2186191194516131), np.float64(0.23702811017826603)], [np.float64(0.04833170701308649), np.float64(-0.12966641497977752)], [np.float64(0.26324323477432876), np.float64(-0.0005889757388479329)]]]</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>[[0.569614646014926, 0.11243066152577852, 0.18126293790116166, np.float64(0.007612567729957791)], [0.3815722779579722, np.float64(0.4317621630719184)]]</t>
+          <t>[[0.9421619227681428, 0.4514154365512959, 0.5412766250830828, np.float64(0.3175076809316726)], [0.5756453335464919, np.float64(0.298856714009466)]]</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>[np.float64(0.11882796820232443), np.float64(0.8873924682472587)]</t>
+          <t>[np.float64(0.5627588083870635), np.float64(0.6958650022399673)]</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>0.7723284242590702</v>
+        <v>0.04937121439243894</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>[np.float64(0.03360223264431241), np.float64(0.03175091826456563), np.float64(0.028656712916588323), np.float64(0.02393109173404779), np.float64(0.018026013099167137), np.float64(0.013289678524138438), np.float64(0.011677656650505297), np.float64(0.011647382948297556), np.float64(0.011651130365258403), np.float64(0.011650654521739807), np.float64(0.011650714755022492), np.float64(0.01165070712752908), np.float64(0.011650708093371053), np.float64(0.011650707971068585), np.float64(0.011650707986552473), np.float64(0.011650707984592827), np.float64(0.011650707984843911), np.float64(0.011650707984807144), np.float64(0.01165070798481329), np.float64(0.011650707984813291), np.float64(0.01165070798481329), np.float64(0.011650707984813295), np.float64(0.011650707984813297), np.float64(0.011650707984813304), np.float64(0.011650707984813307), np.float64(0.011650707984813309), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314), np.float64(0.011650707984813314)]</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -5546,25 +6151,30 @@
         <v>100</v>
       </c>
       <c r="F122" t="n">
-        <v>0.00320727060405003</v>
+        <v>0.01025678516480093</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.9703143499685389), np.float64(-0.9581073741622097), np.float64(-0.61171045054567), np.float64(1.1675028546265696)], [np.float64(-0.5054438161612391), np.float64(-0.3369753936740884), np.float64(-0.5479738195314074), np.float64(0.6304429170337759)], [np.float64(-0.7894989683592577), np.float64(-1.039959651482567), np.float64(-1.0565568660746212), np.float64(1.160796221458507)], [np.float64(0.06692741550299107), np.float64(-0.2184818992326808), np.float64(-0.05454395464583551), np.float64(0.6524631152696639)]], [[np.float64(-0.7114753948206265), np.float64(0.17695650167838795), np.float64(-1.18434967433243)], [np.float64(-1.282540644012863), np.float64(0.05761875552113081), np.float64(-1.89264657880195)], [np.float64(-0.929522638146138), np.float64(-0.16089520451981756), np.float64(-2.27128738049355)], [np.float64(-2.5330416341032533), np.float64(1.7775881863962746), np.float64(-3.4858651535039256)]]]</t>
+          <t>[[[np.float64(-0.5584952056452559), np.float64(0.18356247991766778), np.float64(-0.409911256389018), np.float64(-0.007035353864646759)], [np.float64(-0.03537301896675348), np.float64(0.19161214339490706), np.float64(-0.02355467907159078), np.float64(0.4805629033868112)], [np.float64(-0.6273066037962993), np.float64(-0.37632944574991734), np.float64(-1.0369889618637975), np.float64(0.5514982720467917)], [np.float64(0.3489972352643704), np.float64(0.36963037309213653), np.float64(0.18117262830665853), np.float64(0.2299329492062829)]], [[np.float64(-1.1088449484684308), np.float64(-0.13895703949040564), np.float64(-1.978122609069982)], [np.float64(-2.055104388030397), np.float64(0.5283855699080308), np.float64(-2.6998901683734386)], [np.float64(-1.4763118538156024), np.float64(-0.11868445204629793), np.float64(-1.6023852679396844)], [np.float64(-1.8832753043266797), np.float64(0.030289460430038866), np.float64(-2.488025067121706)]]]</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>[[0.1264324856664626, 0.8472234559799247, 0.43158709946884577, np.float64(0.7025080613736271)], [0.29712128923478076, 0.6079948348287698, np.float64(-1.2924032428709813)]]</t>
+          <t>[[0.9532960909694987, 0.8572140752273668, 0.5782177986372219, np.float64(0.4623446577872505)], [0.1663519070355427, 0.6466347661155369, np.float64(-0.8318836931255812)]]</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>[np.float64(0.5922992113570252), np.float64(0.0809242565732831), np.float64(0.821325206650562)]</t>
+          <t>[np.float64(0.4375401504748539), np.float64(0.04426657140905641), np.float64(0.5745520584087608)]</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>0.2360281476871811</v>
+        <v>0.6562417847823078</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>[np.float64(14.836825159002366), np.float64(0.010665095713654552), np.float64(0.010657997393492236), np.float64(0.010650973316682582), np.float64(0.010644022927000774), np.float64(0.010637145675521863), np.float64(0.010630341020482065), np.float64(0.010623608427140654), np.float64(0.01061694736764622), np.float64(0.010610357320903837), np.float64(0.010603837772446058), np.float64(0.010597388214305477), np.float64(0.010591008144889913), np.float64(0.010584697068858584), np.float64(0.010578454497003693), np.float64(0.010572279946131462), np.float64(0.01056617293894516), np.float64(0.010560133003932819), np.float64(0.01055415967525418), np.float64(0.010548252492632366), np.float64(0.01054241100124474), np.float64(0.010536634751618042), np.float64(0.010530923299523707), np.float64(0.01052527620587679), np.float64(0.010519693036635845), np.float64(0.010514173362703785), np.float64(0.010508716759832401), np.float64(0.010503322808526904), np.float64(0.010497991093953362), np.float64(0.0104927212058468), np.float64(0.010487512738422465), np.float64(0.010482365290287022), np.float64(0.010477278464352594), np.float64(0.010472251867751026), np.float64(0.01046728511175176), np.float64(0.010462377811678875), np.float64(0.01045752958683182), np.float64(0.010452740060405375), np.float64(0.01044800885941335), np.float64(0.01044333561461173), np.float64(0.010438719960424335), np.float64(0.01043416153486931), np.float64(0.01042965997948758), np.float64(0.010425214939272042), np.float64(0.010420826062597548), np.float64(0.010416493001153802), np.float64(0.010412215409877903), np.float64(0.010407992946889164), np.float64(0.010403825273424037), np.float64(0.01039971205377336), np.float64(0.010395652955220106), np.float64(0.010391647647978862), np.float64(0.010387695805135577), np.float64(0.010383797102588757), np.float64(0.010379951218992458), np.float64(0.01037615783569901), np.float64(0.01037241663670401), np.float64(0.0103687273085922), np.float64(0.01036508954048334), np.float64(0.010361503023980003), np.float64(0.010357967453116231), np.float64(0.010354482524307389), np.float64(0.01035104793630013), np.float64(0.010347663390124098), np.float64(0.010344328589044131), np.float64(0.010341043238514128), np.float64(0.010337807046130404), np.float64(0.010334619721587305), np.float64(0.010331480976633091), np.float64(0.010328390525026196), np.float64(0.010325348082493703), np.float64(0.01032235336668896), np.float64(0.010319406097151844), np.float64(0.010316505995268026), np.float64(0.010313652784229934), np.float64(0.010310846188998747), np.float64(0.010308085936266958), np.float64(0.010305371754421184), np.float64(0.010302703373506155), np.float64(0.01030008052518922), np.float64(0.010297502942726225), np.float64(0.010294970360927537), np.float64(0.010292482516124463), np.float64(0.010290039146137141), np.float64(0.010287639990242592), np.float64(0.010285284789143699), np.float64(0.01028297328493814), np.float64(0.010280705221089533), np.float64(0.010278480342397641), np.float64(0.010276298394970072), np.float64(0.010274159126193887), np.float64(0.010272062284708847), np.float64(0.010270007620380515), np.float64(0.010267994884274226), np.float64(0.0102660238286294), np.float64(0.010264094206834443), np.float64(0.010262205773402804), np.float64(0.010260358283949214), np.float64(0.010258551495166145), np.float64(0.010256785164800926)]</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -5588,25 +6198,30 @@
         <v>200</v>
       </c>
       <c r="F123" t="n">
-        <v>0.04527052436238092</v>
+        <v>0.2042511622282737</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[[[np.float64(-1.8258540762885191), np.float64(-0.38490333517218844), np.float64(-1.8092103597281632), np.float64(-0.04818627728771967)], [np.float64(-1.1500670152180406), np.float64(-0.6141313269059913), np.float64(-1.3174761499657728), np.float64(-0.3207145435754012)], [np.float64(-1.9015087301372284), np.float64(-0.6635299776530461), np.float64(-1.062726651368972), np.float64(-0.5469745886870387)], [np.float64(-0.1382582045659804), np.float64(0.35660830395390075), np.float64(-0.2924536818163666), np.float64(0.49706456018304157)]], [[np.float64(-1.571317915197778), np.float64(-3.2724918594032304), np.float64(-0.7133472697371783)], [np.float64(-1.9432725477929607), np.float64(-4.003057421512283), np.float64(-1.2535890056235837)], [np.float64(-0.857804910772257), np.float64(-1.70289351508792), np.float64(-0.0629891621621023)], [np.float64(-1.172320842191871), np.float64(-3.0708665955332672), np.float64(-0.3095351375094639)]]]</t>
+          <t>[[[np.float64(-0.980616841396532), np.float64(-1.6325564441987506), np.float64(-1.723534041582797), np.float64(-0.26019424561065474)], [np.float64(-0.8248048285435425), np.float64(-2.344838874772305), np.float64(-1.5519014217271923), np.float64(0.05676614095424156)], [np.float64(-0.8417875505296826), np.float64(-1.816804076299317), np.float64(-1.6265673406593244), np.float64(0.23319667738811017)], [np.float64(-0.28197840211863423), np.float64(-0.752239772371563), np.float64(-0.11066570713309934), np.float64(0.04315590778385105)]], [[np.float64(-3.993378781608756), np.float64(-3.32843432528004), np.float64(-0.9901241006538073)], [np.float64(-4.467244745210613), np.float64(-3.467929999274687), np.float64(-1.2423115721727522)], [np.float64(-4.626274846690511), np.float64(-4.476221941937622), np.float64(-1.951173362506876)], [np.float64(-3.5077952469500704), np.float64(-3.1697223842966036), np.float64(-0.871153558312835)]]]</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>[[0.8663825870182262, 0.8941115049531646, 0.13759333839283716, np.float64(-0.918179297736787)], [0.9683896601449812, 0.7462002498359964, np.float64(-0.6599903952209287)]]</t>
+          <t>[[0.29791341505571334, 0.2880306934466712, 0.9585916008743557, np.float64(-0.5109417891621781)], [0.08657195902501935, 0.9465080653970794, np.float64(-1.0465641791820253)]]</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>[np.float64(0.38306621864615975), np.float64(0.7441468551095406), np.float64(0.266513455276565)]</t>
+          <t>[np.float64(0.7791442330050014), np.float64(0.6939217673865955), np.float64(0.31049848520436013)]</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>0.02137669550816144</v>
+        <v>0.4228861945538486</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>[np.float64(33.13121719159828), np.float64(0.21797228554927675), np.float64(0.21790048124896053), np.float64(0.2178287030080164), np.float64(0.21775695081676918), np.float64(0.21768522466554402), np.float64(0.2176135245446717), np.float64(0.21754185044448596), np.float64(0.21747020235532472), np.float64(0.21739858026752898), np.float64(0.21732698417144342), np.float64(0.21725541405741622), np.float64(0.21718386991579913), np.float64(0.21711235173694843), np.float64(0.21704085951122287), np.float64(0.21696939322898587), np.float64(0.21689795288060332), np.float64(0.21682653845644423), np.float64(0.21675514994688455), np.float64(0.2166837873423004), np.float64(0.21661245063307313), np.float64(0.21654113980958772), np.float64(0.21646985486223216), np.float64(0.2163985957813971), np.float64(0.21632736255747875), np.float64(0.21625615518087607), np.float64(0.21618497364199374), np.float64(0.21611381793123408), np.float64(0.21604268803900972), np.float64(0.21597158395573338), np.float64(0.21590050567182248), np.float64(0.21582945317769636), np.float64(0.21575842646378185), np.float64(0.2156874255205031), np.float64(0.2156164503382946), np.float64(0.21554550090759064), np.float64(0.21547457721882923), np.float64(0.2154036792624548), np.float64(0.21533280702890914), np.float64(0.21526196050864504), np.float64(0.2151911396921141), np.float64(0.21512034456977358), np.float64(0.21504957513208287), np.float64(0.21497883136950685), np.float64(0.21490811327251222), np.float64(0.2148374208315698), np.float64(0.2147667540371545), np.float64(0.21469611287974286), np.float64(0.21462549734982053), np.float64(0.21455490743786862), np.float64(0.2144843431343782), np.float64(0.21441380442983984), np.float64(0.21434329131475163), np.float64(0.21427280377961214), np.float64(0.21420234181492318), np.float64(0.21413190541119376), np.float64(0.21406149455893392), np.float64(0.21399110924865633), np.float64(0.21392074947087808), np.float64(0.21385041521612136), np.float64(0.21378010647491016), np.float64(0.21370982323777213), np.float64(0.21363956549523952), np.float64(0.21356933323784838), np.float64(0.21349912645613475), np.float64(0.2134289451406445), np.float64(0.2133587892819202), np.float64(0.2132886588705133), np.float64(0.21321855389697614), np.float64(0.2131484743518646), np.float64(0.21307842022574025), np.float64(0.21300839150916542), np.float64(0.21293838819270836), np.float64(0.21286841026693967), np.float64(0.21279845772243242), np.float64(0.21272853054976404), np.float64(0.21265862873951863), np.float64(0.21258875228227794), np.float64(0.21251890116863373), np.float64(0.21244907538917548), np.float64(0.21237927493449776), np.float64(0.21230949979520167), np.float64(0.21223974996188966), np.float64(0.21217002542516675), np.float64(0.2121003261756447), np.float64(0.21203065220393305), np.float64(0.21196100350065078), np.float64(0.21189138005641875), np.float64(0.21182178186185835), np.float64(0.21175220890759922), np.float64(0.21168266118427215), np.float64(0.21161313868251003), np.float64(0.21154364139294957), np.float64(0.21147416930623447), np.float64(0.21140472241300864), np.float64(0.21133530070392156), np.float64(0.21126590416962227), np.float64(0.21119653280076878), np.float64(0.21112718658801954), np.float64(0.2110578655220371), np.float64(0.21098856959348433), np.float64(0.21091929879303453), np.float64(0.2108500531113607), np.float64(0.21078083253913632), np.float64(0.21071163706704363), np.float64(0.21064246668576375), np.float64(0.21057332138598775), np.float64(0.2105042011584032), np.float64(0.2104351059937024), np.float64(0.21036603588258432), np.float64(0.21029699081575293), np.float64(0.21022797078390915), np.float64(0.2101589757777619), np.float64(0.21009000578802178), np.float64(0.2100210608054062), np.float64(0.20995214082063024), np.float64(0.20988324582441725), np.float64(0.2098143758074931), np.float64(0.2097455307605867), np.float64(0.20967671067442978), np.float64(0.20960791553975883), np.float64(0.20953914534731055), np.float64(0.2094704000878318), np.float64(0.20940167975206736), np.float64(0.20933298433076453), np.float64(0.2092643138146805), np.float64(0.20919566819456814), np.float64(0.20912704746119062), np.float64(0.20905845160530948), np.float64(0.2089898806176931), np.float64(0.2089213344891107), np.float64(0.20885281321033813), np.float64(0.20878431677215242), np.float64(0.20871584516533395), np.float64(0.20864739838066715), np.float64(0.2085789764089411), np.float64(0.20851057924094477), np.float64(0.20844220686747533), np.float64(0.20837385927932991), np.float64(0.20830553646731031), np.float64(0.2082372384222218), np.float64(0.20816896513487446), np.float64(0.20810071659607843), np.float64(0.20803249279664826), np.float64(0.20796429372740702), np.float64(0.20789611937917474), np.float64(0.20782796974277537), np.float64(0.2077598448090412), np.float64(0.20769174456880538), np.float64(0.20762366901290097), np.float64(0.20755561813217205), np.float64(0.20748759191745733), np.float64(0.2074195903596057), np.float64(0.20735161344946623), np.float64(0.20728366117789393), np.float64(0.20721573353574435), np.float64(0.2071478305138774), np.float64(0.2070799521031573), np.float64(0.20701209829445358), np.float64(0.2069442690786324), np.float64(0.20687646444657312), np.float64(0.20680868438914796), np.float64(0.2067409288972395), np.float64(0.20667319796173528), np.float64(0.20660549157351873), np.float64(0.20653780972348387), np.float64(0.20647015240252348), np.float64(0.20640251960153708), np.float64(0.20633491131142456), np.float64(0.20626732752309213), np.float64(0.2061997682274483), np.float64(0.2061322334154024), np.float64(0.20606472307787274), np.float64(0.20599723720577473), np.float64(0.20592977579003344), np.float64(0.20586233882157018), np.float64(0.20579492629131899), np.float64(0.2057275381902071), np.float64(0.20566017450917395), np.float64(0.205592835239156), np.float64(0.20552552037109642), np.float64(0.2054582298959414), np.float64(0.2053909638046388), np.float64(0.20532372208814148), np.float64(0.20525650473740778), np.float64(0.20518931174339392), np.float64(0.2051221430970643), np.float64(0.20505499878938507), np.float64(0.20498787881132702), np.float64(0.20492078315385995), np.float64(0.20485371180796344), np.float64(0.20478666476461446), np.float64(0.20471964201479656), np.float64(0.20465264354949933), np.float64(0.20458566935971031), np.float64(0.20451871943642283), np.float64(0.20445179377063333), np.float64(0.20438489235334217), np.float64(0.20431801517555245), np.float64(0.20425116222827375)]</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -5630,25 +6245,30 @@
         <v>100</v>
       </c>
       <c r="F124" t="n">
-        <v>0.3341376716135969</v>
+        <v>0.05708578109422531</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[[[np.float64(-12.755175376620656), np.float64(-12.170648445447869), np.float64(-8.965512581814815), np.float64(-11.238087321421686)], [np.float64(-11.836408139861645), np.float64(-11.537979358282264), np.float64(-7.758797117915227), np.float64(-10.99783956426673)], [np.float64(-13.452950853399336), np.float64(-12.728147912882976), np.float64(-9.385843512335438), np.float64(-12.323000412214732)], [np.float64(-6.247956132794635), np.float64(-5.507511321853635), np.float64(-4.1626661636829905), np.float64(-5.056786597875226)]], [[np.float64(-19.689718987210792), np.float64(-50.56563281212009), np.float64(-21.740030466573437)], [np.float64(-7.873893431531865), np.float64(-20.72563592498988), np.float64(-8.614850690957269)], [np.float64(-5.018901875946908), np.float64(-13.01879421213851), np.float64(-5.988506363171946)], [np.float64(-13.519497566559743), np.float64(-35.518898612752416), np.float64(-15.914971831380972)]]]</t>
+          <t>[[[np.float64(-12.403973636770123), np.float64(-10.019103419444598), np.float64(-12.553654036779356), np.float64(-21.454855701407684)], [np.float64(-11.427968996759356), np.float64(-8.747237142659218), np.float64(-12.128934427559935), np.float64(-20.1976309847895)], [np.float64(-12.678505444062884), np.float64(-9.979882095480402), np.float64(-13.285890703443178), np.float64(-22.056369860138616)], [np.float64(-5.870522723921049), np.float64(-4.203382136452282), np.float64(-5.657923201010365), np.float64(-10.161547647840722)]], [[np.float64(-26.670179292158835), np.float64(-21.645391574537314), np.float64(-19.831617739549046)], [np.float64(-38.69393417868415), np.float64(-32.568365184095114), np.float64(-28.133908551480115)], [np.float64(-26.60987824774658), np.float64(-21.64742031594143), np.float64(-19.609714490920613)], [np.float64(-16.655514552668468), np.float64(-14.026934071509114), np.float64(-12.379365345693259)]]]</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>[[0.9629372552221597, 0.41038407518196895, 0.030273682702799176, np.float64(-18.40987314376264)], [0.7543008321874001, 0.374601818826073, np.float64(-8.2953965402887)]]</t>
+          <t>[[0.11913209380332712, 0.8774373139619517, 0.06740444912891008, np.float64(-33.228995630664635)], [0.011716916195489091, 0.6478111345633156, np.float64(-12.049945272440263)]]</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>[np.float64(0.20033967296245397), np.float64(0.6349939869327891), np.float64(0.2819172510612307)]</t>
+          <t>[np.float64(0.6098035587370931), np.float64(0.516999080697409), np.float64(0.44293809545117546)]</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>0.8842064554238952</v>
+        <v>0.1476407657050639</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>[np.float64(22.83151137258886), np.float64(0.07531075353894412), np.float64(0.07509547057331271), np.float64(0.07488085049817539), np.float64(0.07466689135868806), np.float64(0.0744535912056583), np.float64(0.07424094809552899), np.float64(0.07402896009036283), np.float64(0.07381762525782602), np.float64(0.07360694167117192), np.float64(0.07339690740922596), np.float64(0.07318752055636771), np.float64(0.0729787792025175), np.float64(0.07277068144311825), np.float64(0.07256322537912221), np.float64(0.07235640911697232), np.float64(0.07215023076858819), np.float64(0.07194468845134963), np.float64(0.07173978028808317), np.float64(0.07153550440704229), np.float64(0.07133185894189693), np.float64(0.07112884203171264), np.float64(0.0709264518209409), np.float64(0.07072468645939704), np.float64(0.07052354410225214), np.float64(0.07032302291001219), np.float64(0.07012312104850274), np.float64(0.06992383668885964), np.float64(0.06972516800750767), np.float64(0.06952711318614656), np.float64(0.06932967041173801), np.float64(0.06913283787648958), np.float64(0.06893661377783877), np.float64(0.06874099631843864), np.float64(0.06854598370614419), np.float64(0.06835157415399395), np.float64(0.06815776588020014), np.float64(0.06796455710812943), np.float64(0.06777194606628982), np.float64(0.06757993098831733), np.float64(0.06738851011295836), np.float64(0.0671976816840564), np.float64(0.06700744395053966), np.float64(0.06681779516640324), np.float64(0.06662873359069521), np.float64(0.06644025748750408), np.float64(0.06625236512594188), np.float64(0.06606505478013262), np.float64(0.06587832472919343), np.float64(0.06569217325722539), np.float64(0.06550659865329703), np.float64(0.06532159921142852), np.float64(0.06513717323057998), np.float64(0.06495331901463534), np.float64(0.06477003487239069), np.float64(0.06458731911753722), np.float64(0.06440517006864978), np.float64(0.06422358604917106), np.float64(0.06404256538739751), np.float64(0.06386210641646883), np.float64(0.0636822074743492), np.float64(0.06350286690381625), np.float64(0.06332408305244787), np.float64(0.06314585427260665), np.float64(0.0629681789214259), np.float64(0.06279105536079838), np.float64(0.06261448195736107), np.float64(0.06243845708248142), np.float64(0.062262979112243204), np.float64(0.062088046427435484), np.float64(0.061913657413537625), np.float64(0.061739810460704175), np.float64(0.06156650396375384), np.float64(0.061393736322155716), np.float64(0.06122150594001523), np.float64(0.061049811226061304), np.float64(0.06087865059363341), np.float64(0.06070802246066668), np.float64(0.06053792524968138), np.float64(0.06036835738776732), np.float64(0.06019931730657233), np.float64(0.06003080344228974), np.float64(0.05986281423564122), np.float64(0.059695348131870114), np.float64(0.05952840358072377), np.float64(0.05936197903644173), np.float64(0.05919607295774415), np.float64(0.059030683807817), np.float64(0.0588658100543007), np.float64(0.05870145016927807), np.float64(0.05853760262925781), np.float64(0.05837426591516693), np.float64(0.05821143851233401), np.float64(0.058049118910478745), np.float64(0.05788730560369938), np.float64(0.05772599709045846), np.float64(0.05756519187357169), np.float64(0.057404888460195105), np.float64(0.05724508536181334), np.float64(0.05708578109422531)]</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -5672,25 +6292,30 @@
         <v>200</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1255944426878533</v>
+        <v>0.01092595595323314</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[[[np.float64(-9.746120337336256), np.float64(-16.256242147420085), np.float64(-11.883831830988571), np.float64(-18.083805524097002)], [np.float64(-9.26369083559594), np.float64(-14.969986512153715), np.float64(-11.005133627200188), np.float64(-16.379225024173046)], [np.float64(-9.834779202139805), np.float64(-16.585650552742184), np.float64(-11.44310445819208), np.float64(-18.2978258213088)], [np.float64(-3.9259332363829307), np.float64(-7.903400806599185), np.float64(-5.09930661504986), np.float64(-8.612164205548442)]], [[np.float64(-37.195783554831976), np.float64(-27.0015428666501), np.float64(-18.269827532301957)], [np.float64(-33.60997679832729), np.float64(-23.85088091055061), np.float64(-15.733923160169557)], [np.float64(-34.99271586963151), np.float64(-25.57853949070426), np.float64(-17.00425502401481)], [np.float64(-45.91567824988809), np.float64(-33.02884360236578), np.float64(-22.008994183330234)]]]</t>
+          <t>[[[np.float64(-16.110601712020777), np.float64(-17.06225261742936), np.float64(-22.040056576985794), np.float64(-10.559348321305634)], [np.float64(-15.610433505292422), np.float64(-15.590019391637046), np.float64(-20.405721035836837), np.float64(-9.819419813808253)], [np.float64(-16.664615889714472), np.float64(-17.294915590781194), np.float64(-22.728580331247873), np.float64(-10.767523199658317)], [np.float64(-7.205371774560682), np.float64(-7.8221751437867315), np.float64(-10.44419011740006), np.float64(-4.659103187979405)]], [[np.float64(-22.39380877378737), np.float64(-23.489042697177396), np.float64(-37.460027006111034)], [np.float64(-20.299640406049548), np.float64(-21.807069303040663), np.float64(-34.5803668601082)], [np.float64(-25.062618815769063), np.float64(-27.31495660674677), np.float64(-42.043508293728685)], [np.float64(-19.228748644936527), np.float64(-20.663633967101195), np.float64(-31.994539036971968)]]]</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>[[0.4062309697376164, 0.12348282910600739, 0.8009211370862053, np.float64(-27.649058765447776)], [0.17379382631335705, 0.14611422283090703, np.float64(-9.05739223542301)]]</t>
+          <t>[[0.17228447512047584, 0.0772080787207643, 0.9107407426377576, np.float64(-15.895852623207702)], [0.7584283078981876, 0.40021782015150587, np.float64(-21.35346361308424)]]</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>[np.float64(0.6349865586797683), np.float64(0.44913449204482053), np.float64(0.2831465044810826)]</t>
+          <t>[np.float64(0.3750601313285378), np.float64(0.4043668445200863), np.float64(0.6417860381458254)]</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>0.190375994503214</v>
+        <v>0.2810168891741177</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>[np.float64(32.27483544027501), np.float64(0.010925955953233136), np.float64(0.01092757257538976), np.float64(0.01092918995303195), np.float64(0.010930808072500093), np.float64(0.010932426920201136), np.float64(0.010934046482608303), np.float64(0.010935666746260776), np.float64(0.010937287697763455), np.float64(0.010938909323786649), np.float64(0.010940531611066154), np.float64(0.010942154546402403), np.float64(0.010943778116660816), np.float64(0.01094540230877093), np.float64(0.010947027109726825), np.float64(0.010948652506586177), np.float64(0.010950278486470602), np.float64(0.010951905036564923), np.float64(0.010953532144117466), np.float64(0.010955159796438924), np.float64(0.010956787980903326), np.float64(0.010958416684946407), np.float64(0.010960045896066802), np.float64(0.010961675601824535), np.float64(0.010963305789841444), np.float64(0.01096493644780091), np.float64(0.010966567563447396), np.float64(0.010968199124586315), np.float64(0.010969831119083775), np.float64(0.010971463534866365), np.float64(0.010973096359920897), np.float64(0.010974729582294144), np.float64(0.010976363190092406), np.float64(0.010977997171481924), np.float64(0.0109796315146878), np.float64(0.010981266207994231), np.float64(0.01098290123974445), np.float64(0.01098453659833977), np.float64(0.010986172272240302), np.float64(0.010987808249963827), np.float64(0.010989444520086364), np.float64(0.010991081071241271), np.float64(0.010992717892119313), np.float64(0.010994354971468534), np.float64(0.010995992298093548), np.float64(0.0109976298608563), np.float64(0.010999267648674675), np.float64(0.011000905650523009), np.float64(0.011002543855431495), np.float64(0.011004182252486281), np.float64(0.011005820830829047), np.float64(0.011007459579656806), np.float64(0.011009098488221588), np.float64(0.011010737545830531), np.float64(0.011012376741845247), np.float64(0.011014016065681866), np.float64(0.011015655506810784), np.float64(0.011017295054756304), np.float64(0.011018934699096903), np.float64(0.011020574429464079), np.float64(0.011022214235543067), np.float64(0.011023854107072293), np.float64(0.011025494033842724), np.float64(0.011027134005698545), np.float64(0.011028774012536284), np.float64(0.011030414044304443), np.float64(0.011032054091004148), np.float64(0.01103369414268791), np.float64(0.01103533418946033), np.float64(0.011036974221477192), np.float64(0.011038614228945623), np.float64(0.01104025420212382), np.float64(0.011041894131320574), np.float64(0.011043534006895724), np.float64(0.01104517381925923), np.float64(0.01104681355887133), np.float64(0.011048453216242473), np.float64(0.011050092781932535), np.float64(0.01105173224655137), np.float64(0.011053371600758094), np.float64(0.011055010835260915), np.float64(0.011056649940817277), np.float64(0.011058288908233356), np.float64(0.011059927728363908), np.float64(0.011061566392111944), np.float64(0.011063204890429125), np.float64(0.011064843214314776), np.float64(0.011066481354816046), np.float64(0.011068119303027868), np.float64(0.011069757050092723), np.float64(0.011071394587199926), np.float64(0.011073031905586396), np.float64(0.011074668996535239), np.float64(0.011076305851376773), np.float64(0.011077942461487742), np.float64(0.011079578818290997), np.float64(0.011081214913255423), np.float64(0.011082850737896171), np.float64(0.011084486283773674), np.float64(0.0110861215424942), np.float64(0.01108775650570944), np.float64(0.011089391165115899), np.float64(0.01109102551245536), np.float64(0.01109265953951435), np.float64(0.011094293238123921), np.float64(0.01109592660015963), np.float64(0.01109755961754124), np.float64(0.011099192282232532), np.float64(0.011100824586241441), np.float64(0.011102456521619328), np.float64(0.011104088080461035), np.float64(0.011105719254905005), np.float64(0.011107350037132776), np.float64(0.01110898041936877), np.float64(0.01111061039388036), np.float64(0.011112239952977457), np.float64(0.01111386908901234), np.float64(0.01111549779437997), np.float64(0.011117126061516948), np.float64(0.01111875388290217), np.float64(0.011120381251056233), np.float64(0.011122008158541146), np.float64(0.011123634597960518), np.float64(0.01112526056195919), np.float64(0.011126886043223058), np.float64(0.011128511034478913), np.float64(0.011130135528494475), np.float64(0.01113175951807772), np.float64(0.011133382996077293), np.float64(0.011135005955381931), np.float64(0.011136628388920792), np.float64(0.01113825028966246), np.float64(0.01113987165061544), np.float64(0.011141492464828075), np.float64(0.011143112725387826), np.float64(0.011144732425421414), np.float64(0.011146351558094843), np.float64(0.011147970116612988), np.float64(0.01114958809421948), np.float64(0.011151205484196458), np.float64(0.011152822279864597), np.float64(0.011154438474582976), np.float64(0.0111560540617485), np.float64(0.011157669034796416), np.float64(0.01115928338719946), np.float64(0.011160897112468277), np.float64(0.011162510204150837), np.float64(0.011164122655832588), np.float64(0.011165734461136018), np.float64(0.01116734561372083), np.float64(0.011168956107283476), np.float64(0.0111705659355571), np.float64(0.011172175092311557), np.float64(0.01117378357135306), np.float64(0.011175391366524024), np.float64(0.011176998471703161), np.float64(0.011178604880804887), np.float64(0.01118021058777962), np.float64(0.011181815586613457), np.float64(0.011183419871327845), np.float64(0.011185023435979824), np.float64(0.011186626274661458), np.float64(0.011188228381500088), np.float64(0.011189829750657614), np.float64(0.01119143037633124), np.float64(0.011193030252752333), np.float64(0.011194629374187009), np.float64(0.011196227734935596), np.float64(0.011197825329332795), np.float64(0.011199422151747138), np.float64(0.011201018196581217), np.float64(0.011202613458271372), np.float64(0.011204207931287548), np.float64(0.011205801610133159), np.float64(0.011207394489345095), np.float64(0.011208986563493298), np.float64(0.011210577827180615), np.float64(0.01121216827504337), np.float64(0.011213757901750084), np.float64(0.011215346702002351), np.float64(0.011216934670534022), np.float64(0.011218521802111352), np.float64(0.011220108091532939), np.float64(0.011221693533629347), np.float64(0.011223278123263318), np.float64(0.011224861855329147), np.float64(0.011226444724753084), np.float64(0.011228026726492804), np.float64(0.011229607855537298), np.float64(0.011231188106907116), np.float64(0.011232767475653728), np.float64(0.01123434595685986), np.float64(0.011235923545638918), np.float64(0.01123750023713519), np.float64(0.01123907602652361), np.float64(0.011240650909009546), np.float64(0.01124222487982883), np.float64(0.011243797934247452), np.float64(0.011245370067561529), np.float64(0.011246941275097254)]</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -5714,25 +6339,30 @@
         <v>100</v>
       </c>
       <c r="F126" t="n">
-        <v>0.04008593880167339</v>
+        <v>0.02687244527945113</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.27676019374064986), np.float64(0.2639467719902738), np.float64(0.395830723346649), np.float64(0.6142141794974303)], [np.float64(0.8214069512725296), np.float64(0.9204697052830618), np.float64(0.9390510511394395), np.float64(0.044626460678365516)], [np.float64(0.6975673709666138), np.float64(0.08567707485560375), np.float64(0.5476588669366416), np.float64(0.20199356365431542)], [np.float64(0.6780887886877728), np.float64(0.22955389887722533), np.float64(0.009739191991766432), np.float64(0.7022994337589068)]], [[np.float64(0.5489272378296206), np.float64(0.5459964869131914), np.float64(0.6117679389862194)], [np.float64(0.763261856315656), np.float64(0.07178950023015937), np.float64(0.2420633055400426)], [np.float64(0.5463749974407328), np.float64(-0.09351819641198524), np.float64(0.6219015030991066)], [np.float64(0.7708340701460983), np.float64(0.29541508287298346), np.float64(-0.13719353611546378)]]]</t>
+          <t>[[[np.float64(0.24870867550866874), np.float64(0.7207049224969738), np.float64(0.7825313564532154), np.float64(0.7332662461920473)], [np.float64(0.7607906216318979), np.float64(0.7839858387486331), np.float64(0.7698513708806493), np.float64(0.053894128438445245)], [np.float64(0.48156273053313536), np.float64(0.35644598461098964), np.float64(0.6601721937528235), np.float64(0.7475196821980019)], [np.float64(0.37811991301855813), np.float64(0.9366602804831823), np.float64(0.8156055967623618), np.float64(0.4266609489984643)]], [[np.float64(0.9557869265310792), np.float64(-0.011206790322189346), np.float64(0.8620579096583137)], [np.float64(0.16431473620433368), np.float64(0.01597416830515186), np.float64(0.5945519914195317)], [np.float64(0.5192470478887196), np.float64(0.6671921324911595), np.float64(0.61193842981897)], [np.float64(0.5451652597898728), np.float64(0.43451947769488286), np.float64(0.6721140143935032)]]]</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>[[0.4140916596444538, 0.1907865123685739, 0.4762375503806925, np.float64(0.14898453015921526)], [0.25853340724676366, 0.2080482338102554, np.float64(0.17201125705561804)]]</t>
+          <t>[[0.33675378952181323, 0.8899393665660917, 0.44836945713849297, np.float64(0.6407157172794896)], [0.45633203510625076, 0.06982409200933315, np.float64(0.8505943264685452)]]</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>[np.float64(0.3229862469158047), np.float64(0.7384439860533595), np.float64(0.753597996979136)]</t>
+          <t>[np.float64(0.15923282598359806), np.float64(0.281971750137909), np.float64(0.42610992551687565)]</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>0.5622863198830161</v>
+        <v>0.8439082379060779</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>[np.float64(0.027482321775964547), np.float64(0.027476528426413096), np.float64(0.02747072773972109), np.float64(0.027464919710794015), np.float64(0.027459104334549272), np.float64(0.02745328160592091), np.float64(0.027447451519853457), np.float64(0.027441614071303345), np.float64(0.0274357692552445), np.float64(0.027429917066662007), np.float64(0.02742405750055593), np.float64(0.027418190551937442), np.float64(0.02741231621583517), np.float64(0.02740643448729064), np.float64(0.027400545361357165), np.float64(0.027394648833105977), np.float64(0.02738874489761897), np.float64(0.0273828335499951), np.float64(0.0273769147853464), np.float64(0.027370988598800754), np.float64(0.027365054985498658), np.float64(0.02735911394059754), np.float64(0.02735316545926741), np.float64(0.027347209536696417), np.float64(0.02734124616808536), np.float64(0.02733527534865013), np.float64(0.027329297073623308), np.float64(0.02732331133825262), np.float64(0.027317318137800885), np.float64(0.027311317467545546), np.float64(0.027305309322781263), np.float64(0.02729929369881889), np.float64(0.027293270590983975), np.float64(0.027287239994618212), np.float64(0.0272812019050811), np.float64(0.02727515631774664), np.float64(0.027269103228003622), np.float64(0.02726304263126116), np.float64(0.027256974522943442), np.float64(0.027250898898489712), np.float64(0.027244815753357746), np.float64(0.02723872508302254), np.float64(0.027232626882974346), np.float64(0.027226521148722132), np.float64(0.027220407875791393), np.float64(0.0272142870597251), np.float64(0.027208158696084266), np.float64(0.027202022780446675), np.float64(0.0271958793084074), np.float64(0.027189728275581197), np.float64(0.027183569677598638), np.float64(0.027177403510110214), np.float64(0.02717122976878381), np.float64(0.02716504844930338), np.float64(0.02715885954737526), np.float64(0.02715266305872046), np.float64(0.027146458979082976), np.float64(0.027140247304220894), np.float64(0.027134028029913857), np.float64(0.027127801151959778), np.float64(0.02712156666617588), np.float64(0.02711532456839949), np.float64(0.027109074854484536), np.float64(0.027102817520308395), np.float64(0.027096552561763895), np.float64(0.027090279974766915), np.float64(0.02708399975525042), np.float64(0.027077711899168827), np.float64(0.0270714164024966), np.float64(0.027065113261228783), np.float64(0.027058802471378592), np.float64(0.027052484028982512), np.float64(0.02704615793009534), np.float64(0.027039824170794452), np.float64(0.027033482747176627), np.float64(0.027027133655359893), np.float64(0.02702077689148419), np.float64(0.027014412451709106), np.float64(0.0270080403322161), np.float64(0.027001660529209534), np.float64(0.026995273038912953), np.float64(0.02698887785757389), np.float64(0.02698247498145986), np.float64(0.026976064406861896), np.float64(0.026969646130092086), np.float64(0.026963220147485246), np.float64(0.02695678645539684), np.float64(0.02695034505020853), np.float64(0.026943895928321207), np.float64(0.02693743908615897), np.float64(0.026930974520170556), np.float64(0.02692450222682628), np.float64(0.02691802220262027), np.float64(0.026911534444068835), np.float64(0.026905038947713834), np.float64(0.02689853571011901), np.float64(0.026892024727871344), np.float64(0.026885505997583083), np.float64(0.026878979515889845), np.float64(0.026872445279451127)]</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -5756,25 +6386,30 @@
         <v>200</v>
       </c>
       <c r="F127" t="n">
-        <v>0.01591796131037599</v>
+        <v>0.02158133935625385</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.7932407318815152), np.float64(0.2226497935143775), np.float64(0.24062870729382696), np.float64(0.17766161606981087)], [np.float64(0.03896960545022926), np.float64(0.43044324433900305), np.float64(0.17523649643530578), np.float64(0.08466857420676188)], [np.float64(0.7013808665471039), np.float64(0.5428499335454399), np.float64(0.8003352331448303), np.float64(0.008198173485890399)], [np.float64(0.32790723443479136), np.float64(0.23594390622648584), np.float64(0.9743801303494501), np.float64(0.5738435640270523)]], [[np.float64(0.1393529740142096), np.float64(0.9000266740389401), np.float64(0.543557934874871)], [np.float64(0.2734595113385496), np.float64(0.5457900494176472), np.float64(0.1953494681761403)], [np.float64(0.36854403895633503), np.float64(0.5416925642141279), np.float64(0.1590966016511005)], [np.float64(0.8249196724477557), np.float64(0.6318312869232751), np.float64(0.7004699491080627)]]]</t>
+          <t>[[[np.float64(0.04598815198630628), np.float64(0.873499468179056), np.float64(0.3630452144331712), np.float64(0.5291713076197088)], [np.float64(0.05864063558835523), np.float64(0.9443938029631149), np.float64(0.1458457047141035), np.float64(0.3723797617219943)], [np.float64(0.632712882121335), np.float64(0.5320133203319163), np.float64(0.8864575305250115), np.float64(0.579990906324751)], [np.float64(0.3558767091877752), np.float64(0.7169860355917288), np.float64(0.8557478965828763), np.float64(0.7772317181186909)]], [[np.float64(-0.11360061227984498), np.float64(0.4966822877174417), np.float64(0.45264157489401136)], [np.float64(0.8559343416276006), np.float64(0.2972709947680496), np.float64(0.48281765062265025)], [np.float64(0.33373395399008365), np.float64(-0.2882078286291555), np.float64(0.8665807733371687)], [np.float64(0.6401851266207852), np.float64(0.11226188614582264), np.float64(0.5798128767660399)]]]</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>[[0.7589899149402213, 0.9842916417006704, 0.1332263439093987, np.float64(0.8740102834742693)], [0.47160814870636847, 0.9657548884808761, np.float64(0.9456230438694057)]]</t>
+          <t>[[0.5239263975845815, 0.9883343685656192, 0.8156781213399911, np.float64(0.031465344707760905)], [0.0008371804914278913, 0.8967560089275388, np.float64(0.11034601357607293)]]</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>[np.float64(0.6377870674537693), np.float64(0.05856645459153901), np.float64(0.0031007067891790797)]</t>
+          <t>[np.float64(0.4106020654529466), np.float64(0.9349990226661699), np.float64(0.16686814374258646)]</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>0.6544422884711318</v>
+        <v>0.2210243563149642</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>[np.float64(0.02619669812561775), np.float64(0.026177175185402052), np.float64(0.02615760316440455), np.float64(0.02613798213817915), np.float64(0.026118312184334042), np.float64(0.026098593382535156), np.float64(0.026078825814523858), np.float64(0.026059009564113243), np.float64(0.026039144717210624), np.float64(0.026019231361818225), np.float64(0.025999269588041742), np.float64(0.02597925948810256), np.float64(0.02595920115634347), np.float64(0.02593909468923836), np.float64(0.025918940185398164), np.float64(0.025898737745581032), np.float64(0.025878487472696055), np.float64(0.025858189471819264), np.float64(0.025837843850192093), np.float64(0.025817450717232134), np.float64(0.025797010184544375), np.float64(0.02577652236592341), np.float64(0.02575598737735787), np.float64(0.02573540533704389), np.float64(0.025714776365389755), np.float64(0.02569410058501785), np.float64(0.02567337812077972), np.float64(0.025652609099751086), np.float64(0.025631793651246654), np.float64(0.025610931906825084), np.float64(0.025590024000286486), np.float64(0.025569070067690252), np.float64(0.02554807024735105), np.float64(0.025527024679844898), np.float64(0.025505933508020686), np.float64(0.025484796876994596), np.float64(0.02546361493416464), np.float64(0.02544238782920838), np.float64(0.025421115714092436), np.float64(0.025399798743068767), np.float64(0.02537843707268547), np.float64(0.025357030861789503), np.float64(0.025335580271527866), np.float64(0.02531408546535197), np.float64(0.0252925466090176), np.float64(0.025270963870594697), np.float64(0.02524933742046368), np.float64(0.02522766743132028), np.float64(0.025205954078175545), np.float64(0.025184197538362603), np.float64(0.025162397991531724), np.float64(0.025140555619660204), np.float64(0.025118670607045708), np.float64(0.02509674314031181), np.float64(0.025074773408407944), np.float64(0.025052761602609726), np.float64(0.02503070791652), np.float64(0.02500861254606647), np.float64(0.02498647568950742), np.float64(0.024964297547424585), np.float64(0.024942078322729367), np.float64(0.024919818220656306), np.float64(0.024897517448764478), np.float64(0.024875176216937016), np.float64(0.0248527947373758), np.float64(0.024830373224611384), np.float64(0.02480791189548411), np.float64(0.024785410969154348), np.float64(0.02476287066709788), np.float64(0.02474029121309822), np.float64(0.024717672833247262), np.float64(0.024695015755941734), np.float64(0.02467232021188507), np.float64(0.024649586434070784), np.float64(0.02462681465779123), np.float64(0.024604005120629543), np.float64(0.02458115806244894), np.float64(0.024558273725399517), np.float64(0.024535352353902345), np.float64(0.024512394194652974), np.float64(0.024489399496605252), np.float64(0.02446636851097894), np.float64(0.02444330149124585), np.float64(0.02442019869312083), np.float64(0.024397060374564544), np.float64(0.024373886795765642), np.float64(0.024350678219143527), np.float64(0.024327434909332417), np.float64(0.02430415713318239), np.float64(0.02428084515974197), np.float64(0.024257499260259694), np.float64(0.024234119708167648), np.float64(0.024210706779079386), np.float64(0.024187260750775125), np.float64(0.02416378190319549), np.float64(0.024140270518430595), np.float64(0.02411672688071141), np.float64(0.024093151276397665), np.float64(0.02406954399397223), np.float64(0.02404590532402592), np.float64(0.024022235559248456), np.float64(0.023998534994411805), np.float64(0.023974803926371205), np.float64(0.023951042654041084), np.float64(0.02392725147839045), np.float64(0.023903430702425236), np.float64(0.02387958063117677), np.float64(0.02385570157169252), np.float64(0.023831793833022582), np.float64(0.023807857726204806), np.float64(0.02378389356424654), np.float64(0.023759901662117968), np.float64(0.02373588233673144), np.float64(0.023711835906935198), np.float64(0.023687762693490492), np.float64(0.023663663019062506), np.float64(0.023639537208197472), np.float64(0.023615385587316524), np.float64(0.02359120848469254), np.float64(0.023567006230436005), np.float64(0.02354277915647993), np.float64(0.02351852759656496), np.float64(0.023494251886215175), np.float64(0.023469952362729567), np.float64(0.023445629365156734), np.float64(0.0234212832342837), np.float64(0.023396914312612715), np.float64(0.023372522944348106), np.float64(0.02334810947537296), np.float64(0.02332367425323374), np.float64(0.023299217627122337), np.float64(0.023274739947847997), np.float64(0.02325024156782737), np.float64(0.023225722841062838), np.float64(0.02320118412311934), np.float64(0.02317662577110635), np.float64(0.02315204814365663), np.float64(0.023127451600906537), np.float64(0.02310283650447705), np.float64(0.023078203217443246), np.float64(0.023053552104321907), np.float64(0.023028883531049777), np.float64(0.02300419786495448), np.float64(0.022979495474740267), np.float64(0.022954776730462315), np.float64(0.022930042003504434), np.float64(0.022905291666553744), np.float64(0.0228805260935794), np.float64(0.02285574565981215), np.float64(0.02283095074171523), np.float64(0.02280614171696828), np.float64(0.022781318964433975), np.float64(0.022756482864140667), np.float64(0.022731633797258413), np.float64(0.022706772146070187), np.float64(0.02268189829394979), np.float64(0.022657012625336884), np.float64(0.02263211552571247), np.float64(0.02260720738157075), np.float64(0.02258228858039762), np.float64(0.022557359510642704), np.float64(0.022532420561695465), np.float64(0.022507472123852824), np.float64(0.02248251458829971), np.float64(0.02245754834708914), np.float64(0.022432573793097058), np.float64(0.02240759132001154), np.float64(0.02238260132230012), np.float64(0.02235760419518641), np.float64(0.022332600334615142), np.float64(0.022307590137233237), np.float64(0.022282574000358595), np.float64(0.02225755232195584), np.float64(0.022232525500603353), np.float64(0.022207493935469634), np.float64(0.02218245802628592), np.float64(0.022157418173313327), np.float64(0.022132374777321166), np.float64(0.02210732823955429), np.float64(0.0220822789617106), np.float64(0.022057227345904092), np.float64(0.02203217379464148), np.float64(0.022007118710793284), np.float64(0.021982062497566013), np.float64(0.02195700555847159), np.float64(0.021931948297298384), np.float64(0.021906891118082972), np.float64(0.021881834425083794), np.float64(0.021856778622748946), np.float64(0.021831724115685132), np.float64(0.021806671308638163), np.float64(0.021781620606450676), np.float64(0.02175657241404222), np.float64(0.021731527136377573), np.float64(0.021706485178436357), np.float64(0.021681446945182963), np.float64(0.02165641284154272), np.float64(0.02163138327236512), np.float64(0.021606358642396614), np.float64(0.02158133935625385)]</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -5798,25 +6433,30 @@
         <v>100</v>
       </c>
       <c r="F128" t="n">
-        <v>0.01413591830247734</v>
+        <v>0.013703249848072</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.20346466614464617), np.float64(0.15976274687648384), np.float64(0.4061524640860834), np.float64(0.5695149309789796)], [np.float64(0.6503365397335195), np.float64(0.08702107947024208), np.float64(0.27391447957838116), np.float64(0.8490903948504877)], [np.float64(0.634290347150218), np.float64(0.7069015222465034), np.float64(0.7189166087159921), np.float64(0.0666063100821528)], [np.float64(0.5378510888911763), np.float64(0.8669892103059059), np.float64(0.16036764596387637), np.float64(0.5090573261683878)]], [[np.float64(-0.37074191577557764), np.float64(-0.949576711662889), np.float64(0.027531547244086702)], [np.float64(0.06576294011623147), np.float64(-0.5689675004667873), np.float64(0.1926412873108579)], [np.float64(0.1774995798744564), np.float64(-0.2819730593196682), np.float64(0.866420880059422)], [np.float64(0.13153007096353087), np.float64(-0.7192648330190872), np.float64(0.4045092144617794)]]]</t>
+          <t>[[[np.float64(0.22815797508815994), np.float64(0.7243245688112837), np.float64(0.33820211894136254), np.float64(0.9535493006048715)], [np.float64(0.37389390967783626), np.float64(0.4206943413111628), np.float64(0.7062815214645414), np.float64(-0.008907376796771505)], [np.float64(0.575567498721232), np.float64(0.2990843980901448), np.float64(0.2004321474528159), np.float64(0.6618201804670616)], [np.float64(0.9731468361338982), np.float64(0.22823490274737226), np.float64(0.10146442158700414), np.float64(0.29860692692868607)]], [[np.float64(-0.13086877386745097), np.float64(-0.6563708437615267), np.float64(0.4877245038352839)], [np.float64(-0.40154201670578704), np.float64(0.07400245315266818), np.float64(0.13293985629827315)], [np.float64(0.19138917216084828), np.float64(-0.10814278630750505), np.float64(0.8338895246513437)], [np.float64(0.07550481939706198), np.float64(-0.48972960492539247), np.float64(0.2624417672913064)]]]</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>[[0.9350046981874869, 0.6127194268148143, 0.7763243778735474, np.float64(0.4444928010545147)], [0.3850036876465839, 0.6302515653010992, np.float64(0.8417993337463391)]]</t>
+          <t>[[0.4400803535781913, 0.36870779003754406, 0.25497343838573217, np.float64(0.5600009115016847)], [0.4585227427921026, 0.4626660493380368, np.float64(0.37336653711084977)]]</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>[np.float64(0.3186378651075203), np.float64(0.8906119187351379), np.float64(0.10964376830333569)]</t>
+          <t>[np.float64(0.5482517943981327), np.float64(0.7172864551419408), np.float64(0.08744406679968965)]</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>0.7116208640255618</v>
+        <v>0.4913863093543165</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>[np.float64(0.027829911057671998), np.float64(0.027582922439503433), np.float64(0.02733307773178812), np.float64(0.027080613749969396), np.float64(0.026825778789567118), np.float64(0.02656883174563987), np.float64(0.02631004112609663), np.float64(0.02604968396502547), np.float64(0.025788044643999926), np.float64(0.02552541363098401), np.float64(0.02526208614808954), np.float64(0.024998360780840792), np.float64(0.024734538042904933), np.float64(0.024470918911233357), np.float64(0.024207803347328676), np.float64(0.02394548882081413), np.float64(0.023684268851647955), np.float64(0.023424431587114918), np.float64(0.023166258429287448), np.float64(0.02291002272779483), np.float64(0.022655988551668234), np.float64(0.02240440955265808), np.float64(0.02215552793084306), np.float64(0.021909573511579072), np.float64(0.021666762940926496), np.float64(0.02142729900472775), np.float64(0.02119137007446835), np.float64(0.02095914968110003), np.float64(0.0207307962160333), np.float64(0.020506452756719945), np.float64(0.020286247012588386), np.float64(0.020070291385571048), np.float64(0.01985868313821707), np.float64(0.019651504661307235), np.float64(0.019448823832012404), np.float64(0.019250694453095674), np.float64(0.01905715676316626), np.float64(0.0188682380079164), np.float64(0.018683953062184108), np.float64(0.018504305092939793), np.float64(0.01832928625358478), np.float64(0.01815887840044902), np.float64(0.017993053822915744), np.float64(0.017831775979264303), np.float64(0.017675000231043982), np.float64(0.01752267456949957), np.float64(0.017374740328373724), np.float64(0.01723113287814247), np.float64(0.0170917822975026), np.float64(0.016956614018635446), np.float64(0.01682554944348583), np.float64(0.01669850652888353), np.float64(0.01657540033897301), np.float64(0.016456143563917672), np.float64(0.01634064700434685), np.float64(0.016228820021413477), np.float64(0.01612057095272103), np.float64(0.016015807494682746), np.float64(0.01591443705215517), np.float64(0.015816367056378348), np.float64(0.015721505252458558), np.float64(0.015629759957763365), np.float64(0.015541040292672602), np.float64(0.015455256385234584), np.float64(0.0153723195512851), np.float64(0.01529214245162904), np.float64(0.015214639227856395), np.float64(0.015139725618384971), np.float64(0.015067319056217153), np.float64(0.014997338749938704), np.float64(0.014929705749365705), np.float64(0.01486434299719579), np.float64(0.014801175367993783), np.float64(0.014740129695719311), np.float64(0.014681134790945656), np.float64(0.014624121448880438), np.float64(0.014569022449167556), np.float64(0.014515772548437724), np.float64(0.014464308466447693), np.float64(0.014414568866630912), np.float64(0.014366494331789199), np.float64(0.01432002733558737), np.float64(0.014275112210479678), np.float64(0.014231695112622567), np.float64(0.014189723984267292), np.float64(0.014149148514111755), np.float64(0.014109920096007545), np.float64(0.014071991786385898), np.float64(0.014035318260750234), np.float64(0.013999855769515675), np.float64(0.013965562093457659), np.float64(0.013932396498998554), np.float64(0.013900319693537878), np.float64(0.013869293781000722), np.float64(0.013839282217750774), np.float64(0.01381024976901039), np.float64(0.013782162465896699), np.float64(0.013754987563158773), np.float64(0.013728693497722398), np.float64(0.013703249848072004)]</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -5840,25 +6480,30 @@
         <v>200</v>
       </c>
       <c r="F129" t="n">
-        <v>0.01273556392971089</v>
+        <v>0.01332425155303836</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.8689848621090165), np.float64(0.44468540775030624), np.float64(0.8004352068299776), np.float64(0.0946622629309043)], [np.float64(0.41699531680275587), np.float64(0.8674518844669228), np.float64(0.05436147694188671), np.float64(0.7365183647417665)], [np.float64(0.17571787763830565), np.float64(0.2590841009361767), np.float64(0.7467827797538887), np.float64(0.8194569837774883)], [np.float64(0.8971033523659672), np.float64(0.708448615206026), np.float64(0.2633959269499713), np.float64(0.6697791905823368)]], [[np.float64(-0.4888936296559213), np.float64(-0.11363266408511778), np.float64(0.8082774731301055)], [np.float64(-0.05418289318415154), np.float64(-0.6976647514775373), np.float64(0.6866447055509595)], [np.float64(-0.07079900205801101), np.float64(0.2143233347536257), np.float64(0.3762474294005602)], [np.float64(0.16852932321348602), np.float64(0.2214069624574238), np.float64(0.4722261852088329)]]]</t>
+          <t>[[[np.float64(1.0998431717769985), np.float64(0.5042283262007875), np.float64(0.5321765551100656), np.float64(0.2720154147486745)], [np.float64(0.6304772119861307), np.float64(0.6256264211425296), np.float64(1.0098161176120857), np.float64(0.48617492768141385)], [np.float64(0.703886401245989), np.float64(0.25471586189494394), np.float64(0.3868962473924389), np.float64(0.3991153672867164)], [np.float64(1.0203772308350016), np.float64(0.658157873914806), np.float64(0.5448893858804559), np.float64(0.6725576202782639)]], [[np.float64(-1.3389570710499465), np.float64(-1.4441284715457348), np.float64(0.4759502831759512)], [np.float64(-0.8509880664709842), np.float64(-0.46599284760223214), np.float64(0.5416624500533423)], [np.float64(-1.089484284955041), np.float64(-1.3812193133880075), np.float64(-0.045365806528793635)], [np.float64(-1.223931970321202), np.float64(-0.8623154521126292), np.float64(0.5680423082372112)]]]</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>[[0.6028033157388645, 0.6250817280762843, 0.7945331254413135, np.float64(0.44440231697954563)], [0.9751062083321108, 0.6321624099696809, np.float64(-0.025250987137437658)]]</t>
+          <t>[[0.12959889705017558, 0.04073361855114821, 0.8877056964912028, np.float64(0.8992304072706025)], [0.0057751082406564125, 0.5395190717957056, np.float64(-0.14863742702687072)]]</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>[np.float64(0.6411629230716399), np.float64(0.7639155788765295), np.float64(0.0850040975982861)]</t>
+          <t>[np.float64(0.8303003676200725), np.float64(0.8580403365354328), np.float64(0.12515142233802287)]</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>0.1669474350184504</v>
+        <v>0.9720504710996123</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>[np.float64(0.05569985775606188), np.float64(0.05480837905337115), np.float64(0.053873231434833836), np.float64(0.052896262194012646), np.float64(0.05187994000067902), np.float64(0.050827359323410544), np.float64(0.04974222391193348), np.float64(0.048628807617316964), np.float64(0.047491892192619685), np.float64(0.04633668329092082), np.float64(0.045168707504810196), np.float64(0.04399369478937552), np.float64(0.042817451800024074), np.float64(0.04164573241094543), np.float64(0.0404841118711817), np.float64(0.03933787068691498), np.float64(0.03821189344741509), np.float64(0.037110586555601975), np.float64(0.03603781733849238), np.float64(0.034996875467271926), np.float64(0.033990456167762015), np.float64(0.03302066347501655), np.float64(0.03208903086161736), np.float64(0.031196555982810986), np.float64(0.03034374602522042), np.float64(0.029530670178714417), np.float64(0.028757016011833482), np.float64(0.02802214694912112), np.float64(0.02732515855543086), np.float64(0.026664931867062137), np.float64(0.02604018252559694), np.float64(0.025449504934594334), np.float64(0.02489141105284907), np.float64(0.02436436375280055), np.float64(0.023866804910084725), np.float64(0.023397178556491448), np.float64(0.022953949534384968), np.float64(0.022535618146736148), np.float64(0.022140731315268645), np.float64(0.021767890749536636), np.float64(0.021415758601484824), np.float64(0.02108306103981416), np.float64(0.020768590132330893), np.float64(0.020471204376164863), np.float64(0.02018982816831221), np.float64(0.0199234504643573), np.float64(0.019671122832391193), np.float64(0.019431957072792896), np.float64(0.01920512254267364), np.float64(0.018989843296442585), np.float64(0.018785395130684755), np.float64(0.018591102602095167), np.float64(0.018406336071051167), np.float64(0.018230508810196198), np.float64(0.018063074206673094), np.float64(0.01790352307803969), np.float64(0.01775138111502515), np.float64(0.017606206458945728), np.float64(0.0174675874174067), np.float64(0.01733514031872123), np.float64(0.017208507503175905), np.float64(0.017087355447374785), np.float64(0.016971373016841), np.float64(0.016860269841056312), np.float64(0.016753774804709624), np.float64(0.016651634648591544), np.float64(0.016553612673487927), np.float64(0.016459487540457937), np.float64(0.01636905216107746), np.float64(0.01628211267134446), np.float64(0.016198487483324607), np.float64(0.016118006408823354), np.float64(0.016040509849742285), np.float64(0.01596584805004771), np.float64(0.015893880404686263), np.float64(0.015824474821013537), np.float64(0.015757507128648214), np.float64(0.01569286053398178), np.float64(0.015630425115819666), np.float64(0.015570097358914247), np.float64(0.015511779722396061), np.float64(0.015455380240331136), np.float64(0.015400812151907972), np.float64(0.015347993558847951), np.float64(0.015296847107954708), np.float64(0.015247299696788343), np.float64(0.015199282200658162), np.float64(0.015152729219265361), np.float64(0.015107578841464964), np.float64(0.015063772426752149), np.float64(0.015021254402144432), np.float64(0.014979972073314864), np.float64(0.014939875448865398), np.float64(0.014900917076731414), np.float64(0.014863051891818083), np.float64(0.014826237074003894), np.float64(0.01479043191574415), np.float64(0.014755597698555348), np.float64(0.014721697577725288), np.float64(0.014688696474637832), np.float64(0.014656560976163212), np.float64(0.014625259240592815), np.float64(0.014594760909647465), np.float64(0.014565037026136377), np.float64(0.014536059956825614), np.float64(0.014507803320209692), np.float64(0.01448024191877851), np.float64(0.014453351675502447), np.float64(0.014427109574235965), np.float64(0.014401493603762763), np.float64(0.014376482705239719), np.float64(0.01435205672280376), np.float64(0.01432819635714001), np.float64(0.014304883121791177), np.float64(0.014282099302046776), np.float64(0.014259827916232821), np.float64(0.014238052679242906), np.float64(0.014216757968169177), np.float64(0.01419592878989644), np.float64(0.014175550750518628), np.float64(0.014155610026499272), np.float64(0.01413609333741563), np.float64(0.014116987920229735), np.float64(0.014098281504968054), np.float64(0.01407996229171958), np.float64(0.014062018928891393), np.float64(0.014044440492630938), np.float64(0.014027216467336881), np.float64(0.014010336727210108), np.float64(0.013993791518769672), np.float64(0.013977571444289634), np.float64(0.01396166744608058), np.float64(0.013946070791591074), np.float64(0.013930773059261272), np.float64(0.01391576612509788), np.float64(0.013901042149927838), np.float64(0.013886593567278404), np.float64(0.013872413071873998), np.float64(0.013858493608679742), np.float64(0.013844828362500797), np.float64(0.013831410748072847), np.float64(0.013818234400639246), np.float64(0.013805293166973312), np.float64(0.013792581096829586), np.float64(0.013780092434803059), np.float64(0.013767821612564353), np.float64(0.013755763241460479), np.float64(0.013743912105453657), np.float64(0.013732263154393678), np.float64(0.013720811497585837), np.float64(0.013709552397662247), np.float64(0.013698481264718749), np.float64(0.013687593650721626), np.float64(0.013676885244161342), np.float64(0.013666351864940453), np.float64(0.013655989459487632), np.float64(0.01364579409608091), np.float64(0.013635761960385346), np.float64(0.013625889351163684), np.float64(0.013616172676189389), np.float64(0.013606608448323097), np.float64(0.01359719328175527), np.float64(0.013587923888408474), np.float64(0.01357879707448919), np.float64(0.013569809737182819), np.float64(0.013560958861488216), np.float64(0.013552241517172268), np.float64(0.013543654855858218), np.float64(0.013535196108228207), np.float64(0.013526862581334077), np.float64(0.013518651656024184), np.float64(0.01351056078446424), np.float64(0.013502587487759782), np.float64(0.013494729353675631), np.float64(0.01348698403443554), np.float64(0.013479349244613277), np.float64(0.013471822759101915), np.float64(0.013464402411168272), np.float64(0.013457086090567998), np.float64(0.013449871741748488), np.float64(0.013442757362100983), np.float64(0.013435741000295773), np.float64(0.013428820754668586), np.float64(0.013421994771671148), np.float64(0.01341526124437576), np.float64(0.01340861841103574), np.float64(0.013402064553699144), np.float64(0.013395597996876979), np.float64(0.013389217106244624), np.float64(0.013382920287410035), np.float64(0.013376705984710184), np.float64(0.01337057268005501), np.float64(0.013364518891814826), np.float64(0.013358543173742594), np.float64(0.013352644113936924), np.float64(0.013346820333838834), np.float64(0.01334107048726379), np.float64(0.013335393259466243), np.float64(0.013329787366238584), np.float64(0.01332425155303836)]</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -5882,25 +6527,30 @@
         <v>100</v>
       </c>
       <c r="F130" t="n">
-        <v>0.01163901339217508</v>
+        <v>0.01353763501606558</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.09023085455491182), np.float64(-0.011346181070776316), np.float64(0.48998086540211094), np.float64(0.06885799528048205)], [np.float64(0.5684398665362782), np.float64(-0.05622266668078007), np.float64(0.07404123516749637), np.float64(0.5528075810496502)], [np.float64(0.7153186550507671), np.float64(0.3340094269861164), np.float64(0.3702810270073344), np.float64(0.8428505730537643)], [np.float64(0.5356741351372039), np.float64(-0.022786781270823113), np.float64(0.5167322390390702), np.float64(0.14226919474077038)]], [[np.float64(0.02110780641446404), np.float64(0.28255787148541944), np.float64(0.04348687527801945)], [np.float64(0.9138010036426457), np.float64(0.17103851577014278), np.float64(0.2569756305218447)], [np.float64(0.2162909099689187), np.float64(0.06975474786302349), np.float64(0.12693739018876762)], [np.float64(0.2083389493430711), np.float64(0.4285560481787922), np.float64(-0.23462020335482028)]]]</t>
+          <t>[[[np.float64(0.30711197742138), np.float64(0.01051487567214203), np.float64(0.36037230251590735), np.float64(0.4581386973020474)], [np.float64(0.5733916095681196), np.float64(0.08236490099100735), np.float64(0.6165902171984217), np.float64(0.6625644875111181)], [np.float64(0.5142070098051322), np.float64(0.7324365169261848), np.float64(0.2344800946925233), np.float64(0.7721521114192678)], [np.float64(0.3999566601411994), np.float64(0.5807539205517765), np.float64(0.022870597537742333), np.float64(0.643442630871425)]], [[np.float64(-0.45644541173578873), np.float64(0.5432636925318098), np.float64(0.20277083540978755)], [np.float64(0.07988617520410424), np.float64(0.061257308294184826), np.float64(0.5447167186671182)], [np.float64(0.19329899233332148), np.float64(-0.00694038206684072), np.float64(-0.05423288626622276)], [np.float64(-0.2618031818014003), np.float64(-0.0031054699195594664), np.float64(0.5628703033116723)]]]</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>[[0.05336547731619623, 0.25363082334100795, 0.3252407236374456, np.float64(0.2279446592237755)], [0.906181799470583, 0.6409198124390931, np.float64(0.19146660164885893)]]</t>
+          <t>[[0.3264131976549772, 0.5886485950959907, 0.5624370799259547, np.float64(0.020959426987527355)], [0.0009783736125612563, 0.9890077643079223, np.float64(0.010094348525124768)]]</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>[np.float64(0.1966547518314134), np.float64(0.5289592480569514), np.float64(0.6430789082517219)]</t>
+          <t>[np.float64(0.8652882674091963), np.float64(0.8629965061677474), np.float64(0.347913223592589)]</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>0.1749380692332654</v>
+        <v>0.2339475407583569</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>[np.float64(0.08553394060066939), np.float64(0.08538102399720451), np.float64(0.085203096198091), np.float64(0.08499562092854045), np.float64(0.0847530802373826), np.float64(0.08446870423643556), np.float64(0.08413410760635295), np.float64(0.08373879484864062), np.float64(0.08326947881953366), np.float64(0.08270913112102538), np.float64(0.08203564456862521), np.float64(0.08121993257638503), np.float64(0.08022321474356153), np.float64(0.07899314876135206), np.float64(0.07745840807088356), np.float64(0.07552142358766867), np.float64(0.07304975669130805), np.float64(0.06986911686224338), np.float64(0.06576782997852204), np.float64(0.06053641137992686), np.float64(0.054080492460423756), np.float64(0.046617844314311596), np.float64(0.03882746214308206), np.float64(0.031673242286057834), np.float64(0.02590147909576797), np.float64(0.021711166798779147), np.float64(0.018874100534669133), np.float64(0.01702274951354742), np.float64(0.015830196907375638), np.float64(0.015060717135867391), np.float64(0.014559639562845098), np.float64(0.014229440137480787), np.float64(0.014009267217150645), np.float64(0.013860939238944905), np.float64(0.013760173939287195), np.float64(0.013691276158205439), np.float64(0.013643939216085572), np.float64(0.013611300515802512), np.float64(0.0135887387175871), np.float64(0.01357311427103223), np.float64(0.013562280126408905), np.float64(0.01355476081399511), np.float64(0.013549538805017153), np.float64(0.013545910613837458), np.float64(0.013543389006065575), np.float64(0.01354163609882528), np.float64(0.01354041737342429), np.float64(0.013539569953976099), np.float64(0.013538980672534328), np.float64(0.013538570875126906), np.float64(0.013538285884202257), np.float64(0.013538087684241565), np.float64(0.013537949841604512), np.float64(0.013537853974697015), np.float64(0.013537787300552915), np.float64(0.013537740929314892), np.float64(0.013537708678423344), np.float64(0.013537686248081287), np.float64(0.013537670647846325), np.float64(0.013537659797928281), np.float64(0.013537652251816846), np.float64(0.013537647003507578), np.float64(0.013537643353324226), np.float64(0.013537640814621409), np.float64(0.013537639048956563), np.float64(0.013537637820937719), np.float64(0.013537636966847424), np.float64(0.013537636372831034), np.float64(0.013537635959683532), np.float64(0.013537635672341751), np.float64(0.013537635472500593), np.float64(0.01353763533350916), np.float64(0.013537635236837361), np.float64(0.013537635169606979), np.float64(0.013537635122848255), np.float64(0.013537635090321925), np.float64(0.013537635067703278), np.float64(0.013537635051974242), np.float64(0.013537635041037131), np.float64(0.013537635033428324), np.float64(0.013537635028140474), np.float64(0.013537635024460471), np.float64(0.013537635021897313), np.float64(0.01353763502011154), np.float64(0.013537635018867124), np.float64(0.013537635018004108), np.float64(0.013537635017408267), np.float64(0.013537635016993057), np.float64(0.013537635016705138), np.float64(0.013537635016499001), np.float64(0.013537635016359162), np.float64(0.013537635016260671), np.float64(0.013537635016192399), np.float64(0.013537635016152481), np.float64(0.013537635016120354), np.float64(0.013537635016094797), np.float64(0.01353763501608577), np.float64(0.013537635016078776), np.float64(0.013537635016072086), np.float64(0.013537635016065584)]</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -5924,25 +6574,30 @@
         <v>200</v>
       </c>
       <c r="F131" t="n">
-        <v>0.007257395555718017</v>
+        <v>0.01272265128963589</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.7841027749070163), np.float64(0.04361491213650471), np.float64(0.2668908104548755), np.float64(0.3843647281686239)], [np.float64(0.43657652976502215), np.float64(-0.03907596963142449), np.float64(0.4116400989393539), np.float64(0.5066198178959689)], [np.float64(0.699953231415762), np.float64(0.7675946629686112), np.float64(0.10591275639713593), np.float64(-0.12131430635413987)], [np.float64(0.1934220924116657), np.float64(0.3290900281776777), np.float64(-0.06426241348657184), np.float64(0.6608894892225783)]], [[np.float64(-0.4351397128407369), np.float64(-0.29103353254234404), np.float64(0.0009864345184114611)], [np.float64(-0.32107362215299406), np.float64(0.38140379023435406), np.float64(0.4428841110132863)], [np.float64(-0.005841089783115806), np.float64(0.6383149892436834), np.float64(0.3969054067425495)], [np.float64(0.009811997256976148), np.float64(0.6285861594925254), np.float64(0.8739363659043075)]]]</t>
+          <t>[[[np.float64(0.6263708344951533), np.float64(0.5154595546901843), np.float64(0.58719460972088), np.float64(0.48612616617340615)], [np.float64(0.13927712788277827), np.float64(0.5247682396909764), np.float64(0.8775093265833932), np.float64(0.21075645964190348)], [np.float64(0.19008516603085046), np.float64(0.5854728409080898), np.float64(0.6115915489568228), np.float64(0.7473130823742518)], [np.float64(0.4783889741309921), np.float64(0.6524433307501805), np.float64(0.5788829586665912), np.float64(0.620996138497923)]], [[np.float64(0.13299152877402437), np.float64(0.10590368161067085), np.float64(-0.462034051661933)], [np.float64(-0.20319050884729367), np.float64(0.7340777858072726), np.float64(-0.5007696696462982)], [np.float64(-0.2790084412638658), np.float64(0.511631241504866), np.float64(-0.3995283335037101)], [np.float64(0.40677758602228686), np.float64(0.34255379654925683), np.float64(-0.39208734970347553)]]]</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>[[0.6574995190792526, 0.9600495846902335, 0.23823640674767943, np.float64(-0.25591584111490534)], [0.06101173939833471, 0.21607298312577172, np.float64(0.8219179154892654)]]</t>
+          <t>[[0.9598085559285883, 0.8233519972626968, 0.18309947551002947, np.float64(0.41824920918931396)], [0.9204845290376369, 0.13546840828172957, np.float64(0.07346409077922708)]]</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>[np.float64(0.6862860164885486), np.float64(0.8630889478927782), np.float64(0.309032353160873)]</t>
+          <t>[np.float64(0.4733703824489351), np.float64(0.4034135629350637), np.float64(0.5284516886414912)]</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>0.4164078743307978</v>
+        <v>0.7237075383753708</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>[np.float64(0.07740107133306054), np.float64(0.07669517439071893), np.float64(0.07585240497876813), np.float64(0.07483864211823275), np.float64(0.0736101699341776), np.float64(0.07211194408990201), np.float64(0.07027740539723494), np.float64(0.06803274244132872), np.float64(0.06531070856905816), np.float64(0.062079595574042835), np.float64(0.05838508455002076), np.float64(0.05438084880494226), np.float64(0.05030716825014965), np.float64(0.0464104317703076), np.float64(0.042861963945304546), np.float64(0.039733653471165295), np.float64(0.037022982532874595), np.float64(0.03468927336449908), np.float64(0.032679531267033206), np.float64(0.030941765640581487), np.float64(0.029430226206084913), np.float64(0.028106598656105757), np.float64(0.02693951962865849), np.float64(0.025903551630589442), np.float64(0.024978102955266507), np.float64(0.024146469193708726), np.float64(0.023395040314747283), np.float64(0.02271266580182264), np.float64(0.022090153983417855), np.float64(0.021519879529242964), np.float64(0.020995475979952785), np.float64(0.020511594350595307), np.float64(0.020063712852910275), np.float64(0.019647986161962866), np.float64(0.019261125348004213), np.float64(0.018900301682770557), np.float64(0.018563069124545643), np.float64(0.018247301496746512), np.float64(0.0179511412912876), np.float64(0.017672957722670097), np.float64(0.017411312186504338), np.float64(0.017164929678762965), np.float64(0.016932675040378934), np.float64(0.01671353312917329), np.float64(0.0165065922046832), np.float64(0.016311029954422306), np.float64(0.01612610170166166), np.float64(0.015951130422773643), np.float64(0.015785498271572232), np.float64(0.01562863936327531), np.float64(0.015480033614820537), np.float64(0.015339201473813744), np.float64(0.015205699396895749), np.float64(0.015079115961734092), np.float64(0.014959068515731694), np.float64(0.014845200280291963), np.float64(0.014737177842201677), np.float64(0.014634688974553446), np.float64(0.014537440738372317), np.float64(0.014445157823688774), np.float64(0.014357581094994227), np.float64(0.014274466311282387), np.float64(0.014195582995425988), np.float64(0.014120713431344793), np.float64(0.014049651770675112), np.float64(0.013982203233377996), np.float64(0.013918183389118658), np.float64(0.013857417508127731), np.float64(0.013799739972058387), np.float64(0.013744993736758348), np.float64(0.013693029840102108), np.float64(0.013643706949100965), np.float64(0.01359689094138469), np.float64(0.013552454516896895), np.float64(0.013510276836318336), np.float64(0.013470243183244262), np.float64(0.013432244647591839), np.float64(0.013396177828127078), np.float64(0.013361944552298635), np.float64(0.013329451611826528), np.float64(0.01329861051273901), np.float64(0.013269337238735898), np.float64(0.013241552026871927), np.float64(0.013215179154745483), np.float64(0.013190146738413297), np.float64(0.01316638654039836), np.float64(0.013143833787204285), np.float64(0.013122426995791876), np.float64(0.01310210780856322), np.float64(0.01308282083639904), np.float64(0.013064513509363114), np.float64(0.013047135934695694), np.float64(0.013030640761744915), np.float64(0.01301498305350818), np.float64(0.013000120164498367), np.float64(0.01298601162457642), np.float64(0.01297261902857412), np.float64(0.012959905931345519), np.float64(0.012947837748041912), np.float64(0.012936381659358816), np.float64(0.012925506521519128), np.float64(0.01291518278077503), np.float64(0.012905382392189968), np.float64(0.012896078742553633), np.float64(0.01288724657715684), np.float64(0.012878861930297211), np.float64(0.012870902059313367), np.float64(0.012863345381970256), np.float64(0.012856171417032587), np.float64(0.01284936072788846), np.float64(0.012842894869041745), np.float64(0.012836756335343404), np.float64(0.012830928513843591), np.float64(0.01282539563807644), np.float64(0.01282014274473539), np.float64(0.012815155632539262), np.float64(0.01281042082323002), np.float64(0.012805925524569748), np.float64(0.01280165759524239), np.float64(0.012797605511561047), np.float64(0.01279375833588035), np.float64(0.012790105686649397), np.float64(0.012786637709984734), np.float64(0.012783345052725131), np.float64(0.012780218836852833), np.float64(0.012777250635243296), np.float64(0.012774432448662018), np.float64(0.012771756683929143), np.float64(0.012769216133220093), np.float64(0.012766803954412695), np.float64(0.012764513652465033), np.float64(0.012762339061732275), np.float64(0.012760274329185068), np.float64(0.012758313898516716), np.float64(0.012756452495013436), np.float64(0.012754685111263393), np.float64(0.012753006993543071), np.float64(0.01275141362891676), np.float64(0.012749900733021671), np.float64(0.012748464238437042), np.float64(0.012747100283669504), np.float64(0.012745805202699127), np.float64(0.012744575515052035), np.float64(0.012743407916384104), np.float64(0.01274229926955591), np.float64(0.012741246596139481), np.float64(0.012740247068370625), np.float64(0.012739298001513657), np.float64(0.012738396846611122), np.float64(0.012737541183593713), np.float64(0.012736728714765305), np.float64(0.0127359572585877), np.float64(0.01273522474381908), np.float64(0.012734529203898535), np.float64(0.012733868771672293), np.float64(0.012733241674347955), np.float64(0.012732646228718322), np.float64(0.012732080836627031), np.float64(0.012731543980677593), np.float64(0.01273103422013294), np.float64(0.012730550187040406), np.float64(0.012730090582551158), np.float64(0.012729654173437816), np.float64(0.012729239788748481), np.float64(0.012728846316683239), np.float64(0.012728472701592143), np.float64(0.012728117941137823), np.float64(0.01272778108360619), np.float64(0.012727461225336559), np.float64(0.012727157508302372), np.float64(0.012726869117801713), np.float64(0.012726595280267372), np.float64(0.012726335261191305), np.float64(0.01272608836315099), np.float64(0.012725853923928318), np.float64(0.01272563131474305), np.float64(0.012725419938559076), np.float64(0.012725219228471701), np.float64(0.012725028646204393), np.float64(0.012724847680640748), np.float64(0.012724675846472784), np.float64(0.012724512682883268), np.float64(0.01272435775232192), np.float64(0.012724210639320962), np.float64(0.01272407094937494), np.float64(0.012723938307905637), np.float64(0.012723812359224351), np.float64(0.012723692765601586), np.float64(0.012723579206356543), np.float64(0.012723471376987662), np.float64(0.012723368988360904), np.float64(0.012723271765932498), np.float64(0.012723179449022248), np.float64(0.012723091790095549), np.float64(0.012723008554112588), np.float64(0.012722929517900371), np.float64(0.012722854469543474), np.float64(0.012722783207816876), np.float64(0.012722715541656457), np.float64(0.012722651289635895)]</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -5966,25 +6621,30 @@
         <v>100</v>
       </c>
       <c r="F132" t="n">
-        <v>0.01035500868626033</v>
+        <v>0.01271947177140656</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.05750351954237994), np.float64(-0.2551013313853062), np.float64(-0.17517554363916987), np.float64(0.3280074196214169)], [np.float64(-0.1899408549473024), np.float64(-0.3254189994477792), np.float64(-0.5549408954999808), np.float64(0.11151469210872486)], [np.float64(-0.21653078834904863), np.float64(-0.22186040402761453), np.float64(-0.2958631251708596), np.float64(0.336630321269221)], [np.float64(-0.3324481947309404), np.float64(0.3265269745139061), np.float64(0.5605709237361657), np.float64(-0.09862716376747747)]], [[np.float64(-0.05327967687639295), np.float64(-0.34418913475018653), np.float64(0.19643279985558354)], [np.float64(0.20666985565143578), np.float64(0.5492205264735882), np.float64(-0.18606083891917438)], [np.float64(-0.06528599186085862), np.float64(-0.3049358975743476), np.float64(0.2693867426130706)], [np.float64(-0.04409034126963534), np.float64(-0.19005792929023024), np.float64(0.4412369085549103)]]]</t>
+          <t>[[[np.float64(0.2620380867184847), np.float64(0.6217657613079832), np.float64(0.18943818979158608), np.float64(0.502333330121699)], [np.float64(0.16526389983826661), np.float64(0.4133136343528046), np.float64(0.4341714096984276), np.float64(0.626582388437814)], [np.float64(0.035774079582279794), np.float64(0.4036046119512921), np.float64(0.8926875587283105), np.float64(0.5819803144660941)], [np.float64(0.5050877357191522), np.float64(0.5348972129192662), np.float64(0.17083009975836316), np.float64(0.006648709084095838)]], [[np.float64(0.06664681128300703), np.float64(0.06935665059960533), np.float64(-0.3257605096493622)], [np.float64(-0.13102977672136376), np.float64(0.6511805700568398), np.float64(-0.41337372385580773)], [np.float64(-0.19620140309426223), np.float64(0.699778380487667), np.float64(-0.3144118796451899)], [np.float64(-0.0651942101058915), np.float64(0.3555941778503543), np.float64(0.23222653642238555)]]]</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>[[0.5012812784704036, 0.2965489400078378, 0.676191587261804, np.float64(-0.9073417046246363)], [0.9120132489812759, 0.9761181184074833, np.float64(0.1510145327130577)]]</t>
+          <t>[[0.07103273808647503, 0.5729029856023826, 0.4543430277468854, np.float64(-0.09997592741752782)], [0.6389948841695609, 0.376686826974006, np.float64(0.11122865645291599)]]</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>[np.float64(0.6919683814965057), np.float64(0.4942731273218218), np.float64(0.9119357509063896)]</t>
+          <t>[np.float64(0.44834752662513383), np.float64(0.27711887560317056), np.float64(0.5694743541537846)]</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>0.0541098848659095</v>
+        <v>0.8521935907922376</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>[np.float64(0.0806594723723286), np.float64(0.07801595243900006), np.float64(0.0702997844859623), np.float64(0.04289035680506628), np.float64(0.013444513590328765), np.float64(0.022736456393614594), np.float64(0.012719471771406563), np.float64(0.01810071796978125), np.float64(0.013052194592493647), np.float64(0.015890374549652905), np.float64(0.013613904369249329), np.float64(0.015006351285986387), np.float64(0.013985712623916952), np.float64(0.0146439144788285), np.float64(0.014181516578925028), np.float64(0.014487747442395981), np.float64(0.014276731747086742), np.float64(0.014418250961626617), np.float64(0.014321587921889712), np.float64(0.014386796219515647), np.float64(0.014342435242423937), np.float64(0.014372441881792155), np.float64(0.014352066073818651), np.float64(0.014365865841320928), np.float64(0.014356503129666118), np.float64(0.014362847774757112), np.float64(0.014358544804507274), np.float64(0.014361461482048645), np.float64(0.014359483730071081), np.float64(0.014360824469843544), np.float64(0.014359915410492578), np.float64(0.014360531706110034), np.float64(0.014360113856090675), np.float64(0.014360397144222124), np.float64(0.01436020507746516), np.float64(0.014360335293737255), np.float64(0.01436024700901151), np.float64(0.014360306864083686), np.float64(0.014360266283361466), np.float64(0.014360293796260342), np.float64(0.014360275143011447), np.float64(0.014360287789547566), np.float64(0.014360279215429875), np.float64(0.014360285028518835), np.float64(0.014360281087351628), np.float64(0.014360283759386494), np.float64(0.014360281947803154), np.float64(0.014360283176015875), np.float64(0.014360282343315267), np.float64(0.01436028290787018), np.float64(0.014360282525106767), np.float64(0.014360282784623141), np.float64(0.014360282608668735), np.float64(0.014360282727961768), np.float64(0.01436028264708964), np.float64(0.014360282701916053), np.float64(0.01436028266474385), np.float64(0.014360282689948739), np.float64(0.014360282672859673), np.float64(0.014360282684441965), np.float64(0.014360282676593663), np.float64(0.014360282681912837), np.float64(0.014360282678302236), np.float64(0.014360282680752864), np.float64(0.014360282679090904), np.float64(0.014360282680216352), np.float64(0.014360282679459772), np.float64(0.01436028267997129), np.float64(0.014360282679619502), np.float64(0.014360282679860623), np.float64(0.014360282679699677), np.float64(0.014360282679804147), np.float64(0.014360282679738368), np.float64(0.014360282679773809), np.float64(0.0143602826797524), np.float64(0.01436028267976766), np.float64(0.014360282679759516), np.float64(0.014360282679760946), np.float64(0.014360282679760942), np.float64(0.014360282679760946), np.float64(0.014360282679760946), np.float64(0.014360282679760946), np.float64(0.014360282679760946), np.float64(0.014360282679760946), np.float64(0.014360282679760946), np.float64(0.014360282679760946), np.float64(0.014360282679760946), np.float64(0.014360282679760946), np.float64(0.014360282679760947), np.float64(0.014360282679760947), np.float64(0.014360282679760947), np.float64(0.014360282679760947), np.float64(0.014360282679760947), np.float64(0.014360282679760947), np.float64(0.014360282679760947), np.float64(0.014360282679760947), np.float64(0.014360282679760947), np.float64(0.014360282679760947), np.float64(0.014360282679760947), np.float64(0.014360282679760947)]</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -6008,25 +6668,30 @@
         <v>200</v>
       </c>
       <c r="F133" t="n">
-        <v>0.01227762850466292</v>
+        <v>0.008725075052776018</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.30150248373868166), np.float64(0.9967442754842013), np.float64(1.0460829288782991), np.float64(0.1970897538110752)], [np.float64(0.47737753313901393), np.float64(0.6878563410592691), np.float64(0.8049988455087254), np.float64(0.5576313002417976)], [np.float64(0.623350693777321), np.float64(0.18810197208977478), np.float64(0.1539448318234525), np.float64(0.9786496563252698)], [np.float64(0.8484857067605744), np.float64(0.6831075707371251), np.float64(0.42389722349066294), np.float64(0.5781775724810001)]], [[np.float64(0.9962799628225617), np.float64(0.8154734539234822), np.float64(0.48166943584489186)], [np.float64(0.7073560883339453), np.float64(0.9289176719220601), np.float64(0.11111122018184368)], [np.float64(0.7293344678569469), np.float64(0.953211028458694), np.float64(0.8286182995281275)], [np.float64(0.2993451626958339), np.float64(1.2155362139375767), np.float64(0.8310094527798844)]]]</t>
+          <t>[[[np.float64(0.3060396750998125), np.float64(-0.07904553411827582), np.float64(-0.2590844733975576), np.float64(-0.09013708379616288)], [np.float64(0.0006102819340445869), np.float64(0.5525223898143597), np.float64(0.14506426437094977), np.float64(0.3942400837151579)], [np.float64(-0.055915447433702595), np.float64(0.16681727528647405), np.float64(0.10329527225721798), np.float64(0.21628460594596266)], [np.float64(0.5851184231868162), np.float64(0.029514625269733953), np.float64(0.34626451766879696), np.float64(-0.11792608413085014)]], [[np.float64(0.3791970188612744), np.float64(0.0072345216015081235), np.float64(-0.08671473798625781)], [np.float64(0.5177696063715824), np.float64(-0.017520964504322), np.float64(-0.502193578874188)], [np.float64(-0.06447275740757331), np.float64(0.2203091775792474), np.float64(-1.5061317922945382e-05)], [np.float64(0.6473580462730376), np.float64(0.42943481217386953), np.float64(-0.3303126404385616)]]]</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>[[0.9185239216102964, 0.4980115640951741, 0.7098663621796365, np.float64(0.8536575470845679)], [0.44120503863320226, 0.49823704457754514, np.float64(1.0789687127495167)]]</t>
+          <t>[[0.21495719634496802, 0.6496019541009034, 0.5907251317244853, np.float64(-0.395754202975841)], [0.21254499156910667, 0.4413733932706352, np.float64(-0.7668132476372859)]]</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>[np.float64(0.020240412194804606), np.float64(0.5797158304345262), np.float64(0.21938939780304254)]</t>
+          <t>[np.float64(0.4519342101753427), np.float64(0.8510685343229502), np.float64(0.49590256742077565)]</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>0.1488142574240586</v>
+        <v>0.7011400076927381</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>[np.float64(0.08833720129417263), np.float64(0.08416661369241031), np.float64(0.06848925218509266), np.float64(0.042450515240937375), np.float64(0.019837533804052093), np.float64(0.008725075052776018), np.float64(0.012190743314439886), np.float64(0.009076993078595004), np.float64(0.01135865799857815), np.float64(0.009353421751571766), np.float64(0.01090035324858835), np.float64(0.009562756830442215), np.float64(0.010622612196417962), np.float64(0.009717094501031583), np.float64(0.010446037964538317), np.float64(0.00982865449996018), np.float64(0.010330624589933033), np.float64(0.009908134987707208), np.float64(0.010253877747894963), np.float64(0.009964172288083085), np.float64(0.010202273183943034), np.float64(0.01000338800705996), np.float64(0.01016731898310019), np.float64(0.010030687838167898), np.float64(0.010143526380073754), np.float64(0.010049622590995408), np.float64(0.01012727746781493), np.float64(0.010062721770464599), np.float64(0.01011615541451951), np.float64(0.01007176772349694), np.float64(0.010108530884734273), np.float64(0.010078006918993025), np.float64(0.01010329852421596), np.float64(0.010082306563499033), np.float64(0.010099705211196606), np.float64(0.01008526785396349), np.float64(0.010097236291132905), np.float64(0.010087306554078208), np.float64(0.010095539351699379), np.float64(0.010088709704956235), np.float64(0.01009437273852648), np.float64(0.010089675248503436), np.float64(0.01009357058598943), np.float64(0.01009033957543867), np.float64(0.010093018972501257), np.float64(0.010090796613423426), np.float64(0.010092639617628038), np.float64(0.01009111102281035), np.float64(0.010092378714633784), np.float64(0.01009132730461012), np.float64(0.010092199271015125), np.float64(0.010091476080158495), np.float64(0.010092075850423689), np.float64(0.010091578417535522), np.float64(0.010091990960797173), np.float64(0.010091648810771035), np.float64(0.010091932572378436), np.float64(0.010091697230615865), np.float64(0.010091892411586447), np.float64(0.010091730535889609), np.float64(0.010091864787991305), np.float64(0.010091753444593989), np.float64(0.010091845787723144), np.float64(0.010091769202069183), np.float64(0.0100918327187843), np.float64(0.010091780040638569), np.float64(0.010091823729566147), np.float64(0.010091787495789682), np.float64(0.010091817546499916), np.float64(0.01009179262370812), np.float64(0.01009181329359228), np.float64(0.010091796150864902), np.float64(0.010091810368299717), np.float64(0.010091798576963322), np.float64(0.01009180835618449), np.float64(0.010091800245717274), np.float64(0.010091806972190982), np.float64(0.010091801393537932), np.float64(0.010091806020231875), np.float64(0.01009180218305288), np.float64(0.010091805365445336), np.float64(0.010091802726109529), np.float64(0.010091804915057252), np.float64(0.010091803099642704), np.float64(0.010091804605264034), np.float64(0.010091803356570419), np.float64(0.010091804392182248), np.float64(0.010091803533285601), np.float64(0.01009180424562872), np.float64(0.010091803654840959), np.float64(0.0100918041448171), np.float64(0.010091803738455897), np.float64(0.010091804075470157), np.float64(0.010091803795963927), np.float64(0.010091804027773732), np.float64(0.010091803835517596), np.float64(0.010091803994967686), np.float64(0.010091803862721228), np.float64(0.010091803972410199), np.float64(0.010091803881436712), np.float64(0.010091803956885501), np.float64(0.010091803894309694), np.float64(0.010091803946207869), np.float64(0.010091803903162368), np.float64(0.0100918039388638), np.float64(0.010091803909257676), np.float64(0.010091803933812128), np.float64(0.010091803913446332), np.float64(0.010091803930337654), np.float64(0.0100918039163262), np.float64(0.010091803927949264), np.float64(0.010091803918311552), np.float64(0.010091803926304684), np.float64(0.01009180391967869), np.float64(0.01009180392517005), np.float64(0.010091803920615048), np.float64(0.01009180392439646), np.float64(0.010091803921261069), np.float64(0.010091803923854576), np.float64(0.010091803921701996), np.float64(0.010091803923491502), np.float64(0.010091803922005297), np.float64(0.010091803923243634), np.float64(0.01009180392221178), np.float64(0.010091803923065069), np.float64(0.010091803922359132), np.float64(0.010091803922944988), np.float64(0.010091803922456304), np.float64(0.010091803922870755), np.float64(0.010091803922523214), np.float64(0.01009180392280882), np.float64(0.010091803922571599), np.float64(0.01009180392277278), np.float64(0.010091803922604748), np.float64(0.01009180392274086), np.float64(0.010091803922631473), np.float64(0.010091803922725975), np.float64(0.010091803922643172), np.float64(0.010091803922717746), np.float64(0.010091803922648846), np.float64(0.010091803922711827), np.float64(0.010091803922657606), np.float64(0.010091803922696782), np.float64(0.010091803922670211), np.float64(0.010091803922688559), np.float64(0.010091803922679015), np.float64(0.010091803922680737), np.float64(0.010091803922681306), np.float64(0.010091803922681367), np.float64(0.010091803922681367), np.float64(0.010091803922681372), np.float64(0.010091803922681379), np.float64(0.010091803922681383), np.float64(0.010091803922681388), np.float64(0.01009180392268139), np.float64(0.010091803922681393), np.float64(0.010091803922681395), np.float64(0.010091803922681395), np.float64(0.010091803922681398), np.float64(0.010091803922681407), np.float64(0.010091803922681409), np.float64(0.010091803922681409), np.float64(0.01009180392268141), np.float64(0.010091803922681412), np.float64(0.010091803922681416), np.float64(0.010091803922681416), np.float64(0.01009180392268142), np.float64(0.01009180392268142), np.float64(0.010091803922681422), np.float64(0.010091803922681426), np.float64(0.010091803922681431), np.float64(0.010091803922681435), np.float64(0.010091803922681431), np.float64(0.010091803922681435), np.float64(0.010091803922681431), np.float64(0.010091803922681431), np.float64(0.010091803922681436), np.float64(0.010091803922681436), np.float64(0.01009180392268144), np.float64(0.01009180392268144), np.float64(0.01009180392268144), np.float64(0.010091803922681443), np.float64(0.010091803922681443), np.float64(0.010091803922681443), np.float64(0.010091803922681445), np.float64(0.010091803922681445), np.float64(0.010091803922681445), np.float64(0.010091803922681443), np.float64(0.010091803922681445), np.float64(0.010091803922681445), np.float64(0.010091803922681448), np.float64(0.01009180392268145), np.float64(0.010091803922681452), np.float64(0.010091803922681454), np.float64(0.010091803922681454), np.float64(0.010091803922681454), np.float64(0.010091803922681454), np.float64(0.010091803922681454), np.float64(0.010091803922681454), np.float64(0.010091803922681455)]</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -6050,25 +6715,30 @@
         <v>100</v>
       </c>
       <c r="F134" t="n">
-        <v>0.4616159033479488</v>
+        <v>0.008875864383807835</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[[[np.float64(-2.555701995811567), np.float64(-0.954911658171418), np.float64(-1.2889718365330312), np.float64(-0.8812473204833025)], [np.float64(-2.2423963390163943), np.float64(-0.9611696466540767), np.float64(-1.9942605896674588), np.float64(-0.5415613629510148)], [np.float64(-3.044858647335853), np.float64(-1.0634711134218928), np.float64(-1.6856154986820349), np.float64(-0.8208353937714766)], [np.float64(-0.577974914412243), np.float64(-0.0649255215864884), np.float64(-0.43530482382389063), np.float64(0.0148174113320458)]], [[np.float64(-2.8568661299555025), np.float64(-1.6661442601808008), np.float64(-5.250830355664274), np.float64(-0.389809534173134)], [np.float64(-2.2318912387748124), np.float64(-1.337637144250785), np.float64(-3.929147364199569), np.float64(0.005953184126722667)], [np.float64(-2.5451608545855877), np.float64(-2.1901499950742), np.float64(-5.585066820785012), np.float64(0.40745007875406847)], [np.float64(-2.604920529732066), np.float64(-1.6025790959120738), np.float64(-4.898923295774505), np.float64(-0.1936618931073798)]]]</t>
+          <t>[[[np.float64(-0.14691700176611588), np.float64(0.6006666100393638), np.float64(-0.11184942869576399), np.float64(0.00039547147661173526)], [np.float64(0.702621130933584), np.float64(0.34735127658940784), np.float64(0.2280311983060201), np.float64(-0.06421653066181703)], [np.float64(0.12683729426884993), np.float64(0.3200969163380989), np.float64(-0.18774483743974177), np.float64(-0.018000385228978108)], [np.float64(-0.0949117657350759), np.float64(0.19579689337743597), np.float64(0.8373776280784284), np.float64(0.5363217284879419)]], [[np.float64(0.4602230619158277), np.float64(0.1707653611795788), np.float64(-0.13673237037191777), np.float64(0.19783728173360599)], [np.float64(-0.08244249813803474), np.float64(0.3891769126613095), np.float64(0.1512531604050695), np.float64(-0.20867666490324221)], [np.float64(0.4922319304944113), np.float64(-0.036972603313449356), np.float64(-0.13975643725409942), np.float64(0.0884457202825302)], [np.float64(0.48289659573335086), np.float64(0.5663050731900229), np.float64(-0.19454136111921774), np.float64(0.4030114528872932)]]]</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>[[0.4588900852830896, 0.319495773136112, 0.7049998443903621, np.float64(-1.6621291925382922)], [0.7306983987525061, 0.6687366913616147, 0.20758147879624167, np.float64(-0.015281341148051296)]]</t>
+          <t>[[0.6506609052607989, 0.9571189166222077, 0.8898689249645163, np.float64(-0.026810717910139996)], [0.8284580527272334, 0.8130511757793439, 0.7085385496345121, np.float64(0.6698960212810069)]]</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>[np.float64(0.43541799642132156), np.float64(0.3295009593976381), np.float64(0.8213993538447413), np.float64(0.06510105867949471)]</t>
+          <t>[np.float64(0.10756292270335877), np.float64(0.018587350340222148), np.float64(0.20555716068967897), np.float64(0.25522360429909846)]</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>0.6689427166280053</v>
+        <v>0.2239029823234814</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>[np.float64(5.112173243074407), np.float64(0.008875864383807835), np.float64(0.00896838907829237), np.float64(0.00920409220775593), np.float64(0.009381842535434072), np.float64(0.009490873565038109), np.float64(0.009552791906822034), np.float64(0.009586755202686394), np.float64(0.009605066537287337), np.float64(0.009614853922837164), np.float64(0.009620061543515041), np.float64(0.009622825878228256), np.float64(0.009624291440211995), np.float64(0.009625067926697584), np.float64(0.009625479183952793), np.float64(0.009625696961889748), np.float64(0.00962581227326233), np.float64(0.009625873326438373), np.float64(0.009625905650992021), np.float64(0.009625922764951346), np.float64(0.009625931825727033), np.float64(0.00962593662282293), np.float64(0.00962593916257634), np.float64(0.009625940507206828), np.float64(0.009625941219097897), np.float64(0.009625941595989321), np.float64(0.00962594179552982), np.float64(0.009625941901170288), np.float64(0.009625941957100889), np.float64(0.009625941986716997), np.float64(0.009625942002394739), np.float64(0.00962594201069733), np.float64(0.009625942015094245), np.float64(0.009625942017419044), np.float64(0.009625942018648524), np.float64(0.009625942019303075), np.float64(0.009625942019648847), np.float64(0.009625942019830412), np.float64(0.009625942019930297), np.float64(0.009625942019973825), np.float64(0.009625942020000968), np.float64(0.009625942020017096), np.float64(0.009625942020026673), np.float64(0.009625942020026855), np.float64(0.009625942020027001), np.float64(0.009625942020027154), np.float64(0.009625942020027258), np.float64(0.00962594202002742), np.float64(0.009625942020027586), np.float64(0.009625942020027709), np.float64(0.009625942020027867), np.float64(0.009625942020027981), np.float64(0.009625942020028116), np.float64(0.009625942020028236), np.float64(0.009625942020028368), np.float64(0.009625942020028491), np.float64(0.009625942020028635), np.float64(0.009625942020028661), np.float64(0.009625942020028682), np.float64(0.009625942020028698), np.float64(0.009625942020028715), np.float64(0.009625942020028727), np.float64(0.009625942020028743), np.float64(0.009625942020028772), np.float64(0.0096259420200288), np.float64(0.009625942020028819), np.float64(0.00962594202002884), np.float64(0.009625942020028857), np.float64(0.009625942020028878), np.float64(0.009625942020028892), np.float64(0.009625942020028911), np.float64(0.009625942020028932), np.float64(0.009625942020028953), np.float64(0.00962594202002897), np.float64(0.009625942020028987), np.float64(0.009625942020029013), np.float64(0.009625942020029041), np.float64(0.009625942020029048), np.float64(0.009625942020029069), np.float64(0.009625942020029083), np.float64(0.009625942020029105), np.float64(0.009625942020029124), np.float64(0.009625942020029147), np.float64(0.00962594202002916), np.float64(0.009625942020029164), np.float64(0.009625942020029178), np.float64(0.009625942020029197), np.float64(0.009625942020029223), np.float64(0.009625942020029232), np.float64(0.009625942020029248), np.float64(0.009625942020029256), np.float64(0.009625942020029275), np.float64(0.009625942020029286), np.float64(0.00962594202002929), np.float64(0.009625942020029294), np.float64(0.009625942020029308), np.float64(0.00962594202002931), np.float64(0.009625942020029324), np.float64(0.00962594202002934), np.float64(0.009625942020029346)]</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -6092,25 +6762,30 @@
         <v>200</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1961121530456812</v>
+        <v>0.03477751557679502</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[[[np.float64(-0.808206486550743), np.float64(-1.4456071601465976), np.float64(-0.36695088893819766), np.float64(-1.5381526742253797)], [np.float64(-1.4212535149112133), np.float64(-1.117273656513543), np.float64(-0.9056038326440784), np.float64(-1.9788205849215508)], [np.float64(-0.9052780932671686), np.float64(-1.0297817407372392), np.float64(-0.9387985850036524), np.float64(-2.2646966540271474)], [np.float64(-0.8160624621317965), np.float64(0.07240042501252202), np.float64(-0.37946245873429274), np.float64(-0.4454513173180498)]], [[np.float64(-4.764291432385445), np.float64(-4.312845573221218), np.float64(0.008978135268826029), np.float64(-1.3545765282222844)], [np.float64(-2.0753497823897367), np.float64(-2.294706573878834), np.float64(-0.22734720531611677), np.float64(0.06299929255874455)], [np.float64(-2.226468806774544), np.float64(-2.7298166997659385), np.float64(0.2751584468009205), np.float64(-0.5637462614121286)], [np.float64(-3.356025566875729), np.float64(-2.904923406015999), np.float64(-0.48725185463417586), np.float64(-0.2703879150793322)]]]</t>
+          <t>[[[np.float64(-3.471983972700724), np.float64(-2.723754987197372), np.float64(-1.957586495685659), np.float64(-1.790865815917424)], [np.float64(-3.063587736216325), np.float64(-2.4451332093558498), np.float64(-2.3148159629966982), np.float64(-1.8250508152579206)], [np.float64(-3.6573320489744887), np.float64(-3.409463053736529), np.float64(-2.0007446968890186), np.float64(-2.1885787307677256)], [np.float64(-1.4181713442661141), np.float64(-0.7834642289565771), np.float64(-0.6850487269708384), np.float64(-1.1096967404499085)]], [[np.float64(-1.3079376075622342), np.float64(-4.846224562259513), np.float64(-0.8198879103754956), np.float64(-7.569717669813666)], [np.float64(-1.0826458348187533), np.float64(-4.010105982830679), np.float64(-0.37780626889449026), np.float64(-5.963984498863287)], [np.float64(-0.062056070542616276), np.float64(-3.5386608736834715), np.float64(-0.44478914666648117), np.float64(-4.44997629098817)], [np.float64(-0.7324298112794326), np.float64(-4.63685568758501), np.float64(-0.6361391756139301), np.float64(-6.606003247292365)]]]</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>[[0.9945550304987866, 0.05775400886601456, 0.7679477180765268, np.float64(-3.2235609955668814)], [0.916108405759179, 0.41925296395151745, 0.12975138906590644, np.float64(-0.34154742260154275)]]</t>
+          <t>[[0.8085842279488422, 0.09209258159108669, 0.01971826644850605, np.float64(-3.1272767686401206)], [0.23379680238189604, 0.8772500614499793, 0.5291405704434481, np.float64(-3.750633326447661)]]</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>[np.float64(0.5913916559167609), np.float64(0.5991833880527533), np.float64(0.10478722477105844), np.float64(0.18395412677332382)]</t>
+          <t>[np.float64(0.16471597475205552), np.float64(0.6218055895069334), np.float64(0.11413230659600745), np.float64(0.9025435519546147)]</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>0.337506574106139</v>
+        <v>0.2178353942941564</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>[np.float64(57.85150494756043), np.float64(0.036314414404378825), np.float64(0.036306370478983364), np.float64(0.036298329487628296), np.float64(0.03629029142917435), np.float64(0.0362822563024821), np.float64(0.03627422410641263), np.float64(0.036266194839827855), np.float64(0.03625816850158892), np.float64(0.036250145090559634), np.float64(0.03624212460560174), np.float64(0.03623410704557953), np.float64(0.03622609240935661), np.float64(0.036218080695797385), np.float64(0.03621007190376651), np.float64(0.03620206603212942), np.float64(0.036194063079751905), np.float64(0.03618606304549971), np.float64(0.03617806592824007), np.float64(0.03617007172683998), np.float64(0.03616208044016651), np.float64(0.03615409206708812), np.float64(0.036146106606472946), np.float64(0.0361381240571905), np.float64(0.03613014441810955), np.float64(0.036122167688100226), np.float64(0.03611419386603261), np.float64(0.03610622295077765), np.float64(0.03609825494120669), np.float64(0.03609028983619099), np.float64(0.036082327634602875), np.float64(0.036074368335315056), np.float64(0.03606641193720042), np.float64(0.03605845843913227), np.float64(0.0360505078399849), np.float64(0.0360425601386324), np.float64(0.03603461533394946), np.float64(0.03602667342481202), np.float64(0.036018734410094996), np.float64(0.03601079828867547), np.float64(0.03600286505942929), np.float64(0.03599493472123428), np.float64(0.03598700727296716), np.float64(0.035979082713506604), np.float64(0.0359711610417311), np.float64(0.03596324225651897), np.float64(0.035955326356750326), np.float64(0.03594741334130428), np.float64(0.035939503209061495), np.float64(0.03593159595890273), np.float64(0.03592369158970927), np.float64(0.03591579010036213), np.float64(0.03590789148974421), np.float64(0.03589999575673736), np.float64(0.03589210290022465), np.float64(0.035884212919089824), np.float64(0.03587632581221672), np.float64(0.035868441578489244), np.float64(0.03586056021679274), np.float64(0.03585268172601217), np.float64(0.03584480610503315), np.float64(0.03583693335274188), np.float64(0.03582906346802473), np.float64(0.03582119644976911), np.float64(0.0358133322968622), np.float64(0.03580547100819198), np.float64(0.03579761258264711), np.float64(0.035789757019115756), np.float64(0.03578190431648776), np.float64(0.035774054473652735), np.float64(0.03576620748950044), np.float64(0.035758363362922124), np.float64(0.035750522092808254), np.float64(0.03574268367805059), np.float64(0.03573484811754111), np.float64(0.035727015410172), np.float64(0.035719185554836774), np.float64(0.03571135855042758), np.float64(0.035703534395839426), np.float64(0.0356957130899651), np.float64(0.035687894631700516), np.float64(0.03568007901993989), np.float64(0.03567226625357913), np.float64(0.035664456331514376), np.float64(0.03565664925264134), np.float64(0.035648845015857474), np.float64(0.03564104362005996), np.float64(0.035633245064146314), np.float64(0.035625449347014955), np.float64(0.035617656467564256), np.float64(0.03560986642469355), np.float64(0.03560207921730239), np.float64(0.03559429484429052), np.float64(0.035586513304558365), np.float64(0.03557873459700697), np.float64(0.035570958720537345), np.float64(0.035563185674051534), np.float64(0.03555541545645119), np.float64(0.03554764806663965), np.float64(0.035539883503519366), np.float64(0.035532121765994136), np.float64(0.03552436285296763), np.float64(0.035516606763344616), np.float64(0.03550885349602954), np.float64(0.035501103049927867), np.float64(0.03549335542394556), np.float64(0.03548561061698809), np.float64(0.035477868627962955), np.float64(0.035470129455776246), np.float64(0.035462393099335875), np.float64(0.03545465955755002), np.float64(0.03544692882932658), np.float64(0.035439200913574505), np.float64(0.035431475809203146), np.float64(0.035423753515121954), np.float64(0.035416034030241204), np.float64(0.035408317353471205), np.float64(0.0354006034837233), np.float64(0.035392892419908555), np.float64(0.035385184160939234), np.float64(0.03537747870572719), np.float64(0.03536977605318554), np.float64(0.035362076202227206), np.float64(0.035354379151765855), np.float64(0.03534668490071572), np.float64(0.03533899344799106), np.float64(0.03533130479250689), np.float64(0.03532361893317859), np.float64(0.035315935868921906), np.float64(0.03530825559865329), np.float64(0.0353005781212893), np.float64(0.03529290343574676), np.float64(0.03528523154094367), np.float64(0.03527756243579757), np.float64(0.0352698961192273), np.float64(0.03526223259015142), np.float64(0.03525457184748944), np.float64(0.0352469138901609), np.float64(0.035239258717086025), np.float64(0.03523160632718561), np.float64(0.0352239567193806), np.float64(0.03521630989259197), np.float64(0.03520866584574218), np.float64(0.03520102457775362), np.float64(0.035193386087548385), np.float64(0.035185750374050355), np.float64(0.03517811743618294), np.float64(0.03517048727287035), np.float64(0.03516285988303662), np.float64(0.03515523526560732), np.float64(0.03514761341950739), np.float64(0.03513999434366286), np.float64(0.035132378036999964), np.float64(0.03512476449844491), np.float64(0.03511715372692527), np.float64(0.03510954572136865), np.float64(0.03510194048070295), np.float64(0.03509433800385608), np.float64(0.03508673828975749), np.float64(0.035079141337336084), np.float64(0.03507154714552152), np.float64(0.035063955713244284), np.float64(0.03505636703943429), np.float64(0.03504878112302339), np.float64(0.035041197962942465), np.float64(0.035033617558123314), np.float64(0.035026039907498356), np.float64(0.03501846501000034), np.float64(0.035010892864561945), np.float64(0.03500332347011777), np.float64(0.03499575682560064), np.float64(0.03498819292994566), np.float64(0.034980631782087504), np.float64(0.03497307338096128), np.float64(0.03496551772550314), np.float64(0.03495796481464876), np.float64(0.03495041464733499), np.float64(0.03494286722249882), np.float64(0.03493532253907744), np.float64(0.03492778059600886), np.float64(0.0349202413922316), np.float64(0.034912704926683746), np.float64(0.03490517119830509), np.float64(0.03489764020603463), np.float64(0.03489011194881287), np.float64(0.03488258642557983), np.float64(0.03487506363527657), np.float64(0.03486754357684413), np.float64(0.03486002624922472), np.float64(0.03485251165135965), np.float64(0.0348449997821922), np.float64(0.03483749064066503), np.float64(0.03482998422572156), np.float64(0.03482248053630544), np.float64(0.03481497957136129), np.float64(0.03480748132983355), np.float64(0.034799985810667275), np.float64(0.03479249301280798), np.float64(0.034785002935201884), np.float64(0.03477751557679502)]</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -6134,25 +6809,30 @@
         <v>100</v>
       </c>
       <c r="F136" t="n">
-        <v>0.7887846368273446</v>
+        <v>0.7243752914977034</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[[[np.float64(-56.19326891364601), np.float64(-36.089316595518504), np.float64(-23.631366831740536), np.float64(-18.05414662555696)], [np.float64(-52.05904194242675), np.float64(-33.47555285547995), np.float64(-21.892673988991795), np.float64(-17.680060155986826)], [np.float64(-58.15720924253743), np.float64(-37.291840173180134), np.float64(-24.50446509320362), np.float64(-19.09049774920912)], [np.float64(-26.429175369462683), np.float64(-16.384101489157906), np.float64(-10.712632996604755), np.float64(-8.13894936294067)]], [[np.float64(-11.89333789491179), np.float64(-38.92616614634332), np.float64(-61.4691882285098), np.float64(-65.38997256642749)], [np.float64(-15.04736648147232), np.float64(-50.345544680321865), np.float64(-80.39324824400515), np.float64(-84.81057103382022)], [np.float64(-13.435014854541977), np.float64(-45.10111972521129), np.float64(-71.60167934000582), np.float64(-75.55044373446728)], [np.float64(-18.601928476953344), np.float64(-61.901555862563534), np.float64(-97.68975550719847), np.float64(-103.19233813929876)]]]</t>
+          <t>[[[np.float64(-54.953128838004304), np.float64(-41.67250556467869), np.float64(-69.17604864634052), np.float64(-67.1821849278984)], [np.float64(-51.04275796575841), np.float64(-39.22224888670815), np.float64(-64.67437920746444), np.float64(-62.68057176584707)], [np.float64(-56.36827390178021), np.float64(-43.31597832774833), np.float64(-71.85226526055739), np.float64(-69.64314345287775)], [np.float64(-25.704455536471137), np.float64(-19.037312611573935), np.float64(-32.718378367230805), np.float64(-31.508419521480366)]], [[np.float64(-69.12547890610809), np.float64(-76.95206345597772), np.float64(-72.15922062066625), np.float64(-30.023921989176795)], [np.float64(-86.77263864074206), np.float64(-96.87964839620444), np.float64(-91.26286408581304), np.float64(-38.435122852688075)], [np.float64(-89.76104130013515), np.float64(-99.54183793584932), np.float64(-94.50592494189809), np.float64(-40.05107984615296)], [np.float64(-58.11109946024736), np.float64(-64.22392774055868), np.float64(-61.19659353906234), np.float64(-25.669672025250065)]]]</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>[[0.5258919390723229, 0.18921603542548926, 0.2749279243417594, np.float64(-28.530717491763724)], [0.9079378615731444, 0.6085883381962052, 0.954933437734632, np.float64(-44.97102526273395)]]</t>
+          <t>[[0.049580794436309805, 0.8131238175747657, 0.9805427948162597, np.float64(-103.7900780116867)], [0.7698711337157311, 0.34574086694480055, 0.5610210312625823, np.float64(-22.674908012485634)]]</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>[np.float64(0.04598140591941696), np.float64(0.4497055260484618), np.float64(0.7469911046155759), np.float64(0.8888474055297679)]</t>
+          <t>[np.float64(0.7857758288207883), np.float64(0.916927650635829), np.float64(0.841257377931702), np.float64(0.37240068386502845)]</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>0.5560425362632756</v>
+        <v>0.1545867844779894</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>[np.float64(103.36132312857328), np.float64(1.053398145164758), np.float64(1.049354138824228), np.float64(1.045326162080245), np.float64(1.041314150720749), np.float64(1.0373180407922695), np.float64(1.033337768598921), np.float64(1.0293732707013457), np.float64(1.0254244839156952), np.float64(1.0214913453126047), np.float64(1.0175737922160875), np.float64(1.0136717622026419), np.float64(1.0097851931001247), np.float64(1.0059140229867811), np.float64(1.0020581901902361), np.float64(0.9982176332864686), np.float64(0.9943922910988059), np.float64(0.9905821026969611), np.float64(0.9867870073960058), np.float64(0.9830069447553662), np.float64(0.9792418545778971), np.float64(0.9754916769088195), np.float64(0.9717563520347989), np.float64(0.9680358204829569), np.float64(0.9643300230198815), np.float64(0.9606389006506978), np.float64(0.9569623946180442), np.float64(0.9533004464011849), np.float64(0.9496529977150093), np.float64(0.946019990509088), np.float64(0.9424013669667302), np.float64(0.938797069504027), np.float64(0.9352070407689429), np.float64(0.9316312236403506), np.float64(0.9280695612270958), np.float64(0.9245219968670969), np.float64(0.920988474126385), np.float64(0.9174689367982247), np.float64(0.91396332890214), np.float64(0.9104715946830699), np.float64(0.9069936786103883), np.float64(0.9035295253770511), np.float64(0.9000790798986608), np.float64(0.8966422873126012), np.float64(0.8932190929770913), np.float64(0.8898094424703457), np.float64(0.8864132815896507), np.float64(0.8830305563505001), np.float64(0.8796612129857019), np.float64(0.8763051979445126), np.float64(0.8729624578917478), np.float64(0.8696329397069189), np.float64(0.8663165904833839), np.float64(0.86301335752745), np.float64(0.8597231883575365), np.float64(0.8564460307033204), np.float64(0.8531818325048711), np.float64(0.8499305419118057), np.float64(0.8466921072824433), np.float64(0.8434664771829702), np.float64(0.8402536003865768), np.float64(0.8370534258726652), np.float64(0.8338659028259655), np.float64(0.8306909806357318), np.float64(0.8275286088949344), np.float64(0.8243787373994076), np.float64(0.8212413161470323), np.float64(0.8181162953369484), np.float64(0.8150036253687151), np.float64(0.8119032568415029), np.float64(0.8088151405533094), np.float64(0.8057392275001309), np.float64(0.8026754688751905), np.float64(0.7996238160680998), np.float64(0.7965842206641146), np.float64(0.7935566344433164), np.float64(0.7905410093798328), np.float64(0.7875372976410444), np.float64(0.7845454515868376), np.float64(0.7815654237687776), np.float64(0.7785971669293709), np.float64(0.7756406340012889), np.float64(0.7726957781065876), np.float64(0.7697625525559625), np.float64(0.7668409108479581), np.float64(0.7639308066682526), np.float64(0.7610321938888512), np.float64(0.7581450265673745), np.float64(0.7552692589462956), np.float64(0.7524048454521878), np.float64(0.7495517406949921), np.float64(0.7467098994672616), np.float64(0.743879276743449), np.float64(0.7410598276791389), np.float64(0.738251507610354), np.float64(0.7354542720528003), np.float64(0.7326680767011573), np.float64(0.7298928774283268), np.float64(0.7271286302847585), np.float64(0.7243752914977034)]</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -6176,25 +6856,30 @@
         <v>200</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5403697802985858</v>
+        <v>0.2317484732361596</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[[[np.float64(-42.55444012385119), np.float64(-98.53249338881861), np.float64(-54.39028737985605), np.float64(-93.5296739720966)], [np.float64(-39.8483249785984), np.float64(-93.47214152012076), np.float64(-51.6692492956018), np.float64(-87.5508279289121)], [np.float64(-43.72628704687179), np.float64(-103.33940330109118), np.float64(-57.18923106382245), np.float64(-97.39648266765778)], [np.float64(-19.563958418249225), np.float64(-46.03101989900755), np.float64(-25.117917793904017), np.float64(-43.802898844927135)]], [[np.float64(-71.3837319305728), np.float64(-66.15140200302925), np.float64(-38.04844851351497), np.float64(-112.7997099172501)], [np.float64(-53.623036774335525), np.float64(-50.01162767161913), np.float64(-28.98349744192049), np.float64(-85.31401718526574)], [np.float64(-70.91391007200261), np.float64(-66.07273522522672), np.float64(-38.01403517416932), np.float64(-112.2084593589247)], [np.float64(-64.60705379056147), np.float64(-60.11950714557539), np.float64(-34.850919632850186), np.float64(-102.54029704391746)]]]</t>
+          <t>[[[np.float64(-48.74605756117945), np.float64(-66.4526514391537), np.float64(-58.52794140853517), np.float64(-58.97407997670489)], [np.float64(-45.780477331366654), np.float64(-62.74793326499628), np.float64(-55.244004840115366), np.float64(-55.551246098910646)], [np.float64(-50.881241419658046), np.float64(-69.03533214979412), np.float64(-60.80344510092575), np.float64(-61.115230347528026)], [np.float64(-22.733402427163547), np.float64(-30.861989833498598), np.float64(-27.46839613962905), np.float64(-27.329933672605392)]], [[np.float64(-110.5095007854694), np.float64(-170.35240125065926), np.float64(-76.54104934895963), np.float64(-90.21907776733458)], [np.float64(-59.19869670918421), np.float64(-91.29842124846012), np.float64(-40.670678549125775), np.float64(-47.5075144678991)], [np.float64(-77.93645384448791), np.float64(-120.22260878316142), np.float64(-54.00241604643073), np.float64(-63.38522877431709)], [np.float64(-70.7063918436796), np.float64(-108.79772790212009), np.float64(-49.69920953602958), np.float64(-57.05330177495677)]]]</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>[[0.7390896075558269, 0.030343246280419844, 0.3514936498383695, np.float64(-145.38562822997204)], [0.5031226228987581, 0.9558250448257622, 0.673934364384676, np.float64(-64.53891389019614)]]</t>
+          <t>[[0.9028011662995128, 0.025462744745777033, 0.4850869960724815, np.float64(-91.04241970422652)], [0.43424897757515735, 0.7357601141489825, 0.6420745400996185, np.float64(-33.01100832046804)]]</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>[np.float64(0.46968734891439595), np.float64(0.3231025086031707), np.float64(0.13229325475017664), np.float64(0.8905424508771447)]</t>
+          <t>[np.float64(0.5416575179509172), np.float64(0.8517202956262108), np.float64(0.305460482259923), np.float64(0.4594289412982152)]</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>0.7969697202614009</v>
+        <v>0.1166244213192658</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>[np.float64(125.97809470084889), np.float64(0.49516205351935716), np.float64(0.4932172612598325), np.float64(0.49128053269158456), np.float64(0.48935183385994446), np.float64(0.48743113095438295), np.float64(0.48551839030788246), np.float64(0.4836135783963232), np.float64(0.4817166618378808), np.float64(0.4798276073924107), np.float64(0.47794638196084965), np.float64(0.4760729525846276), np.float64(0.4742072864450316), np.float64(0.472349350862664), np.float64(0.47049911329678845), np.float64(0.46865654134480006), np.float64(0.4668216027415801), np.float64(0.4649942653589508), np.float64(0.46317449720506826), np.float64(0.46136226642385714), np.float64(0.45955754129442433), np.float64(0.4577602902304768), np.float64(0.45597048177976385), np.float64(0.45418808462349397), np.float64(0.45241306757576294), np.float64(0.450645399583003), np.float64(0.44888504972340176), np.float64(0.4471319872063533), np.float64(0.44538618137189406), np.float64(0.44364760169014816), np.float64(0.4419162177607626), np.float64(0.440191999312376), np.float64(0.43847491620205087), np.float64(0.43676493841472996), np.float64(0.43506203606269517), np.float64(0.43336617938503413), np.float64(0.43167733874707764), np.float64(0.42999548463987486), np.float64(0.428320587679663), np.float64(0.4266526186073212), np.float64(0.42499154828784985), np.float64(0.42333734770983267), np.float64(0.4216899879849223), np.float64(0.4200494403473012), np.float64(0.41841567615317066), np.float64(0.4167886668802297), np.float64(0.41516838412715346), np.float64(0.4135547996130788), np.float64(0.4119478851770851), np.float64(0.4103476127777011), np.float64(0.4087539544923808), np.float64(0.40716688251700167), np.float64(0.4055863691653574), np.float64(0.40401238686865487), np.float64(0.40244490817502104), np.float64(0.4008839057490017), np.float64(0.39932935237105993), np.float64(0.3977812209370829), np.float64(0.39623948445790863), np.float64(0.3947041160588048), np.float64(0.39317508897900644), np.float64(0.3916523765712195), np.float64(0.39013595230114323), np.float64(0.38862578974698203), np.float64(0.3871218625989713), np.float64(0.3856241446588983), np.float64(0.3841326098396262), np.float64(0.3826472321646233), np.float64(0.38116798576748934), np.float64(0.3796948448914948), np.float64(0.3782277838890961), np.float64(0.3767667772214846), np.float64(0.3753117994581275), np.float64(0.37386282527628745), np.float64(0.372419829460581), np.float64(0.37098278690251724), np.float64(0.36955167260003846), np.float64(0.36812646165706703), np.float64(0.3667071292830609), np.float64(0.3652936507925566), np.float64(0.36388600160472356), np.float64(0.36248415724292), np.float64(0.36108809333424763), np.float64(0.3596977856091162), np.float64(0.3583132099007883), np.float64(0.35693434214496167), np.float64(0.355561158379314), np.float64(0.35419363474308657), np.float64(0.3528317474766214), np.float64(0.3514754729209799), np.float64(0.3501247875174674), np.float64(0.34877966780722536), np.float64(0.34744009043081125), np.float64(0.3461060321277632), np.float64(0.3447774697361905), np.float64(0.3434543801923448), np.float64(0.34213674053019966), np.float64(0.3408245278810524), np.float64(0.3395177194730844), np.float64(0.33821629263096936), np.float64(0.336920224775452), np.float64(0.3356294934229381), np.float64(0.33434407618510054), np.float64(0.3330639507684498), np.float64(0.3317890949739544), np.float64(0.330519486696623), np.float64(0.32925510392511476), np.float64(0.32799592474132705), np.float64(0.326741927320011), np.float64(0.3254930899283743), np.float64(0.3242493909256789), np.float64(0.32301080876285804), np.float64(0.32177732198212333), np.float64(0.32054890921657503), np.float64(0.3193255491898179), np.float64(0.3181072207155703), np.float64(0.31689390269728485), np.float64(0.31568557412776727), np.float64(0.31448221408879284), np.float64(0.3132838017507331), np.float64(0.31209031637216583), np.float64(0.3109017372995181), np.float64(0.3097180439666782), np.float64(0.30853921589462185), np.float64(0.3073652326910607), np.float64(0.30619607405004856), np.float64(0.30503171975162696), np.float64(0.3038721496614603), np.float64(0.3027173437304682), np.float64(0.3015672819944604), np.float64(0.3004219445737758), np.float64(0.2992813116729294), np.float64(0.2981453635802465), np.float64(0.297014080667506), np.float64(0.295887443389591), np.float64(0.2947654322841332), np.float64(0.29364802797115425), np.float64(0.2925352111527239), np.float64(0.29142696261260387), np.float64(0.2903232632159091), np.float64(0.2892240939087465), np.float64(0.28812943571788713), np.float64(0.28703926975041255), np.float64(0.28595357719337317), np.float64(0.2848723393134547), np.float64(0.2837955374566298), np.float64(0.28272315304783086), np.float64(0.28165516759060466), np.float64(0.28059156266678315), np.float64(0.27953231993614885), np.float64(0.27847742113610485), np.float64(0.2774268480813418), np.float64(0.2763805826635067), np.float64(0.2753386068508847), np.float64(0.27430090268806545), np.float64(0.2732674522956161), np.float64(0.2722382378697655), np.float64(0.2712132416820779), np.float64(0.27019244607913334), np.float64(0.2691758334822096), np.float64(0.268163386386958), np.float64(0.26715508736309657), np.float64(0.26615091905409094), np.float64(0.2651508641768338), np.float64(0.2641549055213447), np.float64(0.2631630259504508), np.float64(0.2621752083994723), np.float64(0.26119143587593396), np.float64(0.26021169145923356), np.float64(0.2592359583003524), np.float64(0.25826421962154356), np.float64(0.25729645871603046), np.float64(0.2563326589477048), np.float64(0.25537280375082627), np.float64(0.25441687662972595), np.float64(0.2534648611584993), np.float64(0.2525167409807192), np.float64(0.251572499809138), np.float64(0.25063212142538865), np.float64(0.24969558967969438), np.float64(0.24876288849057984), np.float64(0.24783400184457455), np.float64(0.24690891379593138), np.float64(0.24598760846633028), np.float64(0.24507007004459583), np.float64(0.2441562827864131), np.float64(0.24324623101404017), np.float64(0.24233989911602338), np.float64(0.24143727154692102), np.float64(0.24053833282701922), np.float64(0.23964306754205114), np.float64(0.23875146034291977), np.float64(0.23786349594542386), np.float64(0.2369791591299748), np.float64(0.23609843474133055), np.float64(0.23522130768831323), np.float64(0.23434776294354212), np.float64(0.23347778554316498), np.float64(0.23261136058657536), np.float64(0.23174847323615963)]</t>
+        </is>
       </c>
     </row>
     <row r="138">
@@ -6218,25 +6903,30 @@
         <v>100</v>
       </c>
       <c r="F138" t="n">
-        <v>0.06052667091170436</v>
+        <v>0.04342035175156427</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.7163158828765044), np.float64(0.04688163358586763), np.float64(0.06216385532900986), np.float64(0.46878697993598123)], [np.float64(0.24116871466794226), np.float64(0.41820797548351046), np.float64(0.4272073693327553), np.float64(0.25247714991625303)], [np.float64(0.27399978338738695), np.float64(0.7042296582217148), np.float64(0.37336011711612627), np.float64(0.018233983963770635)], [np.float64(0.5294983855715499), np.float64(0.5415501772763726), np.float64(0.8771992308405141), np.float64(0.9820306849770631)]], [[np.float64(0.6453044736267294), np.float64(0.3387319099538071), np.float64(0.5480911227295314), np.float64(0.52926152308584)], [np.float64(0.1493911317367721), np.float64(0.031162237989529912), np.float64(0.29821897215249626), np.float64(-0.1525227750837676)], [np.float64(0.2143252876474548), np.float64(0.6088667354691716), np.float64(0.6209280686070185), np.float64(-0.23931738738344693)], [np.float64(0.028787324038345614), np.float64(0.45212958161290184), np.float64(0.16678791569376336), np.float64(0.02160212062432651)]]]</t>
+          <t>[[[np.float64(0.2725514273911192), np.float64(0.4743072981407785), np.float64(0.009387081551745363), np.float64(0.7370083944554278)], [np.float64(-0.021818823029924828), np.float64(0.7295275749825445), np.float64(0.7394539390730909), np.float64(0.05225440243067139)], [np.float64(0.6326342720347723), np.float64(0.5660232092340584), np.float64(0.8747845956158962), np.float64(0.4413584365582945)], [np.float64(0.9610383097761003), np.float64(0.32029336326540725), np.float64(0.703027572824549), np.float64(0.1692216103220851)]], [[np.float64(0.7186708747755651), np.float64(0.5083763593627304), np.float64(0.5828893346580925), np.float64(0.9475301708323561)], [np.float64(0.0047853366707904564), np.float64(0.39759657041344465), np.float64(0.08545205735107278), np.float64(0.1898264801795157)], [np.float64(0.7350750151625548), np.float64(0.47950273890839934), np.float64(0.33314983703266254), np.float64(0.6007054288626494)], [np.float64(-0.21392255606134034), np.float64(0.35876463368284905), np.float64(0.6155764426676328), np.float64(0.8055612800910184)]]]</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>[[0.8687247424216106, 0.24407769960052106, 0.48492327111617706, np.float64(0.6495473006533335)], [0.7903190490641736, 0.525544822258481, 0.6125086004222788, np.float64(-0.15101463360402767)]]</t>
+          <t>[[0.16342841132089903, 0.28804282876181764, 0.7302395885645032, np.float64(0.928053026048966)], [0.6821617755817875, 0.2906877715436854, 0.31448254520231356, np.float64(0.16579300567412858)]]</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>[np.float64(0.6258671812571941), np.float64(0.25246636437458575), np.float64(0.7629013164193834), np.float64(0.6250089201758614)]</t>
+          <t>[np.float64(0.7407934746017405), np.float64(0.3721652737729539), np.float64(0.8210557912436431), np.float64(0.14231262616977122)]</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>0.8435650556595297</v>
+        <v>0.3014475547536601</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>[np.float64(0.0487150709472756), np.float64(0.04867377719469535), np.float64(0.0486322501717637), np.float64(0.04859048916236356), np.float64(0.04854849345705152), np.float64(0.04850626235320281), np.float64(0.04846379515516823), np.float64(0.04842109117443836), np.float64(0.048378149729783756), np.float64(0.048334970147427325), np.float64(0.04829155176119347), np.float64(0.048247893912676844), np.float64(0.048203995951401825), np.float64(0.048159857234982534), np.float64(0.048115477129284434), np.float64(0.048070855008601206), np.float64(0.048025990255813875), np.float64(0.047980882262556444), np.float64(0.04793553042939092), np.float64(0.04788993416597541), np.float64(0.047844092891233043), np.float64(0.047798006033531196), np.float64(0.04775167303085258), np.float64(0.04770509333096102), np.float64(0.047658266391590716), np.float64(0.04761119168062106), np.float64(0.047563868676246686), np.float64(0.0475162968671628), np.float64(0.04746847575274536), np.float64(0.04742040484323102), np.float64(0.047372083659900435), np.float64(0.047323511735253364), np.float64(0.0472746886132087), np.float64(0.047225613849272534), np.float64(0.04717628701073289), np.float64(0.04712670767684455), np.float64(0.047076875439016945), np.float64(0.04702678990099589), np.float64(0.04697645067906208), np.float64(0.04692585740221238), np.float64(0.046875009712358064), np.float64(0.04682390726450255), np.float64(0.046772549726943766), np.float64(0.046720936781459825), np.float64(0.046669068123506074), np.float64(0.046616943462402374), np.float64(0.04656456252152905), np.float64(0.046511925038524575), np.float64(0.046459030765467695), np.float64(0.04640587946907989), np.float64(0.04635247093091999), np.float64(0.046298804947574004), np.float64(0.046244881330855206), np.float64(0.046190699907994834), np.float64(0.046136260521834234), np.float64(0.04608156303102897), np.float64(0.0460266073102309), np.float64(0.045971393250300495), np.float64(0.04591592075847855), np.float64(0.04586018975860049), np.float64(0.04580420019127641), np.float64(0.0457479520140944), np.float64(0.045691445201807124), np.float64(0.045634679746531), np.float64(0.04557765565793234), np.float64(0.04552037296342226), np.float64(0.045462831708350485), np.float64(0.04540503195618625), np.float64(0.04534697378871994), np.float64(0.04528865730625015), np.float64(0.04523008262775949), np.float64(0.045171249891117496), np.float64(0.04511215925325769), np.float64(0.04505281089036742), np.float64(0.04499320499806832), np.float64(0.04493334179159929), np.float64(0.04487322150599843), np.float64(0.044812844396288), np.float64(0.044752210737644404), np.float64(0.04469132082558514), np.float64(0.04463017497613463), np.float64(0.04456877352600664), np.float64(0.04450711683276949), np.float64(0.04444520527502267), np.float64(0.04438303925256078), np.float64(0.044320619186538256), np.float64(0.0442579455196477), np.float64(0.04419501871626427), np.float64(0.04413183926261966), np.float64(0.04406840766695084), np.float64(0.04400472445965734), np.float64(0.043940790193463745), np.float64(0.04387660544355417), np.float64(0.04381217080773736), np.float64(0.04374748690657781), np.float64(0.04368255438355018), np.float64(0.043617373905165145), np.float64(0.04355194616112456), np.float64(0.04348627186443759), np.float64(0.04342035175156427)]</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -6260,25 +6950,30 @@
         <v>200</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0455126169381115</v>
+        <v>0.04918591848528555</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.5922934076566657), np.float64(0.5288361445188614), np.float64(0.7047911247547038), np.float64(0.37959106544626164)], [np.float64(0.2903860757896398), np.float64(0.5411662148618716), np.float64(0.30143462618179634), np.float64(0.4760469949966265)], [np.float64(0.30057995629400824), np.float64(-0.0692209955442091), np.float64(0.40579560199753345), np.float64(0.5792691600263147)], [np.float64(0.9722591399364823), np.float64(0.3083038324147549), np.float64(0.1492045528665211), np.float64(0.8241550596827629)]], [[np.float64(0.259579115165117), np.float64(-0.1172341926428706), np.float64(-0.6170813350121515), np.float64(-0.2202372579349429)], [np.float64(-0.22312342633296617), np.float64(0.3007402168343399), np.float64(0.36302012891118207), np.float64(-0.14674117372173792)], [np.float64(-0.21333215816048862), np.float64(-0.021006463927211942), np.float64(-0.20935278545031288), np.float64(0.29027115295932826)], [np.float64(-0.4253144245951211), np.float64(-0.3396362327793883), np.float64(0.1541105518531521), np.float64(0.5614194485339247)]]]</t>
+          <t>[[[np.float64(0.395746080533772), np.float64(0.8357777042218856), np.float64(0.6072885178939589), np.float64(0.5640179328177436)], [np.float64(0.37731436965300214), np.float64(0.3111483180924275), np.float64(0.16799276606510766), np.float64(0.10297421570204651)], [np.float64(0.6952017272566263), np.float64(0.11998803082685225), np.float64(0.8600594652231114), np.float64(0.40919069814816594)], [np.float64(0.3386736338201196), np.float64(0.9675492635324424), np.float64(0.3090579128429572), np.float64(0.717179041721698)]], [[np.float64(0.6433329165923947), np.float64(0.0668950126086999), np.float64(-0.35582263133700076), np.float64(-0.13121781673263294)], [np.float64(-0.22393929195446577), np.float64(-0.09220031747907645), np.float64(-0.0013463543627462568), np.float64(-0.5427188291315735)], [np.float64(0.1567448929792924), np.float64(-0.25152494996292984), np.float64(-0.22615992806083077), np.float64(-0.3978116893133157)], [np.float64(0.4842562456849337), np.float64(-0.024907354884406808), np.float64(-0.1984879855388719), np.float64(0.15913804269416032)]]]</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>[[0.38863859212931406, 0.09435556150963953, 0.7427933487603843, np.float64(0.29817086155998396)], [0.6245082081578186, 0.761121688181302, 0.30275886566798993, np.float64(-0.2792484980328058)]]</t>
+          <t>[[0.703911511299387, 0.2225745029427948, 0.6326228278022014, np.float64(0.11699209783378342)], [0.7307655366369769, 0.7716880973189929, 0.38742490919771944, np.float64(-0.6001522989671377)]]</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>[np.float64(0.9363190468129704), np.float64(0.7443841540821753), np.float64(0.9345324170899696), np.float64(0.375815736999234)]</t>
+          <t>[np.float64(0.3862103599640359), np.float64(0.8980629294574572), np.float64(0.7712071154438547), np.float64(0.808606293192417)]</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>0.4490307851759654</v>
+        <v>0.8174463343215972</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>[np.float64(0.07922960730520413), np.float64(0.07916801827971626), np.float64(0.07910566284541357), np.float64(0.0790425331642645), np.float64(0.07897862137510293), np.float64(0.07891391959579479), np.float64(0.0788484199254942), np.float64(0.07878211444698105), np.float64(0.07871499522910212), np.float64(0.07864705432928962), np.float64(0.07857828379618356), np.float64(0.07850867567235209), np.float64(0.0784382219970923), np.float64(0.07836691480935012), np.float64(0.07829474615071973), np.float64(0.07822170806855512), np.float64(0.07814779261917355), np.float64(0.07807299187117035), np.float64(0.07799729790882677), np.float64(0.07792070283562358), np.float64(0.077843198777857), np.float64(0.07776477788836153), np.float64(0.07768543235033276), np.float64(0.07760515438125339), np.float64(0.07752393623692305), np.float64(0.07744177021559595), np.float64(0.07735864866221309), np.float64(0.07727456397274525), np.float64(0.07718950859862973), np.float64(0.07710347505130814), np.float64(0.07701645590687188), np.float64(0.07692844381079351), np.float64(0.07683943148276141), np.float64(0.07674941172160338), np.float64(0.07665837741030973), np.float64(0.07656632152113776), np.float64(0.07647323712080294), np.float64(0.0763791173757652), np.float64(0.07628395555758474), np.float64(0.07618774504836012), np.float64(0.07609047934623735), np.float64(0.0759921520709934), np.float64(0.07589275696968614), np.float64(0.07579228792235843), np.float64(0.07569073894781017), np.float64(0.07558810420940672), np.float64(0.075484378020954), np.float64(0.07537955485259293), np.float64(0.07527362933674844), np.float64(0.07516659627409318), np.float64(0.0750584506395405), np.float64(0.07494918758825418), np.float64(0.07483880246166429), np.float64(0.07472729079348321), np.float64(0.07461464831571823), np.float64(0.07450087096467899), np.float64(0.0743859548869486), np.float64(0.07426989644533082), np.float64(0.07415269222477379), np.float64(0.07403433903822225), np.float64(0.07391483393243259), np.float64(0.07379417419372392), np.float64(0.07367235735364902), np.float64(0.07354938119457856), np.float64(0.0734252437552129), np.float64(0.0732999433359766), np.float64(0.07317347850430547), np.float64(0.07304584809981896), np.float64(0.07291705123935836), np.float64(0.07278708732188717), np.float64(0.07265595603324763), np.float64(0.07252365735074483), np.float64(0.07239019154758347), np.float64(0.07225555919711366), np.float64(0.0721197611768951), np.float64(0.07198279867256036), np.float64(0.07184467318148224), np.float64(0.07170538651622727), np.float64(0.07156494080777828), np.float64(0.0714233385085423), np.float64(0.07128058239509968), np.float64(0.07113667557073369), np.float64(0.07099162146768936), np.float64(0.07084542384917476), np.float64(0.07069808681110798), np.float64(0.0705496147835704), np.float64(0.07040001253200771), np.float64(0.07024928515813082), np.float64(0.07009743810053216), np.float64(0.06994447713501346), np.float64(0.06979040837461978), np.float64(0.06963523826936806), np.float64(0.06947897360567659), np.float64(0.06932162150550138), np.float64(0.06916318942515272), np.float64(0.06900368515382056), np.float64(0.06884311681178208), np.float64(0.0686814928483164), np.float64(0.0685188220393061), np.float64(0.06835511348454881), np.float64(0.06819037660475312), np.float64(0.06802462113825235), np.float64(0.06785785713741939), np.float64(0.06769009496479074), np.float64(0.06752134528891574), np.float64(0.06735161907991631), np.float64(0.06718092760478263), np.float64(0.06700928242239879), np.float64(0.06683669537831208), np.float64(0.06666317859925183), np.float64(0.06648874448740412), np.float64(0.06631340571444995), np.float64(0.06613717521538456), np.float64(0.06596006618211618), np.float64(0.06578209205685745), np.float64(0.06560326652532583), np.float64(0.06542360350975981), np.float64(0.0652431171617602), np.float64(0.06506182185496243), np.float64(0.06487973217756368), np.float64(0.06469686292471398), np.float64(0.06451322909076854), np.float64(0.06432884586142966), np.float64(0.06414372860579455), np.float64(0.0639578928682894), np.float64(0.06377135436054258), np.float64(0.06358412895318087), np.float64(0.06339623266757516), np.float64(0.06320768166754105), np.float64(0.06301849225099479), np.float64(0.06282868084161514), np.float64(0.06263826398047348), np.float64(0.06244725831767859), np.float64(0.062255680604033074), np.float64(0.06206354768271295), np.float64(0.06187087648097664), np.float64(0.061677684001942824), np.float64(0.06148398731639029), np.float64(0.0612898035546544), np.float64(0.06109514989858003), np.float64(0.060900043573557716), np.float64(0.0607045018406684), np.float64(0.06050854198891068), np.float64(0.06031218132753911), np.float64(0.060115437178527784), np.float64(0.05991832686914538), np.float64(0.05972086772467023), np.float64(0.05952307706122119), np.float64(0.05932497217874838), np.float64(0.05912657035415584), np.float64(0.05892788883457578), np.float64(0.05872894483080379), np.float64(0.05852975551088608), np.float64(0.058330337993862086), np.float64(0.05813070934368359), np.float64(0.05793088656328565), np.float64(0.05773088658883445), np.float64(0.05753072628414666), np.float64(0.05733042243527092), np.float64(0.05712999174524988), np.float64(0.05692945082904764), np.float64(0.05672881620864667), np.float64(0.05652810430833648), np.float64(0.056327331450148274), np.float64(0.0561265138494734), np.float64(0.05592566761085562), np.float64(0.055724808723938736), np.float64(0.05552395305959647), np.float64(0.05532311636621243), np.float64(0.05512231426613175), np.float64(0.05492156225227252), np.float64(0.054720875684886296), np.float64(0.05452026978848362), np.float64(0.054319759648908596), np.float64(0.05411936021056443), np.float64(0.05391908627377838), np.float64(0.05371895249232074), np.float64(0.05351897337104655), np.float64(0.05331916326369203), np.float64(0.05311953637079519), np.float64(0.05292010673773534), np.float64(0.05272088825291841), np.float64(0.05252189464607043), np.float64(0.05232313948665143), np.float64(0.05212463618237882), np.float64(0.05192639797788039), np.float64(0.05172843795342552), np.float64(0.051530769023795435), np.float64(0.05133340393721324), np.float64(0.05113635527440763), np.float64(0.050939635447737934), np.float64(0.05074325670043781), np.float64(0.05054723110591956), np.float64(0.05035157056717956), np.float64(0.050156286816276756), np.float64(0.0499613914138743), np.float64(0.049766895748891926), np.float64(0.049572811038171745), np.float64(0.049379148326272375), np.float64(0.04918591848528555)]</t>
+        </is>
       </c>
     </row>
     <row r="140">
@@ -6302,25 +6997,30 @@
         <v>100</v>
       </c>
       <c r="F140" t="n">
-        <v>0.01385897259058809</v>
+        <v>0.01378131152503599</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.3110020271166783), np.float64(0.3895705907648211), np.float64(0.5884172262389377), np.float64(0.5894287969937906)], [np.float64(0.7536384621607575), np.float64(0.21408135616667268), np.float64(0.8703075064759257), np.float64(0.2339364134226592)], [np.float64(0.08137729043345994), np.float64(0.8301189225957937), np.float64(0.28829440571306136), np.float64(0.02632088513509559)], [np.float64(0.5330890517284056), np.float64(0.8148216221263865), np.float64(1.0117922036171962), np.float64(0.2319717615382757)]], [[np.float64(-0.6989032830062306), np.float64(-0.7173225682787291), np.float64(-0.4332678224589705), np.float64(0.5905835844085888)], [np.float64(-0.03150647393684019), np.float64(-0.608347791879075), np.float64(-0.48185363118682445), np.float64(0.7517387215189889)], [np.float64(-0.8582626330500743), np.float64(-0.7720486070673188), np.float64(-0.7676519607316301), np.float64(0.1280733696125525)], [np.float64(-0.20944879596399463), np.float64(-0.899717643861325), np.float64(-0.03799142137238278), np.float64(0.2696183210018456)]]]</t>
+          <t>[[[np.float64(0.3574848533528798), np.float64(0.24607452381096356), np.float64(0.6318612689493512), np.float64(0.6350724199646169)], [np.float64(0.8552206880385359), np.float64(0.0706008384334729), np.float64(0.3403330969921255), np.float64(0.5137130296025851)], [np.float64(0.33712594329148543), np.float64(0.19731627489039053), np.float64(0.4885113487472998), np.float64(0.6989200764014043)], [np.float64(0.17711729665048204), np.float64(0.8478732492231885), np.float64(0.5621435786589901), np.float64(0.2065766965229283)]], [[np.float64(0.15256057202150047), np.float64(-0.7617436886229851), np.float64(-0.5526813495360172), np.float64(-0.02512510912898713)], [np.float64(-0.3346221646978115), np.float64(-0.6826933778459395), np.float64(-0.5435036036944393), np.float64(-0.8395810150361837)], [np.float64(-0.09923109187799638), np.float64(-0.5491796660643896), np.float64(-1.1439292730154735), np.float64(-0.5973900978671656)], [np.float64(-0.24820485224199884), np.float64(-0.552679205725434), np.float64(-0.5469798546420734), np.float64(-0.16715727823135584)]]]</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>[[0.5470183542581838, 0.12288183177633738, 0.4713881918274758, np.float64(0.4992614556145568)], [0.09589410926099062, 0.6094860387278612, 0.39311190852521527, np.float64(-0.0010879927445278119)]]</t>
+          <t>[[0.10411673962192913, 0.9831922327109858, 0.6268860973799203, np.float64(0.21217598258351644)], [0.6458614856739884, 0.6258390130933789, 0.7092795193129733, np.float64(-0.6271325908724424)]]</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>[np.float64(0.8037670322589807), np.float64(0.8996003197909265), np.float64(0.9377712014067484), np.float64(0.2359169599111363)]</t>
+          <t>[np.float64(0.6470691796584019), np.float64(0.7452771581599671), np.float64(0.986053798409126), np.float64(0.6025649690304995)]</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>0.3839650096130091</v>
+        <v>0.3672713466655894</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>[np.float64(0.0748982633330931), np.float64(0.07440762276505537), np.float64(0.07386484243335417), np.float64(0.07326559543031087), np.float64(0.07260541595763692), np.float64(0.07187975139322854), np.float64(0.07108403278308971), np.float64(0.07021376703360808), np.float64(0.06926465383699161), np.float64(0.06823272968559192), np.float64(0.06711454007477427), np.float64(0.06590733902467927), np.float64(0.06460931227774097), np.float64(0.06321981695148178), np.float64(0.061739626192194016), np.float64(0.0601711628356339), np.float64(0.05851870182815914), np.float64(0.056788518022532083), np.float64(0.05498895492011357), np.float64(0.05313039195236437), np.float64(0.05122509367090772), np.float64(0.04928693385923033), np.float64(0.04733100036706564), np.float64(0.04537310075720886), np.float64(0.0434292022664922), np.float64(0.04151484949354537), np.float64(0.039644607444766056), np.float64(0.03783157499834005), np.float64(0.036087004857503206), np.float64(0.03442005244024306), np.float64(0.032837660578817436), np.float64(0.0313445722208676), np.float64(0.029943451815004067), np.float64(0.028635088995598853), np.float64(0.027418655722777862), np.float64(0.02629198947507914), np.float64(0.025251879230477794), np.float64(0.02429433649874046), np.float64(0.023414839457758796), np.float64(0.022608543501995388), np.float64(0.021870455785825117), np.float64(0.021195574488664735), np.float64(0.020578995597353156), np.float64(0.020015991163524503), np.float64(0.019502063464190193), np.float64(0.019032979480922942), np.float64(0.018604789796887747), np.float64(0.018213835530247652), np.float64(0.017856746377502324), np.float64(0.017530432296488783), np.float64(0.017232070855409804), np.float64(0.016959091831327027), np.float64(0.016709160266013073), np.float64(0.016480158877832902), np.float64(0.016270170479834017), np.float64(0.01607746085868541), np.float64(0.015900462418251757), np.float64(0.015737758777307997), np.float64(0.015588070426094851), np.float64(0.015450241484776117), np.float64(0.01532322756317692), np.float64(0.015206084691269285), np.float64(0.015097959270318486), np.float64(0.01499807898261744), np.float64(0.014905744591438192), np.float64(0.014820322560428565), np.float64(0.014741238422100223), np.float64(0.01466797082726707), np.float64(0.014600046210858713), np.float64(0.014537034013532903), np.float64(0.014478542403168886), np.float64(0.014424214444856516), np.float64(0.014373724672575198), np.float64(0.014326776020135113), np.float64(0.014283097073114292), np.float64(0.014242439607310347), np.float64(0.014204576382900522), np.float64(0.014169299166600572), np.float64(0.014136416957194918), np.float64(0.014105754392421385), np.float64(0.014077150317572019), np.float64(0.014050456498387457), np.float64(0.014025536462693484), np.float64(0.014002264456987042), np.float64(0.013980524505685115), np.float64(0.013960209562117711), np.float64(0.013941220741584886), np.float64(0.013923466627825797), np.float64(0.013906862645262655), np.float64(0.013891330490175527), np.float64(0.01387679761473338), np.float64(0.01386319675850991), np.float64(0.013850465522619336), np.float64(0.013838545982237736), np.float64(0.013827384333640438), np.float64(0.013816930572368685), np.float64(0.013807138199458486), np.float64(0.01379796395302166), np.float64(0.013789367562726026), np.float64(0.01378131152503599)]</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -6344,25 +7044,30 @@
         <v>200</v>
       </c>
       <c r="F141" t="n">
-        <v>0.01305585695470582</v>
+        <v>0.01295497804409177</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.7394544189110158), np.float64(-0.005322917577948405), np.float64(0.6810229790669472), np.float64(0.35517750079275695)], [np.float64(0.465663371088415), np.float64(0.3790317396935234), np.float64(0.35590597250598477), np.float64(0.5445807886157192)], [np.float64(0.43149811876128363), np.float64(0.2885231481164262), np.float64(0.1388188242930294), np.float64(0.33235588158717333)], [np.float64(0.8857453661933685), np.float64(0.28136098036590873), np.float64(0.6993252280648431), np.float64(0.1507773501854463)]], [[np.float64(-0.16297489138365442), np.float64(0.06303250874850776), np.float64(-0.5276337016225477), np.float64(-1.0806522348822603)], [np.float64(0.2794401429936877), np.float64(0.6860325148386051), np.float64(-0.6650420588287552), np.float64(-0.6014781447251769)], [np.float64(-0.16202645373659755), np.float64(-0.04117343810221327), np.float64(-0.6133865995583129), np.float64(-0.5296436852761907)], [np.float64(0.20519209215659867), np.float64(-0.08349511181503151), np.float64(-0.6539274702968898), np.float64(-0.19858752673052485)]]]</t>
+          <t>[[[np.float64(0.4895899205484131), np.float64(-0.13440303756264313), np.float64(0.2227168934410132), np.float64(0.07667004915460311)], [np.float64(0.8349832877185916), np.float64(0.35359280701668944), np.float64(0.8408385786793349), np.float64(0.821920256554529)], [np.float64(0.7586619886270767), np.float64(-0.010602279928902862), np.float64(0.4993276406145001), np.float64(0.4829859030297043)], [np.float64(0.4870782111487619), np.float64(0.12280781124548631), np.float64(0.028932993118350965), np.float64(0.1468209148718134)]], [[np.float64(-0.16690945308880265), np.float64(-0.46546406542492086), np.float64(-0.44289183577979563), np.float64(0.3687849126688302)], [np.float64(-0.45036595250222483), np.float64(0.07541892682427984), np.float64(0.5272191363503044), np.float64(-0.16994049627006258)], [np.float64(-0.5110431510160158), np.float64(-0.2570832532823939), np.float64(0.3199099604593596), np.float64(0.2155083566986873)], [np.float64(-0.3920042484448341), np.float64(-0.2022820147021336), np.float64(-0.30202476381447024), np.float64(0.12220783013785388)]]]</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>[[0.9789103047394698, 0.6092786658504609, 0.5920165805339366, np.float64(0.3064997783807719)], [0.21709290235871137, 0.1833175780327727, 0.4329993778462826, np.float64(-0.36872666556905287)]]</t>
+          <t>[[0.28425252100860066, 0.4187918290331676, 0.6918301994555844, np.float64(-0.07265238825981324)], [0.1964509526553887, 0.6599047908693932, 0.5232069914284444, np.float64(-0.34049371491214003)]]</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>[np.float64(0.7818628562337839), np.float64(0.10584115930578832), np.float64(0.8371042855607354), np.float64(0.9768506447354063)]</t>
+          <t>[np.float64(0.70064457567569), np.float64(0.7594385579149749), np.float64(0.40898834414762575), np.float64(0.33820337761341646)]</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>0.3486550251526729</v>
+        <v>0.08704462757224191</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>[np.float64(0.044883246409727434), np.float64(0.044478822135890383), np.float64(0.04405958803981275), np.float64(0.04362561849112418), np.float64(0.04317704845066561), np.float64(0.0427140765347184), np.float64(0.04223696772722999), np.float64(0.04174605566810971), np.float64(0.04124174444460146), np.float64(0.04072450981349315), np.float64(0.04019489978468393), np.float64(0.03965353450154204), np.float64(0.03910110536089333), np.float64(0.03853837332529848), np.float64(0.0379661663925307), np.float64(0.03738537620178701), np.float64(0.03679695377289637), np.float64(0.036201904393000084), np.float64(0.03560128168486301), np.float64(0.03499618091102972), np.float64(0.03438773158801656), np.float64(0.033777089503862184), np.float64(0.03316542824989594), np.float64(0.03255393039257915), np.float64(0.03194377842343349), np.float64(0.03133614563339417), np.float64(0.030732187062296926), np.float64(0.0301330306742662), np.float64(0.0295397689053442), np.float64(0.028953450721165282), np.float64(0.02837507430985271), np.float64(0.0278055805193592), np.float64(0.02724584712962392), np.float64(0.026696684029062993), np.float64(0.02615882934272679), np.float64(0.02563294653690909), np.float64(0.025119622502765095), np.float64(0.024619366600418142), np.float64(0.02413261062571657), np.float64(0.02365970964480107), np.float64(0.023200943627304363), np.float64(0.022756519797698913), np.float64(0.022326575615929534), np.float64(0.021911182293311897), np.float64(0.02151034874724332), np.float64(0.021124025898677616), np.float64(0.020752111218949387), np.float64(0.020394453437272895), np.float64(0.02005085732657109), np.float64(0.01972108849280493), np.float64(0.019404878101418655), np.float64(0.019101927483386294), np.float64(0.018811912572370172), np.float64(0.018534488133479445), np.float64(0.01826929175267579), np.float64(0.018015947563955394), np.float64(0.017774069698833054), np.float64(0.017543265449287745), np.float64(0.017323138141214296), np.float64(0.017113289720376054), np.float64(0.01691332305715191), np.float64(0.016722843979705006), np.float64(0.01654146304800082), np.float64(0.0163687970830421), np.float64(0.016204470467198515), np.float64(0.016048116232389033), np.float64(0.015899376953343657), np.float64(0.01575790546324118), np.float64(0.015623365408806074), np.float64(0.015495431661446476), np.float64(0.015373790600353826), np.float64(0.015258140282630622), np.float64(0.01514819051462506), np.float64(0.015043662837633346), np.float64(0.014944290440124304), np.float64(0.014849818007570733), np.float64(0.01476000152002849), np.float64(0.014674608006528018), np.float64(0.014593415264444937), np.float64(0.01451621155111849), np.float64(0.014442795254110397), np.float64(0.014372974545739206), np.float64(0.014306567026806664), np.float64(0.01424339936373921), np.float64(0.014183306922799349), np.float64(0.014126133404468146), np.float64(0.01407173048060621), np.float64(0.014019957436561325), np.float64(0.013970680820040767), np.float64(0.013923774098160835), np.float64(0.01387911732385813), np.float64(0.013836596812543931), np.float64(0.013796104829644076), np.float64(0.013757539289535953), np.float64(0.013720803466144712), np.float64(0.013685805715392014), np.float64(0.013652459209516295), np.float64(0.013620681683218441), np.float64(0.01359039519148741), np.float64(0.013561525878900213), np.float64(0.013534003760130132), np.float64(0.013507762511361905), np.float64(0.013482739272269662), np.float64(0.013458874458197259), np.float64(0.013436111582169036), np.float64(0.013414397086320315), np.float64(0.013393680182371455), np.float64(0.013373912700729029), np.float64(0.013355048947834793), np.float64(0.013337045571358059), np.float64(0.013319861432845095), np.float64(0.013303457487464082), np.float64(0.013287796670470389), np.float64(0.013272843790035955), np.float64(0.01325856542612266), np.float64(0.013244929835044451), np.float64(0.013231906859427833), np.float64(0.013219467843263737), np.float64(0.013207585551762782), np.float64(0.013196234095743869), np.float64(0.013185388860297203), np.float64(0.013175026437475973), np.float64(0.013165124562790526), np.float64(0.013155662055265962), np.float64(0.013146618760883898), np.float64(0.013137975499180402), np.float64(0.0131297140128447), np.float64(0.013121816920113457), np.float64(0.013114267669822035), np.float64(0.01310705049893959), np.float64(0.013100150392451286), np.float64(0.013093553045446365), np.float64(0.013087244827280175), np.float64(0.013081212747694557), np.float64(0.013075444424774816), np.float64(0.013069928054647602), np.float64(0.01306465238279998), np.float64(0.013059606676947793), np.float64(0.013054780701339244), np.float64(0.013050164692436368), np.float64(0.013045749335872416), np.float64(0.013041525744625507), np.float64(0.013037485438338322), np.float64(0.01303362032370629), np.float64(0.013029922675894305), np.float64(0.013026385120908228), np.float64(0.013023000618862947), np.float64(0.013019762448123742), np.float64(0.01301666419024149), np.float64(0.013013699715651068), np.float64(0.01301086317009725), np.float64(0.01300814896173732), np.float64(0.013005551748889956), np.float64(0.013003066428387715), np.float64(0.01300068812451315), np.float64(0.012998412178477785), np.float64(0.012996234138411574), np.float64(0.012994149749848851), np.float64(0.012992154946677962), np.float64(0.012990245842516174), np.float64(0.012988418722517318), np.float64(0.012986670035561206), np.float64(0.01298499638682606), np.float64(0.012983394530704554), np.float64(0.012981861364064198), np.float64(0.01298039391982559), np.float64(0.012978989360838062), np.float64(0.01297764497405415), np.float64(0.012976358164961226), np.float64(0.012975126452288176), np.float64(0.012973947462950972), np.float64(0.012972818927227767), np.float64(0.012971738674173103), np.float64(0.012970704627224374), np.float64(0.012969714800021296), np.float64(0.012968767292418013), np.float64(0.012967860286667205), np.float64(0.01296699204379575), np.float64(0.012966160900125452), np.float64(0.012965365263965536), np.float64(0.01296460361244876), np.float64(0.012963874488511192), np.float64(0.012963176498008985), np.float64(0.012962508306965175), np.float64(0.012961868638939791), np.float64(0.012961256272514349), np.float64(0.012960670038893339), np.float64(0.012960108819610008), np.float64(0.012959571544337023), np.float64(0.012959057188791204), np.float64(0.012958564772729948), np.float64(0.012958093358047292), np.float64(0.012957642046931553), np.float64(0.01295720998013369), np.float64(0.012956796335287865), np.float64(0.012956400325313696), np.float64(0.012956021196898615), np.float64(0.012955658229030362), np.float64(0.012955310731604925), np.float64(0.01295497804409177)]</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -6386,25 +7091,30 @@
         <v>100</v>
       </c>
       <c r="F142" t="n">
-        <v>0.009732497859896725</v>
+        <v>0.01427199204996059</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.9287346138580468), np.float64(0.8865193847093862), np.float64(0.41716333232039193), np.float64(0.1975142250747886)], [np.float64(0.8974260006206685), np.float64(0.9063809121683868), np.float64(0.8561123114327154), np.float64(0.5240749148990435)], [np.float64(0.08508763015517708), np.float64(0.7889045791028726), np.float64(0.014261292500331904), np.float64(0.34354101613093907)], [np.float64(0.6190656426990608), np.float64(0.13453100112019709), np.float64(0.02412437515803101), np.float64(0.4096904202151834)]], [[np.float64(0.5373528100224436), np.float64(0.09511054835516075), np.float64(0.45198738770247704), np.float64(0.4373357689525109)], [np.float64(0.17756828635944388), np.float64(0.3355613179192345), np.float64(-0.1730973135566201), np.float64(0.7298306912337859)], [np.float64(0.5815235977623568), np.float64(0.8911380041192953), np.float64(-0.17514877127947065), np.float64(0.1342181717018619)], [np.float64(0.03511231577494904), np.float64(0.8822167014979603), np.float64(0.34161631969558315), np.float64(0.5981134499400845)]]]</t>
+          <t>[[[np.float64(0.23293874883182497), np.float64(0.18437661310930423), np.float64(0.3521822625564615), np.float64(0.705141824227476)], [np.float64(0.7789466554275345), np.float64(0.2251134863208861), np.float64(0.356924185411924), np.float64(0.8992790839662743)], [np.float64(0.258812234868734), np.float64(0.27769016018168624), np.float64(0.6678911677288185), np.float64(0.7800226644394774)], [np.float64(0.930090876819138), np.float64(0.7937265645079662), np.float64(0.31401849220798067), np.float64(0.39783827339401745)]], [[np.float64(0.7349777004757326), np.float64(0.21451999343750083), np.float64(-0.4530961360427744), np.float64(-0.25122496778694986)], [np.float64(0.11352493981334058), np.float64(-0.15099345511729761), np.float64(0.20816345421622506), np.float64(-0.2174639888544895)], [np.float64(0.16595264006850519), np.float64(0.023264691905912335), np.float64(0.10552779427523135), np.float64(0.1907798138292528)], [np.float64(0.20186732211910619), np.float64(-0.2515264456182876), np.float64(-0.45542420463105476), np.float64(0.12138525386580234)]]]</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>[[0.27947959216669627, 0.5595790972298365, 0.7529080150771571, np.float64(0.3574116274934237)], [0.5023691252644187, 0.06767472311215539, 0.02290796031778386, np.float64(0.04792094247539806)]]</t>
+          <t>[[0.7440385779764161, 0.8817407930891147, 0.25167329045779085, np.float64(0.004289546867863172)], [0.886048255908489, 0.8820710707591132, 0.9903956949134807, np.float64(0.25615004366607913)]]</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>[np.float64(0.26597649499849546), np.float64(0.23144721605116916), np.float64(0.7701415790476708), np.float64(0.11087798487649853)]</t>
+          <t>[np.float64(0.3115807691834987), np.float64(0.27665045899243473), np.float64(0.8293669067409996), np.float64(0.6189535061793878)]</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>0.09375948524572296</v>
+        <v>0.1168372051305693</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>[np.float64(0.08193289374341417), np.float64(0.08186919583304304), np.float64(0.08179892415896274), np.float64(0.08172123346035844), np.float64(0.08163515494425955), np.float64(0.08153957604819898), np.float64(0.08143321632912268), np.float64(0.08131459858165145), np.float64(0.08118201404268498), np.float64(0.08103348021677934), np.float64(0.08086668943141709), np.float64(0.08067894566739177), np.float64(0.08046708645742442), np.float64(0.08022738563743641), np.float64(0.07995543137478625), np.float64(0.07964597205481849), np.float64(0.0792927201001752), np.float64(0.07888810037879941), np.float64(0.07842292519443642), np.float64(0.07788597151948336), np.float64(0.0772634276115182), np.float64(0.07653816494195778), np.float64(0.07568877722807671), np.float64(0.07468831209703215), np.float64(0.07350260620416414), np.float64(0.07208813244194148), np.float64(0.07038930651547769), np.float64(0.06833534736073416), np.float64(0.06583719421036047), np.float64(0.06278597152308174), np.float64(0.0590566461594154), np.float64(0.054524610203413565), np.float64(0.04910881795539446), np.float64(0.042857507673409394), np.float64(0.03607206033012604), np.float64(0.0293902517839177), np.float64(0.023654219081874133), np.float64(0.019489692334729983), np.float64(0.016937840346720072), np.float64(0.015570777629169395), np.float64(0.01489348894725545), np.float64(0.014568289785676439), np.float64(0.01441332067543918), np.float64(0.014339469321959607), np.float64(0.014304230748553583), np.float64(0.014287400526937485), np.float64(0.014279357933110753), np.float64(0.014275513575315367), np.float64(0.014273675718697735), np.float64(0.014272797042806665), np.float64(0.01427237693584308), np.float64(0.014272176073802227), np.float64(0.014272080036708391), np.float64(0.014272034118835342), np.float64(0.014272012164252506), np.float64(0.014272001667159018), np.float64(0.014271996648205443), np.float64(0.014271994248499831), np.float64(0.014271993101140655), np.float64(0.014271992552548532), np.float64(0.014271992290249887), np.float64(0.014271992164852842), np.float64(0.014271992104884655), np.float64(0.014271992076209215), np.float64(0.0142719920624952), np.float64(0.01427199205594424), np.float64(0.014271992052812512), np.float64(0.014271992051321916), np.float64(0.014271992050603432), np.float64(0.014271992050265114), np.float64(0.01427199205009355), np.float64(0.014271992050026307), np.float64(0.014271992049979934), np.float64(0.014271992049970218), np.float64(0.014271992049967142), np.float64(0.014271992049964134), np.float64(0.014271992049961007), np.float64(0.014271992049960996), np.float64(0.014271992049960974), np.float64(0.014271992049960961), np.float64(0.014271992049960946), np.float64(0.01427199204996092), np.float64(0.01427199204996089), np.float64(0.01427199204996087), np.float64(0.014271992049960856), np.float64(0.014271992049960835), np.float64(0.014271992049960812), np.float64(0.014271992049960802), np.float64(0.01427199204996078), np.float64(0.014271992049960758), np.float64(0.014271992049960752), np.float64(0.014271992049960736), np.float64(0.014271992049960713), np.float64(0.01427199204996069), np.float64(0.014271992049960668), np.float64(0.014271992049960654), np.float64(0.014271992049960639), np.float64(0.014271992049960621), np.float64(0.014271992049960606), np.float64(0.014271992049960588)]</t>
+        </is>
       </c>
     </row>
     <row r="143">
@@ -6428,25 +7138,30 @@
         <v>200</v>
       </c>
       <c r="F143" t="n">
-        <v>0.01210905494220977</v>
+        <v>0.01159857487753392</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.7897122095154433), np.float64(0.3625123915857751), np.float64(0.6440082799246822), np.float64(0.24800140675489163)], [np.float64(0.04721913654885755), np.float64(0.435835383026825), np.float64(0.6546577209454474), np.float64(0.6991584674758908)], [np.float64(0.6584180561907172), np.float64(0.793260671839729), np.float64(0.4187409726156633), np.float64(0.20409249437236265)], [np.float64(0.29861904030839626), np.float64(0.6141453164660111), np.float64(0.47415812970430987), np.float64(0.9352086875562899)]], [[np.float64(0.7862380365629179), np.float64(0.020404484417409094), np.float64(0.7517198143953956), np.float64(-0.1843710234576848)], [np.float64(0.38011646662288057), np.float64(0.41674887165961016), np.float64(0.13015130782174664), np.float64(0.2027580325999227)], [np.float64(0.8471169787771687), np.float64(-0.058714169552545666), np.float64(0.13777959541811408), np.float64(-0.17257345805106425)], [np.float64(0.07449533246040355), np.float64(0.2815005484029705), np.float64(0.4790940955494471), np.float64(-0.13954910648109956)]]]</t>
+          <t>[[[np.float64(-0.08352440194539089), np.float64(-0.17034302643175836), np.float64(0.3231060629941842), np.float64(0.053063044634054105)], [np.float64(0.5197525449633392), np.float64(0.13867811058354704), np.float64(0.6063629492448994), np.float64(0.29326742298631203)], [np.float64(0.5726558949088769), np.float64(0.43780391505905353), np.float64(0.9053847635177297), np.float64(0.4131643466198602)], [np.float64(0.8374687499131169), np.float64(-0.06096741923829253), np.float64(0.043579204624993415), np.float64(0.475882950665223)]], [[np.float64(0.1571009318709905), np.float64(-0.16417008711021053), np.float64(0.5279616412246967), np.float64(-0.29132947244784707)], [np.float64(-0.13329318362225107), np.float64(-0.06615588547023586), np.float64(0.12616508662296905), np.float64(0.6392747406438289)], [np.float64(0.006129403284710488), np.float64(-0.30468009295606924), np.float64(-0.047305622509693876), np.float64(-0.3255813193156576)], [np.float64(0.088105204204789), np.float64(0.5894427265978793), np.float64(0.06690584745415552), np.float64(0.2094072853455155)]]]</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>[[0.4493060715239844, 0.6641888756993216, 0.887700006961164, np.float64(0.18783598764030504)], [0.47589461588265014, 0.7415275302070012, 0.6193071720982201, np.float64(0.03351953048741675)]]</t>
+          <t>[[0.352609395936058, 0.14328598224153577, 0.1154209485887373, np.float64(0.1976252817879928)], [0.7975199477462781, 0.08567001741832736, 0.8812318805351161, np.float64(-0.28857759150111917)]]</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>[np.float64(0.10457641229912853), np.float64(0.6101684250827976), np.float64(0.40468706190665316), np.float64(0.2649765720945041)]</t>
+          <t>[np.float64(0.4436583701656586), np.float64(0.48409138762841275), np.float64(0.5564791538788612), np.float64(0.5298787633816199)]</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>0.004192426226663802</v>
+        <v>0.3391712973193893</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>[np.float64(0.08415679474295315), np.float64(0.0837941729868584), np.float64(0.083385419864662), np.float64(0.08292328590445977), np.float64(0.08239907716596613), np.float64(0.08180230485185927), np.float64(0.0811202396430878), np.float64(0.0803373456216068), np.float64(0.07943456535708847), np.float64(0.0783884286622586), np.float64(0.07716996957977745), np.float64(0.07574347385500756), np.float64(0.07406517121470159), np.float64(0.07208218605137601), np.float64(0.06973245197262681), np.float64(0.06694698227266374), np.float64(0.06365687908763998), np.float64(0.05980833056159722), np.float64(0.05538806518647808), np.float64(0.0504564229388479), np.float64(0.04517384384046904), np.float64(0.03979653152459127), np.float64(0.034626242337549955), np.float64(0.029932319103739575), np.float64(0.02588920920106408), np.float64(0.02255852736074183), np.float64(0.01991023649753091), np.float64(0.01785959752946847), np.float64(0.016300833969640032), np.float64(0.015129735596731059), np.float64(0.014255311702472717), np.float64(0.013603678865904282), np.float64(0.013117548012698406), np.float64(0.0127537727132372), np.float64(0.012480416632479669), np.float64(0.012274049951497067), np.float64(0.012117531754887147), np.float64(0.011998304251845227), np.float64(0.011907129001451147), np.float64(0.011837170403782364), np.float64(0.011783338092647193), np.float64(0.011741816643435625), np.float64(0.011709728626051349), np.float64(0.01168489192787773), np.float64(0.011665643690039609), np.float64(0.011650711502703137), np.float64(0.011639118362145508), np.float64(0.01163011195818669), np.float64(0.011623111662186823), np.float64(0.011617668516273915), np.float64(0.011613434858930207), np.float64(0.011610141152584838), np.float64(0.011607578233358092), np.float64(0.011605583668639365), np.float64(0.011604031243529187), np.float64(0.011602822840940774), np.float64(0.011601882159367164), np.float64(0.011601149845911287), np.float64(0.011600579721538471), np.float64(0.01160013585091257), np.float64(0.011599790266398074), np.float64(0.011599521199201776), np.float64(0.011599311704063944), np.float64(0.011599148589638758), np.float64(0.01159902158638288), np.float64(0.011598922699080446), np.float64(0.011598845702994834), np.float64(0.011598785751682744), np.float64(0.011598739071743507), np.float64(0.011598702725215366), np.float64(0.011598674424555977), np.float64(0.011598652388651607), np.float64(0.011598635230681097), np.float64(0.011598621870842036), np.float64(0.01159861146836337), np.float64(0.011598603368594201), np.float64(0.011598597061800095), np.float64(0.011598592151077483), np.float64(0.011598588327397956), np.float64(0.0115985853501309), np.float64(0.011598583031911603), np.float64(0.01159858122685257), np.float64(0.011598579821360934), np.float64(0.011598578726988485), np.float64(0.011598577874872545), np.float64(0.011598577211380065), np.float64(0.011598576694757627), np.float64(0.01159857629249165), np.float64(0.01159857597927262), np.float64(0.01159857573538641), np.float64(0.011598575545488559), np.float64(0.011598575397629846), np.float64(0.011598575282496604), np.float64(0.011598575192847824), np.float64(0.011598575123041964), np.float64(0.011598575068688603), np.float64(0.011598575026367729), np.float64(0.011598574993420149), np.float64(0.011598574967761534), np.float64(0.011598574947786202), np.float64(0.01159857493223102), np.float64(0.011598574920117092), np.float64(0.011598574910693047), np.float64(0.011598574903349528), np.float64(0.011598574897634543), np.float64(0.011598574893182821), np.float64(0.011598574889716093), np.float64(0.011598574887017772), np.float64(0.011598574884916996), np.float64(0.011598574883281894), np.float64(0.0115985748820103), np.float64(0.011598574881018252), np.float64(0.011598574880239866), np.float64(0.011598574879642061), np.float64(0.011598574879171212), np.float64(0.011598574878798536), np.float64(0.011598574878512484), np.float64(0.011598574878293261), np.float64(0.01159857487811676), np.float64(0.01159857487798626), np.float64(0.011598574877887027), np.float64(0.011598574877805488), np.float64(0.011598574877738915), np.float64(0.011598574877693595), np.float64(0.011598574877661208), np.float64(0.011598574877630578), np.float64(0.011598574877603357), np.float64(0.011598574877589122), np.float64(0.01159857487758154), np.float64(0.011598574877575948), np.float64(0.011598574877570378), np.float64(0.011598574877566879), np.float64(0.011598574877563468), np.float64(0.011598574877560717), np.float64(0.011598574877560127), np.float64(0.011598574877559472), np.float64(0.011598574877558863), np.float64(0.01159857487755825), np.float64(0.011598574877557666), np.float64(0.011598574877557047), np.float64(0.011598574877556465), np.float64(0.011598574877555872), np.float64(0.011598574877555282), np.float64(0.011598574877554682), np.float64(0.011598574877554063), np.float64(0.011598574877553528), np.float64(0.011598574877552953), np.float64(0.011598574877552373), np.float64(0.011598574877551827), np.float64(0.011598574877551273), np.float64(0.011598574877550727), np.float64(0.011598574877550198), np.float64(0.011598574877549677), np.float64(0.01159857487754913), np.float64(0.011598574877548633), np.float64(0.011598574877548125), np.float64(0.011598574877547582), np.float64(0.011598574877547103), np.float64(0.011598574877546602), np.float64(0.011598574877546121), np.float64(0.011598574877545625), np.float64(0.011598574877545167), np.float64(0.011598574877544688), np.float64(0.01159857487754423), np.float64(0.011598574877543788), np.float64(0.011598574877543353), np.float64(0.011598574877542922), np.float64(0.011598574877542534), np.float64(0.011598574877542142), np.float64(0.011598574877541772), np.float64(0.01159857487754132), np.float64(0.011598574877540962), np.float64(0.011598574877540563), np.float64(0.011598574877540159), np.float64(0.011598574877539798), np.float64(0.011598574877539508), np.float64(0.011598574877539129), np.float64(0.011598574877538757), np.float64(0.011598574877538386), np.float64(0.011598574877538083), np.float64(0.011598574877537743), np.float64(0.011598574877537468), np.float64(0.011598574877537146), np.float64(0.01159857487753684), np.float64(0.011598574877536539), np.float64(0.011598574877536285), np.float64(0.011598574877536029), np.float64(0.011598574877535718), np.float64(0.011598574877535415), np.float64(0.011598574877535121), np.float64(0.011598574877534988), np.float64(0.011598574877534873), np.float64(0.01159857487753475), np.float64(0.011598574877534634), np.float64(0.011598574877534523), np.float64(0.011598574877534379), np.float64(0.01159857487753425), np.float64(0.01159857487753413), np.float64(0.011598574877534008), np.float64(0.01159857487753392)]</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -6470,25 +7185,30 @@
         <v>100</v>
       </c>
       <c r="F144" t="n">
-        <v>0.01278971185246275</v>
+        <v>0.01110721157999004</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.15825568671174747), np.float64(0.0276013188211453), np.float64(0.2974391204352306), np.float64(0.05819372552525289)], [np.float64(0.45399179001895706), np.float64(0.3832037653399455), np.float64(-0.413250546206681), np.float64(0.5856409310645333)], [np.float64(0.6232829285644347), np.float64(0.28818688047014074), np.float64(-0.3000215016844477), np.float64(-0.22610951973140872)], [np.float64(0.1323625002002285), np.float64(0.8879158370757906), np.float64(0.2428092005582868), np.float64(0.08666246113309485)]], [[np.float64(0.7136119182377031), np.float64(-0.31386568118858194), np.float64(0.1999253021878416), np.float64(-0.5305580931592896)], [np.float64(0.19551231819522888), np.float64(-0.31039246584939056), np.float64(0.7643960634617198), np.float64(-0.24550936613325816)], [np.float64(0.3200754133942768), np.float64(0.5029367505307156), np.float64(-0.10754924567103773), np.float64(0.3987842953017181)], [np.float64(0.29460924450490134), np.float64(0.3056618206693978), np.float64(0.401015333467764), np.float64(-0.07550066271791889)]]]</t>
+          <t>[[[np.float64(0.9252077790999627), np.float64(-0.0314906219400074), np.float64(0.4725534841051515), np.float64(-0.035978318021304925)], [np.float64(0.4551151910749446), np.float64(0.23527132434115708), np.float64(0.6789591487844704), np.float64(0.0391775794055955)], [np.float64(0.25611205889935185), np.float64(-0.08745977555709634), np.float64(0.5077344534176951), np.float64(0.12852955348185507)], [np.float64(0.8743395836639216), np.float64(0.3019389331264405), np.float64(0.1349500067530744), np.float64(0.05880662812914877)]], [[np.float64(-0.38798274340081534), np.float64(-0.24275459262339733), np.float64(0.07207069244083969), np.float64(-0.4483105608178254)], [np.float64(0.5889842579761445), np.float64(0.5093543248014974), np.float64(0.05705261805653232), np.float64(-0.37100452766677794)], [np.float64(0.14963580830689477), np.float64(0.0947688953167023), np.float64(0.3776489470083112), np.float64(-0.6785814678290865)], [np.float64(0.3408842155387648), np.float64(-0.1302957024388557), np.float64(0.3762871907122948), np.float64(0.10456172669568788)]]]</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>[[0.7051507398080106, 0.6706885188104347, 0.25858556988577364, np.float64(0.3522890034631986)], [0.7357709245989534, 0.7381852462866682, 0.4543805158910186, np.float64(-0.032917833312107146)]]</t>
+          <t>[[0.46465202830533103, 0.30829442214284675, 0.0025294628885368375, np.float64(-0.31258141280444546)], [0.8820433124559233, 0.6472263513325834, 0.2660601005479527, np.float64(-0.49321419460642035)]]</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>[np.float64(0.1600503300996589), np.float64(0.4960258124647709), np.float64(0.2591626138815798), np.float64(0.6944964575858547)]</t>
+          <t>[np.float64(0.6500410462726692), np.float64(0.6177265573942382), np.float64(0.17224327501373687), np.float64(0.6826775161272653)]</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>0.8247318879839186</v>
+        <v>0.6768558886438946</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>[np.float64(0.09135671464690627), np.float64(0.0829650536237033), np.float64(0.04330316651803101), np.float64(0.02373735336731901), np.float64(0.013550680818523989), np.float64(0.011107211579990043), np.float64(0.011301372982528105), np.float64(0.011252516028058093), np.float64(0.011263862763403522), np.float64(0.011261173997940521), np.float64(0.011261808166541409), np.float64(0.011261658426631634), np.float64(0.01126169377398469), np.float64(0.011261685429437002), np.float64(0.011261687399326793), np.float64(0.011261686934296801), np.float64(0.011261687044077616), np.float64(0.011261687018162202), np.float64(0.01126168702428221), np.float64(0.011261687022837684), np.float64(0.011261687023179057), np.float64(0.011261687023092985), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397), np.float64(0.011261687023112397)]</t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -6512,25 +7232,30 @@
         <v>200</v>
       </c>
       <c r="F145" t="n">
-        <v>0.01088236686307455</v>
+        <v>0.01280824010025424</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[[[np.float64(0.42149438179352505), np.float64(0.27705620092963473), np.float64(0.05553522493740474), np.float64(-0.1324262727384053)], [np.float64(-0.24496008434067149), np.float64(0.8609857797275707), np.float64(0.8170633475548529), np.float64(-0.06229807243410301)], [np.float64(0.5768844799500197), np.float64(0.143509365332652), np.float64(0.20004398115025532), np.float64(-0.2919317855703614)], [np.float64(0.36883189306340475), np.float64(0.19673611168428817), np.float64(0.2895415749272649), np.float64(0.6849118195337023)]], [[np.float64(0.040976869712963035), np.float64(0.49334371187379955), np.float64(0.2782202409511056), np.float64(0.526097325056661)], [np.float64(0.46811354094373336), np.float64(0.45641341847168054), np.float64(-0.4165001051807612), np.float64(-0.19178960731225772)], [np.float64(0.46340108403183833), np.float64(0.5534334458931193), np.float64(-0.19162754763044212), np.float64(-0.010483052910394334)], [np.float64(0.22512712669961507), np.float64(0.5303707364052539), np.float64(0.1238776174780296), np.float64(0.2983676175180263)]]]</t>
+          <t>[[[np.float64(0.5884177106211674), np.float64(0.7526901280029467), np.float64(0.3179090956140441), np.float64(0.25388243865991494)], [np.float64(-0.015150075254762157), np.float64(0.5269791326333735), np.float64(0.19953076040721057), np.float64(-0.08726572265765473)], [np.float64(0.7213506889465623), np.float64(0.27333863640712197), np.float64(0.7107677280732108), np.float64(0.6788428992867964)], [np.float64(0.08355671891833599), np.float64(0.7150277536773771), np.float64(0.7132922124906957), np.float64(0.4192166817501813)]], [[np.float64(0.6989997238421328), np.float64(-0.48239782158984285), np.float64(0.6317216915832132), np.float64(0.3321643942649658)], [np.float64(0.25087737483953965), np.float64(-0.6063320965161026), np.float64(0.4865624811471418), np.float64(0.5283867521249718)], [np.float64(0.873646772961252), np.float64(-0.21446141820744652), np.float64(0.5415173884129708), np.float64(0.2251346280666336)], [np.float64(0.7554559478636226), np.float64(-0.39196937094588735), np.float64(0.16416827943580892), np.float64(0.06221991502211138)]]]</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>[[0.4208996676103819, 0.4723413427233246, 0.7750022399709868, np.float64(0.16503601987088307)], [0.7377464370890383, 0.8702205585760288, 0.786612628512955, np.float64(0.5934232392991808)]]</t>
+          <t>[[0.8134440239461054, 0.5354817870484853, 0.7518613062396092, np.float64(0.24764776964194776)], [0.15628758475106663, 0.6918344083848331, 0.15928524745824824, np.float64(0.5909298088386212)]]</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>[np.float64(0.18572645442640162), np.float64(0.19042711142204302), np.float64(0.8800173710683107), np.float64(0.2501659463183907)]</t>
+          <t>[np.float64(0.05379848313354666), np.float64(0.8348429209053686), np.float64(0.4699771160073765), np.float64(0.5838206331550686)]</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>0.04245785821798915</v>
+        <v>0.498279107973125</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>[np.float64(0.08844172461076831), np.float64(0.08657281295116775), np.float64(0.07568966432798684), np.float64(0.013089806628212092), np.float64(0.022035110110853354), np.float64(0.01476753475146695), np.float64(0.04177967155043557), np.float64(0.020974881374486356), np.float64(0.037847583432405206), np.float64(0.012808240100254237), np.float64(0.017275770383255683), np.float64(0.014134367457351088), np.float64(0.015153454018162628), np.float64(0.014774050480049936), np.float64(0.014907511568268616), np.float64(0.01485967090983086), np.float64(0.014876702411003473), np.float64(0.014870624349693138), np.float64(0.014872791551602883), np.float64(0.014872018571555174), np.float64(0.014872294241336525), np.float64(0.01487219592466275), np.float64(0.014872230988479295), np.float64(0.014872218483198125), np.float64(0.014872222943114025), np.float64(0.014872221352522984), np.float64(0.014872221919781463), np.float64(0.014872221717485996), np.float64(0.014872221789626253), np.float64(0.014872221763898791), np.float64(0.014872221773074762), np.float64(0.014872221769799654), np.float64(0.014872221770969456), np.float64(0.014872221770552094), np.float64(0.014872221770699828), np.float64(0.014872221770649454), np.float64(0.014872221770665573), np.float64(0.014872221770665463), np.float64(0.014872221770665378), np.float64(0.014872221770665293), np.float64(0.014872221770665188), np.float64(0.014872221770665118), np.float64(0.014872221770665122), np.float64(0.014872221770665122), np.float64(0.014872221770665122), np.float64(0.014872221770665118), np.float64(0.014872221770665118), np.float64(0.014872221770665118), np.float64(0.014872221770665118), np.float64(0.014872221770665116), np.float64(0.014872221770665116), np.float64(0.014872221770665116), np.float64(0.014872221770665116), np.float64(0.014872221770665116), np.float64(0.014872221770665116), np.float64(0.014872221770665116), np.float64(0.014872221770665116), np.float64(0.014872221770665116), np.float64(0.014872221770665115), np.float64(0.014872221770665115), np.float64(0.014872221770665115), np.float64(0.014872221770665111), np.float64(0.014872221770665115), np.float64(0.014872221770665111), np.float64(0.014872221770665111), np.float64(0.014872221770665111), np.float64(0.014872221770665111), np.float64(0.01487222177066511), np.float64(0.014872221770665111), np.float64(0.01487222177066511), np.float64(0.01487222177066511), np.float64(0.01487222177066511), np.float64(0.01487222177066511), np.float64(0.01487222177066511), np.float64(0.014872221770665106), np.float64(0.014872221770665104), np.float64(0.014872221770665104), np.float64(0.014872221770665104), np.float64(0.014872221770665101), np.float64(0.014872221770665101), np.float64(0.014872221770665101), np.float64(0.014872221770665101), np.float64(0.014872221770665101), np.float64(0.014872221770665101), np.float64(0.014872221770665101), np.float64(0.014872221770665096), np.float64(0.014872221770665094), np.float64(0.014872221770665094), np.float64(0.014872221770665094), np.float64(0.014872221770665094), np.float64(0.014872221770665094), np.float64(0.014872221770665094), np.float64(0.014872221770665094), np.float64(0.014872221770665094), np.float64(0.014872221770665096), np.float64(0.014872221770665096), np.float64(0.014872221770665092), np.float64(0.014872221770665092), np.float64(0.014872221770665094), np.float64(0.014872221770665094), np.float64(0.014872221770665094), np.float64(0.014872221770665092), np.float64(0.014872221770665092), np.float64(0.014872221770665089), np.float64(0.014872221770665089), np.float64(0.014872221770665089), np.float64(0.014872221770665089), np.float64(0.014872221770665089), np.float64(0.014872221770665089), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665087), np.float64(0.014872221770665084), np.float64(0.014872221770665084), np.float64(0.014872221770665084), np.float64(0.014872221770665084), np.float64(0.014872221770665082), np.float64(0.014872221770665078), np.float64(0.014872221770665082), np.float64(0.014872221770665078), np.float64(0.014872221770665078), np.float64(0.014872221770665082), np.float64(0.014872221770665082), np.float64(0.014872221770665082), np.float64(0.014872221770665078), np.float64(0.014872221770665078), np.float64(0.014872221770665078), np.float64(0.014872221770665078), np.float64(0.014872221770665078), np.float64(0.014872221770665082), np.float64(0.014872221770665082), np.float64(0.014872221770665078), np.float64(0.014872221770665078), np.float64(0.014872221770665078), np.float64(0.014872221770665078), np.float64(0.014872221770665078), np.float64(0.014872221770665077), np.float64(0.014872221770665077), np.float64(0.014872221770665077), np.float64(0.014872221770665077), np.float64(0.014872221770665077), np.float64(0.014872221770665077), np.float64(0.014872221770665071), np.float64(0.014872221770665071), np.float64(0.014872221770665077), np.float64(0.014872221770665077), np.float64(0.014872221770665071), np.float64(0.014872221770665071), np.float64(0.014872221770665071), np.float64(0.014872221770665071), np.float64(0.014872221770665071), np.float64(0.014872221770665071), np.float64(0.014872221770665071), np.float64(0.014872221770665066), np.float64(0.014872221770665066), np.float64(0.014872221770665066), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.014872221770665064), np.float64(0.01487222177066506), np.float64(0.01487222177066506), np.float64(0.01487222177066506)]</t>
+        </is>
       </c>
     </row>
   </sheetData>
